--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$323</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="419">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1164,6 +1164,33 @@
   </si>
   <si>
     <t>DD258203  DD258291</t>
+  </si>
+  <si>
+    <t>指纹头松动</t>
+  </si>
+  <si>
+    <t>DD258291</t>
+  </si>
+  <si>
+    <t>后面板卡扣断裂</t>
+  </si>
+  <si>
+    <t>DD247381</t>
+  </si>
+  <si>
+    <t>DD257760</t>
+  </si>
+  <si>
+    <t>闷盖打不开</t>
+  </si>
+  <si>
+    <t>DD259039</t>
+  </si>
+  <si>
+    <t>E16-J</t>
+  </si>
+  <si>
+    <t>批量实物老LOGO，订单需求新LOGO</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -1270,7 +1297,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,6 +1332,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1937,16 +1970,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1955,119 +1985,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2448,14 +2481,51 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3508,8 +3578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE309" totalsRowShown="0">
-  <autoFilter ref="A2:AE309"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE323" totalsRowShown="0">
+  <autoFilter ref="A2:AE323"/>
   <tableColumns count="31">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="管理NO"/>
@@ -3799,12 +3869,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE309"/>
+  <dimension ref="A1:AE323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D309" sqref="D309"/>
+      <selection pane="bottomLeft" activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4014,7 +4084,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f t="shared" ref="T3:T27" si="0">SUM(O3:S3)</f>
+        <f>SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -4043,7 +4113,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f t="shared" ref="E4:E67" si="1">WEEKNUM(C4,1)</f>
+        <f>WEEKNUM(C4,1)</f>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -4077,7 +4147,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O4:S4)</f>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -4106,7 +4176,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C5,1)</f>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -4140,7 +4210,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O5:S5)</f>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -4169,7 +4239,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C6,1)</f>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -4203,7 +4273,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O6:S6)</f>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -4232,7 +4302,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C7,1)</f>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -4270,7 +4340,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O7:S7)</f>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -4311,7 +4381,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C8,1)</f>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -4341,7 +4411,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O8:S8)</f>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -4382,7 +4452,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C9,1)</f>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -4416,7 +4486,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O9:S9)</f>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -4445,7 +4515,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C10,1)</f>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -4483,7 +4553,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O10:S10)</f>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -4526,7 +4596,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C11,1)</f>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -4560,7 +4630,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O11:S11)</f>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -4589,7 +4659,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C12,1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -4623,7 +4693,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O12:S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -4652,7 +4722,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C13,1)</f>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -4686,7 +4756,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O13:S13)</f>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -4715,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C14,1)</f>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -4753,7 +4823,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O14:S14)</f>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -4796,7 +4866,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C15,1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -4826,7 +4896,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O15:S15)</f>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -4867,7 +4937,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C16,1)</f>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -4905,7 +4975,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O16:S16)</f>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -4946,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C17,1)</f>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -4976,7 +5046,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O17:S17)</f>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -5017,7 +5087,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C18,1)</f>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5055,7 +5125,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O18:S18)</f>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -5096,7 +5166,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C19,1)</f>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -5126,7 +5196,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O19:S19)</f>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -5167,7 +5237,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C20,1)</f>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -5201,7 +5271,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O20:S20)</f>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -5230,7 +5300,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C21,1)</f>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -5264,7 +5334,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(O21:S21)</f>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -5293,7 +5363,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C22,1)</f>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -5331,7 +5401,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O22:S22)</f>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -5372,7 +5442,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C23,1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5402,7 +5472,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O23:S23)</f>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -5443,7 +5513,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C24,1)</f>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -5477,7 +5547,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O24:S24)</f>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -5506,7 +5576,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C25,1)</f>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -5540,7 +5610,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O25:S25)</f>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -5569,7 +5639,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C26,1)</f>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -5603,7 +5673,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O26:S26)</f>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -5632,7 +5702,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C27,1)</f>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -5666,7 +5736,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f t="shared" si="0"/>
+        <f>SUM(O27:S27)</f>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -5695,7 +5765,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C28,1)</f>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -5758,7 +5828,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C29,1)</f>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -5792,7 +5862,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
       <c r="T29" s="11">
-        <f t="shared" ref="T29:T33" si="2">SUM(O29:S29)</f>
+        <f>SUM(O29:S29)</f>
         <v>0</v>
       </c>
       <c r="U29" s="36"/>
@@ -5821,7 +5891,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C30,1)</f>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -5859,7 +5929,7 @@
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O30:S30)</f>
         <v>8</v>
       </c>
       <c r="U30" s="27" t="s">
@@ -5900,7 +5970,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C31,1)</f>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -5938,7 +6008,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O31:S31)</f>
         <v>1</v>
       </c>
       <c r="U31" s="22" t="s">
@@ -5979,7 +6049,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C32,1)</f>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -6013,7 +6083,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O32:S32)</f>
         <v>0</v>
       </c>
       <c r="U32" s="22"/>
@@ -6042,7 +6112,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C33,1)</f>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -6080,7 +6150,7 @@
       </c>
       <c r="S33" s="22"/>
       <c r="T33" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O33:S33)</f>
         <v>5</v>
       </c>
       <c r="U33" s="27" t="s">
@@ -6121,7 +6191,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C34,1)</f>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -6155,7 +6225,7 @@
       <c r="R34" s="22"/>
       <c r="S34" s="12"/>
       <c r="T34" s="22">
-        <f t="shared" ref="T34:T37" si="3">SUM(N34:R34)</f>
+        <f>SUM(N34:R34)</f>
         <v>0</v>
       </c>
       <c r="U34" s="27"/>
@@ -6184,7 +6254,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C35,1)</f>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -6218,7 +6288,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="12"/>
       <c r="T35" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(N35:R35)</f>
         <v>0</v>
       </c>
       <c r="U35" s="27"/>
@@ -6247,7 +6317,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C36,1)</f>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6281,7 +6351,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="12"/>
       <c r="T36" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(N36:R36)</f>
         <v>0</v>
       </c>
       <c r="U36" s="27"/>
@@ -6310,7 +6380,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C37,1)</f>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -6348,7 +6418,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="12"/>
       <c r="T37" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(N37:R37)</f>
         <v>1</v>
       </c>
       <c r="U37" s="27" t="s">
@@ -6389,7 +6459,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C38,1)</f>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -6427,7 +6497,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f t="shared" ref="T38:T74" si="4">SUM(O38:S38)</f>
+        <f>SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -6468,7 +6538,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C39,1)</f>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6502,7 +6572,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O39:S39)</f>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -6531,7 +6601,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C40,1)</f>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -6571,7 +6641,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O40:S40)</f>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -6612,7 +6682,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C41,1)</f>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -6650,7 +6720,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O41:S41)</f>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -6691,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C42,1)</f>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6721,7 +6791,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O42:S42)</f>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -6762,7 +6832,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C43,1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -6800,7 +6870,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O43:S43)</f>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -6841,7 +6911,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C44,1)</f>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -6875,7 +6945,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O44:S44)</f>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -6904,7 +6974,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C45,1)</f>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -6938,7 +7008,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O45:S45)</f>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -6967,7 +7037,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C46,1)</f>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -7001,7 +7071,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O46:S46)</f>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -7030,7 +7100,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C47,1)</f>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -7064,7 +7134,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O47:S47)</f>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -7093,7 +7163,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C48,1)</f>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -7127,7 +7197,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O48:S48)</f>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -7156,7 +7226,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C49,1)</f>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -7190,7 +7260,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O49:S49)</f>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -7219,7 +7289,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C50,1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -7257,7 +7327,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O50:S50)</f>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -7298,7 +7368,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C51,1)</f>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -7332,7 +7402,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O51:S51)</f>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -7361,7 +7431,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C52,1)</f>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -7399,7 +7469,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O52:S52)</f>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -7440,7 +7510,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C53,1)</f>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -7470,7 +7540,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O53:S53)</f>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -7511,7 +7581,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C54,1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -7549,7 +7619,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O54:S54)</f>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -7590,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C55,1)</f>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -7624,7 +7694,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O55:S55)</f>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -7653,7 +7723,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C56,1)</f>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -7687,7 +7757,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O56:S56)</f>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -7716,7 +7786,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C57,1)</f>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -7750,7 +7820,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O57:S57)</f>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -7779,7 +7849,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C58,1)</f>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -7813,7 +7883,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O58:S58)</f>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -7842,7 +7912,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C59,1)</f>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -7876,7 +7946,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O59:S59)</f>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -7905,7 +7975,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C60,1)</f>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -7943,7 +8013,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O60:S60)</f>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -7984,7 +8054,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C61,1)</f>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -8018,7 +8088,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O61:S61)</f>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -8047,7 +8117,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C62,1)</f>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -8081,7 +8151,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O62:S62)</f>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -8110,7 +8180,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C63,1)</f>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -8148,7 +8218,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O63:S63)</f>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -8189,7 +8259,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C64,1)</f>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -8219,7 +8289,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O64:S64)</f>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -8260,7 +8330,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C65,1)</f>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -8298,7 +8368,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O65:S65)</f>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -8339,7 +8409,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C66,1)</f>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -8369,7 +8439,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O66:S66)</f>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -8410,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f t="shared" si="1"/>
+        <f>WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -8448,7 +8518,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O67:S67)</f>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -8489,7 +8559,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f t="shared" ref="E68:E131" si="5">WEEKNUM(C68,1)</f>
+        <f>WEEKNUM(C68,1)</f>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -8527,7 +8597,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O68:S68)</f>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -8568,7 +8638,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C69,1)</f>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -8602,7 +8672,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O69:S69)</f>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -8631,7 +8701,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C70,1)</f>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -8665,7 +8735,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O70:S70)</f>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -8694,7 +8764,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C71,1)</f>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -8728,7 +8798,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O71:S71)</f>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -8757,7 +8827,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C72,1)</f>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -8791,7 +8861,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O72:S72)</f>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -8820,7 +8890,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C73,1)</f>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -8858,7 +8928,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O73:S73)</f>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -8899,7 +8969,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C74,1)</f>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -8933,7 +9003,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O74:S74)</f>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -8962,7 +9032,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C75,1)</f>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -9040,7 +9110,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C76,1)</f>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -9118,7 +9188,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C77,1)</f>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -9188,7 +9258,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C78,1)</f>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -9250,7 +9320,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C79,1)</f>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -9312,7 +9382,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C80,1)</f>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -9374,7 +9444,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C81,1)</f>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -9436,7 +9506,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C82,1)</f>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -9498,7 +9568,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C83,1)</f>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -9560,7 +9630,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C84,1)</f>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -9638,7 +9708,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C85,1)</f>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -9700,7 +9770,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C86,1)</f>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -9762,7 +9832,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C87,1)</f>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -9824,7 +9894,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C88,1)</f>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -9886,7 +9956,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C89,1)</f>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -9948,7 +10018,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C90,1)</f>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -10026,7 +10096,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C91,1)</f>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -10104,7 +10174,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C92,1)</f>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -10182,7 +10252,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C93,1)</f>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -10244,7 +10314,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C94,1)</f>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -10306,7 +10376,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C95,1)</f>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -10368,7 +10438,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C96,1)</f>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -10446,7 +10516,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C97,1)</f>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -10508,7 +10578,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C98,1)</f>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -10570,7 +10640,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C99,1)</f>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -10632,7 +10702,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C100,1)</f>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -10708,7 +10778,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C101,1)</f>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -10770,7 +10840,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C102,1)</f>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -10848,7 +10918,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C103,1)</f>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -10910,7 +10980,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C104,1)</f>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -10972,7 +11042,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C105,1)</f>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -11034,7 +11104,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C106,1)</f>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -11112,7 +11182,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C107,1)</f>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -11190,7 +11260,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C108,1)</f>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -11258,7 +11328,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C109,1)</f>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -11320,7 +11390,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C110,1)</f>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -11382,7 +11452,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C111,1)</f>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -11444,7 +11514,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C112,1)</f>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -11522,7 +11592,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C113,1)</f>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -11592,7 +11662,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C114,1)</f>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -11654,7 +11724,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C115,1)</f>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -11716,7 +11786,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C116,1)</f>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -11794,7 +11864,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C117,1)</f>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -11872,7 +11942,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C118,1)</f>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -11950,7 +12020,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C119,1)</f>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -12028,7 +12098,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C120,1)</f>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -12090,7 +12160,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C121,1)</f>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -12168,7 +12238,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C122,1)</f>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -12230,7 +12300,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C123,1)</f>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -12292,7 +12362,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C124,1)</f>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -12370,7 +12440,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C125,1)</f>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -12430,7 +12500,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C126,1)</f>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -12490,7 +12560,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C127,1)</f>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -12550,7 +12620,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C128,1)</f>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -12610,7 +12680,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C129,1)</f>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -12670,7 +12740,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C130,1)</f>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -12730,7 +12800,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f t="shared" si="5"/>
+        <f>WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -12790,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f t="shared" ref="E132:E195" si="6">WEEKNUM(C132,1)</f>
+        <f>WEEKNUM(C132,1)</f>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -12850,7 +12920,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C133,1)</f>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -12910,7 +12980,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C134,1)</f>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -12970,7 +13040,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C135,1)</f>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -13048,7 +13118,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C136,1)</f>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -13110,7 +13180,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C137,1)</f>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -13172,7 +13242,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C138,1)</f>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -13250,7 +13320,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C139,1)</f>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -13328,7 +13398,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C140,1)</f>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -13398,7 +13468,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C141,1)</f>
         <v>10</v>
       </c>
       <c r="F141" s="58" t="s">
@@ -13460,7 +13530,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C142,1)</f>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -13522,7 +13592,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C143,1)</f>
         <v>10</v>
       </c>
       <c r="F143" s="58" t="s">
@@ -13600,7 +13670,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C144,1)</f>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -13670,7 +13740,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C145,1)</f>
         <v>10</v>
       </c>
       <c r="F145" s="58" t="s">
@@ -13732,7 +13802,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C146,1)</f>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -13794,7 +13864,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C147,1)</f>
         <v>10</v>
       </c>
       <c r="F147" s="58" t="s">
@@ -13856,7 +13926,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C148,1)</f>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -13918,7 +13988,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C149,1)</f>
         <v>10</v>
       </c>
       <c r="F149" s="58" t="s">
@@ -13980,7 +14050,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C150,1)</f>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -14058,7 +14128,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C151,1)</f>
         <v>10</v>
       </c>
       <c r="F151" s="58" t="s">
@@ -14128,7 +14198,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C152,1)</f>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -14206,7 +14276,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C153,1)</f>
         <v>10</v>
       </c>
       <c r="F153" s="58" t="s">
@@ -14276,7 +14346,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C154,1)</f>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -14338,7 +14408,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C155,1)</f>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -14416,7 +14486,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C156,1)</f>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -14478,7 +14548,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C157,1)</f>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -14540,7 +14610,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C158,1)</f>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -14602,7 +14672,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C159,1)</f>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -14664,7 +14734,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C160,1)</f>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -14726,7 +14796,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C161,1)</f>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -14788,7 +14858,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C162,1)</f>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -14850,7 +14920,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C163,1)</f>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -14912,7 +14982,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C164,1)</f>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -14974,7 +15044,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C165,1)</f>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -15036,7 +15106,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C166,1)</f>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -15098,7 +15168,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C167,1)</f>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -15160,7 +15230,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C168,1)</f>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -15222,7 +15292,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C169,1)</f>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -15284,7 +15354,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C170,1)</f>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -15362,7 +15432,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C171,1)</f>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -15424,7 +15494,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C172,1)</f>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -15486,7 +15556,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C173,1)</f>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -15548,7 +15618,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C174,1)</f>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -15610,7 +15680,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C175,1)</f>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -15672,7 +15742,7 @@
         <v>230</v>
       </c>
       <c r="E176" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C176,1)</f>
         <v>11</v>
       </c>
       <c r="F176" s="54" t="s">
@@ -15734,7 +15804,7 @@
         <v>230</v>
       </c>
       <c r="E177" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C177,1)</f>
         <v>11</v>
       </c>
       <c r="F177" s="54" t="s">
@@ -15810,7 +15880,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C178,1)</f>
         <v>11</v>
       </c>
       <c r="F178" s="54" t="s">
@@ -15872,7 +15942,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C179,1)</f>
         <v>11</v>
       </c>
       <c r="F179" s="54" t="s">
@@ -15934,7 +16004,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C180,1)</f>
         <v>11</v>
       </c>
       <c r="F180" s="54" t="s">
@@ -15996,7 +16066,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="22">
-        <f t="shared" si="6"/>
+        <f>WEEKNUM(C181,1)</f>
         <v>11</v>
       </c>
       <c r="F181" s="54" t="s">
@@ -17305,7 +17375,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="22">
-        <f t="shared" ref="E201:E264" si="7">WEEKNUM(C201,1)</f>
+        <f>WEEKNUM(C201,1)</f>
         <v>12</v>
       </c>
       <c r="F201" s="41" t="s">
@@ -17383,7 +17453,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C202,1)</f>
         <v>12</v>
       </c>
       <c r="F202" s="41" t="s">
@@ -17453,7 +17523,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C203,1)</f>
         <v>12</v>
       </c>
       <c r="F203" s="41" t="s">
@@ -17515,7 +17585,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C204,1)</f>
         <v>12</v>
       </c>
       <c r="F204" s="41" t="s">
@@ -17593,7 +17663,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C205,1)</f>
         <v>12</v>
       </c>
       <c r="F205" s="41" t="s">
@@ -17661,7 +17731,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C206,1)</f>
         <v>12</v>
       </c>
       <c r="F206" s="41" t="s">
@@ -17739,7 +17809,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C207,1)</f>
         <v>12</v>
       </c>
       <c r="F207" s="41" t="s">
@@ -17801,7 +17871,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C208,1)</f>
         <v>12</v>
       </c>
       <c r="F208" s="41" t="s">
@@ -17861,7 +17931,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C209,1)</f>
         <v>12</v>
       </c>
       <c r="F209" s="41" t="s">
@@ -17921,7 +17991,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C210,1)</f>
         <v>12</v>
       </c>
       <c r="F210" s="41" t="s">
@@ -17981,7 +18051,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C211,1)</f>
         <v>12</v>
       </c>
       <c r="F211" s="41" t="s">
@@ -18043,7 +18113,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C212,1)</f>
         <v>12</v>
       </c>
       <c r="F212" s="41" t="s">
@@ -18121,7 +18191,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C213,1)</f>
         <v>12</v>
       </c>
       <c r="F213" s="41" t="s">
@@ -18183,7 +18253,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C214,1)</f>
         <v>12</v>
       </c>
       <c r="F214" s="54" t="s">
@@ -18245,7 +18315,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C215,1)</f>
         <v>12</v>
       </c>
       <c r="F215" s="54" t="s">
@@ -18323,7 +18393,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C216,1)</f>
         <v>12</v>
       </c>
       <c r="F216" s="54" t="s">
@@ -18385,7 +18455,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C217,1)</f>
         <v>12</v>
       </c>
       <c r="F217" s="54" t="s">
@@ -18447,7 +18517,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C218,1)</f>
         <v>12</v>
       </c>
       <c r="F218" s="54" t="s">
@@ -18509,7 +18579,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C219,1)</f>
         <v>12</v>
       </c>
       <c r="F219" s="54" t="s">
@@ -18587,7 +18657,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C220,1)</f>
         <v>12</v>
       </c>
       <c r="F220" s="54" t="s">
@@ -18649,7 +18719,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C221,1)</f>
         <v>12</v>
       </c>
       <c r="F221" s="54" t="s">
@@ -18727,7 +18797,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C222,1)</f>
         <v>12</v>
       </c>
       <c r="F222" s="54" t="s">
@@ -18789,7 +18859,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C223,1)</f>
         <v>12</v>
       </c>
       <c r="F223" s="54" t="s">
@@ -18867,7 +18937,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C224,1)</f>
         <v>12</v>
       </c>
       <c r="F224" s="54" t="s">
@@ -18929,7 +18999,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C225,1)</f>
         <v>12</v>
       </c>
       <c r="F225" s="54" t="s">
@@ -18991,7 +19061,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C226,1)</f>
         <v>12</v>
       </c>
       <c r="F226" s="54" t="s">
@@ -19069,7 +19139,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C227,1)</f>
         <v>13</v>
       </c>
       <c r="F227" s="54" t="s">
@@ -19131,7 +19201,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C228,1)</f>
         <v>13</v>
       </c>
       <c r="F228" s="54" t="s">
@@ -19193,7 +19263,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C229,1)</f>
         <v>13</v>
       </c>
       <c r="F229" s="54" t="s">
@@ -19255,7 +19325,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C230,1)</f>
         <v>13</v>
       </c>
       <c r="F230" s="54" t="s">
@@ -19317,7 +19387,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C231,1)</f>
         <v>13</v>
       </c>
       <c r="F231" s="54" t="s">
@@ -19395,7 +19465,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C232,1)</f>
         <v>13</v>
       </c>
       <c r="F232" s="54" t="s">
@@ -19455,7 +19525,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C233,1)</f>
         <v>13</v>
       </c>
       <c r="F233" s="54" t="s">
@@ -19517,7 +19587,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C234,1)</f>
         <v>13</v>
       </c>
       <c r="F234" s="54" t="s">
@@ -19579,7 +19649,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C235,1)</f>
         <v>13</v>
       </c>
       <c r="F235" s="54" t="s">
@@ -19641,7 +19711,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C236,1)</f>
         <v>13</v>
       </c>
       <c r="F236" s="54" t="s">
@@ -19703,7 +19773,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C237,1)</f>
         <v>13</v>
       </c>
       <c r="F237" s="54" t="s">
@@ -19781,7 +19851,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C238,1)</f>
         <v>13</v>
       </c>
       <c r="F238" s="54" t="s">
@@ -19843,7 +19913,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C239,1)</f>
         <v>13</v>
       </c>
       <c r="F239" s="54" t="s">
@@ -19905,7 +19975,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C240,1)</f>
         <v>13</v>
       </c>
       <c r="F240" s="54" t="s">
@@ -19967,7 +20037,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C241,1)</f>
         <v>13</v>
       </c>
       <c r="F241" s="54" t="s">
@@ -20029,7 +20099,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C242,1)</f>
         <v>13</v>
       </c>
       <c r="F242" s="54" t="s">
@@ -20091,7 +20161,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C243,1)</f>
         <v>13</v>
       </c>
       <c r="F243" s="54" t="s">
@@ -20153,7 +20223,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="22">
-        <f t="shared" si="7"/>
+        <f>WEEKNUM(C244,1)</f>
         <v>13</v>
       </c>
       <c r="F244" s="54" t="s">
@@ -20215,7 +20285,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="99">
-        <f t="shared" ref="E245:E308" si="8">IF(C245="","",WEEKNUM(C245,1))</f>
+        <f>IF(C245="","",WEEKNUM(C245,1))</f>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -20254,7 +20324,7 @@
       <c r="R245" s="11"/>
       <c r="S245" s="12"/>
       <c r="T245" s="42">
-        <f t="shared" ref="T245:T268" si="9">SUM(O245:S245)</f>
+        <f>SUM(O245:S245)</f>
         <v>1</v>
       </c>
       <c r="U245" s="38" t="s">
@@ -20295,7 +20365,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="99">
-        <f t="shared" si="8"/>
+        <f>IF(C246="","",WEEKNUM(C246,1))</f>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -20326,7 +20396,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O246:S246)</f>
         <v>1</v>
       </c>
       <c r="U246" s="38" t="s">
@@ -20367,7 +20437,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="99">
-        <f t="shared" si="8"/>
+        <f>IF(C247="","",WEEKNUM(C247,1))</f>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -20398,7 +20468,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O247:S247)</f>
         <v>1</v>
       </c>
       <c r="U247" s="38" t="s">
@@ -20439,7 +20509,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="99">
-        <f t="shared" si="8"/>
+        <f>IF(C248="","",WEEKNUM(C248,1))</f>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -20478,7 +20548,7 @@
       <c r="R248" s="42"/>
       <c r="S248" s="42"/>
       <c r="T248" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O248:S248)</f>
         <v>1</v>
       </c>
       <c r="U248" s="38" t="s">
@@ -20519,7 +20589,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C249="","",WEEKNUM(C249,1))</f>
         <v>13</v>
       </c>
       <c r="F249" s="22" t="s">
@@ -20554,7 +20624,7 @@
       <c r="R249" s="22"/>
       <c r="S249" s="22"/>
       <c r="T249" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O249:S249)</f>
         <v>0</v>
       </c>
       <c r="U249" s="27"/>
@@ -20583,7 +20653,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C250="","",WEEKNUM(C250,1))</f>
         <v>13</v>
       </c>
       <c r="F250" s="22" t="s">
@@ -20622,7 +20692,7 @@
       <c r="R250" s="22"/>
       <c r="S250" s="22"/>
       <c r="T250" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O250:S250)</f>
         <v>1</v>
       </c>
       <c r="U250" s="27" t="s">
@@ -20663,7 +20733,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C251="","",WEEKNUM(C251,1))</f>
         <v>13</v>
       </c>
       <c r="F251" s="22" t="s">
@@ -20694,7 +20764,7 @@
       <c r="R251" s="22"/>
       <c r="S251" s="22"/>
       <c r="T251" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O251:S251)</f>
         <v>1</v>
       </c>
       <c r="U251" s="27" t="s">
@@ -20735,7 +20805,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C252="","",WEEKNUM(C252,1))</f>
         <v>13</v>
       </c>
       <c r="F252" s="22" t="s">
@@ -20770,7 +20840,7 @@
       <c r="R252" s="22"/>
       <c r="S252" s="22"/>
       <c r="T252" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O252:S252)</f>
         <v>0</v>
       </c>
       <c r="U252" s="27"/>
@@ -20799,7 +20869,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C253="","",WEEKNUM(C253,1))</f>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -20834,7 +20904,7 @@
       <c r="R253" s="11"/>
       <c r="S253" s="12"/>
       <c r="T253" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O253:S253)</f>
         <v>0</v>
       </c>
       <c r="U253" s="36"/>
@@ -20863,7 +20933,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C254="","",WEEKNUM(C254,1))</f>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -20898,7 +20968,7 @@
       <c r="R254" s="11"/>
       <c r="S254" s="12"/>
       <c r="T254" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O254:S254)</f>
         <v>0</v>
       </c>
       <c r="U254" s="36"/>
@@ -20927,7 +20997,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C255="","",WEEKNUM(C255,1))</f>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -20962,7 +21032,7 @@
       <c r="R255" s="11"/>
       <c r="S255" s="12"/>
       <c r="T255" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O255:S255)</f>
         <v>0</v>
       </c>
       <c r="U255" s="36"/>
@@ -20991,7 +21061,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C256="","",WEEKNUM(C256,1))</f>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -21030,7 +21100,7 @@
       <c r="R256" s="11"/>
       <c r="S256" s="12"/>
       <c r="T256" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O256:S256)</f>
         <v>1</v>
       </c>
       <c r="U256" s="36" t="s">
@@ -21073,7 +21143,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C257="","",WEEKNUM(C257,1))</f>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -21108,7 +21178,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O257:S257)</f>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -21137,7 +21207,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C258="","",WEEKNUM(C258,1))</f>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -21172,7 +21242,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O258:S258)</f>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -21201,7 +21271,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C259="","",WEEKNUM(C259,1))</f>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -21236,7 +21306,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O259:S259)</f>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -21267,7 +21337,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C260="","",WEEKNUM(C260,1))</f>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -21302,7 +21372,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O260:S260)</f>
         <v>0</v>
       </c>
       <c r="U260" s="36"/>
@@ -21331,7 +21401,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C261="","",WEEKNUM(C261,1))</f>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -21366,7 +21436,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O261:S261)</f>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -21395,7 +21465,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C262="","",WEEKNUM(C262,1))</f>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -21430,7 +21500,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O262:S262)</f>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -21459,7 +21529,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C263="","",WEEKNUM(C263,1))</f>
         <v>14</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -21494,7 +21564,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O263:S263)</f>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -21523,7 +21593,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C264="","",WEEKNUM(C264,1))</f>
         <v>14</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -21558,7 +21628,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O264:S264)</f>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -21587,7 +21657,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C265="","",WEEKNUM(C265,1))</f>
         <v>14</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -21622,7 +21692,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O265:S265)</f>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -21651,7 +21721,7 @@
         <v>345</v>
       </c>
       <c r="E266" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C266="","",WEEKNUM(C266,1))</f>
         <v>14</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -21686,7 +21756,7 @@
       <c r="R266" s="22"/>
       <c r="S266" s="22"/>
       <c r="T266" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O266:S266)</f>
         <v>0</v>
       </c>
       <c r="U266" s="27"/>
@@ -21715,7 +21785,7 @@
         <v>345</v>
       </c>
       <c r="E267" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C267="","",WEEKNUM(C267,1))</f>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -21750,7 +21820,7 @@
       <c r="R267" s="22"/>
       <c r="S267" s="22"/>
       <c r="T267" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O267:S267)</f>
         <v>0</v>
       </c>
       <c r="U267" s="27"/>
@@ -21779,7 +21849,7 @@
         <v>345</v>
       </c>
       <c r="E268" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C268="","",WEEKNUM(C268,1))</f>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -21814,7 +21884,7 @@
       <c r="R268" s="22"/>
       <c r="S268" s="22"/>
       <c r="T268" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O268:S268)</f>
         <v>0</v>
       </c>
       <c r="U268" s="27"/>
@@ -21843,7 +21913,7 @@
         <v>345</v>
       </c>
       <c r="E269" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C269="","",WEEKNUM(C269,1))</f>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -21904,7 +21974,7 @@
         <v>345</v>
       </c>
       <c r="E270" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C270="","",WEEKNUM(C270,1))</f>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -21943,7 +22013,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f t="shared" ref="T270:T309" si="10">SUM(O270:S270)</f>
+        <f>SUM(O270:S270)</f>
         <v>1</v>
       </c>
       <c r="U270" s="27" t="s">
@@ -21984,7 +22054,7 @@
         <v>345</v>
       </c>
       <c r="E271" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C271="","",WEEKNUM(C271,1))</f>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -22015,7 +22085,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O271:S271)</f>
         <v>1</v>
       </c>
       <c r="U271" s="27" t="s">
@@ -22056,7 +22126,7 @@
         <v>345</v>
       </c>
       <c r="E272" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C272="","",WEEKNUM(C272,1))</f>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -22091,7 +22161,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O272:S272)</f>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -22120,7 +22190,7 @@
         <v>345</v>
       </c>
       <c r="E273" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C273="","",WEEKNUM(C273,1))</f>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -22159,7 +22229,7 @@
       <c r="R273" s="22"/>
       <c r="S273" s="22"/>
       <c r="T273" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O273:S273)</f>
         <v>1</v>
       </c>
       <c r="U273" s="27" t="s">
@@ -22200,7 +22270,7 @@
         <v>345</v>
       </c>
       <c r="E274" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C274="","",WEEKNUM(C274,1))</f>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -22239,7 +22309,7 @@
       </c>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -22257,7 +22327,7 @@
       <c r="Y274" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z274" s="104" t="s">
+      <c r="Z274" s="111" t="s">
         <v>67</v>
       </c>
       <c r="AA274" s="10"/>
@@ -22280,7 +22350,7 @@
         <v>345</v>
       </c>
       <c r="E275" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C275="","",WEEKNUM(C275,1))</f>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -22315,7 +22385,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O275:S275)</f>
         <v>0</v>
       </c>
       <c r="U275" s="27"/>
@@ -22323,12 +22393,12 @@
       <c r="W275" s="11"/>
       <c r="X275" s="11"/>
       <c r="Y275" s="11"/>
-      <c r="Z275" s="104"/>
+      <c r="Z275" s="111"/>
       <c r="AA275" s="8"/>
       <c r="AB275" s="8"/>
-      <c r="AC275" s="105"/>
-      <c r="AD275" s="105"/>
-      <c r="AE275" s="105"/>
+      <c r="AC275" s="113"/>
+      <c r="AD275" s="113"/>
+      <c r="AE275" s="113"/>
     </row>
     <row r="276" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A276" s="22">
@@ -22344,7 +22414,7 @@
         <v>345</v>
       </c>
       <c r="E276" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C276="","",WEEKNUM(C276,1))</f>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -22383,7 +22453,7 @@
       </c>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O276:S276)</f>
         <v>3</v>
       </c>
       <c r="U276" s="27" t="s">
@@ -22401,7 +22471,7 @@
       <c r="Y276" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z276" s="104" t="s">
+      <c r="Z276" s="111" t="s">
         <v>53</v>
       </c>
       <c r="AA276" s="8"/>
@@ -22409,8 +22479,8 @@
       <c r="AC276" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="AD276" s="105"/>
-      <c r="AE276" s="105"/>
+      <c r="AD276" s="113"/>
+      <c r="AE276" s="113"/>
     </row>
     <row r="277" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A277" s="22">
@@ -22426,7 +22496,7 @@
         <v>345</v>
       </c>
       <c r="E277" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C277="","",WEEKNUM(C277,1))</f>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -22465,7 +22535,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O277:S277)</f>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -22483,7 +22553,7 @@
       <c r="Y277" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z277" s="104" t="s">
+      <c r="Z277" s="111" t="s">
         <v>67</v>
       </c>
       <c r="AA277" s="8"/>
@@ -22491,8 +22561,8 @@
       <c r="AC277" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="AD277" s="105"/>
-      <c r="AE277" s="105"/>
+      <c r="AD277" s="113"/>
+      <c r="AE277" s="113"/>
     </row>
     <row r="278" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A278" s="22">
@@ -22508,7 +22578,7 @@
         <v>345</v>
       </c>
       <c r="E278" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C278="","",WEEKNUM(C278,1))</f>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -22543,7 +22613,7 @@
       <c r="R278" s="22"/>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O278:S278)</f>
         <v>0</v>
       </c>
       <c r="U278" s="27"/>
@@ -22551,14 +22621,14 @@
       <c r="W278" s="11"/>
       <c r="X278" s="11"/>
       <c r="Y278" s="11"/>
-      <c r="Z278" s="104"/>
+      <c r="Z278" s="111"/>
       <c r="AA278" s="8"/>
       <c r="AB278" s="8"/>
       <c r="AC278" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="AD278" s="105"/>
-      <c r="AE278" s="105"/>
+      <c r="AD278" s="113"/>
+      <c r="AE278" s="113"/>
     </row>
     <row r="279" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A279" s="22">
@@ -22574,7 +22644,7 @@
         <v>345</v>
       </c>
       <c r="E279" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C279="","",WEEKNUM(C279,1))</f>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -22613,7 +22683,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O279:S279)</f>
         <v>1</v>
       </c>
       <c r="U279" s="27" t="s">
@@ -22631,14 +22701,14 @@
       <c r="Y279" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z279" s="104" t="s">
+      <c r="Z279" s="111" t="s">
         <v>67</v>
       </c>
       <c r="AA279" s="8"/>
       <c r="AB279" s="8"/>
-      <c r="AC279" s="105"/>
-      <c r="AD279" s="105"/>
-      <c r="AE279" s="105"/>
+      <c r="AC279" s="113"/>
+      <c r="AD279" s="113"/>
+      <c r="AE279" s="113"/>
     </row>
     <row r="280" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A280" s="22">
@@ -22654,7 +22724,7 @@
         <v>345</v>
       </c>
       <c r="E280" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C280="","",WEEKNUM(C280,1))</f>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -22689,7 +22759,7 @@
       <c r="R280" s="22"/>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O280:S280)</f>
         <v>0</v>
       </c>
       <c r="U280" s="27"/>
@@ -22697,12 +22767,12 @@
       <c r="W280" s="11"/>
       <c r="X280" s="11"/>
       <c r="Y280" s="11"/>
-      <c r="Z280" s="104"/>
+      <c r="Z280" s="111"/>
       <c r="AA280" s="8"/>
       <c r="AB280" s="8"/>
-      <c r="AC280" s="105"/>
-      <c r="AD280" s="105"/>
-      <c r="AE280" s="105"/>
+      <c r="AC280" s="113"/>
+      <c r="AD280" s="113"/>
+      <c r="AE280" s="113"/>
     </row>
     <row r="281" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A281" s="22">
@@ -22718,7 +22788,7 @@
         <v>345</v>
       </c>
       <c r="E281" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C281="","",WEEKNUM(C281,1))</f>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -22753,7 +22823,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O281:S281)</f>
         <v>0</v>
       </c>
       <c r="U281" s="27"/>
@@ -22761,12 +22831,12 @@
       <c r="W281" s="11"/>
       <c r="X281" s="11"/>
       <c r="Y281" s="11"/>
-      <c r="Z281" s="104"/>
+      <c r="Z281" s="111"/>
       <c r="AA281" s="8"/>
       <c r="AB281" s="8"/>
-      <c r="AC281" s="105"/>
-      <c r="AD281" s="105"/>
-      <c r="AE281" s="105"/>
+      <c r="AC281" s="113"/>
+      <c r="AD281" s="113"/>
+      <c r="AE281" s="113"/>
     </row>
     <row r="282" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A282" s="22">
@@ -22782,7 +22852,7 @@
         <v>345</v>
       </c>
       <c r="E282" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C282="","",WEEKNUM(C282,1))</f>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -22817,7 +22887,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O282:S282)</f>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -22825,12 +22895,12 @@
       <c r="W282" s="11"/>
       <c r="X282" s="11"/>
       <c r="Y282" s="11"/>
-      <c r="Z282" s="104"/>
+      <c r="Z282" s="111"/>
       <c r="AA282" s="8"/>
       <c r="AB282" s="8"/>
-      <c r="AC282" s="105"/>
-      <c r="AD282" s="105"/>
-      <c r="AE282" s="105"/>
+      <c r="AC282" s="113"/>
+      <c r="AD282" s="113"/>
+      <c r="AE282" s="113"/>
     </row>
     <row r="283" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A283" s="22">
@@ -22846,7 +22916,7 @@
         <v>345</v>
       </c>
       <c r="E283" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C283="","",WEEKNUM(C283,1))</f>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -22881,7 +22951,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O283:S283)</f>
         <v>0</v>
       </c>
       <c r="U283" s="27"/>
@@ -22889,12 +22959,12 @@
       <c r="W283" s="11"/>
       <c r="X283" s="11"/>
       <c r="Y283" s="11"/>
-      <c r="Z283" s="104"/>
+      <c r="Z283" s="111"/>
       <c r="AA283" s="8"/>
       <c r="AB283" s="8"/>
       <c r="AC283" s="22"/>
-      <c r="AD283" s="105"/>
-      <c r="AE283" s="105"/>
+      <c r="AD283" s="113"/>
+      <c r="AE283" s="113"/>
     </row>
     <row r="284" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A284" s="22">
@@ -22910,7 +22980,7 @@
         <v>345</v>
       </c>
       <c r="E284" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C284="","",WEEKNUM(C284,1))</f>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -22945,7 +23015,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O284:S284)</f>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -22953,14 +23023,14 @@
       <c r="W284" s="11"/>
       <c r="X284" s="11"/>
       <c r="Y284" s="11"/>
-      <c r="Z284" s="104"/>
+      <c r="Z284" s="111"/>
       <c r="AA284" s="8"/>
       <c r="AB284" s="8"/>
       <c r="AC284" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD284" s="105"/>
-      <c r="AE284" s="105"/>
+      <c r="AD284" s="113"/>
+      <c r="AE284" s="113"/>
     </row>
     <row r="285" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A285" s="22">
@@ -22976,7 +23046,7 @@
         <v>345</v>
       </c>
       <c r="E285" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C285="","",WEEKNUM(C285,1))</f>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -23011,7 +23081,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O285:S285)</f>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -23019,12 +23089,12 @@
       <c r="W285" s="11"/>
       <c r="X285" s="11"/>
       <c r="Y285" s="11"/>
-      <c r="Z285" s="104"/>
+      <c r="Z285" s="111"/>
       <c r="AA285" s="8"/>
       <c r="AB285" s="8"/>
       <c r="AC285" s="22"/>
-      <c r="AD285" s="105"/>
-      <c r="AE285" s="105"/>
+      <c r="AD285" s="113"/>
+      <c r="AE285" s="113"/>
     </row>
     <row r="286" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A286" s="22">
@@ -23040,7 +23110,7 @@
         <v>345</v>
       </c>
       <c r="E286" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C286="","",WEEKNUM(C286,1))</f>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -23079,7 +23149,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O286:S286)</f>
         <v>1</v>
       </c>
       <c r="U286" s="27" t="s">
@@ -23097,14 +23167,14 @@
       <c r="Y286" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z286" s="104" t="s">
+      <c r="Z286" s="111" t="s">
         <v>53</v>
       </c>
       <c r="AA286" s="8"/>
       <c r="AB286" s="8"/>
-      <c r="AC286" s="105"/>
-      <c r="AD286" s="105"/>
-      <c r="AE286" s="105"/>
+      <c r="AC286" s="113"/>
+      <c r="AD286" s="113"/>
+      <c r="AE286" s="113"/>
     </row>
     <row r="287" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A287" s="22">
@@ -23120,7 +23190,7 @@
         <v>345</v>
       </c>
       <c r="E287" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C287="","",WEEKNUM(C287,1))</f>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -23151,7 +23221,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O287:S287)</f>
         <v>1</v>
       </c>
       <c r="U287" s="27" t="s">
@@ -23169,14 +23239,14 @@
       <c r="Y287" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z287" s="104" t="s">
+      <c r="Z287" s="111" t="s">
         <v>53</v>
       </c>
       <c r="AA287" s="8"/>
       <c r="AB287" s="8"/>
-      <c r="AC287" s="105"/>
-      <c r="AD287" s="105"/>
-      <c r="AE287" s="105"/>
+      <c r="AC287" s="113"/>
+      <c r="AD287" s="113"/>
+      <c r="AE287" s="113"/>
     </row>
     <row r="288" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A288" s="22">
@@ -23192,7 +23262,7 @@
         <v>345</v>
       </c>
       <c r="E288" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C288="","",WEEKNUM(C288,1))</f>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -23227,7 +23297,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O288:S288)</f>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -23238,9 +23308,9 @@
       <c r="Z288" s="11"/>
       <c r="AA288" s="8"/>
       <c r="AB288" s="8"/>
-      <c r="AC288" s="105"/>
-      <c r="AD288" s="105"/>
-      <c r="AE288" s="105"/>
+      <c r="AC288" s="113"/>
+      <c r="AD288" s="113"/>
+      <c r="AE288" s="113"/>
     </row>
     <row r="289" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A289" s="22">
@@ -23256,7 +23326,7 @@
         <v>345</v>
       </c>
       <c r="E289" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C289="","",WEEKNUM(C289,1))</f>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -23291,7 +23361,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O289:S289)</f>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -23302,9 +23372,9 @@
       <c r="Z289" s="11"/>
       <c r="AA289" s="8"/>
       <c r="AB289" s="8"/>
-      <c r="AC289" s="105"/>
-      <c r="AD289" s="105"/>
-      <c r="AE289" s="105"/>
+      <c r="AC289" s="113"/>
+      <c r="AD289" s="113"/>
+      <c r="AE289" s="113"/>
     </row>
     <row r="290" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A290" s="22">
@@ -23320,7 +23390,7 @@
         <v>345</v>
       </c>
       <c r="E290" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C290="","",WEEKNUM(C290,1))</f>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -23355,7 +23425,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O290:S290)</f>
         <v>0</v>
       </c>
       <c r="U290" s="27"/>
@@ -23366,9 +23436,9 @@
       <c r="Z290" s="11"/>
       <c r="AA290" s="8"/>
       <c r="AB290" s="8"/>
-      <c r="AC290" s="105"/>
-      <c r="AD290" s="105"/>
-      <c r="AE290" s="105"/>
+      <c r="AC290" s="113"/>
+      <c r="AD290" s="113"/>
+      <c r="AE290" s="113"/>
     </row>
     <row r="291" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A291" s="22">
@@ -23384,7 +23454,7 @@
         <v>345</v>
       </c>
       <c r="E291" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C291="","",WEEKNUM(C291,1))</f>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -23419,7 +23489,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O291:S291)</f>
         <v>0</v>
       </c>
       <c r="U291" s="27"/>
@@ -23430,9 +23500,9 @@
       <c r="Z291" s="11"/>
       <c r="AA291" s="8"/>
       <c r="AB291" s="8"/>
-      <c r="AC291" s="105"/>
-      <c r="AD291" s="105"/>
-      <c r="AE291" s="105"/>
+      <c r="AC291" s="113"/>
+      <c r="AD291" s="113"/>
+      <c r="AE291" s="113"/>
     </row>
     <row r="292" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A292" s="22">
@@ -23448,7 +23518,7 @@
         <v>345</v>
       </c>
       <c r="E292" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C292="","",WEEKNUM(C292,1))</f>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -23483,7 +23553,7 @@
       <c r="R292" s="11"/>
       <c r="S292" s="12"/>
       <c r="T292" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O292:S292)</f>
         <v>0</v>
       </c>
       <c r="U292" s="13"/>
@@ -23494,9 +23564,9 @@
       <c r="Z292" s="11"/>
       <c r="AA292" s="8"/>
       <c r="AB292" s="8"/>
-      <c r="AC292" s="105"/>
-      <c r="AD292" s="105"/>
-      <c r="AE292" s="105"/>
+      <c r="AC292" s="113"/>
+      <c r="AD292" s="113"/>
+      <c r="AE292" s="113"/>
     </row>
     <row r="293" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A293" s="22">
@@ -23512,7 +23582,7 @@
         <v>345</v>
       </c>
       <c r="E293" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C293="","",WEEKNUM(C293,1))</f>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -23547,7 +23617,7 @@
       <c r="R293" s="11"/>
       <c r="S293" s="12"/>
       <c r="T293" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O293:S293)</f>
         <v>0</v>
       </c>
       <c r="U293" s="13"/>
@@ -23558,9 +23628,9 @@
       <c r="Z293" s="11"/>
       <c r="AA293" s="8"/>
       <c r="AB293" s="8"/>
-      <c r="AC293" s="105"/>
-      <c r="AD293" s="105"/>
-      <c r="AE293" s="105"/>
+      <c r="AC293" s="113"/>
+      <c r="AD293" s="113"/>
+      <c r="AE293" s="113"/>
     </row>
     <row r="294" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A294" s="22">
@@ -23576,7 +23646,7 @@
         <v>345</v>
       </c>
       <c r="E294" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C294="","",WEEKNUM(C294,1))</f>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -23615,7 +23685,7 @@
       </c>
       <c r="S294" s="12"/>
       <c r="T294" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O294:S294)</f>
         <v>1</v>
       </c>
       <c r="U294" s="13" t="s">
@@ -23641,8 +23711,8 @@
       <c r="AC294" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="AD294" s="105"/>
-      <c r="AE294" s="105"/>
+      <c r="AD294" s="113"/>
+      <c r="AE294" s="113"/>
     </row>
     <row r="295" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A295" s="22">
@@ -23658,7 +23728,7 @@
         <v>345</v>
       </c>
       <c r="E295" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C295="","",WEEKNUM(C295,1))</f>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -23689,7 +23759,7 @@
       <c r="R295" s="11"/>
       <c r="S295" s="12"/>
       <c r="T295" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O295:S295)</f>
         <v>1</v>
       </c>
       <c r="U295" s="13" t="s">
@@ -23715,8 +23785,8 @@
       <c r="AC295" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="AD295" s="105"/>
-      <c r="AE295" s="105"/>
+      <c r="AD295" s="113"/>
+      <c r="AE295" s="113"/>
     </row>
     <row r="296" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A296" s="22">
@@ -23732,7 +23802,7 @@
         <v>345</v>
       </c>
       <c r="E296" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C296="","",WEEKNUM(C296,1))</f>
         <v>15</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -23767,7 +23837,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O296:S296)</f>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -23778,9 +23848,9 @@
       <c r="Z296" s="11"/>
       <c r="AA296" s="8"/>
       <c r="AB296" s="8"/>
-      <c r="AC296" s="105"/>
-      <c r="AD296" s="105"/>
-      <c r="AE296" s="105"/>
+      <c r="AC296" s="113"/>
+      <c r="AD296" s="113"/>
+      <c r="AE296" s="113"/>
     </row>
     <row r="297" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A297" s="22">
@@ -23796,7 +23866,7 @@
         <v>345</v>
       </c>
       <c r="E297" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C297="","",WEEKNUM(C297,1))</f>
         <v>15</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -23831,7 +23901,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O297:S297)</f>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -23845,8 +23915,8 @@
       <c r="AC297" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD297" s="105"/>
-      <c r="AE297" s="105"/>
+      <c r="AD297" s="113"/>
+      <c r="AE297" s="113"/>
     </row>
     <row r="298" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A298" s="22">
@@ -23862,7 +23932,7 @@
         <v>345</v>
       </c>
       <c r="E298" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C298="","",WEEKNUM(C298,1))</f>
         <v>15</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -23897,7 +23967,7 @@
       <c r="R298" s="11"/>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O298:S298)</f>
         <v>0</v>
       </c>
       <c r="U298" s="13"/>
@@ -23908,9 +23978,9 @@
       <c r="Z298" s="11"/>
       <c r="AA298" s="8"/>
       <c r="AB298" s="8"/>
-      <c r="AC298" s="105"/>
-      <c r="AD298" s="105"/>
-      <c r="AE298" s="105"/>
+      <c r="AC298" s="113"/>
+      <c r="AD298" s="113"/>
+      <c r="AE298" s="113"/>
     </row>
     <row r="299" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A299" s="22">
@@ -23926,7 +23996,7 @@
         <v>345</v>
       </c>
       <c r="E299" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C299="","",WEEKNUM(C299,1))</f>
         <v>15</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -23961,7 +24031,7 @@
       <c r="R299" s="22"/>
       <c r="S299" s="22"/>
       <c r="T299" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O299:S299)</f>
         <v>0</v>
       </c>
       <c r="U299" s="27"/>
@@ -23972,9 +24042,9 @@
       <c r="Z299" s="11"/>
       <c r="AA299" s="8"/>
       <c r="AB299" s="8"/>
-      <c r="AC299" s="105"/>
-      <c r="AD299" s="105"/>
-      <c r="AE299" s="105"/>
+      <c r="AC299" s="113"/>
+      <c r="AD299" s="113"/>
+      <c r="AE299" s="113"/>
     </row>
     <row r="300" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A300" s="22">
@@ -23990,7 +24060,7 @@
         <v>345</v>
       </c>
       <c r="E300" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C300="","",WEEKNUM(C300,1))</f>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -24029,7 +24099,7 @@
       <c r="R300" s="22"/>
       <c r="S300" s="22"/>
       <c r="T300" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O300:S300)</f>
         <v>6</v>
       </c>
       <c r="U300" s="27" t="s">
@@ -24055,8 +24125,8 @@
       <c r="AC300" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD300" s="105"/>
-      <c r="AE300" s="105"/>
+      <c r="AD300" s="113"/>
+      <c r="AE300" s="113"/>
     </row>
     <row r="301" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A301" s="22">
@@ -24072,7 +24142,7 @@
         <v>345</v>
       </c>
       <c r="E301" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C301="","",WEEKNUM(C301,1))</f>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -24103,7 +24173,7 @@
       <c r="R301" s="22"/>
       <c r="S301" s="22"/>
       <c r="T301" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O301:S301)</f>
         <v>1</v>
       </c>
       <c r="U301" s="27" t="s">
@@ -24126,9 +24196,9 @@
       </c>
       <c r="AA301" s="8"/>
       <c r="AB301" s="8"/>
-      <c r="AC301" s="105"/>
-      <c r="AD301" s="105"/>
-      <c r="AE301" s="105"/>
+      <c r="AC301" s="113"/>
+      <c r="AD301" s="113"/>
+      <c r="AE301" s="113"/>
     </row>
     <row r="302" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A302" s="22">
@@ -24144,7 +24214,7 @@
         <v>345</v>
       </c>
       <c r="E302" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C302="","",WEEKNUM(C302,1))</f>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -24179,7 +24249,7 @@
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
       <c r="T302" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O302:S302)</f>
         <v>0</v>
       </c>
       <c r="U302" s="27"/>
@@ -24190,9 +24260,9 @@
       <c r="Z302" s="11"/>
       <c r="AA302" s="8"/>
       <c r="AB302" s="8"/>
-      <c r="AC302" s="105"/>
-      <c r="AD302" s="105"/>
-      <c r="AE302" s="105"/>
+      <c r="AC302" s="113"/>
+      <c r="AD302" s="113"/>
+      <c r="AE302" s="113"/>
     </row>
     <row r="303" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A303" s="22">
@@ -24208,13 +24278,13 @@
         <v>345</v>
       </c>
       <c r="E303" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C303="","",WEEKNUM(C303,1))</f>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G303" s="103" t="s">
+      <c r="G303" s="105" t="s">
         <v>371</v>
       </c>
       <c r="H303" s="22" t="s">
@@ -24233,30 +24303,30 @@
       <c r="L303" s="42">
         <v>8</v>
       </c>
-      <c r="M303" s="103"/>
+      <c r="M303" s="105"/>
       <c r="N303" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="O303" s="103"/>
-      <c r="P303" s="103"/>
-      <c r="Q303" s="103"/>
-      <c r="R303" s="103"/>
-      <c r="S303" s="103"/>
+      <c r="O303" s="105"/>
+      <c r="P303" s="105"/>
+      <c r="Q303" s="105"/>
+      <c r="R303" s="105"/>
+      <c r="S303" s="105"/>
       <c r="T303" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O303:S303)</f>
         <v>0</v>
       </c>
-      <c r="U303" s="103"/>
+      <c r="U303" s="105"/>
       <c r="V303" s="10"/>
       <c r="W303" s="11"/>
       <c r="X303" s="11"/>
       <c r="Y303" s="11"/>
       <c r="Z303" s="11"/>
-      <c r="AA303" s="103"/>
-      <c r="AB303" s="103"/>
-      <c r="AC303" s="103"/>
-      <c r="AD303" s="103"/>
-      <c r="AE303" s="103"/>
+      <c r="AA303" s="105"/>
+      <c r="AB303" s="105"/>
+      <c r="AC303" s="105"/>
+      <c r="AD303" s="105"/>
+      <c r="AE303" s="105"/>
     </row>
     <row r="304" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A304" s="22">
@@ -24272,7 +24342,7 @@
         <v>345</v>
       </c>
       <c r="E304" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C304="","",WEEKNUM(C304,1))</f>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -24311,7 +24381,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O304:S304)</f>
         <v>1</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -24332,11 +24402,11 @@
       <c r="Z304" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA304" s="103"/>
-      <c r="AB304" s="103"/>
-      <c r="AC304" s="103"/>
-      <c r="AD304" s="103"/>
-      <c r="AE304" s="103"/>
+      <c r="AA304" s="105"/>
+      <c r="AB304" s="105"/>
+      <c r="AC304" s="105"/>
+      <c r="AD304" s="105"/>
+      <c r="AE304" s="105"/>
     </row>
     <row r="305" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A305" s="22">
@@ -24352,7 +24422,7 @@
         <v>345</v>
       </c>
       <c r="E305" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C305="","",WEEKNUM(C305,1))</f>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -24383,7 +24453,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O305:S305)</f>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -24404,11 +24474,11 @@
       <c r="Z305" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA305" s="103"/>
-      <c r="AB305" s="103"/>
-      <c r="AC305" s="103"/>
-      <c r="AD305" s="103"/>
-      <c r="AE305" s="103"/>
+      <c r="AA305" s="105"/>
+      <c r="AB305" s="105"/>
+      <c r="AC305" s="105"/>
+      <c r="AD305" s="105"/>
+      <c r="AE305" s="105"/>
     </row>
     <row r="306" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A306" s="22">
@@ -24424,7 +24494,7 @@
         <v>345</v>
       </c>
       <c r="E306" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -24463,7 +24533,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O306:S306)</f>
         <v>1</v>
       </c>
       <c r="U306" s="27" t="s">
@@ -24484,11 +24554,11 @@
       <c r="Z306" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA306" s="103"/>
-      <c r="AB306" s="103"/>
-      <c r="AC306" s="103"/>
-      <c r="AD306" s="103"/>
-      <c r="AE306" s="103"/>
+      <c r="AA306" s="105"/>
+      <c r="AB306" s="105"/>
+      <c r="AC306" s="105"/>
+      <c r="AD306" s="105"/>
+      <c r="AE306" s="105"/>
     </row>
     <row r="307" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A307" s="22">
@@ -24504,7 +24574,7 @@
         <v>345</v>
       </c>
       <c r="E307" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C307="","",WEEKNUM(C307,1))</f>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -24543,7 +24613,7 @@
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
       <c r="T307" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O307:S307)</f>
         <v>1</v>
       </c>
       <c r="U307" s="27" t="s">
@@ -24564,11 +24634,11 @@
       <c r="Z307" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA307" s="103"/>
-      <c r="AB307" s="103"/>
-      <c r="AC307" s="103"/>
-      <c r="AD307" s="103"/>
-      <c r="AE307" s="103"/>
+      <c r="AA307" s="105"/>
+      <c r="AB307" s="105"/>
+      <c r="AC307" s="105"/>
+      <c r="AD307" s="105"/>
+      <c r="AE307" s="105"/>
     </row>
     <row r="308" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A308" s="22">
@@ -24584,7 +24654,7 @@
         <v>345</v>
       </c>
       <c r="E308" s="63">
-        <f t="shared" si="8"/>
+        <f>IF(C308="","",WEEKNUM(C308,1))</f>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -24615,7 +24685,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O308:S308)</f>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -24636,11 +24706,11 @@
       <c r="Z308" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA308" s="103"/>
-      <c r="AB308" s="103"/>
-      <c r="AC308" s="103"/>
-      <c r="AD308" s="103"/>
-      <c r="AE308" s="103"/>
+      <c r="AA308" s="105"/>
+      <c r="AB308" s="105"/>
+      <c r="AC308" s="105"/>
+      <c r="AD308" s="105"/>
+      <c r="AE308" s="105"/>
     </row>
     <row r="309" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A309" s="22">
@@ -24695,7 +24765,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f t="shared" si="10"/>
+        <f>SUM(O309:S309)</f>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -24716,11 +24786,945 @@
       <c r="Z309" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA309" s="103"/>
-      <c r="AB309" s="103"/>
-      <c r="AC309" s="103"/>
-      <c r="AD309" s="103"/>
-      <c r="AE309" s="103"/>
+      <c r="AA309" s="105"/>
+      <c r="AB309" s="105"/>
+      <c r="AC309" s="105"/>
+      <c r="AD309" s="105"/>
+      <c r="AE309" s="105"/>
+    </row>
+    <row r="310" customHeight="1" spans="1:31">
+      <c r="A310" s="103">
+        <v>312</v>
+      </c>
+      <c r="B310" s="103">
+        <v>240410001</v>
+      </c>
+      <c r="C310" s="104">
+        <v>45392</v>
+      </c>
+      <c r="D310" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E310" s="103">
+        <v>15</v>
+      </c>
+      <c r="F310" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G310" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="H310" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="I310" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="J310" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K310" s="103">
+        <v>424</v>
+      </c>
+      <c r="L310" s="103">
+        <v>32</v>
+      </c>
+      <c r="M310" s="103"/>
+      <c r="N310" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O310" s="107"/>
+      <c r="P310" s="107"/>
+      <c r="Q310" s="107"/>
+      <c r="R310" s="107"/>
+      <c r="S310" s="108"/>
+      <c r="T310" s="103">
+        <v>0</v>
+      </c>
+      <c r="U310" s="109"/>
+      <c r="V310" s="110"/>
+      <c r="W310" s="107"/>
+      <c r="X310" s="107"/>
+      <c r="Y310" s="107"/>
+      <c r="Z310" s="107"/>
+      <c r="AA310" s="112"/>
+      <c r="AB310" s="112"/>
+      <c r="AC310" s="114"/>
+      <c r="AD310" s="115"/>
+      <c r="AE310" s="115"/>
+    </row>
+    <row r="311" customHeight="1" spans="1:31">
+      <c r="A311" s="103">
+        <v>313</v>
+      </c>
+      <c r="B311" s="103">
+        <v>240410002</v>
+      </c>
+      <c r="C311" s="104">
+        <v>45392</v>
+      </c>
+      <c r="D311" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E311" s="103">
+        <v>15</v>
+      </c>
+      <c r="F311" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="H311" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="I311" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="J311" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K311" s="103">
+        <v>671</v>
+      </c>
+      <c r="L311" s="103">
+        <v>13</v>
+      </c>
+      <c r="M311" s="103">
+        <v>1</v>
+      </c>
+      <c r="N311" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O311" s="107"/>
+      <c r="P311" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q311" s="107"/>
+      <c r="R311" s="107"/>
+      <c r="S311" s="108"/>
+      <c r="T311" s="103">
+        <v>1</v>
+      </c>
+      <c r="U311" s="109" t="s">
+        <v>380</v>
+      </c>
+      <c r="V311" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="W311" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="X311" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y311" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z311" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA311" s="112"/>
+      <c r="AB311" s="112"/>
+      <c r="AC311" s="114"/>
+      <c r="AD311" s="115"/>
+      <c r="AE311" s="115"/>
+    </row>
+    <row r="312" customHeight="1" spans="1:31">
+      <c r="A312" s="103">
+        <v>314</v>
+      </c>
+      <c r="B312" s="103">
+        <v>240411001</v>
+      </c>
+      <c r="C312" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D312" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E312" s="103">
+        <f>IF(C312="","",WEEKNUM(C312,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F312" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G312" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H312" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="I312" s="103" t="str">
+        <f>VLOOKUP(H312,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J312" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K312" s="103">
+        <v>576</v>
+      </c>
+      <c r="L312" s="103">
+        <v>32</v>
+      </c>
+      <c r="M312" s="103"/>
+      <c r="N312" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O312" s="107"/>
+      <c r="P312" s="107"/>
+      <c r="Q312" s="107"/>
+      <c r="R312" s="107"/>
+      <c r="S312" s="108"/>
+      <c r="T312" s="103">
+        <f>SUM(O312:S312)</f>
+        <v>0</v>
+      </c>
+      <c r="U312" s="109"/>
+      <c r="V312" s="110"/>
+      <c r="W312" s="107"/>
+      <c r="X312" s="107"/>
+      <c r="Y312" s="107"/>
+      <c r="Z312" s="107"/>
+      <c r="AA312" s="112"/>
+      <c r="AB312" s="112"/>
+      <c r="AC312" s="114"/>
+      <c r="AD312" s="115"/>
+      <c r="AE312" s="115"/>
+    </row>
+    <row r="313" customHeight="1" spans="1:31">
+      <c r="A313" s="103">
+        <v>315</v>
+      </c>
+      <c r="B313" s="103">
+        <v>240411002</v>
+      </c>
+      <c r="C313" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D313" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E313" s="103">
+        <f>IF(C313="","",WEEKNUM(C313,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F313" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G313" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="H313" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="I313" s="103" t="str">
+        <f>VLOOKUP(H313,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J313" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K313" s="103">
+        <v>720</v>
+      </c>
+      <c r="L313" s="103">
+        <v>32</v>
+      </c>
+      <c r="M313" s="103"/>
+      <c r="N313" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O313" s="107"/>
+      <c r="P313" s="107"/>
+      <c r="Q313" s="107"/>
+      <c r="R313" s="107"/>
+      <c r="S313" s="108"/>
+      <c r="T313" s="103">
+        <f>SUM(O313:S313)</f>
+        <v>0</v>
+      </c>
+      <c r="U313" s="109"/>
+      <c r="V313" s="110"/>
+      <c r="W313" s="107"/>
+      <c r="X313" s="107"/>
+      <c r="Y313" s="107"/>
+      <c r="Z313" s="107"/>
+      <c r="AA313" s="112"/>
+      <c r="AB313" s="112"/>
+      <c r="AC313" s="114"/>
+      <c r="AD313" s="115"/>
+      <c r="AE313" s="115"/>
+    </row>
+    <row r="314" customHeight="1" spans="1:31">
+      <c r="A314" s="103">
+        <v>316</v>
+      </c>
+      <c r="B314" s="103">
+        <v>240411003</v>
+      </c>
+      <c r="C314" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D314" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E314" s="103">
+        <f>IF(C314="","",WEEKNUM(C314,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F314" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G314" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="H314" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="I314" s="103" t="str">
+        <f>VLOOKUP(H314,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J314" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K314" s="103">
+        <v>779</v>
+      </c>
+      <c r="L314" s="103">
+        <v>32</v>
+      </c>
+      <c r="M314" s="103"/>
+      <c r="N314" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O314" s="107"/>
+      <c r="P314" s="107"/>
+      <c r="Q314" s="107"/>
+      <c r="R314" s="107"/>
+      <c r="S314" s="108"/>
+      <c r="T314" s="103">
+        <f>SUM(O314:S314)</f>
+        <v>0</v>
+      </c>
+      <c r="U314" s="109"/>
+      <c r="V314" s="110"/>
+      <c r="W314" s="107"/>
+      <c r="X314" s="107"/>
+      <c r="Y314" s="107"/>
+      <c r="Z314" s="107"/>
+      <c r="AA314" s="112"/>
+      <c r="AB314" s="112"/>
+      <c r="AC314" s="114"/>
+      <c r="AD314" s="115"/>
+      <c r="AE314" s="115"/>
+    </row>
+    <row r="315" customHeight="1" spans="1:31">
+      <c r="A315" s="103">
+        <v>317</v>
+      </c>
+      <c r="B315" s="103">
+        <v>240411004</v>
+      </c>
+      <c r="C315" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D315" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E315" s="103">
+        <f>IF(C315="","",WEEKNUM(C315,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F315" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G315" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="H315" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I315" s="103" t="str">
+        <f>VLOOKUP(H315,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J315" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K315" s="103">
+        <v>192</v>
+      </c>
+      <c r="L315" s="103">
+        <v>13</v>
+      </c>
+      <c r="M315" s="103">
+        <v>1</v>
+      </c>
+      <c r="N315" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O315" s="107">
+        <v>1</v>
+      </c>
+      <c r="P315" s="107"/>
+      <c r="Q315" s="107"/>
+      <c r="R315" s="107"/>
+      <c r="S315" s="108"/>
+      <c r="T315" s="103">
+        <f>SUM(O315:S315)</f>
+        <v>1</v>
+      </c>
+      <c r="U315" s="109" t="s">
+        <v>382</v>
+      </c>
+      <c r="V315" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="W315" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="X315" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y315" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z315" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA315" s="112"/>
+      <c r="AB315" s="112"/>
+      <c r="AC315" s="114"/>
+      <c r="AD315" s="115"/>
+      <c r="AE315" s="115"/>
+    </row>
+    <row r="316" customHeight="1" spans="1:31">
+      <c r="A316" s="103">
+        <v>318</v>
+      </c>
+      <c r="B316" s="103">
+        <v>240411005</v>
+      </c>
+      <c r="C316" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D316" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E316" s="103">
+        <f>IF(C316="","",WEEKNUM(C316,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F316" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G316" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="H316" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="I316" s="103" t="str">
+        <f>VLOOKUP(H316,[2]外O细分型号!A:B,2,0)</f>
+        <v>E180</v>
+      </c>
+      <c r="J316" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K316" s="103">
+        <v>1</v>
+      </c>
+      <c r="L316" s="103">
+        <v>1</v>
+      </c>
+      <c r="M316" s="103"/>
+      <c r="N316" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O316" s="107"/>
+      <c r="P316" s="107"/>
+      <c r="Q316" s="107"/>
+      <c r="R316" s="107"/>
+      <c r="S316" s="108"/>
+      <c r="T316" s="103">
+        <f>SUM(O316:S316)</f>
+        <v>0</v>
+      </c>
+      <c r="U316" s="109"/>
+      <c r="V316" s="110"/>
+      <c r="W316" s="107"/>
+      <c r="X316" s="107"/>
+      <c r="Y316" s="107"/>
+      <c r="Z316" s="107"/>
+      <c r="AA316" s="112"/>
+      <c r="AB316" s="112"/>
+      <c r="AC316" s="114"/>
+      <c r="AD316" s="115"/>
+      <c r="AE316" s="115"/>
+    </row>
+    <row r="317" customHeight="1" spans="1:31">
+      <c r="A317" s="103">
+        <v>319</v>
+      </c>
+      <c r="B317" s="103">
+        <v>240411006</v>
+      </c>
+      <c r="C317" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D317" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E317" s="103">
+        <f>IF(C317="","",WEEKNUM(C317,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F317" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G317" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="H317" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I317" s="103" t="str">
+        <f>VLOOKUP(H317,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J317" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K317" s="103">
+        <v>1</v>
+      </c>
+      <c r="L317" s="103">
+        <v>1</v>
+      </c>
+      <c r="M317" s="103"/>
+      <c r="N317" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O317" s="107"/>
+      <c r="P317" s="107"/>
+      <c r="Q317" s="107"/>
+      <c r="R317" s="107"/>
+      <c r="S317" s="108"/>
+      <c r="T317" s="103">
+        <f>SUM(O317:S317)</f>
+        <v>0</v>
+      </c>
+      <c r="U317" s="109"/>
+      <c r="V317" s="110"/>
+      <c r="W317" s="107"/>
+      <c r="X317" s="107"/>
+      <c r="Y317" s="107"/>
+      <c r="Z317" s="107"/>
+      <c r="AA317" s="112"/>
+      <c r="AB317" s="112"/>
+      <c r="AC317" s="114"/>
+      <c r="AD317" s="115"/>
+      <c r="AE317" s="115"/>
+    </row>
+    <row r="318" customHeight="1" spans="1:31">
+      <c r="A318" s="103">
+        <v>320</v>
+      </c>
+      <c r="B318" s="103">
+        <v>240411007</v>
+      </c>
+      <c r="C318" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D318" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E318" s="103">
+        <f>IF(C318="","",WEEKNUM(C318,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F318" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G318" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="H318" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="I318" s="103" t="str">
+        <f>VLOOKUP(H318,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J318" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K318" s="103">
+        <v>140</v>
+      </c>
+      <c r="L318" s="103">
+        <v>8</v>
+      </c>
+      <c r="M318" s="103"/>
+      <c r="N318" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O318" s="107"/>
+      <c r="P318" s="107"/>
+      <c r="Q318" s="107"/>
+      <c r="R318" s="107"/>
+      <c r="S318" s="108"/>
+      <c r="T318" s="103">
+        <f>SUM(O318:S318)</f>
+        <v>0</v>
+      </c>
+      <c r="U318" s="109"/>
+      <c r="V318" s="110"/>
+      <c r="W318" s="107"/>
+      <c r="X318" s="107"/>
+      <c r="Y318" s="107"/>
+      <c r="Z318" s="107"/>
+      <c r="AA318" s="112"/>
+      <c r="AB318" s="112"/>
+      <c r="AC318" s="114"/>
+      <c r="AD318" s="115"/>
+      <c r="AE318" s="115"/>
+    </row>
+    <row r="319" customHeight="1" spans="1:31">
+      <c r="A319" s="103">
+        <v>321</v>
+      </c>
+      <c r="B319" s="103">
+        <v>240411008</v>
+      </c>
+      <c r="C319" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D319" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E319" s="103">
+        <f>IF(C319="","",WEEKNUM(C319,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F319" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G319" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="H319" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="I319" s="103" t="str">
+        <f>VLOOKUP(H319,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J319" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="K319" s="103">
+        <v>4</v>
+      </c>
+      <c r="L319" s="103">
+        <v>4</v>
+      </c>
+      <c r="M319" s="103"/>
+      <c r="N319" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O319" s="107"/>
+      <c r="P319" s="107"/>
+      <c r="Q319" s="107"/>
+      <c r="R319" s="107"/>
+      <c r="S319" s="108"/>
+      <c r="T319" s="103">
+        <f>SUM(O319:S319)</f>
+        <v>0</v>
+      </c>
+      <c r="U319" s="109"/>
+      <c r="V319" s="110"/>
+      <c r="W319" s="107"/>
+      <c r="X319" s="107"/>
+      <c r="Y319" s="107"/>
+      <c r="Z319" s="107"/>
+      <c r="AA319" s="112"/>
+      <c r="AB319" s="112"/>
+      <c r="AC319" s="114"/>
+      <c r="AD319" s="115"/>
+      <c r="AE319" s="115"/>
+    </row>
+    <row r="320" customHeight="1" spans="1:31">
+      <c r="A320" s="103">
+        <v>322</v>
+      </c>
+      <c r="B320" s="103">
+        <v>240411009</v>
+      </c>
+      <c r="C320" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D320" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E320" s="103">
+        <f>IF(C320="","",WEEKNUM(C320,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F320" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G320" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="H320" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="I320" s="103" t="str">
+        <f>VLOOKUP(H320,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J320" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K320" s="103">
+        <v>480</v>
+      </c>
+      <c r="L320" s="103">
+        <v>13</v>
+      </c>
+      <c r="M320" s="103"/>
+      <c r="N320" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O320" s="107"/>
+      <c r="P320" s="107"/>
+      <c r="Q320" s="107"/>
+      <c r="R320" s="107"/>
+      <c r="S320" s="108"/>
+      <c r="T320" s="103">
+        <f>SUM(O320:S320)</f>
+        <v>0</v>
+      </c>
+      <c r="U320" s="109"/>
+      <c r="V320" s="110"/>
+      <c r="W320" s="107"/>
+      <c r="X320" s="107"/>
+      <c r="Y320" s="107"/>
+      <c r="Z320" s="107"/>
+      <c r="AA320" s="112"/>
+      <c r="AB320" s="112"/>
+      <c r="AC320" s="114"/>
+      <c r="AD320" s="115"/>
+      <c r="AE320" s="115"/>
+    </row>
+    <row r="321" customHeight="1" spans="1:31">
+      <c r="A321" s="103">
+        <v>323</v>
+      </c>
+      <c r="B321" s="103">
+        <v>240411010</v>
+      </c>
+      <c r="C321" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D321" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E321" s="103">
+        <f>IF(C321="","",WEEKNUM(C321,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F321" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G321" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="H321" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="I321" s="103" t="str">
+        <f>VLOOKUP(H321,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CM</v>
+      </c>
+      <c r="J321" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K321" s="103">
+        <v>234</v>
+      </c>
+      <c r="L321" s="103">
+        <v>8</v>
+      </c>
+      <c r="M321" s="103"/>
+      <c r="N321" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O321" s="107"/>
+      <c r="P321" s="107"/>
+      <c r="Q321" s="107"/>
+      <c r="R321" s="107"/>
+      <c r="S321" s="108"/>
+      <c r="T321" s="103">
+        <f>SUM(O321:S321)</f>
+        <v>0</v>
+      </c>
+      <c r="U321" s="109"/>
+      <c r="V321" s="110"/>
+      <c r="W321" s="107"/>
+      <c r="X321" s="107"/>
+      <c r="Y321" s="107"/>
+      <c r="Z321" s="107"/>
+      <c r="AA321" s="112"/>
+      <c r="AB321" s="112"/>
+      <c r="AC321" s="114"/>
+      <c r="AD321" s="115"/>
+      <c r="AE321" s="115"/>
+    </row>
+    <row r="322" customHeight="1" spans="1:31">
+      <c r="A322" s="103">
+        <v>324</v>
+      </c>
+      <c r="B322" s="103">
+        <v>240411011</v>
+      </c>
+      <c r="C322" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D322" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E322" s="103">
+        <f>IF(C322="","",WEEKNUM(C322,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F322" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G322" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="H322" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="I322" s="103" t="str">
+        <f>VLOOKUP(H322,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J322" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K322" s="103">
+        <v>336</v>
+      </c>
+      <c r="L322" s="103">
+        <v>32</v>
+      </c>
+      <c r="M322" s="103">
+        <v>1</v>
+      </c>
+      <c r="N322" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O322" s="107"/>
+      <c r="P322" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="107"/>
+      <c r="R322" s="107"/>
+      <c r="S322" s="108"/>
+      <c r="T322" s="103">
+        <f>SUM(O322:S322)</f>
+        <v>1</v>
+      </c>
+      <c r="U322" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="V322" s="110"/>
+      <c r="W322" s="107"/>
+      <c r="X322" s="107"/>
+      <c r="Y322" s="107"/>
+      <c r="Z322" s="107"/>
+      <c r="AA322" s="112"/>
+      <c r="AB322" s="112"/>
+      <c r="AC322" s="114"/>
+      <c r="AD322" s="115"/>
+      <c r="AE322" s="115"/>
+    </row>
+    <row r="323" customHeight="1" spans="1:31">
+      <c r="A323" s="103">
+        <v>325</v>
+      </c>
+      <c r="B323" s="103">
+        <v>240411012</v>
+      </c>
+      <c r="C323" s="104">
+        <v>45393</v>
+      </c>
+      <c r="D323" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E323" s="103">
+        <f>IF(C323="","",WEEKNUM(C323,1))</f>
+        <v>15</v>
+      </c>
+      <c r="F323" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G323" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="H323" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="I323" s="103" t="str">
+        <f>VLOOKUP(H323,[2]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J323" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K323" s="103">
+        <v>543</v>
+      </c>
+      <c r="L323" s="103">
+        <v>17</v>
+      </c>
+      <c r="M323" s="103">
+        <v>17</v>
+      </c>
+      <c r="N323" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="O323" s="107"/>
+      <c r="P323" s="107"/>
+      <c r="Q323" s="107"/>
+      <c r="R323" s="107">
+        <v>17</v>
+      </c>
+      <c r="S323" s="108"/>
+      <c r="T323" s="103">
+        <f>SUM(O323:S323)</f>
+        <v>17</v>
+      </c>
+      <c r="U323" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="V323" s="110"/>
+      <c r="W323" s="107"/>
+      <c r="X323" s="107"/>
+      <c r="Y323" s="107"/>
+      <c r="Z323" s="107"/>
+      <c r="AA323" s="112"/>
+      <c r="AB323" s="112"/>
+      <c r="AC323" s="114"/>
+      <c r="AD323" s="115"/>
+      <c r="AE323" s="115"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
@@ -25580,28 +26584,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y182 Y183 Y184 Y185 Y186 Y245 Y246 Y247 Y248 Y249 Y250 Y251 Y252 Y256 Y257 Y258 Y259 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y303 Y304 Y305 Y306 Y307 Y308 Y309 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y253:Y255">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y182 Y183 Y184 Y185 Y186 Y245 Y246 Y247 Y248 Y249 Y250 Y251 Y252 Y256 Y257 Y258 Y259 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y303 Y304 Y305 Y306 Y307 Y308 Y309 Y312 Y313 Y314 Y315 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y253:Y255">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z182 Z183 Z184 Z185 Z186 Z245 Z246 Z247 Z248 Z249 Z250 Z251 Z252 Z256 Z257 Z258 Z259 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z303 Z306 Z307 Z308 Z309 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z253:Z255 Z304:Z305">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z182 Z183 Z184 Z185 Z186 Z245 Z246 Z247 Z248 Z249 Z250 Z251 Z252 Z256 Z257 Z258 Z259 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z303 Z306 Z307 Z308 Z309 Z312 Z313 Z314 Z315 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z253:Z255 Z304:Z305">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V182 V183 V184 V185 V186 V245 V246 V247 V248 V249 V250 V256 V257 V258 V259 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V251:V255 W75:W181 W187:W244">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V182 V183 V184 V185 V186 V245 V246 V247 V248 V249 V250 V256 V257 V258 V259 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V312 V313 V314 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V251:V255 V315:V323 W75:W181 W187:W244">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W245 W246 W247 W248 W249 W250 W251 W252 W256 W257 W258 W259 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W303 W304 W305 W306 W307 W308 W309 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W182 W183 W184 W185 W186 W245 W246 W247 W248 W249 W250 W251 W252 W256 W257 W258 W259 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W303 W304 W305 W306 W307 W308 W309 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X182 X183 X184 X185 X186 X245 X246 X247 X248 X249 X250 X251 X252 X256 X257 X258 X259 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X303 X304 X305 X306 X307 X308 X309 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X182 X183 X184 X185 X186 X245 X246 X247 X248 X249 X250 X251 X252 X256 X257 X258 X259 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X303 X304 X305 X306 X307 X308 X309 X312 X313 X314 X315 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39">
       <formula1>INDIRECT($W3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N178 N182 N183 N184 N185 N186 N187 N188 N189 N195 N199 N200 N204 N211 N212 N213 N214 N218 N219 N220 N221 N222 N223 N230 N231 N234 N235 N236 N237 N238 N240 N241 N242 N245 N248 N251 N252 N257 N258 N259 N260 N261 N262 N263 N264 N265 N270 N271 N275 N276 N282 N283 N284 N285 N286 N287 N294 N299 N300 N301 N302 N303 N304 N305 N306 N307 N308 N309 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N179:N181 N190:N194 N196:N198 N201:N203 N205:N210 N215:N217 N224:N229 N232:N233 N243:N244 N249:N250 N253:N254 N255:N256 N266:N269 N272:N274 N277:N281 N288:N291 N292:N293 N296:N298">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N178 N182 N183 N184 N185 N186 N187 N188 N189 N195 N199 N200 N204 N211 N212 N213 N214 N218 N219 N220 N221 N222 N223 N230 N231 N234 N235 N236 N237 N238 N240 N241 N242 N245 N248 N251 N252 N257 N258 N259 N260 N261 N262 N263 N264 N265 N270 N271 N275 N276 N282 N283 N284 N285 N286 N287 N294 N299 N300 N301 N302 N303 N304 N305 N306 N307 N308 N309 N321 N322 N323 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N179:N181 N190:N194 N196:N198 N201:N203 N205:N210 N215:N217 N224:N229 N232:N233 N243:N244 N249:N250 N253:N254 N255:N256 N266:N269 N272:N274 N277:N281 N288:N291 N292:N293 N296:N298 N312:N320">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y187 Y188 Y189 Y190 Y203 Y239 Y240 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y181 Y191:Y202 Y204:Y238 Y241:Y244">
       <formula1>INDIRECT($X75)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W182 W183 W184 W185 W186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W312 W313 W314 W315">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X181 X187:X244">
@@ -25638,10 +26642,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25662,7 +26666,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -25686,10 +26690,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25697,28 +26701,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -25742,7 +26746,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -25758,18 +26762,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -25782,7 +26786,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -25790,7 +26794,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -25806,7 +26810,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -25814,15 +26818,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -25846,7 +26850,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -25886,10 +26890,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -25902,7 +26906,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -25910,7 +26914,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -25926,7 +26930,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -25958,7 +26962,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -25966,7 +26970,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -25974,7 +26978,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -26022,26 +27026,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -26078,7 +27082,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s">
         <v>74</v>
@@ -26094,7 +27098,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -26110,7 +27114,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12320"/>
+    <workbookView windowWidth="27660" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="数据源" sheetId="1" r:id="rId1"/>
@@ -2100,7 +2100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2482,9 +2482,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3872,9 +3869,9 @@
   <dimension ref="A1:AE323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G320" sqref="G320"/>
+      <selection pane="bottomLeft" activeCell="C310" sqref="C310:C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4050,7 +4047,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="22">
-        <f>WEEKNUM(C3,1)</f>
+        <f t="shared" ref="E3:E66" si="0">WEEKNUM(C3,1)</f>
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -4084,7 +4081,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f>SUM(O3:S3)</f>
+        <f t="shared" ref="T3:T27" si="1">SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -4113,7 +4110,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f>WEEKNUM(C4,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -4147,7 +4144,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f>SUM(O4:S4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -4176,7 +4173,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f>WEEKNUM(C5,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -4210,7 +4207,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f>SUM(O5:S5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -4239,7 +4236,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f>WEEKNUM(C6,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -4273,7 +4270,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f>SUM(O6:S6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -4302,7 +4299,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f>WEEKNUM(C7,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -4340,7 +4337,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f>SUM(O7:S7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -4381,7 +4378,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f>WEEKNUM(C8,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -4411,7 +4408,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f>SUM(O8:S8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -4452,7 +4449,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f>WEEKNUM(C9,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -4486,7 +4483,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f>SUM(O9:S9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -4515,7 +4512,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f>WEEKNUM(C10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -4553,7 +4550,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f>SUM(O10:S10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -4596,7 +4593,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f>WEEKNUM(C11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -4630,7 +4627,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f>SUM(O11:S11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -4659,7 +4656,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f>WEEKNUM(C12,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -4693,7 +4690,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f>SUM(O12:S12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -4722,7 +4719,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f>WEEKNUM(C13,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -4756,7 +4753,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f>SUM(O13:S13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -4785,7 +4782,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f>WEEKNUM(C14,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -4823,7 +4820,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f>SUM(O14:S14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -4866,7 +4863,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f>WEEKNUM(C15,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -4896,7 +4893,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f>SUM(O15:S15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -4937,7 +4934,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f>WEEKNUM(C16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -4975,7 +4972,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f>SUM(O16:S16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -5016,7 +5013,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f>WEEKNUM(C17,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -5046,7 +5043,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f>SUM(O17:S17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -5087,7 +5084,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f>WEEKNUM(C18,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5125,7 +5122,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f>SUM(O18:S18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -5166,7 +5163,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f>WEEKNUM(C19,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -5196,7 +5193,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f>SUM(O19:S19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -5237,7 +5234,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f>WEEKNUM(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -5271,7 +5268,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f>SUM(O20:S20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -5300,7 +5297,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f>WEEKNUM(C21,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -5334,7 +5331,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f>SUM(O21:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -5363,7 +5360,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f>WEEKNUM(C22,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -5401,7 +5398,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f>SUM(O22:S22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -5442,7 +5439,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f>WEEKNUM(C23,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5472,7 +5469,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f>SUM(O23:S23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -5513,7 +5510,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f>WEEKNUM(C24,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -5547,7 +5544,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f>SUM(O24:S24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -5576,7 +5573,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f>WEEKNUM(C25,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -5610,7 +5607,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f>SUM(O25:S25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -5639,7 +5636,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f>WEEKNUM(C26,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -5673,7 +5670,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f>SUM(O26:S26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -5702,7 +5699,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f>WEEKNUM(C27,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -5736,7 +5733,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f>SUM(O27:S27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -5765,7 +5762,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f>WEEKNUM(C28,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -5828,7 +5825,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f>WEEKNUM(C29,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -5891,7 +5888,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f>WEEKNUM(C30,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -5970,7 +5967,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f>WEEKNUM(C31,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -6049,7 +6046,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f>WEEKNUM(C32,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -6112,7 +6109,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f>WEEKNUM(C33,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -6191,7 +6188,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f>WEEKNUM(C34,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -6254,7 +6251,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f>WEEKNUM(C35,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -6317,7 +6314,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f>WEEKNUM(C36,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6380,7 +6377,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f>WEEKNUM(C37,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -6459,7 +6456,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f>WEEKNUM(C38,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -6497,7 +6494,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f>SUM(O38:S38)</f>
+        <f t="shared" ref="T38:T74" si="2">SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -6538,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f>WEEKNUM(C39,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6572,7 +6569,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f>SUM(O39:S39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -6601,7 +6598,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f>WEEKNUM(C40,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -6641,7 +6638,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f>SUM(O40:S40)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -6682,7 +6679,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f>WEEKNUM(C41,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -6720,7 +6717,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f>SUM(O41:S41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -6761,7 +6758,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f>WEEKNUM(C42,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6791,7 +6788,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f>SUM(O42:S42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -6832,7 +6829,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f>WEEKNUM(C43,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -6870,7 +6867,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f>SUM(O43:S43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -6911,7 +6908,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f>WEEKNUM(C44,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -6945,7 +6942,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f>SUM(O44:S44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -6974,7 +6971,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f>WEEKNUM(C45,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -7008,7 +7005,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f>SUM(O45:S45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -7037,7 +7034,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f>WEEKNUM(C46,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -7071,7 +7068,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f>SUM(O46:S46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -7100,7 +7097,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f>WEEKNUM(C47,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -7134,7 +7131,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f>SUM(O47:S47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -7163,7 +7160,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f>WEEKNUM(C48,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -7197,7 +7194,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f>SUM(O48:S48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -7226,7 +7223,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f>WEEKNUM(C49,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -7260,7 +7257,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f>SUM(O49:S49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -7289,7 +7286,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f>WEEKNUM(C50,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -7327,7 +7324,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f>SUM(O50:S50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -7368,7 +7365,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f>WEEKNUM(C51,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -7402,7 +7399,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f>SUM(O51:S51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -7431,7 +7428,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f>WEEKNUM(C52,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -7469,7 +7466,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f>SUM(O52:S52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -7510,7 +7507,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f>WEEKNUM(C53,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -7540,7 +7537,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f>SUM(O53:S53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -7581,7 +7578,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f>WEEKNUM(C54,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -7619,7 +7616,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f>SUM(O54:S54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -7660,7 +7657,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f>WEEKNUM(C55,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -7694,7 +7691,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f>SUM(O55:S55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -7723,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f>WEEKNUM(C56,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -7757,7 +7754,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f>SUM(O56:S56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -7786,7 +7783,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f>WEEKNUM(C57,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -7820,7 +7817,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f>SUM(O57:S57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -7849,7 +7846,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f>WEEKNUM(C58,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -7883,7 +7880,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f>SUM(O58:S58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -7912,7 +7909,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f>WEEKNUM(C59,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -7946,7 +7943,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f>SUM(O59:S59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -7975,7 +7972,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f>WEEKNUM(C60,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -8013,7 +8010,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f>SUM(O60:S60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -8054,7 +8051,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f>WEEKNUM(C61,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -8088,7 +8085,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f>SUM(O61:S61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -8117,7 +8114,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f>WEEKNUM(C62,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -8151,7 +8148,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f>SUM(O62:S62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -8180,7 +8177,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f>WEEKNUM(C63,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -8218,7 +8215,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f>SUM(O63:S63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -8259,7 +8256,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f>WEEKNUM(C64,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -8289,7 +8286,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f>SUM(O64:S64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -8330,7 +8327,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f>WEEKNUM(C65,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -8368,7 +8365,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f>SUM(O65:S65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -8409,7 +8406,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f>WEEKNUM(C66,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -8439,7 +8436,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f>SUM(O66:S66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -8480,7 +8477,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f>WEEKNUM(C67,1)</f>
+        <f t="shared" ref="E67:E130" si="3">WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -8518,7 +8515,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f>SUM(O67:S67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -8559,7 +8556,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f>WEEKNUM(C68,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -8597,7 +8594,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f>SUM(O68:S68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -8638,7 +8635,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f>WEEKNUM(C69,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -8672,7 +8669,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f>SUM(O69:S69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -8701,7 +8698,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f>WEEKNUM(C70,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -8735,7 +8732,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f>SUM(O70:S70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -8764,7 +8761,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f>WEEKNUM(C71,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -8798,7 +8795,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f>SUM(O71:S71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -8827,7 +8824,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f>WEEKNUM(C72,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -8861,7 +8858,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f>SUM(O72:S72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -8890,7 +8887,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f>WEEKNUM(C73,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -8928,7 +8925,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f>SUM(O73:S73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -8969,7 +8966,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f>WEEKNUM(C74,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -9003,7 +9000,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f>SUM(O74:S74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -9032,7 +9029,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f>WEEKNUM(C75,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -9110,7 +9107,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f>WEEKNUM(C76,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -9188,7 +9185,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f>WEEKNUM(C77,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -9258,7 +9255,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f>WEEKNUM(C78,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -9320,7 +9317,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f>WEEKNUM(C79,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -9382,7 +9379,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f>WEEKNUM(C80,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -9444,7 +9441,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f>WEEKNUM(C81,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -9506,7 +9503,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f>WEEKNUM(C82,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -9568,7 +9565,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f>WEEKNUM(C83,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -9630,7 +9627,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f>WEEKNUM(C84,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -9708,7 +9705,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f>WEEKNUM(C85,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -9770,7 +9767,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f>WEEKNUM(C86,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -9832,7 +9829,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f>WEEKNUM(C87,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -9894,7 +9891,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f>WEEKNUM(C88,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -9956,7 +9953,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f>WEEKNUM(C89,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -10018,7 +10015,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f>WEEKNUM(C90,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -10096,7 +10093,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f>WEEKNUM(C91,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -10174,7 +10171,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f>WEEKNUM(C92,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -10252,7 +10249,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f>WEEKNUM(C93,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -10314,7 +10311,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f>WEEKNUM(C94,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -10376,7 +10373,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f>WEEKNUM(C95,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -10438,7 +10435,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f>WEEKNUM(C96,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -10516,7 +10513,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f>WEEKNUM(C97,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -10578,7 +10575,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f>WEEKNUM(C98,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -10640,7 +10637,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f>WEEKNUM(C99,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -10702,7 +10699,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f>WEEKNUM(C100,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -10778,7 +10775,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f>WEEKNUM(C101,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -10840,7 +10837,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f>WEEKNUM(C102,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -10918,7 +10915,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f>WEEKNUM(C103,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -10980,7 +10977,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f>WEEKNUM(C104,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -11042,7 +11039,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f>WEEKNUM(C105,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -11104,7 +11101,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f>WEEKNUM(C106,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -11182,7 +11179,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f>WEEKNUM(C107,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -11260,7 +11257,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f>WEEKNUM(C108,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -11328,7 +11325,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f>WEEKNUM(C109,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -11390,7 +11387,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f>WEEKNUM(C110,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -11452,7 +11449,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f>WEEKNUM(C111,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -11514,7 +11511,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f>WEEKNUM(C112,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -11592,7 +11589,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f>WEEKNUM(C113,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -11662,7 +11659,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f>WEEKNUM(C114,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -11724,7 +11721,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f>WEEKNUM(C115,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -11786,7 +11783,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f>WEEKNUM(C116,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -11864,7 +11861,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f>WEEKNUM(C117,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -11942,7 +11939,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f>WEEKNUM(C118,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -12020,7 +12017,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f>WEEKNUM(C119,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -12098,7 +12095,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f>WEEKNUM(C120,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -12160,7 +12157,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f>WEEKNUM(C121,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -12238,7 +12235,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f>WEEKNUM(C122,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -12300,7 +12297,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f>WEEKNUM(C123,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -12362,7 +12359,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f>WEEKNUM(C124,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -12440,7 +12437,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f>WEEKNUM(C125,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -12500,7 +12497,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f>WEEKNUM(C126,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -12560,7 +12557,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f>WEEKNUM(C127,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -12620,7 +12617,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f>WEEKNUM(C128,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -12680,7 +12677,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f>WEEKNUM(C129,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -12740,7 +12737,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f>WEEKNUM(C130,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -12800,7 +12797,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f>WEEKNUM(C131,1)</f>
+        <f t="shared" ref="E131:E181" si="4">WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -12860,7 +12857,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f>WEEKNUM(C132,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -12920,7 +12917,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f>WEEKNUM(C133,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -12980,7 +12977,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f>WEEKNUM(C134,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -13040,7 +13037,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f>WEEKNUM(C135,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -13118,7 +13115,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f>WEEKNUM(C136,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -13180,7 +13177,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f>WEEKNUM(C137,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -13242,7 +13239,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f>WEEKNUM(C138,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -13320,7 +13317,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f>WEEKNUM(C139,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -13398,7 +13395,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f>WEEKNUM(C140,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -13468,7 +13465,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f>WEEKNUM(C141,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F141" s="58" t="s">
@@ -13530,7 +13527,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f>WEEKNUM(C142,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -13592,7 +13589,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f>WEEKNUM(C143,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F143" s="58" t="s">
@@ -13670,7 +13667,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f>WEEKNUM(C144,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -13740,7 +13737,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f>WEEKNUM(C145,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F145" s="58" t="s">
@@ -13802,7 +13799,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f>WEEKNUM(C146,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -13864,7 +13861,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f>WEEKNUM(C147,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F147" s="58" t="s">
@@ -13926,7 +13923,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f>WEEKNUM(C148,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -13988,7 +13985,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f>WEEKNUM(C149,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F149" s="58" t="s">
@@ -14050,7 +14047,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f>WEEKNUM(C150,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -14128,7 +14125,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f>WEEKNUM(C151,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F151" s="58" t="s">
@@ -14198,7 +14195,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f>WEEKNUM(C152,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -14276,7 +14273,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f>WEEKNUM(C153,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F153" s="58" t="s">
@@ -14346,7 +14343,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f>WEEKNUM(C154,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -14408,7 +14405,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f>WEEKNUM(C155,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -14486,7 +14483,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f>WEEKNUM(C156,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -14548,7 +14545,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f>WEEKNUM(C157,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -14610,7 +14607,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f>WEEKNUM(C158,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -14672,7 +14669,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f>WEEKNUM(C159,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -14734,7 +14731,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f>WEEKNUM(C160,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -14796,7 +14793,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f>WEEKNUM(C161,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -14858,7 +14855,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f>WEEKNUM(C162,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -14920,7 +14917,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f>WEEKNUM(C163,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -14982,7 +14979,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f>WEEKNUM(C164,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -15044,7 +15041,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f>WEEKNUM(C165,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -15106,7 +15103,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f>WEEKNUM(C166,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -15168,7 +15165,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f>WEEKNUM(C167,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -15230,7 +15227,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f>WEEKNUM(C168,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -15292,7 +15289,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f>WEEKNUM(C169,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -15354,7 +15351,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f>WEEKNUM(C170,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -15432,7 +15429,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f>WEEKNUM(C171,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -15494,7 +15491,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f>WEEKNUM(C172,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -15556,7 +15553,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f>WEEKNUM(C173,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -15618,7 +15615,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f>WEEKNUM(C174,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -15680,7 +15677,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f>WEEKNUM(C175,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -15742,7 +15739,7 @@
         <v>230</v>
       </c>
       <c r="E176" s="22">
-        <f>WEEKNUM(C176,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F176" s="54" t="s">
@@ -15804,7 +15801,7 @@
         <v>230</v>
       </c>
       <c r="E177" s="22">
-        <f>WEEKNUM(C177,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F177" s="54" t="s">
@@ -15880,7 +15877,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="22">
-        <f>WEEKNUM(C178,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F178" s="54" t="s">
@@ -15942,7 +15939,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="22">
-        <f>WEEKNUM(C179,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F179" s="54" t="s">
@@ -16004,7 +16001,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="22">
-        <f>WEEKNUM(C180,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F180" s="54" t="s">
@@ -16066,7 +16063,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="22">
-        <f>WEEKNUM(C181,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F181" s="54" t="s">
@@ -16449,7 +16446,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="22">
-        <f>WEEKNUM(C187,1)</f>
+        <f t="shared" ref="E187:E244" si="5">WEEKNUM(C187,1)</f>
         <v>11</v>
       </c>
       <c r="F187" s="54" t="s">
@@ -16511,7 +16508,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="22">
-        <f>WEEKNUM(C188,1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F188" s="54" t="s">
@@ -16573,7 +16570,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="22">
-        <f>WEEKNUM(C189,1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F189" s="54" t="s">
@@ -16649,7 +16646,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="22">
-        <f>WEEKNUM(C190,1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F190" s="54" t="s">
@@ -16711,7 +16708,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="22">
-        <f>WEEKNUM(C191,1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F191" s="54" t="s">
@@ -16773,7 +16770,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="22">
-        <f>WEEKNUM(C192,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F192" s="54" t="s">
@@ -16835,7 +16832,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="22">
-        <f>WEEKNUM(C193,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F193" s="54" t="s">
@@ -16911,7 +16908,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="22">
-        <f>WEEKNUM(C194,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F194" s="54" t="s">
@@ -16971,7 +16968,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="22">
-        <f>WEEKNUM(C195,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F195" s="54" t="s">
@@ -17033,7 +17030,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="22">
-        <f>WEEKNUM(C196,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F196" s="54" t="s">
@@ -17095,7 +17092,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="22">
-        <f>WEEKNUM(C197,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F197" s="54" t="s">
@@ -17173,7 +17170,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="22">
-        <f>WEEKNUM(C198,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F198" s="54" t="s">
@@ -17251,7 +17248,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="22">
-        <f>WEEKNUM(C199,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F199" s="54" t="s">
@@ -17313,7 +17310,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="22">
-        <f>WEEKNUM(C200,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F200" s="54" t="s">
@@ -17375,7 +17372,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="22">
-        <f>WEEKNUM(C201,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F201" s="41" t="s">
@@ -17453,7 +17450,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="22">
-        <f>WEEKNUM(C202,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F202" s="41" t="s">
@@ -17523,7 +17520,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="22">
-        <f>WEEKNUM(C203,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F203" s="41" t="s">
@@ -17585,7 +17582,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="22">
-        <f>WEEKNUM(C204,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F204" s="41" t="s">
@@ -17663,7 +17660,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="22">
-        <f>WEEKNUM(C205,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F205" s="41" t="s">
@@ -17731,7 +17728,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="22">
-        <f>WEEKNUM(C206,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F206" s="41" t="s">
@@ -17809,7 +17806,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="22">
-        <f>WEEKNUM(C207,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F207" s="41" t="s">
@@ -17871,7 +17868,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="22">
-        <f>WEEKNUM(C208,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F208" s="41" t="s">
@@ -17931,7 +17928,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="22">
-        <f>WEEKNUM(C209,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F209" s="41" t="s">
@@ -17991,7 +17988,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="22">
-        <f>WEEKNUM(C210,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F210" s="41" t="s">
@@ -18051,7 +18048,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="22">
-        <f>WEEKNUM(C211,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F211" s="41" t="s">
@@ -18113,7 +18110,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="22">
-        <f>WEEKNUM(C212,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F212" s="41" t="s">
@@ -18191,7 +18188,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="22">
-        <f>WEEKNUM(C213,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F213" s="41" t="s">
@@ -18253,7 +18250,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="22">
-        <f>WEEKNUM(C214,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F214" s="54" t="s">
@@ -18315,7 +18312,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="22">
-        <f>WEEKNUM(C215,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F215" s="54" t="s">
@@ -18393,7 +18390,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="22">
-        <f>WEEKNUM(C216,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F216" s="54" t="s">
@@ -18455,7 +18452,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="22">
-        <f>WEEKNUM(C217,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F217" s="54" t="s">
@@ -18517,7 +18514,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="22">
-        <f>WEEKNUM(C218,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F218" s="54" t="s">
@@ -18579,7 +18576,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="22">
-        <f>WEEKNUM(C219,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F219" s="54" t="s">
@@ -18657,7 +18654,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="22">
-        <f>WEEKNUM(C220,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F220" s="54" t="s">
@@ -18719,7 +18716,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="22">
-        <f>WEEKNUM(C221,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F221" s="54" t="s">
@@ -18797,7 +18794,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="22">
-        <f>WEEKNUM(C222,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F222" s="54" t="s">
@@ -18859,7 +18856,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="22">
-        <f>WEEKNUM(C223,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F223" s="54" t="s">
@@ -18937,7 +18934,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="22">
-        <f>WEEKNUM(C224,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F224" s="54" t="s">
@@ -18999,7 +18996,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="22">
-        <f>WEEKNUM(C225,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F225" s="54" t="s">
@@ -19061,7 +19058,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="22">
-        <f>WEEKNUM(C226,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F226" s="54" t="s">
@@ -19139,7 +19136,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="22">
-        <f>WEEKNUM(C227,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F227" s="54" t="s">
@@ -19201,7 +19198,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="22">
-        <f>WEEKNUM(C228,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F228" s="54" t="s">
@@ -19263,7 +19260,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="22">
-        <f>WEEKNUM(C229,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F229" s="54" t="s">
@@ -19325,7 +19322,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="22">
-        <f>WEEKNUM(C230,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F230" s="54" t="s">
@@ -19387,7 +19384,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="22">
-        <f>WEEKNUM(C231,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F231" s="54" t="s">
@@ -19465,7 +19462,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="22">
-        <f>WEEKNUM(C232,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F232" s="54" t="s">
@@ -19525,7 +19522,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="22">
-        <f>WEEKNUM(C233,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F233" s="54" t="s">
@@ -19587,7 +19584,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="22">
-        <f>WEEKNUM(C234,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F234" s="54" t="s">
@@ -19649,7 +19646,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="22">
-        <f>WEEKNUM(C235,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F235" s="54" t="s">
@@ -19711,7 +19708,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="22">
-        <f>WEEKNUM(C236,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F236" s="54" t="s">
@@ -19773,7 +19770,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="22">
-        <f>WEEKNUM(C237,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F237" s="54" t="s">
@@ -19851,7 +19848,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="22">
-        <f>WEEKNUM(C238,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F238" s="54" t="s">
@@ -19913,7 +19910,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="22">
-        <f>WEEKNUM(C239,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F239" s="54" t="s">
@@ -19975,7 +19972,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="22">
-        <f>WEEKNUM(C240,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F240" s="54" t="s">
@@ -20037,7 +20034,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="22">
-        <f>WEEKNUM(C241,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F241" s="54" t="s">
@@ -20099,7 +20096,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="22">
-        <f>WEEKNUM(C242,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F242" s="54" t="s">
@@ -20161,7 +20158,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="22">
-        <f>WEEKNUM(C243,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F243" s="54" t="s">
@@ -20223,7 +20220,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="22">
-        <f>WEEKNUM(C244,1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F244" s="54" t="s">
@@ -20285,7 +20282,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="99">
-        <f>IF(C245="","",WEEKNUM(C245,1))</f>
+        <f t="shared" ref="E245:E308" si="6">IF(C245="","",WEEKNUM(C245,1))</f>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -20324,7 +20321,7 @@
       <c r="R245" s="11"/>
       <c r="S245" s="12"/>
       <c r="T245" s="42">
-        <f>SUM(O245:S245)</f>
+        <f t="shared" ref="T245:T268" si="7">SUM(O245:S245)</f>
         <v>1</v>
       </c>
       <c r="U245" s="38" t="s">
@@ -20365,7 +20362,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="99">
-        <f>IF(C246="","",WEEKNUM(C246,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -20396,7 +20393,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f>SUM(O246:S246)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U246" s="38" t="s">
@@ -20437,7 +20434,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="99">
-        <f>IF(C247="","",WEEKNUM(C247,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -20468,7 +20465,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f>SUM(O247:S247)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U247" s="38" t="s">
@@ -20509,7 +20506,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="99">
-        <f>IF(C248="","",WEEKNUM(C248,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -20548,7 +20545,7 @@
       <c r="R248" s="42"/>
       <c r="S248" s="42"/>
       <c r="T248" s="42">
-        <f>SUM(O248:S248)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U248" s="38" t="s">
@@ -20589,7 +20586,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="63">
-        <f>IF(C249="","",WEEKNUM(C249,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F249" s="22" t="s">
@@ -20624,7 +20621,7 @@
       <c r="R249" s="22"/>
       <c r="S249" s="22"/>
       <c r="T249" s="22">
-        <f>SUM(O249:S249)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U249" s="27"/>
@@ -20653,7 +20650,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="63">
-        <f>IF(C250="","",WEEKNUM(C250,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F250" s="22" t="s">
@@ -20692,7 +20689,7 @@
       <c r="R250" s="22"/>
       <c r="S250" s="22"/>
       <c r="T250" s="22">
-        <f>SUM(O250:S250)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U250" s="27" t="s">
@@ -20733,7 +20730,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="63">
-        <f>IF(C251="","",WEEKNUM(C251,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F251" s="22" t="s">
@@ -20764,7 +20761,7 @@
       <c r="R251" s="22"/>
       <c r="S251" s="22"/>
       <c r="T251" s="22">
-        <f>SUM(O251:S251)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U251" s="27" t="s">
@@ -20805,7 +20802,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="63">
-        <f>IF(C252="","",WEEKNUM(C252,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F252" s="22" t="s">
@@ -20840,7 +20837,7 @@
       <c r="R252" s="22"/>
       <c r="S252" s="22"/>
       <c r="T252" s="22">
-        <f>SUM(O252:S252)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U252" s="27"/>
@@ -20869,7 +20866,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="63">
-        <f>IF(C253="","",WEEKNUM(C253,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -20904,7 +20901,7 @@
       <c r="R253" s="11"/>
       <c r="S253" s="12"/>
       <c r="T253" s="42">
-        <f>SUM(O253:S253)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U253" s="36"/>
@@ -20933,7 +20930,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="63">
-        <f>IF(C254="","",WEEKNUM(C254,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -20968,7 +20965,7 @@
       <c r="R254" s="11"/>
       <c r="S254" s="12"/>
       <c r="T254" s="42">
-        <f>SUM(O254:S254)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U254" s="36"/>
@@ -20997,7 +20994,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="63">
-        <f>IF(C255="","",WEEKNUM(C255,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -21032,7 +21029,7 @@
       <c r="R255" s="11"/>
       <c r="S255" s="12"/>
       <c r="T255" s="42">
-        <f>SUM(O255:S255)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U255" s="36"/>
@@ -21061,7 +21058,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="63">
-        <f>IF(C256="","",WEEKNUM(C256,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -21100,7 +21097,7 @@
       <c r="R256" s="11"/>
       <c r="S256" s="12"/>
       <c r="T256" s="42">
-        <f>SUM(O256:S256)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U256" s="36" t="s">
@@ -21143,7 +21140,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="63">
-        <f>IF(C257="","",WEEKNUM(C257,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -21178,7 +21175,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f>SUM(O257:S257)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -21207,7 +21204,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="63">
-        <f>IF(C258="","",WEEKNUM(C258,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -21242,7 +21239,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f>SUM(O258:S258)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -21271,7 +21268,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="63">
-        <f>IF(C259="","",WEEKNUM(C259,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -21306,7 +21303,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f>SUM(O259:S259)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -21337,7 +21334,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="63">
-        <f>IF(C260="","",WEEKNUM(C260,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -21372,7 +21369,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f>SUM(O260:S260)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U260" s="36"/>
@@ -21401,7 +21398,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="63">
-        <f>IF(C261="","",WEEKNUM(C261,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -21436,7 +21433,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f>SUM(O261:S261)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -21465,7 +21462,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="63">
-        <f>IF(C262="","",WEEKNUM(C262,1))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -21500,7 +21497,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f>SUM(O262:S262)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -21529,7 +21526,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="63">
-        <f>IF(C263="","",WEEKNUM(C263,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -21564,7 +21561,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f>SUM(O263:S263)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -21593,7 +21590,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="63">
-        <f>IF(C264="","",WEEKNUM(C264,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -21628,7 +21625,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f>SUM(O264:S264)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -21657,7 +21654,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="63">
-        <f>IF(C265="","",WEEKNUM(C265,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -21692,7 +21689,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f>SUM(O265:S265)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -21721,7 +21718,7 @@
         <v>345</v>
       </c>
       <c r="E266" s="63">
-        <f>IF(C266="","",WEEKNUM(C266,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -21756,7 +21753,7 @@
       <c r="R266" s="22"/>
       <c r="S266" s="22"/>
       <c r="T266" s="22">
-        <f>SUM(O266:S266)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U266" s="27"/>
@@ -21785,7 +21782,7 @@
         <v>345</v>
       </c>
       <c r="E267" s="63">
-        <f>IF(C267="","",WEEKNUM(C267,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -21820,7 +21817,7 @@
       <c r="R267" s="22"/>
       <c r="S267" s="22"/>
       <c r="T267" s="22">
-        <f>SUM(O267:S267)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U267" s="27"/>
@@ -21849,7 +21846,7 @@
         <v>345</v>
       </c>
       <c r="E268" s="63">
-        <f>IF(C268="","",WEEKNUM(C268,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -21884,7 +21881,7 @@
       <c r="R268" s="22"/>
       <c r="S268" s="22"/>
       <c r="T268" s="22">
-        <f>SUM(O268:S268)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U268" s="27"/>
@@ -21913,7 +21910,7 @@
         <v>345</v>
       </c>
       <c r="E269" s="63">
-        <f>IF(C269="","",WEEKNUM(C269,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -21974,7 +21971,7 @@
         <v>345</v>
       </c>
       <c r="E270" s="63">
-        <f>IF(C270="","",WEEKNUM(C270,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -22013,7 +22010,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f>SUM(O270:S270)</f>
+        <f t="shared" ref="T270:T309" si="8">SUM(O270:S270)</f>
         <v>1</v>
       </c>
       <c r="U270" s="27" t="s">
@@ -22054,7 +22051,7 @@
         <v>345</v>
       </c>
       <c r="E271" s="63">
-        <f>IF(C271="","",WEEKNUM(C271,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -22085,7 +22082,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f>SUM(O271:S271)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U271" s="27" t="s">
@@ -22126,7 +22123,7 @@
         <v>345</v>
       </c>
       <c r="E272" s="63">
-        <f>IF(C272="","",WEEKNUM(C272,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -22161,7 +22158,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f>SUM(O272:S272)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -22190,7 +22187,7 @@
         <v>345</v>
       </c>
       <c r="E273" s="63">
-        <f>IF(C273="","",WEEKNUM(C273,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -22229,7 +22226,7 @@
       <c r="R273" s="22"/>
       <c r="S273" s="22"/>
       <c r="T273" s="22">
-        <f>SUM(O273:S273)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U273" s="27" t="s">
@@ -22270,7 +22267,7 @@
         <v>345</v>
       </c>
       <c r="E274" s="63">
-        <f>IF(C274="","",WEEKNUM(C274,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -22309,7 +22306,7 @@
       </c>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f>SUM(O274:S274)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -22327,7 +22324,7 @@
       <c r="Y274" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z274" s="111" t="s">
+      <c r="Z274" s="110" t="s">
         <v>67</v>
       </c>
       <c r="AA274" s="10"/>
@@ -22350,7 +22347,7 @@
         <v>345</v>
       </c>
       <c r="E275" s="63">
-        <f>IF(C275="","",WEEKNUM(C275,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -22385,7 +22382,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f>SUM(O275:S275)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U275" s="27"/>
@@ -22393,12 +22390,12 @@
       <c r="W275" s="11"/>
       <c r="X275" s="11"/>
       <c r="Y275" s="11"/>
-      <c r="Z275" s="111"/>
+      <c r="Z275" s="110"/>
       <c r="AA275" s="8"/>
       <c r="AB275" s="8"/>
-      <c r="AC275" s="113"/>
-      <c r="AD275" s="113"/>
-      <c r="AE275" s="113"/>
+      <c r="AC275" s="112"/>
+      <c r="AD275" s="112"/>
+      <c r="AE275" s="112"/>
     </row>
     <row r="276" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A276" s="22">
@@ -22414,7 +22411,7 @@
         <v>345</v>
       </c>
       <c r="E276" s="63">
-        <f>IF(C276="","",WEEKNUM(C276,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -22453,7 +22450,7 @@
       </c>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f>SUM(O276:S276)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U276" s="27" t="s">
@@ -22471,7 +22468,7 @@
       <c r="Y276" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z276" s="111" t="s">
+      <c r="Z276" s="110" t="s">
         <v>53</v>
       </c>
       <c r="AA276" s="8"/>
@@ -22479,8 +22476,8 @@
       <c r="AC276" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="AD276" s="113"/>
-      <c r="AE276" s="113"/>
+      <c r="AD276" s="112"/>
+      <c r="AE276" s="112"/>
     </row>
     <row r="277" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A277" s="22">
@@ -22496,7 +22493,7 @@
         <v>345</v>
       </c>
       <c r="E277" s="63">
-        <f>IF(C277="","",WEEKNUM(C277,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -22535,7 +22532,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f>SUM(O277:S277)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -22553,7 +22550,7 @@
       <c r="Y277" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z277" s="111" t="s">
+      <c r="Z277" s="110" t="s">
         <v>67</v>
       </c>
       <c r="AA277" s="8"/>
@@ -22561,8 +22558,8 @@
       <c r="AC277" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="AD277" s="113"/>
-      <c r="AE277" s="113"/>
+      <c r="AD277" s="112"/>
+      <c r="AE277" s="112"/>
     </row>
     <row r="278" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A278" s="22">
@@ -22578,7 +22575,7 @@
         <v>345</v>
       </c>
       <c r="E278" s="63">
-        <f>IF(C278="","",WEEKNUM(C278,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -22613,7 +22610,7 @@
       <c r="R278" s="22"/>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f>SUM(O278:S278)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U278" s="27"/>
@@ -22621,14 +22618,14 @@
       <c r="W278" s="11"/>
       <c r="X278" s="11"/>
       <c r="Y278" s="11"/>
-      <c r="Z278" s="111"/>
+      <c r="Z278" s="110"/>
       <c r="AA278" s="8"/>
       <c r="AB278" s="8"/>
       <c r="AC278" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="AD278" s="113"/>
-      <c r="AE278" s="113"/>
+      <c r="AD278" s="112"/>
+      <c r="AE278" s="112"/>
     </row>
     <row r="279" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A279" s="22">
@@ -22644,7 +22641,7 @@
         <v>345</v>
       </c>
       <c r="E279" s="63">
-        <f>IF(C279="","",WEEKNUM(C279,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -22683,7 +22680,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f>SUM(O279:S279)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U279" s="27" t="s">
@@ -22701,14 +22698,14 @@
       <c r="Y279" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z279" s="111" t="s">
+      <c r="Z279" s="110" t="s">
         <v>67</v>
       </c>
       <c r="AA279" s="8"/>
       <c r="AB279" s="8"/>
-      <c r="AC279" s="113"/>
-      <c r="AD279" s="113"/>
-      <c r="AE279" s="113"/>
+      <c r="AC279" s="112"/>
+      <c r="AD279" s="112"/>
+      <c r="AE279" s="112"/>
     </row>
     <row r="280" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A280" s="22">
@@ -22724,7 +22721,7 @@
         <v>345</v>
       </c>
       <c r="E280" s="63">
-        <f>IF(C280="","",WEEKNUM(C280,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -22759,7 +22756,7 @@
       <c r="R280" s="22"/>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f>SUM(O280:S280)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U280" s="27"/>
@@ -22767,12 +22764,12 @@
       <c r="W280" s="11"/>
       <c r="X280" s="11"/>
       <c r="Y280" s="11"/>
-      <c r="Z280" s="111"/>
+      <c r="Z280" s="110"/>
       <c r="AA280" s="8"/>
       <c r="AB280" s="8"/>
-      <c r="AC280" s="113"/>
-      <c r="AD280" s="113"/>
-      <c r="AE280" s="113"/>
+      <c r="AC280" s="112"/>
+      <c r="AD280" s="112"/>
+      <c r="AE280" s="112"/>
     </row>
     <row r="281" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A281" s="22">
@@ -22788,7 +22785,7 @@
         <v>345</v>
       </c>
       <c r="E281" s="63">
-        <f>IF(C281="","",WEEKNUM(C281,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -22823,7 +22820,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f>SUM(O281:S281)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U281" s="27"/>
@@ -22831,12 +22828,12 @@
       <c r="W281" s="11"/>
       <c r="X281" s="11"/>
       <c r="Y281" s="11"/>
-      <c r="Z281" s="111"/>
+      <c r="Z281" s="110"/>
       <c r="AA281" s="8"/>
       <c r="AB281" s="8"/>
-      <c r="AC281" s="113"/>
-      <c r="AD281" s="113"/>
-      <c r="AE281" s="113"/>
+      <c r="AC281" s="112"/>
+      <c r="AD281" s="112"/>
+      <c r="AE281" s="112"/>
     </row>
     <row r="282" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A282" s="22">
@@ -22852,7 +22849,7 @@
         <v>345</v>
       </c>
       <c r="E282" s="63">
-        <f>IF(C282="","",WEEKNUM(C282,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -22887,7 +22884,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f>SUM(O282:S282)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -22895,12 +22892,12 @@
       <c r="W282" s="11"/>
       <c r="X282" s="11"/>
       <c r="Y282" s="11"/>
-      <c r="Z282" s="111"/>
+      <c r="Z282" s="110"/>
       <c r="AA282" s="8"/>
       <c r="AB282" s="8"/>
-      <c r="AC282" s="113"/>
-      <c r="AD282" s="113"/>
-      <c r="AE282" s="113"/>
+      <c r="AC282" s="112"/>
+      <c r="AD282" s="112"/>
+      <c r="AE282" s="112"/>
     </row>
     <row r="283" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A283" s="22">
@@ -22916,7 +22913,7 @@
         <v>345</v>
       </c>
       <c r="E283" s="63">
-        <f>IF(C283="","",WEEKNUM(C283,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -22951,7 +22948,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f>SUM(O283:S283)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U283" s="27"/>
@@ -22959,12 +22956,12 @@
       <c r="W283" s="11"/>
       <c r="X283" s="11"/>
       <c r="Y283" s="11"/>
-      <c r="Z283" s="111"/>
+      <c r="Z283" s="110"/>
       <c r="AA283" s="8"/>
       <c r="AB283" s="8"/>
       <c r="AC283" s="22"/>
-      <c r="AD283" s="113"/>
-      <c r="AE283" s="113"/>
+      <c r="AD283" s="112"/>
+      <c r="AE283" s="112"/>
     </row>
     <row r="284" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A284" s="22">
@@ -22980,7 +22977,7 @@
         <v>345</v>
       </c>
       <c r="E284" s="63">
-        <f>IF(C284="","",WEEKNUM(C284,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -23015,7 +23012,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f>SUM(O284:S284)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -23023,14 +23020,14 @@
       <c r="W284" s="11"/>
       <c r="X284" s="11"/>
       <c r="Y284" s="11"/>
-      <c r="Z284" s="111"/>
+      <c r="Z284" s="110"/>
       <c r="AA284" s="8"/>
       <c r="AB284" s="8"/>
       <c r="AC284" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD284" s="113"/>
-      <c r="AE284" s="113"/>
+      <c r="AD284" s="112"/>
+      <c r="AE284" s="112"/>
     </row>
     <row r="285" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A285" s="22">
@@ -23046,7 +23043,7 @@
         <v>345</v>
       </c>
       <c r="E285" s="63">
-        <f>IF(C285="","",WEEKNUM(C285,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -23081,7 +23078,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f>SUM(O285:S285)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -23089,12 +23086,12 @@
       <c r="W285" s="11"/>
       <c r="X285" s="11"/>
       <c r="Y285" s="11"/>
-      <c r="Z285" s="111"/>
+      <c r="Z285" s="110"/>
       <c r="AA285" s="8"/>
       <c r="AB285" s="8"/>
       <c r="AC285" s="22"/>
-      <c r="AD285" s="113"/>
-      <c r="AE285" s="113"/>
+      <c r="AD285" s="112"/>
+      <c r="AE285" s="112"/>
     </row>
     <row r="286" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A286" s="22">
@@ -23110,7 +23107,7 @@
         <v>345</v>
       </c>
       <c r="E286" s="63">
-        <f>IF(C286="","",WEEKNUM(C286,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -23149,7 +23146,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f>SUM(O286:S286)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U286" s="27" t="s">
@@ -23167,14 +23164,14 @@
       <c r="Y286" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z286" s="111" t="s">
+      <c r="Z286" s="110" t="s">
         <v>53</v>
       </c>
       <c r="AA286" s="8"/>
       <c r="AB286" s="8"/>
-      <c r="AC286" s="113"/>
-      <c r="AD286" s="113"/>
-      <c r="AE286" s="113"/>
+      <c r="AC286" s="112"/>
+      <c r="AD286" s="112"/>
+      <c r="AE286" s="112"/>
     </row>
     <row r="287" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A287" s="22">
@@ -23190,7 +23187,7 @@
         <v>345</v>
       </c>
       <c r="E287" s="63">
-        <f>IF(C287="","",WEEKNUM(C287,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -23221,7 +23218,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f>SUM(O287:S287)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U287" s="27" t="s">
@@ -23239,14 +23236,14 @@
       <c r="Y287" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z287" s="111" t="s">
+      <c r="Z287" s="110" t="s">
         <v>53</v>
       </c>
       <c r="AA287" s="8"/>
       <c r="AB287" s="8"/>
-      <c r="AC287" s="113"/>
-      <c r="AD287" s="113"/>
-      <c r="AE287" s="113"/>
+      <c r="AC287" s="112"/>
+      <c r="AD287" s="112"/>
+      <c r="AE287" s="112"/>
     </row>
     <row r="288" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A288" s="22">
@@ -23262,7 +23259,7 @@
         <v>345</v>
       </c>
       <c r="E288" s="63">
-        <f>IF(C288="","",WEEKNUM(C288,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -23297,7 +23294,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f>SUM(O288:S288)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -23308,9 +23305,9 @@
       <c r="Z288" s="11"/>
       <c r="AA288" s="8"/>
       <c r="AB288" s="8"/>
-      <c r="AC288" s="113"/>
-      <c r="AD288" s="113"/>
-      <c r="AE288" s="113"/>
+      <c r="AC288" s="112"/>
+      <c r="AD288" s="112"/>
+      <c r="AE288" s="112"/>
     </row>
     <row r="289" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A289" s="22">
@@ -23326,7 +23323,7 @@
         <v>345</v>
       </c>
       <c r="E289" s="63">
-        <f>IF(C289="","",WEEKNUM(C289,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -23361,7 +23358,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f>SUM(O289:S289)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -23372,9 +23369,9 @@
       <c r="Z289" s="11"/>
       <c r="AA289" s="8"/>
       <c r="AB289" s="8"/>
-      <c r="AC289" s="113"/>
-      <c r="AD289" s="113"/>
-      <c r="AE289" s="113"/>
+      <c r="AC289" s="112"/>
+      <c r="AD289" s="112"/>
+      <c r="AE289" s="112"/>
     </row>
     <row r="290" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A290" s="22">
@@ -23390,7 +23387,7 @@
         <v>345</v>
       </c>
       <c r="E290" s="63">
-        <f>IF(C290="","",WEEKNUM(C290,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -23425,7 +23422,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f>SUM(O290:S290)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U290" s="27"/>
@@ -23436,9 +23433,9 @@
       <c r="Z290" s="11"/>
       <c r="AA290" s="8"/>
       <c r="AB290" s="8"/>
-      <c r="AC290" s="113"/>
-      <c r="AD290" s="113"/>
-      <c r="AE290" s="113"/>
+      <c r="AC290" s="112"/>
+      <c r="AD290" s="112"/>
+      <c r="AE290" s="112"/>
     </row>
     <row r="291" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A291" s="22">
@@ -23454,7 +23451,7 @@
         <v>345</v>
       </c>
       <c r="E291" s="63">
-        <f>IF(C291="","",WEEKNUM(C291,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -23489,7 +23486,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f>SUM(O291:S291)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U291" s="27"/>
@@ -23500,9 +23497,9 @@
       <c r="Z291" s="11"/>
       <c r="AA291" s="8"/>
       <c r="AB291" s="8"/>
-      <c r="AC291" s="113"/>
-      <c r="AD291" s="113"/>
-      <c r="AE291" s="113"/>
+      <c r="AC291" s="112"/>
+      <c r="AD291" s="112"/>
+      <c r="AE291" s="112"/>
     </row>
     <row r="292" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A292" s="22">
@@ -23518,7 +23515,7 @@
         <v>345</v>
       </c>
       <c r="E292" s="63">
-        <f>IF(C292="","",WEEKNUM(C292,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -23553,7 +23550,7 @@
       <c r="R292" s="11"/>
       <c r="S292" s="12"/>
       <c r="T292" s="22">
-        <f>SUM(O292:S292)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U292" s="13"/>
@@ -23564,9 +23561,9 @@
       <c r="Z292" s="11"/>
       <c r="AA292" s="8"/>
       <c r="AB292" s="8"/>
-      <c r="AC292" s="113"/>
-      <c r="AD292" s="113"/>
-      <c r="AE292" s="113"/>
+      <c r="AC292" s="112"/>
+      <c r="AD292" s="112"/>
+      <c r="AE292" s="112"/>
     </row>
     <row r="293" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A293" s="22">
@@ -23582,7 +23579,7 @@
         <v>345</v>
       </c>
       <c r="E293" s="63">
-        <f>IF(C293="","",WEEKNUM(C293,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -23617,7 +23614,7 @@
       <c r="R293" s="11"/>
       <c r="S293" s="12"/>
       <c r="T293" s="22">
-        <f>SUM(O293:S293)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U293" s="13"/>
@@ -23628,9 +23625,9 @@
       <c r="Z293" s="11"/>
       <c r="AA293" s="8"/>
       <c r="AB293" s="8"/>
-      <c r="AC293" s="113"/>
-      <c r="AD293" s="113"/>
-      <c r="AE293" s="113"/>
+      <c r="AC293" s="112"/>
+      <c r="AD293" s="112"/>
+      <c r="AE293" s="112"/>
     </row>
     <row r="294" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A294" s="22">
@@ -23646,7 +23643,7 @@
         <v>345</v>
       </c>
       <c r="E294" s="63">
-        <f>IF(C294="","",WEEKNUM(C294,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -23685,7 +23682,7 @@
       </c>
       <c r="S294" s="12"/>
       <c r="T294" s="22">
-        <f>SUM(O294:S294)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U294" s="13" t="s">
@@ -23711,8 +23708,8 @@
       <c r="AC294" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="AD294" s="113"/>
-      <c r="AE294" s="113"/>
+      <c r="AD294" s="112"/>
+      <c r="AE294" s="112"/>
     </row>
     <row r="295" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A295" s="22">
@@ -23728,7 +23725,7 @@
         <v>345</v>
       </c>
       <c r="E295" s="63">
-        <f>IF(C295="","",WEEKNUM(C295,1))</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -23759,7 +23756,7 @@
       <c r="R295" s="11"/>
       <c r="S295" s="12"/>
       <c r="T295" s="22">
-        <f>SUM(O295:S295)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U295" s="13" t="s">
@@ -23785,8 +23782,8 @@
       <c r="AC295" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="AD295" s="113"/>
-      <c r="AE295" s="113"/>
+      <c r="AD295" s="112"/>
+      <c r="AE295" s="112"/>
     </row>
     <row r="296" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A296" s="22">
@@ -23802,7 +23799,7 @@
         <v>345</v>
       </c>
       <c r="E296" s="63">
-        <f>IF(C296="","",WEEKNUM(C296,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -23837,7 +23834,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f>SUM(O296:S296)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -23848,9 +23845,9 @@
       <c r="Z296" s="11"/>
       <c r="AA296" s="8"/>
       <c r="AB296" s="8"/>
-      <c r="AC296" s="113"/>
-      <c r="AD296" s="113"/>
-      <c r="AE296" s="113"/>
+      <c r="AC296" s="112"/>
+      <c r="AD296" s="112"/>
+      <c r="AE296" s="112"/>
     </row>
     <row r="297" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A297" s="22">
@@ -23866,7 +23863,7 @@
         <v>345</v>
       </c>
       <c r="E297" s="63">
-        <f>IF(C297="","",WEEKNUM(C297,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -23901,7 +23898,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f>SUM(O297:S297)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -23915,8 +23912,8 @@
       <c r="AC297" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD297" s="113"/>
-      <c r="AE297" s="113"/>
+      <c r="AD297" s="112"/>
+      <c r="AE297" s="112"/>
     </row>
     <row r="298" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A298" s="22">
@@ -23932,7 +23929,7 @@
         <v>345</v>
       </c>
       <c r="E298" s="63">
-        <f>IF(C298="","",WEEKNUM(C298,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -23967,7 +23964,7 @@
       <c r="R298" s="11"/>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f>SUM(O298:S298)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U298" s="13"/>
@@ -23978,9 +23975,9 @@
       <c r="Z298" s="11"/>
       <c r="AA298" s="8"/>
       <c r="AB298" s="8"/>
-      <c r="AC298" s="113"/>
-      <c r="AD298" s="113"/>
-      <c r="AE298" s="113"/>
+      <c r="AC298" s="112"/>
+      <c r="AD298" s="112"/>
+      <c r="AE298" s="112"/>
     </row>
     <row r="299" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A299" s="22">
@@ -23996,7 +23993,7 @@
         <v>345</v>
       </c>
       <c r="E299" s="63">
-        <f>IF(C299="","",WEEKNUM(C299,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -24031,7 +24028,7 @@
       <c r="R299" s="22"/>
       <c r="S299" s="22"/>
       <c r="T299" s="22">
-        <f>SUM(O299:S299)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U299" s="27"/>
@@ -24042,9 +24039,9 @@
       <c r="Z299" s="11"/>
       <c r="AA299" s="8"/>
       <c r="AB299" s="8"/>
-      <c r="AC299" s="113"/>
-      <c r="AD299" s="113"/>
-      <c r="AE299" s="113"/>
+      <c r="AC299" s="112"/>
+      <c r="AD299" s="112"/>
+      <c r="AE299" s="112"/>
     </row>
     <row r="300" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A300" s="22">
@@ -24060,7 +24057,7 @@
         <v>345</v>
       </c>
       <c r="E300" s="63">
-        <f>IF(C300="","",WEEKNUM(C300,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -24099,7 +24096,7 @@
       <c r="R300" s="22"/>
       <c r="S300" s="22"/>
       <c r="T300" s="22">
-        <f>SUM(O300:S300)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U300" s="27" t="s">
@@ -24125,8 +24122,8 @@
       <c r="AC300" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD300" s="113"/>
-      <c r="AE300" s="113"/>
+      <c r="AD300" s="112"/>
+      <c r="AE300" s="112"/>
     </row>
     <row r="301" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A301" s="22">
@@ -24142,7 +24139,7 @@
         <v>345</v>
       </c>
       <c r="E301" s="63">
-        <f>IF(C301="","",WEEKNUM(C301,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -24173,7 +24170,7 @@
       <c r="R301" s="22"/>
       <c r="S301" s="22"/>
       <c r="T301" s="22">
-        <f>SUM(O301:S301)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U301" s="27" t="s">
@@ -24196,9 +24193,9 @@
       </c>
       <c r="AA301" s="8"/>
       <c r="AB301" s="8"/>
-      <c r="AC301" s="113"/>
-      <c r="AD301" s="113"/>
-      <c r="AE301" s="113"/>
+      <c r="AC301" s="112"/>
+      <c r="AD301" s="112"/>
+      <c r="AE301" s="112"/>
     </row>
     <row r="302" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A302" s="22">
@@ -24214,7 +24211,7 @@
         <v>345</v>
       </c>
       <c r="E302" s="63">
-        <f>IF(C302="","",WEEKNUM(C302,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -24249,7 +24246,7 @@
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
       <c r="T302" s="22">
-        <f>SUM(O302:S302)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U302" s="27"/>
@@ -24260,9 +24257,9 @@
       <c r="Z302" s="11"/>
       <c r="AA302" s="8"/>
       <c r="AB302" s="8"/>
-      <c r="AC302" s="113"/>
-      <c r="AD302" s="113"/>
-      <c r="AE302" s="113"/>
+      <c r="AC302" s="112"/>
+      <c r="AD302" s="112"/>
+      <c r="AE302" s="112"/>
     </row>
     <row r="303" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A303" s="22">
@@ -24278,13 +24275,13 @@
         <v>345</v>
       </c>
       <c r="E303" s="63">
-        <f>IF(C303="","",WEEKNUM(C303,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G303" s="105" t="s">
+      <c r="G303" s="104" t="s">
         <v>371</v>
       </c>
       <c r="H303" s="22" t="s">
@@ -24303,30 +24300,30 @@
       <c r="L303" s="42">
         <v>8</v>
       </c>
-      <c r="M303" s="105"/>
+      <c r="M303" s="104"/>
       <c r="N303" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="O303" s="105"/>
-      <c r="P303" s="105"/>
-      <c r="Q303" s="105"/>
-      <c r="R303" s="105"/>
-      <c r="S303" s="105"/>
+      <c r="O303" s="104"/>
+      <c r="P303" s="104"/>
+      <c r="Q303" s="104"/>
+      <c r="R303" s="104"/>
+      <c r="S303" s="104"/>
       <c r="T303" s="22">
-        <f>SUM(O303:S303)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U303" s="105"/>
+      <c r="U303" s="104"/>
       <c r="V303" s="10"/>
       <c r="W303" s="11"/>
       <c r="X303" s="11"/>
       <c r="Y303" s="11"/>
       <c r="Z303" s="11"/>
-      <c r="AA303" s="105"/>
-      <c r="AB303" s="105"/>
-      <c r="AC303" s="105"/>
-      <c r="AD303" s="105"/>
-      <c r="AE303" s="105"/>
+      <c r="AA303" s="104"/>
+      <c r="AB303" s="104"/>
+      <c r="AC303" s="104"/>
+      <c r="AD303" s="104"/>
+      <c r="AE303" s="104"/>
     </row>
     <row r="304" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A304" s="22">
@@ -24342,7 +24339,7 @@
         <v>345</v>
       </c>
       <c r="E304" s="63">
-        <f>IF(C304="","",WEEKNUM(C304,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -24381,7 +24378,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f>SUM(O304:S304)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -24402,11 +24399,11 @@
       <c r="Z304" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA304" s="105"/>
-      <c r="AB304" s="105"/>
-      <c r="AC304" s="105"/>
-      <c r="AD304" s="105"/>
-      <c r="AE304" s="105"/>
+      <c r="AA304" s="104"/>
+      <c r="AB304" s="104"/>
+      <c r="AC304" s="104"/>
+      <c r="AD304" s="104"/>
+      <c r="AE304" s="104"/>
     </row>
     <row r="305" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A305" s="22">
@@ -24422,7 +24419,7 @@
         <v>345</v>
       </c>
       <c r="E305" s="63">
-        <f>IF(C305="","",WEEKNUM(C305,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -24453,7 +24450,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f>SUM(O305:S305)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -24474,11 +24471,11 @@
       <c r="Z305" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA305" s="105"/>
-      <c r="AB305" s="105"/>
-      <c r="AC305" s="105"/>
-      <c r="AD305" s="105"/>
-      <c r="AE305" s="105"/>
+      <c r="AA305" s="104"/>
+      <c r="AB305" s="104"/>
+      <c r="AC305" s="104"/>
+      <c r="AD305" s="104"/>
+      <c r="AE305" s="104"/>
     </row>
     <row r="306" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A306" s="22">
@@ -24494,7 +24491,7 @@
         <v>345</v>
       </c>
       <c r="E306" s="63">
-        <f>IF(C306="","",WEEKNUM(C306,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -24533,7 +24530,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f>SUM(O306:S306)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U306" s="27" t="s">
@@ -24554,11 +24551,11 @@
       <c r="Z306" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA306" s="105"/>
-      <c r="AB306" s="105"/>
-      <c r="AC306" s="105"/>
-      <c r="AD306" s="105"/>
-      <c r="AE306" s="105"/>
+      <c r="AA306" s="104"/>
+      <c r="AB306" s="104"/>
+      <c r="AC306" s="104"/>
+      <c r="AD306" s="104"/>
+      <c r="AE306" s="104"/>
     </row>
     <row r="307" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A307" s="22">
@@ -24574,7 +24571,7 @@
         <v>345</v>
       </c>
       <c r="E307" s="63">
-        <f>IF(C307="","",WEEKNUM(C307,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -24613,7 +24610,7 @@
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
       <c r="T307" s="22">
-        <f>SUM(O307:S307)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U307" s="27" t="s">
@@ -24634,11 +24631,11 @@
       <c r="Z307" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA307" s="105"/>
-      <c r="AB307" s="105"/>
-      <c r="AC307" s="105"/>
-      <c r="AD307" s="105"/>
-      <c r="AE307" s="105"/>
+      <c r="AA307" s="104"/>
+      <c r="AB307" s="104"/>
+      <c r="AC307" s="104"/>
+      <c r="AD307" s="104"/>
+      <c r="AE307" s="104"/>
     </row>
     <row r="308" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A308" s="22">
@@ -24654,7 +24651,7 @@
         <v>345</v>
       </c>
       <c r="E308" s="63">
-        <f>IF(C308="","",WEEKNUM(C308,1))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -24685,7 +24682,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f>SUM(O308:S308)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -24706,11 +24703,11 @@
       <c r="Z308" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA308" s="105"/>
-      <c r="AB308" s="105"/>
-      <c r="AC308" s="105"/>
-      <c r="AD308" s="105"/>
-      <c r="AE308" s="105"/>
+      <c r="AA308" s="104"/>
+      <c r="AB308" s="104"/>
+      <c r="AC308" s="104"/>
+      <c r="AD308" s="104"/>
+      <c r="AE308" s="104"/>
     </row>
     <row r="309" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A309" s="22">
@@ -24765,7 +24762,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f>SUM(O309:S309)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -24786,11 +24783,11 @@
       <c r="Z309" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA309" s="105"/>
-      <c r="AB309" s="105"/>
-      <c r="AC309" s="105"/>
-      <c r="AD309" s="105"/>
-      <c r="AE309" s="105"/>
+      <c r="AA309" s="104"/>
+      <c r="AB309" s="104"/>
+      <c r="AC309" s="104"/>
+      <c r="AD309" s="104"/>
+      <c r="AE309" s="104"/>
     </row>
     <row r="310" customHeight="1" spans="1:31">
       <c r="A310" s="103">
@@ -24799,7 +24796,7 @@
       <c r="B310" s="103">
         <v>240410001</v>
       </c>
-      <c r="C310" s="104">
+      <c r="C310" s="40">
         <v>45392</v>
       </c>
       <c r="D310" s="103" t="s">
@@ -24830,28 +24827,28 @@
         <v>32</v>
       </c>
       <c r="M310" s="103"/>
-      <c r="N310" s="106" t="s">
+      <c r="N310" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O310" s="107"/>
-      <c r="P310" s="107"/>
-      <c r="Q310" s="107"/>
-      <c r="R310" s="107"/>
-      <c r="S310" s="108"/>
+      <c r="O310" s="106"/>
+      <c r="P310" s="106"/>
+      <c r="Q310" s="106"/>
+      <c r="R310" s="106"/>
+      <c r="S310" s="107"/>
       <c r="T310" s="103">
         <v>0</v>
       </c>
-      <c r="U310" s="109"/>
-      <c r="V310" s="110"/>
-      <c r="W310" s="107"/>
-      <c r="X310" s="107"/>
-      <c r="Y310" s="107"/>
-      <c r="Z310" s="107"/>
-      <c r="AA310" s="112"/>
-      <c r="AB310" s="112"/>
-      <c r="AC310" s="114"/>
-      <c r="AD310" s="115"/>
-      <c r="AE310" s="115"/>
+      <c r="U310" s="108"/>
+      <c r="V310" s="109"/>
+      <c r="W310" s="106"/>
+      <c r="X310" s="106"/>
+      <c r="Y310" s="106"/>
+      <c r="Z310" s="106"/>
+      <c r="AA310" s="111"/>
+      <c r="AB310" s="111"/>
+      <c r="AC310" s="113"/>
+      <c r="AD310" s="114"/>
+      <c r="AE310" s="114"/>
     </row>
     <row r="311" customHeight="1" spans="1:31">
       <c r="A311" s="103">
@@ -24860,7 +24857,7 @@
       <c r="B311" s="103">
         <v>240410002</v>
       </c>
-      <c r="C311" s="104">
+      <c r="C311" s="40">
         <v>45392</v>
       </c>
       <c r="D311" s="103" t="s">
@@ -24893,42 +24890,42 @@
       <c r="M311" s="103">
         <v>1</v>
       </c>
-      <c r="N311" s="106" t="s">
+      <c r="N311" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O311" s="107"/>
-      <c r="P311" s="107">
+      <c r="O311" s="106"/>
+      <c r="P311" s="106">
         <v>1</v>
       </c>
-      <c r="Q311" s="107"/>
-      <c r="R311" s="107"/>
-      <c r="S311" s="108"/>
+      <c r="Q311" s="106"/>
+      <c r="R311" s="106"/>
+      <c r="S311" s="107"/>
       <c r="T311" s="103">
         <v>1</v>
       </c>
-      <c r="U311" s="109" t="s">
+      <c r="U311" s="108" t="s">
         <v>380</v>
       </c>
-      <c r="V311" s="110" t="s">
+      <c r="V311" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="W311" s="107" t="s">
+      <c r="W311" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="X311" s="107" t="s">
+      <c r="X311" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="Y311" s="107" t="s">
+      <c r="Y311" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="Z311" s="107" t="s">
+      <c r="Z311" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="AA311" s="112"/>
-      <c r="AB311" s="112"/>
-      <c r="AC311" s="114"/>
-      <c r="AD311" s="115"/>
-      <c r="AE311" s="115"/>
+      <c r="AA311" s="111"/>
+      <c r="AB311" s="111"/>
+      <c r="AC311" s="113"/>
+      <c r="AD311" s="114"/>
+      <c r="AE311" s="114"/>
     </row>
     <row r="312" customHeight="1" spans="1:31">
       <c r="A312" s="103">
@@ -24937,14 +24934,14 @@
       <c r="B312" s="103">
         <v>240411001</v>
       </c>
-      <c r="C312" s="104">
+      <c r="C312" s="40">
         <v>45393</v>
       </c>
       <c r="D312" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E312" s="103">
-        <f>IF(C312="","",WEEKNUM(C312,1))</f>
+        <f t="shared" ref="E312:E323" si="9">IF(C312="","",WEEKNUM(C312,1))</f>
         <v>15</v>
       </c>
       <c r="F312" s="103" t="s">
@@ -24970,29 +24967,29 @@
         <v>32</v>
       </c>
       <c r="M312" s="103"/>
-      <c r="N312" s="106" t="s">
+      <c r="N312" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O312" s="107"/>
-      <c r="P312" s="107"/>
-      <c r="Q312" s="107"/>
-      <c r="R312" s="107"/>
-      <c r="S312" s="108"/>
+      <c r="O312" s="106"/>
+      <c r="P312" s="106"/>
+      <c r="Q312" s="106"/>
+      <c r="R312" s="106"/>
+      <c r="S312" s="107"/>
       <c r="T312" s="103">
-        <f>SUM(O312:S312)</f>
+        <f t="shared" ref="T312:T323" si="10">SUM(O312:S312)</f>
         <v>0</v>
       </c>
-      <c r="U312" s="109"/>
-      <c r="V312" s="110"/>
-      <c r="W312" s="107"/>
-      <c r="X312" s="107"/>
-      <c r="Y312" s="107"/>
-      <c r="Z312" s="107"/>
-      <c r="AA312" s="112"/>
-      <c r="AB312" s="112"/>
-      <c r="AC312" s="114"/>
-      <c r="AD312" s="115"/>
-      <c r="AE312" s="115"/>
+      <c r="U312" s="108"/>
+      <c r="V312" s="109"/>
+      <c r="W312" s="106"/>
+      <c r="X312" s="106"/>
+      <c r="Y312" s="106"/>
+      <c r="Z312" s="106"/>
+      <c r="AA312" s="111"/>
+      <c r="AB312" s="111"/>
+      <c r="AC312" s="113"/>
+      <c r="AD312" s="114"/>
+      <c r="AE312" s="114"/>
     </row>
     <row r="313" customHeight="1" spans="1:31">
       <c r="A313" s="103">
@@ -25001,14 +24998,14 @@
       <c r="B313" s="103">
         <v>240411002</v>
       </c>
-      <c r="C313" s="104">
+      <c r="C313" s="40">
         <v>45393</v>
       </c>
       <c r="D313" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E313" s="103">
-        <f>IF(C313="","",WEEKNUM(C313,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F313" s="103" t="s">
@@ -25034,29 +25031,29 @@
         <v>32</v>
       </c>
       <c r="M313" s="103"/>
-      <c r="N313" s="106" t="s">
+      <c r="N313" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O313" s="107"/>
-      <c r="P313" s="107"/>
-      <c r="Q313" s="107"/>
-      <c r="R313" s="107"/>
-      <c r="S313" s="108"/>
+      <c r="O313" s="106"/>
+      <c r="P313" s="106"/>
+      <c r="Q313" s="106"/>
+      <c r="R313" s="106"/>
+      <c r="S313" s="107"/>
       <c r="T313" s="103">
-        <f>SUM(O313:S313)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U313" s="109"/>
-      <c r="V313" s="110"/>
-      <c r="W313" s="107"/>
-      <c r="X313" s="107"/>
-      <c r="Y313" s="107"/>
-      <c r="Z313" s="107"/>
-      <c r="AA313" s="112"/>
-      <c r="AB313" s="112"/>
-      <c r="AC313" s="114"/>
-      <c r="AD313" s="115"/>
-      <c r="AE313" s="115"/>
+      <c r="U313" s="108"/>
+      <c r="V313" s="109"/>
+      <c r="W313" s="106"/>
+      <c r="X313" s="106"/>
+      <c r="Y313" s="106"/>
+      <c r="Z313" s="106"/>
+      <c r="AA313" s="111"/>
+      <c r="AB313" s="111"/>
+      <c r="AC313" s="113"/>
+      <c r="AD313" s="114"/>
+      <c r="AE313" s="114"/>
     </row>
     <row r="314" customHeight="1" spans="1:31">
       <c r="A314" s="103">
@@ -25065,14 +25062,14 @@
       <c r="B314" s="103">
         <v>240411003</v>
       </c>
-      <c r="C314" s="104">
+      <c r="C314" s="40">
         <v>45393</v>
       </c>
       <c r="D314" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E314" s="103">
-        <f>IF(C314="","",WEEKNUM(C314,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F314" s="103" t="s">
@@ -25098,29 +25095,29 @@
         <v>32</v>
       </c>
       <c r="M314" s="103"/>
-      <c r="N314" s="106" t="s">
+      <c r="N314" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O314" s="107"/>
-      <c r="P314" s="107"/>
-      <c r="Q314" s="107"/>
-      <c r="R314" s="107"/>
-      <c r="S314" s="108"/>
+      <c r="O314" s="106"/>
+      <c r="P314" s="106"/>
+      <c r="Q314" s="106"/>
+      <c r="R314" s="106"/>
+      <c r="S314" s="107"/>
       <c r="T314" s="103">
-        <f>SUM(O314:S314)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U314" s="109"/>
-      <c r="V314" s="110"/>
-      <c r="W314" s="107"/>
-      <c r="X314" s="107"/>
-      <c r="Y314" s="107"/>
-      <c r="Z314" s="107"/>
-      <c r="AA314" s="112"/>
-      <c r="AB314" s="112"/>
-      <c r="AC314" s="114"/>
-      <c r="AD314" s="115"/>
-      <c r="AE314" s="115"/>
+      <c r="U314" s="108"/>
+      <c r="V314" s="109"/>
+      <c r="W314" s="106"/>
+      <c r="X314" s="106"/>
+      <c r="Y314" s="106"/>
+      <c r="Z314" s="106"/>
+      <c r="AA314" s="111"/>
+      <c r="AB314" s="111"/>
+      <c r="AC314" s="113"/>
+      <c r="AD314" s="114"/>
+      <c r="AE314" s="114"/>
     </row>
     <row r="315" customHeight="1" spans="1:31">
       <c r="A315" s="103">
@@ -25129,14 +25126,14 @@
       <c r="B315" s="103">
         <v>240411004</v>
       </c>
-      <c r="C315" s="104">
+      <c r="C315" s="40">
         <v>45393</v>
       </c>
       <c r="D315" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E315" s="103">
-        <f>IF(C315="","",WEEKNUM(C315,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F315" s="103" t="s">
@@ -25164,43 +25161,43 @@
       <c r="M315" s="103">
         <v>1</v>
       </c>
-      <c r="N315" s="106" t="s">
+      <c r="N315" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O315" s="107">
+      <c r="O315" s="106">
         <v>1</v>
       </c>
-      <c r="P315" s="107"/>
-      <c r="Q315" s="107"/>
-      <c r="R315" s="107"/>
-      <c r="S315" s="108"/>
+      <c r="P315" s="106"/>
+      <c r="Q315" s="106"/>
+      <c r="R315" s="106"/>
+      <c r="S315" s="107"/>
       <c r="T315" s="103">
-        <f>SUM(O315:S315)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U315" s="109" t="s">
+      <c r="U315" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="V315" s="110" t="s">
+      <c r="V315" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="W315" s="107" t="s">
+      <c r="W315" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="X315" s="107" t="s">
+      <c r="X315" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="Y315" s="107" t="s">
+      <c r="Y315" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="Z315" s="107" t="s">
+      <c r="Z315" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="AA315" s="112"/>
-      <c r="AB315" s="112"/>
-      <c r="AC315" s="114"/>
-      <c r="AD315" s="115"/>
-      <c r="AE315" s="115"/>
+      <c r="AA315" s="111"/>
+      <c r="AB315" s="111"/>
+      <c r="AC315" s="113"/>
+      <c r="AD315" s="114"/>
+      <c r="AE315" s="114"/>
     </row>
     <row r="316" customHeight="1" spans="1:31">
       <c r="A316" s="103">
@@ -25209,14 +25206,14 @@
       <c r="B316" s="103">
         <v>240411005</v>
       </c>
-      <c r="C316" s="104">
+      <c r="C316" s="40">
         <v>45393</v>
       </c>
       <c r="D316" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E316" s="103">
-        <f>IF(C316="","",WEEKNUM(C316,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F316" s="103" t="s">
@@ -25242,29 +25239,29 @@
         <v>1</v>
       </c>
       <c r="M316" s="103"/>
-      <c r="N316" s="106" t="s">
+      <c r="N316" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O316" s="107"/>
-      <c r="P316" s="107"/>
-      <c r="Q316" s="107"/>
-      <c r="R316" s="107"/>
-      <c r="S316" s="108"/>
+      <c r="O316" s="106"/>
+      <c r="P316" s="106"/>
+      <c r="Q316" s="106"/>
+      <c r="R316" s="106"/>
+      <c r="S316" s="107"/>
       <c r="T316" s="103">
-        <f>SUM(O316:S316)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U316" s="109"/>
-      <c r="V316" s="110"/>
-      <c r="W316" s="107"/>
-      <c r="X316" s="107"/>
-      <c r="Y316" s="107"/>
-      <c r="Z316" s="107"/>
-      <c r="AA316" s="112"/>
-      <c r="AB316" s="112"/>
-      <c r="AC316" s="114"/>
-      <c r="AD316" s="115"/>
-      <c r="AE316" s="115"/>
+      <c r="U316" s="108"/>
+      <c r="V316" s="109"/>
+      <c r="W316" s="106"/>
+      <c r="X316" s="106"/>
+      <c r="Y316" s="106"/>
+      <c r="Z316" s="106"/>
+      <c r="AA316" s="111"/>
+      <c r="AB316" s="111"/>
+      <c r="AC316" s="113"/>
+      <c r="AD316" s="114"/>
+      <c r="AE316" s="114"/>
     </row>
     <row r="317" customHeight="1" spans="1:31">
       <c r="A317" s="103">
@@ -25273,14 +25270,14 @@
       <c r="B317" s="103">
         <v>240411006</v>
       </c>
-      <c r="C317" s="104">
+      <c r="C317" s="40">
         <v>45393</v>
       </c>
       <c r="D317" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E317" s="103">
-        <f>IF(C317="","",WEEKNUM(C317,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F317" s="103" t="s">
@@ -25306,29 +25303,29 @@
         <v>1</v>
       </c>
       <c r="M317" s="103"/>
-      <c r="N317" s="106" t="s">
+      <c r="N317" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O317" s="107"/>
-      <c r="P317" s="107"/>
-      <c r="Q317" s="107"/>
-      <c r="R317" s="107"/>
-      <c r="S317" s="108"/>
+      <c r="O317" s="106"/>
+      <c r="P317" s="106"/>
+      <c r="Q317" s="106"/>
+      <c r="R317" s="106"/>
+      <c r="S317" s="107"/>
       <c r="T317" s="103">
-        <f>SUM(O317:S317)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U317" s="109"/>
-      <c r="V317" s="110"/>
-      <c r="W317" s="107"/>
-      <c r="X317" s="107"/>
-      <c r="Y317" s="107"/>
-      <c r="Z317" s="107"/>
-      <c r="AA317" s="112"/>
-      <c r="AB317" s="112"/>
-      <c r="AC317" s="114"/>
-      <c r="AD317" s="115"/>
-      <c r="AE317" s="115"/>
+      <c r="U317" s="108"/>
+      <c r="V317" s="109"/>
+      <c r="W317" s="106"/>
+      <c r="X317" s="106"/>
+      <c r="Y317" s="106"/>
+      <c r="Z317" s="106"/>
+      <c r="AA317" s="111"/>
+      <c r="AB317" s="111"/>
+      <c r="AC317" s="113"/>
+      <c r="AD317" s="114"/>
+      <c r="AE317" s="114"/>
     </row>
     <row r="318" customHeight="1" spans="1:31">
       <c r="A318" s="103">
@@ -25337,14 +25334,14 @@
       <c r="B318" s="103">
         <v>240411007</v>
       </c>
-      <c r="C318" s="104">
+      <c r="C318" s="40">
         <v>45393</v>
       </c>
       <c r="D318" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E318" s="103">
-        <f>IF(C318="","",WEEKNUM(C318,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F318" s="103" t="s">
@@ -25370,29 +25367,29 @@
         <v>8</v>
       </c>
       <c r="M318" s="103"/>
-      <c r="N318" s="106" t="s">
+      <c r="N318" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O318" s="107"/>
-      <c r="P318" s="107"/>
-      <c r="Q318" s="107"/>
-      <c r="R318" s="107"/>
-      <c r="S318" s="108"/>
+      <c r="O318" s="106"/>
+      <c r="P318" s="106"/>
+      <c r="Q318" s="106"/>
+      <c r="R318" s="106"/>
+      <c r="S318" s="107"/>
       <c r="T318" s="103">
-        <f>SUM(O318:S318)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U318" s="109"/>
-      <c r="V318" s="110"/>
-      <c r="W318" s="107"/>
-      <c r="X318" s="107"/>
-      <c r="Y318" s="107"/>
-      <c r="Z318" s="107"/>
-      <c r="AA318" s="112"/>
-      <c r="AB318" s="112"/>
-      <c r="AC318" s="114"/>
-      <c r="AD318" s="115"/>
-      <c r="AE318" s="115"/>
+      <c r="U318" s="108"/>
+      <c r="V318" s="109"/>
+      <c r="W318" s="106"/>
+      <c r="X318" s="106"/>
+      <c r="Y318" s="106"/>
+      <c r="Z318" s="106"/>
+      <c r="AA318" s="111"/>
+      <c r="AB318" s="111"/>
+      <c r="AC318" s="113"/>
+      <c r="AD318" s="114"/>
+      <c r="AE318" s="114"/>
     </row>
     <row r="319" customHeight="1" spans="1:31">
       <c r="A319" s="103">
@@ -25401,14 +25398,14 @@
       <c r="B319" s="103">
         <v>240411008</v>
       </c>
-      <c r="C319" s="104">
+      <c r="C319" s="40">
         <v>45393</v>
       </c>
       <c r="D319" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E319" s="103">
-        <f>IF(C319="","",WEEKNUM(C319,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F319" s="103" t="s">
@@ -25434,29 +25431,29 @@
         <v>4</v>
       </c>
       <c r="M319" s="103"/>
-      <c r="N319" s="106" t="s">
+      <c r="N319" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O319" s="107"/>
-      <c r="P319" s="107"/>
-      <c r="Q319" s="107"/>
-      <c r="R319" s="107"/>
-      <c r="S319" s="108"/>
+      <c r="O319" s="106"/>
+      <c r="P319" s="106"/>
+      <c r="Q319" s="106"/>
+      <c r="R319" s="106"/>
+      <c r="S319" s="107"/>
       <c r="T319" s="103">
-        <f>SUM(O319:S319)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U319" s="109"/>
-      <c r="V319" s="110"/>
-      <c r="W319" s="107"/>
-      <c r="X319" s="107"/>
-      <c r="Y319" s="107"/>
-      <c r="Z319" s="107"/>
-      <c r="AA319" s="112"/>
-      <c r="AB319" s="112"/>
-      <c r="AC319" s="114"/>
-      <c r="AD319" s="115"/>
-      <c r="AE319" s="115"/>
+      <c r="U319" s="108"/>
+      <c r="V319" s="109"/>
+      <c r="W319" s="106"/>
+      <c r="X319" s="106"/>
+      <c r="Y319" s="106"/>
+      <c r="Z319" s="106"/>
+      <c r="AA319" s="111"/>
+      <c r="AB319" s="111"/>
+      <c r="AC319" s="113"/>
+      <c r="AD319" s="114"/>
+      <c r="AE319" s="114"/>
     </row>
     <row r="320" customHeight="1" spans="1:31">
       <c r="A320" s="103">
@@ -25465,14 +25462,14 @@
       <c r="B320" s="103">
         <v>240411009</v>
       </c>
-      <c r="C320" s="104">
+      <c r="C320" s="40">
         <v>45393</v>
       </c>
       <c r="D320" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E320" s="103">
-        <f>IF(C320="","",WEEKNUM(C320,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F320" s="103" t="s">
@@ -25498,29 +25495,29 @@
         <v>13</v>
       </c>
       <c r="M320" s="103"/>
-      <c r="N320" s="106" t="s">
+      <c r="N320" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O320" s="107"/>
-      <c r="P320" s="107"/>
-      <c r="Q320" s="107"/>
-      <c r="R320" s="107"/>
-      <c r="S320" s="108"/>
+      <c r="O320" s="106"/>
+      <c r="P320" s="106"/>
+      <c r="Q320" s="106"/>
+      <c r="R320" s="106"/>
+      <c r="S320" s="107"/>
       <c r="T320" s="103">
-        <f>SUM(O320:S320)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U320" s="109"/>
-      <c r="V320" s="110"/>
-      <c r="W320" s="107"/>
-      <c r="X320" s="107"/>
-      <c r="Y320" s="107"/>
-      <c r="Z320" s="107"/>
-      <c r="AA320" s="112"/>
-      <c r="AB320" s="112"/>
-      <c r="AC320" s="114"/>
-      <c r="AD320" s="115"/>
-      <c r="AE320" s="115"/>
+      <c r="U320" s="108"/>
+      <c r="V320" s="109"/>
+      <c r="W320" s="106"/>
+      <c r="X320" s="106"/>
+      <c r="Y320" s="106"/>
+      <c r="Z320" s="106"/>
+      <c r="AA320" s="111"/>
+      <c r="AB320" s="111"/>
+      <c r="AC320" s="113"/>
+      <c r="AD320" s="114"/>
+      <c r="AE320" s="114"/>
     </row>
     <row r="321" customHeight="1" spans="1:31">
       <c r="A321" s="103">
@@ -25529,14 +25526,14 @@
       <c r="B321" s="103">
         <v>240411010</v>
       </c>
-      <c r="C321" s="104">
+      <c r="C321" s="40">
         <v>45393</v>
       </c>
       <c r="D321" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E321" s="103">
-        <f>IF(C321="","",WEEKNUM(C321,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F321" s="103" t="s">
@@ -25562,29 +25559,29 @@
         <v>8</v>
       </c>
       <c r="M321" s="103"/>
-      <c r="N321" s="106" t="s">
+      <c r="N321" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O321" s="107"/>
-      <c r="P321" s="107"/>
-      <c r="Q321" s="107"/>
-      <c r="R321" s="107"/>
-      <c r="S321" s="108"/>
+      <c r="O321" s="106"/>
+      <c r="P321" s="106"/>
+      <c r="Q321" s="106"/>
+      <c r="R321" s="106"/>
+      <c r="S321" s="107"/>
       <c r="T321" s="103">
-        <f>SUM(O321:S321)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U321" s="109"/>
-      <c r="V321" s="110"/>
-      <c r="W321" s="107"/>
-      <c r="X321" s="107"/>
-      <c r="Y321" s="107"/>
-      <c r="Z321" s="107"/>
-      <c r="AA321" s="112"/>
-      <c r="AB321" s="112"/>
-      <c r="AC321" s="114"/>
-      <c r="AD321" s="115"/>
-      <c r="AE321" s="115"/>
+      <c r="U321" s="108"/>
+      <c r="V321" s="109"/>
+      <c r="W321" s="106"/>
+      <c r="X321" s="106"/>
+      <c r="Y321" s="106"/>
+      <c r="Z321" s="106"/>
+      <c r="AA321" s="111"/>
+      <c r="AB321" s="111"/>
+      <c r="AC321" s="113"/>
+      <c r="AD321" s="114"/>
+      <c r="AE321" s="114"/>
     </row>
     <row r="322" customHeight="1" spans="1:31">
       <c r="A322" s="103">
@@ -25593,14 +25590,14 @@
       <c r="B322" s="103">
         <v>240411011</v>
       </c>
-      <c r="C322" s="104">
+      <c r="C322" s="40">
         <v>45393</v>
       </c>
       <c r="D322" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E322" s="103">
-        <f>IF(C322="","",WEEKNUM(C322,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F322" s="103" t="s">
@@ -25628,33 +25625,33 @@
       <c r="M322" s="103">
         <v>1</v>
       </c>
-      <c r="N322" s="106" t="s">
+      <c r="N322" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O322" s="107"/>
-      <c r="P322" s="107">
+      <c r="O322" s="106"/>
+      <c r="P322" s="106">
         <v>1</v>
       </c>
-      <c r="Q322" s="107"/>
-      <c r="R322" s="107"/>
-      <c r="S322" s="108"/>
+      <c r="Q322" s="106"/>
+      <c r="R322" s="106"/>
+      <c r="S322" s="107"/>
       <c r="T322" s="103">
-        <f>SUM(O322:S322)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U322" s="109" t="s">
+      <c r="U322" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="V322" s="110"/>
-      <c r="W322" s="107"/>
-      <c r="X322" s="107"/>
-      <c r="Y322" s="107"/>
-      <c r="Z322" s="107"/>
-      <c r="AA322" s="112"/>
-      <c r="AB322" s="112"/>
-      <c r="AC322" s="114"/>
-      <c r="AD322" s="115"/>
-      <c r="AE322" s="115"/>
+      <c r="V322" s="109"/>
+      <c r="W322" s="106"/>
+      <c r="X322" s="106"/>
+      <c r="Y322" s="106"/>
+      <c r="Z322" s="106"/>
+      <c r="AA322" s="111"/>
+      <c r="AB322" s="111"/>
+      <c r="AC322" s="113"/>
+      <c r="AD322" s="114"/>
+      <c r="AE322" s="114"/>
     </row>
     <row r="323" customHeight="1" spans="1:31">
       <c r="A323" s="103">
@@ -25663,14 +25660,14 @@
       <c r="B323" s="103">
         <v>240411012</v>
       </c>
-      <c r="C323" s="104">
+      <c r="C323" s="40">
         <v>45393</v>
       </c>
       <c r="D323" s="103" t="s">
         <v>345</v>
       </c>
       <c r="E323" s="103">
-        <f>IF(C323="","",WEEKNUM(C323,1))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F323" s="103" t="s">
@@ -25698,33 +25695,33 @@
       <c r="M323" s="103">
         <v>17</v>
       </c>
-      <c r="N323" s="106" t="s">
+      <c r="N323" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="O323" s="107"/>
-      <c r="P323" s="107"/>
-      <c r="Q323" s="107"/>
-      <c r="R323" s="107">
+      <c r="O323" s="106"/>
+      <c r="P323" s="106"/>
+      <c r="Q323" s="106"/>
+      <c r="R323" s="106">
         <v>17</v>
       </c>
-      <c r="S323" s="108"/>
+      <c r="S323" s="107"/>
       <c r="T323" s="103">
-        <f>SUM(O323:S323)</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="U323" s="109" t="s">
+      <c r="U323" s="108" t="s">
         <v>388</v>
       </c>
-      <c r="V323" s="110"/>
-      <c r="W323" s="107"/>
-      <c r="X323" s="107"/>
-      <c r="Y323" s="107"/>
-      <c r="Z323" s="107"/>
-      <c r="AA323" s="112"/>
-      <c r="AB323" s="112"/>
-      <c r="AC323" s="114"/>
-      <c r="AD323" s="115"/>
-      <c r="AE323" s="115"/>
+      <c r="V323" s="109"/>
+      <c r="W323" s="106"/>
+      <c r="X323" s="106"/>
+      <c r="Y323" s="106"/>
+      <c r="Z323" s="106"/>
+      <c r="AA323" s="111"/>
+      <c r="AB323" s="111"/>
+      <c r="AC323" s="113"/>
+      <c r="AD323" s="114"/>
+      <c r="AE323" s="114"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
@@ -26583,7 +26580,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y182 Y183 Y184 Y185 Y186 Y245 Y246 Y247 Y248 Y249 Y250 Y251 Y252 Y256 Y257 Y258 Y259 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y303 Y304 Y305 Y306 Y307 Y308 Y309 Y312 Y313 Y314 Y315 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y253:Y255">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
@@ -26593,7 +26590,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V182 V183 V184 V185 V186 V245 V246 V247 V248 V249 V250 V256 V257 V258 V259 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V312 V313 V314 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V251:V255 V315:V323 W75:W181 W187:W244">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W182 W183 W184 W185 W186 W245 W246 W247 W248 W249 W250 W251 W252 W256 W257 W258 W259 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W303 W304 W305 W306 W307 W308 W309 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W182 W183 W184 W185 W186 W245 W246 W247 W248 W249 W250 W251 W252 W256 W257 W258 W259 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W303 W304 W305 W306 W307 W308 W309 W312 W313 W314 W315 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X182 X183 X184 X185 X186 X245 X246 X247 X248 X249 X250 X251 X252 X256 X257 X258 X259 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X303 X304 X305 X306 X307 X308 X309 X312 X313 X314 X315 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39">
@@ -26604,9 +26601,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y187 Y188 Y189 Y190 Y203 Y239 Y240 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y181 Y191:Y202 Y204:Y238 Y241:Y244">
       <formula1>INDIRECT($X75)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W312 W313 W314 W315">
-      <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X181 X187:X244">
       <formula1>[1]下拉列表源数据!#REF!</formula1>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$400</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="479">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1308,6 +1308,75 @@
   </si>
   <si>
     <t>退一套入新品仓一套</t>
+  </si>
+  <si>
+    <t>DD257400</t>
+  </si>
+  <si>
+    <t>深空灰</t>
+  </si>
+  <si>
+    <t>手柄磕伤/擦伤</t>
+  </si>
+  <si>
+    <t>面板划伤</t>
+  </si>
+  <si>
+    <t>V7-3-PF</t>
+  </si>
+  <si>
+    <t>后面板硬划伤</t>
+  </si>
+  <si>
+    <t>DD239149</t>
+  </si>
+  <si>
+    <t>DD256231</t>
+  </si>
+  <si>
+    <t>Q3FVPRO</t>
+  </si>
+  <si>
+    <t>三码不一致</t>
+  </si>
+  <si>
+    <t>换向后指纹头线，破损,防拆标签遗留,螺丝未打到位</t>
+  </si>
+  <si>
+    <t>DD258422</t>
+  </si>
+  <si>
+    <t>DD257254</t>
+  </si>
+  <si>
+    <t>锁具自动唤醒</t>
+  </si>
+  <si>
+    <t>唤醒功能异常</t>
+  </si>
+  <si>
+    <t>雷达板撞件</t>
+  </si>
+  <si>
+    <t>DD258033</t>
+  </si>
+  <si>
+    <t>外箱为老Logo，锁具为新Logo</t>
+  </si>
+  <si>
+    <t>DD256205</t>
+  </si>
+  <si>
+    <t>DD249691</t>
+  </si>
+  <si>
+    <t>DD258399</t>
+  </si>
+  <si>
+    <t>DD256230</t>
+  </si>
+  <si>
+    <t>后面板侧面积漆</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -2205,7 +2274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2569,6 +2638,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2956,8 +3028,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="司内成品整体"/>
       <sheetName val="外O整体"/>
-      <sheetName val="司内成品整体"/>
       <sheetName val="外O飞行检验"/>
       <sheetName val="外O细分型号"/>
       <sheetName val="工程发货抽检情况"/>
@@ -3617,6 +3689,22 @@
             <v>Q3EFPRO</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>V7-3-PF</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Q3FVPRO</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>Q3FVPRO</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -3638,9 +3726,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE360" totalsRowShown="0">
-  <autoFilter ref="A2:AE360"/>
-  <sortState ref="A3:AE360">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE400" totalsRowShown="0">
+  <autoFilter ref="A2:AE400"/>
+  <sortState ref="A2:AE400">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -3932,12 +4020,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE360"/>
+  <dimension ref="A1:AE400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
+      <selection pane="bottomLeft" activeCell="AC360" sqref="AC360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -15943,7 +16031,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="61">
-        <f t="shared" ref="E178:E241" si="0">IF(C178="","",WEEKNUM(C178,1))</f>
+        <f>IF(C178="","",WEEKNUM(C178,1))</f>
         <v>11</v>
       </c>
       <c r="F178" s="22" t="s">
@@ -15978,7 +16066,7 @@
       <c r="R178" s="22"/>
       <c r="S178" s="22"/>
       <c r="T178" s="22">
-        <f t="shared" ref="T178:T197" si="1">SUM(O178:S178)</f>
+        <f>SUM(O178:S178)</f>
         <v>0</v>
       </c>
       <c r="U178" s="11"/>
@@ -16007,7 +16095,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C179="","",WEEKNUM(C179,1))</f>
         <v>11</v>
       </c>
       <c r="F179" s="22" t="s">
@@ -16042,7 +16130,7 @@
       <c r="R179" s="22"/>
       <c r="S179" s="22"/>
       <c r="T179" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O179:S179)</f>
         <v>0</v>
       </c>
       <c r="U179" s="11"/>
@@ -16071,7 +16159,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C180="","",WEEKNUM(C180,1))</f>
         <v>11</v>
       </c>
       <c r="F180" s="22" t="s">
@@ -16106,7 +16194,7 @@
       <c r="R180" s="22"/>
       <c r="S180" s="22"/>
       <c r="T180" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O180:S180)</f>
         <v>0</v>
       </c>
       <c r="U180" s="11"/>
@@ -16135,7 +16223,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C181="","",WEEKNUM(C181,1))</f>
         <v>11</v>
       </c>
       <c r="F181" s="22" t="s">
@@ -16170,7 +16258,7 @@
       <c r="R181" s="22"/>
       <c r="S181" s="22"/>
       <c r="T181" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O181:S181)</f>
         <v>0</v>
       </c>
       <c r="U181" s="11"/>
@@ -16199,7 +16287,7 @@
         <v>230</v>
       </c>
       <c r="E182" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C182="","",WEEKNUM(C182,1))</f>
         <v>11</v>
       </c>
       <c r="F182" s="22" t="s">
@@ -16234,7 +16322,7 @@
       <c r="R182" s="22"/>
       <c r="S182" s="22"/>
       <c r="T182" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O182:S182)</f>
         <v>0</v>
       </c>
       <c r="U182" s="11"/>
@@ -16263,7 +16351,7 @@
         <v>230</v>
       </c>
       <c r="E183" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C183="","",WEEKNUM(C183,1))</f>
         <v>11</v>
       </c>
       <c r="F183" s="22" t="s">
@@ -16302,7 +16390,7 @@
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
       <c r="T183" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O183:S183)</f>
         <v>1</v>
       </c>
       <c r="U183" s="11" t="s">
@@ -16345,7 +16433,7 @@
         <v>230</v>
       </c>
       <c r="E184" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C184="","",WEEKNUM(C184,1))</f>
         <v>11</v>
       </c>
       <c r="F184" s="22" t="s">
@@ -16376,7 +16464,7 @@
       <c r="R184" s="22"/>
       <c r="S184" s="22"/>
       <c r="T184" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O184:S184)</f>
         <v>1</v>
       </c>
       <c r="U184" s="11" t="s">
@@ -16417,7 +16505,7 @@
         <v>230</v>
       </c>
       <c r="E185" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C185="","",WEEKNUM(C185,1))</f>
         <v>11</v>
       </c>
       <c r="F185" s="22" t="s">
@@ -16452,7 +16540,7 @@
       <c r="R185" s="22"/>
       <c r="S185" s="22"/>
       <c r="T185" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O185:S185)</f>
         <v>0</v>
       </c>
       <c r="U185" s="11"/>
@@ -16481,7 +16569,7 @@
         <v>230</v>
       </c>
       <c r="E186" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C186="","",WEEKNUM(C186,1))</f>
         <v>11</v>
       </c>
       <c r="F186" s="22" t="s">
@@ -16520,7 +16608,7 @@
       <c r="R186" s="22"/>
       <c r="S186" s="22"/>
       <c r="T186" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O186:S186)</f>
         <v>1</v>
       </c>
       <c r="U186" s="11" t="s">
@@ -16561,7 +16649,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C187="","",WEEKNUM(C187,1))</f>
         <v>11</v>
       </c>
       <c r="F187" s="22" t="s">
@@ -16596,7 +16684,7 @@
       <c r="R187" s="22"/>
       <c r="S187" s="22"/>
       <c r="T187" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O187:S187)</f>
         <v>0</v>
       </c>
       <c r="U187" s="11"/>
@@ -16625,7 +16713,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C188="","",WEEKNUM(C188,1))</f>
         <v>11</v>
       </c>
       <c r="F188" s="22" t="s">
@@ -16660,7 +16748,7 @@
       <c r="R188" s="22"/>
       <c r="S188" s="22"/>
       <c r="T188" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O188:S188)</f>
         <v>0</v>
       </c>
       <c r="U188" s="11"/>
@@ -16689,7 +16777,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C189="","",WEEKNUM(C189,1))</f>
         <v>11</v>
       </c>
       <c r="F189" s="22" t="s">
@@ -16724,7 +16812,7 @@
       <c r="R189" s="22"/>
       <c r="S189" s="22"/>
       <c r="T189" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O189:S189)</f>
         <v>0</v>
       </c>
       <c r="U189" s="11"/>
@@ -16753,7 +16841,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C190="","",WEEKNUM(C190,1))</f>
         <v>11</v>
       </c>
       <c r="F190" s="40" t="s">
@@ -16788,7 +16876,7 @@
       <c r="R190" s="22"/>
       <c r="S190" s="22"/>
       <c r="T190" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O190:S190)</f>
         <v>0</v>
       </c>
       <c r="U190" s="11"/>
@@ -16817,7 +16905,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C191="","",WEEKNUM(C191,1))</f>
         <v>11</v>
       </c>
       <c r="F191" s="22" t="s">
@@ -16852,7 +16940,7 @@
       <c r="R191" s="22"/>
       <c r="S191" s="22"/>
       <c r="T191" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O191:S191)</f>
         <v>0</v>
       </c>
       <c r="U191" s="11"/>
@@ -16881,7 +16969,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C192="","",WEEKNUM(C192,1))</f>
         <v>11</v>
       </c>
       <c r="F192" s="22" t="s">
@@ -16916,7 +17004,7 @@
       <c r="R192" s="22"/>
       <c r="S192" s="22"/>
       <c r="T192" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O192:S192)</f>
         <v>0</v>
       </c>
       <c r="U192" s="11"/>
@@ -16945,7 +17033,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C193="","",WEEKNUM(C193,1))</f>
         <v>11</v>
       </c>
       <c r="F193" s="22" t="s">
@@ -16984,7 +17072,7 @@
       </c>
       <c r="S193" s="22"/>
       <c r="T193" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O193:S193)</f>
         <v>1</v>
       </c>
       <c r="U193" s="11" t="s">
@@ -17027,7 +17115,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C194="","",WEEKNUM(C194,1))</f>
         <v>11</v>
       </c>
       <c r="F194" s="22" t="s">
@@ -17062,7 +17150,7 @@
       <c r="R194" s="22"/>
       <c r="S194" s="22"/>
       <c r="T194" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O194:S194)</f>
         <v>0</v>
       </c>
       <c r="U194" s="11"/>
@@ -17091,7 +17179,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C195="","",WEEKNUM(C195,1))</f>
         <v>11</v>
       </c>
       <c r="F195" s="22" t="s">
@@ -17126,7 +17214,7 @@
       <c r="R195" s="22"/>
       <c r="S195" s="22"/>
       <c r="T195" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O195:S195)</f>
         <v>0</v>
       </c>
       <c r="U195" s="11"/>
@@ -17155,7 +17243,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C196="","",WEEKNUM(C196,1))</f>
         <v>12</v>
       </c>
       <c r="F196" s="22" t="s">
@@ -17190,7 +17278,7 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O196:S196)</f>
         <v>0</v>
       </c>
       <c r="U196" s="27"/>
@@ -17219,7 +17307,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C197="","",WEEKNUM(C197,1))</f>
         <v>12</v>
       </c>
       <c r="F197" s="22" t="s">
@@ -17258,7 +17346,7 @@
       <c r="R197" s="22"/>
       <c r="S197" s="22"/>
       <c r="T197" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O197:S197)</f>
         <v>1</v>
       </c>
       <c r="U197" s="27" t="s">
@@ -17299,7 +17387,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C198="","",WEEKNUM(C198,1))</f>
         <v>12</v>
       </c>
       <c r="F198" s="22" t="s">
@@ -17360,7 +17448,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C199="","",WEEKNUM(C199,1))</f>
         <v>12</v>
       </c>
       <c r="F199" s="22" t="s">
@@ -17395,7 +17483,7 @@
       <c r="R199" s="22"/>
       <c r="S199" s="22"/>
       <c r="T199" s="22">
-        <f t="shared" ref="T199:T208" si="2">SUM(O199:S199)</f>
+        <f>SUM(O199:S199)</f>
         <v>0</v>
       </c>
       <c r="U199" s="27"/>
@@ -17426,7 +17514,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C200="","",WEEKNUM(C200,1))</f>
         <v>12</v>
       </c>
       <c r="F200" s="22" t="s">
@@ -17461,7 +17549,7 @@
       <c r="R200" s="22"/>
       <c r="S200" s="22"/>
       <c r="T200" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O200:S200)</f>
         <v>0</v>
       </c>
       <c r="U200" s="27"/>
@@ -17490,7 +17578,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C201="","",WEEKNUM(C201,1))</f>
         <v>12</v>
       </c>
       <c r="F201" s="22" t="s">
@@ -17529,7 +17617,7 @@
       <c r="R201" s="22"/>
       <c r="S201" s="22"/>
       <c r="T201" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O201:S201)</f>
         <v>1</v>
       </c>
       <c r="U201" s="27" t="s">
@@ -17572,7 +17660,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C202="","",WEEKNUM(C202,1))</f>
         <v>12</v>
       </c>
       <c r="F202" s="22" t="s">
@@ -17611,7 +17699,7 @@
       <c r="R202" s="22"/>
       <c r="S202" s="22"/>
       <c r="T202" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O202:S202)</f>
         <v>1</v>
       </c>
       <c r="U202" s="27" t="s">
@@ -17652,7 +17740,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C203="","",WEEKNUM(C203,1))</f>
         <v>12</v>
       </c>
       <c r="F203" s="22" t="s">
@@ -17687,7 +17775,7 @@
       <c r="R203" s="22"/>
       <c r="S203" s="22"/>
       <c r="T203" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O203:S203)</f>
         <v>0</v>
       </c>
       <c r="U203" s="27"/>
@@ -17716,7 +17804,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C204="","",WEEKNUM(C204,1))</f>
         <v>12</v>
       </c>
       <c r="F204" s="22" t="s">
@@ -17751,7 +17839,7 @@
       <c r="R204" s="22"/>
       <c r="S204" s="22"/>
       <c r="T204" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O204:S204)</f>
         <v>0</v>
       </c>
       <c r="U204" s="27"/>
@@ -17780,7 +17868,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C205="","",WEEKNUM(C205,1))</f>
         <v>12</v>
       </c>
       <c r="F205" s="22" t="s">
@@ -17819,7 +17907,7 @@
         <v>2</v>
       </c>
       <c r="T205" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O205:S205)</f>
         <v>2</v>
       </c>
       <c r="U205" s="27" t="s">
@@ -17860,7 +17948,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C206="","",WEEKNUM(C206,1))</f>
         <v>12</v>
       </c>
       <c r="F206" s="22" t="s">
@@ -17891,7 +17979,7 @@
       <c r="R206" s="22"/>
       <c r="S206" s="22"/>
       <c r="T206" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O206:S206)</f>
         <v>1</v>
       </c>
       <c r="U206" s="27" t="s">
@@ -17932,7 +18020,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C207="","",WEEKNUM(C207,1))</f>
         <v>12</v>
       </c>
       <c r="F207" s="22" t="s">
@@ -17967,7 +18055,7 @@
       <c r="R207" s="22"/>
       <c r="S207" s="22"/>
       <c r="T207" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O207:S207)</f>
         <v>0</v>
       </c>
       <c r="U207" s="27"/>
@@ -17996,7 +18084,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C208="","",WEEKNUM(C208,1))</f>
         <v>12</v>
       </c>
       <c r="F208" s="22" t="s">
@@ -18035,7 +18123,7 @@
       <c r="R208" s="22"/>
       <c r="S208" s="22"/>
       <c r="T208" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O208:S208)</f>
         <v>1</v>
       </c>
       <c r="U208" s="27" t="s">
@@ -18078,7 +18166,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C209="","",WEEKNUM(C209,1))</f>
         <v>12</v>
       </c>
       <c r="F209" s="22" t="s">
@@ -18147,7 +18235,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C210="","",WEEKNUM(C210,1))</f>
         <v>12</v>
       </c>
       <c r="F210" s="22" t="s">
@@ -18186,7 +18274,7 @@
       <c r="R210" s="22"/>
       <c r="S210" s="22"/>
       <c r="T210" s="22">
-        <f t="shared" ref="T210:T235" si="3">SUM(O210:S210)</f>
+        <f>SUM(O210:S210)</f>
         <v>1</v>
       </c>
       <c r="U210" s="27" t="s">
@@ -18227,7 +18315,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C211="","",WEEKNUM(C211,1))</f>
         <v>12</v>
       </c>
       <c r="F211" s="22" t="s">
@@ -18262,7 +18350,7 @@
       <c r="R211" s="22"/>
       <c r="S211" s="22"/>
       <c r="T211" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O211:S211)</f>
         <v>0</v>
       </c>
       <c r="U211" s="27"/>
@@ -18291,7 +18379,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C212="","",WEEKNUM(C212,1))</f>
         <v>12</v>
       </c>
       <c r="F212" s="22" t="s">
@@ -18352,7 +18440,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C213="","",WEEKNUM(C213,1))</f>
         <v>12</v>
       </c>
       <c r="F213" s="22" t="s">
@@ -18413,7 +18501,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C214="","",WEEKNUM(C214,1))</f>
         <v>12</v>
       </c>
       <c r="F214" s="22" t="s">
@@ -18474,7 +18562,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C215="","",WEEKNUM(C215,1))</f>
         <v>12</v>
       </c>
       <c r="F215" s="22" t="s">
@@ -18509,7 +18597,7 @@
       <c r="R215" s="22"/>
       <c r="S215" s="22"/>
       <c r="T215" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O215:S215)</f>
         <v>0</v>
       </c>
       <c r="U215" s="27"/>
@@ -18538,7 +18626,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C216="","",WEEKNUM(C216,1))</f>
         <v>12</v>
       </c>
       <c r="F216" s="22" t="s">
@@ -18577,7 +18665,7 @@
       <c r="R216" s="22"/>
       <c r="S216" s="22"/>
       <c r="T216" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O216:S216)</f>
         <v>1</v>
       </c>
       <c r="U216" s="27" t="s">
@@ -18620,7 +18708,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C217="","",WEEKNUM(C217,1))</f>
         <v>12</v>
       </c>
       <c r="F217" s="22" t="s">
@@ -18655,7 +18743,7 @@
       <c r="R217" s="22"/>
       <c r="S217" s="22"/>
       <c r="T217" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O217:S217)</f>
         <v>0</v>
       </c>
       <c r="U217" s="27"/>
@@ -18684,7 +18772,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C218="","",WEEKNUM(C218,1))</f>
         <v>12</v>
       </c>
       <c r="F218" s="22" t="s">
@@ -18719,7 +18807,7 @@
       <c r="R218" s="22"/>
       <c r="S218" s="22"/>
       <c r="T218" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O218:S218)</f>
         <v>0</v>
       </c>
       <c r="U218" s="27"/>
@@ -18748,7 +18836,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C219="","",WEEKNUM(C219,1))</f>
         <v>12</v>
       </c>
       <c r="F219" s="22" t="s">
@@ -18787,7 +18875,7 @@
       <c r="R219" s="22"/>
       <c r="S219" s="22"/>
       <c r="T219" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O219:S219)</f>
         <v>1</v>
       </c>
       <c r="U219" s="27" t="s">
@@ -18828,7 +18916,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C220="","",WEEKNUM(C220,1))</f>
         <v>12</v>
       </c>
       <c r="F220" s="22" t="s">
@@ -18863,7 +18951,7 @@
       <c r="R220" s="22"/>
       <c r="S220" s="22"/>
       <c r="T220" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O220:S220)</f>
         <v>0</v>
       </c>
       <c r="U220" s="27"/>
@@ -18892,7 +18980,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C221="","",WEEKNUM(C221,1))</f>
         <v>12</v>
       </c>
       <c r="F221" s="22" t="s">
@@ -18927,7 +19015,7 @@
       <c r="R221" s="22"/>
       <c r="S221" s="22"/>
       <c r="T221" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O221:S221)</f>
         <v>0</v>
       </c>
       <c r="U221" s="27"/>
@@ -18956,7 +19044,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C222="","",WEEKNUM(C222,1))</f>
         <v>12</v>
       </c>
       <c r="F222" s="22" t="s">
@@ -18991,7 +19079,7 @@
       <c r="R222" s="22"/>
       <c r="S222" s="22"/>
       <c r="T222" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O222:S222)</f>
         <v>0</v>
       </c>
       <c r="U222" s="27"/>
@@ -19020,7 +19108,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C223="","",WEEKNUM(C223,1))</f>
         <v>12</v>
       </c>
       <c r="F223" s="22" t="s">
@@ -19059,7 +19147,7 @@
       <c r="R223" s="22"/>
       <c r="S223" s="22"/>
       <c r="T223" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O223:S223)</f>
         <v>1</v>
       </c>
       <c r="U223" s="27" t="s">
@@ -19100,7 +19188,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C224="","",WEEKNUM(C224,1))</f>
         <v>12</v>
       </c>
       <c r="F224" s="22" t="s">
@@ -19135,7 +19223,7 @@
       <c r="R224" s="22"/>
       <c r="S224" s="22"/>
       <c r="T224" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O224:S224)</f>
         <v>0</v>
       </c>
       <c r="U224" s="27"/>
@@ -19164,7 +19252,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C225="","",WEEKNUM(C225,1))</f>
         <v>12</v>
       </c>
       <c r="F225" s="22" t="s">
@@ -19203,7 +19291,7 @@
       <c r="R225" s="22"/>
       <c r="S225" s="22"/>
       <c r="T225" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O225:S225)</f>
         <v>1</v>
       </c>
       <c r="U225" s="27" t="s">
@@ -19244,7 +19332,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C226="","",WEEKNUM(C226,1))</f>
         <v>12</v>
       </c>
       <c r="F226" s="22" t="s">
@@ -19279,7 +19367,7 @@
       <c r="R226" s="22"/>
       <c r="S226" s="22"/>
       <c r="T226" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O226:S226)</f>
         <v>0</v>
       </c>
       <c r="U226" s="27"/>
@@ -19308,7 +19396,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C227="","",WEEKNUM(C227,1))</f>
         <v>12</v>
       </c>
       <c r="F227" s="22" t="s">
@@ -19347,7 +19435,7 @@
       </c>
       <c r="S227" s="22"/>
       <c r="T227" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O227:S227)</f>
         <v>1</v>
       </c>
       <c r="U227" s="27" t="s">
@@ -19388,7 +19476,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C228="","",WEEKNUM(C228,1))</f>
         <v>12</v>
       </c>
       <c r="F228" s="22" t="s">
@@ -19423,7 +19511,7 @@
       <c r="R228" s="22"/>
       <c r="S228" s="22"/>
       <c r="T228" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O228:S228)</f>
         <v>0</v>
       </c>
       <c r="U228" s="27"/>
@@ -19452,7 +19540,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C229="","",WEEKNUM(C229,1))</f>
         <v>12</v>
       </c>
       <c r="F229" s="22" t="s">
@@ -19487,7 +19575,7 @@
       <c r="R229" s="22"/>
       <c r="S229" s="22"/>
       <c r="T229" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O229:S229)</f>
         <v>0</v>
       </c>
       <c r="U229" s="27"/>
@@ -19516,7 +19604,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C230="","",WEEKNUM(C230,1))</f>
         <v>12</v>
       </c>
       <c r="F230" s="22" t="s">
@@ -19555,7 +19643,7 @@
       <c r="R230" s="22"/>
       <c r="S230" s="22"/>
       <c r="T230" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O230:S230)</f>
         <v>1</v>
       </c>
       <c r="U230" s="27" t="s">
@@ -19596,7 +19684,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C231="","",WEEKNUM(C231,1))</f>
         <v>13</v>
       </c>
       <c r="F231" s="22" t="s">
@@ -19631,7 +19719,7 @@
       <c r="R231" s="22"/>
       <c r="S231" s="22"/>
       <c r="T231" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O231:S231)</f>
         <v>0</v>
       </c>
       <c r="U231" s="27"/>
@@ -19660,7 +19748,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C232="","",WEEKNUM(C232,1))</f>
         <v>13</v>
       </c>
       <c r="F232" s="22" t="s">
@@ -19695,7 +19783,7 @@
       <c r="R232" s="22"/>
       <c r="S232" s="22"/>
       <c r="T232" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O232:S232)</f>
         <v>0</v>
       </c>
       <c r="U232" s="27"/>
@@ -19724,7 +19812,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C233="","",WEEKNUM(C233,1))</f>
         <v>13</v>
       </c>
       <c r="F233" s="22" t="s">
@@ -19759,7 +19847,7 @@
       <c r="R233" s="22"/>
       <c r="S233" s="22"/>
       <c r="T233" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O233:S233)</f>
         <v>0</v>
       </c>
       <c r="U233" s="27"/>
@@ -19788,7 +19876,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C234="","",WEEKNUM(C234,1))</f>
         <v>13</v>
       </c>
       <c r="F234" s="22" t="s">
@@ -19823,7 +19911,7 @@
       <c r="R234" s="22"/>
       <c r="S234" s="22"/>
       <c r="T234" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O234:S234)</f>
         <v>0</v>
       </c>
       <c r="U234" s="27"/>
@@ -19852,7 +19940,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C235="","",WEEKNUM(C235,1))</f>
         <v>13</v>
       </c>
       <c r="F235" s="22" t="s">
@@ -19891,7 +19979,7 @@
       <c r="R235" s="22"/>
       <c r="S235" s="22"/>
       <c r="T235" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(O235:S235)</f>
         <v>1</v>
       </c>
       <c r="U235" s="27" t="s">
@@ -19932,7 +20020,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="61">
-        <f t="shared" si="0"/>
+        <f>IF(C236="","",WEEKNUM(C236,1))</f>
         <v>13</v>
       </c>
       <c r="F236" s="22" t="s">
@@ -19993,7 +20081,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="93">
-        <f t="shared" si="0"/>
+        <f>IF(C237="","",WEEKNUM(C237,1))</f>
         <v>13</v>
       </c>
       <c r="F237" s="42" t="s">
@@ -20028,7 +20116,7 @@
       <c r="R237" s="42"/>
       <c r="S237" s="42"/>
       <c r="T237" s="42">
-        <f t="shared" ref="T237:T272" si="4">SUM(O237:S237)</f>
+        <f>SUM(O237:S237)</f>
         <v>0</v>
       </c>
       <c r="U237" s="38"/>
@@ -20057,7 +20145,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="93">
-        <f t="shared" si="0"/>
+        <f>IF(C238="","",WEEKNUM(C238,1))</f>
         <v>13</v>
       </c>
       <c r="F238" s="42" t="s">
@@ -20092,7 +20180,7 @@
       <c r="R238" s="42"/>
       <c r="S238" s="42"/>
       <c r="T238" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O238:S238)</f>
         <v>0</v>
       </c>
       <c r="U238" s="38"/>
@@ -20121,7 +20209,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="93">
-        <f t="shared" si="0"/>
+        <f>IF(C239="","",WEEKNUM(C239,1))</f>
         <v>13</v>
       </c>
       <c r="F239" s="42" t="s">
@@ -20156,7 +20244,7 @@
       <c r="R239" s="42"/>
       <c r="S239" s="42"/>
       <c r="T239" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O239:S239)</f>
         <v>0</v>
       </c>
       <c r="U239" s="38"/>
@@ -20185,7 +20273,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="93">
-        <f t="shared" si="0"/>
+        <f>IF(C240="","",WEEKNUM(C240,1))</f>
         <v>13</v>
       </c>
       <c r="F240" s="42" t="s">
@@ -20220,7 +20308,7 @@
       <c r="R240" s="42"/>
       <c r="S240" s="42"/>
       <c r="T240" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O240:S240)</f>
         <v>0</v>
       </c>
       <c r="U240" s="38"/>
@@ -20249,7 +20337,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="93">
-        <f t="shared" si="0"/>
+        <f>IF(C241="","",WEEKNUM(C241,1))</f>
         <v>13</v>
       </c>
       <c r="F241" s="42" t="s">
@@ -20288,7 +20376,7 @@
       <c r="R241" s="42"/>
       <c r="S241" s="42"/>
       <c r="T241" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O241:S241)</f>
         <v>1</v>
       </c>
       <c r="U241" s="38" t="s">
@@ -20329,7 +20417,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="93">
-        <f t="shared" ref="E242:E305" si="5">IF(C242="","",WEEKNUM(C242,1))</f>
+        <f>IF(C242="","",WEEKNUM(C242,1))</f>
         <v>13</v>
       </c>
       <c r="F242" s="42" t="s">
@@ -20364,7 +20452,7 @@
       <c r="R242" s="42"/>
       <c r="S242" s="42"/>
       <c r="T242" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O242:S242)</f>
         <v>0</v>
       </c>
       <c r="U242" s="38"/>
@@ -20393,7 +20481,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C243="","",WEEKNUM(C243,1))</f>
         <v>13</v>
       </c>
       <c r="F243" s="42" t="s">
@@ -20428,7 +20516,7 @@
       <c r="R243" s="42"/>
       <c r="S243" s="42"/>
       <c r="T243" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O243:S243)</f>
         <v>0</v>
       </c>
       <c r="U243" s="38"/>
@@ -20459,7 +20547,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C244="","",WEEKNUM(C244,1))</f>
         <v>13</v>
       </c>
       <c r="F244" s="42" t="s">
@@ -20494,7 +20582,7 @@
       <c r="R244" s="42"/>
       <c r="S244" s="42"/>
       <c r="T244" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O244:S244)</f>
         <v>0</v>
       </c>
       <c r="U244" s="38"/>
@@ -20525,7 +20613,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C245="","",WEEKNUM(C245,1))</f>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -20560,7 +20648,7 @@
       <c r="R245" s="42"/>
       <c r="S245" s="42"/>
       <c r="T245" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O245:S245)</f>
         <v>0</v>
       </c>
       <c r="U245" s="38"/>
@@ -20589,7 +20677,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C246="","",WEEKNUM(C246,1))</f>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -20624,7 +20712,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O246:S246)</f>
         <v>0</v>
       </c>
       <c r="U246" s="38"/>
@@ -20653,7 +20741,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C247="","",WEEKNUM(C247,1))</f>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -20688,7 +20776,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O247:S247)</f>
         <v>0</v>
       </c>
       <c r="U247" s="38"/>
@@ -20719,7 +20807,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C248="","",WEEKNUM(C248,1))</f>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -20754,7 +20842,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="12"/>
       <c r="T248" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O248:S248)</f>
         <v>0</v>
       </c>
       <c r="U248" s="36"/>
@@ -20783,7 +20871,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C249="","",WEEKNUM(C249,1))</f>
         <v>13</v>
       </c>
       <c r="F249" s="42" t="s">
@@ -20822,7 +20910,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="12"/>
       <c r="T249" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O249:S249)</f>
         <v>1</v>
       </c>
       <c r="U249" s="38" t="s">
@@ -20863,7 +20951,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C250="","",WEEKNUM(C250,1))</f>
         <v>13</v>
       </c>
       <c r="F250" s="42" t="s">
@@ -20894,7 +20982,7 @@
       <c r="R250" s="42"/>
       <c r="S250" s="42"/>
       <c r="T250" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O250:S250)</f>
         <v>1</v>
       </c>
       <c r="U250" s="38" t="s">
@@ -20935,7 +21023,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C251="","",WEEKNUM(C251,1))</f>
         <v>13</v>
       </c>
       <c r="F251" s="42" t="s">
@@ -20966,7 +21054,7 @@
       <c r="R251" s="42"/>
       <c r="S251" s="42"/>
       <c r="T251" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O251:S251)</f>
         <v>1</v>
       </c>
       <c r="U251" s="38" t="s">
@@ -21007,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C252="","",WEEKNUM(C252,1))</f>
         <v>13</v>
       </c>
       <c r="F252" s="42" t="s">
@@ -21046,7 +21134,7 @@
       <c r="R252" s="42"/>
       <c r="S252" s="42"/>
       <c r="T252" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O252:S252)</f>
         <v>1</v>
       </c>
       <c r="U252" s="38" t="s">
@@ -21087,7 +21175,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C253="","",WEEKNUM(C253,1))</f>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -21122,7 +21210,7 @@
       <c r="R253" s="22"/>
       <c r="S253" s="22"/>
       <c r="T253" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O253:S253)</f>
         <v>0</v>
       </c>
       <c r="U253" s="27"/>
@@ -21151,7 +21239,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C254="","",WEEKNUM(C254,1))</f>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -21190,7 +21278,7 @@
       <c r="R254" s="22"/>
       <c r="S254" s="22"/>
       <c r="T254" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O254:S254)</f>
         <v>1</v>
       </c>
       <c r="U254" s="27" t="s">
@@ -21231,7 +21319,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C255="","",WEEKNUM(C255,1))</f>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -21262,7 +21350,7 @@
       <c r="R255" s="22"/>
       <c r="S255" s="22"/>
       <c r="T255" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O255:S255)</f>
         <v>1</v>
       </c>
       <c r="U255" s="27" t="s">
@@ -21303,7 +21391,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C256="","",WEEKNUM(C256,1))</f>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -21338,7 +21426,7 @@
       <c r="R256" s="22"/>
       <c r="S256" s="22"/>
       <c r="T256" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O256:S256)</f>
         <v>0</v>
       </c>
       <c r="U256" s="27"/>
@@ -21367,7 +21455,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C257="","",WEEKNUM(C257,1))</f>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -21402,7 +21490,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O257:S257)</f>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -21431,7 +21519,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C258="","",WEEKNUM(C258,1))</f>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -21466,7 +21554,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O258:S258)</f>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -21495,7 +21583,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C259="","",WEEKNUM(C259,1))</f>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -21530,7 +21618,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O259:S259)</f>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -21559,7 +21647,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C260="","",WEEKNUM(C260,1))</f>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -21598,7 +21686,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O260:S260)</f>
         <v>1</v>
       </c>
       <c r="U260" s="36" t="s">
@@ -21641,7 +21729,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C261="","",WEEKNUM(C261,1))</f>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -21676,7 +21764,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O261:S261)</f>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -21705,7 +21793,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C262="","",WEEKNUM(C262,1))</f>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -21740,7 +21828,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O262:S262)</f>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -21769,7 +21857,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C263="","",WEEKNUM(C263,1))</f>
         <v>13</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -21804,7 +21892,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O263:S263)</f>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -21835,7 +21923,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C264="","",WEEKNUM(C264,1))</f>
         <v>13</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -21870,7 +21958,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O264:S264)</f>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -21899,7 +21987,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C265="","",WEEKNUM(C265,1))</f>
         <v>13</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -21934,7 +22022,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O265:S265)</f>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -21963,7 +22051,7 @@
         <v>230</v>
       </c>
       <c r="E266" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C266="","",WEEKNUM(C266,1))</f>
         <v>13</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -21998,7 +22086,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="12"/>
       <c r="T266" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O266:S266)</f>
         <v>0</v>
       </c>
       <c r="U266" s="36"/>
@@ -22027,7 +22115,7 @@
         <v>230</v>
       </c>
       <c r="E267" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C267="","",WEEKNUM(C267,1))</f>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -22062,7 +22150,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="12"/>
       <c r="T267" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O267:S267)</f>
         <v>0</v>
       </c>
       <c r="U267" s="36"/>
@@ -22091,7 +22179,7 @@
         <v>230</v>
       </c>
       <c r="E268" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C268="","",WEEKNUM(C268,1))</f>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -22126,7 +22214,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="12"/>
       <c r="T268" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O268:S268)</f>
         <v>0</v>
       </c>
       <c r="U268" s="36"/>
@@ -22155,7 +22243,7 @@
         <v>230</v>
       </c>
       <c r="E269" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C269="","",WEEKNUM(C269,1))</f>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -22190,7 +22278,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="12"/>
       <c r="T269" s="42">
-        <f t="shared" si="4"/>
+        <f>SUM(O269:S269)</f>
         <v>0</v>
       </c>
       <c r="U269" s="36"/>
@@ -22219,7 +22307,7 @@
         <v>356</v>
       </c>
       <c r="E270" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C270="","",WEEKNUM(C270,1))</f>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -22254,7 +22342,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O270:S270)</f>
         <v>0</v>
       </c>
       <c r="U270" s="27"/>
@@ -22283,7 +22371,7 @@
         <v>356</v>
       </c>
       <c r="E271" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C271="","",WEEKNUM(C271,1))</f>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -22318,7 +22406,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O271:S271)</f>
         <v>0</v>
       </c>
       <c r="U271" s="27"/>
@@ -22347,7 +22435,7 @@
         <v>356</v>
       </c>
       <c r="E272" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C272="","",WEEKNUM(C272,1))</f>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -22382,7 +22470,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f t="shared" si="4"/>
+        <f>SUM(O272:S272)</f>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -22411,7 +22499,7 @@
         <v>356</v>
       </c>
       <c r="E273" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C273="","",WEEKNUM(C273,1))</f>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -22472,7 +22560,7 @@
         <v>356</v>
       </c>
       <c r="E274" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C274="","",WEEKNUM(C274,1))</f>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -22511,7 +22599,7 @@
       <c r="R274" s="22"/>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f t="shared" ref="T274:T337" si="6">SUM(O274:S274)</f>
+        <f>SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -22552,7 +22640,7 @@
         <v>356</v>
       </c>
       <c r="E275" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C275="","",WEEKNUM(C275,1))</f>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -22583,7 +22671,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O275:S275)</f>
         <v>1</v>
       </c>
       <c r="U275" s="27" t="s">
@@ -22624,7 +22712,7 @@
         <v>356</v>
       </c>
       <c r="E276" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C276="","",WEEKNUM(C276,1))</f>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -22659,7 +22747,7 @@
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O276:S276)</f>
         <v>0</v>
       </c>
       <c r="U276" s="27"/>
@@ -22688,7 +22776,7 @@
         <v>356</v>
       </c>
       <c r="E277" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C277="","",WEEKNUM(C277,1))</f>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -22727,7 +22815,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O277:S277)</f>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -22768,7 +22856,7 @@
         <v>356</v>
       </c>
       <c r="E278" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C278="","",WEEKNUM(C278,1))</f>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -22807,7 +22895,7 @@
       </c>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O278:S278)</f>
         <v>1</v>
       </c>
       <c r="U278" s="27" t="s">
@@ -22848,7 +22936,7 @@
         <v>356</v>
       </c>
       <c r="E279" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C279="","",WEEKNUM(C279,1))</f>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -22883,7 +22971,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O279:S279)</f>
         <v>0</v>
       </c>
       <c r="U279" s="27"/>
@@ -22912,7 +23000,7 @@
         <v>356</v>
       </c>
       <c r="E280" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C280="","",WEEKNUM(C280,1))</f>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -22951,7 +23039,7 @@
       </c>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O280:S280)</f>
         <v>3</v>
       </c>
       <c r="U280" s="27" t="s">
@@ -22994,7 +23082,7 @@
         <v>356</v>
       </c>
       <c r="E281" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C281="","",WEEKNUM(C281,1))</f>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -23033,7 +23121,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O281:S281)</f>
         <v>1</v>
       </c>
       <c r="U281" s="27" t="s">
@@ -23076,7 +23164,7 @@
         <v>356</v>
       </c>
       <c r="E282" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C282="","",WEEKNUM(C282,1))</f>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -23111,7 +23199,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O282:S282)</f>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -23142,7 +23230,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C283="","",WEEKNUM(C283,1))</f>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -23181,7 +23269,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O283:S283)</f>
         <v>1</v>
       </c>
       <c r="U283" s="27" t="s">
@@ -23222,7 +23310,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C284="","",WEEKNUM(C284,1))</f>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -23257,7 +23345,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O284:S284)</f>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -23286,7 +23374,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C285="","",WEEKNUM(C285,1))</f>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -23321,7 +23409,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O285:S285)</f>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -23350,7 +23438,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C286="","",WEEKNUM(C286,1))</f>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -23385,7 +23473,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O286:S286)</f>
         <v>0</v>
       </c>
       <c r="U286" s="27"/>
@@ -23414,7 +23502,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C287="","",WEEKNUM(C287,1))</f>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -23449,7 +23537,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O287:S287)</f>
         <v>0</v>
       </c>
       <c r="U287" s="27"/>
@@ -23478,7 +23566,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C288="","",WEEKNUM(C288,1))</f>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -23513,7 +23601,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O288:S288)</f>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -23544,7 +23632,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C289="","",WEEKNUM(C289,1))</f>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -23579,7 +23667,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O289:S289)</f>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -23608,7 +23696,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C290="","",WEEKNUM(C290,1))</f>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -23647,7 +23735,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O290:S290)</f>
         <v>1</v>
       </c>
       <c r="U290" s="27" t="s">
@@ -23688,7 +23776,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C291="","",WEEKNUM(C291,1))</f>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -23719,7 +23807,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O291:S291)</f>
         <v>1</v>
       </c>
       <c r="U291" s="27" t="s">
@@ -23760,7 +23848,7 @@
         <v>356</v>
       </c>
       <c r="E292" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C292="","",WEEKNUM(C292,1))</f>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -23795,7 +23883,7 @@
       <c r="R292" s="22"/>
       <c r="S292" s="22"/>
       <c r="T292" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O292:S292)</f>
         <v>0</v>
       </c>
       <c r="U292" s="27"/>
@@ -23824,7 +23912,7 @@
         <v>356</v>
       </c>
       <c r="E293" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C293="","",WEEKNUM(C293,1))</f>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -23859,7 +23947,7 @@
       <c r="R293" s="22"/>
       <c r="S293" s="22"/>
       <c r="T293" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O293:S293)</f>
         <v>0</v>
       </c>
       <c r="U293" s="27"/>
@@ -23888,7 +23976,7 @@
         <v>356</v>
       </c>
       <c r="E294" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C294="","",WEEKNUM(C294,1))</f>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -23923,7 +24011,7 @@
       <c r="R294" s="22"/>
       <c r="S294" s="22"/>
       <c r="T294" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O294:S294)</f>
         <v>0</v>
       </c>
       <c r="U294" s="27"/>
@@ -23952,7 +24040,7 @@
         <v>356</v>
       </c>
       <c r="E295" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C295="","",WEEKNUM(C295,1))</f>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -23987,7 +24075,7 @@
       <c r="R295" s="22"/>
       <c r="S295" s="22"/>
       <c r="T295" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O295:S295)</f>
         <v>0</v>
       </c>
       <c r="U295" s="27"/>
@@ -24016,7 +24104,7 @@
         <v>356</v>
       </c>
       <c r="E296" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C296="","",WEEKNUM(C296,1))</f>
         <v>14</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -24051,7 +24139,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O296:S296)</f>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -24080,7 +24168,7 @@
         <v>356</v>
       </c>
       <c r="E297" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C297="","",WEEKNUM(C297,1))</f>
         <v>14</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -24115,7 +24203,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O297:S297)</f>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -24144,7 +24232,7 @@
         <v>356</v>
       </c>
       <c r="E298" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C298="","",WEEKNUM(C298,1))</f>
         <v>14</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -24183,7 +24271,7 @@
       </c>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O298:S298)</f>
         <v>1</v>
       </c>
       <c r="U298" s="13" t="s">
@@ -24226,7 +24314,7 @@
         <v>356</v>
       </c>
       <c r="E299" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C299="","",WEEKNUM(C299,1))</f>
         <v>14</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -24257,7 +24345,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O299:S299)</f>
         <v>1</v>
       </c>
       <c r="U299" s="13" t="s">
@@ -24300,7 +24388,7 @@
         <v>356</v>
       </c>
       <c r="E300" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C300="","",WEEKNUM(C300,1))</f>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -24335,7 +24423,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="12"/>
       <c r="T300" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O300:S300)</f>
         <v>0</v>
       </c>
       <c r="U300" s="13"/>
@@ -24364,7 +24452,7 @@
         <v>356</v>
       </c>
       <c r="E301" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C301="","",WEEKNUM(C301,1))</f>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -24399,7 +24487,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="12"/>
       <c r="T301" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O301:S301)</f>
         <v>0</v>
       </c>
       <c r="U301" s="13"/>
@@ -24430,7 +24518,7 @@
         <v>356</v>
       </c>
       <c r="E302" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C302="","",WEEKNUM(C302,1))</f>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -24465,7 +24553,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
       <c r="T302" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O302:S302)</f>
         <v>0</v>
       </c>
       <c r="U302" s="13"/>
@@ -24494,7 +24582,7 @@
         <v>356</v>
       </c>
       <c r="E303" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C303="","",WEEKNUM(C303,1))</f>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
@@ -24529,7 +24617,7 @@
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
       <c r="T303" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O303:S303)</f>
         <v>0</v>
       </c>
       <c r="U303" s="27"/>
@@ -24558,7 +24646,7 @@
         <v>356</v>
       </c>
       <c r="E304" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C304="","",WEEKNUM(C304,1))</f>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -24597,7 +24685,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O304:S304)</f>
         <v>6</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -24640,7 +24728,7 @@
         <v>356</v>
       </c>
       <c r="E305" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C305="","",WEEKNUM(C305,1))</f>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -24671,7 +24759,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O305:S305)</f>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -24712,7 +24800,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="61">
-        <f t="shared" ref="E306:E360" si="7">IF(C306="","",WEEKNUM(C306,1))</f>
+        <f>IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -24747,7 +24835,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O306:S306)</f>
         <v>0</v>
       </c>
       <c r="U306" s="27"/>
@@ -24776,7 +24864,7 @@
         <v>356</v>
       </c>
       <c r="E307" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C307="","",WEEKNUM(C307,1))</f>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -24811,7 +24899,7 @@
       <c r="R307" s="95"/>
       <c r="S307" s="95"/>
       <c r="T307" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O307:S307)</f>
         <v>0</v>
       </c>
       <c r="U307" s="95"/>
@@ -24840,7 +24928,7 @@
         <v>356</v>
       </c>
       <c r="E308" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C308="","",WEEKNUM(C308,1))</f>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -24879,7 +24967,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O308:S308)</f>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -24920,7 +25008,7 @@
         <v>356</v>
       </c>
       <c r="E309" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C309="","",WEEKNUM(C309,1))</f>
         <v>15</v>
       </c>
       <c r="F309" s="22" t="s">
@@ -24951,7 +25039,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O309:S309)</f>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -24992,7 +25080,7 @@
         <v>356</v>
       </c>
       <c r="E310" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C310="","",WEEKNUM(C310,1))</f>
         <v>15</v>
       </c>
       <c r="F310" s="22" t="s">
@@ -25031,7 +25119,7 @@
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
       <c r="T310" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O310:S310)</f>
         <v>1</v>
       </c>
       <c r="U310" s="27" t="s">
@@ -25072,7 +25160,7 @@
         <v>356</v>
       </c>
       <c r="E311" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C311="","",WEEKNUM(C311,1))</f>
         <v>15</v>
       </c>
       <c r="F311" s="22" t="s">
@@ -25111,7 +25199,7 @@
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O311:S311)</f>
         <v>1</v>
       </c>
       <c r="U311" s="27" t="s">
@@ -25152,7 +25240,7 @@
         <v>356</v>
       </c>
       <c r="E312" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C312="","",WEEKNUM(C312,1))</f>
         <v>15</v>
       </c>
       <c r="F312" s="22" t="s">
@@ -25183,7 +25271,7 @@
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O312:S312)</f>
         <v>1</v>
       </c>
       <c r="U312" s="27" t="s">
@@ -25224,7 +25312,7 @@
         <v>356</v>
       </c>
       <c r="E313" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C313="","",WEEKNUM(C313,1))</f>
         <v>15</v>
       </c>
       <c r="F313" s="22" t="s">
@@ -25263,7 +25351,7 @@
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
       <c r="T313" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O313:S313)</f>
         <v>1</v>
       </c>
       <c r="U313" s="27" t="s">
@@ -25281,7 +25369,6 @@
       <c r="Y313" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z313" s="11"/>
       <c r="AA313" s="95"/>
       <c r="AB313" s="95"/>
       <c r="AC313" s="95"/>
@@ -25302,7 +25389,7 @@
         <v>356</v>
       </c>
       <c r="E314" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C314="","",WEEKNUM(C314,1))</f>
         <v>15</v>
       </c>
       <c r="F314" s="22" t="s">
@@ -25337,15 +25424,12 @@
       <c r="R314" s="22"/>
       <c r="S314" s="22"/>
       <c r="T314" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O314:S314)</f>
         <v>0</v>
       </c>
       <c r="U314" s="27"/>
       <c r="V314" s="10"/>
       <c r="W314" s="11"/>
-      <c r="X314" s="11"/>
-      <c r="Y314" s="11"/>
-      <c r="Z314" s="11"/>
       <c r="AA314" s="95"/>
       <c r="AB314" s="95"/>
       <c r="AC314" s="95"/>
@@ -25366,7 +25450,7 @@
         <v>356</v>
       </c>
       <c r="E315" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C315="","",WEEKNUM(C315,1))</f>
         <v>15</v>
       </c>
       <c r="F315" s="22" t="s">
@@ -25405,7 +25489,7 @@
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
       <c r="T315" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O315:S315)</f>
         <v>1</v>
       </c>
       <c r="U315" s="27" t="s">
@@ -25446,7 +25530,7 @@
         <v>356</v>
       </c>
       <c r="E316" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C316="","",WEEKNUM(C316,1))</f>
         <v>15</v>
       </c>
       <c r="F316" s="22" t="s">
@@ -25481,15 +25565,12 @@
       <c r="R316" s="22"/>
       <c r="S316" s="22"/>
       <c r="T316" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O316:S316)</f>
         <v>0</v>
       </c>
       <c r="U316" s="27"/>
       <c r="V316" s="10"/>
       <c r="W316" s="11"/>
-      <c r="X316" s="11"/>
-      <c r="Y316" s="11"/>
-      <c r="Z316" s="11"/>
       <c r="AA316" s="95"/>
       <c r="AB316" s="95"/>
       <c r="AC316" s="95"/>
@@ -25510,7 +25591,7 @@
         <v>356</v>
       </c>
       <c r="E317" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C317="","",WEEKNUM(C317,1))</f>
         <v>15</v>
       </c>
       <c r="F317" s="22" t="s">
@@ -25545,15 +25626,12 @@
       <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O317:S317)</f>
         <v>0</v>
       </c>
       <c r="U317" s="27"/>
       <c r="V317" s="10"/>
       <c r="W317" s="11"/>
-      <c r="X317" s="11"/>
-      <c r="Y317" s="11"/>
-      <c r="Z317" s="11"/>
       <c r="AA317" s="95"/>
       <c r="AB317" s="95"/>
       <c r="AC317" s="95"/>
@@ -25574,7 +25652,7 @@
         <v>356</v>
       </c>
       <c r="E318" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C318="","",WEEKNUM(C318,1))</f>
         <v>15</v>
       </c>
       <c r="F318" s="22" t="s">
@@ -25609,15 +25687,12 @@
       <c r="R318" s="22"/>
       <c r="S318" s="22"/>
       <c r="T318" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O318:S318)</f>
         <v>0</v>
       </c>
       <c r="U318" s="27"/>
       <c r="V318" s="10"/>
       <c r="W318" s="11"/>
-      <c r="X318" s="11"/>
-      <c r="Y318" s="11"/>
-      <c r="Z318" s="11"/>
       <c r="AA318" s="95"/>
       <c r="AB318" s="95"/>
       <c r="AC318" s="27" t="s">
@@ -25640,7 +25715,7 @@
         <v>356</v>
       </c>
       <c r="E319" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C319="","",WEEKNUM(C319,1))</f>
         <v>15</v>
       </c>
       <c r="F319" s="22" t="s">
@@ -25679,7 +25754,7 @@
       <c r="R319" s="22"/>
       <c r="S319" s="22"/>
       <c r="T319" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O319:S319)</f>
         <v>1</v>
       </c>
       <c r="U319" s="27" t="s">
@@ -25720,7 +25795,7 @@
         <v>356</v>
       </c>
       <c r="E320" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C320="","",WEEKNUM(C320,1))</f>
         <v>15</v>
       </c>
       <c r="F320" s="22" t="s">
@@ -25755,7 +25830,7 @@
       <c r="R320" s="22"/>
       <c r="S320" s="22"/>
       <c r="T320" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O320:S320)</f>
         <v>0</v>
       </c>
       <c r="U320" s="27"/>
@@ -25784,7 +25859,7 @@
         <v>356</v>
       </c>
       <c r="E321" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C321="","",WEEKNUM(C321,1))</f>
         <v>15</v>
       </c>
       <c r="F321" s="22" t="s">
@@ -25819,15 +25894,12 @@
       <c r="R321" s="22"/>
       <c r="S321" s="22"/>
       <c r="T321" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O321:S321)</f>
         <v>0</v>
       </c>
       <c r="U321" s="27"/>
       <c r="V321" s="10"/>
       <c r="W321" s="11"/>
-      <c r="X321" s="11"/>
-      <c r="Y321" s="11"/>
-      <c r="Z321" s="11"/>
       <c r="AA321" s="95"/>
       <c r="AB321" s="95"/>
       <c r="AC321" s="95"/>
@@ -25848,7 +25920,7 @@
         <v>356</v>
       </c>
       <c r="E322" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C322="","",WEEKNUM(C322,1))</f>
         <v>15</v>
       </c>
       <c r="F322" s="22" t="s">
@@ -25883,15 +25955,12 @@
       <c r="R322" s="22"/>
       <c r="S322" s="22"/>
       <c r="T322" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O322:S322)</f>
         <v>0</v>
       </c>
       <c r="U322" s="27"/>
       <c r="V322" s="10"/>
       <c r="W322" s="11"/>
-      <c r="X322" s="11"/>
-      <c r="Y322" s="11"/>
-      <c r="Z322" s="11"/>
       <c r="AA322" s="95"/>
       <c r="AB322" s="95"/>
       <c r="AC322" s="95" t="s">
@@ -25914,7 +25983,7 @@
         <v>356</v>
       </c>
       <c r="E323" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C323="","",WEEKNUM(C323,1))</f>
         <v>15</v>
       </c>
       <c r="F323" s="22" t="s">
@@ -25949,15 +26018,12 @@
       <c r="R323" s="22"/>
       <c r="S323" s="22"/>
       <c r="T323" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O323:S323)</f>
         <v>0</v>
       </c>
       <c r="U323" s="27"/>
       <c r="V323" s="10"/>
       <c r="W323" s="11"/>
-      <c r="X323" s="11"/>
-      <c r="Y323" s="11"/>
-      <c r="Z323" s="11"/>
       <c r="AA323" s="95"/>
       <c r="AB323" s="95"/>
       <c r="AC323" s="95"/>
@@ -25978,7 +26044,7 @@
         <v>356</v>
       </c>
       <c r="E324" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C324="","",WEEKNUM(C324,1))</f>
         <v>15</v>
       </c>
       <c r="F324" s="22" t="s">
@@ -26013,15 +26079,12 @@
       <c r="R324" s="22"/>
       <c r="S324" s="22"/>
       <c r="T324" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O324:S324)</f>
         <v>0</v>
       </c>
       <c r="U324" s="27"/>
       <c r="V324" s="10"/>
       <c r="W324" s="11"/>
-      <c r="X324" s="11"/>
-      <c r="Y324" s="11"/>
-      <c r="Z324" s="11"/>
       <c r="AA324" s="95"/>
       <c r="AB324" s="95"/>
       <c r="AC324" s="95"/>
@@ -26042,7 +26105,7 @@
         <v>356</v>
       </c>
       <c r="E325" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C325="","",WEEKNUM(C325,1))</f>
         <v>15</v>
       </c>
       <c r="F325" s="22" t="s">
@@ -26077,15 +26140,12 @@
       <c r="R325" s="95"/>
       <c r="S325" s="95"/>
       <c r="T325" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O325:S325)</f>
         <v>0</v>
       </c>
       <c r="U325" s="95"/>
       <c r="V325" s="10"/>
       <c r="W325" s="11"/>
-      <c r="X325" s="11"/>
-      <c r="Y325" s="11"/>
-      <c r="Z325" s="11"/>
       <c r="AA325" s="95"/>
       <c r="AB325" s="95"/>
       <c r="AC325" s="95"/>
@@ -26106,7 +26166,7 @@
         <v>356</v>
       </c>
       <c r="E326" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C326="","",WEEKNUM(C326,1))</f>
         <v>15</v>
       </c>
       <c r="F326" s="22" t="s">
@@ -26145,7 +26205,7 @@
       <c r="R326" s="22"/>
       <c r="S326" s="22"/>
       <c r="T326" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O326:S326)</f>
         <v>1</v>
       </c>
       <c r="U326" s="27" t="s">
@@ -26186,7 +26246,7 @@
         <v>356</v>
       </c>
       <c r="E327" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C327="","",WEEKNUM(C327,1))</f>
         <v>15</v>
       </c>
       <c r="F327" s="22" t="s">
@@ -26225,7 +26285,7 @@
       </c>
       <c r="S327" s="22"/>
       <c r="T327" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O327:S327)</f>
         <v>17</v>
       </c>
       <c r="U327" s="27" t="s">
@@ -26268,7 +26328,7 @@
         <v>356</v>
       </c>
       <c r="E328" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C328="","",WEEKNUM(C328,1))</f>
         <v>15</v>
       </c>
       <c r="F328" s="22" t="s">
@@ -26303,15 +26363,12 @@
       <c r="R328" s="95"/>
       <c r="S328" s="95"/>
       <c r="T328" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O328:S328)</f>
         <v>0</v>
       </c>
       <c r="U328" s="95"/>
       <c r="V328" s="10"/>
       <c r="W328" s="11"/>
-      <c r="X328" s="11"/>
-      <c r="Y328" s="11"/>
-      <c r="Z328" s="11"/>
       <c r="AA328" s="95"/>
       <c r="AB328" s="95"/>
       <c r="AC328" s="95"/>
@@ -26332,7 +26389,7 @@
         <v>356</v>
       </c>
       <c r="E329" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C329="","",WEEKNUM(C329,1))</f>
         <v>15</v>
       </c>
       <c r="F329" s="22" t="s">
@@ -26367,15 +26424,12 @@
       <c r="R329" s="95"/>
       <c r="S329" s="95"/>
       <c r="T329" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O329:S329)</f>
         <v>0</v>
       </c>
       <c r="U329" s="95"/>
       <c r="V329" s="10"/>
       <c r="W329" s="11"/>
-      <c r="X329" s="11"/>
-      <c r="Y329" s="11"/>
-      <c r="Z329" s="11"/>
       <c r="AA329" s="95"/>
       <c r="AB329" s="95"/>
       <c r="AC329" s="95"/>
@@ -26396,7 +26450,7 @@
         <v>356</v>
       </c>
       <c r="E330" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C330="","",WEEKNUM(C330,1))</f>
         <v>15</v>
       </c>
       <c r="F330" s="22" t="s">
@@ -26431,15 +26485,12 @@
       <c r="R330" s="95"/>
       <c r="S330" s="95"/>
       <c r="T330" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O330:S330)</f>
         <v>0</v>
       </c>
       <c r="U330" s="95"/>
       <c r="V330" s="10"/>
       <c r="W330" s="11"/>
-      <c r="X330" s="11"/>
-      <c r="Y330" s="11"/>
-      <c r="Z330" s="11"/>
       <c r="AA330" s="95"/>
       <c r="AB330" s="95"/>
       <c r="AC330" s="95"/>
@@ -26460,7 +26511,7 @@
         <v>356</v>
       </c>
       <c r="E331" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C331="","",WEEKNUM(C331,1))</f>
         <v>15</v>
       </c>
       <c r="F331" s="22" t="s">
@@ -26495,15 +26546,12 @@
       <c r="R331" s="95"/>
       <c r="S331" s="95"/>
       <c r="T331" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O331:S331)</f>
         <v>0</v>
       </c>
       <c r="U331" s="95"/>
       <c r="V331" s="10"/>
       <c r="W331" s="11"/>
-      <c r="X331" s="11"/>
-      <c r="Y331" s="11"/>
-      <c r="Z331" s="11"/>
       <c r="AA331" s="95"/>
       <c r="AB331" s="95"/>
       <c r="AC331" s="95"/>
@@ -26524,7 +26572,7 @@
         <v>356</v>
       </c>
       <c r="E332" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C332="","",WEEKNUM(C332,1))</f>
         <v>15</v>
       </c>
       <c r="F332" s="22" t="s">
@@ -26559,15 +26607,12 @@
       <c r="R332" s="22"/>
       <c r="S332" s="22"/>
       <c r="T332" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O332:S332)</f>
         <v>0</v>
       </c>
       <c r="U332" s="27"/>
       <c r="V332" s="10"/>
       <c r="W332" s="11"/>
-      <c r="X332" s="11"/>
-      <c r="Y332" s="11"/>
-      <c r="Z332" s="11"/>
       <c r="AA332" s="95"/>
       <c r="AB332" s="95"/>
       <c r="AC332" s="95"/>
@@ -26588,7 +26633,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C333="","",WEEKNUM(C333,1))</f>
         <v>15</v>
       </c>
       <c r="F333" s="22" t="s">
@@ -26627,7 +26672,7 @@
       <c r="R333" s="22"/>
       <c r="S333" s="22"/>
       <c r="T333" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O333:S333)</f>
         <v>5</v>
       </c>
       <c r="U333" s="27" t="s">
@@ -26650,7 +26695,7 @@
       </c>
       <c r="AA333" s="95"/>
       <c r="AB333" s="95"/>
-      <c r="AC333" s="99"/>
+      <c r="AC333" s="100"/>
       <c r="AD333" s="95"/>
       <c r="AE333" s="95"/>
     </row>
@@ -26668,7 +26713,7 @@
         <v>356</v>
       </c>
       <c r="E334" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C334="","",WEEKNUM(C334,1))</f>
         <v>15</v>
       </c>
       <c r="F334" s="22" t="s">
@@ -26703,15 +26748,12 @@
       <c r="R334" s="95"/>
       <c r="S334" s="95"/>
       <c r="T334" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O334:S334)</f>
         <v>0</v>
       </c>
       <c r="U334" s="95"/>
       <c r="V334" s="10"/>
       <c r="W334" s="11"/>
-      <c r="X334" s="11"/>
-      <c r="Y334" s="11"/>
-      <c r="Z334" s="11"/>
       <c r="AA334" s="95"/>
       <c r="AB334" s="95"/>
       <c r="AC334" s="95" t="s">
@@ -26734,7 +26776,7 @@
         <v>356</v>
       </c>
       <c r="E335" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C335="","",WEEKNUM(C335,1))</f>
         <v>15</v>
       </c>
       <c r="F335" s="22" t="s">
@@ -26769,15 +26811,12 @@
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O335:S335)</f>
         <v>0</v>
       </c>
       <c r="U335" s="27"/>
       <c r="V335" s="10"/>
       <c r="W335" s="11"/>
-      <c r="X335" s="11"/>
-      <c r="Y335" s="11"/>
-      <c r="Z335" s="11"/>
       <c r="AA335" s="95"/>
       <c r="AB335" s="95"/>
       <c r="AC335" s="95"/>
@@ -26798,7 +26837,7 @@
         <v>356</v>
       </c>
       <c r="E336" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C336="","",WEEKNUM(C336,1))</f>
         <v>15</v>
       </c>
       <c r="F336" s="22" t="s">
@@ -26837,7 +26876,7 @@
       <c r="R336" s="22"/>
       <c r="S336" s="22"/>
       <c r="T336" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O336:S336)</f>
         <v>1</v>
       </c>
       <c r="U336" s="27" t="s">
@@ -26878,7 +26917,7 @@
         <v>356</v>
       </c>
       <c r="E337" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C337="","",WEEKNUM(C337,1))</f>
         <v>15</v>
       </c>
       <c r="F337" s="22" t="s">
@@ -26913,15 +26952,12 @@
       <c r="R337" s="95"/>
       <c r="S337" s="95"/>
       <c r="T337" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O337:S337)</f>
         <v>0</v>
       </c>
       <c r="U337" s="95"/>
       <c r="V337" s="10"/>
       <c r="W337" s="11"/>
-      <c r="X337" s="11"/>
-      <c r="Y337" s="11"/>
-      <c r="Z337" s="11"/>
       <c r="AA337" s="95"/>
       <c r="AB337" s="95"/>
       <c r="AC337" s="95"/>
@@ -26942,7 +26978,7 @@
         <v>356</v>
       </c>
       <c r="E338" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C338="","",WEEKNUM(C338,1))</f>
         <v>15</v>
       </c>
       <c r="F338" s="22" t="s">
@@ -26977,15 +27013,12 @@
       <c r="R338" s="95"/>
       <c r="S338" s="95"/>
       <c r="T338" s="22">
-        <f t="shared" ref="T338:T360" si="8">SUM(O338:S338)</f>
+        <f>SUM(O338:S338)</f>
         <v>0</v>
       </c>
       <c r="U338" s="95"/>
       <c r="V338" s="10"/>
       <c r="W338" s="11"/>
-      <c r="X338" s="11"/>
-      <c r="Y338" s="11"/>
-      <c r="Z338" s="11"/>
       <c r="AA338" s="95"/>
       <c r="AB338" s="95"/>
       <c r="AC338" s="95"/>
@@ -27006,7 +27039,7 @@
         <v>356</v>
       </c>
       <c r="E339" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C339="","",WEEKNUM(C339,1))</f>
         <v>16</v>
       </c>
       <c r="F339" s="22" t="s">
@@ -27041,15 +27074,12 @@
       <c r="R339" s="95"/>
       <c r="S339" s="95"/>
       <c r="T339" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O339:S339)</f>
         <v>0</v>
       </c>
       <c r="U339" s="95"/>
       <c r="V339" s="10"/>
       <c r="W339" s="11"/>
-      <c r="X339" s="11"/>
-      <c r="Y339" s="11"/>
-      <c r="Z339" s="11"/>
       <c r="AA339" s="95"/>
       <c r="AB339" s="95"/>
       <c r="AC339" s="95"/>
@@ -27070,7 +27100,7 @@
         <v>356</v>
       </c>
       <c r="E340" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C340="","",WEEKNUM(C340,1))</f>
         <v>16</v>
       </c>
       <c r="F340" s="22" t="s">
@@ -27105,15 +27135,12 @@
       <c r="R340" s="95"/>
       <c r="S340" s="95"/>
       <c r="T340" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O340:S340)</f>
         <v>0</v>
       </c>
       <c r="U340" s="95"/>
       <c r="V340" s="10"/>
       <c r="W340" s="11"/>
-      <c r="X340" s="11"/>
-      <c r="Y340" s="11"/>
-      <c r="Z340" s="11"/>
       <c r="AA340" s="95"/>
       <c r="AB340" s="95"/>
       <c r="AC340" s="95"/>
@@ -27134,7 +27161,7 @@
         <v>356</v>
       </c>
       <c r="E341" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C341="","",WEEKNUM(C341,1))</f>
         <v>16</v>
       </c>
       <c r="F341" s="22" t="s">
@@ -27169,15 +27196,12 @@
       <c r="R341" s="95"/>
       <c r="S341" s="95"/>
       <c r="T341" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O341:S341)</f>
         <v>0</v>
       </c>
       <c r="U341" s="95"/>
       <c r="V341" s="10"/>
       <c r="W341" s="11"/>
-      <c r="X341" s="11"/>
-      <c r="Y341" s="11"/>
-      <c r="Z341" s="11"/>
       <c r="AA341" s="95"/>
       <c r="AB341" s="95"/>
       <c r="AC341" s="95"/>
@@ -27198,7 +27222,7 @@
         <v>356</v>
       </c>
       <c r="E342" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C342="","",WEEKNUM(C342,1))</f>
         <v>16</v>
       </c>
       <c r="F342" s="22" t="s">
@@ -27233,15 +27257,12 @@
       <c r="R342" s="95"/>
       <c r="S342" s="95"/>
       <c r="T342" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O342:S342)</f>
         <v>0</v>
       </c>
       <c r="U342" s="95"/>
       <c r="V342" s="10"/>
       <c r="W342" s="11"/>
-      <c r="X342" s="11"/>
-      <c r="Y342" s="11"/>
-      <c r="Z342" s="11"/>
       <c r="AA342" s="95"/>
       <c r="AB342" s="95"/>
       <c r="AC342" s="95"/>
@@ -27262,7 +27283,7 @@
         <v>356</v>
       </c>
       <c r="E343" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C343="","",WEEKNUM(C343,1))</f>
         <v>16</v>
       </c>
       <c r="F343" s="22" t="s">
@@ -27297,15 +27318,12 @@
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O343:S343)</f>
         <v>0</v>
       </c>
       <c r="U343" s="27"/>
       <c r="V343" s="10"/>
       <c r="W343" s="11"/>
-      <c r="X343" s="11"/>
-      <c r="Y343" s="11"/>
-      <c r="Z343" s="11"/>
       <c r="AA343" s="95"/>
       <c r="AB343" s="95"/>
       <c r="AC343" s="95"/>
@@ -27326,7 +27344,7 @@
         <v>356</v>
       </c>
       <c r="E344" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C344="","",WEEKNUM(C344,1))</f>
         <v>16</v>
       </c>
       <c r="F344" s="22" t="s">
@@ -27365,7 +27383,7 @@
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O344:S344)</f>
         <v>1</v>
       </c>
       <c r="U344" s="27" t="s">
@@ -27408,7 +27426,7 @@
         <v>356</v>
       </c>
       <c r="E345" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C345="","",WEEKNUM(C345,1))</f>
         <v>16</v>
       </c>
       <c r="F345" s="22" t="s">
@@ -27443,7 +27461,7 @@
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O345:S345)</f>
         <v>0</v>
       </c>
       <c r="U345" s="27"/>
@@ -27472,7 +27490,7 @@
         <v>356</v>
       </c>
       <c r="E346" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C346="","",WEEKNUM(C346,1))</f>
         <v>16</v>
       </c>
       <c r="F346" s="22" t="s">
@@ -27507,15 +27525,12 @@
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O346:S346)</f>
         <v>0</v>
       </c>
       <c r="U346" s="27"/>
       <c r="V346" s="10"/>
       <c r="W346" s="11"/>
-      <c r="X346" s="11"/>
-      <c r="Y346" s="11"/>
-      <c r="Z346" s="11"/>
       <c r="AA346" s="95"/>
       <c r="AB346" s="95"/>
       <c r="AC346" s="95"/>
@@ -27536,7 +27551,7 @@
         <v>356</v>
       </c>
       <c r="E347" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C347="","",WEEKNUM(C347,1))</f>
         <v>16</v>
       </c>
       <c r="F347" s="22" t="s">
@@ -27571,15 +27586,12 @@
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O347:S347)</f>
         <v>0</v>
       </c>
       <c r="U347" s="27"/>
       <c r="V347" s="10"/>
       <c r="W347" s="11"/>
-      <c r="X347" s="11"/>
-      <c r="Y347" s="11"/>
-      <c r="Z347" s="11"/>
       <c r="AA347" s="95"/>
       <c r="AB347" s="95"/>
       <c r="AC347" s="95"/>
@@ -27600,7 +27612,7 @@
         <v>356</v>
       </c>
       <c r="E348" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C348="","",WEEKNUM(C348,1))</f>
         <v>16</v>
       </c>
       <c r="F348" s="22" t="s">
@@ -27635,15 +27647,12 @@
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O348:S348)</f>
         <v>0</v>
       </c>
       <c r="U348" s="27"/>
       <c r="V348" s="10"/>
       <c r="W348" s="11"/>
-      <c r="X348" s="11"/>
-      <c r="Y348" s="11"/>
-      <c r="Z348" s="11"/>
       <c r="AA348" s="95"/>
       <c r="AB348" s="95"/>
       <c r="AC348" s="95"/>
@@ -27664,7 +27673,7 @@
         <v>356</v>
       </c>
       <c r="E349" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C349="","",WEEKNUM(C349,1))</f>
         <v>16</v>
       </c>
       <c r="F349" s="22" t="s">
@@ -27699,15 +27708,12 @@
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O349:S349)</f>
         <v>0</v>
       </c>
       <c r="U349" s="27"/>
       <c r="V349" s="10"/>
       <c r="W349" s="11"/>
-      <c r="X349" s="11"/>
-      <c r="Y349" s="11"/>
-      <c r="Z349" s="11"/>
       <c r="AA349" s="95"/>
       <c r="AB349" s="95"/>
       <c r="AC349" s="95"/>
@@ -27728,7 +27734,7 @@
         <v>356</v>
       </c>
       <c r="E350" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C350="","",WEEKNUM(C350,1))</f>
         <v>16</v>
       </c>
       <c r="F350" s="22" t="s">
@@ -27767,7 +27773,7 @@
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O350:S350)</f>
         <v>1</v>
       </c>
       <c r="U350" s="27" t="s">
@@ -27808,7 +27814,7 @@
         <v>356</v>
       </c>
       <c r="E351" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C351="","",WEEKNUM(C351,1))</f>
         <v>16</v>
       </c>
       <c r="F351" s="22" t="s">
@@ -27843,15 +27849,12 @@
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O351:S351)</f>
         <v>0</v>
       </c>
       <c r="U351" s="27"/>
       <c r="V351" s="10"/>
       <c r="W351" s="11"/>
-      <c r="X351" s="11"/>
-      <c r="Y351" s="11"/>
-      <c r="Z351" s="11"/>
       <c r="AA351" s="95"/>
       <c r="AB351" s="95"/>
       <c r="AC351" s="95"/>
@@ -27872,7 +27875,7 @@
         <v>356</v>
       </c>
       <c r="E352" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C352="","",WEEKNUM(C352,1))</f>
         <v>16</v>
       </c>
       <c r="F352" s="22" t="s">
@@ -27911,7 +27914,7 @@
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O352:S352)</f>
         <v>1</v>
       </c>
       <c r="U352" s="27" t="s">
@@ -27954,7 +27957,7 @@
         <v>356</v>
       </c>
       <c r="E353" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C353="","",WEEKNUM(C353,1))</f>
         <v>16</v>
       </c>
       <c r="F353" s="22" t="s">
@@ -27985,7 +27988,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O353:S353)</f>
         <v>1</v>
       </c>
       <c r="U353" s="27" t="s">
@@ -28026,7 +28029,7 @@
         <v>356</v>
       </c>
       <c r="E354" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C354="","",WEEKNUM(C354,1))</f>
         <v>16</v>
       </c>
       <c r="F354" s="22" t="s">
@@ -28061,15 +28064,12 @@
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O354:S354)</f>
         <v>0</v>
       </c>
       <c r="U354" s="27"/>
       <c r="V354" s="10"/>
       <c r="W354" s="11"/>
-      <c r="X354" s="11"/>
-      <c r="Y354" s="11"/>
-      <c r="Z354" s="11"/>
       <c r="AA354" s="95"/>
       <c r="AB354" s="95"/>
       <c r="AC354" s="95"/>
@@ -28090,7 +28090,7 @@
         <v>356</v>
       </c>
       <c r="E355" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C355="","",WEEKNUM(C355,1))</f>
         <v>16</v>
       </c>
       <c r="F355" s="22" t="s">
@@ -28125,15 +28125,12 @@
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O355:S355)</f>
         <v>0</v>
       </c>
       <c r="U355" s="27"/>
       <c r="V355" s="10"/>
       <c r="W355" s="11"/>
-      <c r="X355" s="11"/>
-      <c r="Y355" s="11"/>
-      <c r="Z355" s="11"/>
       <c r="AA355" s="95"/>
       <c r="AB355" s="95"/>
       <c r="AC355" s="95"/>
@@ -28154,7 +28151,7 @@
         <v>356</v>
       </c>
       <c r="E356" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C356="","",WEEKNUM(C356,1))</f>
         <v>16</v>
       </c>
       <c r="F356" s="22" t="s">
@@ -28189,15 +28186,12 @@
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O356:S356)</f>
         <v>0</v>
       </c>
       <c r="U356" s="27"/>
       <c r="V356" s="10"/>
       <c r="W356" s="11"/>
-      <c r="X356" s="11"/>
-      <c r="Y356" s="11"/>
-      <c r="Z356" s="11"/>
       <c r="AA356" s="95"/>
       <c r="AB356" s="95"/>
       <c r="AC356" s="95"/>
@@ -28218,7 +28212,7 @@
         <v>356</v>
       </c>
       <c r="E357" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C357="","",WEEKNUM(C357,1))</f>
         <v>16</v>
       </c>
       <c r="F357" s="22" t="s">
@@ -28257,7 +28251,7 @@
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O357:S357)</f>
         <v>1</v>
       </c>
       <c r="U357" s="27" t="s">
@@ -28298,7 +28292,7 @@
         <v>356</v>
       </c>
       <c r="E358" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C358="","",WEEKNUM(C358,1))</f>
         <v>16</v>
       </c>
       <c r="F358" s="22" t="s">
@@ -28333,15 +28327,12 @@
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O358:S358)</f>
         <v>0</v>
       </c>
       <c r="U358" s="27"/>
       <c r="V358" s="10"/>
       <c r="W358" s="11"/>
-      <c r="X358" s="11"/>
-      <c r="Y358" s="11"/>
-      <c r="Z358" s="11"/>
       <c r="AA358" s="95"/>
       <c r="AB358" s="95"/>
       <c r="AC358" s="95"/>
@@ -28362,7 +28353,7 @@
         <v>356</v>
       </c>
       <c r="E359" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C359="","",WEEKNUM(C359,1))</f>
         <v>16</v>
       </c>
       <c r="F359" s="22" t="s">
@@ -28397,15 +28388,12 @@
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O359:S359)</f>
         <v>0</v>
       </c>
       <c r="U359" s="27"/>
       <c r="V359" s="10"/>
       <c r="W359" s="11"/>
-      <c r="X359" s="11"/>
-      <c r="Y359" s="11"/>
-      <c r="Z359" s="11"/>
       <c r="AA359" s="95"/>
       <c r="AB359" s="95"/>
       <c r="AC359" s="95"/>
@@ -28426,7 +28414,7 @@
         <v>356</v>
       </c>
       <c r="E360" s="61">
-        <f t="shared" si="7"/>
+        <f>IF(C360="","",WEEKNUM(C360,1))</f>
         <v>16</v>
       </c>
       <c r="F360" s="22" t="s">
@@ -28454,9 +28442,7 @@
       <c r="M360" s="22">
         <v>1</v>
       </c>
-      <c r="N360" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="N360" s="22"/>
       <c r="O360" s="22"/>
       <c r="P360" s="22"/>
       <c r="Q360" s="22">
@@ -28465,7 +28451,7 @@
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O360:S360)</f>
         <v>1</v>
       </c>
       <c r="U360" s="27" t="s">
@@ -28493,6 +28479,2678 @@
       </c>
       <c r="AD360" s="95"/>
       <c r="AE360" s="95"/>
+    </row>
+    <row r="361" customHeight="1" spans="1:31">
+      <c r="A361" s="22">
+        <v>359</v>
+      </c>
+      <c r="B361" s="23">
+        <v>240417001</v>
+      </c>
+      <c r="C361" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D361" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E361" s="61">
+        <f>IF(C361="","",WEEKNUM(C361,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F361" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G361" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H361" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I361" s="22" t="str">
+        <f>VLOOKUP(H361,[2]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J361" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K361" s="22">
+        <v>139</v>
+      </c>
+      <c r="L361" s="22">
+        <v>8</v>
+      </c>
+      <c r="M361" s="22"/>
+      <c r="N361" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O361" s="95"/>
+      <c r="P361" s="95"/>
+      <c r="Q361" s="95"/>
+      <c r="R361" s="95"/>
+      <c r="S361" s="95"/>
+      <c r="T361" s="22">
+        <f>SUM(O361:S361)</f>
+        <v>0</v>
+      </c>
+      <c r="U361" s="95"/>
+      <c r="V361" s="10"/>
+      <c r="W361" s="11"/>
+      <c r="X361" s="11"/>
+      <c r="Y361" s="11"/>
+      <c r="Z361" s="11"/>
+      <c r="AA361" s="95"/>
+      <c r="AB361" s="95"/>
+      <c r="AC361" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD361" s="95"/>
+      <c r="AE361" s="95"/>
+    </row>
+    <row r="362" customHeight="1" spans="1:31">
+      <c r="A362" s="22">
+        <v>360</v>
+      </c>
+      <c r="B362" s="22">
+        <v>240417002</v>
+      </c>
+      <c r="C362" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D362" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E362" s="61">
+        <f>IF(C362="","",WEEKNUM(C362,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F362" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G362" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="H362" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I362" s="22" t="str">
+        <f>VLOOKUP(H362,[2]外O细分型号!A:B,2,0)</f>
+        <v>G111</v>
+      </c>
+      <c r="J362" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K362" s="22">
+        <v>89</v>
+      </c>
+      <c r="L362" s="22">
+        <v>8</v>
+      </c>
+      <c r="M362" s="22"/>
+      <c r="N362" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O362" s="95"/>
+      <c r="P362" s="95"/>
+      <c r="Q362" s="95"/>
+      <c r="R362" s="95"/>
+      <c r="S362" s="95"/>
+      <c r="T362" s="22">
+        <f>SUM(O362:S362)</f>
+        <v>0</v>
+      </c>
+      <c r="U362" s="95"/>
+      <c r="V362" s="10"/>
+      <c r="W362" s="11"/>
+      <c r="X362" s="11"/>
+      <c r="Y362" s="11"/>
+      <c r="Z362" s="11"/>
+      <c r="AA362" s="95"/>
+      <c r="AB362" s="95"/>
+      <c r="AC362" s="95"/>
+      <c r="AD362" s="95"/>
+      <c r="AE362" s="95"/>
+    </row>
+    <row r="363" customHeight="1" spans="1:31">
+      <c r="A363" s="22">
+        <v>361</v>
+      </c>
+      <c r="B363" s="22">
+        <v>240417003</v>
+      </c>
+      <c r="C363" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D363" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E363" s="61">
+        <f>IF(C363="","",WEEKNUM(C363,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F363" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G363" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H363" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="I363" s="22" t="str">
+        <f>VLOOKUP(H363,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J363" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K363" s="22">
+        <v>750</v>
+      </c>
+      <c r="L363" s="22">
+        <v>32</v>
+      </c>
+      <c r="M363" s="22"/>
+      <c r="N363" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O363" s="95"/>
+      <c r="P363" s="95"/>
+      <c r="Q363" s="95"/>
+      <c r="R363" s="95"/>
+      <c r="S363" s="95"/>
+      <c r="T363" s="22">
+        <f>SUM(O363:S363)</f>
+        <v>0</v>
+      </c>
+      <c r="U363" s="95"/>
+      <c r="V363" s="10"/>
+      <c r="W363" s="11"/>
+      <c r="X363" s="11"/>
+      <c r="Y363" s="11"/>
+      <c r="Z363" s="11"/>
+      <c r="AA363" s="95"/>
+      <c r="AB363" s="95"/>
+      <c r="AC363" s="95"/>
+      <c r="AD363" s="95"/>
+      <c r="AE363" s="95"/>
+    </row>
+    <row r="364" customHeight="1" spans="1:31">
+      <c r="A364" s="22">
+        <v>362</v>
+      </c>
+      <c r="B364" s="22">
+        <v>240417004</v>
+      </c>
+      <c r="C364" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D364" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E364" s="61">
+        <f>IF(C364="","",WEEKNUM(C364,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F364" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G364" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="H364" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I364" s="22" t="str">
+        <f>VLOOKUP(H364,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J364" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K364" s="22">
+        <v>2</v>
+      </c>
+      <c r="L364" s="22">
+        <v>2</v>
+      </c>
+      <c r="M364" s="22"/>
+      <c r="N364" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O364" s="95"/>
+      <c r="P364" s="95"/>
+      <c r="Q364" s="95"/>
+      <c r="R364" s="95"/>
+      <c r="S364" s="95"/>
+      <c r="T364" s="22">
+        <f>SUM(O364:S364)</f>
+        <v>0</v>
+      </c>
+      <c r="U364" s="95"/>
+      <c r="V364" s="10"/>
+      <c r="W364" s="11"/>
+      <c r="X364" s="11"/>
+      <c r="Y364" s="11"/>
+      <c r="Z364" s="11"/>
+      <c r="AA364" s="95"/>
+      <c r="AB364" s="95"/>
+      <c r="AC364" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD364" s="95"/>
+      <c r="AE364" s="95"/>
+    </row>
+    <row r="365" customHeight="1" spans="1:31">
+      <c r="A365" s="22">
+        <v>363</v>
+      </c>
+      <c r="B365" s="22">
+        <v>240417005</v>
+      </c>
+      <c r="C365" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D365" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E365" s="61">
+        <f>IF(C365="","",WEEKNUM(C365,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F365" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G365" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H365" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I365" s="22" t="str">
+        <f>VLOOKUP(H365,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CM</v>
+      </c>
+      <c r="J365" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K365" s="22">
+        <v>6</v>
+      </c>
+      <c r="L365" s="22">
+        <v>6</v>
+      </c>
+      <c r="M365" s="22"/>
+      <c r="N365" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O365" s="95"/>
+      <c r="P365" s="95"/>
+      <c r="Q365" s="95"/>
+      <c r="R365" s="95"/>
+      <c r="S365" s="95"/>
+      <c r="T365" s="22">
+        <f>SUM(O365:S365)</f>
+        <v>0</v>
+      </c>
+      <c r="U365" s="95"/>
+      <c r="V365" s="10"/>
+      <c r="W365" s="11"/>
+      <c r="X365" s="11"/>
+      <c r="Y365" s="11"/>
+      <c r="Z365" s="11"/>
+      <c r="AA365" s="95"/>
+      <c r="AB365" s="95"/>
+      <c r="AC365" s="95"/>
+      <c r="AD365" s="95"/>
+      <c r="AE365" s="95"/>
+    </row>
+    <row r="366" customHeight="1" spans="1:31">
+      <c r="A366" s="22">
+        <v>364</v>
+      </c>
+      <c r="B366" s="22">
+        <v>240417006</v>
+      </c>
+      <c r="C366" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D366" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E366" s="61">
+        <f>IF(C366="","",WEEKNUM(C366,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F366" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G366" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H366" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I366" s="22" t="str">
+        <f>VLOOKUP(H366,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J366" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K366" s="22">
+        <v>1</v>
+      </c>
+      <c r="L366" s="22">
+        <v>1</v>
+      </c>
+      <c r="M366" s="22"/>
+      <c r="N366" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O366" s="95"/>
+      <c r="P366" s="95"/>
+      <c r="Q366" s="95"/>
+      <c r="R366" s="95"/>
+      <c r="S366" s="95"/>
+      <c r="T366" s="22">
+        <f>SUM(O366:S366)</f>
+        <v>0</v>
+      </c>
+      <c r="U366" s="95"/>
+      <c r="V366" s="10"/>
+      <c r="W366" s="11"/>
+      <c r="X366" s="11"/>
+      <c r="Y366" s="11"/>
+      <c r="Z366" s="11"/>
+      <c r="AA366" s="95"/>
+      <c r="AB366" s="95"/>
+      <c r="AC366" s="95"/>
+      <c r="AD366" s="95"/>
+      <c r="AE366" s="95"/>
+    </row>
+    <row r="367" customHeight="1" spans="1:31">
+      <c r="A367" s="22">
+        <v>365</v>
+      </c>
+      <c r="B367" s="22">
+        <v>240417007</v>
+      </c>
+      <c r="C367" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D367" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E367" s="61">
+        <f>IF(C367="","",WEEKNUM(C367,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F367" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G367" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H367" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I367" s="22" t="str">
+        <f>VLOOKUP(H367,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J367" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K367" s="22">
+        <v>432</v>
+      </c>
+      <c r="L367" s="22">
+        <v>32</v>
+      </c>
+      <c r="M367" s="22"/>
+      <c r="N367" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O367" s="95"/>
+      <c r="P367" s="95"/>
+      <c r="Q367" s="95"/>
+      <c r="R367" s="95"/>
+      <c r="S367" s="95"/>
+      <c r="T367" s="22">
+        <f>SUM(O367:S367)</f>
+        <v>0</v>
+      </c>
+      <c r="U367" s="95"/>
+      <c r="V367" s="10"/>
+      <c r="W367" s="11"/>
+      <c r="X367" s="11"/>
+      <c r="Y367" s="11"/>
+      <c r="Z367" s="11"/>
+      <c r="AA367" s="95"/>
+      <c r="AB367" s="95"/>
+      <c r="AC367" s="95"/>
+      <c r="AD367" s="95"/>
+      <c r="AE367" s="95"/>
+    </row>
+    <row r="368" customHeight="1" spans="1:31">
+      <c r="A368" s="22">
+        <v>366</v>
+      </c>
+      <c r="B368" s="22">
+        <v>240417008</v>
+      </c>
+      <c r="C368" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D368" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E368" s="61">
+        <f>IF(C368="","",WEEKNUM(C368,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F368" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G368" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="H368" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I368" s="22" t="str">
+        <f>VLOOKUP(H368,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J368" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K368" s="22">
+        <v>48</v>
+      </c>
+      <c r="L368" s="22">
+        <v>8</v>
+      </c>
+      <c r="M368" s="22"/>
+      <c r="N368" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O368" s="95"/>
+      <c r="P368" s="95"/>
+      <c r="Q368" s="95"/>
+      <c r="R368" s="95"/>
+      <c r="S368" s="95"/>
+      <c r="T368" s="22">
+        <f>SUM(O368:S368)</f>
+        <v>0</v>
+      </c>
+      <c r="U368" s="95"/>
+      <c r="V368" s="10"/>
+      <c r="W368" s="11"/>
+      <c r="X368" s="11"/>
+      <c r="Y368" s="11"/>
+      <c r="Z368" s="11"/>
+      <c r="AA368" s="95"/>
+      <c r="AB368" s="95"/>
+      <c r="AC368" s="95"/>
+      <c r="AD368" s="95"/>
+      <c r="AE368" s="95"/>
+    </row>
+    <row r="369" customHeight="1" spans="1:31">
+      <c r="A369" s="22">
+        <v>367</v>
+      </c>
+      <c r="B369" s="22">
+        <v>240417009</v>
+      </c>
+      <c r="C369" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D369" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E369" s="61">
+        <f>IF(C369="","",WEEKNUM(C369,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F369" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G369" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H369" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I369" s="22" t="str">
+        <f>VLOOKUP(H369,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J369" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K369" s="22">
+        <v>576</v>
+      </c>
+      <c r="L369" s="22">
+        <v>32</v>
+      </c>
+      <c r="M369" s="22"/>
+      <c r="N369" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O369" s="95"/>
+      <c r="P369" s="95"/>
+      <c r="Q369" s="95"/>
+      <c r="R369" s="95"/>
+      <c r="S369" s="95"/>
+      <c r="T369" s="22">
+        <f>SUM(O369:S369)</f>
+        <v>0</v>
+      </c>
+      <c r="U369" s="95"/>
+      <c r="V369" s="10"/>
+      <c r="W369" s="11"/>
+      <c r="X369" s="11"/>
+      <c r="Y369" s="11"/>
+      <c r="Z369" s="11"/>
+      <c r="AA369" s="95"/>
+      <c r="AB369" s="95"/>
+      <c r="AC369" s="95"/>
+      <c r="AD369" s="95"/>
+      <c r="AE369" s="95"/>
+    </row>
+    <row r="370" customHeight="1" spans="1:31">
+      <c r="A370" s="22">
+        <v>368</v>
+      </c>
+      <c r="B370" s="22">
+        <v>240417010</v>
+      </c>
+      <c r="C370" s="99">
+        <v>45399</v>
+      </c>
+      <c r="D370" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E370" s="61">
+        <f>IF(C370="","",WEEKNUM(C370,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F370" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G370" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H370" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I370" s="22" t="str">
+        <f>VLOOKUP(H370,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J370" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K370" s="22">
+        <v>720</v>
+      </c>
+      <c r="L370" s="22">
+        <v>32</v>
+      </c>
+      <c r="M370" s="22"/>
+      <c r="N370" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O370" s="95"/>
+      <c r="P370" s="95"/>
+      <c r="Q370" s="95"/>
+      <c r="R370" s="95"/>
+      <c r="S370" s="95"/>
+      <c r="T370" s="22">
+        <f>SUM(O370:S370)</f>
+        <v>0</v>
+      </c>
+      <c r="U370" s="95"/>
+      <c r="V370" s="10"/>
+      <c r="W370" s="11"/>
+      <c r="X370" s="11"/>
+      <c r="Y370" s="11"/>
+      <c r="Z370" s="11"/>
+      <c r="AA370" s="95"/>
+      <c r="AB370" s="95"/>
+      <c r="AC370" s="95"/>
+      <c r="AD370" s="95"/>
+      <c r="AE370" s="95"/>
+    </row>
+    <row r="371" customHeight="1" spans="1:31">
+      <c r="A371" s="22">
+        <v>369</v>
+      </c>
+      <c r="B371" s="23">
+        <v>240418001</v>
+      </c>
+      <c r="C371" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D371" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E371" s="61">
+        <f>IF(C371="","",WEEKNUM(C371,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F371" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G371" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H371" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I371" s="22" t="str">
+        <f>VLOOKUP(H371,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J371" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K371" s="22">
+        <v>11</v>
+      </c>
+      <c r="L371" s="22">
+        <v>11</v>
+      </c>
+      <c r="M371" s="22">
+        <v>4</v>
+      </c>
+      <c r="N371" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O371" s="22">
+        <v>2</v>
+      </c>
+      <c r="P371" s="22"/>
+      <c r="Q371" s="22"/>
+      <c r="R371" s="22"/>
+      <c r="S371" s="22"/>
+      <c r="T371" s="22">
+        <f>SUM(O371:S371)</f>
+        <v>2</v>
+      </c>
+      <c r="U371" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="V371" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W371" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X371" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y371" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z371" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA371" s="95"/>
+      <c r="AB371" s="95"/>
+      <c r="AC371" s="95"/>
+      <c r="AD371" s="95"/>
+      <c r="AE371" s="95"/>
+    </row>
+    <row r="372" customHeight="1" spans="1:31">
+      <c r="A372" s="22">
+        <v>370</v>
+      </c>
+      <c r="B372" s="22">
+        <v>240418001</v>
+      </c>
+      <c r="C372" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D372" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E372" s="61">
+        <f>IF(C372="","",WEEKNUM(C372,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G372" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H372" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I372" s="22" t="str">
+        <f>VLOOKUP(H372,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J372" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K372" s="22"/>
+      <c r="L372" s="22"/>
+      <c r="M372" s="22"/>
+      <c r="N372" s="22"/>
+      <c r="O372" s="22">
+        <v>2</v>
+      </c>
+      <c r="P372" s="22"/>
+      <c r="Q372" s="22"/>
+      <c r="R372" s="22"/>
+      <c r="S372" s="22"/>
+      <c r="T372" s="22">
+        <f>SUM(O372:S372)</f>
+        <v>2</v>
+      </c>
+      <c r="U372" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="V372" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W372" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X372" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y372" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z372" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA372" s="95"/>
+      <c r="AB372" s="95"/>
+      <c r="AC372" s="95"/>
+      <c r="AD372" s="95"/>
+      <c r="AE372" s="95"/>
+    </row>
+    <row r="373" customHeight="1" spans="1:31">
+      <c r="A373" s="22">
+        <v>371</v>
+      </c>
+      <c r="B373" s="22">
+        <v>240418002</v>
+      </c>
+      <c r="C373" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D373" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E373" s="61">
+        <f>IF(C373="","",WEEKNUM(C373,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F373" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G373" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="H373" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I373" s="22" t="str">
+        <f>VLOOKUP(H373,[2]外O细分型号!A:B,2,0)</f>
+        <v>G111</v>
+      </c>
+      <c r="J373" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K373" s="22">
+        <v>3</v>
+      </c>
+      <c r="L373" s="22">
+        <v>3</v>
+      </c>
+      <c r="M373" s="22"/>
+      <c r="N373" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O373" s="22"/>
+      <c r="P373" s="22"/>
+      <c r="Q373" s="22"/>
+      <c r="R373" s="22"/>
+      <c r="S373" s="22"/>
+      <c r="T373" s="22">
+        <f>SUM(O373:S373)</f>
+        <v>0</v>
+      </c>
+      <c r="U373" s="27"/>
+      <c r="V373" s="95"/>
+      <c r="W373" s="95"/>
+      <c r="X373" s="95"/>
+      <c r="Y373" s="97"/>
+      <c r="Z373" s="97"/>
+      <c r="AA373" s="95"/>
+      <c r="AB373" s="95"/>
+      <c r="AC373" s="95"/>
+      <c r="AD373" s="95"/>
+      <c r="AE373" s="95"/>
+    </row>
+    <row r="374" customHeight="1" spans="1:31">
+      <c r="A374" s="22">
+        <v>372</v>
+      </c>
+      <c r="B374" s="22">
+        <v>240418003</v>
+      </c>
+      <c r="C374" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D374" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E374" s="61">
+        <f>IF(C374="","",WEEKNUM(C374,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F374" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G374" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H374" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I374" s="22" t="str">
+        <f>VLOOKUP(H374,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J374" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K374" s="22">
+        <v>939</v>
+      </c>
+      <c r="L374" s="22">
+        <v>32</v>
+      </c>
+      <c r="M374" s="22">
+        <v>1</v>
+      </c>
+      <c r="N374" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O374" s="22">
+        <v>1</v>
+      </c>
+      <c r="P374" s="22"/>
+      <c r="Q374" s="22"/>
+      <c r="R374" s="22"/>
+      <c r="S374" s="22"/>
+      <c r="T374" s="22">
+        <f>SUM(O374:S374)</f>
+        <v>1</v>
+      </c>
+      <c r="U374" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="V374" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="W374" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X374" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y374" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z374" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA374" s="95"/>
+      <c r="AB374" s="95"/>
+      <c r="AC374" s="95"/>
+      <c r="AD374" s="95"/>
+      <c r="AE374" s="95"/>
+    </row>
+    <row r="375" customHeight="1" spans="1:31">
+      <c r="A375" s="22">
+        <v>373</v>
+      </c>
+      <c r="B375" s="22">
+        <v>240418004</v>
+      </c>
+      <c r="C375" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D375" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E375" s="61">
+        <f>IF(C375="","",WEEKNUM(C375,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F375" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G375" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="H375" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I375" s="22" t="str">
+        <f>VLOOKUP(H375,[2]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J375" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K375" s="22">
+        <v>1</v>
+      </c>
+      <c r="L375" s="22">
+        <v>1</v>
+      </c>
+      <c r="M375" s="22"/>
+      <c r="N375" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O375" s="22"/>
+      <c r="P375" s="22"/>
+      <c r="Q375" s="22"/>
+      <c r="R375" s="22"/>
+      <c r="S375" s="22"/>
+      <c r="T375" s="22">
+        <f>SUM(O375:S375)</f>
+        <v>0</v>
+      </c>
+      <c r="U375" s="27"/>
+      <c r="V375" s="95"/>
+      <c r="W375" s="95"/>
+      <c r="X375" s="95"/>
+      <c r="Y375" s="97"/>
+      <c r="Z375" s="97"/>
+      <c r="AA375" s="95"/>
+      <c r="AB375" s="95"/>
+      <c r="AC375" s="95"/>
+      <c r="AD375" s="95"/>
+      <c r="AE375" s="95"/>
+    </row>
+    <row r="376" customHeight="1" spans="1:31">
+      <c r="A376" s="22">
+        <v>374</v>
+      </c>
+      <c r="B376" s="22">
+        <v>240418005</v>
+      </c>
+      <c r="C376" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D376" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E376" s="61">
+        <f>IF(C376="","",WEEKNUM(C376,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F376" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G376" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="H376" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I376" s="22" t="str">
+        <f>VLOOKUP(H376,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J376" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K376" s="22">
+        <v>2</v>
+      </c>
+      <c r="L376" s="22">
+        <v>2</v>
+      </c>
+      <c r="M376" s="22"/>
+      <c r="N376" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O376" s="22"/>
+      <c r="P376" s="22"/>
+      <c r="Q376" s="22"/>
+      <c r="R376" s="22"/>
+      <c r="S376" s="22"/>
+      <c r="T376" s="22">
+        <f>SUM(O376:S376)</f>
+        <v>0</v>
+      </c>
+      <c r="U376" s="27"/>
+      <c r="V376" s="10"/>
+      <c r="W376" s="11"/>
+      <c r="X376" s="11"/>
+      <c r="Y376" s="11"/>
+      <c r="Z376" s="11"/>
+      <c r="AA376" s="95"/>
+      <c r="AB376" s="95"/>
+      <c r="AC376" s="95"/>
+      <c r="AD376" s="95"/>
+      <c r="AE376" s="95"/>
+    </row>
+    <row r="377" customHeight="1" spans="1:31">
+      <c r="A377" s="22">
+        <v>375</v>
+      </c>
+      <c r="B377" s="22">
+        <v>240418006</v>
+      </c>
+      <c r="C377" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D377" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E377" s="61">
+        <f>IF(C377="","",WEEKNUM(C377,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F377" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G377" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H377" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I377" s="22" t="str">
+        <f>VLOOKUP(H377,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J377" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K377" s="22">
+        <v>1</v>
+      </c>
+      <c r="L377" s="22">
+        <v>1</v>
+      </c>
+      <c r="M377" s="22"/>
+      <c r="N377" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O377" s="22"/>
+      <c r="P377" s="22"/>
+      <c r="Q377" s="22"/>
+      <c r="R377" s="22"/>
+      <c r="S377" s="22"/>
+      <c r="T377" s="22">
+        <f>SUM(O377:S377)</f>
+        <v>0</v>
+      </c>
+      <c r="U377" s="27"/>
+      <c r="V377" s="10"/>
+      <c r="W377" s="11"/>
+      <c r="X377" s="11"/>
+      <c r="Y377" s="11"/>
+      <c r="Z377" s="11"/>
+      <c r="AA377" s="95"/>
+      <c r="AB377" s="95"/>
+      <c r="AC377" s="95"/>
+      <c r="AD377" s="95"/>
+      <c r="AE377" s="95"/>
+    </row>
+    <row r="378" customHeight="1" spans="1:31">
+      <c r="A378" s="22">
+        <v>376</v>
+      </c>
+      <c r="B378" s="22">
+        <v>240418007</v>
+      </c>
+      <c r="C378" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D378" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E378" s="61">
+        <f>IF(C378="","",WEEKNUM(C378,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F378" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G378" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H378" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I378" s="22" t="str">
+        <f>VLOOKUP(H378,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J378" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K378" s="22">
+        <v>720</v>
+      </c>
+      <c r="L378" s="22">
+        <v>32</v>
+      </c>
+      <c r="M378" s="22"/>
+      <c r="N378" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O378" s="22"/>
+      <c r="P378" s="22"/>
+      <c r="Q378" s="22"/>
+      <c r="R378" s="22"/>
+      <c r="S378" s="22"/>
+      <c r="T378" s="22">
+        <f>SUM(O378:S378)</f>
+        <v>0</v>
+      </c>
+      <c r="U378" s="27"/>
+      <c r="V378" s="10"/>
+      <c r="W378" s="11"/>
+      <c r="X378" s="11"/>
+      <c r="Y378" s="11"/>
+      <c r="Z378" s="11"/>
+      <c r="AA378" s="95"/>
+      <c r="AB378" s="95"/>
+      <c r="AC378" s="95"/>
+      <c r="AD378" s="95"/>
+      <c r="AE378" s="95"/>
+    </row>
+    <row r="379" customHeight="1" spans="1:31">
+      <c r="A379" s="22">
+        <v>377</v>
+      </c>
+      <c r="B379" s="22">
+        <v>240418008</v>
+      </c>
+      <c r="C379" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D379" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E379" s="61">
+        <f>IF(C379="","",WEEKNUM(C379,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F379" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G379" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H379" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I379" s="22" t="str">
+        <f>VLOOKUP(H379,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FVPRO</v>
+      </c>
+      <c r="J379" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K379" s="22">
+        <v>196</v>
+      </c>
+      <c r="L379" s="22">
+        <v>8</v>
+      </c>
+      <c r="M379" s="22"/>
+      <c r="N379" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O379" s="95"/>
+      <c r="P379" s="95"/>
+      <c r="Q379" s="95"/>
+      <c r="R379" s="95"/>
+      <c r="S379" s="95"/>
+      <c r="T379" s="22">
+        <f>SUM(O379:S379)</f>
+        <v>0</v>
+      </c>
+      <c r="U379" s="95"/>
+      <c r="V379" s="10"/>
+      <c r="W379" s="11"/>
+      <c r="X379" s="11"/>
+      <c r="Y379" s="11"/>
+      <c r="Z379" s="11"/>
+      <c r="AA379" s="95"/>
+      <c r="AB379" s="95"/>
+      <c r="AC379" s="95"/>
+      <c r="AD379" s="95"/>
+      <c r="AE379" s="95"/>
+    </row>
+    <row r="380" customHeight="1" spans="1:31">
+      <c r="A380" s="22">
+        <v>378</v>
+      </c>
+      <c r="B380" s="22">
+        <v>240418009</v>
+      </c>
+      <c r="C380" s="99">
+        <v>45400</v>
+      </c>
+      <c r="D380" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E380" s="61">
+        <f>IF(C380="","",WEEKNUM(C380,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F380" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G380" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H380" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I380" s="22" t="str">
+        <f>VLOOKUP(H380,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J380" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K380" s="22">
+        <v>722</v>
+      </c>
+      <c r="L380" s="22">
+        <v>32</v>
+      </c>
+      <c r="M380" s="22">
+        <v>2</v>
+      </c>
+      <c r="N380" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O380" s="95"/>
+      <c r="P380" s="95"/>
+      <c r="Q380" s="95"/>
+      <c r="R380" s="95">
+        <v>2</v>
+      </c>
+      <c r="S380" s="95"/>
+      <c r="T380" s="22">
+        <f>SUM(O380:S380)</f>
+        <v>2</v>
+      </c>
+      <c r="U380" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="V380" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X380" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y380" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z380" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA380" s="95"/>
+      <c r="AB380" s="95"/>
+      <c r="AC380" s="95"/>
+      <c r="AD380" s="95"/>
+      <c r="AE380" s="95"/>
+    </row>
+    <row r="381" customHeight="1" spans="1:31">
+      <c r="A381" s="22">
+        <v>379</v>
+      </c>
+      <c r="B381" s="23">
+        <v>240419001</v>
+      </c>
+      <c r="C381" s="99">
+        <v>45401</v>
+      </c>
+      <c r="D381" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E381" s="61">
+        <f>IF(C381="","",WEEKNUM(C381,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F381" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G381" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H381" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I381" s="22" t="str">
+        <f>VLOOKUP(H381,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J381" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K381" s="22">
+        <v>516</v>
+      </c>
+      <c r="L381" s="22">
+        <v>32</v>
+      </c>
+      <c r="M381" s="22"/>
+      <c r="N381" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O381" s="22"/>
+      <c r="P381" s="22"/>
+      <c r="Q381" s="22"/>
+      <c r="R381" s="22"/>
+      <c r="S381" s="22"/>
+      <c r="T381" s="22">
+        <f>SUM(O381:S381)</f>
+        <v>0</v>
+      </c>
+      <c r="U381" s="27"/>
+      <c r="V381" s="10"/>
+      <c r="W381" s="11"/>
+      <c r="X381" s="11"/>
+      <c r="Y381" s="11"/>
+      <c r="Z381" s="11"/>
+      <c r="AA381" s="95"/>
+      <c r="AB381" s="95"/>
+      <c r="AC381" s="95"/>
+      <c r="AD381" s="95"/>
+      <c r="AE381" s="95"/>
+    </row>
+    <row r="382" customHeight="1" spans="1:31">
+      <c r="A382" s="22">
+        <v>380</v>
+      </c>
+      <c r="B382" s="22">
+        <v>240419002</v>
+      </c>
+      <c r="C382" s="99">
+        <v>45401</v>
+      </c>
+      <c r="D382" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E382" s="61">
+        <f>IF(C382="","",WEEKNUM(C382,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F382" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G382" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H382" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I382" s="22" t="str">
+        <f>VLOOKUP(H382,[2]外O细分型号!A:B,2,0)</f>
+        <v>G5</v>
+      </c>
+      <c r="J382" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K382" s="22">
+        <v>2</v>
+      </c>
+      <c r="L382" s="22">
+        <v>2</v>
+      </c>
+      <c r="M382" s="22">
+        <v>1</v>
+      </c>
+      <c r="N382" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O382" s="22"/>
+      <c r="P382" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="22"/>
+      <c r="R382" s="22"/>
+      <c r="S382" s="22"/>
+      <c r="T382" s="22">
+        <f>SUM(O382:S382)</f>
+        <v>1</v>
+      </c>
+      <c r="U382" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="V382" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W382" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X382" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y382" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z382" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA382" s="95"/>
+      <c r="AB382" s="95"/>
+      <c r="AC382" s="95"/>
+      <c r="AD382" s="95"/>
+      <c r="AE382" s="95"/>
+    </row>
+    <row r="383" customHeight="1" spans="1:31">
+      <c r="A383" s="22">
+        <v>381</v>
+      </c>
+      <c r="B383" s="23">
+        <v>240420001</v>
+      </c>
+      <c r="C383" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D383" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E383" s="61">
+        <f>IF(C383="","",WEEKNUM(C383,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F383" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G383" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H383" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I383" s="22" t="str">
+        <f>VLOOKUP(H383,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J383" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K383" s="22">
+        <v>3</v>
+      </c>
+      <c r="L383" s="22">
+        <v>3</v>
+      </c>
+      <c r="M383" s="22"/>
+      <c r="N383" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O383" s="22"/>
+      <c r="P383" s="22"/>
+      <c r="Q383" s="22"/>
+      <c r="R383" s="22"/>
+      <c r="S383" s="22"/>
+      <c r="T383" s="22">
+        <f>SUM(O383:S383)</f>
+        <v>0</v>
+      </c>
+      <c r="U383" s="27"/>
+      <c r="V383" s="10"/>
+      <c r="W383" s="11"/>
+      <c r="X383" s="11"/>
+      <c r="Y383" s="11"/>
+      <c r="Z383" s="11"/>
+      <c r="AA383" s="95"/>
+      <c r="AB383" s="95"/>
+      <c r="AC383" s="95"/>
+      <c r="AD383" s="95"/>
+      <c r="AE383" s="95"/>
+    </row>
+    <row r="384" customHeight="1" spans="1:31">
+      <c r="A384" s="22">
+        <v>382</v>
+      </c>
+      <c r="B384" s="22">
+        <v>240420002</v>
+      </c>
+      <c r="C384" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D384" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E384" s="61">
+        <f>IF(C384="","",WEEKNUM(C384,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F384" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G384" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H384" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="I384" s="22" t="str">
+        <f>VLOOKUP(H384,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J384" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K384" s="22">
+        <v>944</v>
+      </c>
+      <c r="L384" s="22">
+        <v>32</v>
+      </c>
+      <c r="M384" s="22"/>
+      <c r="N384" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O384" s="22"/>
+      <c r="P384" s="22"/>
+      <c r="Q384" s="22"/>
+      <c r="R384" s="22"/>
+      <c r="S384" s="22"/>
+      <c r="T384" s="22">
+        <f>SUM(O384:S384)</f>
+        <v>0</v>
+      </c>
+      <c r="U384" s="27"/>
+      <c r="V384" s="10"/>
+      <c r="W384" s="11"/>
+      <c r="X384" s="11"/>
+      <c r="Y384" s="11"/>
+      <c r="Z384" s="11"/>
+      <c r="AA384" s="95"/>
+      <c r="AB384" s="95"/>
+      <c r="AC384" s="95"/>
+      <c r="AD384" s="95"/>
+      <c r="AE384" s="95"/>
+    </row>
+    <row r="385" customHeight="1" spans="1:31">
+      <c r="A385" s="22">
+        <v>383</v>
+      </c>
+      <c r="B385" s="22">
+        <v>240420003</v>
+      </c>
+      <c r="C385" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D385" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E385" s="61">
+        <f>IF(C385="","",WEEKNUM(C385,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F385" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G385" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H385" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I385" s="22" t="str">
+        <f>VLOOKUP(H385,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J385" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K385" s="22">
+        <v>154</v>
+      </c>
+      <c r="L385" s="22">
+        <v>8</v>
+      </c>
+      <c r="M385" s="22"/>
+      <c r="N385" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O385" s="22"/>
+      <c r="P385" s="22"/>
+      <c r="Q385" s="22"/>
+      <c r="R385" s="22"/>
+      <c r="S385" s="22"/>
+      <c r="T385" s="22">
+        <f>SUM(O385:S385)</f>
+        <v>0</v>
+      </c>
+      <c r="U385" s="27"/>
+      <c r="V385" s="10"/>
+      <c r="W385" s="11"/>
+      <c r="X385" s="11"/>
+      <c r="Y385" s="11"/>
+      <c r="Z385" s="11"/>
+      <c r="AA385" s="95"/>
+      <c r="AB385" s="95"/>
+      <c r="AC385" s="95"/>
+      <c r="AD385" s="95"/>
+      <c r="AE385" s="95"/>
+    </row>
+    <row r="386" customHeight="1" spans="1:31">
+      <c r="A386" s="22">
+        <v>384</v>
+      </c>
+      <c r="B386" s="22">
+        <v>240420004</v>
+      </c>
+      <c r="C386" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D386" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E386" s="61">
+        <f>IF(C386="","",WEEKNUM(C386,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F386" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G386" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H386" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I386" s="22" t="str">
+        <f>VLOOKUP(H386,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J386" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K386" s="22">
+        <v>576</v>
+      </c>
+      <c r="L386" s="22">
+        <v>48</v>
+      </c>
+      <c r="M386" s="22">
+        <v>1</v>
+      </c>
+      <c r="N386" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O386" s="22"/>
+      <c r="P386" s="22"/>
+      <c r="Q386" s="22">
+        <v>1</v>
+      </c>
+      <c r="R386" s="22"/>
+      <c r="S386" s="22"/>
+      <c r="T386" s="22">
+        <f>SUM(O386:S386)</f>
+        <v>1</v>
+      </c>
+      <c r="U386" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="V386" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W386" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X386" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y386" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z386" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA386" s="95" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB386" s="95"/>
+      <c r="AC386" s="95"/>
+      <c r="AD386" s="95"/>
+      <c r="AE386" s="95"/>
+    </row>
+    <row r="387" customHeight="1" spans="1:31">
+      <c r="A387" s="22">
+        <v>385</v>
+      </c>
+      <c r="B387" s="22">
+        <v>240420005</v>
+      </c>
+      <c r="C387" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D387" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E387" s="61">
+        <f>IF(C387="","",WEEKNUM(C387,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F387" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G387" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H387" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I387" s="22" t="str">
+        <f>VLOOKUP(H387,[2]外O细分型号!A:B,2,0)</f>
+        <v>G500</v>
+      </c>
+      <c r="J387" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K387" s="22">
+        <v>576</v>
+      </c>
+      <c r="L387" s="22">
+        <v>32</v>
+      </c>
+      <c r="M387" s="22"/>
+      <c r="N387" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O387" s="22"/>
+      <c r="P387" s="22"/>
+      <c r="Q387" s="22"/>
+      <c r="R387" s="22"/>
+      <c r="S387" s="22"/>
+      <c r="T387" s="22">
+        <f>SUM(O387:S387)</f>
+        <v>0</v>
+      </c>
+      <c r="U387" s="27"/>
+      <c r="V387" s="10"/>
+      <c r="W387" s="11"/>
+      <c r="X387" s="11"/>
+      <c r="Y387" s="11"/>
+      <c r="Z387" s="11"/>
+      <c r="AA387" s="95"/>
+      <c r="AB387" s="95"/>
+      <c r="AC387" s="95"/>
+      <c r="AD387" s="95"/>
+      <c r="AE387" s="95"/>
+    </row>
+    <row r="388" customHeight="1" spans="1:31">
+      <c r="A388" s="22">
+        <v>386</v>
+      </c>
+      <c r="B388" s="22">
+        <v>240420006</v>
+      </c>
+      <c r="C388" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D388" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E388" s="61">
+        <f>IF(C388="","",WEEKNUM(C388,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F388" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G388" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H388" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I388" s="22" t="str">
+        <f>VLOOKUP(H388,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J388" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K388" s="22">
+        <v>20</v>
+      </c>
+      <c r="L388" s="22">
+        <v>8</v>
+      </c>
+      <c r="M388" s="22"/>
+      <c r="N388" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O388" s="22"/>
+      <c r="P388" s="22"/>
+      <c r="Q388" s="22"/>
+      <c r="R388" s="22"/>
+      <c r="S388" s="22"/>
+      <c r="T388" s="22">
+        <f>SUM(O388:S388)</f>
+        <v>0</v>
+      </c>
+      <c r="U388" s="27"/>
+      <c r="V388" s="10"/>
+      <c r="W388" s="11"/>
+      <c r="X388" s="11"/>
+      <c r="Y388" s="11"/>
+      <c r="Z388" s="11"/>
+      <c r="AA388" s="95"/>
+      <c r="AB388" s="95"/>
+      <c r="AC388" s="95"/>
+      <c r="AD388" s="95"/>
+      <c r="AE388" s="95"/>
+    </row>
+    <row r="389" customHeight="1" spans="1:31">
+      <c r="A389" s="22">
+        <v>387</v>
+      </c>
+      <c r="B389" s="22">
+        <v>240420007</v>
+      </c>
+      <c r="C389" s="99">
+        <v>45402</v>
+      </c>
+      <c r="D389" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E389" s="61">
+        <f>IF(C389="","",WEEKNUM(C389,1))</f>
+        <v>16</v>
+      </c>
+      <c r="F389" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G389" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H389" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I389" s="22" t="str">
+        <f>VLOOKUP(H389,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J389" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K389" s="22">
+        <v>20</v>
+      </c>
+      <c r="L389" s="22">
+        <v>8</v>
+      </c>
+      <c r="M389" s="22"/>
+      <c r="N389" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O389" s="22"/>
+      <c r="P389" s="22"/>
+      <c r="Q389" s="22"/>
+      <c r="R389" s="22"/>
+      <c r="S389" s="22"/>
+      <c r="T389" s="22">
+        <f>SUM(O389:S389)</f>
+        <v>0</v>
+      </c>
+      <c r="U389" s="27"/>
+      <c r="V389" s="10"/>
+      <c r="W389" s="11"/>
+      <c r="X389" s="11"/>
+      <c r="Y389" s="11"/>
+      <c r="Z389" s="11"/>
+      <c r="AA389" s="95"/>
+      <c r="AB389" s="95"/>
+      <c r="AC389" s="95"/>
+      <c r="AD389" s="95"/>
+      <c r="AE389" s="95"/>
+    </row>
+    <row r="390" customHeight="1" spans="1:31">
+      <c r="A390" s="22">
+        <v>388</v>
+      </c>
+      <c r="B390" s="23">
+        <v>240421001</v>
+      </c>
+      <c r="C390" s="99">
+        <v>45403</v>
+      </c>
+      <c r="D390" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E390" s="61">
+        <f>IF(C390="","",WEEKNUM(C390,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F390" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G390" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H390" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I390" s="22" t="str">
+        <f>VLOOKUP(H390,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J390" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K390" s="22">
+        <v>196</v>
+      </c>
+      <c r="L390" s="22">
+        <v>8</v>
+      </c>
+      <c r="M390" s="22"/>
+      <c r="N390" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O390" s="95"/>
+      <c r="P390" s="95"/>
+      <c r="Q390" s="95"/>
+      <c r="R390" s="95"/>
+      <c r="S390" s="95"/>
+      <c r="T390" s="22">
+        <f>SUM(O390:S390)</f>
+        <v>0</v>
+      </c>
+      <c r="U390" s="95"/>
+      <c r="V390" s="10"/>
+      <c r="W390" s="11"/>
+      <c r="X390" s="11"/>
+      <c r="Y390" s="11"/>
+      <c r="Z390" s="11"/>
+      <c r="AA390" s="95"/>
+      <c r="AB390" s="95"/>
+      <c r="AC390" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD390" s="95"/>
+      <c r="AE390" s="95"/>
+    </row>
+    <row r="391" customHeight="1" spans="1:31">
+      <c r="A391" s="22">
+        <v>389</v>
+      </c>
+      <c r="B391" s="22">
+        <v>240421002</v>
+      </c>
+      <c r="C391" s="99">
+        <v>45403</v>
+      </c>
+      <c r="D391" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E391" s="61">
+        <f>IF(C391="","",WEEKNUM(C391,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F391" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G391" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H391" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I391" s="22" t="str">
+        <f>VLOOKUP(H391,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J391" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K391" s="22">
+        <v>288</v>
+      </c>
+      <c r="L391" s="22">
+        <v>32</v>
+      </c>
+      <c r="M391" s="22"/>
+      <c r="N391" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O391" s="95"/>
+      <c r="P391" s="95"/>
+      <c r="Q391" s="95"/>
+      <c r="R391" s="95"/>
+      <c r="S391" s="95"/>
+      <c r="T391" s="22">
+        <f>SUM(O391:S391)</f>
+        <v>0</v>
+      </c>
+      <c r="U391" s="95"/>
+      <c r="V391" s="95"/>
+      <c r="W391" s="95"/>
+      <c r="X391" s="95"/>
+      <c r="Y391" s="97"/>
+      <c r="Z391" s="97"/>
+      <c r="AA391" s="95"/>
+      <c r="AB391" s="95"/>
+      <c r="AC391" s="95"/>
+      <c r="AD391" s="95"/>
+      <c r="AE391" s="95"/>
+    </row>
+    <row r="392" customHeight="1" spans="1:31">
+      <c r="A392" s="22">
+        <v>390</v>
+      </c>
+      <c r="B392" s="22">
+        <v>240421003</v>
+      </c>
+      <c r="C392" s="99">
+        <v>45403</v>
+      </c>
+      <c r="D392" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E392" s="61">
+        <f>IF(C392="","",WEEKNUM(C392,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F392" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G392" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="H392" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I392" s="22" t="str">
+        <f>VLOOKUP(H392,[2]外O细分型号!A:B,2,0)</f>
+        <v>E10</v>
+      </c>
+      <c r="J392" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K392" s="22">
+        <v>436</v>
+      </c>
+      <c r="L392" s="22">
+        <v>32</v>
+      </c>
+      <c r="M392" s="22"/>
+      <c r="N392" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O392" s="95"/>
+      <c r="P392" s="95"/>
+      <c r="Q392" s="95"/>
+      <c r="R392" s="95"/>
+      <c r="S392" s="95"/>
+      <c r="T392" s="22">
+        <f>SUM(O392:S392)</f>
+        <v>0</v>
+      </c>
+      <c r="U392" s="95"/>
+      <c r="V392" s="95"/>
+      <c r="W392" s="95"/>
+      <c r="X392" s="95"/>
+      <c r="Y392" s="97"/>
+      <c r="Z392" s="97"/>
+      <c r="AA392" s="95"/>
+      <c r="AB392" s="95"/>
+      <c r="AC392" s="95"/>
+      <c r="AD392" s="95"/>
+      <c r="AE392" s="95"/>
+    </row>
+    <row r="393" customHeight="1" spans="1:31">
+      <c r="A393" s="22">
+        <v>391</v>
+      </c>
+      <c r="B393" s="22">
+        <v>240421004</v>
+      </c>
+      <c r="C393" s="99">
+        <v>45403</v>
+      </c>
+      <c r="D393" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E393" s="61">
+        <f>IF(C393="","",WEEKNUM(C393,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F393" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G393" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H393" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I393" s="22" t="str">
+        <f>VLOOKUP(H393,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J393" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K393" s="22">
+        <v>720</v>
+      </c>
+      <c r="L393" s="22">
+        <v>32</v>
+      </c>
+      <c r="M393" s="22"/>
+      <c r="N393" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O393" s="95"/>
+      <c r="P393" s="95"/>
+      <c r="Q393" s="95"/>
+      <c r="R393" s="95"/>
+      <c r="S393" s="95"/>
+      <c r="T393" s="22">
+        <f>SUM(O393:S393)</f>
+        <v>0</v>
+      </c>
+      <c r="U393" s="95"/>
+      <c r="V393" s="95"/>
+      <c r="W393" s="95"/>
+      <c r="X393" s="95"/>
+      <c r="Y393" s="97"/>
+      <c r="Z393" s="97"/>
+      <c r="AA393" s="95"/>
+      <c r="AB393" s="95"/>
+      <c r="AC393" s="95"/>
+      <c r="AD393" s="95"/>
+      <c r="AE393" s="95"/>
+    </row>
+    <row r="394" customHeight="1" spans="1:31">
+      <c r="A394" s="22">
+        <v>392</v>
+      </c>
+      <c r="B394" s="22">
+        <v>240421005</v>
+      </c>
+      <c r="C394" s="99">
+        <v>45403</v>
+      </c>
+      <c r="D394" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E394" s="61">
+        <f>IF(C394="","",WEEKNUM(C394,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F394" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G394" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H394" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I394" s="22" t="str">
+        <f>VLOOKUP(H394,[2]外O细分型号!A:B,2,0)</f>
+        <v>G500</v>
+      </c>
+      <c r="J394" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K394" s="22">
+        <v>720</v>
+      </c>
+      <c r="L394" s="22">
+        <v>32</v>
+      </c>
+      <c r="M394" s="22"/>
+      <c r="N394" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O394" s="95"/>
+      <c r="P394" s="95"/>
+      <c r="Q394" s="95"/>
+      <c r="R394" s="95"/>
+      <c r="S394" s="95"/>
+      <c r="T394" s="22">
+        <f>SUM(O394:S394)</f>
+        <v>0</v>
+      </c>
+      <c r="U394" s="95"/>
+      <c r="V394" s="95"/>
+      <c r="W394" s="95"/>
+      <c r="X394" s="95"/>
+      <c r="Y394" s="97"/>
+      <c r="Z394" s="97"/>
+      <c r="AA394" s="95"/>
+      <c r="AB394" s="95"/>
+      <c r="AC394" s="95"/>
+      <c r="AD394" s="95"/>
+      <c r="AE394" s="95"/>
+    </row>
+    <row r="395" customHeight="1" spans="1:31">
+      <c r="A395" s="22">
+        <v>393</v>
+      </c>
+      <c r="B395" s="23">
+        <v>240422001</v>
+      </c>
+      <c r="C395" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D395" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E395" s="61">
+        <f>IF(C395="","",WEEKNUM(C395,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F395" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G395" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H395" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I395" s="22" t="str">
+        <f>VLOOKUP(H395,[2]外O细分型号!A:B,2,0)</f>
+        <v>G500</v>
+      </c>
+      <c r="J395" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K395" s="22">
+        <v>288</v>
+      </c>
+      <c r="L395" s="22">
+        <v>32</v>
+      </c>
+      <c r="M395" s="22"/>
+      <c r="N395" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O395" s="95"/>
+      <c r="P395" s="95"/>
+      <c r="Q395" s="95"/>
+      <c r="R395" s="95"/>
+      <c r="S395" s="95"/>
+      <c r="T395" s="22">
+        <f>SUM(O395:S395)</f>
+        <v>0</v>
+      </c>
+      <c r="U395" s="95"/>
+      <c r="V395" s="10"/>
+      <c r="W395" s="11"/>
+      <c r="X395" s="11"/>
+      <c r="Y395" s="11"/>
+      <c r="Z395" s="11"/>
+      <c r="AA395" s="95"/>
+      <c r="AB395" s="95"/>
+      <c r="AC395" s="95"/>
+      <c r="AD395" s="95"/>
+      <c r="AE395" s="95"/>
+    </row>
+    <row r="396" customHeight="1" spans="1:31">
+      <c r="A396" s="22">
+        <v>394</v>
+      </c>
+      <c r="B396" s="22">
+        <v>240422002</v>
+      </c>
+      <c r="C396" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D396" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E396" s="61">
+        <f>IF(C396="","",WEEKNUM(C396,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F396" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G396" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H396" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I396" s="22" t="str">
+        <f>VLOOKUP(H396,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J396" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K396" s="22">
+        <v>233</v>
+      </c>
+      <c r="L396" s="22">
+        <v>8</v>
+      </c>
+      <c r="M396" s="22"/>
+      <c r="N396" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O396" s="95"/>
+      <c r="P396" s="95"/>
+      <c r="Q396" s="95"/>
+      <c r="R396" s="95"/>
+      <c r="S396" s="95"/>
+      <c r="T396" s="22">
+        <f>SUM(O396:S396)</f>
+        <v>0</v>
+      </c>
+      <c r="U396" s="95"/>
+      <c r="V396" s="10"/>
+      <c r="W396" s="11"/>
+      <c r="X396" s="11"/>
+      <c r="Y396" s="11"/>
+      <c r="Z396" s="11"/>
+      <c r="AA396" s="95"/>
+      <c r="AB396" s="95"/>
+      <c r="AC396" s="95"/>
+      <c r="AD396" s="95"/>
+      <c r="AE396" s="95"/>
+    </row>
+    <row r="397" customHeight="1" spans="1:31">
+      <c r="A397" s="22">
+        <v>395</v>
+      </c>
+      <c r="B397" s="22">
+        <v>240422003</v>
+      </c>
+      <c r="C397" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D397" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E397" s="61">
+        <f>IF(C397="","",WEEKNUM(C397,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F397" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G397" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H397" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I397" s="22" t="str">
+        <f>VLOOKUP(H397,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J397" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K397" s="22">
+        <v>800</v>
+      </c>
+      <c r="L397" s="22">
+        <v>13</v>
+      </c>
+      <c r="M397" s="22"/>
+      <c r="N397" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O397" s="95"/>
+      <c r="P397" s="95"/>
+      <c r="Q397" s="95"/>
+      <c r="R397" s="95"/>
+      <c r="S397" s="95"/>
+      <c r="T397" s="22">
+        <f>SUM(O397:S397)</f>
+        <v>0</v>
+      </c>
+      <c r="U397" s="95"/>
+      <c r="V397" s="10"/>
+      <c r="W397" s="11"/>
+      <c r="X397" s="11"/>
+      <c r="Y397" s="11"/>
+      <c r="Z397" s="11"/>
+      <c r="AA397" s="95"/>
+      <c r="AB397" s="95"/>
+      <c r="AC397" s="95"/>
+      <c r="AD397" s="95"/>
+      <c r="AE397" s="95"/>
+    </row>
+    <row r="398" customHeight="1" spans="1:31">
+      <c r="A398" s="22">
+        <v>396</v>
+      </c>
+      <c r="B398" s="22">
+        <v>240422004</v>
+      </c>
+      <c r="C398" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D398" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E398" s="61">
+        <f>IF(C398="","",WEEKNUM(C398,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F398" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G398" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H398" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I398" s="22" t="str">
+        <f>VLOOKUP(H398,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J398" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K398" s="22">
+        <v>800</v>
+      </c>
+      <c r="L398" s="22">
+        <v>20</v>
+      </c>
+      <c r="M398" s="22"/>
+      <c r="N398" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O398" s="95"/>
+      <c r="P398" s="95"/>
+      <c r="Q398" s="95"/>
+      <c r="R398" s="95"/>
+      <c r="S398" s="95"/>
+      <c r="T398" s="22">
+        <f>SUM(O398:S398)</f>
+        <v>0</v>
+      </c>
+      <c r="U398" s="95"/>
+      <c r="V398" s="10"/>
+      <c r="W398" s="11"/>
+      <c r="X398" s="11"/>
+      <c r="Y398" s="11"/>
+      <c r="Z398" s="11"/>
+      <c r="AA398" s="95"/>
+      <c r="AB398" s="95"/>
+      <c r="AC398" s="95"/>
+      <c r="AD398" s="95"/>
+      <c r="AE398" s="95"/>
+    </row>
+    <row r="399" customHeight="1" spans="1:31">
+      <c r="A399" s="22">
+        <v>397</v>
+      </c>
+      <c r="B399" s="22">
+        <v>240422005</v>
+      </c>
+      <c r="C399" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D399" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E399" s="61">
+        <f>IF(C399="","",WEEKNUM(C399,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F399" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G399" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H399" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I399" s="22" t="str">
+        <f>VLOOKUP(H399,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3EFPRO</v>
+      </c>
+      <c r="J399" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K399" s="22">
+        <v>432</v>
+      </c>
+      <c r="L399" s="22">
+        <v>32</v>
+      </c>
+      <c r="M399" s="22"/>
+      <c r="N399" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O399" s="95"/>
+      <c r="P399" s="95"/>
+      <c r="Q399" s="95"/>
+      <c r="R399" s="95"/>
+      <c r="S399" s="95"/>
+      <c r="T399" s="22">
+        <f>SUM(O399:S399)</f>
+        <v>0</v>
+      </c>
+      <c r="U399" s="95"/>
+      <c r="V399" s="10"/>
+      <c r="W399" s="11"/>
+      <c r="X399" s="11"/>
+      <c r="Y399" s="11"/>
+      <c r="Z399" s="11"/>
+      <c r="AA399" s="95"/>
+      <c r="AB399" s="95"/>
+      <c r="AC399" s="95"/>
+      <c r="AD399" s="95"/>
+      <c r="AE399" s="95"/>
+    </row>
+    <row r="400" customHeight="1" spans="1:31">
+      <c r="A400" s="22">
+        <v>398</v>
+      </c>
+      <c r="B400" s="22">
+        <v>240422006</v>
+      </c>
+      <c r="C400" s="99">
+        <v>45404</v>
+      </c>
+      <c r="D400" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E400" s="61">
+        <f>IF(C400="","",WEEKNUM(C400,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F400" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G400" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H400" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I400" s="22" t="str">
+        <f>VLOOKUP(H400,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J400" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K400" s="22">
+        <v>720</v>
+      </c>
+      <c r="L400" s="22">
+        <v>32</v>
+      </c>
+      <c r="M400" s="22">
+        <v>1</v>
+      </c>
+      <c r="N400" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O400" s="95">
+        <v>1</v>
+      </c>
+      <c r="P400" s="95"/>
+      <c r="Q400" s="95"/>
+      <c r="R400" s="95"/>
+      <c r="S400" s="95"/>
+      <c r="T400" s="22">
+        <f>SUM(O400:S400)</f>
+        <v>1</v>
+      </c>
+      <c r="U400" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="V400" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W400" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X400" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y400" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z400" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA400" s="95"/>
+      <c r="AB400" s="95"/>
+      <c r="AC400" s="95"/>
+      <c r="AD400" s="95"/>
+      <c r="AE400" s="95"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
@@ -28500,6 +31158,50 @@
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" dxfId="0" priority="157" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="158" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="159" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="155" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="156" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="152" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="153" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="0" priority="148" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
     <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28510,7 +31212,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="N33">
     <cfRule type="cellIs" dxfId="0" priority="142" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28521,7 +31223,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="N37">
     <cfRule type="cellIs" dxfId="0" priority="139" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28532,7 +31234,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N41">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="135" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
     <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28543,18 +31256,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="0" priority="133" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="135" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="N43">
     <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28565,7 +31267,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="126" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
     <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28576,7 +31289,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
+  <conditionalFormatting sqref="N63">
     <cfRule type="cellIs" dxfId="0" priority="121" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28587,18 +31300,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="125" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="126" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
+  <conditionalFormatting sqref="N66">
     <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28609,7 +31311,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
+  <conditionalFormatting sqref="N67">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
     <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28620,62 +31333,47 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
+  <conditionalFormatting sqref="N75">
+    <cfRule type="cellIs" dxfId="3" priority="2462" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="116" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2463" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
+  <conditionalFormatting sqref="N80">
+    <cfRule type="cellIs" dxfId="3" priority="2460" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2461" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
+  <conditionalFormatting sqref="N81">
+    <cfRule type="cellIs" dxfId="3" priority="2458" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="107" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2459" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
+  <conditionalFormatting sqref="N82">
+    <cfRule type="cellIs" dxfId="3" priority="2456" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2457" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
+  <conditionalFormatting sqref="N85">
+    <cfRule type="cellIs" dxfId="3" priority="2454" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="101" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2455" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75">
+  <conditionalFormatting sqref="N89">
     <cfRule type="cellIs" dxfId="3" priority="2450" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28683,7 +31381,15 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="N92">
+    <cfRule type="cellIs" dxfId="3" priority="2452" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2453" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N93">
     <cfRule type="cellIs" dxfId="3" priority="2448" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28691,7 +31397,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81">
+  <conditionalFormatting sqref="N94">
     <cfRule type="cellIs" dxfId="3" priority="2446" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28699,7 +31405,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
+  <conditionalFormatting sqref="N95">
     <cfRule type="cellIs" dxfId="3" priority="2444" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28707,7 +31413,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
+  <conditionalFormatting sqref="N100">
     <cfRule type="cellIs" dxfId="3" priority="2442" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28715,7 +31421,15 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89">
+  <conditionalFormatting sqref="N103">
+    <cfRule type="cellIs" dxfId="3" priority="2440" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2441" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105">
     <cfRule type="cellIs" dxfId="3" priority="2438" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28723,15 +31437,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="cellIs" dxfId="3" priority="2440" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2441" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N93">
+  <conditionalFormatting sqref="N106">
     <cfRule type="cellIs" dxfId="3" priority="2436" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28739,7 +31445,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N94">
+  <conditionalFormatting sqref="N111">
     <cfRule type="cellIs" dxfId="3" priority="2434" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28747,7 +31453,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N95">
+  <conditionalFormatting sqref="N118">
     <cfRule type="cellIs" dxfId="3" priority="2432" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28755,7 +31461,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100">
+  <conditionalFormatting sqref="N119">
     <cfRule type="cellIs" dxfId="3" priority="2430" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28763,7 +31469,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103">
+  <conditionalFormatting sqref="N120">
     <cfRule type="cellIs" dxfId="3" priority="2428" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28771,7 +31477,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N105">
+  <conditionalFormatting sqref="N121">
     <cfRule type="cellIs" dxfId="3" priority="2426" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28779,7 +31485,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N106">
+  <conditionalFormatting sqref="N126">
     <cfRule type="cellIs" dxfId="3" priority="2424" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28787,7 +31493,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N111">
+  <conditionalFormatting sqref="N131">
     <cfRule type="cellIs" dxfId="3" priority="2422" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28795,7 +31501,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N118">
+  <conditionalFormatting sqref="N134">
     <cfRule type="cellIs" dxfId="3" priority="2420" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28803,7 +31509,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N119">
+  <conditionalFormatting sqref="N135">
     <cfRule type="cellIs" dxfId="3" priority="2418" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28811,7 +31517,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120">
+  <conditionalFormatting sqref="N139">
     <cfRule type="cellIs" dxfId="3" priority="2416" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28819,15 +31525,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N121">
-    <cfRule type="cellIs" dxfId="3" priority="2414" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2415" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N126">
+  <conditionalFormatting sqref="N140">
     <cfRule type="cellIs" dxfId="3" priority="2412" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28835,7 +31533,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N131">
+  <conditionalFormatting sqref="N141">
     <cfRule type="cellIs" dxfId="3" priority="2410" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28843,7 +31541,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N134">
+  <conditionalFormatting sqref="N142">
     <cfRule type="cellIs" dxfId="3" priority="2408" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28851,7 +31549,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N135">
+  <conditionalFormatting sqref="N143">
     <cfRule type="cellIs" dxfId="3" priority="2406" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28859,7 +31557,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N139">
+  <conditionalFormatting sqref="N145">
     <cfRule type="cellIs" dxfId="3" priority="2404" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28867,7 +31565,15 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N140">
+  <conditionalFormatting sqref="N147">
+    <cfRule type="cellIs" dxfId="3" priority="2402" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2403" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N152">
     <cfRule type="cellIs" dxfId="3" priority="2400" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28875,7 +31581,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N141">
+  <conditionalFormatting sqref="N155">
     <cfRule type="cellIs" dxfId="3" priority="2398" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28883,7 +31589,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N142">
+  <conditionalFormatting sqref="N162">
     <cfRule type="cellIs" dxfId="3" priority="2396" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28891,7 +31597,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N143">
+  <conditionalFormatting sqref="N165">
     <cfRule type="cellIs" dxfId="3" priority="2394" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28899,7 +31605,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N145">
+  <conditionalFormatting sqref="N167">
     <cfRule type="cellIs" dxfId="3" priority="2392" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28907,7 +31613,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147">
+  <conditionalFormatting sqref="N169">
     <cfRule type="cellIs" dxfId="3" priority="2390" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28915,7 +31621,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N152">
+  <conditionalFormatting sqref="N170">
     <cfRule type="cellIs" dxfId="3" priority="2388" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28923,7 +31629,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155">
+  <conditionalFormatting sqref="N176">
     <cfRule type="cellIs" dxfId="3" priority="2386" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28931,7 +31637,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162">
+  <conditionalFormatting sqref="N177">
     <cfRule type="cellIs" dxfId="3" priority="2384" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -28939,55 +31645,51 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N165">
-    <cfRule type="cellIs" dxfId="3" priority="2382" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N183">
+    <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2383" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N197">
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N167">
-    <cfRule type="cellIs" dxfId="3" priority="2380" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2381" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N202">
+    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N169">
-    <cfRule type="cellIs" dxfId="3" priority="2378" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2379" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N205">
+    <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N170">
-    <cfRule type="cellIs" dxfId="3" priority="2376" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2377" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N176">
-    <cfRule type="cellIs" dxfId="3" priority="2374" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2375" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N177">
-    <cfRule type="cellIs" dxfId="3" priority="2372" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2373" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N183">
+  <conditionalFormatting sqref="N249">
     <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -28998,7 +31700,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197">
+  <conditionalFormatting sqref="N255">
     <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29009,7 +31711,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N202">
+  <conditionalFormatting sqref="N274">
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N275">
     <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29020,18 +31733,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N205">
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N249">
+  <conditionalFormatting sqref="N280">
     <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29042,7 +31744,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N255">
+  <conditionalFormatting sqref="N290">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N291">
     <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29053,7 +31766,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N274">
+  <conditionalFormatting sqref="N304">
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N305">
     <cfRule type="cellIs" dxfId="2" priority="42" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29064,29 +31788,29 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N275">
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+  <conditionalFormatting sqref="N309">
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N280">
-    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
+  <conditionalFormatting sqref="N311">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N290">
+  <conditionalFormatting sqref="N312">
     <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29097,18 +31821,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N291">
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N304">
+  <conditionalFormatting sqref="N327">
     <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29119,18 +31832,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N305">
-    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N309">
+  <conditionalFormatting sqref="N333">
     <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29141,7 +31843,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N311">
+  <conditionalFormatting sqref="N350">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N353">
     <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29152,18 +31865,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N312">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N327">
+  <conditionalFormatting sqref="N360">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29174,7 +31876,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N333">
+  <conditionalFormatting sqref="N371">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N372">
     <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29185,18 +31898,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N350">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N353">
+  <conditionalFormatting sqref="N380">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29207,7 +31909,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N360">
+  <conditionalFormatting sqref="N382">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -29219,44 +31921,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 N76:N79 N84 N86:N88 N90:N91 N96:N99 N101:N102 N104 N107:N110 N112:N117 N122:N125 N127:N130 N132:N133 N136:N138 N156:N161 N164 N168 N172:N175">
-    <cfRule type="cellIs" dxfId="3" priority="2460" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2472" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2461" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2473" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N144 N153:N154 N148:N151 N146">
-    <cfRule type="cellIs" dxfId="3" priority="2402" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2414" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2415" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 W75:W177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 W75:W177">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
       <formula1>INDIRECT($W3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y177">
       <formula1>INDIRECT($X75)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W194:W208 W209:W210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X177">
@@ -29293,10 +31995,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -29317,7 +32019,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -29341,10 +32043,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -29352,28 +32054,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -29397,7 +32099,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -29413,18 +32115,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -29437,7 +32139,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -29445,7 +32147,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -29461,7 +32163,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -29469,15 +32171,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -29501,7 +32203,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -29541,10 +32243,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -29565,7 +32267,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -29581,7 +32283,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -29613,7 +32315,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -29621,7 +32323,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -29629,7 +32331,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -29677,26 +32379,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -29749,7 +32451,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -29765,7 +32467,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -2274,7 +2274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2638,9 +2638,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4022,10 +4019,10 @@
   </sheetPr>
   <dimension ref="A1:AE400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC360" sqref="AC360"/>
+      <selection pane="bottomLeft" activeCell="J394" sqref="J394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -26695,7 +26692,7 @@
       </c>
       <c r="AA333" s="95"/>
       <c r="AB333" s="95"/>
-      <c r="AC333" s="100"/>
+      <c r="AC333" s="99"/>
       <c r="AD333" s="95"/>
       <c r="AE333" s="95"/>
     </row>
@@ -28487,7 +28484,7 @@
       <c r="B361" s="23">
         <v>240417001</v>
       </c>
-      <c r="C361" s="99">
+      <c r="C361" s="40">
         <v>45399</v>
       </c>
       <c r="D361" s="22" t="s">
@@ -28553,7 +28550,7 @@
       <c r="B362" s="22">
         <v>240417002</v>
       </c>
-      <c r="C362" s="99">
+      <c r="C362" s="40">
         <v>45399</v>
       </c>
       <c r="D362" s="22" t="s">
@@ -28617,7 +28614,7 @@
       <c r="B363" s="22">
         <v>240417003</v>
       </c>
-      <c r="C363" s="99">
+      <c r="C363" s="40">
         <v>45399</v>
       </c>
       <c r="D363" s="22" t="s">
@@ -28681,7 +28678,7 @@
       <c r="B364" s="22">
         <v>240417004</v>
       </c>
-      <c r="C364" s="99">
+      <c r="C364" s="40">
         <v>45399</v>
       </c>
       <c r="D364" s="22" t="s">
@@ -28747,7 +28744,7 @@
       <c r="B365" s="22">
         <v>240417005</v>
       </c>
-      <c r="C365" s="99">
+      <c r="C365" s="40">
         <v>45399</v>
       </c>
       <c r="D365" s="22" t="s">
@@ -28811,7 +28808,7 @@
       <c r="B366" s="22">
         <v>240417006</v>
       </c>
-      <c r="C366" s="99">
+      <c r="C366" s="40">
         <v>45399</v>
       </c>
       <c r="D366" s="22" t="s">
@@ -28875,7 +28872,7 @@
       <c r="B367" s="22">
         <v>240417007</v>
       </c>
-      <c r="C367" s="99">
+      <c r="C367" s="40">
         <v>45399</v>
       </c>
       <c r="D367" s="22" t="s">
@@ -28939,7 +28936,7 @@
       <c r="B368" s="22">
         <v>240417008</v>
       </c>
-      <c r="C368" s="99">
+      <c r="C368" s="40">
         <v>45399</v>
       </c>
       <c r="D368" s="22" t="s">
@@ -29003,7 +29000,7 @@
       <c r="B369" s="22">
         <v>240417009</v>
       </c>
-      <c r="C369" s="99">
+      <c r="C369" s="40">
         <v>45399</v>
       </c>
       <c r="D369" s="22" t="s">
@@ -29067,7 +29064,7 @@
       <c r="B370" s="22">
         <v>240417010</v>
       </c>
-      <c r="C370" s="99">
+      <c r="C370" s="40">
         <v>45399</v>
       </c>
       <c r="D370" s="22" t="s">
@@ -29131,7 +29128,7 @@
       <c r="B371" s="23">
         <v>240418001</v>
       </c>
-      <c r="C371" s="99">
+      <c r="C371" s="40">
         <v>45400</v>
       </c>
       <c r="D371" s="22" t="s">
@@ -29211,7 +29208,7 @@
       <c r="B372" s="22">
         <v>240418001</v>
       </c>
-      <c r="C372" s="99">
+      <c r="C372" s="40">
         <v>45400</v>
       </c>
       <c r="D372" s="22" t="s">
@@ -29283,7 +29280,7 @@
       <c r="B373" s="22">
         <v>240418002</v>
       </c>
-      <c r="C373" s="99">
+      <c r="C373" s="40">
         <v>45400</v>
       </c>
       <c r="D373" s="22" t="s">
@@ -29347,7 +29344,7 @@
       <c r="B374" s="22">
         <v>240418003</v>
       </c>
-      <c r="C374" s="99">
+      <c r="C374" s="40">
         <v>45400</v>
       </c>
       <c r="D374" s="22" t="s">
@@ -29427,7 +29424,7 @@
       <c r="B375" s="22">
         <v>240418004</v>
       </c>
-      <c r="C375" s="99">
+      <c r="C375" s="40">
         <v>45400</v>
       </c>
       <c r="D375" s="22" t="s">
@@ -29491,7 +29488,7 @@
       <c r="B376" s="22">
         <v>240418005</v>
       </c>
-      <c r="C376" s="99">
+      <c r="C376" s="40">
         <v>45400</v>
       </c>
       <c r="D376" s="22" t="s">
@@ -29555,7 +29552,7 @@
       <c r="B377" s="22">
         <v>240418006</v>
       </c>
-      <c r="C377" s="99">
+      <c r="C377" s="40">
         <v>45400</v>
       </c>
       <c r="D377" s="22" t="s">
@@ -29619,7 +29616,7 @@
       <c r="B378" s="22">
         <v>240418007</v>
       </c>
-      <c r="C378" s="99">
+      <c r="C378" s="40">
         <v>45400</v>
       </c>
       <c r="D378" s="22" t="s">
@@ -29683,7 +29680,7 @@
       <c r="B379" s="22">
         <v>240418008</v>
       </c>
-      <c r="C379" s="99">
+      <c r="C379" s="40">
         <v>45400</v>
       </c>
       <c r="D379" s="22" t="s">
@@ -29747,7 +29744,7 @@
       <c r="B380" s="22">
         <v>240418009</v>
       </c>
-      <c r="C380" s="99">
+      <c r="C380" s="40">
         <v>45400</v>
       </c>
       <c r="D380" s="22" t="s">
@@ -29827,7 +29824,7 @@
       <c r="B381" s="23">
         <v>240419001</v>
       </c>
-      <c r="C381" s="99">
+      <c r="C381" s="40">
         <v>45401</v>
       </c>
       <c r="D381" s="22" t="s">
@@ -29891,7 +29888,7 @@
       <c r="B382" s="22">
         <v>240419002</v>
       </c>
-      <c r="C382" s="99">
+      <c r="C382" s="40">
         <v>45401</v>
       </c>
       <c r="D382" s="22" t="s">
@@ -29971,7 +29968,7 @@
       <c r="B383" s="23">
         <v>240420001</v>
       </c>
-      <c r="C383" s="99">
+      <c r="C383" s="40">
         <v>45402</v>
       </c>
       <c r="D383" s="22" t="s">
@@ -30035,7 +30032,7 @@
       <c r="B384" s="22">
         <v>240420002</v>
       </c>
-      <c r="C384" s="99">
+      <c r="C384" s="40">
         <v>45402</v>
       </c>
       <c r="D384" s="22" t="s">
@@ -30099,7 +30096,7 @@
       <c r="B385" s="22">
         <v>240420003</v>
       </c>
-      <c r="C385" s="99">
+      <c r="C385" s="40">
         <v>45402</v>
       </c>
       <c r="D385" s="22" t="s">
@@ -30163,7 +30160,7 @@
       <c r="B386" s="22">
         <v>240420004</v>
       </c>
-      <c r="C386" s="99">
+      <c r="C386" s="40">
         <v>45402</v>
       </c>
       <c r="D386" s="22" t="s">
@@ -30245,7 +30242,7 @@
       <c r="B387" s="22">
         <v>240420005</v>
       </c>
-      <c r="C387" s="99">
+      <c r="C387" s="40">
         <v>45402</v>
       </c>
       <c r="D387" s="22" t="s">
@@ -30309,7 +30306,7 @@
       <c r="B388" s="22">
         <v>240420006</v>
       </c>
-      <c r="C388" s="99">
+      <c r="C388" s="40">
         <v>45402</v>
       </c>
       <c r="D388" s="22" t="s">
@@ -30373,7 +30370,7 @@
       <c r="B389" s="22">
         <v>240420007</v>
       </c>
-      <c r="C389" s="99">
+      <c r="C389" s="40">
         <v>45402</v>
       </c>
       <c r="D389" s="22" t="s">
@@ -30437,7 +30434,7 @@
       <c r="B390" s="23">
         <v>240421001</v>
       </c>
-      <c r="C390" s="99">
+      <c r="C390" s="40">
         <v>45403</v>
       </c>
       <c r="D390" s="22" t="s">
@@ -30503,7 +30500,7 @@
       <c r="B391" s="22">
         <v>240421002</v>
       </c>
-      <c r="C391" s="99">
+      <c r="C391" s="40">
         <v>45403</v>
       </c>
       <c r="D391" s="22" t="s">
@@ -30567,7 +30564,7 @@
       <c r="B392" s="22">
         <v>240421003</v>
       </c>
-      <c r="C392" s="99">
+      <c r="C392" s="40">
         <v>45403</v>
       </c>
       <c r="D392" s="22" t="s">
@@ -30631,7 +30628,7 @@
       <c r="B393" s="22">
         <v>240421004</v>
       </c>
-      <c r="C393" s="99">
+      <c r="C393" s="40">
         <v>45403</v>
       </c>
       <c r="D393" s="22" t="s">
@@ -30695,7 +30692,7 @@
       <c r="B394" s="22">
         <v>240421005</v>
       </c>
-      <c r="C394" s="99">
+      <c r="C394" s="40">
         <v>45403</v>
       </c>
       <c r="D394" s="22" t="s">
@@ -30759,7 +30756,7 @@
       <c r="B395" s="23">
         <v>240422001</v>
       </c>
-      <c r="C395" s="99">
+      <c r="C395" s="40">
         <v>45404</v>
       </c>
       <c r="D395" s="22" t="s">
@@ -30823,7 +30820,7 @@
       <c r="B396" s="22">
         <v>240422002</v>
       </c>
-      <c r="C396" s="99">
+      <c r="C396" s="40">
         <v>45404</v>
       </c>
       <c r="D396" s="22" t="s">
@@ -30887,7 +30884,7 @@
       <c r="B397" s="22">
         <v>240422003</v>
       </c>
-      <c r="C397" s="99">
+      <c r="C397" s="40">
         <v>45404</v>
       </c>
       <c r="D397" s="22" t="s">
@@ -30951,7 +30948,7 @@
       <c r="B398" s="22">
         <v>240422004</v>
       </c>
-      <c r="C398" s="99">
+      <c r="C398" s="40">
         <v>45404</v>
       </c>
       <c r="D398" s="22" t="s">
@@ -31015,7 +31012,7 @@
       <c r="B399" s="22">
         <v>240422005</v>
       </c>
-      <c r="C399" s="99">
+      <c r="C399" s="40">
         <v>45404</v>
       </c>
       <c r="D399" s="22" t="s">
@@ -31079,7 +31076,7 @@
       <c r="B400" s="22">
         <v>240422006</v>
       </c>
-      <c r="C400" s="99">
+      <c r="C400" s="40">
         <v>45404</v>
       </c>
       <c r="D400" s="22" t="s">

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$426</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="492">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1377,6 +1377,45 @@
   </si>
   <si>
     <t>后面板侧面积漆</t>
+  </si>
+  <si>
+    <t>DD257758</t>
+  </si>
+  <si>
+    <t>后盖板缺料</t>
+  </si>
+  <si>
+    <t>多、缺料</t>
+  </si>
+  <si>
+    <t>方棒60+90，4月24日入库</t>
+  </si>
+  <si>
+    <t>DD258724</t>
+  </si>
+  <si>
+    <t>旋钮黑色</t>
+  </si>
+  <si>
+    <t>电池盒盖缝隙大</t>
+  </si>
+  <si>
+    <t>前面板凹坑</t>
+  </si>
+  <si>
+    <t>砂孔/凹坑</t>
+  </si>
+  <si>
+    <t>电池盒盖卡扣断裂</t>
+  </si>
+  <si>
+    <t>按键失效</t>
+  </si>
+  <si>
+    <t>前面板上端积漆</t>
+  </si>
+  <si>
+    <t>DD259045</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -2274,7 +2313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2641,6 +2680,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3723,9 +3765,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE400" totalsRowShown="0">
-  <autoFilter ref="A2:AE400"/>
-  <sortState ref="A2:AE400">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE426" totalsRowShown="0">
+  <autoFilter ref="A2:AE426"/>
+  <sortState ref="A2:AE426">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4017,12 +4059,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE400"/>
+  <dimension ref="A1:AE426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J394" sqref="J394"/>
+      <selection pane="bottomLeft" activeCell="U423" sqref="U423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -28532,9 +28574,6 @@
       <c r="U361" s="95"/>
       <c r="V361" s="10"/>
       <c r="W361" s="11"/>
-      <c r="X361" s="11"/>
-      <c r="Y361" s="11"/>
-      <c r="Z361" s="11"/>
       <c r="AA361" s="95"/>
       <c r="AB361" s="95"/>
       <c r="AC361" s="95" t="s">
@@ -28598,9 +28637,6 @@
       <c r="U362" s="95"/>
       <c r="V362" s="10"/>
       <c r="W362" s="11"/>
-      <c r="X362" s="11"/>
-      <c r="Y362" s="11"/>
-      <c r="Z362" s="11"/>
       <c r="AA362" s="95"/>
       <c r="AB362" s="95"/>
       <c r="AC362" s="95"/>
@@ -28662,9 +28698,6 @@
       <c r="U363" s="95"/>
       <c r="V363" s="10"/>
       <c r="W363" s="11"/>
-      <c r="X363" s="11"/>
-      <c r="Y363" s="11"/>
-      <c r="Z363" s="11"/>
       <c r="AA363" s="95"/>
       <c r="AB363" s="95"/>
       <c r="AC363" s="95"/>
@@ -28726,9 +28759,6 @@
       <c r="U364" s="95"/>
       <c r="V364" s="10"/>
       <c r="W364" s="11"/>
-      <c r="X364" s="11"/>
-      <c r="Y364" s="11"/>
-      <c r="Z364" s="11"/>
       <c r="AA364" s="95"/>
       <c r="AB364" s="95"/>
       <c r="AC364" s="95" t="s">
@@ -28792,9 +28822,6 @@
       <c r="U365" s="95"/>
       <c r="V365" s="10"/>
       <c r="W365" s="11"/>
-      <c r="X365" s="11"/>
-      <c r="Y365" s="11"/>
-      <c r="Z365" s="11"/>
       <c r="AA365" s="95"/>
       <c r="AB365" s="95"/>
       <c r="AC365" s="95"/>
@@ -28856,9 +28883,6 @@
       <c r="U366" s="95"/>
       <c r="V366" s="10"/>
       <c r="W366" s="11"/>
-      <c r="X366" s="11"/>
-      <c r="Y366" s="11"/>
-      <c r="Z366" s="11"/>
       <c r="AA366" s="95"/>
       <c r="AB366" s="95"/>
       <c r="AC366" s="95"/>
@@ -28920,9 +28944,6 @@
       <c r="U367" s="95"/>
       <c r="V367" s="10"/>
       <c r="W367" s="11"/>
-      <c r="X367" s="11"/>
-      <c r="Y367" s="11"/>
-      <c r="Z367" s="11"/>
       <c r="AA367" s="95"/>
       <c r="AB367" s="95"/>
       <c r="AC367" s="95"/>
@@ -28984,9 +29005,6 @@
       <c r="U368" s="95"/>
       <c r="V368" s="10"/>
       <c r="W368" s="11"/>
-      <c r="X368" s="11"/>
-      <c r="Y368" s="11"/>
-      <c r="Z368" s="11"/>
       <c r="AA368" s="95"/>
       <c r="AB368" s="95"/>
       <c r="AC368" s="95"/>
@@ -29048,9 +29066,6 @@
       <c r="U369" s="95"/>
       <c r="V369" s="10"/>
       <c r="W369" s="11"/>
-      <c r="X369" s="11"/>
-      <c r="Y369" s="11"/>
-      <c r="Z369" s="11"/>
       <c r="AA369" s="95"/>
       <c r="AB369" s="95"/>
       <c r="AC369" s="95"/>
@@ -29112,9 +29127,6 @@
       <c r="U370" s="95"/>
       <c r="V370" s="10"/>
       <c r="W370" s="11"/>
-      <c r="X370" s="11"/>
-      <c r="Y370" s="11"/>
-      <c r="Z370" s="11"/>
       <c r="AA370" s="95"/>
       <c r="AB370" s="95"/>
       <c r="AC370" s="95"/>
@@ -29536,9 +29548,6 @@
       <c r="U376" s="27"/>
       <c r="V376" s="10"/>
       <c r="W376" s="11"/>
-      <c r="X376" s="11"/>
-      <c r="Y376" s="11"/>
-      <c r="Z376" s="11"/>
       <c r="AA376" s="95"/>
       <c r="AB376" s="95"/>
       <c r="AC376" s="95"/>
@@ -29600,9 +29609,6 @@
       <c r="U377" s="27"/>
       <c r="V377" s="10"/>
       <c r="W377" s="11"/>
-      <c r="X377" s="11"/>
-      <c r="Y377" s="11"/>
-      <c r="Z377" s="11"/>
       <c r="AA377" s="95"/>
       <c r="AB377" s="95"/>
       <c r="AC377" s="95"/>
@@ -29664,9 +29670,6 @@
       <c r="U378" s="27"/>
       <c r="V378" s="10"/>
       <c r="W378" s="11"/>
-      <c r="X378" s="11"/>
-      <c r="Y378" s="11"/>
-      <c r="Z378" s="11"/>
       <c r="AA378" s="95"/>
       <c r="AB378" s="95"/>
       <c r="AC378" s="95"/>
@@ -29728,9 +29731,6 @@
       <c r="U379" s="95"/>
       <c r="V379" s="10"/>
       <c r="W379" s="11"/>
-      <c r="X379" s="11"/>
-      <c r="Y379" s="11"/>
-      <c r="Z379" s="11"/>
       <c r="AA379" s="95"/>
       <c r="AB379" s="95"/>
       <c r="AC379" s="95"/>
@@ -29872,9 +29872,6 @@
       <c r="U381" s="27"/>
       <c r="V381" s="10"/>
       <c r="W381" s="11"/>
-      <c r="X381" s="11"/>
-      <c r="Y381" s="11"/>
-      <c r="Z381" s="11"/>
       <c r="AA381" s="95"/>
       <c r="AB381" s="95"/>
       <c r="AC381" s="95"/>
@@ -30016,9 +30013,6 @@
       <c r="U383" s="27"/>
       <c r="V383" s="10"/>
       <c r="W383" s="11"/>
-      <c r="X383" s="11"/>
-      <c r="Y383" s="11"/>
-      <c r="Z383" s="11"/>
       <c r="AA383" s="95"/>
       <c r="AB383" s="95"/>
       <c r="AC383" s="95"/>
@@ -30080,9 +30074,6 @@
       <c r="U384" s="27"/>
       <c r="V384" s="10"/>
       <c r="W384" s="11"/>
-      <c r="X384" s="11"/>
-      <c r="Y384" s="11"/>
-      <c r="Z384" s="11"/>
       <c r="AA384" s="95"/>
       <c r="AB384" s="95"/>
       <c r="AC384" s="95"/>
@@ -30144,9 +30135,6 @@
       <c r="U385" s="27"/>
       <c r="V385" s="10"/>
       <c r="W385" s="11"/>
-      <c r="X385" s="11"/>
-      <c r="Y385" s="11"/>
-      <c r="Z385" s="11"/>
       <c r="AA385" s="95"/>
       <c r="AB385" s="95"/>
       <c r="AC385" s="95"/>
@@ -30290,9 +30278,6 @@
       <c r="U387" s="27"/>
       <c r="V387" s="10"/>
       <c r="W387" s="11"/>
-      <c r="X387" s="11"/>
-      <c r="Y387" s="11"/>
-      <c r="Z387" s="11"/>
       <c r="AA387" s="95"/>
       <c r="AB387" s="95"/>
       <c r="AC387" s="95"/>
@@ -30354,9 +30339,6 @@
       <c r="U388" s="27"/>
       <c r="V388" s="10"/>
       <c r="W388" s="11"/>
-      <c r="X388" s="11"/>
-      <c r="Y388" s="11"/>
-      <c r="Z388" s="11"/>
       <c r="AA388" s="95"/>
       <c r="AB388" s="95"/>
       <c r="AC388" s="95"/>
@@ -30418,9 +30400,6 @@
       <c r="U389" s="27"/>
       <c r="V389" s="10"/>
       <c r="W389" s="11"/>
-      <c r="X389" s="11"/>
-      <c r="Y389" s="11"/>
-      <c r="Z389" s="11"/>
       <c r="AA389" s="95"/>
       <c r="AB389" s="95"/>
       <c r="AC389" s="95"/>
@@ -30482,9 +30461,6 @@
       <c r="U390" s="95"/>
       <c r="V390" s="10"/>
       <c r="W390" s="11"/>
-      <c r="X390" s="11"/>
-      <c r="Y390" s="11"/>
-      <c r="Z390" s="11"/>
       <c r="AA390" s="95"/>
       <c r="AB390" s="95"/>
       <c r="AC390" s="95" t="s">
@@ -30804,9 +30780,6 @@
       <c r="U395" s="95"/>
       <c r="V395" s="10"/>
       <c r="W395" s="11"/>
-      <c r="X395" s="11"/>
-      <c r="Y395" s="11"/>
-      <c r="Z395" s="11"/>
       <c r="AA395" s="95"/>
       <c r="AB395" s="95"/>
       <c r="AC395" s="95"/>
@@ -30868,9 +30841,6 @@
       <c r="U396" s="95"/>
       <c r="V396" s="10"/>
       <c r="W396" s="11"/>
-      <c r="X396" s="11"/>
-      <c r="Y396" s="11"/>
-      <c r="Z396" s="11"/>
       <c r="AA396" s="95"/>
       <c r="AB396" s="95"/>
       <c r="AC396" s="95"/>
@@ -30932,9 +30902,6 @@
       <c r="U397" s="95"/>
       <c r="V397" s="10"/>
       <c r="W397" s="11"/>
-      <c r="X397" s="11"/>
-      <c r="Y397" s="11"/>
-      <c r="Z397" s="11"/>
       <c r="AA397" s="95"/>
       <c r="AB397" s="95"/>
       <c r="AC397" s="95"/>
@@ -30996,9 +30963,6 @@
       <c r="U398" s="95"/>
       <c r="V398" s="10"/>
       <c r="W398" s="11"/>
-      <c r="X398" s="11"/>
-      <c r="Y398" s="11"/>
-      <c r="Z398" s="11"/>
       <c r="AA398" s="95"/>
       <c r="AB398" s="95"/>
       <c r="AC398" s="95"/>
@@ -31060,9 +31024,6 @@
       <c r="U399" s="95"/>
       <c r="V399" s="10"/>
       <c r="W399" s="11"/>
-      <c r="X399" s="11"/>
-      <c r="Y399" s="11"/>
-      <c r="Z399" s="11"/>
       <c r="AA399" s="95"/>
       <c r="AB399" s="95"/>
       <c r="AC399" s="95"/>
@@ -31149,12 +31110,1817 @@
       <c r="AD400" s="95"/>
       <c r="AE400" s="95"/>
     </row>
+    <row r="401" customHeight="1" spans="1:29">
+      <c r="A401" s="22">
+        <v>399</v>
+      </c>
+      <c r="B401" s="23">
+        <v>240423001</v>
+      </c>
+      <c r="C401" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D401" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E401" s="61">
+        <f>IF(C401="","",WEEKNUM(C401,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F401" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G401" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H401" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I401" s="22" t="str">
+        <f>VLOOKUP(H401,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3EFPRO</v>
+      </c>
+      <c r="J401" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K401" s="22">
+        <v>432</v>
+      </c>
+      <c r="L401" s="22">
+        <v>32</v>
+      </c>
+      <c r="M401" s="22"/>
+      <c r="N401" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O401" s="22"/>
+      <c r="P401" s="22"/>
+      <c r="Q401" s="22"/>
+      <c r="R401" s="22"/>
+      <c r="S401" s="22"/>
+      <c r="T401" s="22">
+        <f>SUM(O401:S401)</f>
+        <v>0</v>
+      </c>
+      <c r="U401" s="27"/>
+      <c r="V401" s="10"/>
+      <c r="W401" s="11"/>
+      <c r="X401" s="11"/>
+      <c r="Y401" s="11"/>
+      <c r="Z401" s="11"/>
+      <c r="AA401" s="95"/>
+      <c r="AB401" s="95"/>
+      <c r="AC401" s="95"/>
+    </row>
+    <row r="402" customHeight="1" spans="1:29">
+      <c r="A402" s="22">
+        <v>400</v>
+      </c>
+      <c r="B402" s="22">
+        <v>240423002</v>
+      </c>
+      <c r="C402" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D402" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E402" s="61">
+        <f>IF(C402="","",WEEKNUM(C402,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F402" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G402" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H402" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I402" s="22" t="str">
+        <f>VLOOKUP(H402,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J402" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K402" s="22">
+        <v>432</v>
+      </c>
+      <c r="L402" s="22">
+        <v>32</v>
+      </c>
+      <c r="M402" s="22"/>
+      <c r="N402" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O402" s="22"/>
+      <c r="P402" s="22"/>
+      <c r="Q402" s="22"/>
+      <c r="R402" s="22"/>
+      <c r="S402" s="22"/>
+      <c r="T402" s="22">
+        <f>SUM(O402:S402)</f>
+        <v>0</v>
+      </c>
+      <c r="U402" s="27"/>
+      <c r="V402" s="10"/>
+      <c r="W402" s="11"/>
+      <c r="X402" s="11"/>
+      <c r="Y402" s="11"/>
+      <c r="Z402" s="11"/>
+      <c r="AA402" s="95"/>
+      <c r="AB402" s="95"/>
+      <c r="AC402" s="95"/>
+    </row>
+    <row r="403" customHeight="1" spans="1:29">
+      <c r="A403" s="22">
+        <v>401</v>
+      </c>
+      <c r="B403" s="22">
+        <v>240423003</v>
+      </c>
+      <c r="C403" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D403" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E403" s="61">
+        <f>IF(C403="","",WEEKNUM(C403,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F403" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G403" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H403" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I403" s="22" t="str">
+        <f>VLOOKUP(H403,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J403" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K403" s="22">
+        <v>288</v>
+      </c>
+      <c r="L403" s="22">
+        <v>32</v>
+      </c>
+      <c r="M403" s="22"/>
+      <c r="N403" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O403" s="22"/>
+      <c r="P403" s="22"/>
+      <c r="Q403" s="22"/>
+      <c r="R403" s="22"/>
+      <c r="S403" s="22"/>
+      <c r="T403" s="22">
+        <f>SUM(O403:S403)</f>
+        <v>0</v>
+      </c>
+      <c r="U403" s="27"/>
+      <c r="V403" s="10"/>
+      <c r="W403" s="11"/>
+      <c r="X403" s="11"/>
+      <c r="Y403" s="11"/>
+      <c r="Z403" s="11"/>
+      <c r="AA403" s="95"/>
+      <c r="AB403" s="95"/>
+      <c r="AC403" s="95"/>
+    </row>
+    <row r="404" customHeight="1" spans="1:29">
+      <c r="A404" s="22">
+        <v>402</v>
+      </c>
+      <c r="B404" s="22">
+        <v>240423004</v>
+      </c>
+      <c r="C404" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D404" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E404" s="61">
+        <f>IF(C404="","",WEEKNUM(C404,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F404" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G404" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H404" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="I404" s="22" t="str">
+        <f>VLOOKUP(H404,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J404" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K404" s="22">
+        <v>917</v>
+      </c>
+      <c r="L404" s="22">
+        <v>32</v>
+      </c>
+      <c r="M404" s="22">
+        <v>1</v>
+      </c>
+      <c r="N404" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O404" s="22">
+        <v>1</v>
+      </c>
+      <c r="P404" s="22"/>
+      <c r="Q404" s="22"/>
+      <c r="R404" s="22"/>
+      <c r="S404" s="22"/>
+      <c r="T404" s="22">
+        <f>SUM(O404:S404)</f>
+        <v>1</v>
+      </c>
+      <c r="U404" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="V404" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W404" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X404" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y404" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z404" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA404" s="95"/>
+      <c r="AB404" s="95"/>
+      <c r="AC404" s="95" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="405" customHeight="1" spans="1:29">
+      <c r="A405" s="22">
+        <v>403</v>
+      </c>
+      <c r="B405" s="22">
+        <v>240423005</v>
+      </c>
+      <c r="C405" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D405" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E405" s="61">
+        <f>IF(C405="","",WEEKNUM(C405,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F405" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G405" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H405" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I405" s="22" t="str">
+        <f>VLOOKUP(H405,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J405" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K405" s="22">
+        <v>28</v>
+      </c>
+      <c r="L405" s="22">
+        <v>8</v>
+      </c>
+      <c r="M405" s="22"/>
+      <c r="N405" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O405" s="22"/>
+      <c r="P405" s="22"/>
+      <c r="Q405" s="22"/>
+      <c r="R405" s="22"/>
+      <c r="S405" s="22"/>
+      <c r="T405" s="22">
+        <f>SUM(O405:S405)</f>
+        <v>0</v>
+      </c>
+      <c r="U405" s="27"/>
+      <c r="V405" s="10"/>
+      <c r="W405" s="11"/>
+      <c r="X405" s="11"/>
+      <c r="Y405" s="11"/>
+      <c r="Z405" s="11"/>
+      <c r="AA405" s="95"/>
+      <c r="AB405" s="95"/>
+      <c r="AC405" s="95"/>
+    </row>
+    <row r="406" customHeight="1" spans="1:29">
+      <c r="A406" s="22">
+        <v>404</v>
+      </c>
+      <c r="B406" s="22">
+        <v>240423006</v>
+      </c>
+      <c r="C406" s="100">
+        <v>45405</v>
+      </c>
+      <c r="D406" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E406" s="61">
+        <f>IF(C406="","",WEEKNUM(C406,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F406" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G406" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H406" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I406" s="22" t="str">
+        <f>VLOOKUP(H406,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J406" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K406" s="22">
+        <v>720</v>
+      </c>
+      <c r="L406" s="22">
+        <v>32</v>
+      </c>
+      <c r="M406" s="22"/>
+      <c r="N406" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O406" s="22"/>
+      <c r="P406" s="22"/>
+      <c r="Q406" s="22"/>
+      <c r="R406" s="22"/>
+      <c r="S406" s="22"/>
+      <c r="T406" s="22">
+        <f>SUM(O406:S406)</f>
+        <v>0</v>
+      </c>
+      <c r="U406" s="27"/>
+      <c r="V406" s="10"/>
+      <c r="W406" s="11"/>
+      <c r="X406" s="11"/>
+      <c r="Y406" s="11"/>
+      <c r="Z406" s="11"/>
+      <c r="AA406" s="95"/>
+      <c r="AB406" s="95"/>
+      <c r="AC406" s="95"/>
+    </row>
+    <row r="407" customHeight="1" spans="1:29">
+      <c r="A407" s="22">
+        <v>405</v>
+      </c>
+      <c r="B407" s="23">
+        <v>240424001</v>
+      </c>
+      <c r="C407" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D407" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E407" s="61">
+        <f>IF(C407="","",WEEKNUM(C407,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F407" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G407" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H407" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I407" s="22" t="str">
+        <f>VLOOKUP(H407,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J407" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K407" s="22">
+        <v>339</v>
+      </c>
+      <c r="L407" s="22">
+        <v>32</v>
+      </c>
+      <c r="M407" s="22"/>
+      <c r="N407" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O407" s="22"/>
+      <c r="P407" s="22"/>
+      <c r="Q407" s="22"/>
+      <c r="R407" s="22"/>
+      <c r="S407" s="22"/>
+      <c r="T407" s="22">
+        <f>SUM(O407:S407)</f>
+        <v>0</v>
+      </c>
+      <c r="U407" s="27"/>
+      <c r="V407" s="10"/>
+      <c r="W407" s="11"/>
+      <c r="X407" s="11"/>
+      <c r="Y407" s="11"/>
+      <c r="Z407" s="11"/>
+      <c r="AA407" s="95"/>
+      <c r="AB407" s="95"/>
+      <c r="AC407" s="95"/>
+    </row>
+    <row r="408" customHeight="1" spans="1:29">
+      <c r="A408" s="22">
+        <v>406</v>
+      </c>
+      <c r="B408" s="22">
+        <v>240424002</v>
+      </c>
+      <c r="C408" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D408" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E408" s="61">
+        <f>IF(C408="","",WEEKNUM(C408,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F408" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G408" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H408" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I408" s="22" t="str">
+        <f>VLOOKUP(H408,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3EFPRO</v>
+      </c>
+      <c r="J408" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K408" s="22">
+        <v>136</v>
+      </c>
+      <c r="L408" s="22">
+        <v>8</v>
+      </c>
+      <c r="M408" s="22">
+        <v>1</v>
+      </c>
+      <c r="N408" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O408" s="22">
+        <v>1</v>
+      </c>
+      <c r="P408" s="22"/>
+      <c r="Q408" s="22"/>
+      <c r="R408" s="22"/>
+      <c r="S408" s="22"/>
+      <c r="T408" s="22">
+        <f>SUM(O408:S408)</f>
+        <v>1</v>
+      </c>
+      <c r="U408" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="V408" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W408" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X408" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y408" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z408" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA408" s="95"/>
+      <c r="AB408" s="95"/>
+      <c r="AC408" s="95"/>
+    </row>
+    <row r="409" customHeight="1" spans="1:29">
+      <c r="A409" s="22">
+        <v>407</v>
+      </c>
+      <c r="B409" s="22">
+        <v>240424003</v>
+      </c>
+      <c r="C409" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D409" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E409" s="61">
+        <f>IF(C409="","",WEEKNUM(C409,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F409" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G409" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="H409" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I409" s="22" t="str">
+        <f>VLOOKUP(H409,[2]外O细分型号!A:B,2,0)</f>
+        <v>G500</v>
+      </c>
+      <c r="J409" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K409" s="22">
+        <v>184</v>
+      </c>
+      <c r="L409" s="22">
+        <v>8</v>
+      </c>
+      <c r="M409" s="22"/>
+      <c r="N409" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O409" s="22"/>
+      <c r="P409" s="22"/>
+      <c r="Q409" s="22"/>
+      <c r="R409" s="22"/>
+      <c r="S409" s="22"/>
+      <c r="T409" s="22">
+        <f>SUM(O409:S409)</f>
+        <v>0</v>
+      </c>
+      <c r="U409" s="27"/>
+      <c r="V409" s="10"/>
+      <c r="W409" s="11"/>
+      <c r="X409" s="11"/>
+      <c r="Y409" s="11"/>
+      <c r="Z409" s="11"/>
+      <c r="AA409" s="95"/>
+      <c r="AB409" s="95"/>
+      <c r="AC409" s="95"/>
+    </row>
+    <row r="410" customHeight="1" spans="1:29">
+      <c r="A410" s="22">
+        <v>408</v>
+      </c>
+      <c r="B410" s="22">
+        <v>240424004</v>
+      </c>
+      <c r="C410" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D410" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E410" s="61">
+        <f>IF(C410="","",WEEKNUM(C410,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F410" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G410" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H410" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I410" s="22" t="str">
+        <f>VLOOKUP(H410,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J410" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K410" s="22">
+        <v>33</v>
+      </c>
+      <c r="L410" s="22">
+        <v>8</v>
+      </c>
+      <c r="M410" s="22"/>
+      <c r="N410" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O410" s="22"/>
+      <c r="P410" s="22"/>
+      <c r="Q410" s="22"/>
+      <c r="R410" s="22"/>
+      <c r="S410" s="22"/>
+      <c r="T410" s="22">
+        <f>SUM(O410:S410)</f>
+        <v>0</v>
+      </c>
+      <c r="U410" s="27"/>
+      <c r="V410" s="10"/>
+      <c r="W410" s="11"/>
+      <c r="X410" s="11"/>
+      <c r="Y410" s="11"/>
+      <c r="Z410" s="11"/>
+      <c r="AA410" s="95"/>
+      <c r="AB410" s="95"/>
+      <c r="AC410" s="95"/>
+    </row>
+    <row r="411" customHeight="1" spans="1:29">
+      <c r="A411" s="22">
+        <v>409</v>
+      </c>
+      <c r="B411" s="22">
+        <v>240424005</v>
+      </c>
+      <c r="C411" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D411" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E411" s="61">
+        <f>IF(C411="","",WEEKNUM(C411,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F411" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G411" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H411" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I411" s="22" t="str">
+        <f>VLOOKUP(H411,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J411" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K411" s="22">
+        <v>1300</v>
+      </c>
+      <c r="L411" s="22">
+        <v>50</v>
+      </c>
+      <c r="M411" s="22"/>
+      <c r="N411" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O411" s="22"/>
+      <c r="P411" s="22"/>
+      <c r="Q411" s="22"/>
+      <c r="R411" s="22"/>
+      <c r="S411" s="22"/>
+      <c r="T411" s="22">
+        <f>SUM(O411:S411)</f>
+        <v>0</v>
+      </c>
+      <c r="U411" s="27"/>
+      <c r="V411" s="10"/>
+      <c r="W411" s="11"/>
+      <c r="X411" s="11"/>
+      <c r="Y411" s="11"/>
+      <c r="Z411" s="11"/>
+      <c r="AA411" s="95"/>
+      <c r="AB411" s="95"/>
+      <c r="AC411" s="95"/>
+    </row>
+    <row r="412" customHeight="1" spans="1:29">
+      <c r="A412" s="22">
+        <v>410</v>
+      </c>
+      <c r="B412" s="22">
+        <v>240424006</v>
+      </c>
+      <c r="C412" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D412" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E412" s="61">
+        <f>IF(C412="","",WEEKNUM(C412,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F412" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G412" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H412" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I412" s="22" t="str">
+        <f>VLOOKUP(H412,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J412" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K412" s="22">
+        <v>144</v>
+      </c>
+      <c r="L412" s="22">
+        <v>8</v>
+      </c>
+      <c r="M412" s="22"/>
+      <c r="N412" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O412" s="22"/>
+      <c r="P412" s="22"/>
+      <c r="Q412" s="22"/>
+      <c r="R412" s="22"/>
+      <c r="S412" s="22"/>
+      <c r="T412" s="22">
+        <f>SUM(O412:S412)</f>
+        <v>0</v>
+      </c>
+      <c r="U412" s="27"/>
+      <c r="V412" s="10"/>
+      <c r="W412" s="11"/>
+      <c r="X412" s="11"/>
+      <c r="Y412" s="11"/>
+      <c r="Z412" s="11"/>
+      <c r="AA412" s="95"/>
+      <c r="AB412" s="95"/>
+      <c r="AC412" s="95"/>
+    </row>
+    <row r="413" customHeight="1" spans="1:29">
+      <c r="A413" s="22">
+        <v>411</v>
+      </c>
+      <c r="B413" s="22">
+        <v>240424007</v>
+      </c>
+      <c r="C413" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D413" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E413" s="61">
+        <f>IF(C413="","",WEEKNUM(C413,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F413" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G413" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H413" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I413" s="22" t="str">
+        <f>VLOOKUP(H413,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J413" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K413" s="22">
+        <v>800</v>
+      </c>
+      <c r="L413" s="22">
+        <v>13</v>
+      </c>
+      <c r="M413" s="22"/>
+      <c r="N413" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O413" s="22"/>
+      <c r="P413" s="22"/>
+      <c r="Q413" s="22"/>
+      <c r="R413" s="22"/>
+      <c r="S413" s="22"/>
+      <c r="T413" s="22">
+        <f>SUM(O413:S413)</f>
+        <v>0</v>
+      </c>
+      <c r="U413" s="27"/>
+      <c r="V413" s="10"/>
+      <c r="W413" s="11"/>
+      <c r="X413" s="11"/>
+      <c r="Y413" s="11"/>
+      <c r="Z413" s="11"/>
+      <c r="AA413" s="95"/>
+      <c r="AB413" s="95"/>
+      <c r="AC413" s="95"/>
+    </row>
+    <row r="414" customHeight="1" spans="1:29">
+      <c r="A414" s="22">
+        <v>412</v>
+      </c>
+      <c r="B414" s="22">
+        <v>240424008</v>
+      </c>
+      <c r="C414" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D414" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E414" s="61">
+        <f>IF(C414="","",WEEKNUM(C414,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F414" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G414" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H414" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I414" s="22" t="str">
+        <f>VLOOKUP(H414,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J414" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K414" s="22">
+        <v>181</v>
+      </c>
+      <c r="L414" s="22">
+        <v>13</v>
+      </c>
+      <c r="M414" s="22">
+        <v>13</v>
+      </c>
+      <c r="N414" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O414" s="22">
+        <v>1</v>
+      </c>
+      <c r="P414" s="22"/>
+      <c r="Q414" s="22"/>
+      <c r="R414" s="22"/>
+      <c r="S414" s="22"/>
+      <c r="T414" s="22">
+        <f>SUM(O414:S414)</f>
+        <v>1</v>
+      </c>
+      <c r="U414" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="V414" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W414" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X414" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y414" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z414" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA414" s="95"/>
+      <c r="AB414" s="95"/>
+      <c r="AC414" s="95"/>
+    </row>
+    <row r="415" customHeight="1" spans="1:29">
+      <c r="A415" s="22">
+        <v>413</v>
+      </c>
+      <c r="B415" s="22">
+        <v>240424008</v>
+      </c>
+      <c r="C415" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D415" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E415" s="61">
+        <f>IF(C415="","",WEEKNUM(C415,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F415" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G415" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H415" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I415" s="22" t="str">
+        <f>VLOOKUP(H415,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J415" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K415" s="22"/>
+      <c r="L415" s="22"/>
+      <c r="M415" s="22"/>
+      <c r="N415" s="22"/>
+      <c r="O415" s="22"/>
+      <c r="P415" s="22"/>
+      <c r="Q415" s="22"/>
+      <c r="R415" s="22">
+        <v>1</v>
+      </c>
+      <c r="S415" s="22"/>
+      <c r="T415" s="22">
+        <f>SUM(O415:S415)</f>
+        <v>1</v>
+      </c>
+      <c r="U415" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="V415" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W415" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X415" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y415" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z415" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA415" s="95"/>
+      <c r="AB415" s="95"/>
+      <c r="AC415" s="95"/>
+    </row>
+    <row r="416" customHeight="1" spans="1:29">
+      <c r="A416" s="22">
+        <v>414</v>
+      </c>
+      <c r="B416" s="22">
+        <v>240424008</v>
+      </c>
+      <c r="C416" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D416" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E416" s="61">
+        <f>IF(C416="","",WEEKNUM(C416,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F416" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G416" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H416" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I416" s="22" t="str">
+        <f>VLOOKUP(H416,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J416" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K416" s="22"/>
+      <c r="L416" s="22"/>
+      <c r="M416" s="22"/>
+      <c r="N416" s="22"/>
+      <c r="O416" s="22">
+        <v>1</v>
+      </c>
+      <c r="P416" s="22"/>
+      <c r="Q416" s="22"/>
+      <c r="R416" s="22"/>
+      <c r="S416" s="22"/>
+      <c r="T416" s="22">
+        <f>SUM(O416:S416)</f>
+        <v>1</v>
+      </c>
+      <c r="U416" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="V416" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W416" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X416" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y416" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z416" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA416" s="95"/>
+      <c r="AB416" s="95"/>
+      <c r="AC416" s="95"/>
+    </row>
+    <row r="417" customHeight="1" spans="1:29">
+      <c r="A417" s="22">
+        <v>415</v>
+      </c>
+      <c r="B417" s="22">
+        <v>240424008</v>
+      </c>
+      <c r="C417" s="100">
+        <v>45406</v>
+      </c>
+      <c r="D417" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E417" s="61">
+        <f>IF(C417="","",WEEKNUM(C417,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F417" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G417" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H417" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I417" s="22" t="str">
+        <f>VLOOKUP(H417,[2]外O细分型号!A:B,2,0)</f>
+        <v>G109</v>
+      </c>
+      <c r="J417" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="K417" s="22"/>
+      <c r="L417" s="22"/>
+      <c r="M417" s="22"/>
+      <c r="N417" s="22"/>
+      <c r="O417" s="22">
+        <v>9</v>
+      </c>
+      <c r="P417" s="22"/>
+      <c r="Q417" s="22"/>
+      <c r="R417" s="22"/>
+      <c r="S417" s="22"/>
+      <c r="T417" s="22">
+        <f>SUM(O417:S417)</f>
+        <v>9</v>
+      </c>
+      <c r="U417" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="V417" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W417" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X417" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y417" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z417" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA417" s="95"/>
+      <c r="AB417" s="95"/>
+      <c r="AC417" s="95"/>
+    </row>
+    <row r="418" customHeight="1" spans="1:29">
+      <c r="A418" s="22">
+        <v>417</v>
+      </c>
+      <c r="B418" s="23">
+        <v>240425001</v>
+      </c>
+      <c r="C418" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D418" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E418" s="61">
+        <f>IF(C418="","",WEEKNUM(C418,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F418" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G418" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H418" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I418" s="22" t="str">
+        <f>VLOOKUP(H418,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J418" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K418" s="22">
+        <v>118</v>
+      </c>
+      <c r="L418" s="22">
+        <v>8</v>
+      </c>
+      <c r="M418" s="22"/>
+      <c r="N418" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O418" s="22"/>
+      <c r="P418" s="22"/>
+      <c r="Q418" s="22"/>
+      <c r="R418" s="22"/>
+      <c r="S418" s="22"/>
+      <c r="T418" s="22">
+        <f>SUM(O418:S418)</f>
+        <v>0</v>
+      </c>
+      <c r="U418" s="27"/>
+      <c r="V418" s="10"/>
+      <c r="W418" s="11"/>
+      <c r="X418" s="11"/>
+      <c r="Y418" s="11"/>
+      <c r="Z418" s="11"/>
+      <c r="AA418" s="95"/>
+      <c r="AB418" s="95"/>
+      <c r="AC418" s="95"/>
+    </row>
+    <row r="419" customHeight="1" spans="1:29">
+      <c r="A419" s="22">
+        <v>418</v>
+      </c>
+      <c r="B419" s="22">
+        <v>240425002</v>
+      </c>
+      <c r="C419" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D419" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E419" s="61">
+        <f>IF(C419="","",WEEKNUM(C419,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F419" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G419" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H419" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I419" s="22" t="str">
+        <f>VLOOKUP(H419,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J419" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K419" s="22">
+        <v>608</v>
+      </c>
+      <c r="L419" s="22">
+        <v>32</v>
+      </c>
+      <c r="M419" s="22">
+        <v>1</v>
+      </c>
+      <c r="N419" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O419" s="22">
+        <v>1</v>
+      </c>
+      <c r="P419" s="22"/>
+      <c r="Q419" s="22"/>
+      <c r="R419" s="22"/>
+      <c r="S419" s="22"/>
+      <c r="T419" s="22">
+        <f>SUM(O419:S419)</f>
+        <v>1</v>
+      </c>
+      <c r="U419" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="V419" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W419" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X419" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y419" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z419" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA419" s="95"/>
+      <c r="AB419" s="95"/>
+      <c r="AC419" s="95"/>
+    </row>
+    <row r="420" customHeight="1" spans="1:29">
+      <c r="A420" s="22">
+        <v>419</v>
+      </c>
+      <c r="B420" s="22">
+        <v>240425003</v>
+      </c>
+      <c r="C420" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D420" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E420" s="61">
+        <f>IF(C420="","",WEEKNUM(C420,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F420" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G420" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H420" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I420" s="22" t="str">
+        <f>VLOOKUP(H420,[2]外O细分型号!A:B,2,0)</f>
+        <v>P8</v>
+      </c>
+      <c r="J420" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K420" s="22">
+        <v>12</v>
+      </c>
+      <c r="L420" s="22">
+        <v>8</v>
+      </c>
+      <c r="M420" s="22"/>
+      <c r="N420" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O420" s="22"/>
+      <c r="P420" s="22"/>
+      <c r="Q420" s="22"/>
+      <c r="R420" s="22"/>
+      <c r="S420" s="22"/>
+      <c r="T420" s="22">
+        <f>SUM(O420:S420)</f>
+        <v>0</v>
+      </c>
+      <c r="U420" s="27"/>
+      <c r="V420" s="10"/>
+      <c r="W420" s="11"/>
+      <c r="X420" s="11"/>
+      <c r="Y420" s="11"/>
+      <c r="Z420" s="11"/>
+      <c r="AA420" s="95"/>
+      <c r="AB420" s="95"/>
+      <c r="AC420" s="95"/>
+    </row>
+    <row r="421" customHeight="1" spans="1:29">
+      <c r="A421" s="22">
+        <v>420</v>
+      </c>
+      <c r="B421" s="22">
+        <v>240425004</v>
+      </c>
+      <c r="C421" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D421" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E421" s="61">
+        <f>IF(C421="","",WEEKNUM(C421,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F421" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G421" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H421" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I421" s="22" t="str">
+        <f>VLOOKUP(H421,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J421" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K421" s="22">
+        <v>1542</v>
+      </c>
+      <c r="L421" s="22">
+        <v>50</v>
+      </c>
+      <c r="M421" s="22"/>
+      <c r="N421" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O421" s="22"/>
+      <c r="P421" s="22"/>
+      <c r="Q421" s="22"/>
+      <c r="R421" s="22"/>
+      <c r="S421" s="22"/>
+      <c r="T421" s="22">
+        <f>SUM(O421:S421)</f>
+        <v>0</v>
+      </c>
+      <c r="U421" s="27"/>
+      <c r="V421" s="10"/>
+      <c r="W421" s="11"/>
+      <c r="X421" s="11"/>
+      <c r="Y421" s="11"/>
+      <c r="Z421" s="11"/>
+      <c r="AA421" s="95"/>
+      <c r="AB421" s="95"/>
+      <c r="AC421" s="95"/>
+    </row>
+    <row r="422" customHeight="1" spans="1:29">
+      <c r="A422" s="22">
+        <v>421</v>
+      </c>
+      <c r="B422" s="22">
+        <v>240425005</v>
+      </c>
+      <c r="C422" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D422" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E422" s="61">
+        <f>IF(C422="","",WEEKNUM(C422,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F422" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G422" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H422" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I422" s="22" t="str">
+        <f>VLOOKUP(H422,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J422" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K422" s="22">
+        <v>824</v>
+      </c>
+      <c r="L422" s="22">
+        <v>32</v>
+      </c>
+      <c r="M422" s="22">
+        <v>2</v>
+      </c>
+      <c r="N422" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O422" s="22"/>
+      <c r="P422" s="22"/>
+      <c r="Q422" s="22">
+        <v>1</v>
+      </c>
+      <c r="R422" s="22"/>
+      <c r="S422" s="22"/>
+      <c r="T422" s="22">
+        <f>SUM(O422:S422)</f>
+        <v>1</v>
+      </c>
+      <c r="U422" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="V422" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W422" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X422" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y422" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z422" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA422" s="95"/>
+      <c r="AB422" s="95"/>
+      <c r="AC422" s="95"/>
+    </row>
+    <row r="423" customHeight="1" spans="1:29">
+      <c r="A423" s="22">
+        <v>422</v>
+      </c>
+      <c r="B423" s="22">
+        <v>240425005</v>
+      </c>
+      <c r="C423" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D423" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E423" s="61">
+        <f>IF(C423="","",WEEKNUM(C423,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F423" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G423" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H423" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I423" s="22" t="str">
+        <f>VLOOKUP(H423,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J423" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K423" s="22"/>
+      <c r="L423" s="22"/>
+      <c r="M423" s="22"/>
+      <c r="N423" s="22"/>
+      <c r="O423" s="22">
+        <v>1</v>
+      </c>
+      <c r="P423" s="22"/>
+      <c r="Q423" s="22"/>
+      <c r="R423" s="22"/>
+      <c r="S423" s="22"/>
+      <c r="T423" s="22">
+        <f>SUM(O423:S423)</f>
+        <v>1</v>
+      </c>
+      <c r="U423" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="V423" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W423" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X423" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y423" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z423" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA423" s="95"/>
+      <c r="AB423" s="95"/>
+      <c r="AC423" s="95"/>
+    </row>
+    <row r="424" customHeight="1" spans="1:29">
+      <c r="A424" s="22">
+        <v>423</v>
+      </c>
+      <c r="B424" s="22">
+        <v>240425006</v>
+      </c>
+      <c r="C424" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D424" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E424" s="61">
+        <f>IF(C424="","",WEEKNUM(C424,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F424" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G424" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H424" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I424" s="22" t="str">
+        <f>VLOOKUP(H424,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J424" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K424" s="22">
+        <v>356</v>
+      </c>
+      <c r="L424" s="22">
+        <v>32</v>
+      </c>
+      <c r="M424" s="22"/>
+      <c r="N424" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O424" s="95"/>
+      <c r="P424" s="95"/>
+      <c r="Q424" s="95"/>
+      <c r="R424" s="95"/>
+      <c r="S424" s="95"/>
+      <c r="T424" s="95"/>
+      <c r="U424" s="95"/>
+      <c r="V424" s="10"/>
+      <c r="W424" s="11"/>
+      <c r="X424" s="11"/>
+      <c r="Y424" s="11"/>
+      <c r="Z424" s="11"/>
+      <c r="AA424" s="95"/>
+      <c r="AB424" s="95"/>
+      <c r="AC424" s="95"/>
+    </row>
+    <row r="425" customHeight="1" spans="1:29">
+      <c r="A425" s="22">
+        <v>424</v>
+      </c>
+      <c r="B425" s="22">
+        <v>240425007</v>
+      </c>
+      <c r="C425" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D425" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E425" s="61">
+        <f>IF(C425="","",WEEKNUM(C425,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F425" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G425" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H425" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I425" s="22" t="str">
+        <f>VLOOKUP(H425,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J425" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K425" s="22">
+        <v>880</v>
+      </c>
+      <c r="L425" s="22">
+        <v>13</v>
+      </c>
+      <c r="M425" s="22"/>
+      <c r="N425" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O425" s="95"/>
+      <c r="P425" s="95"/>
+      <c r="Q425" s="95"/>
+      <c r="R425" s="95"/>
+      <c r="S425" s="95"/>
+      <c r="T425" s="95"/>
+      <c r="U425" s="95"/>
+      <c r="V425" s="10"/>
+      <c r="W425" s="11"/>
+      <c r="X425" s="11"/>
+      <c r="Y425" s="11"/>
+      <c r="Z425" s="11"/>
+      <c r="AA425" s="95"/>
+      <c r="AB425" s="95"/>
+      <c r="AC425" s="95"/>
+    </row>
+    <row r="426" customHeight="1" spans="1:29">
+      <c r="A426" s="22">
+        <v>425</v>
+      </c>
+      <c r="B426" s="22">
+        <v>240425008</v>
+      </c>
+      <c r="C426" s="100">
+        <v>45407</v>
+      </c>
+      <c r="D426" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E426" s="61">
+        <f>IF(C426="","",WEEKNUM(C426,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F426" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G426" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="H426" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I426" s="22" t="str">
+        <f>VLOOKUP(H426,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J426" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K426" s="22">
+        <v>240</v>
+      </c>
+      <c r="L426" s="22">
+        <v>8</v>
+      </c>
+      <c r="M426" s="22"/>
+      <c r="N426" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O426" s="95"/>
+      <c r="P426" s="95"/>
+      <c r="Q426" s="95"/>
+      <c r="R426" s="95"/>
+      <c r="S426" s="95"/>
+      <c r="T426" s="95"/>
+      <c r="U426" s="95"/>
+      <c r="V426" s="10"/>
+      <c r="W426" s="11"/>
+      <c r="X426" s="11"/>
+      <c r="Y426" s="11"/>
+      <c r="Z426" s="11"/>
+      <c r="AA426" s="95"/>
+      <c r="AB426" s="95"/>
+      <c r="AC426" s="95"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" dxfId="0" priority="178" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="180" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="cellIs" dxfId="0" priority="175" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="177" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="0" priority="172" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="174" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="167" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="168" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="cellIs" dxfId="0" priority="163" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="164" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="161" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="162" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="155" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="156" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
     <cfRule type="cellIs" dxfId="0" priority="157" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31165,18 +32931,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="155" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="156" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="N43">
     <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31187,7 +32942,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="146" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="147" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
     <cfRule type="cellIs" dxfId="0" priority="148" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31198,18 +32964,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="146" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="147" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="N63">
     <cfRule type="cellIs" dxfId="0" priority="142" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31220,7 +32975,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
+  <conditionalFormatting sqref="N66">
     <cfRule type="cellIs" dxfId="0" priority="139" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31231,7 +32986,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
+  <conditionalFormatting sqref="N67">
+    <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="137" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="138" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
     <cfRule type="cellIs" dxfId="0" priority="133" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -31242,407 +33008,385 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
+  <conditionalFormatting sqref="N75">
+    <cfRule type="cellIs" dxfId="3" priority="2483" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="137" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="138" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="131" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="132" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="125" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="126" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="129" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="cellIs" dxfId="0" priority="121" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="122" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="123" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="120" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="116" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="114" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="3" priority="2462" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2463" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2484" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80">
-    <cfRule type="cellIs" dxfId="3" priority="2460" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2481" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2461" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2482" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81">
-    <cfRule type="cellIs" dxfId="3" priority="2458" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2479" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2480" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N82">
-    <cfRule type="cellIs" dxfId="3" priority="2456" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2477" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2457" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2478" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85">
-    <cfRule type="cellIs" dxfId="3" priority="2454" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2475" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2455" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2476" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89">
-    <cfRule type="cellIs" dxfId="3" priority="2450" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2471" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2451" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2472" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92">
-    <cfRule type="cellIs" dxfId="3" priority="2452" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2473" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2453" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2474" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93">
-    <cfRule type="cellIs" dxfId="3" priority="2448" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2469" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2449" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2470" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94">
-    <cfRule type="cellIs" dxfId="3" priority="2446" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2467" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2447" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2468" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N95">
-    <cfRule type="cellIs" dxfId="3" priority="2444" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2465" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2445" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2466" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="cellIs" dxfId="3" priority="2442" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2463" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2443" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2464" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103">
-    <cfRule type="cellIs" dxfId="3" priority="2440" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2461" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2441" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2462" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105">
-    <cfRule type="cellIs" dxfId="3" priority="2438" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2459" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2460" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106">
-    <cfRule type="cellIs" dxfId="3" priority="2436" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2457" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2458" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111">
-    <cfRule type="cellIs" dxfId="3" priority="2434" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2455" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2456" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N118">
-    <cfRule type="cellIs" dxfId="3" priority="2432" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2453" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2454" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N119">
-    <cfRule type="cellIs" dxfId="3" priority="2430" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2451" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2431" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2452" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120">
-    <cfRule type="cellIs" dxfId="3" priority="2428" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2449" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2429" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2450" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N121">
-    <cfRule type="cellIs" dxfId="3" priority="2426" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2447" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2448" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N126">
-    <cfRule type="cellIs" dxfId="3" priority="2424" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2445" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2425" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2446" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N131">
-    <cfRule type="cellIs" dxfId="3" priority="2422" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2443" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2444" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N134">
-    <cfRule type="cellIs" dxfId="3" priority="2420" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2441" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2421" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2442" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N135">
-    <cfRule type="cellIs" dxfId="3" priority="2418" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2439" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2419" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2440" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N139">
-    <cfRule type="cellIs" dxfId="3" priority="2416" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2437" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2438" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N140">
-    <cfRule type="cellIs" dxfId="3" priority="2412" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2433" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2413" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2434" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N141">
-    <cfRule type="cellIs" dxfId="3" priority="2410" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2431" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2411" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2432" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N142">
-    <cfRule type="cellIs" dxfId="3" priority="2408" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2429" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2409" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2430" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N143">
-    <cfRule type="cellIs" dxfId="3" priority="2406" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2427" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2407" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2428" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N145">
-    <cfRule type="cellIs" dxfId="3" priority="2404" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2425" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2405" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2426" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147">
-    <cfRule type="cellIs" dxfId="3" priority="2402" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2423" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2424" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N152">
-    <cfRule type="cellIs" dxfId="3" priority="2400" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2421" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2422" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N155">
-    <cfRule type="cellIs" dxfId="3" priority="2398" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2419" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2399" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2420" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N162">
-    <cfRule type="cellIs" dxfId="3" priority="2396" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2417" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2397" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2418" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N165">
-    <cfRule type="cellIs" dxfId="3" priority="2394" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2415" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2395" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2416" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N167">
-    <cfRule type="cellIs" dxfId="3" priority="2392" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2413" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2393" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2414" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N169">
-    <cfRule type="cellIs" dxfId="3" priority="2390" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2411" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2391" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2412" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N170">
-    <cfRule type="cellIs" dxfId="3" priority="2388" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2409" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2389" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2410" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N176">
-    <cfRule type="cellIs" dxfId="3" priority="2386" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2407" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2387" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2408" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N177">
-    <cfRule type="cellIs" dxfId="3" priority="2384" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2405" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2385" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2406" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
+    <cfRule type="cellIs" dxfId="2" priority="96" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N197">
+    <cfRule type="cellIs" dxfId="2" priority="93" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N202">
+    <cfRule type="cellIs" dxfId="2" priority="90" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N205">
+    <cfRule type="cellIs" dxfId="2" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N249">
+    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N255">
+    <cfRule type="cellIs" dxfId="2" priority="81" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N274">
     <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31653,7 +33397,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197">
+  <conditionalFormatting sqref="N275">
+    <cfRule type="cellIs" dxfId="2" priority="78" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N280">
     <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31664,7 +33419,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N202">
+  <conditionalFormatting sqref="N290">
+    <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N291">
     <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31675,18 +33441,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N205">
-    <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
+  <conditionalFormatting sqref="N304">
+    <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N249">
+  <conditionalFormatting sqref="N305">
     <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31697,18 +33463,29 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N255">
-    <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
+  <conditionalFormatting sqref="N309">
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N274">
+  <conditionalFormatting sqref="N311">
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N312">
     <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31719,29 +33496,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N275">
-    <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
+  <conditionalFormatting sqref="N327">
+    <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N280">
-    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N290">
+  <conditionalFormatting sqref="N333">
     <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31752,18 +33518,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N291">
-    <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
+  <conditionalFormatting sqref="N350">
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N304">
+  <conditionalFormatting sqref="N353">
     <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31774,18 +33540,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N305">
-    <cfRule type="cellIs" dxfId="2" priority="42" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N309">
+  <conditionalFormatting sqref="N360">
     <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31796,7 +33551,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N311">
+  <conditionalFormatting sqref="N371">
     <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31807,7 +33562,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N312">
+  <conditionalFormatting sqref="N372">
     <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31818,7 +33573,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N327">
+  <conditionalFormatting sqref="N380">
     <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31829,7 +33584,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N333">
+  <conditionalFormatting sqref="N382">
     <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31840,40 +33595,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N350">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+  <conditionalFormatting sqref="N408">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N353">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N360">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N371">
+  <conditionalFormatting sqref="N414">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31884,18 +33617,51 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N372">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+  <conditionalFormatting sqref="N415">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N380">
+  <conditionalFormatting sqref="N416">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N417">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N422">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N423">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -31906,56 +33672,45 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N382">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="N2 N76:N79 N84 N86:N88 N90:N91 N96:N99 N101:N102 N104 N107:N110 N112:N117 N122:N125 N127:N130 N132:N133 N136:N138 N156:N161 N164 N168 N172:N175">
+    <cfRule type="cellIs" dxfId="3" priority="2493" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2 N76:N79 N84 N86:N88 N90:N91 N96:N99 N101:N102 N104 N107:N110 N112:N117 N122:N125 N127:N130 N132:N133 N136:N138 N156:N161 N164 N168 N172:N175">
-    <cfRule type="cellIs" dxfId="3" priority="2472" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2473" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2494" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N144 N153:N154 N148:N151 N146">
-    <cfRule type="cellIs" dxfId="3" priority="2414" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2435" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2436" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z401 Z402 Z403 Z404 Z405 Z406 Z407 Z408 Z409 Z410 Z411 Z412 Z413 Z418 Z419 Z420 Z421 Z422 Z423 Z424 Z425 Z426 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372 Z414:Z417">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 W75:W177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 W75:W177">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
       <formula1>INDIRECT($W3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N405 N406 N407 N408 N414 N422 N423 N426 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398 N401:N404 N409:N413 N415:N417 N418:N421 N424:N425">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y177">
       <formula1>INDIRECT($X75)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X177">
@@ -31992,10 +33747,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -32016,7 +33771,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -32040,10 +33795,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -32051,28 +33806,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -32096,7 +33851,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -32112,18 +33867,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -32136,7 +33891,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -32144,7 +33899,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -32160,7 +33915,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -32168,15 +33923,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -32200,7 +33955,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -32240,10 +33995,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -32264,7 +34019,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -32280,7 +34035,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -32312,7 +34067,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -32320,7 +34075,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -32328,7 +34083,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -32376,26 +34131,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -32448,7 +34203,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -32464,7 +34219,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -2313,7 +2313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2680,9 +2680,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4062,9 +4059,9 @@
   <dimension ref="A1:AE426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U423" sqref="U423"/>
+      <selection pane="bottomLeft" activeCell="I424" sqref="I424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4240,7 +4237,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="22">
-        <f>WEEKNUM(C3,1)</f>
+        <f t="shared" ref="E3:E66" si="0">WEEKNUM(C3,1)</f>
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -4274,7 +4271,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f>SUM(O3:S3)</f>
+        <f t="shared" ref="T3:T27" si="1">SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -4303,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f>WEEKNUM(C4,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -4337,7 +4334,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f>SUM(O4:S4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -4366,7 +4363,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f>WEEKNUM(C5,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -4400,7 +4397,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f>SUM(O5:S5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -4429,7 +4426,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f>WEEKNUM(C6,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -4463,7 +4460,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f>SUM(O6:S6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -4492,7 +4489,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f>WEEKNUM(C7,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -4530,7 +4527,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f>SUM(O7:S7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -4571,7 +4568,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f>WEEKNUM(C8,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -4601,7 +4598,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f>SUM(O8:S8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -4642,7 +4639,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f>WEEKNUM(C9,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -4676,7 +4673,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f>SUM(O9:S9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -4705,7 +4702,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f>WEEKNUM(C10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -4743,7 +4740,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f>SUM(O10:S10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -4786,7 +4783,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f>WEEKNUM(C11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -4820,7 +4817,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f>SUM(O11:S11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -4849,7 +4846,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f>WEEKNUM(C12,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -4883,7 +4880,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f>SUM(O12:S12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -4912,7 +4909,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f>WEEKNUM(C13,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -4946,7 +4943,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f>SUM(O13:S13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -4975,7 +4972,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f>WEEKNUM(C14,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -5013,7 +5010,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f>SUM(O14:S14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -5056,7 +5053,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f>WEEKNUM(C15,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -5086,7 +5083,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f>SUM(O15:S15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -5127,7 +5124,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f>WEEKNUM(C16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -5165,7 +5162,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f>SUM(O16:S16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -5206,7 +5203,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f>WEEKNUM(C17,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -5236,7 +5233,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f>SUM(O17:S17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -5277,7 +5274,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f>WEEKNUM(C18,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5315,7 +5312,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f>SUM(O18:S18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -5356,7 +5353,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f>WEEKNUM(C19,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -5386,7 +5383,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f>SUM(O19:S19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -5427,7 +5424,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f>WEEKNUM(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -5461,7 +5458,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f>SUM(O20:S20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -5490,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f>WEEKNUM(C21,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -5524,7 +5521,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f>SUM(O21:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -5553,7 +5550,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f>WEEKNUM(C22,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -5591,7 +5588,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f>SUM(O22:S22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -5632,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f>WEEKNUM(C23,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5662,7 +5659,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f>SUM(O23:S23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -5703,7 +5700,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f>WEEKNUM(C24,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -5737,7 +5734,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f>SUM(O24:S24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -5766,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f>WEEKNUM(C25,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -5800,7 +5797,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f>SUM(O25:S25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -5829,7 +5826,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f>WEEKNUM(C26,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -5863,7 +5860,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f>SUM(O26:S26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -5892,7 +5889,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f>WEEKNUM(C27,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -5926,7 +5923,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f>SUM(O27:S27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -5955,7 +5952,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f>WEEKNUM(C28,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -6018,7 +6015,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f>WEEKNUM(C29,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -6081,7 +6078,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f>WEEKNUM(C30,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -6160,7 +6157,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f>WEEKNUM(C31,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -6239,7 +6236,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f>WEEKNUM(C32,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -6302,7 +6299,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f>WEEKNUM(C33,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -6381,7 +6378,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f>WEEKNUM(C34,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -6444,7 +6441,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f>WEEKNUM(C35,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -6507,7 +6504,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f>WEEKNUM(C36,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6570,7 +6567,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f>WEEKNUM(C37,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -6649,7 +6646,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f>WEEKNUM(C38,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -6687,7 +6684,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f>SUM(O38:S38)</f>
+        <f t="shared" ref="T38:T74" si="2">SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -6728,7 +6725,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f>WEEKNUM(C39,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6762,7 +6759,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f>SUM(O39:S39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -6791,7 +6788,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f>WEEKNUM(C40,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -6831,7 +6828,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f>SUM(O40:S40)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -6872,7 +6869,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f>WEEKNUM(C41,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -6910,7 +6907,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f>SUM(O41:S41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -6951,7 +6948,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f>WEEKNUM(C42,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6981,7 +6978,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f>SUM(O42:S42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -7022,7 +7019,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f>WEEKNUM(C43,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -7060,7 +7057,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f>SUM(O43:S43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -7101,7 +7098,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f>WEEKNUM(C44,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -7135,7 +7132,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f>SUM(O44:S44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -7164,7 +7161,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f>WEEKNUM(C45,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -7198,7 +7195,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f>SUM(O45:S45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -7227,7 +7224,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f>WEEKNUM(C46,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -7261,7 +7258,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f>SUM(O46:S46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -7290,7 +7287,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f>WEEKNUM(C47,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -7324,7 +7321,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f>SUM(O47:S47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -7353,7 +7350,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f>WEEKNUM(C48,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -7387,7 +7384,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f>SUM(O48:S48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -7416,7 +7413,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f>WEEKNUM(C49,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -7450,7 +7447,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f>SUM(O49:S49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -7479,7 +7476,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f>WEEKNUM(C50,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -7517,7 +7514,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f>SUM(O50:S50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -7558,7 +7555,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f>WEEKNUM(C51,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -7592,7 +7589,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f>SUM(O51:S51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -7621,7 +7618,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f>WEEKNUM(C52,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -7659,7 +7656,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f>SUM(O52:S52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -7700,7 +7697,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f>WEEKNUM(C53,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -7730,7 +7727,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f>SUM(O53:S53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -7771,7 +7768,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f>WEEKNUM(C54,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -7809,7 +7806,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f>SUM(O54:S54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -7850,7 +7847,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f>WEEKNUM(C55,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -7884,7 +7881,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f>SUM(O55:S55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -7913,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f>WEEKNUM(C56,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -7947,7 +7944,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f>SUM(O56:S56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -7976,7 +7973,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f>WEEKNUM(C57,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -8010,7 +8007,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f>SUM(O57:S57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -8039,7 +8036,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f>WEEKNUM(C58,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -8073,7 +8070,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f>SUM(O58:S58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -8102,7 +8099,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f>WEEKNUM(C59,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -8136,7 +8133,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f>SUM(O59:S59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -8165,7 +8162,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f>WEEKNUM(C60,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -8203,7 +8200,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f>SUM(O60:S60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -8244,7 +8241,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f>WEEKNUM(C61,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -8278,7 +8275,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f>SUM(O61:S61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -8307,7 +8304,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f>WEEKNUM(C62,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -8341,7 +8338,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f>SUM(O62:S62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -8370,7 +8367,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f>WEEKNUM(C63,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -8408,7 +8405,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f>SUM(O63:S63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -8449,7 +8446,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f>WEEKNUM(C64,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -8479,7 +8476,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f>SUM(O64:S64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -8520,7 +8517,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f>WEEKNUM(C65,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -8558,7 +8555,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f>SUM(O65:S65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -8599,7 +8596,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f>WEEKNUM(C66,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -8629,7 +8626,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f>SUM(O66:S66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -8670,7 +8667,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f>WEEKNUM(C67,1)</f>
+        <f t="shared" ref="E67:E130" si="3">WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -8708,7 +8705,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f>SUM(O67:S67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -8749,7 +8746,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f>WEEKNUM(C68,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -8787,7 +8784,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f>SUM(O68:S68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -8828,7 +8825,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f>WEEKNUM(C69,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -8862,7 +8859,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f>SUM(O69:S69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -8891,7 +8888,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f>WEEKNUM(C70,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -8925,7 +8922,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f>SUM(O70:S70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -8954,7 +8951,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f>WEEKNUM(C71,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -8988,7 +8985,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f>SUM(O71:S71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -9017,7 +9014,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f>WEEKNUM(C72,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -9051,7 +9048,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f>SUM(O72:S72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -9080,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f>WEEKNUM(C73,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -9118,7 +9115,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f>SUM(O73:S73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -9159,7 +9156,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f>WEEKNUM(C74,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -9193,7 +9190,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f>SUM(O74:S74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -9222,7 +9219,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f>WEEKNUM(C75,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -9300,7 +9297,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f>WEEKNUM(C76,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -9378,7 +9375,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f>WEEKNUM(C77,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -9448,7 +9445,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f>WEEKNUM(C78,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -9510,7 +9507,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f>WEEKNUM(C79,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -9572,7 +9569,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f>WEEKNUM(C80,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -9634,7 +9631,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f>WEEKNUM(C81,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -9696,7 +9693,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f>WEEKNUM(C82,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -9758,7 +9755,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f>WEEKNUM(C83,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -9820,7 +9817,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f>WEEKNUM(C84,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -9898,7 +9895,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f>WEEKNUM(C85,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -9960,7 +9957,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f>WEEKNUM(C86,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -10022,7 +10019,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f>WEEKNUM(C87,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -10084,7 +10081,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f>WEEKNUM(C88,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -10146,7 +10143,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f>WEEKNUM(C89,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -10208,7 +10205,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f>WEEKNUM(C90,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -10286,7 +10283,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f>WEEKNUM(C91,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -10364,7 +10361,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f>WEEKNUM(C92,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -10442,7 +10439,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f>WEEKNUM(C93,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -10504,7 +10501,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f>WEEKNUM(C94,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -10566,7 +10563,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f>WEEKNUM(C95,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -10628,7 +10625,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f>WEEKNUM(C96,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -10706,7 +10703,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f>WEEKNUM(C97,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -10768,7 +10765,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f>WEEKNUM(C98,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -10830,7 +10827,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f>WEEKNUM(C99,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -10892,7 +10889,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f>WEEKNUM(C100,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -10968,7 +10965,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f>WEEKNUM(C101,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -11030,7 +11027,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f>WEEKNUM(C102,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -11108,7 +11105,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f>WEEKNUM(C103,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -11170,7 +11167,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f>WEEKNUM(C104,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -11232,7 +11229,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f>WEEKNUM(C105,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -11294,7 +11291,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f>WEEKNUM(C106,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -11372,7 +11369,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f>WEEKNUM(C107,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -11450,7 +11447,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f>WEEKNUM(C108,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -11518,7 +11515,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f>WEEKNUM(C109,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -11580,7 +11577,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f>WEEKNUM(C110,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -11642,7 +11639,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f>WEEKNUM(C111,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -11704,7 +11701,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f>WEEKNUM(C112,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -11782,7 +11779,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f>WEEKNUM(C113,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -11852,7 +11849,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f>WEEKNUM(C114,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -11914,7 +11911,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f>WEEKNUM(C115,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -11976,7 +11973,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f>WEEKNUM(C116,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -12054,7 +12051,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f>WEEKNUM(C117,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -12132,7 +12129,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f>WEEKNUM(C118,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -12210,7 +12207,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f>WEEKNUM(C119,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -12288,7 +12285,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f>WEEKNUM(C120,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -12350,7 +12347,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f>WEEKNUM(C121,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -12428,7 +12425,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f>WEEKNUM(C122,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -12490,7 +12487,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f>WEEKNUM(C123,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -12552,7 +12549,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f>WEEKNUM(C124,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -12630,7 +12627,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f>WEEKNUM(C125,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -12690,7 +12687,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f>WEEKNUM(C126,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -12750,7 +12747,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f>WEEKNUM(C127,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -12810,7 +12807,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f>WEEKNUM(C128,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -12870,7 +12867,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f>WEEKNUM(C129,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -12930,7 +12927,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f>WEEKNUM(C130,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -12990,7 +12987,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f>WEEKNUM(C131,1)</f>
+        <f t="shared" ref="E131:E175" si="4">WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -13050,7 +13047,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f>WEEKNUM(C132,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -13110,7 +13107,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f>WEEKNUM(C133,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -13170,7 +13167,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f>WEEKNUM(C134,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -13230,7 +13227,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f>WEEKNUM(C135,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -13308,7 +13305,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f>WEEKNUM(C136,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -13370,7 +13367,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f>WEEKNUM(C137,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -13432,7 +13429,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f>WEEKNUM(C138,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -13510,7 +13507,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f>WEEKNUM(C139,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -13588,7 +13585,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f>WEEKNUM(C140,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -13658,7 +13655,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f>WEEKNUM(C141,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F141" s="57" t="s">
@@ -13720,7 +13717,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f>WEEKNUM(C142,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -13782,7 +13779,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f>WEEKNUM(C143,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F143" s="57" t="s">
@@ -13860,7 +13857,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f>WEEKNUM(C144,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -13930,7 +13927,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f>WEEKNUM(C145,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F145" s="57" t="s">
@@ -13992,7 +13989,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f>WEEKNUM(C146,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -14054,7 +14051,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f>WEEKNUM(C147,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F147" s="57" t="s">
@@ -14116,7 +14113,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f>WEEKNUM(C148,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -14178,7 +14175,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f>WEEKNUM(C149,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F149" s="57" t="s">
@@ -14240,7 +14237,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f>WEEKNUM(C150,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -14318,7 +14315,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f>WEEKNUM(C151,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F151" s="57" t="s">
@@ -14388,7 +14385,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f>WEEKNUM(C152,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -14466,7 +14463,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f>WEEKNUM(C153,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F153" s="57" t="s">
@@ -14536,7 +14533,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f>WEEKNUM(C154,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -14598,7 +14595,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f>WEEKNUM(C155,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -14676,7 +14673,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f>WEEKNUM(C156,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -14738,7 +14735,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f>WEEKNUM(C157,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -14800,7 +14797,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f>WEEKNUM(C158,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -14862,7 +14859,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f>WEEKNUM(C159,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -14924,7 +14921,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f>WEEKNUM(C160,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -14986,7 +14983,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f>WEEKNUM(C161,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -15048,7 +15045,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f>WEEKNUM(C162,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -15110,7 +15107,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f>WEEKNUM(C163,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -15172,7 +15169,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f>WEEKNUM(C164,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -15234,7 +15231,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f>WEEKNUM(C165,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -15296,7 +15293,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f>WEEKNUM(C166,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -15358,7 +15355,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f>WEEKNUM(C167,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -15420,7 +15417,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f>WEEKNUM(C168,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -15482,7 +15479,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f>WEEKNUM(C169,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -15544,7 +15541,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f>WEEKNUM(C170,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -15622,7 +15619,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f>WEEKNUM(C171,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -15684,7 +15681,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f>WEEKNUM(C172,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -15746,7 +15743,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f>WEEKNUM(C173,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -15808,7 +15805,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f>WEEKNUM(C174,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -15870,7 +15867,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f>WEEKNUM(C175,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -16070,7 +16067,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="61">
-        <f>IF(C178="","",WEEKNUM(C178,1))</f>
+        <f t="shared" ref="E178:E241" si="5">IF(C178="","",WEEKNUM(C178,1))</f>
         <v>11</v>
       </c>
       <c r="F178" s="22" t="s">
@@ -16105,7 +16102,7 @@
       <c r="R178" s="22"/>
       <c r="S178" s="22"/>
       <c r="T178" s="22">
-        <f>SUM(O178:S178)</f>
+        <f t="shared" ref="T178:T197" si="6">SUM(O178:S178)</f>
         <v>0</v>
       </c>
       <c r="U178" s="11"/>
@@ -16134,7 +16131,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="61">
-        <f>IF(C179="","",WEEKNUM(C179,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F179" s="22" t="s">
@@ -16169,7 +16166,7 @@
       <c r="R179" s="22"/>
       <c r="S179" s="22"/>
       <c r="T179" s="22">
-        <f>SUM(O179:S179)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U179" s="11"/>
@@ -16198,7 +16195,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="61">
-        <f>IF(C180="","",WEEKNUM(C180,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F180" s="22" t="s">
@@ -16233,7 +16230,7 @@
       <c r="R180" s="22"/>
       <c r="S180" s="22"/>
       <c r="T180" s="22">
-        <f>SUM(O180:S180)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U180" s="11"/>
@@ -16262,7 +16259,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="61">
-        <f>IF(C181="","",WEEKNUM(C181,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F181" s="22" t="s">
@@ -16297,7 +16294,7 @@
       <c r="R181" s="22"/>
       <c r="S181" s="22"/>
       <c r="T181" s="22">
-        <f>SUM(O181:S181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U181" s="11"/>
@@ -16326,7 +16323,7 @@
         <v>230</v>
       </c>
       <c r="E182" s="61">
-        <f>IF(C182="","",WEEKNUM(C182,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F182" s="22" t="s">
@@ -16361,7 +16358,7 @@
       <c r="R182" s="22"/>
       <c r="S182" s="22"/>
       <c r="T182" s="22">
-        <f>SUM(O182:S182)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U182" s="11"/>
@@ -16390,7 +16387,7 @@
         <v>230</v>
       </c>
       <c r="E183" s="61">
-        <f>IF(C183="","",WEEKNUM(C183,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F183" s="22" t="s">
@@ -16429,7 +16426,7 @@
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
       <c r="T183" s="22">
-        <f>SUM(O183:S183)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U183" s="11" t="s">
@@ -16472,7 +16469,7 @@
         <v>230</v>
       </c>
       <c r="E184" s="61">
-        <f>IF(C184="","",WEEKNUM(C184,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F184" s="22" t="s">
@@ -16503,7 +16500,7 @@
       <c r="R184" s="22"/>
       <c r="S184" s="22"/>
       <c r="T184" s="22">
-        <f>SUM(O184:S184)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U184" s="11" t="s">
@@ -16544,7 +16541,7 @@
         <v>230</v>
       </c>
       <c r="E185" s="61">
-        <f>IF(C185="","",WEEKNUM(C185,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F185" s="22" t="s">
@@ -16579,7 +16576,7 @@
       <c r="R185" s="22"/>
       <c r="S185" s="22"/>
       <c r="T185" s="22">
-        <f>SUM(O185:S185)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U185" s="11"/>
@@ -16608,7 +16605,7 @@
         <v>230</v>
       </c>
       <c r="E186" s="61">
-        <f>IF(C186="","",WEEKNUM(C186,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F186" s="22" t="s">
@@ -16647,7 +16644,7 @@
       <c r="R186" s="22"/>
       <c r="S186" s="22"/>
       <c r="T186" s="22">
-        <f>SUM(O186:S186)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U186" s="11" t="s">
@@ -16688,7 +16685,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="61">
-        <f>IF(C187="","",WEEKNUM(C187,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F187" s="22" t="s">
@@ -16723,7 +16720,7 @@
       <c r="R187" s="22"/>
       <c r="S187" s="22"/>
       <c r="T187" s="22">
-        <f>SUM(O187:S187)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U187" s="11"/>
@@ -16752,7 +16749,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="61">
-        <f>IF(C188="","",WEEKNUM(C188,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F188" s="22" t="s">
@@ -16787,7 +16784,7 @@
       <c r="R188" s="22"/>
       <c r="S188" s="22"/>
       <c r="T188" s="22">
-        <f>SUM(O188:S188)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U188" s="11"/>
@@ -16816,7 +16813,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="61">
-        <f>IF(C189="","",WEEKNUM(C189,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F189" s="22" t="s">
@@ -16851,7 +16848,7 @@
       <c r="R189" s="22"/>
       <c r="S189" s="22"/>
       <c r="T189" s="22">
-        <f>SUM(O189:S189)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U189" s="11"/>
@@ -16880,7 +16877,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="61">
-        <f>IF(C190="","",WEEKNUM(C190,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F190" s="40" t="s">
@@ -16915,7 +16912,7 @@
       <c r="R190" s="22"/>
       <c r="S190" s="22"/>
       <c r="T190" s="22">
-        <f>SUM(O190:S190)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U190" s="11"/>
@@ -16944,7 +16941,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="61">
-        <f>IF(C191="","",WEEKNUM(C191,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F191" s="22" t="s">
@@ -16979,7 +16976,7 @@
       <c r="R191" s="22"/>
       <c r="S191" s="22"/>
       <c r="T191" s="22">
-        <f>SUM(O191:S191)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U191" s="11"/>
@@ -17008,7 +17005,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="61">
-        <f>IF(C192="","",WEEKNUM(C192,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F192" s="22" t="s">
@@ -17043,7 +17040,7 @@
       <c r="R192" s="22"/>
       <c r="S192" s="22"/>
       <c r="T192" s="22">
-        <f>SUM(O192:S192)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U192" s="11"/>
@@ -17072,7 +17069,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="61">
-        <f>IF(C193="","",WEEKNUM(C193,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F193" s="22" t="s">
@@ -17111,7 +17108,7 @@
       </c>
       <c r="S193" s="22"/>
       <c r="T193" s="22">
-        <f>SUM(O193:S193)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U193" s="11" t="s">
@@ -17154,7 +17151,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="61">
-        <f>IF(C194="","",WEEKNUM(C194,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F194" s="22" t="s">
@@ -17189,7 +17186,7 @@
       <c r="R194" s="22"/>
       <c r="S194" s="22"/>
       <c r="T194" s="22">
-        <f>SUM(O194:S194)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U194" s="11"/>
@@ -17218,7 +17215,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="61">
-        <f>IF(C195="","",WEEKNUM(C195,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F195" s="22" t="s">
@@ -17253,7 +17250,7 @@
       <c r="R195" s="22"/>
       <c r="S195" s="22"/>
       <c r="T195" s="22">
-        <f>SUM(O195:S195)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U195" s="11"/>
@@ -17282,7 +17279,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="61">
-        <f>IF(C196="","",WEEKNUM(C196,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F196" s="22" t="s">
@@ -17317,7 +17314,7 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22">
-        <f>SUM(O196:S196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U196" s="27"/>
@@ -17346,7 +17343,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="61">
-        <f>IF(C197="","",WEEKNUM(C197,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F197" s="22" t="s">
@@ -17385,7 +17382,7 @@
       <c r="R197" s="22"/>
       <c r="S197" s="22"/>
       <c r="T197" s="22">
-        <f>SUM(O197:S197)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U197" s="27" t="s">
@@ -17426,7 +17423,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="61">
-        <f>IF(C198="","",WEEKNUM(C198,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F198" s="22" t="s">
@@ -17487,7 +17484,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="61">
-        <f>IF(C199="","",WEEKNUM(C199,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F199" s="22" t="s">
@@ -17522,7 +17519,7 @@
       <c r="R199" s="22"/>
       <c r="S199" s="22"/>
       <c r="T199" s="22">
-        <f>SUM(O199:S199)</f>
+        <f t="shared" ref="T199:T208" si="7">SUM(O199:S199)</f>
         <v>0</v>
       </c>
       <c r="U199" s="27"/>
@@ -17553,7 +17550,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="61">
-        <f>IF(C200="","",WEEKNUM(C200,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F200" s="22" t="s">
@@ -17588,7 +17585,7 @@
       <c r="R200" s="22"/>
       <c r="S200" s="22"/>
       <c r="T200" s="22">
-        <f>SUM(O200:S200)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U200" s="27"/>
@@ -17617,7 +17614,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="61">
-        <f>IF(C201="","",WEEKNUM(C201,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F201" s="22" t="s">
@@ -17656,7 +17653,7 @@
       <c r="R201" s="22"/>
       <c r="S201" s="22"/>
       <c r="T201" s="22">
-        <f>SUM(O201:S201)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U201" s="27" t="s">
@@ -17699,7 +17696,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="61">
-        <f>IF(C202="","",WEEKNUM(C202,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F202" s="22" t="s">
@@ -17738,7 +17735,7 @@
       <c r="R202" s="22"/>
       <c r="S202" s="22"/>
       <c r="T202" s="22">
-        <f>SUM(O202:S202)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U202" s="27" t="s">
@@ -17779,7 +17776,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="61">
-        <f>IF(C203="","",WEEKNUM(C203,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F203" s="22" t="s">
@@ -17814,7 +17811,7 @@
       <c r="R203" s="22"/>
       <c r="S203" s="22"/>
       <c r="T203" s="22">
-        <f>SUM(O203:S203)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U203" s="27"/>
@@ -17843,7 +17840,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="61">
-        <f>IF(C204="","",WEEKNUM(C204,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F204" s="22" t="s">
@@ -17878,7 +17875,7 @@
       <c r="R204" s="22"/>
       <c r="S204" s="22"/>
       <c r="T204" s="22">
-        <f>SUM(O204:S204)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U204" s="27"/>
@@ -17907,7 +17904,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="61">
-        <f>IF(C205="","",WEEKNUM(C205,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F205" s="22" t="s">
@@ -17946,7 +17943,7 @@
         <v>2</v>
       </c>
       <c r="T205" s="22">
-        <f>SUM(O205:S205)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U205" s="27" t="s">
@@ -17987,7 +17984,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="61">
-        <f>IF(C206="","",WEEKNUM(C206,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F206" s="22" t="s">
@@ -18018,7 +18015,7 @@
       <c r="R206" s="22"/>
       <c r="S206" s="22"/>
       <c r="T206" s="22">
-        <f>SUM(O206:S206)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U206" s="27" t="s">
@@ -18059,7 +18056,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="61">
-        <f>IF(C207="","",WEEKNUM(C207,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F207" s="22" t="s">
@@ -18094,7 +18091,7 @@
       <c r="R207" s="22"/>
       <c r="S207" s="22"/>
       <c r="T207" s="22">
-        <f>SUM(O207:S207)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U207" s="27"/>
@@ -18123,7 +18120,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="61">
-        <f>IF(C208="","",WEEKNUM(C208,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F208" s="22" t="s">
@@ -18162,7 +18159,7 @@
       <c r="R208" s="22"/>
       <c r="S208" s="22"/>
       <c r="T208" s="22">
-        <f>SUM(O208:S208)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U208" s="27" t="s">
@@ -18205,7 +18202,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="61">
-        <f>IF(C209="","",WEEKNUM(C209,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F209" s="22" t="s">
@@ -18274,7 +18271,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="61">
-        <f>IF(C210="","",WEEKNUM(C210,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F210" s="22" t="s">
@@ -18354,7 +18351,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="61">
-        <f>IF(C211="","",WEEKNUM(C211,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F211" s="22" t="s">
@@ -18418,7 +18415,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="61">
-        <f>IF(C212="","",WEEKNUM(C212,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F212" s="22" t="s">
@@ -18479,7 +18476,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="61">
-        <f>IF(C213="","",WEEKNUM(C213,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F213" s="22" t="s">
@@ -18540,7 +18537,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="61">
-        <f>IF(C214="","",WEEKNUM(C214,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F214" s="22" t="s">
@@ -18601,7 +18598,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="61">
-        <f>IF(C215="","",WEEKNUM(C215,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F215" s="22" t="s">
@@ -18636,7 +18633,7 @@
       <c r="R215" s="22"/>
       <c r="S215" s="22"/>
       <c r="T215" s="22">
-        <f>SUM(O215:S215)</f>
+        <f t="shared" ref="T215:T235" si="8">SUM(O215:S215)</f>
         <v>0</v>
       </c>
       <c r="U215" s="27"/>
@@ -18665,7 +18662,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="61">
-        <f>IF(C216="","",WEEKNUM(C216,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F216" s="22" t="s">
@@ -18704,7 +18701,7 @@
       <c r="R216" s="22"/>
       <c r="S216" s="22"/>
       <c r="T216" s="22">
-        <f>SUM(O216:S216)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U216" s="27" t="s">
@@ -18747,7 +18744,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="61">
-        <f>IF(C217="","",WEEKNUM(C217,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F217" s="22" t="s">
@@ -18782,7 +18779,7 @@
       <c r="R217" s="22"/>
       <c r="S217" s="22"/>
       <c r="T217" s="22">
-        <f>SUM(O217:S217)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U217" s="27"/>
@@ -18811,7 +18808,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="61">
-        <f>IF(C218="","",WEEKNUM(C218,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F218" s="22" t="s">
@@ -18846,7 +18843,7 @@
       <c r="R218" s="22"/>
       <c r="S218" s="22"/>
       <c r="T218" s="22">
-        <f>SUM(O218:S218)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U218" s="27"/>
@@ -18875,7 +18872,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="61">
-        <f>IF(C219="","",WEEKNUM(C219,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F219" s="22" t="s">
@@ -18914,7 +18911,7 @@
       <c r="R219" s="22"/>
       <c r="S219" s="22"/>
       <c r="T219" s="22">
-        <f>SUM(O219:S219)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U219" s="27" t="s">
@@ -18955,7 +18952,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="61">
-        <f>IF(C220="","",WEEKNUM(C220,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F220" s="22" t="s">
@@ -18990,7 +18987,7 @@
       <c r="R220" s="22"/>
       <c r="S220" s="22"/>
       <c r="T220" s="22">
-        <f>SUM(O220:S220)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U220" s="27"/>
@@ -19019,7 +19016,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="61">
-        <f>IF(C221="","",WEEKNUM(C221,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F221" s="22" t="s">
@@ -19054,7 +19051,7 @@
       <c r="R221" s="22"/>
       <c r="S221" s="22"/>
       <c r="T221" s="22">
-        <f>SUM(O221:S221)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U221" s="27"/>
@@ -19083,7 +19080,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="61">
-        <f>IF(C222="","",WEEKNUM(C222,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F222" s="22" t="s">
@@ -19118,7 +19115,7 @@
       <c r="R222" s="22"/>
       <c r="S222" s="22"/>
       <c r="T222" s="22">
-        <f>SUM(O222:S222)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U222" s="27"/>
@@ -19147,7 +19144,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="61">
-        <f>IF(C223="","",WEEKNUM(C223,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F223" s="22" t="s">
@@ -19186,7 +19183,7 @@
       <c r="R223" s="22"/>
       <c r="S223" s="22"/>
       <c r="T223" s="22">
-        <f>SUM(O223:S223)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U223" s="27" t="s">
@@ -19227,7 +19224,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="61">
-        <f>IF(C224="","",WEEKNUM(C224,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F224" s="22" t="s">
@@ -19262,7 +19259,7 @@
       <c r="R224" s="22"/>
       <c r="S224" s="22"/>
       <c r="T224" s="22">
-        <f>SUM(O224:S224)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U224" s="27"/>
@@ -19291,7 +19288,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="61">
-        <f>IF(C225="","",WEEKNUM(C225,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F225" s="22" t="s">
@@ -19330,7 +19327,7 @@
       <c r="R225" s="22"/>
       <c r="S225" s="22"/>
       <c r="T225" s="22">
-        <f>SUM(O225:S225)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U225" s="27" t="s">
@@ -19371,7 +19368,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="61">
-        <f>IF(C226="","",WEEKNUM(C226,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F226" s="22" t="s">
@@ -19406,7 +19403,7 @@
       <c r="R226" s="22"/>
       <c r="S226" s="22"/>
       <c r="T226" s="22">
-        <f>SUM(O226:S226)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U226" s="27"/>
@@ -19435,7 +19432,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="61">
-        <f>IF(C227="","",WEEKNUM(C227,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F227" s="22" t="s">
@@ -19474,7 +19471,7 @@
       </c>
       <c r="S227" s="22"/>
       <c r="T227" s="22">
-        <f>SUM(O227:S227)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U227" s="27" t="s">
@@ -19515,7 +19512,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="61">
-        <f>IF(C228="","",WEEKNUM(C228,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F228" s="22" t="s">
@@ -19550,7 +19547,7 @@
       <c r="R228" s="22"/>
       <c r="S228" s="22"/>
       <c r="T228" s="22">
-        <f>SUM(O228:S228)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U228" s="27"/>
@@ -19579,7 +19576,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="61">
-        <f>IF(C229="","",WEEKNUM(C229,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F229" s="22" t="s">
@@ -19614,7 +19611,7 @@
       <c r="R229" s="22"/>
       <c r="S229" s="22"/>
       <c r="T229" s="22">
-        <f>SUM(O229:S229)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U229" s="27"/>
@@ -19643,7 +19640,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="61">
-        <f>IF(C230="","",WEEKNUM(C230,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F230" s="22" t="s">
@@ -19682,7 +19679,7 @@
       <c r="R230" s="22"/>
       <c r="S230" s="22"/>
       <c r="T230" s="22">
-        <f>SUM(O230:S230)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U230" s="27" t="s">
@@ -19723,7 +19720,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="61">
-        <f>IF(C231="","",WEEKNUM(C231,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F231" s="22" t="s">
@@ -19758,7 +19755,7 @@
       <c r="R231" s="22"/>
       <c r="S231" s="22"/>
       <c r="T231" s="22">
-        <f>SUM(O231:S231)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U231" s="27"/>
@@ -19787,7 +19784,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="61">
-        <f>IF(C232="","",WEEKNUM(C232,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F232" s="22" t="s">
@@ -19822,7 +19819,7 @@
       <c r="R232" s="22"/>
       <c r="S232" s="22"/>
       <c r="T232" s="22">
-        <f>SUM(O232:S232)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U232" s="27"/>
@@ -19851,7 +19848,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="61">
-        <f>IF(C233="","",WEEKNUM(C233,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F233" s="22" t="s">
@@ -19886,7 +19883,7 @@
       <c r="R233" s="22"/>
       <c r="S233" s="22"/>
       <c r="T233" s="22">
-        <f>SUM(O233:S233)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U233" s="27"/>
@@ -19915,7 +19912,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="61">
-        <f>IF(C234="","",WEEKNUM(C234,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F234" s="22" t="s">
@@ -19950,7 +19947,7 @@
       <c r="R234" s="22"/>
       <c r="S234" s="22"/>
       <c r="T234" s="22">
-        <f>SUM(O234:S234)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U234" s="27"/>
@@ -19979,7 +19976,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="61">
-        <f>IF(C235="","",WEEKNUM(C235,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F235" s="22" t="s">
@@ -20018,7 +20015,7 @@
       <c r="R235" s="22"/>
       <c r="S235" s="22"/>
       <c r="T235" s="22">
-        <f>SUM(O235:S235)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U235" s="27" t="s">
@@ -20059,7 +20056,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="61">
-        <f>IF(C236="","",WEEKNUM(C236,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F236" s="22" t="s">
@@ -20120,7 +20117,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="93">
-        <f>IF(C237="","",WEEKNUM(C237,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F237" s="42" t="s">
@@ -20155,7 +20152,7 @@
       <c r="R237" s="42"/>
       <c r="S237" s="42"/>
       <c r="T237" s="42">
-        <f>SUM(O237:S237)</f>
+        <f t="shared" ref="T237:T272" si="9">SUM(O237:S237)</f>
         <v>0</v>
       </c>
       <c r="U237" s="38"/>
@@ -20184,7 +20181,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="93">
-        <f>IF(C238="","",WEEKNUM(C238,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F238" s="42" t="s">
@@ -20219,7 +20216,7 @@
       <c r="R238" s="42"/>
       <c r="S238" s="42"/>
       <c r="T238" s="42">
-        <f>SUM(O238:S238)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U238" s="38"/>
@@ -20248,7 +20245,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="93">
-        <f>IF(C239="","",WEEKNUM(C239,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F239" s="42" t="s">
@@ -20283,7 +20280,7 @@
       <c r="R239" s="42"/>
       <c r="S239" s="42"/>
       <c r="T239" s="42">
-        <f>SUM(O239:S239)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U239" s="38"/>
@@ -20312,7 +20309,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="93">
-        <f>IF(C240="","",WEEKNUM(C240,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F240" s="42" t="s">
@@ -20347,7 +20344,7 @@
       <c r="R240" s="42"/>
       <c r="S240" s="42"/>
       <c r="T240" s="42">
-        <f>SUM(O240:S240)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U240" s="38"/>
@@ -20376,7 +20373,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="93">
-        <f>IF(C241="","",WEEKNUM(C241,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F241" s="42" t="s">
@@ -20415,7 +20412,7 @@
       <c r="R241" s="42"/>
       <c r="S241" s="42"/>
       <c r="T241" s="42">
-        <f>SUM(O241:S241)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U241" s="38" t="s">
@@ -20456,7 +20453,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="93">
-        <f>IF(C242="","",WEEKNUM(C242,1))</f>
+        <f t="shared" ref="E242:E305" si="10">IF(C242="","",WEEKNUM(C242,1))</f>
         <v>13</v>
       </c>
       <c r="F242" s="42" t="s">
@@ -20491,7 +20488,7 @@
       <c r="R242" s="42"/>
       <c r="S242" s="42"/>
       <c r="T242" s="42">
-        <f>SUM(O242:S242)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U242" s="38"/>
@@ -20520,7 +20517,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="93">
-        <f>IF(C243="","",WEEKNUM(C243,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F243" s="42" t="s">
@@ -20555,7 +20552,7 @@
       <c r="R243" s="42"/>
       <c r="S243" s="42"/>
       <c r="T243" s="42">
-        <f>SUM(O243:S243)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U243" s="38"/>
@@ -20586,7 +20583,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="93">
-        <f>IF(C244="","",WEEKNUM(C244,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F244" s="42" t="s">
@@ -20621,7 +20618,7 @@
       <c r="R244" s="42"/>
       <c r="S244" s="42"/>
       <c r="T244" s="42">
-        <f>SUM(O244:S244)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U244" s="38"/>
@@ -20652,7 +20649,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="93">
-        <f>IF(C245="","",WEEKNUM(C245,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -20687,7 +20684,7 @@
       <c r="R245" s="42"/>
       <c r="S245" s="42"/>
       <c r="T245" s="42">
-        <f>SUM(O245:S245)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U245" s="38"/>
@@ -20716,7 +20713,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="93">
-        <f>IF(C246="","",WEEKNUM(C246,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -20751,7 +20748,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f>SUM(O246:S246)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U246" s="38"/>
@@ -20780,7 +20777,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="93">
-        <f>IF(C247="","",WEEKNUM(C247,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -20815,7 +20812,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f>SUM(O247:S247)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U247" s="38"/>
@@ -20846,7 +20843,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="93">
-        <f>IF(C248="","",WEEKNUM(C248,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -20881,7 +20878,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="12"/>
       <c r="T248" s="42">
-        <f>SUM(O248:S248)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U248" s="36"/>
@@ -20910,7 +20907,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="93">
-        <f>IF(C249="","",WEEKNUM(C249,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F249" s="42" t="s">
@@ -20949,7 +20946,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="12"/>
       <c r="T249" s="42">
-        <f>SUM(O249:S249)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U249" s="38" t="s">
@@ -20990,7 +20987,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="93">
-        <f>IF(C250="","",WEEKNUM(C250,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F250" s="42" t="s">
@@ -21021,7 +21018,7 @@
       <c r="R250" s="42"/>
       <c r="S250" s="42"/>
       <c r="T250" s="42">
-        <f>SUM(O250:S250)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U250" s="38" t="s">
@@ -21062,7 +21059,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="93">
-        <f>IF(C251="","",WEEKNUM(C251,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F251" s="42" t="s">
@@ -21093,7 +21090,7 @@
       <c r="R251" s="42"/>
       <c r="S251" s="42"/>
       <c r="T251" s="42">
-        <f>SUM(O251:S251)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U251" s="38" t="s">
@@ -21134,7 +21131,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="93">
-        <f>IF(C252="","",WEEKNUM(C252,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F252" s="42" t="s">
@@ -21173,7 +21170,7 @@
       <c r="R252" s="42"/>
       <c r="S252" s="42"/>
       <c r="T252" s="42">
-        <f>SUM(O252:S252)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U252" s="38" t="s">
@@ -21214,7 +21211,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="61">
-        <f>IF(C253="","",WEEKNUM(C253,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -21249,7 +21246,7 @@
       <c r="R253" s="22"/>
       <c r="S253" s="22"/>
       <c r="T253" s="22">
-        <f>SUM(O253:S253)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U253" s="27"/>
@@ -21278,7 +21275,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="61">
-        <f>IF(C254="","",WEEKNUM(C254,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -21317,7 +21314,7 @@
       <c r="R254" s="22"/>
       <c r="S254" s="22"/>
       <c r="T254" s="22">
-        <f>SUM(O254:S254)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U254" s="27" t="s">
@@ -21358,7 +21355,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="61">
-        <f>IF(C255="","",WEEKNUM(C255,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -21389,7 +21386,7 @@
       <c r="R255" s="22"/>
       <c r="S255" s="22"/>
       <c r="T255" s="22">
-        <f>SUM(O255:S255)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U255" s="27" t="s">
@@ -21430,7 +21427,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="61">
-        <f>IF(C256="","",WEEKNUM(C256,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -21465,7 +21462,7 @@
       <c r="R256" s="22"/>
       <c r="S256" s="22"/>
       <c r="T256" s="22">
-        <f>SUM(O256:S256)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U256" s="27"/>
@@ -21494,7 +21491,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="61">
-        <f>IF(C257="","",WEEKNUM(C257,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -21529,7 +21526,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f>SUM(O257:S257)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -21558,7 +21555,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="61">
-        <f>IF(C258="","",WEEKNUM(C258,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -21593,7 +21590,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f>SUM(O258:S258)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -21622,7 +21619,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="61">
-        <f>IF(C259="","",WEEKNUM(C259,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -21657,7 +21654,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f>SUM(O259:S259)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -21686,7 +21683,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="61">
-        <f>IF(C260="","",WEEKNUM(C260,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -21725,7 +21722,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f>SUM(O260:S260)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U260" s="36" t="s">
@@ -21768,7 +21765,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="61">
-        <f>IF(C261="","",WEEKNUM(C261,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -21803,7 +21800,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f>SUM(O261:S261)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -21832,7 +21829,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="61">
-        <f>IF(C262="","",WEEKNUM(C262,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -21867,7 +21864,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f>SUM(O262:S262)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -21896,7 +21893,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="61">
-        <f>IF(C263="","",WEEKNUM(C263,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -21931,7 +21928,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f>SUM(O263:S263)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -21962,7 +21959,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="61">
-        <f>IF(C264="","",WEEKNUM(C264,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -21997,7 +21994,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f>SUM(O264:S264)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -22026,7 +22023,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="61">
-        <f>IF(C265="","",WEEKNUM(C265,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -22061,7 +22058,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f>SUM(O265:S265)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -22090,7 +22087,7 @@
         <v>230</v>
       </c>
       <c r="E266" s="61">
-        <f>IF(C266="","",WEEKNUM(C266,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -22125,7 +22122,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="12"/>
       <c r="T266" s="42">
-        <f>SUM(O266:S266)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U266" s="36"/>
@@ -22154,7 +22151,7 @@
         <v>230</v>
       </c>
       <c r="E267" s="61">
-        <f>IF(C267="","",WEEKNUM(C267,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -22189,7 +22186,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="12"/>
       <c r="T267" s="42">
-        <f>SUM(O267:S267)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U267" s="36"/>
@@ -22218,7 +22215,7 @@
         <v>230</v>
       </c>
       <c r="E268" s="61">
-        <f>IF(C268="","",WEEKNUM(C268,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -22253,7 +22250,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="12"/>
       <c r="T268" s="42">
-        <f>SUM(O268:S268)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U268" s="36"/>
@@ -22282,7 +22279,7 @@
         <v>230</v>
       </c>
       <c r="E269" s="61">
-        <f>IF(C269="","",WEEKNUM(C269,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -22317,7 +22314,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="12"/>
       <c r="T269" s="42">
-        <f>SUM(O269:S269)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U269" s="36"/>
@@ -22346,7 +22343,7 @@
         <v>356</v>
       </c>
       <c r="E270" s="61">
-        <f>IF(C270="","",WEEKNUM(C270,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -22381,7 +22378,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f>SUM(O270:S270)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U270" s="27"/>
@@ -22410,7 +22407,7 @@
         <v>356</v>
       </c>
       <c r="E271" s="61">
-        <f>IF(C271="","",WEEKNUM(C271,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -22445,7 +22442,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f>SUM(O271:S271)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U271" s="27"/>
@@ -22474,7 +22471,7 @@
         <v>356</v>
       </c>
       <c r="E272" s="61">
-        <f>IF(C272="","",WEEKNUM(C272,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -22509,7 +22506,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f>SUM(O272:S272)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -22538,7 +22535,7 @@
         <v>356</v>
       </c>
       <c r="E273" s="61">
-        <f>IF(C273="","",WEEKNUM(C273,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -22599,7 +22596,7 @@
         <v>356</v>
       </c>
       <c r="E274" s="61">
-        <f>IF(C274="","",WEEKNUM(C274,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -22638,7 +22635,7 @@
       <c r="R274" s="22"/>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f>SUM(O274:S274)</f>
+        <f t="shared" ref="T274:T337" si="11">SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -22679,7 +22676,7 @@
         <v>356</v>
       </c>
       <c r="E275" s="61">
-        <f>IF(C275="","",WEEKNUM(C275,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -22710,7 +22707,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f>SUM(O275:S275)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U275" s="27" t="s">
@@ -22751,7 +22748,7 @@
         <v>356</v>
       </c>
       <c r="E276" s="61">
-        <f>IF(C276="","",WEEKNUM(C276,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -22786,7 +22783,7 @@
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f>SUM(O276:S276)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U276" s="27"/>
@@ -22815,7 +22812,7 @@
         <v>356</v>
       </c>
       <c r="E277" s="61">
-        <f>IF(C277="","",WEEKNUM(C277,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -22854,7 +22851,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f>SUM(O277:S277)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -22895,7 +22892,7 @@
         <v>356</v>
       </c>
       <c r="E278" s="61">
-        <f>IF(C278="","",WEEKNUM(C278,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -22934,7 +22931,7 @@
       </c>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f>SUM(O278:S278)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U278" s="27" t="s">
@@ -22975,7 +22972,7 @@
         <v>356</v>
       </c>
       <c r="E279" s="61">
-        <f>IF(C279="","",WEEKNUM(C279,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -23010,7 +23007,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f>SUM(O279:S279)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U279" s="27"/>
@@ -23039,7 +23036,7 @@
         <v>356</v>
       </c>
       <c r="E280" s="61">
-        <f>IF(C280="","",WEEKNUM(C280,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -23078,7 +23075,7 @@
       </c>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f>SUM(O280:S280)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U280" s="27" t="s">
@@ -23121,7 +23118,7 @@
         <v>356</v>
       </c>
       <c r="E281" s="61">
-        <f>IF(C281="","",WEEKNUM(C281,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -23160,7 +23157,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f>SUM(O281:S281)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U281" s="27" t="s">
@@ -23203,7 +23200,7 @@
         <v>356</v>
       </c>
       <c r="E282" s="61">
-        <f>IF(C282="","",WEEKNUM(C282,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -23238,7 +23235,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f>SUM(O282:S282)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -23269,7 +23266,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="61">
-        <f>IF(C283="","",WEEKNUM(C283,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -23308,7 +23305,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f>SUM(O283:S283)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U283" s="27" t="s">
@@ -23349,7 +23346,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="61">
-        <f>IF(C284="","",WEEKNUM(C284,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -23384,7 +23381,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f>SUM(O284:S284)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -23413,7 +23410,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="61">
-        <f>IF(C285="","",WEEKNUM(C285,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -23448,7 +23445,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f>SUM(O285:S285)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -23477,7 +23474,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="61">
-        <f>IF(C286="","",WEEKNUM(C286,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -23512,7 +23509,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f>SUM(O286:S286)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U286" s="27"/>
@@ -23541,7 +23538,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="61">
-        <f>IF(C287="","",WEEKNUM(C287,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -23576,7 +23573,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f>SUM(O287:S287)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U287" s="27"/>
@@ -23605,7 +23602,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="61">
-        <f>IF(C288="","",WEEKNUM(C288,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -23640,7 +23637,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f>SUM(O288:S288)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -23671,7 +23668,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="61">
-        <f>IF(C289="","",WEEKNUM(C289,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -23706,7 +23703,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f>SUM(O289:S289)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -23735,7 +23732,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="61">
-        <f>IF(C290="","",WEEKNUM(C290,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -23774,7 +23771,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f>SUM(O290:S290)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U290" s="27" t="s">
@@ -23815,7 +23812,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="61">
-        <f>IF(C291="","",WEEKNUM(C291,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -23846,7 +23843,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f>SUM(O291:S291)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U291" s="27" t="s">
@@ -23887,7 +23884,7 @@
         <v>356</v>
       </c>
       <c r="E292" s="61">
-        <f>IF(C292="","",WEEKNUM(C292,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -23922,7 +23919,7 @@
       <c r="R292" s="22"/>
       <c r="S292" s="22"/>
       <c r="T292" s="22">
-        <f>SUM(O292:S292)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U292" s="27"/>
@@ -23951,7 +23948,7 @@
         <v>356</v>
       </c>
       <c r="E293" s="61">
-        <f>IF(C293="","",WEEKNUM(C293,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -23986,7 +23983,7 @@
       <c r="R293" s="22"/>
       <c r="S293" s="22"/>
       <c r="T293" s="22">
-        <f>SUM(O293:S293)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U293" s="27"/>
@@ -24015,7 +24012,7 @@
         <v>356</v>
       </c>
       <c r="E294" s="61">
-        <f>IF(C294="","",WEEKNUM(C294,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -24050,7 +24047,7 @@
       <c r="R294" s="22"/>
       <c r="S294" s="22"/>
       <c r="T294" s="22">
-        <f>SUM(O294:S294)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U294" s="27"/>
@@ -24079,7 +24076,7 @@
         <v>356</v>
       </c>
       <c r="E295" s="61">
-        <f>IF(C295="","",WEEKNUM(C295,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -24114,7 +24111,7 @@
       <c r="R295" s="22"/>
       <c r="S295" s="22"/>
       <c r="T295" s="22">
-        <f>SUM(O295:S295)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U295" s="27"/>
@@ -24143,7 +24140,7 @@
         <v>356</v>
       </c>
       <c r="E296" s="61">
-        <f>IF(C296="","",WEEKNUM(C296,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -24178,7 +24175,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f>SUM(O296:S296)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -24207,7 +24204,7 @@
         <v>356</v>
       </c>
       <c r="E297" s="61">
-        <f>IF(C297="","",WEEKNUM(C297,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -24242,7 +24239,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f>SUM(O297:S297)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -24271,7 +24268,7 @@
         <v>356</v>
       </c>
       <c r="E298" s="61">
-        <f>IF(C298="","",WEEKNUM(C298,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -24310,7 +24307,7 @@
       </c>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f>SUM(O298:S298)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U298" s="13" t="s">
@@ -24353,7 +24350,7 @@
         <v>356</v>
       </c>
       <c r="E299" s="61">
-        <f>IF(C299="","",WEEKNUM(C299,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -24384,7 +24381,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="22">
-        <f>SUM(O299:S299)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U299" s="13" t="s">
@@ -24427,7 +24424,7 @@
         <v>356</v>
       </c>
       <c r="E300" s="61">
-        <f>IF(C300="","",WEEKNUM(C300,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -24462,7 +24459,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="12"/>
       <c r="T300" s="22">
-        <f>SUM(O300:S300)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U300" s="13"/>
@@ -24491,7 +24488,7 @@
         <v>356</v>
       </c>
       <c r="E301" s="61">
-        <f>IF(C301="","",WEEKNUM(C301,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -24526,7 +24523,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="12"/>
       <c r="T301" s="22">
-        <f>SUM(O301:S301)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U301" s="13"/>
@@ -24557,7 +24554,7 @@
         <v>356</v>
       </c>
       <c r="E302" s="61">
-        <f>IF(C302="","",WEEKNUM(C302,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -24592,7 +24589,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
       <c r="T302" s="22">
-        <f>SUM(O302:S302)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U302" s="13"/>
@@ -24621,7 +24618,7 @@
         <v>356</v>
       </c>
       <c r="E303" s="61">
-        <f>IF(C303="","",WEEKNUM(C303,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
@@ -24656,7 +24653,7 @@
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
       <c r="T303" s="22">
-        <f>SUM(O303:S303)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U303" s="27"/>
@@ -24685,7 +24682,7 @@
         <v>356</v>
       </c>
       <c r="E304" s="61">
-        <f>IF(C304="","",WEEKNUM(C304,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -24724,7 +24721,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f>SUM(O304:S304)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -24767,7 +24764,7 @@
         <v>356</v>
       </c>
       <c r="E305" s="61">
-        <f>IF(C305="","",WEEKNUM(C305,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -24798,7 +24795,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f>SUM(O305:S305)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -24839,7 +24836,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="61">
-        <f>IF(C306="","",WEEKNUM(C306,1))</f>
+        <f t="shared" ref="E306:E369" si="12">IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -24874,7 +24871,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f>SUM(O306:S306)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U306" s="27"/>
@@ -24903,7 +24900,7 @@
         <v>356</v>
       </c>
       <c r="E307" s="61">
-        <f>IF(C307="","",WEEKNUM(C307,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -24938,7 +24935,7 @@
       <c r="R307" s="95"/>
       <c r="S307" s="95"/>
       <c r="T307" s="22">
-        <f>SUM(O307:S307)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U307" s="95"/>
@@ -24967,7 +24964,7 @@
         <v>356</v>
       </c>
       <c r="E308" s="61">
-        <f>IF(C308="","",WEEKNUM(C308,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -25006,7 +25003,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f>SUM(O308:S308)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -25047,7 +25044,7 @@
         <v>356</v>
       </c>
       <c r="E309" s="61">
-        <f>IF(C309="","",WEEKNUM(C309,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F309" s="22" t="s">
@@ -25078,7 +25075,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f>SUM(O309:S309)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -25119,7 +25116,7 @@
         <v>356</v>
       </c>
       <c r="E310" s="61">
-        <f>IF(C310="","",WEEKNUM(C310,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F310" s="22" t="s">
@@ -25158,7 +25155,7 @@
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
       <c r="T310" s="22">
-        <f>SUM(O310:S310)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U310" s="27" t="s">
@@ -25199,7 +25196,7 @@
         <v>356</v>
       </c>
       <c r="E311" s="61">
-        <f>IF(C311="","",WEEKNUM(C311,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F311" s="22" t="s">
@@ -25238,7 +25235,7 @@
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22">
-        <f>SUM(O311:S311)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U311" s="27" t="s">
@@ -25279,7 +25276,7 @@
         <v>356</v>
       </c>
       <c r="E312" s="61">
-        <f>IF(C312="","",WEEKNUM(C312,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F312" s="22" t="s">
@@ -25310,7 +25307,7 @@
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22">
-        <f>SUM(O312:S312)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U312" s="27" t="s">
@@ -25351,7 +25348,7 @@
         <v>356</v>
       </c>
       <c r="E313" s="61">
-        <f>IF(C313="","",WEEKNUM(C313,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F313" s="22" t="s">
@@ -25390,7 +25387,7 @@
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
       <c r="T313" s="22">
-        <f>SUM(O313:S313)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U313" s="27" t="s">
@@ -25428,7 +25425,7 @@
         <v>356</v>
       </c>
       <c r="E314" s="61">
-        <f>IF(C314="","",WEEKNUM(C314,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F314" s="22" t="s">
@@ -25463,7 +25460,7 @@
       <c r="R314" s="22"/>
       <c r="S314" s="22"/>
       <c r="T314" s="22">
-        <f>SUM(O314:S314)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U314" s="27"/>
@@ -25489,7 +25486,7 @@
         <v>356</v>
       </c>
       <c r="E315" s="61">
-        <f>IF(C315="","",WEEKNUM(C315,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F315" s="22" t="s">
@@ -25528,7 +25525,7 @@
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
       <c r="T315" s="22">
-        <f>SUM(O315:S315)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U315" s="27" t="s">
@@ -25569,7 +25566,7 @@
         <v>356</v>
       </c>
       <c r="E316" s="61">
-        <f>IF(C316="","",WEEKNUM(C316,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F316" s="22" t="s">
@@ -25604,7 +25601,7 @@
       <c r="R316" s="22"/>
       <c r="S316" s="22"/>
       <c r="T316" s="22">
-        <f>SUM(O316:S316)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U316" s="27"/>
@@ -25630,7 +25627,7 @@
         <v>356</v>
       </c>
       <c r="E317" s="61">
-        <f>IF(C317="","",WEEKNUM(C317,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F317" s="22" t="s">
@@ -25665,7 +25662,7 @@
       <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22">
-        <f>SUM(O317:S317)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U317" s="27"/>
@@ -25691,7 +25688,7 @@
         <v>356</v>
       </c>
       <c r="E318" s="61">
-        <f>IF(C318="","",WEEKNUM(C318,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F318" s="22" t="s">
@@ -25726,7 +25723,7 @@
       <c r="R318" s="22"/>
       <c r="S318" s="22"/>
       <c r="T318" s="22">
-        <f>SUM(O318:S318)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U318" s="27"/>
@@ -25754,7 +25751,7 @@
         <v>356</v>
       </c>
       <c r="E319" s="61">
-        <f>IF(C319="","",WEEKNUM(C319,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F319" s="22" t="s">
@@ -25793,7 +25790,7 @@
       <c r="R319" s="22"/>
       <c r="S319" s="22"/>
       <c r="T319" s="22">
-        <f>SUM(O319:S319)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U319" s="27" t="s">
@@ -25834,7 +25831,7 @@
         <v>356</v>
       </c>
       <c r="E320" s="61">
-        <f>IF(C320="","",WEEKNUM(C320,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F320" s="22" t="s">
@@ -25869,7 +25866,7 @@
       <c r="R320" s="22"/>
       <c r="S320" s="22"/>
       <c r="T320" s="22">
-        <f>SUM(O320:S320)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U320" s="27"/>
@@ -25898,7 +25895,7 @@
         <v>356</v>
       </c>
       <c r="E321" s="61">
-        <f>IF(C321="","",WEEKNUM(C321,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F321" s="22" t="s">
@@ -25933,7 +25930,7 @@
       <c r="R321" s="22"/>
       <c r="S321" s="22"/>
       <c r="T321" s="22">
-        <f>SUM(O321:S321)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U321" s="27"/>
@@ -25959,7 +25956,7 @@
         <v>356</v>
       </c>
       <c r="E322" s="61">
-        <f>IF(C322="","",WEEKNUM(C322,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F322" s="22" t="s">
@@ -25994,7 +25991,7 @@
       <c r="R322" s="22"/>
       <c r="S322" s="22"/>
       <c r="T322" s="22">
-        <f>SUM(O322:S322)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U322" s="27"/>
@@ -26022,7 +26019,7 @@
         <v>356</v>
       </c>
       <c r="E323" s="61">
-        <f>IF(C323="","",WEEKNUM(C323,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F323" s="22" t="s">
@@ -26057,7 +26054,7 @@
       <c r="R323" s="22"/>
       <c r="S323" s="22"/>
       <c r="T323" s="22">
-        <f>SUM(O323:S323)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U323" s="27"/>
@@ -26083,7 +26080,7 @@
         <v>356</v>
       </c>
       <c r="E324" s="61">
-        <f>IF(C324="","",WEEKNUM(C324,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F324" s="22" t="s">
@@ -26118,7 +26115,7 @@
       <c r="R324" s="22"/>
       <c r="S324" s="22"/>
       <c r="T324" s="22">
-        <f>SUM(O324:S324)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U324" s="27"/>
@@ -26144,7 +26141,7 @@
         <v>356</v>
       </c>
       <c r="E325" s="61">
-        <f>IF(C325="","",WEEKNUM(C325,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F325" s="22" t="s">
@@ -26179,7 +26176,7 @@
       <c r="R325" s="95"/>
       <c r="S325" s="95"/>
       <c r="T325" s="22">
-        <f>SUM(O325:S325)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U325" s="95"/>
@@ -26205,7 +26202,7 @@
         <v>356</v>
       </c>
       <c r="E326" s="61">
-        <f>IF(C326="","",WEEKNUM(C326,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F326" s="22" t="s">
@@ -26244,7 +26241,7 @@
       <c r="R326" s="22"/>
       <c r="S326" s="22"/>
       <c r="T326" s="22">
-        <f>SUM(O326:S326)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U326" s="27" t="s">
@@ -26285,7 +26282,7 @@
         <v>356</v>
       </c>
       <c r="E327" s="61">
-        <f>IF(C327="","",WEEKNUM(C327,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F327" s="22" t="s">
@@ -26324,7 +26321,7 @@
       </c>
       <c r="S327" s="22"/>
       <c r="T327" s="22">
-        <f>SUM(O327:S327)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="U327" s="27" t="s">
@@ -26367,7 +26364,7 @@
         <v>356</v>
       </c>
       <c r="E328" s="61">
-        <f>IF(C328="","",WEEKNUM(C328,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F328" s="22" t="s">
@@ -26402,7 +26399,7 @@
       <c r="R328" s="95"/>
       <c r="S328" s="95"/>
       <c r="T328" s="22">
-        <f>SUM(O328:S328)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U328" s="95"/>
@@ -26428,7 +26425,7 @@
         <v>356</v>
       </c>
       <c r="E329" s="61">
-        <f>IF(C329="","",WEEKNUM(C329,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F329" s="22" t="s">
@@ -26463,7 +26460,7 @@
       <c r="R329" s="95"/>
       <c r="S329" s="95"/>
       <c r="T329" s="22">
-        <f>SUM(O329:S329)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U329" s="95"/>
@@ -26489,7 +26486,7 @@
         <v>356</v>
       </c>
       <c r="E330" s="61">
-        <f>IF(C330="","",WEEKNUM(C330,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F330" s="22" t="s">
@@ -26524,7 +26521,7 @@
       <c r="R330" s="95"/>
       <c r="S330" s="95"/>
       <c r="T330" s="22">
-        <f>SUM(O330:S330)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U330" s="95"/>
@@ -26550,7 +26547,7 @@
         <v>356</v>
       </c>
       <c r="E331" s="61">
-        <f>IF(C331="","",WEEKNUM(C331,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F331" s="22" t="s">
@@ -26585,7 +26582,7 @@
       <c r="R331" s="95"/>
       <c r="S331" s="95"/>
       <c r="T331" s="22">
-        <f>SUM(O331:S331)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U331" s="95"/>
@@ -26611,7 +26608,7 @@
         <v>356</v>
       </c>
       <c r="E332" s="61">
-        <f>IF(C332="","",WEEKNUM(C332,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F332" s="22" t="s">
@@ -26646,7 +26643,7 @@
       <c r="R332" s="22"/>
       <c r="S332" s="22"/>
       <c r="T332" s="22">
-        <f>SUM(O332:S332)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U332" s="27"/>
@@ -26672,7 +26669,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="61">
-        <f>IF(C333="","",WEEKNUM(C333,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F333" s="22" t="s">
@@ -26711,7 +26708,7 @@
       <c r="R333" s="22"/>
       <c r="S333" s="22"/>
       <c r="T333" s="22">
-        <f>SUM(O333:S333)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U333" s="27" t="s">
@@ -26752,7 +26749,7 @@
         <v>356</v>
       </c>
       <c r="E334" s="61">
-        <f>IF(C334="","",WEEKNUM(C334,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F334" s="22" t="s">
@@ -26787,7 +26784,7 @@
       <c r="R334" s="95"/>
       <c r="S334" s="95"/>
       <c r="T334" s="22">
-        <f>SUM(O334:S334)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U334" s="95"/>
@@ -26815,7 +26812,7 @@
         <v>356</v>
       </c>
       <c r="E335" s="61">
-        <f>IF(C335="","",WEEKNUM(C335,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F335" s="22" t="s">
@@ -26850,7 +26847,7 @@
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="22">
-        <f>SUM(O335:S335)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U335" s="27"/>
@@ -26876,7 +26873,7 @@
         <v>356</v>
       </c>
       <c r="E336" s="61">
-        <f>IF(C336="","",WEEKNUM(C336,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F336" s="22" t="s">
@@ -26915,7 +26912,7 @@
       <c r="R336" s="22"/>
       <c r="S336" s="22"/>
       <c r="T336" s="22">
-        <f>SUM(O336:S336)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U336" s="27" t="s">
@@ -26956,7 +26953,7 @@
         <v>356</v>
       </c>
       <c r="E337" s="61">
-        <f>IF(C337="","",WEEKNUM(C337,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F337" s="22" t="s">
@@ -26991,7 +26988,7 @@
       <c r="R337" s="95"/>
       <c r="S337" s="95"/>
       <c r="T337" s="22">
-        <f>SUM(O337:S337)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U337" s="95"/>
@@ -27017,7 +27014,7 @@
         <v>356</v>
       </c>
       <c r="E338" s="61">
-        <f>IF(C338="","",WEEKNUM(C338,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F338" s="22" t="s">
@@ -27052,7 +27049,7 @@
       <c r="R338" s="95"/>
       <c r="S338" s="95"/>
       <c r="T338" s="22">
-        <f>SUM(O338:S338)</f>
+        <f t="shared" ref="T338:T401" si="13">SUM(O338:S338)</f>
         <v>0</v>
       </c>
       <c r="U338" s="95"/>
@@ -27078,7 +27075,7 @@
         <v>356</v>
       </c>
       <c r="E339" s="61">
-        <f>IF(C339="","",WEEKNUM(C339,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F339" s="22" t="s">
@@ -27113,7 +27110,7 @@
       <c r="R339" s="95"/>
       <c r="S339" s="95"/>
       <c r="T339" s="22">
-        <f>SUM(O339:S339)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U339" s="95"/>
@@ -27139,7 +27136,7 @@
         <v>356</v>
       </c>
       <c r="E340" s="61">
-        <f>IF(C340="","",WEEKNUM(C340,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F340" s="22" t="s">
@@ -27174,7 +27171,7 @@
       <c r="R340" s="95"/>
       <c r="S340" s="95"/>
       <c r="T340" s="22">
-        <f>SUM(O340:S340)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U340" s="95"/>
@@ -27200,7 +27197,7 @@
         <v>356</v>
       </c>
       <c r="E341" s="61">
-        <f>IF(C341="","",WEEKNUM(C341,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F341" s="22" t="s">
@@ -27235,7 +27232,7 @@
       <c r="R341" s="95"/>
       <c r="S341" s="95"/>
       <c r="T341" s="22">
-        <f>SUM(O341:S341)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U341" s="95"/>
@@ -27261,7 +27258,7 @@
         <v>356</v>
       </c>
       <c r="E342" s="61">
-        <f>IF(C342="","",WEEKNUM(C342,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F342" s="22" t="s">
@@ -27296,7 +27293,7 @@
       <c r="R342" s="95"/>
       <c r="S342" s="95"/>
       <c r="T342" s="22">
-        <f>SUM(O342:S342)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U342" s="95"/>
@@ -27322,7 +27319,7 @@
         <v>356</v>
       </c>
       <c r="E343" s="61">
-        <f>IF(C343="","",WEEKNUM(C343,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F343" s="22" t="s">
@@ -27357,7 +27354,7 @@
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="22">
-        <f>SUM(O343:S343)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U343" s="27"/>
@@ -27383,7 +27380,7 @@
         <v>356</v>
       </c>
       <c r="E344" s="61">
-        <f>IF(C344="","",WEEKNUM(C344,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F344" s="22" t="s">
@@ -27422,7 +27419,7 @@
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="22">
-        <f>SUM(O344:S344)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U344" s="27" t="s">
@@ -27465,7 +27462,7 @@
         <v>356</v>
       </c>
       <c r="E345" s="61">
-        <f>IF(C345="","",WEEKNUM(C345,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F345" s="22" t="s">
@@ -27500,7 +27497,7 @@
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="22">
-        <f>SUM(O345:S345)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U345" s="27"/>
@@ -27529,7 +27526,7 @@
         <v>356</v>
       </c>
       <c r="E346" s="61">
-        <f>IF(C346="","",WEEKNUM(C346,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F346" s="22" t="s">
@@ -27564,7 +27561,7 @@
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="22">
-        <f>SUM(O346:S346)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U346" s="27"/>
@@ -27590,7 +27587,7 @@
         <v>356</v>
       </c>
       <c r="E347" s="61">
-        <f>IF(C347="","",WEEKNUM(C347,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F347" s="22" t="s">
@@ -27625,7 +27622,7 @@
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="22">
-        <f>SUM(O347:S347)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U347" s="27"/>
@@ -27651,7 +27648,7 @@
         <v>356</v>
       </c>
       <c r="E348" s="61">
-        <f>IF(C348="","",WEEKNUM(C348,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F348" s="22" t="s">
@@ -27686,7 +27683,7 @@
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="22">
-        <f>SUM(O348:S348)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U348" s="27"/>
@@ -27712,7 +27709,7 @@
         <v>356</v>
       </c>
       <c r="E349" s="61">
-        <f>IF(C349="","",WEEKNUM(C349,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F349" s="22" t="s">
@@ -27747,7 +27744,7 @@
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="22">
-        <f>SUM(O349:S349)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U349" s="27"/>
@@ -27773,7 +27770,7 @@
         <v>356</v>
       </c>
       <c r="E350" s="61">
-        <f>IF(C350="","",WEEKNUM(C350,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F350" s="22" t="s">
@@ -27812,7 +27809,7 @@
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="22">
-        <f>SUM(O350:S350)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U350" s="27" t="s">
@@ -27853,7 +27850,7 @@
         <v>356</v>
       </c>
       <c r="E351" s="61">
-        <f>IF(C351="","",WEEKNUM(C351,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F351" s="22" t="s">
@@ -27888,7 +27885,7 @@
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="22">
-        <f>SUM(O351:S351)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U351" s="27"/>
@@ -27914,7 +27911,7 @@
         <v>356</v>
       </c>
       <c r="E352" s="61">
-        <f>IF(C352="","",WEEKNUM(C352,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F352" s="22" t="s">
@@ -27953,7 +27950,7 @@
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="22">
-        <f>SUM(O352:S352)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U352" s="27" t="s">
@@ -27996,7 +27993,7 @@
         <v>356</v>
       </c>
       <c r="E353" s="61">
-        <f>IF(C353="","",WEEKNUM(C353,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F353" s="22" t="s">
@@ -28027,7 +28024,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="22">
-        <f>SUM(O353:S353)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U353" s="27" t="s">
@@ -28068,7 +28065,7 @@
         <v>356</v>
       </c>
       <c r="E354" s="61">
-        <f>IF(C354="","",WEEKNUM(C354,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F354" s="22" t="s">
@@ -28103,7 +28100,7 @@
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="22">
-        <f>SUM(O354:S354)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U354" s="27"/>
@@ -28129,7 +28126,7 @@
         <v>356</v>
       </c>
       <c r="E355" s="61">
-        <f>IF(C355="","",WEEKNUM(C355,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F355" s="22" t="s">
@@ -28164,7 +28161,7 @@
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="22">
-        <f>SUM(O355:S355)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U355" s="27"/>
@@ -28190,7 +28187,7 @@
         <v>356</v>
       </c>
       <c r="E356" s="61">
-        <f>IF(C356="","",WEEKNUM(C356,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F356" s="22" t="s">
@@ -28225,7 +28222,7 @@
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="22">
-        <f>SUM(O356:S356)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U356" s="27"/>
@@ -28251,7 +28248,7 @@
         <v>356</v>
       </c>
       <c r="E357" s="61">
-        <f>IF(C357="","",WEEKNUM(C357,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F357" s="22" t="s">
@@ -28290,7 +28287,7 @@
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="22">
-        <f>SUM(O357:S357)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U357" s="27" t="s">
@@ -28331,7 +28328,7 @@
         <v>356</v>
       </c>
       <c r="E358" s="61">
-        <f>IF(C358="","",WEEKNUM(C358,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F358" s="22" t="s">
@@ -28366,7 +28363,7 @@
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="22">
-        <f>SUM(O358:S358)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U358" s="27"/>
@@ -28392,7 +28389,7 @@
         <v>356</v>
       </c>
       <c r="E359" s="61">
-        <f>IF(C359="","",WEEKNUM(C359,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F359" s="22" t="s">
@@ -28427,7 +28424,7 @@
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="22">
-        <f>SUM(O359:S359)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U359" s="27"/>
@@ -28453,7 +28450,7 @@
         <v>356</v>
       </c>
       <c r="E360" s="61">
-        <f>IF(C360="","",WEEKNUM(C360,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F360" s="22" t="s">
@@ -28490,7 +28487,7 @@
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="22">
-        <f>SUM(O360:S360)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U360" s="27" t="s">
@@ -28533,7 +28530,7 @@
         <v>356</v>
       </c>
       <c r="E361" s="61">
-        <f>IF(C361="","",WEEKNUM(C361,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F361" s="22" t="s">
@@ -28568,7 +28565,7 @@
       <c r="R361" s="95"/>
       <c r="S361" s="95"/>
       <c r="T361" s="22">
-        <f>SUM(O361:S361)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U361" s="95"/>
@@ -28596,7 +28593,7 @@
         <v>356</v>
       </c>
       <c r="E362" s="61">
-        <f>IF(C362="","",WEEKNUM(C362,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F362" s="22" t="s">
@@ -28631,7 +28628,7 @@
       <c r="R362" s="95"/>
       <c r="S362" s="95"/>
       <c r="T362" s="22">
-        <f>SUM(O362:S362)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U362" s="95"/>
@@ -28657,7 +28654,7 @@
         <v>356</v>
       </c>
       <c r="E363" s="61">
-        <f>IF(C363="","",WEEKNUM(C363,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F363" s="22" t="s">
@@ -28692,7 +28689,7 @@
       <c r="R363" s="95"/>
       <c r="S363" s="95"/>
       <c r="T363" s="22">
-        <f>SUM(O363:S363)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U363" s="95"/>
@@ -28718,7 +28715,7 @@
         <v>356</v>
       </c>
       <c r="E364" s="61">
-        <f>IF(C364="","",WEEKNUM(C364,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F364" s="22" t="s">
@@ -28753,7 +28750,7 @@
       <c r="R364" s="95"/>
       <c r="S364" s="95"/>
       <c r="T364" s="22">
-        <f>SUM(O364:S364)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U364" s="95"/>
@@ -28781,7 +28778,7 @@
         <v>356</v>
       </c>
       <c r="E365" s="61">
-        <f>IF(C365="","",WEEKNUM(C365,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F365" s="22" t="s">
@@ -28816,7 +28813,7 @@
       <c r="R365" s="95"/>
       <c r="S365" s="95"/>
       <c r="T365" s="22">
-        <f>SUM(O365:S365)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U365" s="95"/>
@@ -28842,7 +28839,7 @@
         <v>356</v>
       </c>
       <c r="E366" s="61">
-        <f>IF(C366="","",WEEKNUM(C366,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F366" s="22" t="s">
@@ -28877,7 +28874,7 @@
       <c r="R366" s="95"/>
       <c r="S366" s="95"/>
       <c r="T366" s="22">
-        <f>SUM(O366:S366)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U366" s="95"/>
@@ -28903,7 +28900,7 @@
         <v>356</v>
       </c>
       <c r="E367" s="61">
-        <f>IF(C367="","",WEEKNUM(C367,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F367" s="22" t="s">
@@ -28938,7 +28935,7 @@
       <c r="R367" s="95"/>
       <c r="S367" s="95"/>
       <c r="T367" s="22">
-        <f>SUM(O367:S367)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U367" s="95"/>
@@ -28964,7 +28961,7 @@
         <v>356</v>
       </c>
       <c r="E368" s="61">
-        <f>IF(C368="","",WEEKNUM(C368,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F368" s="22" t="s">
@@ -28999,7 +28996,7 @@
       <c r="R368" s="95"/>
       <c r="S368" s="95"/>
       <c r="T368" s="22">
-        <f>SUM(O368:S368)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U368" s="95"/>
@@ -29025,7 +29022,7 @@
         <v>356</v>
       </c>
       <c r="E369" s="61">
-        <f>IF(C369="","",WEEKNUM(C369,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F369" s="22" t="s">
@@ -29060,7 +29057,7 @@
       <c r="R369" s="95"/>
       <c r="S369" s="95"/>
       <c r="T369" s="22">
-        <f>SUM(O369:S369)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U369" s="95"/>
@@ -29086,7 +29083,7 @@
         <v>356</v>
       </c>
       <c r="E370" s="61">
-        <f>IF(C370="","",WEEKNUM(C370,1))</f>
+        <f t="shared" ref="E370:E426" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
         <v>16</v>
       </c>
       <c r="F370" s="22" t="s">
@@ -29121,7 +29118,7 @@
       <c r="R370" s="95"/>
       <c r="S370" s="95"/>
       <c r="T370" s="22">
-        <f>SUM(O370:S370)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U370" s="95"/>
@@ -29147,7 +29144,7 @@
         <v>356</v>
       </c>
       <c r="E371" s="61">
-        <f>IF(C371="","",WEEKNUM(C371,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F371" s="22" t="s">
@@ -29186,7 +29183,7 @@
       <c r="R371" s="22"/>
       <c r="S371" s="22"/>
       <c r="T371" s="22">
-        <f>SUM(O371:S371)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U371" s="27" t="s">
@@ -29227,7 +29224,7 @@
         <v>356</v>
       </c>
       <c r="E372" s="61">
-        <f>IF(C372="","",WEEKNUM(C372,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F372" s="22" t="s">
@@ -29258,7 +29255,7 @@
       <c r="R372" s="22"/>
       <c r="S372" s="22"/>
       <c r="T372" s="22">
-        <f>SUM(O372:S372)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U372" s="27" t="s">
@@ -29299,7 +29296,7 @@
         <v>356</v>
       </c>
       <c r="E373" s="61">
-        <f>IF(C373="","",WEEKNUM(C373,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F373" s="22" t="s">
@@ -29334,7 +29331,7 @@
       <c r="R373" s="22"/>
       <c r="S373" s="22"/>
       <c r="T373" s="22">
-        <f>SUM(O373:S373)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U373" s="27"/>
@@ -29363,7 +29360,7 @@
         <v>356</v>
       </c>
       <c r="E374" s="61">
-        <f>IF(C374="","",WEEKNUM(C374,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F374" s="22" t="s">
@@ -29402,7 +29399,7 @@
       <c r="R374" s="22"/>
       <c r="S374" s="22"/>
       <c r="T374" s="22">
-        <f>SUM(O374:S374)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U374" s="27" t="s">
@@ -29443,7 +29440,7 @@
         <v>356</v>
       </c>
       <c r="E375" s="61">
-        <f>IF(C375="","",WEEKNUM(C375,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F375" s="22" t="s">
@@ -29478,7 +29475,7 @@
       <c r="R375" s="22"/>
       <c r="S375" s="22"/>
       <c r="T375" s="22">
-        <f>SUM(O375:S375)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U375" s="27"/>
@@ -29507,7 +29504,7 @@
         <v>356</v>
       </c>
       <c r="E376" s="61">
-        <f>IF(C376="","",WEEKNUM(C376,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F376" s="22" t="s">
@@ -29542,7 +29539,7 @@
       <c r="R376" s="22"/>
       <c r="S376" s="22"/>
       <c r="T376" s="22">
-        <f>SUM(O376:S376)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U376" s="27"/>
@@ -29568,7 +29565,7 @@
         <v>356</v>
       </c>
       <c r="E377" s="61">
-        <f>IF(C377="","",WEEKNUM(C377,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F377" s="22" t="s">
@@ -29603,7 +29600,7 @@
       <c r="R377" s="22"/>
       <c r="S377" s="22"/>
       <c r="T377" s="22">
-        <f>SUM(O377:S377)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U377" s="27"/>
@@ -29629,7 +29626,7 @@
         <v>356</v>
       </c>
       <c r="E378" s="61">
-        <f>IF(C378="","",WEEKNUM(C378,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F378" s="22" t="s">
@@ -29664,7 +29661,7 @@
       <c r="R378" s="22"/>
       <c r="S378" s="22"/>
       <c r="T378" s="22">
-        <f>SUM(O378:S378)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U378" s="27"/>
@@ -29690,7 +29687,7 @@
         <v>356</v>
       </c>
       <c r="E379" s="61">
-        <f>IF(C379="","",WEEKNUM(C379,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F379" s="22" t="s">
@@ -29725,7 +29722,7 @@
       <c r="R379" s="95"/>
       <c r="S379" s="95"/>
       <c r="T379" s="22">
-        <f>SUM(O379:S379)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U379" s="95"/>
@@ -29751,7 +29748,7 @@
         <v>356</v>
       </c>
       <c r="E380" s="61">
-        <f>IF(C380="","",WEEKNUM(C380,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F380" s="22" t="s">
@@ -29790,7 +29787,7 @@
       </c>
       <c r="S380" s="95"/>
       <c r="T380" s="22">
-        <f>SUM(O380:S380)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U380" s="27" t="s">
@@ -29831,7 +29828,7 @@
         <v>356</v>
       </c>
       <c r="E381" s="61">
-        <f>IF(C381="","",WEEKNUM(C381,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F381" s="22" t="s">
@@ -29866,7 +29863,7 @@
       <c r="R381" s="22"/>
       <c r="S381" s="22"/>
       <c r="T381" s="22">
-        <f>SUM(O381:S381)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U381" s="27"/>
@@ -29892,7 +29889,7 @@
         <v>356</v>
       </c>
       <c r="E382" s="61">
-        <f>IF(C382="","",WEEKNUM(C382,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F382" s="22" t="s">
@@ -29931,7 +29928,7 @@
       <c r="R382" s="22"/>
       <c r="S382" s="22"/>
       <c r="T382" s="22">
-        <f>SUM(O382:S382)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U382" s="27" t="s">
@@ -29972,7 +29969,7 @@
         <v>356</v>
       </c>
       <c r="E383" s="61">
-        <f>IF(C383="","",WEEKNUM(C383,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F383" s="22" t="s">
@@ -30007,7 +30004,7 @@
       <c r="R383" s="22"/>
       <c r="S383" s="22"/>
       <c r="T383" s="22">
-        <f>SUM(O383:S383)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U383" s="27"/>
@@ -30033,7 +30030,7 @@
         <v>356</v>
       </c>
       <c r="E384" s="61">
-        <f>IF(C384="","",WEEKNUM(C384,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F384" s="22" t="s">
@@ -30068,7 +30065,7 @@
       <c r="R384" s="22"/>
       <c r="S384" s="22"/>
       <c r="T384" s="22">
-        <f>SUM(O384:S384)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U384" s="27"/>
@@ -30094,7 +30091,7 @@
         <v>356</v>
       </c>
       <c r="E385" s="61">
-        <f>IF(C385="","",WEEKNUM(C385,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F385" s="22" t="s">
@@ -30129,7 +30126,7 @@
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="22">
-        <f>SUM(O385:S385)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U385" s="27"/>
@@ -30155,7 +30152,7 @@
         <v>356</v>
       </c>
       <c r="E386" s="61">
-        <f>IF(C386="","",WEEKNUM(C386,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F386" s="22" t="s">
@@ -30194,7 +30191,7 @@
       <c r="R386" s="22"/>
       <c r="S386" s="22"/>
       <c r="T386" s="22">
-        <f>SUM(O386:S386)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U386" s="27" t="s">
@@ -30237,7 +30234,7 @@
         <v>356</v>
       </c>
       <c r="E387" s="61">
-        <f>IF(C387="","",WEEKNUM(C387,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F387" s="22" t="s">
@@ -30272,7 +30269,7 @@
       <c r="R387" s="22"/>
       <c r="S387" s="22"/>
       <c r="T387" s="22">
-        <f>SUM(O387:S387)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U387" s="27"/>
@@ -30298,7 +30295,7 @@
         <v>356</v>
       </c>
       <c r="E388" s="61">
-        <f>IF(C388="","",WEEKNUM(C388,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F388" s="22" t="s">
@@ -30333,7 +30330,7 @@
       <c r="R388" s="22"/>
       <c r="S388" s="22"/>
       <c r="T388" s="22">
-        <f>SUM(O388:S388)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U388" s="27"/>
@@ -30359,7 +30356,7 @@
         <v>356</v>
       </c>
       <c r="E389" s="61">
-        <f>IF(C389="","",WEEKNUM(C389,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F389" s="22" t="s">
@@ -30394,7 +30391,7 @@
       <c r="R389" s="22"/>
       <c r="S389" s="22"/>
       <c r="T389" s="22">
-        <f>SUM(O389:S389)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U389" s="27"/>
@@ -30420,7 +30417,7 @@
         <v>356</v>
       </c>
       <c r="E390" s="61">
-        <f>IF(C390="","",WEEKNUM(C390,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F390" s="22" t="s">
@@ -30455,7 +30452,7 @@
       <c r="R390" s="95"/>
       <c r="S390" s="95"/>
       <c r="T390" s="22">
-        <f>SUM(O390:S390)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U390" s="95"/>
@@ -30483,7 +30480,7 @@
         <v>356</v>
       </c>
       <c r="E391" s="61">
-        <f>IF(C391="","",WEEKNUM(C391,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F391" s="22" t="s">
@@ -30518,7 +30515,7 @@
       <c r="R391" s="95"/>
       <c r="S391" s="95"/>
       <c r="T391" s="22">
-        <f>SUM(O391:S391)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U391" s="95"/>
@@ -30547,7 +30544,7 @@
         <v>356</v>
       </c>
       <c r="E392" s="61">
-        <f>IF(C392="","",WEEKNUM(C392,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F392" s="22" t="s">
@@ -30582,7 +30579,7 @@
       <c r="R392" s="95"/>
       <c r="S392" s="95"/>
       <c r="T392" s="22">
-        <f>SUM(O392:S392)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U392" s="95"/>
@@ -30611,7 +30608,7 @@
         <v>356</v>
       </c>
       <c r="E393" s="61">
-        <f>IF(C393="","",WEEKNUM(C393,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F393" s="22" t="s">
@@ -30646,7 +30643,7 @@
       <c r="R393" s="95"/>
       <c r="S393" s="95"/>
       <c r="T393" s="22">
-        <f>SUM(O393:S393)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U393" s="95"/>
@@ -30675,7 +30672,7 @@
         <v>356</v>
       </c>
       <c r="E394" s="61">
-        <f>IF(C394="","",WEEKNUM(C394,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F394" s="22" t="s">
@@ -30710,7 +30707,7 @@
       <c r="R394" s="95"/>
       <c r="S394" s="95"/>
       <c r="T394" s="22">
-        <f>SUM(O394:S394)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U394" s="95"/>
@@ -30739,7 +30736,7 @@
         <v>356</v>
       </c>
       <c r="E395" s="61">
-        <f>IF(C395="","",WEEKNUM(C395,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F395" s="22" t="s">
@@ -30774,7 +30771,7 @@
       <c r="R395" s="95"/>
       <c r="S395" s="95"/>
       <c r="T395" s="22">
-        <f>SUM(O395:S395)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U395" s="95"/>
@@ -30800,7 +30797,7 @@
         <v>356</v>
       </c>
       <c r="E396" s="61">
-        <f>IF(C396="","",WEEKNUM(C396,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F396" s="22" t="s">
@@ -30835,7 +30832,7 @@
       <c r="R396" s="95"/>
       <c r="S396" s="95"/>
       <c r="T396" s="22">
-        <f>SUM(O396:S396)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U396" s="95"/>
@@ -30861,7 +30858,7 @@
         <v>356</v>
       </c>
       <c r="E397" s="61">
-        <f>IF(C397="","",WEEKNUM(C397,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F397" s="22" t="s">
@@ -30896,7 +30893,7 @@
       <c r="R397" s="95"/>
       <c r="S397" s="95"/>
       <c r="T397" s="22">
-        <f>SUM(O397:S397)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U397" s="95"/>
@@ -30922,7 +30919,7 @@
         <v>356</v>
       </c>
       <c r="E398" s="61">
-        <f>IF(C398="","",WEEKNUM(C398,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F398" s="22" t="s">
@@ -30957,7 +30954,7 @@
       <c r="R398" s="95"/>
       <c r="S398" s="95"/>
       <c r="T398" s="22">
-        <f>SUM(O398:S398)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U398" s="95"/>
@@ -30983,7 +30980,7 @@
         <v>356</v>
       </c>
       <c r="E399" s="61">
-        <f>IF(C399="","",WEEKNUM(C399,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F399" s="22" t="s">
@@ -31018,7 +31015,7 @@
       <c r="R399" s="95"/>
       <c r="S399" s="95"/>
       <c r="T399" s="22">
-        <f>SUM(O399:S399)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U399" s="95"/>
@@ -31044,7 +31041,7 @@
         <v>356</v>
       </c>
       <c r="E400" s="61">
-        <f>IF(C400="","",WEEKNUM(C400,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F400" s="22" t="s">
@@ -31083,7 +31080,7 @@
       <c r="R400" s="95"/>
       <c r="S400" s="95"/>
       <c r="T400" s="22">
-        <f>SUM(O400:S400)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U400" s="95" t="s">
@@ -31117,14 +31114,14 @@
       <c r="B401" s="23">
         <v>240423001</v>
       </c>
-      <c r="C401" s="100">
+      <c r="C401" s="40">
         <v>45405</v>
       </c>
       <c r="D401" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E401" s="61">
-        <f>IF(C401="","",WEEKNUM(C401,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F401" s="22" t="s">
@@ -31159,15 +31156,12 @@
       <c r="R401" s="22"/>
       <c r="S401" s="22"/>
       <c r="T401" s="22">
-        <f>SUM(O401:S401)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U401" s="27"/>
       <c r="V401" s="10"/>
       <c r="W401" s="11"/>
-      <c r="X401" s="11"/>
-      <c r="Y401" s="11"/>
-      <c r="Z401" s="11"/>
       <c r="AA401" s="95"/>
       <c r="AB401" s="95"/>
       <c r="AC401" s="95"/>
@@ -31179,14 +31173,14 @@
       <c r="B402" s="22">
         <v>240423002</v>
       </c>
-      <c r="C402" s="100">
+      <c r="C402" s="40">
         <v>45405</v>
       </c>
       <c r="D402" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E402" s="61">
-        <f>IF(C402="","",WEEKNUM(C402,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F402" s="22" t="s">
@@ -31221,15 +31215,12 @@
       <c r="R402" s="22"/>
       <c r="S402" s="22"/>
       <c r="T402" s="22">
-        <f>SUM(O402:S402)</f>
+        <f t="shared" ref="T402:T423" si="15">SUM(O402:S402)</f>
         <v>0</v>
       </c>
       <c r="U402" s="27"/>
       <c r="V402" s="10"/>
       <c r="W402" s="11"/>
-      <c r="X402" s="11"/>
-      <c r="Y402" s="11"/>
-      <c r="Z402" s="11"/>
       <c r="AA402" s="95"/>
       <c r="AB402" s="95"/>
       <c r="AC402" s="95"/>
@@ -31241,14 +31232,14 @@
       <c r="B403" s="22">
         <v>240423003</v>
       </c>
-      <c r="C403" s="100">
+      <c r="C403" s="40">
         <v>45405</v>
       </c>
       <c r="D403" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E403" s="61">
-        <f>IF(C403="","",WEEKNUM(C403,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F403" s="22" t="s">
@@ -31283,15 +31274,12 @@
       <c r="R403" s="22"/>
       <c r="S403" s="22"/>
       <c r="T403" s="22">
-        <f>SUM(O403:S403)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U403" s="27"/>
       <c r="V403" s="10"/>
       <c r="W403" s="11"/>
-      <c r="X403" s="11"/>
-      <c r="Y403" s="11"/>
-      <c r="Z403" s="11"/>
       <c r="AA403" s="95"/>
       <c r="AB403" s="95"/>
       <c r="AC403" s="95"/>
@@ -31303,14 +31291,14 @@
       <c r="B404" s="22">
         <v>240423004</v>
       </c>
-      <c r="C404" s="100">
+      <c r="C404" s="40">
         <v>45405</v>
       </c>
       <c r="D404" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E404" s="61">
-        <f>IF(C404="","",WEEKNUM(C404,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F404" s="22" t="s">
@@ -31349,7 +31337,7 @@
       <c r="R404" s="22"/>
       <c r="S404" s="22"/>
       <c r="T404" s="22">
-        <f>SUM(O404:S404)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U404" s="27" t="s">
@@ -31383,14 +31371,14 @@
       <c r="B405" s="22">
         <v>240423005</v>
       </c>
-      <c r="C405" s="100">
+      <c r="C405" s="40">
         <v>45405</v>
       </c>
       <c r="D405" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E405" s="61">
-        <f>IF(C405="","",WEEKNUM(C405,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F405" s="22" t="s">
@@ -31425,15 +31413,12 @@
       <c r="R405" s="22"/>
       <c r="S405" s="22"/>
       <c r="T405" s="22">
-        <f>SUM(O405:S405)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U405" s="27"/>
       <c r="V405" s="10"/>
       <c r="W405" s="11"/>
-      <c r="X405" s="11"/>
-      <c r="Y405" s="11"/>
-      <c r="Z405" s="11"/>
       <c r="AA405" s="95"/>
       <c r="AB405" s="95"/>
       <c r="AC405" s="95"/>
@@ -31445,14 +31430,14 @@
       <c r="B406" s="22">
         <v>240423006</v>
       </c>
-      <c r="C406" s="100">
+      <c r="C406" s="40">
         <v>45405</v>
       </c>
       <c r="D406" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E406" s="61">
-        <f>IF(C406="","",WEEKNUM(C406,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F406" s="22" t="s">
@@ -31487,15 +31472,12 @@
       <c r="R406" s="22"/>
       <c r="S406" s="22"/>
       <c r="T406" s="22">
-        <f>SUM(O406:S406)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U406" s="27"/>
       <c r="V406" s="10"/>
       <c r="W406" s="11"/>
-      <c r="X406" s="11"/>
-      <c r="Y406" s="11"/>
-      <c r="Z406" s="11"/>
       <c r="AA406" s="95"/>
       <c r="AB406" s="95"/>
       <c r="AC406" s="95"/>
@@ -31507,14 +31489,14 @@
       <c r="B407" s="23">
         <v>240424001</v>
       </c>
-      <c r="C407" s="100">
+      <c r="C407" s="40">
         <v>45406</v>
       </c>
       <c r="D407" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E407" s="61">
-        <f>IF(C407="","",WEEKNUM(C407,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F407" s="22" t="s">
@@ -31549,15 +31531,12 @@
       <c r="R407" s="22"/>
       <c r="S407" s="22"/>
       <c r="T407" s="22">
-        <f>SUM(O407:S407)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U407" s="27"/>
       <c r="V407" s="10"/>
       <c r="W407" s="11"/>
-      <c r="X407" s="11"/>
-      <c r="Y407" s="11"/>
-      <c r="Z407" s="11"/>
       <c r="AA407" s="95"/>
       <c r="AB407" s="95"/>
       <c r="AC407" s="95"/>
@@ -31569,14 +31548,14 @@
       <c r="B408" s="22">
         <v>240424002</v>
       </c>
-      <c r="C408" s="100">
+      <c r="C408" s="40">
         <v>45406</v>
       </c>
       <c r="D408" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E408" s="61">
-        <f>IF(C408="","",WEEKNUM(C408,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F408" s="22" t="s">
@@ -31615,7 +31594,7 @@
       <c r="R408" s="22"/>
       <c r="S408" s="22"/>
       <c r="T408" s="22">
-        <f>SUM(O408:S408)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U408" s="27" t="s">
@@ -31647,14 +31626,14 @@
       <c r="B409" s="22">
         <v>240424003</v>
       </c>
-      <c r="C409" s="100">
+      <c r="C409" s="40">
         <v>45406</v>
       </c>
       <c r="D409" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E409" s="61">
-        <f>IF(C409="","",WEEKNUM(C409,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F409" s="22" t="s">
@@ -31689,15 +31668,12 @@
       <c r="R409" s="22"/>
       <c r="S409" s="22"/>
       <c r="T409" s="22">
-        <f>SUM(O409:S409)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U409" s="27"/>
       <c r="V409" s="10"/>
       <c r="W409" s="11"/>
-      <c r="X409" s="11"/>
-      <c r="Y409" s="11"/>
-      <c r="Z409" s="11"/>
       <c r="AA409" s="95"/>
       <c r="AB409" s="95"/>
       <c r="AC409" s="95"/>
@@ -31709,14 +31685,14 @@
       <c r="B410" s="22">
         <v>240424004</v>
       </c>
-      <c r="C410" s="100">
+      <c r="C410" s="40">
         <v>45406</v>
       </c>
       <c r="D410" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E410" s="61">
-        <f>IF(C410="","",WEEKNUM(C410,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F410" s="22" t="s">
@@ -31751,15 +31727,12 @@
       <c r="R410" s="22"/>
       <c r="S410" s="22"/>
       <c r="T410" s="22">
-        <f>SUM(O410:S410)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U410" s="27"/>
       <c r="V410" s="10"/>
       <c r="W410" s="11"/>
-      <c r="X410" s="11"/>
-      <c r="Y410" s="11"/>
-      <c r="Z410" s="11"/>
       <c r="AA410" s="95"/>
       <c r="AB410" s="95"/>
       <c r="AC410" s="95"/>
@@ -31771,14 +31744,14 @@
       <c r="B411" s="22">
         <v>240424005</v>
       </c>
-      <c r="C411" s="100">
+      <c r="C411" s="40">
         <v>45406</v>
       </c>
       <c r="D411" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E411" s="61">
-        <f>IF(C411="","",WEEKNUM(C411,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F411" s="22" t="s">
@@ -31813,15 +31786,12 @@
       <c r="R411" s="22"/>
       <c r="S411" s="22"/>
       <c r="T411" s="22">
-        <f>SUM(O411:S411)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U411" s="27"/>
       <c r="V411" s="10"/>
       <c r="W411" s="11"/>
-      <c r="X411" s="11"/>
-      <c r="Y411" s="11"/>
-      <c r="Z411" s="11"/>
       <c r="AA411" s="95"/>
       <c r="AB411" s="95"/>
       <c r="AC411" s="95"/>
@@ -31833,14 +31803,14 @@
       <c r="B412" s="22">
         <v>240424006</v>
       </c>
-      <c r="C412" s="100">
+      <c r="C412" s="40">
         <v>45406</v>
       </c>
       <c r="D412" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E412" s="61">
-        <f>IF(C412="","",WEEKNUM(C412,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F412" s="22" t="s">
@@ -31875,15 +31845,12 @@
       <c r="R412" s="22"/>
       <c r="S412" s="22"/>
       <c r="T412" s="22">
-        <f>SUM(O412:S412)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U412" s="27"/>
       <c r="V412" s="10"/>
       <c r="W412" s="11"/>
-      <c r="X412" s="11"/>
-      <c r="Y412" s="11"/>
-      <c r="Z412" s="11"/>
       <c r="AA412" s="95"/>
       <c r="AB412" s="95"/>
       <c r="AC412" s="95"/>
@@ -31895,14 +31862,14 @@
       <c r="B413" s="22">
         <v>240424007</v>
       </c>
-      <c r="C413" s="100">
+      <c r="C413" s="40">
         <v>45406</v>
       </c>
       <c r="D413" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E413" s="61">
-        <f>IF(C413="","",WEEKNUM(C413,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F413" s="22" t="s">
@@ -31937,15 +31904,12 @@
       <c r="R413" s="22"/>
       <c r="S413" s="22"/>
       <c r="T413" s="22">
-        <f>SUM(O413:S413)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U413" s="27"/>
       <c r="V413" s="10"/>
       <c r="W413" s="11"/>
-      <c r="X413" s="11"/>
-      <c r="Y413" s="11"/>
-      <c r="Z413" s="11"/>
       <c r="AA413" s="95"/>
       <c r="AB413" s="95"/>
       <c r="AC413" s="95"/>
@@ -31957,14 +31921,14 @@
       <c r="B414" s="22">
         <v>240424008</v>
       </c>
-      <c r="C414" s="100">
+      <c r="C414" s="40">
         <v>45406</v>
       </c>
       <c r="D414" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E414" s="61">
-        <f>IF(C414="","",WEEKNUM(C414,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F414" s="22" t="s">
@@ -32003,7 +31967,7 @@
       <c r="R414" s="22"/>
       <c r="S414" s="22"/>
       <c r="T414" s="22">
-        <f>SUM(O414:S414)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U414" s="27" t="s">
@@ -32035,14 +31999,14 @@
       <c r="B415" s="22">
         <v>240424008</v>
       </c>
-      <c r="C415" s="100">
+      <c r="C415" s="40">
         <v>45406</v>
       </c>
       <c r="D415" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E415" s="61">
-        <f>IF(C415="","",WEEKNUM(C415,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F415" s="22" t="s">
@@ -32073,7 +32037,7 @@
       </c>
       <c r="S415" s="22"/>
       <c r="T415" s="22">
-        <f>SUM(O415:S415)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U415" s="27" t="s">
@@ -32105,14 +32069,14 @@
       <c r="B416" s="22">
         <v>240424008</v>
       </c>
-      <c r="C416" s="100">
+      <c r="C416" s="40">
         <v>45406</v>
       </c>
       <c r="D416" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E416" s="61">
-        <f>IF(C416="","",WEEKNUM(C416,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F416" s="22" t="s">
@@ -32143,7 +32107,7 @@
       <c r="R416" s="22"/>
       <c r="S416" s="22"/>
       <c r="T416" s="22">
-        <f>SUM(O416:S416)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U416" s="27" t="s">
@@ -32175,14 +32139,14 @@
       <c r="B417" s="22">
         <v>240424008</v>
       </c>
-      <c r="C417" s="100">
+      <c r="C417" s="40">
         <v>45406</v>
       </c>
       <c r="D417" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E417" s="61">
-        <f>IF(C417="","",WEEKNUM(C417,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F417" s="22" t="s">
@@ -32213,7 +32177,7 @@
       <c r="R417" s="22"/>
       <c r="S417" s="22"/>
       <c r="T417" s="22">
-        <f>SUM(O417:S417)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="U417" s="27" t="s">
@@ -32245,14 +32209,14 @@
       <c r="B418" s="23">
         <v>240425001</v>
       </c>
-      <c r="C418" s="100">
+      <c r="C418" s="40">
         <v>45407</v>
       </c>
       <c r="D418" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E418" s="61">
-        <f>IF(C418="","",WEEKNUM(C418,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F418" s="22" t="s">
@@ -32287,15 +32251,12 @@
       <c r="R418" s="22"/>
       <c r="S418" s="22"/>
       <c r="T418" s="22">
-        <f>SUM(O418:S418)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U418" s="27"/>
       <c r="V418" s="10"/>
       <c r="W418" s="11"/>
-      <c r="X418" s="11"/>
-      <c r="Y418" s="11"/>
-      <c r="Z418" s="11"/>
       <c r="AA418" s="95"/>
       <c r="AB418" s="95"/>
       <c r="AC418" s="95"/>
@@ -32307,14 +32268,14 @@
       <c r="B419" s="22">
         <v>240425002</v>
       </c>
-      <c r="C419" s="100">
+      <c r="C419" s="40">
         <v>45407</v>
       </c>
       <c r="D419" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E419" s="61">
-        <f>IF(C419="","",WEEKNUM(C419,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F419" s="22" t="s">
@@ -32353,7 +32314,7 @@
       <c r="R419" s="22"/>
       <c r="S419" s="22"/>
       <c r="T419" s="22">
-        <f>SUM(O419:S419)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U419" s="27" t="s">
@@ -32385,14 +32346,14 @@
       <c r="B420" s="22">
         <v>240425003</v>
       </c>
-      <c r="C420" s="100">
+      <c r="C420" s="40">
         <v>45407</v>
       </c>
       <c r="D420" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E420" s="61">
-        <f>IF(C420="","",WEEKNUM(C420,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F420" s="22" t="s">
@@ -32427,15 +32388,12 @@
       <c r="R420" s="22"/>
       <c r="S420" s="22"/>
       <c r="T420" s="22">
-        <f>SUM(O420:S420)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U420" s="27"/>
       <c r="V420" s="10"/>
       <c r="W420" s="11"/>
-      <c r="X420" s="11"/>
-      <c r="Y420" s="11"/>
-      <c r="Z420" s="11"/>
       <c r="AA420" s="95"/>
       <c r="AB420" s="95"/>
       <c r="AC420" s="95"/>
@@ -32447,14 +32405,14 @@
       <c r="B421" s="22">
         <v>240425004</v>
       </c>
-      <c r="C421" s="100">
+      <c r="C421" s="40">
         <v>45407</v>
       </c>
       <c r="D421" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E421" s="61">
-        <f>IF(C421="","",WEEKNUM(C421,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F421" s="22" t="s">
@@ -32489,15 +32447,12 @@
       <c r="R421" s="22"/>
       <c r="S421" s="22"/>
       <c r="T421" s="22">
-        <f>SUM(O421:S421)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U421" s="27"/>
       <c r="V421" s="10"/>
       <c r="W421" s="11"/>
-      <c r="X421" s="11"/>
-      <c r="Y421" s="11"/>
-      <c r="Z421" s="11"/>
       <c r="AA421" s="95"/>
       <c r="AB421" s="95"/>
       <c r="AC421" s="95"/>
@@ -32509,14 +32464,14 @@
       <c r="B422" s="22">
         <v>240425005</v>
       </c>
-      <c r="C422" s="100">
+      <c r="C422" s="40">
         <v>45407</v>
       </c>
       <c r="D422" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E422" s="61">
-        <f>IF(C422="","",WEEKNUM(C422,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F422" s="22" t="s">
@@ -32555,7 +32510,7 @@
       <c r="R422" s="22"/>
       <c r="S422" s="22"/>
       <c r="T422" s="22">
-        <f>SUM(O422:S422)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U422" s="27" t="s">
@@ -32587,14 +32542,14 @@
       <c r="B423" s="22">
         <v>240425005</v>
       </c>
-      <c r="C423" s="100">
+      <c r="C423" s="40">
         <v>45407</v>
       </c>
       <c r="D423" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E423" s="61">
-        <f>IF(C423="","",WEEKNUM(C423,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F423" s="22" t="s">
@@ -32625,7 +32580,7 @@
       <c r="R423" s="22"/>
       <c r="S423" s="22"/>
       <c r="T423" s="22">
-        <f>SUM(O423:S423)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U423" s="27" t="s">
@@ -32657,14 +32612,14 @@
       <c r="B424" s="22">
         <v>240425006</v>
       </c>
-      <c r="C424" s="100">
+      <c r="C424" s="40">
         <v>45407</v>
       </c>
       <c r="D424" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E424" s="61">
-        <f>IF(C424="","",WEEKNUM(C424,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F424" s="22" t="s">
@@ -32702,9 +32657,6 @@
       <c r="U424" s="95"/>
       <c r="V424" s="10"/>
       <c r="W424" s="11"/>
-      <c r="X424" s="11"/>
-      <c r="Y424" s="11"/>
-      <c r="Z424" s="11"/>
       <c r="AA424" s="95"/>
       <c r="AB424" s="95"/>
       <c r="AC424" s="95"/>
@@ -32716,14 +32668,14 @@
       <c r="B425" s="22">
         <v>240425007</v>
       </c>
-      <c r="C425" s="100">
+      <c r="C425" s="40">
         <v>45407</v>
       </c>
       <c r="D425" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E425" s="61">
-        <f>IF(C425="","",WEEKNUM(C425,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F425" s="22" t="s">
@@ -32761,9 +32713,6 @@
       <c r="U425" s="95"/>
       <c r="V425" s="10"/>
       <c r="W425" s="11"/>
-      <c r="X425" s="11"/>
-      <c r="Y425" s="11"/>
-      <c r="Z425" s="11"/>
       <c r="AA425" s="95"/>
       <c r="AB425" s="95"/>
       <c r="AC425" s="95"/>
@@ -32775,14 +32724,14 @@
       <c r="B426" s="22">
         <v>240425008</v>
       </c>
-      <c r="C426" s="100">
+      <c r="C426" s="40">
         <v>45407</v>
       </c>
       <c r="D426" s="22" t="s">
         <v>356</v>
       </c>
       <c r="E426" s="61">
-        <f>IF(C426="","",WEEKNUM(C426,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F426" s="22" t="s">
@@ -32820,9 +32769,6 @@
       <c r="U426" s="95"/>
       <c r="V426" s="10"/>
       <c r="W426" s="11"/>
-      <c r="X426" s="11"/>
-      <c r="Y426" s="11"/>
-      <c r="Z426" s="11"/>
       <c r="AA426" s="95"/>
       <c r="AB426" s="95"/>
       <c r="AC426" s="95"/>
@@ -33688,7 +33634,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
@@ -33698,7 +33644,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 W75:W177">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
@@ -33709,9 +33655,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y177">
       <formula1>INDIRECT($X75)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426">
-      <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X177">
       <formula1>[1]下拉列表源数据!#REF!</formula1>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$453</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="502">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1416,6 +1416,36 @@
   </si>
   <si>
     <t>DD259045</t>
+  </si>
+  <si>
+    <t>视频无语音对讲功能</t>
+  </si>
+  <si>
+    <t>视频异常</t>
+  </si>
+  <si>
+    <t>DD258603</t>
+  </si>
+  <si>
+    <t>DD257756</t>
+  </si>
+  <si>
+    <t>猫眼镜片起翘*4</t>
+  </si>
+  <si>
+    <t>DD256236</t>
+  </si>
+  <si>
+    <t>猫眼镜片起翘*2</t>
+  </si>
+  <si>
+    <t>漏装前面板橡胶垫</t>
+  </si>
+  <si>
+    <t>USB底座和钥匙盖，颜色不一样（复制模未报备）*6</t>
+  </si>
+  <si>
+    <t>前手柄划伤（已加抽）</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -3762,9 +3792,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE426" totalsRowShown="0">
-  <autoFilter ref="A2:AE426"/>
-  <sortState ref="A2:AE426">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE453" totalsRowShown="0">
+  <autoFilter ref="A2:AE453"/>
+  <sortState ref="A2:AE453">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4056,12 +4086,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE426"/>
+  <dimension ref="A1:AE453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I424" sqref="I424"/>
+      <selection pane="bottomLeft" activeCell="I448" sqref="I448:I453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -29083,7 +29113,7 @@
         <v>356</v>
       </c>
       <c r="E370" s="61">
-        <f t="shared" ref="E370:E426" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
+        <f t="shared" ref="E370:E433" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
         <v>16</v>
       </c>
       <c r="F370" s="22" t="s">
@@ -32773,12 +32803,1899 @@
       <c r="AB426" s="95"/>
       <c r="AC426" s="95"/>
     </row>
+    <row r="427" customHeight="1" spans="1:31">
+      <c r="A427" s="22">
+        <v>426</v>
+      </c>
+      <c r="B427" s="23">
+        <v>240426001</v>
+      </c>
+      <c r="C427" s="40">
+        <v>45408</v>
+      </c>
+      <c r="D427" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E427" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F427" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G427" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="H427" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I427" s="22" t="str">
+        <f>VLOOKUP(H427,[2]外O细分型号!A:B,2,0)</f>
+        <v>G500</v>
+      </c>
+      <c r="J427" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K427" s="22">
+        <v>143</v>
+      </c>
+      <c r="L427" s="22">
+        <v>8</v>
+      </c>
+      <c r="M427" s="22"/>
+      <c r="N427" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O427" s="22"/>
+      <c r="P427" s="22"/>
+      <c r="Q427" s="22"/>
+      <c r="R427" s="22"/>
+      <c r="S427" s="22"/>
+      <c r="T427" s="22">
+        <f t="shared" ref="T427:T440" si="16">SUM(O427:S427)</f>
+        <v>0</v>
+      </c>
+      <c r="U427" s="27"/>
+      <c r="V427" s="10"/>
+      <c r="W427" s="11"/>
+      <c r="AA427" s="95"/>
+      <c r="AB427" s="95"/>
+      <c r="AC427" s="95"/>
+      <c r="AD427" s="95"/>
+      <c r="AE427" s="95"/>
+    </row>
+    <row r="428" customHeight="1" spans="1:31">
+      <c r="A428" s="22">
+        <v>427</v>
+      </c>
+      <c r="B428" s="22">
+        <v>240426002</v>
+      </c>
+      <c r="C428" s="40">
+        <v>45408</v>
+      </c>
+      <c r="D428" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E428" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F428" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G428" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H428" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I428" s="22" t="str">
+        <f>VLOOKUP(H428,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J428" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K428" s="22">
+        <v>1152</v>
+      </c>
+      <c r="L428" s="22">
+        <v>32</v>
+      </c>
+      <c r="M428" s="22"/>
+      <c r="N428" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O428" s="22"/>
+      <c r="P428" s="22"/>
+      <c r="Q428" s="22"/>
+      <c r="R428" s="22"/>
+      <c r="S428" s="22"/>
+      <c r="T428" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U428" s="27"/>
+      <c r="V428" s="10"/>
+      <c r="W428" s="11"/>
+      <c r="AA428" s="95"/>
+      <c r="AB428" s="95"/>
+      <c r="AC428" s="95"/>
+      <c r="AD428" s="95"/>
+      <c r="AE428" s="95"/>
+    </row>
+    <row r="429" customHeight="1" spans="1:31">
+      <c r="A429" s="22">
+        <v>428</v>
+      </c>
+      <c r="B429" s="22">
+        <v>240426003</v>
+      </c>
+      <c r="C429" s="40">
+        <v>45408</v>
+      </c>
+      <c r="D429" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E429" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F429" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G429" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H429" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="I429" s="22" t="str">
+        <f>VLOOKUP(H429,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MPRO</v>
+      </c>
+      <c r="J429" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K429" s="22">
+        <v>49</v>
+      </c>
+      <c r="L429" s="22">
+        <v>8</v>
+      </c>
+      <c r="M429" s="22">
+        <v>1</v>
+      </c>
+      <c r="N429" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O429" s="22"/>
+      <c r="P429" s="22"/>
+      <c r="Q429" s="22">
+        <v>1</v>
+      </c>
+      <c r="R429" s="22"/>
+      <c r="S429" s="22"/>
+      <c r="T429" s="22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U429" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="V429" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W429" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X429" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y429" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z429" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA429" s="95"/>
+      <c r="AB429" s="95"/>
+      <c r="AC429" s="95"/>
+      <c r="AD429" s="95"/>
+      <c r="AE429" s="95"/>
+    </row>
+    <row r="430" customHeight="1" spans="1:31">
+      <c r="A430" s="22">
+        <v>429</v>
+      </c>
+      <c r="B430" s="22">
+        <v>240426004</v>
+      </c>
+      <c r="C430" s="40">
+        <v>45408</v>
+      </c>
+      <c r="D430" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E430" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F430" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G430" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="H430" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I430" s="22" t="str">
+        <f>VLOOKUP(H430,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CM</v>
+      </c>
+      <c r="J430" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K430" s="22">
+        <v>360</v>
+      </c>
+      <c r="L430" s="22">
+        <v>32</v>
+      </c>
+      <c r="M430" s="22"/>
+      <c r="N430" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O430" s="22"/>
+      <c r="P430" s="22"/>
+      <c r="Q430" s="22"/>
+      <c r="R430" s="22"/>
+      <c r="S430" s="22"/>
+      <c r="T430" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U430" s="27"/>
+      <c r="V430" s="10"/>
+      <c r="W430" s="11"/>
+      <c r="AA430" s="95"/>
+      <c r="AB430" s="95"/>
+      <c r="AC430" s="95"/>
+      <c r="AD430" s="95"/>
+      <c r="AE430" s="95"/>
+    </row>
+    <row r="431" customHeight="1" spans="1:31">
+      <c r="A431" s="22">
+        <v>430</v>
+      </c>
+      <c r="B431" s="23">
+        <v>240427001</v>
+      </c>
+      <c r="C431" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D431" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E431" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F431" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G431" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H431" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I431" s="22" t="str">
+        <f>VLOOKUP(H431,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J431" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K431" s="22">
+        <v>256</v>
+      </c>
+      <c r="L431" s="22">
+        <v>8</v>
+      </c>
+      <c r="M431" s="22"/>
+      <c r="N431" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O431" s="22"/>
+      <c r="P431" s="22"/>
+      <c r="Q431" s="22"/>
+      <c r="R431" s="22"/>
+      <c r="S431" s="22"/>
+      <c r="T431" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U431" s="27"/>
+      <c r="V431" s="10"/>
+      <c r="W431" s="11"/>
+      <c r="AA431" s="95"/>
+      <c r="AB431" s="95"/>
+      <c r="AC431" s="95"/>
+      <c r="AD431" s="95"/>
+      <c r="AE431" s="95"/>
+    </row>
+    <row r="432" customHeight="1" spans="1:31">
+      <c r="A432" s="22">
+        <v>431</v>
+      </c>
+      <c r="B432" s="22">
+        <v>240427002</v>
+      </c>
+      <c r="C432" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D432" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E432" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F432" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G432" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H432" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I432" s="22" t="str">
+        <f>VLOOKUP(H432,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J432" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K432" s="22">
+        <v>144</v>
+      </c>
+      <c r="L432" s="22">
+        <v>8</v>
+      </c>
+      <c r="M432" s="22"/>
+      <c r="N432" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O432" s="22"/>
+      <c r="P432" s="22"/>
+      <c r="Q432" s="22"/>
+      <c r="R432" s="22"/>
+      <c r="S432" s="22"/>
+      <c r="T432" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U432" s="27"/>
+      <c r="V432" s="10"/>
+      <c r="W432" s="11"/>
+      <c r="AA432" s="95"/>
+      <c r="AB432" s="95"/>
+      <c r="AC432" s="95"/>
+      <c r="AD432" s="95"/>
+      <c r="AE432" s="95"/>
+    </row>
+    <row r="433" customHeight="1" spans="1:31">
+      <c r="A433" s="22">
+        <v>432</v>
+      </c>
+      <c r="B433" s="22">
+        <v>240427003</v>
+      </c>
+      <c r="C433" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D433" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E433" s="61">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="F433" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G433" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="H433" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I433" s="22" t="str">
+        <f>VLOOKUP(H433,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J433" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K433" s="22">
+        <v>539</v>
+      </c>
+      <c r="L433" s="22">
+        <v>13</v>
+      </c>
+      <c r="M433" s="22"/>
+      <c r="N433" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O433" s="22"/>
+      <c r="P433" s="22"/>
+      <c r="Q433" s="22"/>
+      <c r="R433" s="22"/>
+      <c r="S433" s="22"/>
+      <c r="T433" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U433" s="27"/>
+      <c r="V433" s="10"/>
+      <c r="W433" s="11"/>
+      <c r="AA433" s="95"/>
+      <c r="AB433" s="95"/>
+      <c r="AC433" s="95"/>
+      <c r="AD433" s="95"/>
+      <c r="AE433" s="95"/>
+    </row>
+    <row r="434" customHeight="1" spans="1:31">
+      <c r="A434" s="22">
+        <v>433</v>
+      </c>
+      <c r="B434" s="22">
+        <v>240427004</v>
+      </c>
+      <c r="C434" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D434" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E434" s="61">
+        <f t="shared" ref="E434:E453" si="17">IF(C434="","",WEEKNUM(C434,1))</f>
+        <v>17</v>
+      </c>
+      <c r="F434" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G434" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="H434" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I434" s="22" t="str">
+        <f>VLOOKUP(H434,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J434" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K434" s="22">
+        <v>302</v>
+      </c>
+      <c r="L434" s="22">
+        <v>32</v>
+      </c>
+      <c r="M434" s="22"/>
+      <c r="N434" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O434" s="22"/>
+      <c r="P434" s="22"/>
+      <c r="Q434" s="22"/>
+      <c r="R434" s="22"/>
+      <c r="S434" s="22"/>
+      <c r="T434" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U434" s="27"/>
+      <c r="V434" s="10"/>
+      <c r="W434" s="11"/>
+      <c r="AA434" s="95"/>
+      <c r="AB434" s="95"/>
+      <c r="AC434" s="95"/>
+      <c r="AD434" s="95"/>
+      <c r="AE434" s="95"/>
+    </row>
+    <row r="435" customHeight="1" spans="1:31">
+      <c r="A435" s="22">
+        <v>434</v>
+      </c>
+      <c r="B435" s="22">
+        <v>240427005</v>
+      </c>
+      <c r="C435" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D435" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E435" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F435" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G435" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="H435" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I435" s="22" t="str">
+        <f>VLOOKUP(H435,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CM</v>
+      </c>
+      <c r="J435" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K435" s="22">
+        <v>240</v>
+      </c>
+      <c r="L435" s="22">
+        <v>8</v>
+      </c>
+      <c r="M435" s="22"/>
+      <c r="N435" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O435" s="22"/>
+      <c r="P435" s="22"/>
+      <c r="Q435" s="22"/>
+      <c r="R435" s="22"/>
+      <c r="S435" s="22"/>
+      <c r="T435" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U435" s="27"/>
+      <c r="V435" s="10"/>
+      <c r="W435" s="11"/>
+      <c r="AA435" s="95"/>
+      <c r="AB435" s="95"/>
+      <c r="AC435" s="95"/>
+      <c r="AD435" s="95"/>
+      <c r="AE435" s="95"/>
+    </row>
+    <row r="436" customHeight="1" spans="1:31">
+      <c r="A436" s="22">
+        <v>435</v>
+      </c>
+      <c r="B436" s="22">
+        <v>240427006</v>
+      </c>
+      <c r="C436" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D436" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E436" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F436" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G436" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="H436" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I436" s="22" t="str">
+        <f>VLOOKUP(H436,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CT</v>
+      </c>
+      <c r="J436" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K436" s="22">
+        <v>254</v>
+      </c>
+      <c r="L436" s="22">
+        <v>13</v>
+      </c>
+      <c r="M436" s="22"/>
+      <c r="N436" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O436" s="22"/>
+      <c r="P436" s="22"/>
+      <c r="Q436" s="22"/>
+      <c r="R436" s="22"/>
+      <c r="S436" s="22"/>
+      <c r="T436" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U436" s="27"/>
+      <c r="V436" s="10"/>
+      <c r="W436" s="11"/>
+      <c r="AA436" s="95"/>
+      <c r="AB436" s="95"/>
+      <c r="AC436" s="95"/>
+      <c r="AD436" s="95"/>
+      <c r="AE436" s="95"/>
+    </row>
+    <row r="437" customHeight="1" spans="1:31">
+      <c r="A437" s="22">
+        <v>436</v>
+      </c>
+      <c r="B437" s="22">
+        <v>240427007</v>
+      </c>
+      <c r="C437" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D437" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E437" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F437" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G437" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H437" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I437" s="22" t="str">
+        <f>VLOOKUP(H437,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J437" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K437" s="22">
+        <v>201</v>
+      </c>
+      <c r="L437" s="22">
+        <v>8</v>
+      </c>
+      <c r="M437" s="22"/>
+      <c r="N437" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O437" s="22"/>
+      <c r="P437" s="22"/>
+      <c r="Q437" s="22"/>
+      <c r="R437" s="22"/>
+      <c r="S437" s="22"/>
+      <c r="T437" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U437" s="27"/>
+      <c r="V437" s="10"/>
+      <c r="W437" s="11"/>
+      <c r="AA437" s="95"/>
+      <c r="AB437" s="95"/>
+      <c r="AC437" s="95"/>
+      <c r="AD437" s="95"/>
+      <c r="AE437" s="95"/>
+    </row>
+    <row r="438" customHeight="1" spans="1:31">
+      <c r="A438" s="22">
+        <v>437</v>
+      </c>
+      <c r="B438" s="22">
+        <v>240427008</v>
+      </c>
+      <c r="C438" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D438" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E438" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F438" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G438" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="H438" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I438" s="22" t="str">
+        <f>VLOOKUP(H438,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J438" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K438" s="22">
+        <v>766</v>
+      </c>
+      <c r="L438" s="22">
+        <v>13</v>
+      </c>
+      <c r="M438" s="22"/>
+      <c r="N438" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O438" s="22"/>
+      <c r="P438" s="22"/>
+      <c r="Q438" s="22"/>
+      <c r="R438" s="22"/>
+      <c r="S438" s="22"/>
+      <c r="T438" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U438" s="27"/>
+      <c r="V438" s="10"/>
+      <c r="W438" s="11"/>
+      <c r="AA438" s="95"/>
+      <c r="AB438" s="95"/>
+      <c r="AC438" s="95"/>
+      <c r="AD438" s="95"/>
+      <c r="AE438" s="95"/>
+    </row>
+    <row r="439" customHeight="1" spans="1:31">
+      <c r="A439" s="22">
+        <v>438</v>
+      </c>
+      <c r="B439" s="22">
+        <v>240427009</v>
+      </c>
+      <c r="C439" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D439" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E439" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F439" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G439" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="H439" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I439" s="22" t="str">
+        <f>VLOOKUP(H439,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J439" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K439" s="22">
+        <v>730</v>
+      </c>
+      <c r="L439" s="22">
+        <v>32</v>
+      </c>
+      <c r="M439" s="22">
+        <v>1</v>
+      </c>
+      <c r="N439" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O439" s="22">
+        <v>1</v>
+      </c>
+      <c r="P439" s="22"/>
+      <c r="Q439" s="22"/>
+      <c r="R439" s="22"/>
+      <c r="S439" s="22"/>
+      <c r="T439" s="22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U439" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="V439" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W439" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X439" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y439" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z439" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA439" s="95"/>
+      <c r="AB439" s="95"/>
+      <c r="AC439" s="95"/>
+      <c r="AD439" s="95"/>
+      <c r="AE439" s="95"/>
+    </row>
+    <row r="440" customHeight="1" spans="1:31">
+      <c r="A440" s="22">
+        <v>439</v>
+      </c>
+      <c r="B440" s="22">
+        <v>240427010</v>
+      </c>
+      <c r="C440" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D440" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E440" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F440" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G440" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="H440" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I440" s="22" t="str">
+        <f>VLOOKUP(H440,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J440" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K440" s="22">
+        <v>269</v>
+      </c>
+      <c r="L440" s="22">
+        <v>8</v>
+      </c>
+      <c r="M440" s="22">
+        <v>1</v>
+      </c>
+      <c r="N440" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O440" s="22">
+        <v>1</v>
+      </c>
+      <c r="P440" s="22"/>
+      <c r="Q440" s="22"/>
+      <c r="R440" s="22"/>
+      <c r="S440" s="22"/>
+      <c r="T440" s="22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U440" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="V440" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W440" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X440" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y440" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z440" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA440" s="95"/>
+      <c r="AB440" s="95"/>
+      <c r="AC440" s="95"/>
+      <c r="AD440" s="95"/>
+      <c r="AE440" s="95"/>
+    </row>
+    <row r="441" customHeight="1" spans="1:31">
+      <c r="A441" s="22">
+        <v>440</v>
+      </c>
+      <c r="B441" s="22">
+        <v>240427011</v>
+      </c>
+      <c r="C441" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D441" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E441" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F441" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G441" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="H441" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I441" s="22" t="str">
+        <f>VLOOKUP(H441,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J441" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K441" s="22">
+        <v>95</v>
+      </c>
+      <c r="L441" s="22">
+        <v>8</v>
+      </c>
+      <c r="M441" s="22"/>
+      <c r="N441" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O441" s="22"/>
+      <c r="P441" s="95"/>
+      <c r="Q441" s="95"/>
+      <c r="R441" s="95"/>
+      <c r="S441" s="95"/>
+      <c r="T441" s="95"/>
+      <c r="U441" s="95"/>
+      <c r="V441" s="95"/>
+      <c r="W441" s="95"/>
+      <c r="X441" s="95"/>
+      <c r="Y441" s="97"/>
+      <c r="Z441" s="97"/>
+      <c r="AA441" s="95"/>
+      <c r="AB441" s="95"/>
+      <c r="AC441" s="95"/>
+      <c r="AD441" s="95"/>
+      <c r="AE441" s="95"/>
+    </row>
+    <row r="442" customHeight="1" spans="1:31">
+      <c r="A442" s="22">
+        <v>441</v>
+      </c>
+      <c r="B442" s="22">
+        <v>240427012</v>
+      </c>
+      <c r="C442" s="40">
+        <v>45409</v>
+      </c>
+      <c r="D442" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E442" s="61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="F442" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G442" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="H442" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I442" s="22" t="str">
+        <f>VLOOKUP(H442,[2]外O细分型号!A:B,2,0)</f>
+        <v>P1-CM</v>
+      </c>
+      <c r="J442" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K442" s="22">
+        <v>99</v>
+      </c>
+      <c r="L442" s="22">
+        <v>8</v>
+      </c>
+      <c r="M442" s="22"/>
+      <c r="N442" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O442" s="22"/>
+      <c r="P442" s="95"/>
+      <c r="Q442" s="95"/>
+      <c r="R442" s="95"/>
+      <c r="S442" s="95"/>
+      <c r="T442" s="95"/>
+      <c r="U442" s="95"/>
+      <c r="V442" s="10"/>
+      <c r="W442" s="11"/>
+      <c r="AA442" s="95"/>
+      <c r="AB442" s="95"/>
+      <c r="AC442" s="95"/>
+      <c r="AD442" s="95"/>
+      <c r="AE442" s="95"/>
+    </row>
+    <row r="443" customHeight="1" spans="1:31">
+      <c r="A443" s="22">
+        <v>442</v>
+      </c>
+      <c r="B443" s="23">
+        <v>240428001</v>
+      </c>
+      <c r="C443" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D443" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E443" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F443" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G443" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H443" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I443" s="22" t="str">
+        <f>VLOOKUP(H443,[2]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J443" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K443" s="22">
+        <v>403</v>
+      </c>
+      <c r="L443" s="22">
+        <v>32</v>
+      </c>
+      <c r="M443" s="22"/>
+      <c r="N443" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O443" s="22"/>
+      <c r="P443" s="22"/>
+      <c r="Q443" s="22"/>
+      <c r="R443" s="22"/>
+      <c r="S443" s="22"/>
+      <c r="T443" s="22">
+        <f t="shared" ref="T443:T453" si="18">SUM(O443:S443)</f>
+        <v>0</v>
+      </c>
+      <c r="U443" s="27"/>
+      <c r="V443" s="10"/>
+      <c r="W443" s="11"/>
+      <c r="AA443" s="95"/>
+      <c r="AB443" s="95"/>
+      <c r="AC443" s="95"/>
+      <c r="AD443" s="95"/>
+      <c r="AE443" s="95"/>
+    </row>
+    <row r="444" customHeight="1" spans="1:31">
+      <c r="A444" s="22">
+        <v>443</v>
+      </c>
+      <c r="B444" s="22">
+        <v>240428002</v>
+      </c>
+      <c r="C444" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D444" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E444" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F444" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G444" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H444" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I444" s="22" t="str">
+        <f>VLOOKUP(H444,[2]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J444" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K444" s="22">
+        <v>180</v>
+      </c>
+      <c r="L444" s="22">
+        <v>8</v>
+      </c>
+      <c r="M444" s="22"/>
+      <c r="N444" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O444" s="22"/>
+      <c r="P444" s="22"/>
+      <c r="Q444" s="22"/>
+      <c r="R444" s="22"/>
+      <c r="S444" s="22"/>
+      <c r="T444" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U444" s="27"/>
+      <c r="V444" s="10"/>
+      <c r="W444" s="11"/>
+      <c r="AA444" s="95"/>
+      <c r="AB444" s="95"/>
+      <c r="AC444" s="95"/>
+      <c r="AD444" s="95"/>
+      <c r="AE444" s="95"/>
+    </row>
+    <row r="445" customHeight="1" spans="1:31">
+      <c r="A445" s="22">
+        <v>444</v>
+      </c>
+      <c r="B445" s="22">
+        <v>240428003</v>
+      </c>
+      <c r="C445" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D445" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E445" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F445" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G445" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H445" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I445" s="22" t="str">
+        <f>VLOOKUP(H445,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J445" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K445" s="22">
+        <v>275</v>
+      </c>
+      <c r="L445" s="22">
+        <v>8</v>
+      </c>
+      <c r="M445" s="22">
+        <v>2</v>
+      </c>
+      <c r="N445" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O445" s="22"/>
+      <c r="P445" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q445" s="22"/>
+      <c r="R445" s="22"/>
+      <c r="S445" s="22"/>
+      <c r="T445" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U445" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="V445" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W445" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X445" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y445" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z445" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA445" s="95"/>
+      <c r="AB445" s="95"/>
+      <c r="AC445" s="95"/>
+      <c r="AD445" s="95"/>
+      <c r="AE445" s="95"/>
+    </row>
+    <row r="446" customHeight="1" spans="1:31">
+      <c r="A446" s="22">
+        <v>445</v>
+      </c>
+      <c r="B446" s="22">
+        <v>240428003</v>
+      </c>
+      <c r="C446" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D446" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E446" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F446" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G446" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H446" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I446" s="22" t="str">
+        <f>VLOOKUP(H446,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J446" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K446" s="22"/>
+      <c r="L446" s="22"/>
+      <c r="M446" s="22"/>
+      <c r="N446" s="22"/>
+      <c r="O446" s="22"/>
+      <c r="P446" s="22"/>
+      <c r="Q446" s="22">
+        <v>1</v>
+      </c>
+      <c r="R446" s="22"/>
+      <c r="S446" s="22"/>
+      <c r="T446" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U446" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="V446" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W446" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X446" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y446" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z446" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA446" s="95"/>
+      <c r="AB446" s="95"/>
+      <c r="AC446" s="95"/>
+      <c r="AD446" s="95"/>
+      <c r="AE446" s="95"/>
+    </row>
+    <row r="447" customHeight="1" spans="1:31">
+      <c r="A447" s="22">
+        <v>446</v>
+      </c>
+      <c r="B447" s="22">
+        <v>240428004</v>
+      </c>
+      <c r="C447" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D447" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E447" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F447" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G447" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H447" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I447" s="22" t="str">
+        <f>VLOOKUP(H447,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J447" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K447" s="22">
+        <v>567</v>
+      </c>
+      <c r="L447" s="22">
+        <v>32</v>
+      </c>
+      <c r="M447" s="22"/>
+      <c r="N447" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O447" s="22"/>
+      <c r="P447" s="22"/>
+      <c r="Q447" s="22"/>
+      <c r="R447" s="22"/>
+      <c r="S447" s="22"/>
+      <c r="T447" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U447" s="27"/>
+      <c r="V447" s="10"/>
+      <c r="W447" s="11"/>
+      <c r="AA447" s="95"/>
+      <c r="AB447" s="95"/>
+      <c r="AC447" s="95"/>
+      <c r="AD447" s="95"/>
+      <c r="AE447" s="95"/>
+    </row>
+    <row r="448" customHeight="1" spans="1:31">
+      <c r="A448" s="22">
+        <v>447</v>
+      </c>
+      <c r="B448" s="22">
+        <v>240428005</v>
+      </c>
+      <c r="C448" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D448" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E448" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F448" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G448" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H448" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I448" s="22" t="str">
+        <f>VLOOKUP(H448,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J448" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K448" s="22">
+        <v>1440</v>
+      </c>
+      <c r="L448" s="22">
+        <v>50</v>
+      </c>
+      <c r="M448" s="22">
+        <v>4</v>
+      </c>
+      <c r="N448" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O448" s="22">
+        <v>4</v>
+      </c>
+      <c r="P448" s="22"/>
+      <c r="Q448" s="22"/>
+      <c r="R448" s="22"/>
+      <c r="S448" s="22"/>
+      <c r="T448" s="22">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="U448" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="V448" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W448" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X448" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y448" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z448" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA448" s="95"/>
+      <c r="AB448" s="95"/>
+      <c r="AC448" s="95"/>
+      <c r="AD448" s="95"/>
+      <c r="AE448" s="95"/>
+    </row>
+    <row r="449" customHeight="1" spans="1:31">
+      <c r="A449" s="22">
+        <v>448</v>
+      </c>
+      <c r="B449" s="22">
+        <v>240428006</v>
+      </c>
+      <c r="C449" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D449" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E449" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F449" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G449" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H449" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I449" s="22" t="str">
+        <f>VLOOKUP(H449,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FVPRO</v>
+      </c>
+      <c r="J449" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K449" s="22">
+        <v>288</v>
+      </c>
+      <c r="L449" s="22">
+        <v>32</v>
+      </c>
+      <c r="M449" s="22"/>
+      <c r="N449" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O449" s="22"/>
+      <c r="P449" s="22"/>
+      <c r="Q449" s="22"/>
+      <c r="R449" s="22"/>
+      <c r="S449" s="22"/>
+      <c r="T449" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U449" s="27"/>
+      <c r="V449" s="10"/>
+      <c r="W449" s="11"/>
+      <c r="AA449" s="95"/>
+      <c r="AB449" s="95"/>
+      <c r="AC449" s="95"/>
+      <c r="AD449" s="95"/>
+      <c r="AE449" s="95"/>
+    </row>
+    <row r="450" customHeight="1" spans="1:31">
+      <c r="A450" s="22">
+        <v>449</v>
+      </c>
+      <c r="B450" s="22">
+        <v>240428007</v>
+      </c>
+      <c r="C450" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D450" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E450" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F450" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G450" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H450" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I450" s="22" t="str">
+        <f>VLOOKUP(H450,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J450" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K450" s="22">
+        <v>1356</v>
+      </c>
+      <c r="L450" s="22">
+        <v>50</v>
+      </c>
+      <c r="M450" s="22">
+        <v>9</v>
+      </c>
+      <c r="N450" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O450" s="22">
+        <v>2</v>
+      </c>
+      <c r="P450" s="22"/>
+      <c r="Q450" s="22"/>
+      <c r="R450" s="22"/>
+      <c r="S450" s="22"/>
+      <c r="T450" s="22">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="U450" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="V450" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W450" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X450" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y450" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z450" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA450" s="95"/>
+      <c r="AB450" s="95"/>
+      <c r="AC450" s="95"/>
+      <c r="AD450" s="95"/>
+      <c r="AE450" s="95"/>
+    </row>
+    <row r="451" customHeight="1" spans="1:31">
+      <c r="A451" s="22">
+        <v>450</v>
+      </c>
+      <c r="B451" s="22">
+        <v>240428007</v>
+      </c>
+      <c r="C451" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D451" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E451" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F451" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G451" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H451" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I451" s="22" t="str">
+        <f>VLOOKUP(H451,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J451" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K451" s="22"/>
+      <c r="L451" s="22"/>
+      <c r="M451" s="22"/>
+      <c r="N451" s="22"/>
+      <c r="O451" s="22"/>
+      <c r="P451" s="22"/>
+      <c r="Q451" s="22"/>
+      <c r="R451" s="22">
+        <v>1</v>
+      </c>
+      <c r="S451" s="22"/>
+      <c r="T451" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U451" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="V451" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W451" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X451" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y451" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z451" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA451" s="95"/>
+      <c r="AB451" s="95"/>
+      <c r="AC451" s="95"/>
+      <c r="AD451" s="95"/>
+      <c r="AE451" s="95"/>
+    </row>
+    <row r="452" customHeight="1" spans="1:31">
+      <c r="A452" s="22">
+        <v>451</v>
+      </c>
+      <c r="B452" s="22">
+        <v>240428007</v>
+      </c>
+      <c r="C452" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D452" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E452" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F452" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G452" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H452" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I452" s="22" t="str">
+        <f>VLOOKUP(H452,[2]外O细分型号!A:B,2,0)</f>
+        <v>Q3FPRO</v>
+      </c>
+      <c r="J452" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K452" s="22"/>
+      <c r="L452" s="22"/>
+      <c r="M452" s="22"/>
+      <c r="N452" s="22"/>
+      <c r="O452" s="22">
+        <v>6</v>
+      </c>
+      <c r="P452" s="22"/>
+      <c r="Q452" s="22"/>
+      <c r="R452" s="22"/>
+      <c r="S452" s="22"/>
+      <c r="T452" s="22">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="U452" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="V452" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W452" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X452" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y452" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z452" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA452" s="95"/>
+      <c r="AB452" s="95"/>
+      <c r="AC452" s="95"/>
+      <c r="AD452" s="95"/>
+      <c r="AE452" s="95"/>
+    </row>
+    <row r="453" customHeight="1" spans="1:31">
+      <c r="A453" s="22">
+        <v>452</v>
+      </c>
+      <c r="B453" s="22">
+        <v>240428008</v>
+      </c>
+      <c r="C453" s="40">
+        <v>45410</v>
+      </c>
+      <c r="D453" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E453" s="61">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="F453" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G453" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H453" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I453" s="22" t="str">
+        <f>VLOOKUP(H453,[2]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J453" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K453" s="22">
+        <v>270</v>
+      </c>
+      <c r="L453" s="22">
+        <v>16</v>
+      </c>
+      <c r="M453" s="22">
+        <v>1</v>
+      </c>
+      <c r="N453" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O453" s="22">
+        <v>1</v>
+      </c>
+      <c r="P453" s="22"/>
+      <c r="Q453" s="22"/>
+      <c r="R453" s="22"/>
+      <c r="S453" s="22"/>
+      <c r="T453" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U453" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="V453" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W453" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X453" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y453" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z453" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA453" s="95"/>
+      <c r="AB453" s="95"/>
+      <c r="AC453" s="95"/>
+      <c r="AD453" s="95"/>
+      <c r="AE453" s="95"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" dxfId="0" priority="202" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="203" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="204" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="cellIs" dxfId="0" priority="199" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="200" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="201" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="198" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="0" priority="190" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="191" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="192" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="cellIs" dxfId="0" priority="187" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="188" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="189" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="cellIs" dxfId="0" priority="184" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="186" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
     <cfRule type="cellIs" dxfId="0" priority="178" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32789,7 +34706,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="N42">
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="182" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="183" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
     <cfRule type="cellIs" dxfId="0" priority="175" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32800,7 +34728,18 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
     <cfRule type="cellIs" dxfId="0" priority="172" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32811,18 +34750,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="170" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
+  <conditionalFormatting sqref="N63">
     <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32833,7 +34761,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="N66">
     <cfRule type="cellIs" dxfId="0" priority="163" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32844,7 +34772,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
+  <conditionalFormatting sqref="N67">
     <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32855,18 +34783,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="155" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="156" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
+  <conditionalFormatting sqref="N68">
     <cfRule type="cellIs" dxfId="0" priority="157" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32877,84 +34794,103 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
+  <conditionalFormatting sqref="N75">
+    <cfRule type="cellIs" dxfId="3" priority="2507" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="152" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2508" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
+  <conditionalFormatting sqref="N80">
+    <cfRule type="cellIs" dxfId="3" priority="2505" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="146" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2506" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="0" priority="148" operator="equal">
+  <conditionalFormatting sqref="N81">
+    <cfRule type="cellIs" dxfId="3" priority="2503" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2504" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="cellIs" dxfId="0" priority="142" operator="equal">
+  <conditionalFormatting sqref="N82">
+    <cfRule type="cellIs" dxfId="3" priority="2501" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="143" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2502" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="0" priority="139" operator="equal">
+  <conditionalFormatting sqref="N85">
+    <cfRule type="cellIs" dxfId="3" priority="2499" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="140" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2500" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
+  <conditionalFormatting sqref="N89">
+    <cfRule type="cellIs" dxfId="3" priority="2495" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="137" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2496" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="cellIs" dxfId="0" priority="133" operator="equal">
+  <conditionalFormatting sqref="N92">
+    <cfRule type="cellIs" dxfId="3" priority="2497" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2498" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75">
+  <conditionalFormatting sqref="N93">
+    <cfRule type="cellIs" dxfId="3" priority="2493" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2494" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N94">
+    <cfRule type="cellIs" dxfId="3" priority="2491" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2492" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N95">
+    <cfRule type="cellIs" dxfId="3" priority="2489" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2490" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N100">
+    <cfRule type="cellIs" dxfId="3" priority="2487" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2488" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="cellIs" dxfId="3" priority="2485" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2486" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105">
     <cfRule type="cellIs" dxfId="3" priority="2483" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32962,7 +34898,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="N106">
     <cfRule type="cellIs" dxfId="3" priority="2481" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32970,7 +34906,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81">
+  <conditionalFormatting sqref="N111">
     <cfRule type="cellIs" dxfId="3" priority="2479" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32978,7 +34914,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
+  <conditionalFormatting sqref="N118">
     <cfRule type="cellIs" dxfId="3" priority="2477" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32986,7 +34922,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
+  <conditionalFormatting sqref="N119">
     <cfRule type="cellIs" dxfId="3" priority="2475" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -32994,7 +34930,15 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89">
+  <conditionalFormatting sqref="N120">
+    <cfRule type="cellIs" dxfId="3" priority="2473" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2474" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N121">
     <cfRule type="cellIs" dxfId="3" priority="2471" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33002,15 +34946,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="cellIs" dxfId="3" priority="2473" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2474" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N93">
+  <conditionalFormatting sqref="N126">
     <cfRule type="cellIs" dxfId="3" priority="2469" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33018,7 +34954,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N94">
+  <conditionalFormatting sqref="N131">
     <cfRule type="cellIs" dxfId="3" priority="2467" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33026,7 +34962,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N95">
+  <conditionalFormatting sqref="N134">
     <cfRule type="cellIs" dxfId="3" priority="2465" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33034,7 +34970,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100">
+  <conditionalFormatting sqref="N135">
     <cfRule type="cellIs" dxfId="3" priority="2463" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33042,7 +34978,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103">
+  <conditionalFormatting sqref="N139">
     <cfRule type="cellIs" dxfId="3" priority="2461" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33050,15 +34986,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N105">
-    <cfRule type="cellIs" dxfId="3" priority="2459" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2460" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106">
+  <conditionalFormatting sqref="N140">
     <cfRule type="cellIs" dxfId="3" priority="2457" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33066,7 +34994,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N111">
+  <conditionalFormatting sqref="N141">
     <cfRule type="cellIs" dxfId="3" priority="2455" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33074,7 +35002,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N118">
+  <conditionalFormatting sqref="N142">
     <cfRule type="cellIs" dxfId="3" priority="2453" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33082,7 +35010,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N119">
+  <conditionalFormatting sqref="N143">
     <cfRule type="cellIs" dxfId="3" priority="2451" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33090,7 +35018,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120">
+  <conditionalFormatting sqref="N145">
     <cfRule type="cellIs" dxfId="3" priority="2449" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33098,7 +35026,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N121">
+  <conditionalFormatting sqref="N147">
     <cfRule type="cellIs" dxfId="3" priority="2447" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33106,7 +35034,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N126">
+  <conditionalFormatting sqref="N152">
     <cfRule type="cellIs" dxfId="3" priority="2445" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33114,7 +35042,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N131">
+  <conditionalFormatting sqref="N155">
     <cfRule type="cellIs" dxfId="3" priority="2443" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33122,7 +35050,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N134">
+  <conditionalFormatting sqref="N162">
     <cfRule type="cellIs" dxfId="3" priority="2441" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33130,7 +35058,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N135">
+  <conditionalFormatting sqref="N165">
     <cfRule type="cellIs" dxfId="3" priority="2439" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33138,7 +35066,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N139">
+  <conditionalFormatting sqref="N167">
     <cfRule type="cellIs" dxfId="3" priority="2437" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33146,7 +35074,15 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N140">
+  <conditionalFormatting sqref="N169">
+    <cfRule type="cellIs" dxfId="3" priority="2435" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2436" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N170">
     <cfRule type="cellIs" dxfId="3" priority="2433" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33154,7 +35090,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N141">
+  <conditionalFormatting sqref="N176">
     <cfRule type="cellIs" dxfId="3" priority="2431" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33162,7 +35098,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N142">
+  <conditionalFormatting sqref="N177">
     <cfRule type="cellIs" dxfId="3" priority="2429" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -33170,103 +35106,95 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N143">
-    <cfRule type="cellIs" dxfId="3" priority="2427" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N183">
+    <cfRule type="cellIs" dxfId="2" priority="120" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2428" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N197">
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N145">
-    <cfRule type="cellIs" dxfId="3" priority="2425" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2426" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N202">
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N147">
-    <cfRule type="cellIs" dxfId="3" priority="2423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2424" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N205">
+    <cfRule type="cellIs" dxfId="2" priority="111" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N152">
-    <cfRule type="cellIs" dxfId="3" priority="2421" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2422" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N249">
+    <cfRule type="cellIs" dxfId="2" priority="108" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N155">
-    <cfRule type="cellIs" dxfId="3" priority="2419" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="107" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2420" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N255">
+    <cfRule type="cellIs" dxfId="2" priority="105" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N162">
-    <cfRule type="cellIs" dxfId="3" priority="2417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2418" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N274">
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N165">
-    <cfRule type="cellIs" dxfId="3" priority="2415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2416" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N275">
+    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N167">
-    <cfRule type="cellIs" dxfId="3" priority="2413" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="101" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2414" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169">
-    <cfRule type="cellIs" dxfId="3" priority="2411" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2412" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N170">
-    <cfRule type="cellIs" dxfId="3" priority="2409" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2410" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N176">
-    <cfRule type="cellIs" dxfId="3" priority="2407" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2408" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N177">
-    <cfRule type="cellIs" dxfId="3" priority="2405" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2406" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N183">
+  <conditionalFormatting sqref="N280">
     <cfRule type="cellIs" dxfId="2" priority="96" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33277,7 +35205,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197">
+  <conditionalFormatting sqref="N290">
+    <cfRule type="cellIs" dxfId="2" priority="90" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N291">
     <cfRule type="cellIs" dxfId="2" priority="93" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33288,18 +35227,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N202">
-    <cfRule type="cellIs" dxfId="2" priority="90" operator="equal">
+  <conditionalFormatting sqref="N304">
+    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N205">
+  <conditionalFormatting sqref="N305">
     <cfRule type="cellIs" dxfId="2" priority="87" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33310,18 +35249,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N249">
-    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N255">
+  <conditionalFormatting sqref="N309">
     <cfRule type="cellIs" dxfId="2" priority="81" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33332,7 +35260,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N274">
+  <conditionalFormatting sqref="N311">
     <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33343,7 +35271,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N275">
+  <conditionalFormatting sqref="N312">
     <cfRule type="cellIs" dxfId="2" priority="78" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33354,7 +35282,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N280">
+  <conditionalFormatting sqref="N327">
     <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33365,7 +35293,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N290">
+  <conditionalFormatting sqref="N333">
+    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N350">
     <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33376,18 +35315,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N291">
-    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
+  <conditionalFormatting sqref="N353">
+    <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N304">
+  <conditionalFormatting sqref="N360">
     <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33398,18 +35337,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N305">
-    <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
+  <conditionalFormatting sqref="N371">
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N309">
+  <conditionalFormatting sqref="N372">
     <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33420,7 +35359,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N311">
+  <conditionalFormatting sqref="N380">
     <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33431,18 +35370,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N312">
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N327">
+  <conditionalFormatting sqref="N382">
     <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33453,40 +35381,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N333">
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N350">
-    <cfRule type="cellIs" dxfId="2" priority="42" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N353">
-    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N360">
+  <conditionalFormatting sqref="N408">
     <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33497,7 +35392,62 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N371">
+  <conditionalFormatting sqref="N414">
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N415">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N416">
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N417">
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N422">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N423">
     <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33508,29 +35458,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N372">
-    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N380">
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N382">
+  <conditionalFormatting sqref="N429">
     <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33541,18 +35469,18 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N408">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+  <conditionalFormatting sqref="N440">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N414">
+  <conditionalFormatting sqref="N445">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33563,40 +35491,29 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N415">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N416">
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
+  <conditionalFormatting sqref="N446">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N417">
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+  <conditionalFormatting sqref="N448">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N422">
+  <conditionalFormatting sqref="N450">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -33607,50 +35524,61 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N423">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="N451">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N452">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 N76:N79 N84 N86:N88 N90:N91 N96:N99 N101:N102 N104 N107:N110 N112:N117 N122:N125 N127:N130 N132:N133 N136:N138 N156:N161 N164 N168 N172:N175">
-    <cfRule type="cellIs" dxfId="3" priority="2493" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2517" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2494" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2518" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N144 N153:N154 N148:N151 N146">
-    <cfRule type="cellIs" dxfId="3" priority="2435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2459" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2436" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2460" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y427 Y428 Y429 Y430 Y431 Y432 Y433 Y434 Y435 Y436 Y437 Y438 Y439 Y440 Y442 Y443 Y444 Y445 Y446 Y447 Y448 Y449 Y450 Y451 Y452 Y453 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z401 Z402 Z403 Z404 Z405 Z406 Z407 Z408 Z409 Z410 Z411 Z412 Z413 Z418 Z419 Z420 Z421 Z422 Z423 Z424 Z425 Z426 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372 Z414:Z417">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z401 Z402 Z403 Z404 Z405 Z406 Z407 Z408 Z409 Z410 Z411 Z412 Z413 Z418 Z419 Z420 Z421 Z422 Z423 Z424 Z425 Z426 Z427 Z428 Z429 Z430 Z431 Z432 Z433 Z434 Z435 Z436 Z437 Z438 Z439 Z440 Z442 Z443 Z444 Z445 Z446 Z447 Z448 Z449 Z450 Z451 Z452 Z453 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372 Z414:Z417">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 W75:W177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V427 V428 V429 V430 V431 V432 V433 V434 V435 V436 V437 V438 V439 V440 V441 V442 V443 V444 V445 V446 V447 V448 V449 V450 V451 V452 V453 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 W75:W177">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426 W427 W428 W429 W430 W431 W432 W433 W434 W435 W436 W437 W438 W439 W440 W442 W443 W444 W445 W446 W447 W448 W449 W450 W451 W452 W453 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X427 X428 X429 X430 X431 X432 X433 X434 X435 X436 X437 X438 X439 X440 X442 X443 X444 X445 X446 X447 X448 X449 X450 X451 X452 X453 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
       <formula1>INDIRECT($W3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N405 N406 N407 N408 N414 N422 N423 N426 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398 N401:N404 N409:N413 N415:N417 N418:N421 N424:N425">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N405 N406 N407 N408 N414 N422 N423 N426 N429 N430 N440 N445 N446 N447 N448 N449 N450 N453 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398 N401:N404 N409:N413 N415:N417 N418:N421 N424:N425 N427:N428 N431:N439 N441:N442 N443:N444 N451:N452">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y177">
@@ -33690,10 +35618,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -33714,7 +35642,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -33738,10 +35666,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -33749,28 +35677,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -33794,7 +35722,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -33810,18 +35738,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -33834,7 +35762,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -33842,7 +35770,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -33858,7 +35786,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -33866,15 +35794,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -33898,7 +35826,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -33938,10 +35866,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -33962,7 +35890,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -33978,7 +35906,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -34010,7 +35938,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -34018,7 +35946,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -34026,7 +35954,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -34074,26 +36002,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B50" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B51" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B52" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -34146,7 +36074,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -34162,7 +36090,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$453</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -3771,6 +3771,22 @@
             <v>Q3FVPRO</v>
           </cell>
         </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Q3MPRO2.0长续航版</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>E10PLUS</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>E10PLUS</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -4091,7 +4107,7 @@
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I448" sqref="I448:I453"/>
+      <selection pane="bottomLeft" activeCell="N445" sqref="N445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11720"/>
+    <workbookView windowWidth="27660" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="数据源" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$498</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$532</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4348" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="554">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1542,6 +1542,66 @@
   </si>
   <si>
     <t>数字键2有异物</t>
+  </si>
+  <si>
+    <t>DD259413</t>
+  </si>
+  <si>
+    <t>加抽外观240504-001</t>
+  </si>
+  <si>
+    <t>DD258314</t>
+  </si>
+  <si>
+    <t>新LOGO，新品仓</t>
+  </si>
+  <si>
+    <t>新品仓无说明书（发货单独打包）</t>
+  </si>
+  <si>
+    <t>DD259477</t>
+  </si>
+  <si>
+    <t>后面板电池盒盖卡扣断裂</t>
+  </si>
+  <si>
+    <t>240502-004</t>
+  </si>
+  <si>
+    <t>语音播报异常，触摸面板唤不醒</t>
+  </si>
+  <si>
+    <t>无合格证、说明书、防撞垫，主板接插件不一致</t>
+  </si>
+  <si>
+    <t>前面板下端USB处掉漆</t>
+  </si>
+  <si>
+    <t>DD259512</t>
+  </si>
+  <si>
+    <t>按键369有黑影</t>
+  </si>
+  <si>
+    <t>显示不完整</t>
+  </si>
+  <si>
+    <t>DD257747</t>
+  </si>
+  <si>
+    <t>配件包错误</t>
+  </si>
+  <si>
+    <t>DD258842</t>
+  </si>
+  <si>
+    <t>后面板无开关门丝印</t>
+  </si>
+  <si>
+    <t>原配件包方棒放不进方棒孔</t>
+  </si>
+  <si>
+    <t>DD257757</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -2054,7 +2114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2213,6 +2273,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2335,7 +2408,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2347,34 +2420,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2459,7 +2532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,7 +2906,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3939,9 +4015,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE498" totalsRowShown="0">
-  <autoFilter ref="A2:AE498"/>
-  <sortState ref="A2:AE498">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE532" totalsRowShown="0">
+  <autoFilter ref="A2:AE532"/>
+  <sortState ref="A2:AE532">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4233,12 +4309,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE498"/>
+  <dimension ref="A1:AE532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J505" sqref="J505"/>
+      <selection pane="bottomLeft" activeCell="K525" sqref="K525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -34767,7 +34843,7 @@
       <c r="B454" s="101">
         <v>240429001</v>
       </c>
-      <c r="C454" s="102">
+      <c r="C454" s="40">
         <v>45411</v>
       </c>
       <c r="D454" s="101" t="s">
@@ -34809,15 +34885,15 @@
       <c r="T454" s="101">
         <v>0</v>
       </c>
-      <c r="U454" s="103"/>
-      <c r="V454" s="103"/>
+      <c r="U454" s="104"/>
+      <c r="V454" s="104"/>
       <c r="W454" s="101"/>
       <c r="X454" s="101"/>
       <c r="Y454" s="101"/>
       <c r="Z454" s="101"/>
-      <c r="AA454" s="104"/>
-      <c r="AB454" s="104"/>
-      <c r="AC454" s="104"/>
+      <c r="AA454" s="105"/>
+      <c r="AB454" s="105"/>
+      <c r="AC454" s="105"/>
     </row>
     <row r="455" customHeight="1" spans="1:29">
       <c r="A455" s="100">
@@ -34826,7 +34902,7 @@
       <c r="B455" s="101">
         <v>240429002</v>
       </c>
-      <c r="C455" s="102">
+      <c r="C455" s="40">
         <v>45411</v>
       </c>
       <c r="D455" s="101" t="s">
@@ -34868,15 +34944,15 @@
       <c r="T455" s="101">
         <v>0</v>
       </c>
-      <c r="U455" s="103"/>
-      <c r="V455" s="103"/>
+      <c r="U455" s="104"/>
+      <c r="V455" s="104"/>
       <c r="W455" s="101"/>
       <c r="X455" s="101"/>
       <c r="Y455" s="101"/>
       <c r="Z455" s="101"/>
-      <c r="AA455" s="104"/>
-      <c r="AB455" s="104"/>
-      <c r="AC455" s="104"/>
+      <c r="AA455" s="105"/>
+      <c r="AB455" s="105"/>
+      <c r="AC455" s="105"/>
     </row>
     <row r="456" customHeight="1" spans="1:29">
       <c r="A456" s="100">
@@ -34885,7 +34961,7 @@
       <c r="B456" s="101">
         <v>240429003</v>
       </c>
-      <c r="C456" s="102">
+      <c r="C456" s="40">
         <v>45411</v>
       </c>
       <c r="D456" s="101" t="s">
@@ -34927,15 +35003,15 @@
       <c r="T456" s="101">
         <v>0</v>
       </c>
-      <c r="U456" s="103"/>
-      <c r="V456" s="103"/>
+      <c r="U456" s="104"/>
+      <c r="V456" s="104"/>
       <c r="W456" s="101"/>
       <c r="X456" s="101"/>
       <c r="Y456" s="101"/>
       <c r="Z456" s="101"/>
-      <c r="AA456" s="104"/>
-      <c r="AB456" s="104"/>
-      <c r="AC456" s="104"/>
+      <c r="AA456" s="105"/>
+      <c r="AB456" s="105"/>
+      <c r="AC456" s="105"/>
     </row>
     <row r="457" customHeight="1" spans="1:29">
       <c r="A457" s="100">
@@ -34944,7 +35020,7 @@
       <c r="B457" s="101">
         <v>240429004</v>
       </c>
-      <c r="C457" s="102">
+      <c r="C457" s="40">
         <v>45411</v>
       </c>
       <c r="D457" s="101" t="s">
@@ -34986,15 +35062,15 @@
       <c r="T457" s="101">
         <v>0</v>
       </c>
-      <c r="U457" s="103"/>
-      <c r="V457" s="103"/>
+      <c r="U457" s="104"/>
+      <c r="V457" s="104"/>
       <c r="W457" s="101"/>
       <c r="X457" s="101"/>
       <c r="Y457" s="101"/>
       <c r="Z457" s="101"/>
-      <c r="AA457" s="104"/>
-      <c r="AB457" s="104"/>
-      <c r="AC457" s="104"/>
+      <c r="AA457" s="105"/>
+      <c r="AB457" s="105"/>
+      <c r="AC457" s="105"/>
     </row>
     <row r="458" customHeight="1" spans="1:29">
       <c r="A458" s="100">
@@ -35003,7 +35079,7 @@
       <c r="B458" s="101">
         <v>240429005</v>
       </c>
-      <c r="C458" s="102">
+      <c r="C458" s="40">
         <v>45411</v>
       </c>
       <c r="D458" s="101" t="s">
@@ -35045,15 +35121,15 @@
       <c r="T458" s="101">
         <v>0</v>
       </c>
-      <c r="U458" s="103"/>
-      <c r="V458" s="103"/>
+      <c r="U458" s="104"/>
+      <c r="V458" s="104"/>
       <c r="W458" s="101"/>
       <c r="X458" s="101"/>
       <c r="Y458" s="101"/>
       <c r="Z458" s="101"/>
-      <c r="AA458" s="104"/>
-      <c r="AB458" s="104"/>
-      <c r="AC458" s="104"/>
+      <c r="AA458" s="105"/>
+      <c r="AB458" s="105"/>
+      <c r="AC458" s="105"/>
     </row>
     <row r="459" customHeight="1" spans="1:29">
       <c r="A459" s="100">
@@ -35062,7 +35138,7 @@
       <c r="B459" s="101">
         <v>240429006</v>
       </c>
-      <c r="C459" s="102">
+      <c r="C459" s="40">
         <v>45411</v>
       </c>
       <c r="D459" s="101" t="s">
@@ -35104,15 +35180,15 @@
       <c r="T459" s="101">
         <v>0</v>
       </c>
-      <c r="U459" s="103"/>
-      <c r="V459" s="103"/>
+      <c r="U459" s="104"/>
+      <c r="V459" s="104"/>
       <c r="W459" s="101"/>
       <c r="X459" s="101"/>
       <c r="Y459" s="101"/>
       <c r="Z459" s="101"/>
-      <c r="AA459" s="104"/>
-      <c r="AB459" s="104"/>
-      <c r="AC459" s="104"/>
+      <c r="AA459" s="105"/>
+      <c r="AB459" s="105"/>
+      <c r="AC459" s="105"/>
     </row>
     <row r="460" customHeight="1" spans="1:29">
       <c r="A460" s="100">
@@ -35121,7 +35197,7 @@
       <c r="B460" s="101">
         <v>240429007</v>
       </c>
-      <c r="C460" s="102">
+      <c r="C460" s="40">
         <v>45411</v>
       </c>
       <c r="D460" s="101" t="s">
@@ -35163,15 +35239,15 @@
       <c r="T460" s="101">
         <v>0</v>
       </c>
-      <c r="U460" s="103"/>
-      <c r="V460" s="103"/>
+      <c r="U460" s="104"/>
+      <c r="V460" s="104"/>
       <c r="W460" s="101"/>
       <c r="X460" s="101"/>
       <c r="Y460" s="101"/>
       <c r="Z460" s="101"/>
-      <c r="AA460" s="104"/>
-      <c r="AB460" s="104"/>
-      <c r="AC460" s="104"/>
+      <c r="AA460" s="105"/>
+      <c r="AB460" s="105"/>
+      <c r="AC460" s="105"/>
     </row>
     <row r="461" customHeight="1" spans="1:29">
       <c r="A461" s="100">
@@ -35180,7 +35256,7 @@
       <c r="B461" s="101">
         <v>240429008</v>
       </c>
-      <c r="C461" s="102">
+      <c r="C461" s="40">
         <v>45411</v>
       </c>
       <c r="D461" s="101" t="s">
@@ -35226,10 +35302,10 @@
       <c r="T461" s="101">
         <v>1</v>
       </c>
-      <c r="U461" s="103" t="s">
+      <c r="U461" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="V461" s="103" t="s">
+      <c r="V461" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W461" s="101" t="s">
@@ -35244,9 +35320,9 @@
       <c r="Z461" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA461" s="104"/>
-      <c r="AB461" s="104"/>
-      <c r="AC461" s="104" t="s">
+      <c r="AA461" s="105"/>
+      <c r="AB461" s="105"/>
+      <c r="AC461" s="105" t="s">
         <v>477</v>
       </c>
     </row>
@@ -35257,7 +35333,7 @@
       <c r="B462" s="101">
         <v>240429009</v>
       </c>
-      <c r="C462" s="102">
+      <c r="C462" s="40">
         <v>45411</v>
       </c>
       <c r="D462" s="101" t="s">
@@ -35303,10 +35379,10 @@
       <c r="T462" s="101">
         <v>20</v>
       </c>
-      <c r="U462" s="103" t="s">
+      <c r="U462" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="V462" s="103" t="s">
+      <c r="V462" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W462" s="101" t="s">
@@ -35321,9 +35397,9 @@
       <c r="Z462" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA462" s="104"/>
-      <c r="AB462" s="104"/>
-      <c r="AC462" s="104"/>
+      <c r="AA462" s="105"/>
+      <c r="AB462" s="105"/>
+      <c r="AC462" s="105"/>
     </row>
     <row r="463" customHeight="1" spans="1:29">
       <c r="A463" s="100">
@@ -35332,7 +35408,7 @@
       <c r="B463" s="101">
         <v>240429010</v>
       </c>
-      <c r="C463" s="102">
+      <c r="C463" s="40">
         <v>45411</v>
       </c>
       <c r="D463" s="101" t="s">
@@ -35374,15 +35450,15 @@
       <c r="T463" s="101">
         <v>0</v>
       </c>
-      <c r="U463" s="103"/>
-      <c r="V463" s="103"/>
+      <c r="U463" s="104"/>
+      <c r="V463" s="104"/>
       <c r="W463" s="101"/>
       <c r="X463" s="101"/>
       <c r="Y463" s="101"/>
       <c r="Z463" s="101"/>
-      <c r="AA463" s="104"/>
-      <c r="AB463" s="104"/>
-      <c r="AC463" s="104"/>
+      <c r="AA463" s="105"/>
+      <c r="AB463" s="105"/>
+      <c r="AC463" s="105"/>
     </row>
     <row r="464" customHeight="1" spans="1:29">
       <c r="A464" s="100">
@@ -35391,7 +35467,7 @@
       <c r="B464" s="101">
         <v>240429011</v>
       </c>
-      <c r="C464" s="102">
+      <c r="C464" s="40">
         <v>45411</v>
       </c>
       <c r="D464" s="101" t="s">
@@ -35433,15 +35509,15 @@
       <c r="T464" s="101">
         <v>0</v>
       </c>
-      <c r="U464" s="103"/>
-      <c r="V464" s="103"/>
+      <c r="U464" s="104"/>
+      <c r="V464" s="104"/>
       <c r="W464" s="101"/>
       <c r="X464" s="101"/>
       <c r="Y464" s="101"/>
       <c r="Z464" s="101"/>
-      <c r="AA464" s="104"/>
-      <c r="AB464" s="104"/>
-      <c r="AC464" s="104"/>
+      <c r="AA464" s="105"/>
+      <c r="AB464" s="105"/>
+      <c r="AC464" s="105"/>
     </row>
     <row r="465" customHeight="1" spans="1:29">
       <c r="A465" s="100">
@@ -35450,7 +35526,7 @@
       <c r="B465" s="101">
         <v>240429012</v>
       </c>
-      <c r="C465" s="102">
+      <c r="C465" s="40">
         <v>45411</v>
       </c>
       <c r="D465" s="101" t="s">
@@ -35492,15 +35568,15 @@
       <c r="T465" s="101">
         <v>0</v>
       </c>
-      <c r="U465" s="103"/>
-      <c r="V465" s="103"/>
+      <c r="U465" s="104"/>
+      <c r="V465" s="104"/>
       <c r="W465" s="101"/>
       <c r="X465" s="101"/>
       <c r="Y465" s="101"/>
       <c r="Z465" s="101"/>
-      <c r="AA465" s="104"/>
-      <c r="AB465" s="104"/>
-      <c r="AC465" s="104"/>
+      <c r="AA465" s="105"/>
+      <c r="AB465" s="105"/>
+      <c r="AC465" s="105"/>
     </row>
     <row r="466" customHeight="1" spans="1:29">
       <c r="A466" s="100">
@@ -35509,7 +35585,7 @@
       <c r="B466" s="101">
         <v>240429013</v>
       </c>
-      <c r="C466" s="102">
+      <c r="C466" s="40">
         <v>45411</v>
       </c>
       <c r="D466" s="101" t="s">
@@ -35551,15 +35627,15 @@
       <c r="T466" s="101">
         <v>0</v>
       </c>
-      <c r="U466" s="103"/>
-      <c r="V466" s="103"/>
+      <c r="U466" s="104"/>
+      <c r="V466" s="104"/>
       <c r="W466" s="101"/>
       <c r="X466" s="101"/>
       <c r="Y466" s="101"/>
       <c r="Z466" s="101"/>
-      <c r="AA466" s="104"/>
-      <c r="AB466" s="104"/>
-      <c r="AC466" s="104"/>
+      <c r="AA466" s="105"/>
+      <c r="AB466" s="105"/>
+      <c r="AC466" s="105"/>
     </row>
     <row r="467" customHeight="1" spans="1:29">
       <c r="A467" s="100">
@@ -35568,7 +35644,7 @@
       <c r="B467" s="101">
         <v>240430001</v>
       </c>
-      <c r="C467" s="102">
+      <c r="C467" s="40">
         <v>45412</v>
       </c>
       <c r="D467" s="101" t="s">
@@ -35610,15 +35686,15 @@
       <c r="T467" s="101">
         <v>0</v>
       </c>
-      <c r="U467" s="103"/>
-      <c r="V467" s="103"/>
+      <c r="U467" s="104"/>
+      <c r="V467" s="104"/>
       <c r="W467" s="101"/>
       <c r="X467" s="101"/>
       <c r="Y467" s="101"/>
       <c r="Z467" s="101"/>
-      <c r="AA467" s="104"/>
-      <c r="AB467" s="104"/>
-      <c r="AC467" s="104"/>
+      <c r="AA467" s="105"/>
+      <c r="AB467" s="105"/>
+      <c r="AC467" s="105"/>
     </row>
     <row r="468" customHeight="1" spans="1:29">
       <c r="A468" s="100">
@@ -35627,7 +35703,7 @@
       <c r="B468" s="101">
         <v>240430002</v>
       </c>
-      <c r="C468" s="102">
+      <c r="C468" s="40">
         <v>45412</v>
       </c>
       <c r="D468" s="101" t="s">
@@ -35669,15 +35745,15 @@
       <c r="T468" s="101">
         <v>0</v>
       </c>
-      <c r="U468" s="103"/>
-      <c r="V468" s="103"/>
+      <c r="U468" s="104"/>
+      <c r="V468" s="104"/>
       <c r="W468" s="101"/>
       <c r="X468" s="101"/>
       <c r="Y468" s="101"/>
       <c r="Z468" s="101"/>
-      <c r="AA468" s="104"/>
-      <c r="AB468" s="104"/>
-      <c r="AC468" s="104"/>
+      <c r="AA468" s="105"/>
+      <c r="AB468" s="105"/>
+      <c r="AC468" s="105"/>
     </row>
     <row r="469" customHeight="1" spans="1:29">
       <c r="A469" s="100">
@@ -35686,7 +35762,7 @@
       <c r="B469" s="101">
         <v>240430003</v>
       </c>
-      <c r="C469" s="102">
+      <c r="C469" s="40">
         <v>45412</v>
       </c>
       <c r="D469" s="101" t="s">
@@ -35732,10 +35808,10 @@
       <c r="T469" s="101">
         <v>13</v>
       </c>
-      <c r="U469" s="103" t="s">
+      <c r="U469" s="104" t="s">
         <v>482</v>
       </c>
-      <c r="V469" s="103" t="s">
+      <c r="V469" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W469" s="101" t="s">
@@ -35750,9 +35826,9 @@
       <c r="Z469" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA469" s="104"/>
-      <c r="AB469" s="104"/>
-      <c r="AC469" s="104" t="s">
+      <c r="AA469" s="105"/>
+      <c r="AB469" s="105"/>
+      <c r="AC469" s="105" t="s">
         <v>483</v>
       </c>
     </row>
@@ -35763,7 +35839,7 @@
       <c r="B470" s="101">
         <v>240430004</v>
       </c>
-      <c r="C470" s="102">
+      <c r="C470" s="40">
         <v>45412</v>
       </c>
       <c r="D470" s="101" t="s">
@@ -35809,10 +35885,10 @@
       <c r="T470" s="101">
         <v>1</v>
       </c>
-      <c r="U470" s="103" t="s">
+      <c r="U470" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="V470" s="103" t="s">
+      <c r="V470" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W470" s="101" t="s">
@@ -35827,9 +35903,9 @@
       <c r="Z470" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA470" s="104"/>
-      <c r="AB470" s="104"/>
-      <c r="AC470" s="104"/>
+      <c r="AA470" s="105"/>
+      <c r="AB470" s="105"/>
+      <c r="AC470" s="105"/>
     </row>
     <row r="471" customHeight="1" spans="1:29">
       <c r="A471" s="100">
@@ -35838,7 +35914,7 @@
       <c r="B471" s="101">
         <v>240430005</v>
       </c>
-      <c r="C471" s="102">
+      <c r="C471" s="40">
         <v>45412</v>
       </c>
       <c r="D471" s="101" t="s">
@@ -35880,15 +35956,15 @@
       <c r="T471" s="101">
         <v>0</v>
       </c>
-      <c r="U471" s="103"/>
-      <c r="V471" s="103"/>
+      <c r="U471" s="104"/>
+      <c r="V471" s="104"/>
       <c r="W471" s="101"/>
       <c r="X471" s="101"/>
       <c r="Y471" s="101"/>
       <c r="Z471" s="101"/>
-      <c r="AA471" s="104"/>
-      <c r="AB471" s="104"/>
-      <c r="AC471" s="104"/>
+      <c r="AA471" s="105"/>
+      <c r="AB471" s="105"/>
+      <c r="AC471" s="105"/>
     </row>
     <row r="472" customHeight="1" spans="1:29">
       <c r="A472" s="100">
@@ -35897,7 +35973,7 @@
       <c r="B472" s="101">
         <v>240430006</v>
       </c>
-      <c r="C472" s="102">
+      <c r="C472" s="40">
         <v>45412</v>
       </c>
       <c r="D472" s="101" t="s">
@@ -35939,15 +36015,15 @@
       <c r="T472" s="101">
         <v>0</v>
       </c>
-      <c r="U472" s="103"/>
-      <c r="V472" s="103"/>
+      <c r="U472" s="104"/>
+      <c r="V472" s="104"/>
       <c r="W472" s="101"/>
       <c r="X472" s="101"/>
       <c r="Y472" s="101"/>
       <c r="Z472" s="101"/>
-      <c r="AA472" s="104"/>
-      <c r="AB472" s="104"/>
-      <c r="AC472" s="104"/>
+      <c r="AA472" s="105"/>
+      <c r="AB472" s="105"/>
+      <c r="AC472" s="105"/>
     </row>
     <row r="473" customHeight="1" spans="1:29">
       <c r="A473" s="100">
@@ -35956,7 +36032,7 @@
       <c r="B473" s="101">
         <v>240430007</v>
       </c>
-      <c r="C473" s="102">
+      <c r="C473" s="40">
         <v>45412</v>
       </c>
       <c r="D473" s="101" t="s">
@@ -35998,15 +36074,15 @@
       <c r="T473" s="101">
         <v>0</v>
       </c>
-      <c r="U473" s="103"/>
-      <c r="V473" s="103"/>
+      <c r="U473" s="104"/>
+      <c r="V473" s="104"/>
       <c r="W473" s="101"/>
       <c r="X473" s="101"/>
       <c r="Y473" s="101"/>
       <c r="Z473" s="101"/>
-      <c r="AA473" s="104"/>
-      <c r="AB473" s="104"/>
-      <c r="AC473" s="104"/>
+      <c r="AA473" s="105"/>
+      <c r="AB473" s="105"/>
+      <c r="AC473" s="105"/>
     </row>
     <row r="474" customHeight="1" spans="1:29">
       <c r="A474" s="100">
@@ -36015,7 +36091,7 @@
       <c r="B474" s="101">
         <v>240430008</v>
       </c>
-      <c r="C474" s="102">
+      <c r="C474" s="40">
         <v>45412</v>
       </c>
       <c r="D474" s="101" t="s">
@@ -36057,15 +36133,15 @@
       <c r="T474" s="101">
         <v>0</v>
       </c>
-      <c r="U474" s="103"/>
-      <c r="V474" s="103"/>
+      <c r="U474" s="104"/>
+      <c r="V474" s="104"/>
       <c r="W474" s="101"/>
       <c r="X474" s="101"/>
       <c r="Y474" s="101"/>
       <c r="Z474" s="101"/>
-      <c r="AA474" s="104"/>
-      <c r="AB474" s="104"/>
-      <c r="AC474" s="104"/>
+      <c r="AA474" s="105"/>
+      <c r="AB474" s="105"/>
+      <c r="AC474" s="105"/>
     </row>
     <row r="475" customHeight="1" spans="1:29">
       <c r="A475" s="100">
@@ -36074,7 +36150,7 @@
       <c r="B475" s="101">
         <v>240501001</v>
       </c>
-      <c r="C475" s="102">
+      <c r="C475" s="40">
         <v>45413</v>
       </c>
       <c r="D475" s="101" t="s">
@@ -36120,10 +36196,10 @@
       <c r="T475" s="101">
         <v>1</v>
       </c>
-      <c r="U475" s="103" t="s">
+      <c r="U475" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="V475" s="103" t="s">
+      <c r="V475" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W475" s="101" t="s">
@@ -36138,9 +36214,9 @@
       <c r="Z475" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA475" s="104"/>
-      <c r="AB475" s="104"/>
-      <c r="AC475" s="104" t="s">
+      <c r="AA475" s="105"/>
+      <c r="AB475" s="105"/>
+      <c r="AC475" s="105" t="s">
         <v>368</v>
       </c>
     </row>
@@ -36151,7 +36227,7 @@
       <c r="B476" s="101">
         <v>240501002</v>
       </c>
-      <c r="C476" s="102">
+      <c r="C476" s="40">
         <v>45413</v>
       </c>
       <c r="D476" s="101" t="s">
@@ -36197,10 +36273,10 @@
       <c r="T476" s="101">
         <v>8</v>
       </c>
-      <c r="U476" s="103" t="s">
+      <c r="U476" s="104" t="s">
         <v>378</v>
       </c>
-      <c r="V476" s="103" t="s">
+      <c r="V476" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W476" s="101" t="s">
@@ -36215,9 +36291,9 @@
       <c r="Z476" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA476" s="104"/>
-      <c r="AB476" s="104"/>
-      <c r="AC476" s="104" t="s">
+      <c r="AA476" s="105"/>
+      <c r="AB476" s="105"/>
+      <c r="AC476" s="105" t="s">
         <v>490</v>
       </c>
     </row>
@@ -36228,7 +36304,7 @@
       <c r="B477" s="101">
         <v>240501003</v>
       </c>
-      <c r="C477" s="102">
+      <c r="C477" s="40">
         <v>45413</v>
       </c>
       <c r="D477" s="101" t="s">
@@ -36270,15 +36346,15 @@
       <c r="T477" s="101">
         <v>0</v>
       </c>
-      <c r="U477" s="103"/>
-      <c r="V477" s="103"/>
+      <c r="U477" s="104"/>
+      <c r="V477" s="104"/>
       <c r="W477" s="101"/>
       <c r="X477" s="101"/>
       <c r="Y477" s="101"/>
       <c r="Z477" s="101"/>
-      <c r="AA477" s="104"/>
-      <c r="AB477" s="104"/>
-      <c r="AC477" s="104" t="s">
+      <c r="AA477" s="105"/>
+      <c r="AB477" s="105"/>
+      <c r="AC477" s="105" t="s">
         <v>491</v>
       </c>
     </row>
@@ -36289,7 +36365,7 @@
       <c r="B478" s="101">
         <v>240501004</v>
       </c>
-      <c r="C478" s="102">
+      <c r="C478" s="40">
         <v>45413</v>
       </c>
       <c r="D478" s="101" t="s">
@@ -36331,15 +36407,15 @@
       <c r="T478" s="101">
         <v>0</v>
       </c>
-      <c r="U478" s="103"/>
-      <c r="V478" s="103"/>
+      <c r="U478" s="104"/>
+      <c r="V478" s="104"/>
       <c r="W478" s="101"/>
       <c r="X478" s="101"/>
       <c r="Y478" s="101"/>
       <c r="Z478" s="101"/>
-      <c r="AA478" s="104"/>
-      <c r="AB478" s="104"/>
-      <c r="AC478" s="104" t="s">
+      <c r="AA478" s="105"/>
+      <c r="AB478" s="105"/>
+      <c r="AC478" s="105" t="s">
         <v>368</v>
       </c>
     </row>
@@ -36350,7 +36426,7 @@
       <c r="B479" s="101">
         <v>240501005</v>
       </c>
-      <c r="C479" s="102">
+      <c r="C479" s="40">
         <v>45413</v>
       </c>
       <c r="D479" s="101" t="s">
@@ -36392,15 +36468,15 @@
       <c r="T479" s="101">
         <v>0</v>
       </c>
-      <c r="U479" s="103"/>
-      <c r="V479" s="103"/>
+      <c r="U479" s="104"/>
+      <c r="V479" s="104"/>
       <c r="W479" s="101"/>
       <c r="X479" s="101"/>
       <c r="Y479" s="101"/>
       <c r="Z479" s="101"/>
-      <c r="AA479" s="104"/>
-      <c r="AB479" s="104"/>
-      <c r="AC479" s="104"/>
+      <c r="AA479" s="105"/>
+      <c r="AB479" s="105"/>
+      <c r="AC479" s="105"/>
     </row>
     <row r="480" customHeight="1" spans="1:29">
       <c r="A480" s="100">
@@ -36409,7 +36485,7 @@
       <c r="B480" s="101">
         <v>240501006</v>
       </c>
-      <c r="C480" s="102">
+      <c r="C480" s="40">
         <v>45413</v>
       </c>
       <c r="D480" s="101" t="s">
@@ -36455,10 +36531,10 @@
       <c r="T480" s="101">
         <v>1</v>
       </c>
-      <c r="U480" s="103" t="s">
+      <c r="U480" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="V480" s="103" t="s">
+      <c r="V480" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W480" s="101" t="s">
@@ -36473,9 +36549,9 @@
       <c r="Z480" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA480" s="104"/>
-      <c r="AB480" s="104"/>
-      <c r="AC480" s="104"/>
+      <c r="AA480" s="105"/>
+      <c r="AB480" s="105"/>
+      <c r="AC480" s="105"/>
     </row>
     <row r="481" customHeight="1" spans="1:29">
       <c r="A481" s="100">
@@ -36484,7 +36560,7 @@
       <c r="B481" s="101">
         <v>240501007</v>
       </c>
-      <c r="C481" s="102">
+      <c r="C481" s="40">
         <v>45413</v>
       </c>
       <c r="D481" s="101" t="s">
@@ -36530,10 +36606,10 @@
       <c r="T481" s="101">
         <v>2</v>
       </c>
-      <c r="U481" s="103" t="s">
+      <c r="U481" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="V481" s="103" t="s">
+      <c r="V481" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W481" s="101" t="s">
@@ -36548,9 +36624,9 @@
       <c r="Z481" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA481" s="104"/>
-      <c r="AB481" s="104"/>
-      <c r="AC481" s="104"/>
+      <c r="AA481" s="105"/>
+      <c r="AB481" s="105"/>
+      <c r="AC481" s="105"/>
     </row>
     <row r="482" customHeight="1" spans="1:29">
       <c r="A482" s="100">
@@ -36559,7 +36635,7 @@
       <c r="B482" s="101">
         <v>240501007</v>
       </c>
-      <c r="C482" s="102">
+      <c r="C482" s="40">
         <v>45413</v>
       </c>
       <c r="D482" s="101" t="s">
@@ -36597,10 +36673,10 @@
       <c r="T482" s="101">
         <v>1</v>
       </c>
-      <c r="U482" s="103" t="s">
+      <c r="U482" s="104" t="s">
         <v>493</v>
       </c>
-      <c r="V482" s="103" t="s">
+      <c r="V482" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W482" s="101" t="s">
@@ -36615,9 +36691,9 @@
       <c r="Z482" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA482" s="104"/>
-      <c r="AB482" s="104"/>
-      <c r="AC482" s="104"/>
+      <c r="AA482" s="105"/>
+      <c r="AB482" s="105"/>
+      <c r="AC482" s="105"/>
     </row>
     <row r="483" customHeight="1" spans="1:29">
       <c r="A483" s="100">
@@ -36626,7 +36702,7 @@
       <c r="B483" s="101">
         <v>240501007</v>
       </c>
-      <c r="C483" s="102">
+      <c r="C483" s="40">
         <v>45413</v>
       </c>
       <c r="D483" s="101" t="s">
@@ -36664,10 +36740,10 @@
       <c r="T483" s="101">
         <v>1</v>
       </c>
-      <c r="U483" s="103" t="s">
+      <c r="U483" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="V483" s="103" t="s">
+      <c r="V483" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W483" s="101" t="s">
@@ -36682,9 +36758,9 @@
       <c r="Z483" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA483" s="104"/>
-      <c r="AB483" s="104"/>
-      <c r="AC483" s="104"/>
+      <c r="AA483" s="105"/>
+      <c r="AB483" s="105"/>
+      <c r="AC483" s="105"/>
     </row>
     <row r="484" customHeight="1" spans="1:29">
       <c r="A484" s="100">
@@ -36693,7 +36769,7 @@
       <c r="B484" s="101">
         <v>240502001</v>
       </c>
-      <c r="C484" s="102">
+      <c r="C484" s="40">
         <v>45414</v>
       </c>
       <c r="D484" s="101" t="s">
@@ -36735,15 +36811,15 @@
       <c r="T484" s="101">
         <v>0</v>
       </c>
-      <c r="U484" s="103"/>
-      <c r="V484" s="103"/>
+      <c r="U484" s="104"/>
+      <c r="V484" s="104"/>
       <c r="W484" s="101"/>
       <c r="X484" s="101"/>
       <c r="Y484" s="101"/>
       <c r="Z484" s="101"/>
-      <c r="AA484" s="104"/>
-      <c r="AB484" s="104"/>
-      <c r="AC484" s="104"/>
+      <c r="AA484" s="105"/>
+      <c r="AB484" s="105"/>
+      <c r="AC484" s="105"/>
     </row>
     <row r="485" customHeight="1" spans="1:29">
       <c r="A485" s="100">
@@ -36752,7 +36828,7 @@
       <c r="B485" s="101">
         <v>240502002</v>
       </c>
-      <c r="C485" s="102">
+      <c r="C485" s="40">
         <v>45414</v>
       </c>
       <c r="D485" s="101" t="s">
@@ -36798,10 +36874,10 @@
       <c r="T485" s="101">
         <v>1</v>
       </c>
-      <c r="U485" s="103" t="s">
+      <c r="U485" s="104" t="s">
         <v>496</v>
       </c>
-      <c r="V485" s="103" t="s">
+      <c r="V485" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W485" s="101" t="s">
@@ -36816,9 +36892,9 @@
       <c r="Z485" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA485" s="104"/>
-      <c r="AB485" s="104"/>
-      <c r="AC485" s="104"/>
+      <c r="AA485" s="105"/>
+      <c r="AB485" s="105"/>
+      <c r="AC485" s="105"/>
     </row>
     <row r="486" customHeight="1" spans="1:29">
       <c r="A486" s="100">
@@ -36827,7 +36903,7 @@
       <c r="B486" s="101">
         <v>240502003</v>
       </c>
-      <c r="C486" s="102">
+      <c r="C486" s="40">
         <v>45414</v>
       </c>
       <c r="D486" s="101" t="s">
@@ -36873,10 +36949,10 @@
       <c r="T486" s="101">
         <v>1</v>
       </c>
-      <c r="U486" s="103" t="s">
+      <c r="U486" s="104" t="s">
         <v>497</v>
       </c>
-      <c r="V486" s="103" t="s">
+      <c r="V486" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W486" s="101" t="s">
@@ -36891,9 +36967,9 @@
       <c r="Z486" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA486" s="104"/>
-      <c r="AB486" s="104"/>
-      <c r="AC486" s="104"/>
+      <c r="AA486" s="105"/>
+      <c r="AB486" s="105"/>
+      <c r="AC486" s="105"/>
     </row>
     <row r="487" customHeight="1" spans="1:29">
       <c r="A487" s="100">
@@ -36902,7 +36978,7 @@
       <c r="B487" s="101">
         <v>240502004</v>
       </c>
-      <c r="C487" s="102">
+      <c r="C487" s="40">
         <v>45414</v>
       </c>
       <c r="D487" s="101" t="s">
@@ -36948,10 +37024,10 @@
       <c r="T487" s="101">
         <v>2</v>
       </c>
-      <c r="U487" s="103" t="s">
+      <c r="U487" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="V487" s="103" t="s">
+      <c r="V487" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W487" s="101" t="s">
@@ -36966,9 +37042,9 @@
       <c r="Z487" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA487" s="104"/>
-      <c r="AB487" s="104"/>
-      <c r="AC487" s="104"/>
+      <c r="AA487" s="105"/>
+      <c r="AB487" s="105"/>
+      <c r="AC487" s="105"/>
     </row>
     <row r="488" customHeight="1" spans="1:29">
       <c r="A488" s="100">
@@ -36977,7 +37053,7 @@
       <c r="B488" s="101">
         <v>240504001</v>
       </c>
-      <c r="C488" s="102">
+      <c r="C488" s="40">
         <v>45416</v>
       </c>
       <c r="D488" s="101" t="s">
@@ -37023,10 +37099,10 @@
       <c r="T488" s="101">
         <v>1</v>
       </c>
-      <c r="U488" s="103" t="s">
+      <c r="U488" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="V488" s="103" t="s">
+      <c r="V488" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W488" s="101" t="s">
@@ -37041,9 +37117,9 @@
       <c r="Z488" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA488" s="104"/>
-      <c r="AB488" s="104"/>
-      <c r="AC488" s="104"/>
+      <c r="AA488" s="105"/>
+      <c r="AB488" s="105"/>
+      <c r="AC488" s="105"/>
     </row>
     <row r="489" customHeight="1" spans="1:29">
       <c r="A489" s="100">
@@ -37052,7 +37128,7 @@
       <c r="B489" s="101">
         <v>240504002</v>
       </c>
-      <c r="C489" s="102">
+      <c r="C489" s="40">
         <v>45416</v>
       </c>
       <c r="D489" s="101" t="s">
@@ -37094,15 +37170,15 @@
       <c r="T489" s="101">
         <v>0</v>
       </c>
-      <c r="U489" s="103"/>
-      <c r="V489" s="103"/>
+      <c r="U489" s="104"/>
+      <c r="V489" s="104"/>
       <c r="W489" s="101"/>
       <c r="X489" s="101"/>
       <c r="Y489" s="101"/>
       <c r="Z489" s="101"/>
-      <c r="AA489" s="104"/>
-      <c r="AB489" s="104"/>
-      <c r="AC489" s="104"/>
+      <c r="AA489" s="105"/>
+      <c r="AB489" s="105"/>
+      <c r="AC489" s="105"/>
     </row>
     <row r="490" customHeight="1" spans="1:29">
       <c r="A490" s="100">
@@ -37111,7 +37187,7 @@
       <c r="B490" s="101">
         <v>240504003</v>
       </c>
-      <c r="C490" s="102">
+      <c r="C490" s="40">
         <v>45416</v>
       </c>
       <c r="D490" s="101" t="s">
@@ -37153,15 +37229,15 @@
       <c r="T490" s="101">
         <v>0</v>
       </c>
-      <c r="U490" s="103"/>
-      <c r="V490" s="103"/>
+      <c r="U490" s="104"/>
+      <c r="V490" s="104"/>
       <c r="W490" s="101"/>
       <c r="X490" s="101"/>
       <c r="Y490" s="101"/>
       <c r="Z490" s="101"/>
-      <c r="AA490" s="104"/>
-      <c r="AB490" s="104"/>
-      <c r="AC490" s="104"/>
+      <c r="AA490" s="105"/>
+      <c r="AB490" s="105"/>
+      <c r="AC490" s="105"/>
     </row>
     <row r="491" customHeight="1" spans="1:29">
       <c r="A491" s="100">
@@ -37170,7 +37246,7 @@
       <c r="B491" s="101">
         <v>240504004</v>
       </c>
-      <c r="C491" s="102">
+      <c r="C491" s="40">
         <v>45416</v>
       </c>
       <c r="D491" s="101" t="s">
@@ -37212,15 +37288,15 @@
       <c r="T491" s="101">
         <v>0</v>
       </c>
-      <c r="U491" s="103"/>
-      <c r="V491" s="103"/>
+      <c r="U491" s="104"/>
+      <c r="V491" s="104"/>
       <c r="W491" s="101"/>
       <c r="X491" s="101"/>
       <c r="Y491" s="101"/>
       <c r="Z491" s="101"/>
-      <c r="AA491" s="104"/>
-      <c r="AB491" s="104"/>
-      <c r="AC491" s="104"/>
+      <c r="AA491" s="105"/>
+      <c r="AB491" s="105"/>
+      <c r="AC491" s="105"/>
     </row>
     <row r="492" customHeight="1" spans="1:29">
       <c r="A492" s="100">
@@ -37229,7 +37305,7 @@
       <c r="B492" s="101">
         <v>240504005</v>
       </c>
-      <c r="C492" s="102">
+      <c r="C492" s="40">
         <v>45416</v>
       </c>
       <c r="D492" s="101" t="s">
@@ -37271,15 +37347,15 @@
       <c r="T492" s="101">
         <v>0</v>
       </c>
-      <c r="U492" s="103"/>
-      <c r="V492" s="103"/>
+      <c r="U492" s="104"/>
+      <c r="V492" s="104"/>
       <c r="W492" s="101"/>
       <c r="X492" s="101"/>
       <c r="Y492" s="101"/>
       <c r="Z492" s="101"/>
-      <c r="AA492" s="104"/>
-      <c r="AB492" s="104"/>
-      <c r="AC492" s="104" t="s">
+      <c r="AA492" s="105"/>
+      <c r="AB492" s="105"/>
+      <c r="AC492" s="105" t="s">
         <v>500</v>
       </c>
     </row>
@@ -37290,7 +37366,7 @@
       <c r="B493" s="101">
         <v>240504006</v>
       </c>
-      <c r="C493" s="102">
+      <c r="C493" s="40">
         <v>45416</v>
       </c>
       <c r="D493" s="101" t="s">
@@ -37332,15 +37408,15 @@
       <c r="T493" s="101">
         <v>0</v>
       </c>
-      <c r="U493" s="103"/>
-      <c r="V493" s="103"/>
+      <c r="U493" s="104"/>
+      <c r="V493" s="104"/>
       <c r="W493" s="101"/>
       <c r="X493" s="101"/>
       <c r="Y493" s="101"/>
       <c r="Z493" s="101"/>
-      <c r="AA493" s="104"/>
-      <c r="AB493" s="104"/>
-      <c r="AC493" s="104"/>
+      <c r="AA493" s="105"/>
+      <c r="AB493" s="105"/>
+      <c r="AC493" s="105"/>
     </row>
     <row r="494" customHeight="1" spans="1:29">
       <c r="A494" s="100">
@@ -37349,7 +37425,7 @@
       <c r="B494" s="101">
         <v>240504007</v>
       </c>
-      <c r="C494" s="102">
+      <c r="C494" s="40">
         <v>45416</v>
       </c>
       <c r="D494" s="101" t="s">
@@ -37395,10 +37471,10 @@
       <c r="T494" s="101">
         <v>32</v>
       </c>
-      <c r="U494" s="103" t="s">
+      <c r="U494" s="104" t="s">
         <v>378</v>
       </c>
-      <c r="V494" s="103" t="s">
+      <c r="V494" s="104" t="s">
         <v>50</v>
       </c>
       <c r="W494" s="101" t="s">
@@ -37413,9 +37489,9 @@
       <c r="Z494" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AA494" s="104"/>
-      <c r="AB494" s="104"/>
-      <c r="AC494" s="104" t="s">
+      <c r="AA494" s="105"/>
+      <c r="AB494" s="105"/>
+      <c r="AC494" s="105" t="s">
         <v>501</v>
       </c>
     </row>
@@ -37426,7 +37502,7 @@
       <c r="B495" s="101">
         <v>240504008</v>
       </c>
-      <c r="C495" s="102">
+      <c r="C495" s="40">
         <v>45416</v>
       </c>
       <c r="D495" s="101" t="s">
@@ -37472,10 +37548,10 @@
       <c r="T495" s="101">
         <v>1</v>
       </c>
-      <c r="U495" s="103" t="s">
+      <c r="U495" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="V495" s="103" t="s">
+      <c r="V495" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W495" s="101" t="s">
@@ -37490,9 +37566,9 @@
       <c r="Z495" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA495" s="104"/>
-      <c r="AB495" s="104"/>
-      <c r="AC495" s="104" t="s">
+      <c r="AA495" s="105"/>
+      <c r="AB495" s="105"/>
+      <c r="AC495" s="105" t="s">
         <v>503</v>
       </c>
     </row>
@@ -37503,7 +37579,7 @@
       <c r="B496" s="101">
         <v>240504009</v>
       </c>
-      <c r="C496" s="102">
+      <c r="C496" s="40">
         <v>45416</v>
       </c>
       <c r="D496" s="101" t="s">
@@ -37545,15 +37621,15 @@
       <c r="T496" s="101">
         <v>0</v>
       </c>
-      <c r="U496" s="103"/>
-      <c r="V496" s="103"/>
+      <c r="U496" s="104"/>
+      <c r="V496" s="104"/>
       <c r="W496" s="101"/>
       <c r="X496" s="101"/>
       <c r="Y496" s="101"/>
       <c r="Z496" s="101"/>
-      <c r="AA496" s="104"/>
-      <c r="AB496" s="104"/>
-      <c r="AC496" s="104"/>
+      <c r="AA496" s="105"/>
+      <c r="AB496" s="105"/>
+      <c r="AC496" s="105"/>
     </row>
     <row r="497" customHeight="1" spans="1:29">
       <c r="A497" s="100">
@@ -37562,7 +37638,7 @@
       <c r="B497" s="101">
         <v>240505001</v>
       </c>
-      <c r="C497" s="102">
+      <c r="C497" s="40">
         <v>45417</v>
       </c>
       <c r="D497" s="101" t="s">
@@ -37608,10 +37684,10 @@
       <c r="T497" s="101">
         <v>1</v>
       </c>
-      <c r="U497" s="103" t="s">
+      <c r="U497" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="V497" s="103" t="s">
+      <c r="V497" s="104" t="s">
         <v>77</v>
       </c>
       <c r="W497" s="101" t="s">
@@ -37626,18 +37702,18 @@
       <c r="Z497" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AA497" s="104"/>
-      <c r="AB497" s="104"/>
-      <c r="AC497" s="104"/>
+      <c r="AA497" s="105"/>
+      <c r="AB497" s="105"/>
+      <c r="AC497" s="105"/>
     </row>
     <row r="498" customHeight="1" spans="1:29">
-      <c r="A498" s="100">
+      <c r="A498" s="102">
         <v>497</v>
       </c>
-      <c r="B498" s="101">
+      <c r="B498" s="103">
         <v>240505002</v>
       </c>
-      <c r="C498" s="102">
+      <c r="C498" s="40">
         <v>45417</v>
       </c>
       <c r="D498" s="101" t="s">
@@ -37679,15 +37755,1715 @@
       <c r="T498" s="101">
         <v>0</v>
       </c>
-      <c r="U498" s="103"/>
-      <c r="V498" s="103"/>
+      <c r="U498" s="104"/>
+      <c r="V498" s="104"/>
       <c r="W498" s="101"/>
       <c r="X498" s="101"/>
       <c r="Y498" s="101"/>
       <c r="Z498" s="101"/>
-      <c r="AA498" s="104"/>
-      <c r="AB498" s="104"/>
-      <c r="AC498" s="104"/>
+      <c r="AA498" s="105"/>
+      <c r="AB498" s="105"/>
+      <c r="AC498" s="105"/>
+    </row>
+    <row r="499" customHeight="1" spans="1:20">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5">
+        <v>240506001</v>
+      </c>
+      <c r="C499" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E499" s="4">
+        <v>19</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G499" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H499" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I499" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J499" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K499" s="8">
+        <v>370</v>
+      </c>
+      <c r="L499" s="8">
+        <v>32</v>
+      </c>
+      <c r="N499" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T499" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" customHeight="1" spans="1:29">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5">
+        <v>240506002</v>
+      </c>
+      <c r="C500" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D500" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E500" s="4">
+        <v>19</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G500" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H500" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I500" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J500" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K500" s="8">
+        <v>20</v>
+      </c>
+      <c r="L500" s="8">
+        <v>12</v>
+      </c>
+      <c r="N500" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T500" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC500" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="501" customHeight="1" spans="1:20">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5">
+        <v>240506003</v>
+      </c>
+      <c r="C501" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E501" s="4">
+        <v>19</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G501" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="H501" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I501" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J501" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K501" s="8">
+        <v>5</v>
+      </c>
+      <c r="L501" s="8">
+        <v>5</v>
+      </c>
+      <c r="N501" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T501" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" customHeight="1" spans="1:29">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5">
+        <v>240506004</v>
+      </c>
+      <c r="C502" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E502" s="4">
+        <v>19</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G502" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H502" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I502" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J502" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K502" s="8">
+        <v>169</v>
+      </c>
+      <c r="L502" s="8">
+        <v>8</v>
+      </c>
+      <c r="N502" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T502" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC502" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="503" customHeight="1" spans="1:20">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5">
+        <v>240506005</v>
+      </c>
+      <c r="C503" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E503" s="4">
+        <v>19</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G503" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H503" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I503" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J503" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K503" s="8">
+        <v>239</v>
+      </c>
+      <c r="L503" s="8">
+        <v>8</v>
+      </c>
+      <c r="N503" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T503" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" customHeight="1" spans="1:20">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="5">
+        <v>240506006</v>
+      </c>
+      <c r="C504" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E504" s="4">
+        <v>19</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G504" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H504" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I504" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J504" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K504" s="8">
+        <v>130</v>
+      </c>
+      <c r="L504" s="8">
+        <v>8</v>
+      </c>
+      <c r="N504" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T504" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" customHeight="1" spans="1:20">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5">
+        <v>240506007</v>
+      </c>
+      <c r="C505" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E505" s="4">
+        <v>19</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G505" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H505" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I505" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J505" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K505" s="8">
+        <v>8</v>
+      </c>
+      <c r="L505" s="8">
+        <v>8</v>
+      </c>
+      <c r="N505" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T505" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" customHeight="1" spans="1:29">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="5">
+        <v>240506008</v>
+      </c>
+      <c r="C506" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E506" s="4">
+        <v>19</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G506" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H506" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I506" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J506" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K506" s="8">
+        <v>400</v>
+      </c>
+      <c r="L506" s="8">
+        <v>32</v>
+      </c>
+      <c r="N506" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T506" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC506" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="507" customHeight="1" spans="1:20">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5">
+        <v>240506009</v>
+      </c>
+      <c r="C507" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E507" s="4">
+        <v>19</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G507" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H507" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I507" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J507" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K507" s="8">
+        <v>69</v>
+      </c>
+      <c r="L507" s="8">
+        <v>8</v>
+      </c>
+      <c r="N507" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T507" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" customHeight="1" spans="1:20">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="5">
+        <v>240506010</v>
+      </c>
+      <c r="C508" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D508" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E508" s="4">
+        <v>19</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G508" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="H508" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I508" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J508" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K508" s="8">
+        <v>182</v>
+      </c>
+      <c r="L508" s="8">
+        <v>8</v>
+      </c>
+      <c r="N508" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T508" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" customHeight="1" spans="1:20">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>240506011</v>
+      </c>
+      <c r="C509" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E509" s="4">
+        <v>19</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G509" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H509" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I509" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J509" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K509" s="8">
+        <v>84</v>
+      </c>
+      <c r="L509" s="8">
+        <v>8</v>
+      </c>
+      <c r="N509" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T509" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" customHeight="1" spans="1:20">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>240506012</v>
+      </c>
+      <c r="C510" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E510" s="4">
+        <v>19</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G510" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H510" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I510" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J510" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K510" s="8">
+        <v>5</v>
+      </c>
+      <c r="L510" s="8">
+        <v>5</v>
+      </c>
+      <c r="N510" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T510" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" customHeight="1" spans="1:29">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>240507001</v>
+      </c>
+      <c r="C511" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E511" s="4">
+        <v>19</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G511" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H511" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I511" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J511" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K511" s="8">
+        <v>240</v>
+      </c>
+      <c r="L511" s="8">
+        <v>16</v>
+      </c>
+      <c r="M511" s="9">
+        <v>1</v>
+      </c>
+      <c r="N511" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O511" s="11">
+        <v>1</v>
+      </c>
+      <c r="T511" s="12">
+        <v>1</v>
+      </c>
+      <c r="U511" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="V511" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W511" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X511" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y511" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z511" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC511" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="512" customHeight="1" spans="1:20">
+      <c r="A512" s="5">
+        <v>511</v>
+      </c>
+      <c r="B512" s="5">
+        <v>240507002</v>
+      </c>
+      <c r="C512" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E512" s="4">
+        <v>19</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G512" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H512" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I512" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J512" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K512" s="8">
+        <v>1583</v>
+      </c>
+      <c r="L512" s="8">
+        <v>50</v>
+      </c>
+      <c r="N512" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T512" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" customHeight="1" spans="1:20">
+      <c r="A513" s="5">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5">
+        <v>240507003</v>
+      </c>
+      <c r="C513" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E513" s="4">
+        <v>19</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G513" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H513" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I513" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J513" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K513" s="8">
+        <v>144</v>
+      </c>
+      <c r="L513" s="8">
+        <v>8</v>
+      </c>
+      <c r="N513" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T513" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" customHeight="1" spans="1:28">
+      <c r="A514" s="5">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5">
+        <v>240507004</v>
+      </c>
+      <c r="C514" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E514" s="4">
+        <v>19</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G514" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H514" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I514" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J514" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K514" s="8">
+        <v>232</v>
+      </c>
+      <c r="L514" s="8">
+        <v>8</v>
+      </c>
+      <c r="N514" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T514" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB514" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" customHeight="1" spans="1:20">
+      <c r="A515" s="5">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5">
+        <v>240507005</v>
+      </c>
+      <c r="C515" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E515" s="4">
+        <v>19</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G515" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H515" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I515" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J515" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K515" s="8">
+        <v>126</v>
+      </c>
+      <c r="L515" s="8">
+        <v>8</v>
+      </c>
+      <c r="N515" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T515" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" customHeight="1" spans="1:20">
+      <c r="A516" s="5">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5">
+        <v>240507006</v>
+      </c>
+      <c r="C516" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E516" s="4">
+        <v>19</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G516" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H516" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I516" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J516" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K516" s="8">
+        <v>1728</v>
+      </c>
+      <c r="L516" s="8">
+        <v>50</v>
+      </c>
+      <c r="N516" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T516" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" customHeight="1" spans="1:20">
+      <c r="A517" s="5">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5">
+        <v>240507007</v>
+      </c>
+      <c r="C517" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E517" s="4">
+        <v>19</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G517" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H517" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I517" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J517" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K517" s="8">
+        <v>68</v>
+      </c>
+      <c r="L517" s="8">
+        <v>8</v>
+      </c>
+      <c r="N517" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T517" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" customHeight="1" spans="1:26">
+      <c r="A518" s="5">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5">
+        <v>240507008</v>
+      </c>
+      <c r="C518" s="3">
+        <v>45419</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E518" s="4">
+        <v>19</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G518" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H518" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I518" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J518" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K518" s="8">
+        <v>260</v>
+      </c>
+      <c r="L518" s="8">
+        <v>8</v>
+      </c>
+      <c r="M518" s="9">
+        <v>1</v>
+      </c>
+      <c r="N518" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q518" s="11">
+        <v>1</v>
+      </c>
+      <c r="T518" s="12">
+        <v>1</v>
+      </c>
+      <c r="U518" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="V518" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W518" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X518" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y518" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z518" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="519" customHeight="1" spans="1:26">
+      <c r="A519" s="5">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5">
+        <v>240508001</v>
+      </c>
+      <c r="C519" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E519" s="4">
+        <v>19</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G519" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H519" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I519" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J519" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K519" s="8">
+        <v>2</v>
+      </c>
+      <c r="L519" s="8">
+        <v>2</v>
+      </c>
+      <c r="M519" s="9">
+        <v>2</v>
+      </c>
+      <c r="N519" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R519" s="11">
+        <v>2</v>
+      </c>
+      <c r="T519" s="12">
+        <v>2</v>
+      </c>
+      <c r="U519" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="V519" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W519" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X519" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y519" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z519" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="520" customHeight="1" spans="1:26">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>240508002</v>
+      </c>
+      <c r="C520" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E520" s="4">
+        <v>19</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G520" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H520" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I520" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J520" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K520" s="8">
+        <v>390</v>
+      </c>
+      <c r="L520" s="8">
+        <v>32</v>
+      </c>
+      <c r="M520" s="9">
+        <v>1</v>
+      </c>
+      <c r="N520" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O520" s="11">
+        <v>1</v>
+      </c>
+      <c r="U520" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="V520" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W520" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X520" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y520" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z520" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="521" customHeight="1" spans="1:20">
+      <c r="A521" s="5">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5">
+        <v>240508003</v>
+      </c>
+      <c r="C521" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E521" s="4">
+        <v>19</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G521" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H521" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I521" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J521" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K521" s="8">
+        <v>2</v>
+      </c>
+      <c r="L521" s="8">
+        <v>2</v>
+      </c>
+      <c r="N521" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T521" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" customHeight="1" spans="1:20">
+      <c r="A522" s="5">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5">
+        <v>240508004</v>
+      </c>
+      <c r="C522" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D522" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E522" s="4">
+        <v>19</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G522" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H522" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I522" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J522" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K522" s="8">
+        <v>173</v>
+      </c>
+      <c r="L522" s="8">
+        <v>8</v>
+      </c>
+      <c r="N522" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T522" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" customHeight="1" spans="1:26">
+      <c r="A523" s="5">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5">
+        <v>240508005</v>
+      </c>
+      <c r="C523" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E523" s="4">
+        <v>19</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G523" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H523" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I523" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J523" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K523" s="8">
+        <v>53</v>
+      </c>
+      <c r="L523" s="8">
+        <v>8</v>
+      </c>
+      <c r="M523" s="9">
+        <v>1</v>
+      </c>
+      <c r="N523" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O523" s="11">
+        <v>1</v>
+      </c>
+      <c r="T523" s="12">
+        <v>1</v>
+      </c>
+      <c r="U523" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="V523" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W523" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X523" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y523" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z523" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="524" customHeight="1" spans="1:26">
+      <c r="A524" s="5">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5">
+        <v>240508006</v>
+      </c>
+      <c r="C524" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D524" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E524" s="4">
+        <v>19</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G524" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H524" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I524" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J524" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K524" s="8">
+        <v>10</v>
+      </c>
+      <c r="L524" s="8">
+        <v>8</v>
+      </c>
+      <c r="M524" s="9">
+        <v>8</v>
+      </c>
+      <c r="N524" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R524" s="11">
+        <v>8</v>
+      </c>
+      <c r="T524" s="12">
+        <v>8</v>
+      </c>
+      <c r="U524" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="V524" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W524" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X524" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y524" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z524" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="525" customHeight="1" spans="1:20">
+      <c r="A525" s="5">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5">
+        <v>240508007</v>
+      </c>
+      <c r="C525" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E525" s="4">
+        <v>19</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G525" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H525" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I525" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J525" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K525" s="8">
+        <v>236</v>
+      </c>
+      <c r="L525" s="8">
+        <v>8</v>
+      </c>
+      <c r="N525" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T525" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" customHeight="1" spans="1:20">
+      <c r="A526" s="5">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5">
+        <v>240508008</v>
+      </c>
+      <c r="C526" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E526" s="4">
+        <v>19</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G526" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H526" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I526" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J526" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K526" s="8">
+        <v>265</v>
+      </c>
+      <c r="L526" s="8">
+        <v>8</v>
+      </c>
+      <c r="N526" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T526" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" customHeight="1" spans="1:20">
+      <c r="A527" s="5">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5">
+        <v>240508009</v>
+      </c>
+      <c r="C527" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E527" s="4">
+        <v>19</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G527" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H527" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I527" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J527" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K527" s="8">
+        <v>10</v>
+      </c>
+      <c r="L527" s="8">
+        <v>8</v>
+      </c>
+      <c r="N527" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T527" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" customHeight="1" spans="1:20">
+      <c r="A528" s="5">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5">
+        <v>240508010</v>
+      </c>
+      <c r="C528" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E528" s="4">
+        <v>19</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G528" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H528" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I528" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J528" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K528" s="8">
+        <v>4</v>
+      </c>
+      <c r="L528" s="8">
+        <v>4</v>
+      </c>
+      <c r="N528" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T528" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" customHeight="1" spans="1:26">
+      <c r="A529" s="5">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5">
+        <v>240508011</v>
+      </c>
+      <c r="C529" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E529" s="4">
+        <v>19</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G529" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H529" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I529" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J529" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K529" s="8">
+        <v>2015</v>
+      </c>
+      <c r="L529" s="8">
+        <v>50</v>
+      </c>
+      <c r="M529" s="9">
+        <v>1</v>
+      </c>
+      <c r="N529" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O529" s="11">
+        <v>1</v>
+      </c>
+      <c r="T529" s="12">
+        <v>1</v>
+      </c>
+      <c r="U529" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="V529" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W529" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X529" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y529" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z529" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="530" customHeight="1" spans="1:26">
+      <c r="A530" s="5">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5">
+        <v>240508012</v>
+      </c>
+      <c r="C530" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E530" s="4">
+        <v>19</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G530" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H530" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I530" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J530" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K530" s="8">
+        <v>133</v>
+      </c>
+      <c r="L530" s="8">
+        <v>8</v>
+      </c>
+      <c r="M530" s="9">
+        <v>1</v>
+      </c>
+      <c r="N530" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S530" s="12">
+        <v>1</v>
+      </c>
+      <c r="T530" s="12">
+        <v>1</v>
+      </c>
+      <c r="U530" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="V530" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W530" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X530" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y530" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z530" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="531" customHeight="1" spans="1:20">
+      <c r="A531" s="5">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5">
+        <v>240508013</v>
+      </c>
+      <c r="C531" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E531" s="4">
+        <v>19</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G531" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H531" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I531" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J531" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K531" s="8">
+        <v>516</v>
+      </c>
+      <c r="L531" s="8">
+        <v>32</v>
+      </c>
+      <c r="N531" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T531" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" customHeight="1" spans="1:20">
+      <c r="A532" s="5">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5">
+        <v>240508014</v>
+      </c>
+      <c r="C532" s="3">
+        <v>45420</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E532" s="4">
+        <v>19</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G532" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H532" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I532" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J532" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K532" s="8">
+        <v>2</v>
+      </c>
+      <c r="L532" s="8">
+        <v>2</v>
+      </c>
+      <c r="N532" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T532" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
@@ -38694,10 +40470,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -38718,7 +40494,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -38742,10 +40518,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -38753,28 +40529,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -38798,7 +40574,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -38814,18 +40590,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -38838,7 +40614,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -38846,7 +40622,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -38862,7 +40638,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -38870,15 +40646,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -38902,7 +40678,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -38942,10 +40718,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -38966,7 +40742,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -38982,7 +40758,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -39014,7 +40790,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -39022,7 +40798,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -39030,7 +40806,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -39078,26 +40854,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B51" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="B52" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -39150,7 +40926,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -39166,7 +40942,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12320"/>
+    <workbookView windowWidth="27660" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="数据源" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$532</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$623</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="600">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1604,13 +1604,151 @@
     <t>DD257757</t>
   </si>
   <si>
+    <t>DD257253</t>
+  </si>
+  <si>
+    <t>猫眼玻璃盖板起翘.后面板下端掉漆</t>
+  </si>
+  <si>
+    <t>前面板后盖板生锈</t>
+  </si>
+  <si>
+    <t>DD260169</t>
+  </si>
+  <si>
+    <t>合格证老LOGO，锁具新LOGO</t>
+  </si>
+  <si>
+    <t>DD258841</t>
+  </si>
+  <si>
+    <t>分离屏破损</t>
+  </si>
+  <si>
+    <t>猫眼玻璃盖板起翘</t>
+  </si>
+  <si>
+    <t>数字按键2有异物</t>
+  </si>
+  <si>
+    <t>DD258602</t>
+  </si>
+  <si>
+    <t>DD258193</t>
+  </si>
+  <si>
+    <t>后面板擦伤</t>
+  </si>
+  <si>
+    <t>DD258826</t>
+  </si>
+  <si>
+    <t>DD259060</t>
+  </si>
+  <si>
+    <t>DD258565</t>
+  </si>
+  <si>
+    <t>E180</t>
+  </si>
+  <si>
+    <t>DD258843</t>
+  </si>
+  <si>
+    <t>USB底座有异物</t>
+  </si>
+  <si>
+    <t>电池盒盖卡扣断</t>
+  </si>
+  <si>
+    <t>前面板手柄划伤</t>
+  </si>
+  <si>
+    <t>前面板侧面磕伤</t>
+  </si>
+  <si>
+    <t>后面板侧面划伤</t>
+  </si>
+  <si>
+    <t>后面板上端鼓包</t>
+  </si>
+  <si>
+    <t>前面板上端擦伤</t>
+  </si>
+  <si>
+    <t>DD259338</t>
+  </si>
+  <si>
+    <t>前面板磕伤</t>
+  </si>
+  <si>
+    <t>APP无法绑定</t>
+  </si>
+  <si>
+    <t>APP功能问题</t>
+  </si>
+  <si>
+    <t>按键暗影</t>
+  </si>
+  <si>
+    <t>前面板起皮</t>
+  </si>
+  <si>
+    <t>起皮</t>
+  </si>
+  <si>
+    <t>DD252012</t>
+  </si>
+  <si>
+    <t>DD258838</t>
+  </si>
+  <si>
+    <t>功耗大，实测0.20ma</t>
+  </si>
+  <si>
+    <t>加抽16套重新推单入库</t>
+  </si>
+  <si>
+    <t>锁门键有阴影</t>
+  </si>
+  <si>
+    <t>DD259043</t>
+  </si>
+  <si>
+    <t>前面板侧面缺料</t>
+  </si>
+  <si>
+    <t>数字键3有阴影</t>
+  </si>
+  <si>
+    <t>前面板异响</t>
+  </si>
+  <si>
+    <t>DD259168</t>
+  </si>
+  <si>
+    <t>DD259976</t>
+  </si>
+  <si>
+    <t>Q3EM</t>
+  </si>
+  <si>
+    <t>Q3E</t>
+  </si>
+  <si>
+    <t>DD259896</t>
+  </si>
+  <si>
+    <t>猫眼镜片起翘</t>
+  </si>
+  <si>
+    <t>后面板旋钮掉漆</t>
+  </si>
+  <si>
     <t>D60-L</t>
   </si>
   <si>
     <t>E10假锁</t>
-  </si>
-  <si>
-    <t>E180</t>
   </si>
   <si>
     <t>E180-3-PF</t>
@@ -4015,9 +4153,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE532" totalsRowShown="0">
-  <autoFilter ref="A2:AE532"/>
-  <sortState ref="A2:AE532">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE623" totalsRowShown="0">
+  <autoFilter ref="A2:AE623"/>
+  <sortState ref="A2:AE623">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4309,12 +4447,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE532"/>
+  <dimension ref="A1:AE623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K525" sqref="K525"/>
+      <selection pane="bottomLeft" activeCell="E539" sqref="E539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -39463,6 +39601,4655 @@
       </c>
       <c r="T532" s="12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="533" customHeight="1" spans="1:29">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="1">
+        <v>240509001</v>
+      </c>
+      <c r="C533" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E533" s="4">
+        <v>19</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G533" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H533" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I533" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J533" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K533" s="8">
+        <v>58</v>
+      </c>
+      <c r="L533" s="8">
+        <v>8</v>
+      </c>
+      <c r="N533" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T533" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC533" s="8">
+        <v>240502003</v>
+      </c>
+    </row>
+    <row r="534" customHeight="1" spans="1:29">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="1">
+        <v>240509002</v>
+      </c>
+      <c r="C534" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E534" s="4">
+        <v>19</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G534" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H534" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I534" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J534" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K534" s="8">
+        <v>133</v>
+      </c>
+      <c r="L534" s="8">
+        <v>8</v>
+      </c>
+      <c r="N534" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T534" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC534" s="8">
+        <v>240508012</v>
+      </c>
+    </row>
+    <row r="535" customHeight="1" spans="1:29">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1">
+        <v>240509003</v>
+      </c>
+      <c r="C535" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E535" s="4">
+        <v>19</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G535" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H535" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I535" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J535" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K535" s="8">
+        <v>51</v>
+      </c>
+      <c r="L535" s="8">
+        <v>8</v>
+      </c>
+      <c r="N535" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T535" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC535" s="8">
+        <v>240508005</v>
+      </c>
+    </row>
+    <row r="536" customHeight="1" spans="1:20">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1">
+        <v>240509004</v>
+      </c>
+      <c r="C536" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E536" s="4">
+        <v>19</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G536" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H536" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I536" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J536" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K536" s="8">
+        <v>2</v>
+      </c>
+      <c r="L536" s="8">
+        <v>2</v>
+      </c>
+      <c r="N536" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T536" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" customHeight="1" spans="1:20">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1">
+        <v>240509005</v>
+      </c>
+      <c r="C537" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E537" s="4">
+        <v>19</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G537" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H537" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I537" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J537" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K537" s="8">
+        <v>480</v>
+      </c>
+      <c r="L537" s="8">
+        <v>32</v>
+      </c>
+      <c r="N537" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T537" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" customHeight="1" spans="1:20">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>240509006</v>
+      </c>
+      <c r="C538" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E538" s="4">
+        <v>19</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G538" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H538" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I538" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J538" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K538" s="8">
+        <v>2</v>
+      </c>
+      <c r="L538" s="8">
+        <v>2</v>
+      </c>
+      <c r="N538" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T538" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" customHeight="1" spans="1:29">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" s="1">
+        <v>240509007</v>
+      </c>
+      <c r="C539" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E539" s="4">
+        <v>19</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G539" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H539" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I539" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J539" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K539" s="8">
+        <v>257</v>
+      </c>
+      <c r="L539" s="8">
+        <v>8</v>
+      </c>
+      <c r="N539" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T539" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC539" s="8">
+        <v>240507008</v>
+      </c>
+    </row>
+    <row r="540" customHeight="1" spans="1:20">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1">
+        <v>240509008</v>
+      </c>
+      <c r="C540" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E540" s="4">
+        <v>19</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G540" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H540" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I540" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J540" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K540" s="8">
+        <v>235</v>
+      </c>
+      <c r="L540" s="8">
+        <v>8</v>
+      </c>
+      <c r="N540" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T540" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" customHeight="1" spans="1:20">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1">
+        <v>240509009</v>
+      </c>
+      <c r="C541" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E541" s="4">
+        <v>19</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G541" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H541" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I541" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J541" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K541" s="8">
+        <v>144</v>
+      </c>
+      <c r="L541" s="8">
+        <v>8</v>
+      </c>
+      <c r="N541" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T541" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" customHeight="1" spans="1:20">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1">
+        <v>240509010</v>
+      </c>
+      <c r="C542" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E542" s="4">
+        <v>19</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G542" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H542" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I542" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J542" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K542" s="8">
+        <v>390</v>
+      </c>
+      <c r="L542" s="8">
+        <v>32</v>
+      </c>
+      <c r="N542" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T542" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" customHeight="1" spans="1:20">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1">
+        <v>240509011</v>
+      </c>
+      <c r="C543" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E543" s="4">
+        <v>19</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G543" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H543" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I543" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J543" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K543" s="8">
+        <v>118</v>
+      </c>
+      <c r="L543" s="8">
+        <v>8</v>
+      </c>
+      <c r="N543" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T543" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" customHeight="1" spans="1:26">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>240509012</v>
+      </c>
+      <c r="C544" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E544" s="4">
+        <v>19</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G544" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H544" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I544" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J544" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K544" s="8">
+        <v>144</v>
+      </c>
+      <c r="L544" s="8">
+        <v>8</v>
+      </c>
+      <c r="M544" s="9">
+        <v>2</v>
+      </c>
+      <c r="N544" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O544" s="11">
+        <v>1</v>
+      </c>
+      <c r="T544" s="12">
+        <v>1</v>
+      </c>
+      <c r="U544" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="V544" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W544" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X544" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y544" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z544" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="545" customHeight="1" spans="1:26">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>240509012</v>
+      </c>
+      <c r="C545" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E545" s="4">
+        <v>19</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G545" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H545" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I545" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J545" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O545" s="11">
+        <v>1</v>
+      </c>
+      <c r="T545" s="12">
+        <v>1</v>
+      </c>
+      <c r="U545" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="V545" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W545" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X545" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y545" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z545" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="546" customHeight="1" spans="1:26">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>240509013</v>
+      </c>
+      <c r="C546" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E546" s="4">
+        <v>19</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G546" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H546" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I546" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J546" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K546" s="8">
+        <v>50</v>
+      </c>
+      <c r="L546" s="8">
+        <v>8</v>
+      </c>
+      <c r="M546" s="9">
+        <v>8</v>
+      </c>
+      <c r="N546" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R546" s="11">
+        <v>8</v>
+      </c>
+      <c r="T546" s="12">
+        <v>8</v>
+      </c>
+      <c r="U546" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="V546" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W546" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X546" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y546" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z546" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="547" customHeight="1" spans="1:20">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>240510001</v>
+      </c>
+      <c r="C547" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E547" s="4">
+        <v>19</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G547" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="H547" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I547" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J547" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K547" s="8">
+        <v>1593</v>
+      </c>
+      <c r="L547" s="8">
+        <v>50</v>
+      </c>
+      <c r="N547" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T547" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" customHeight="1" spans="1:20">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>240510002</v>
+      </c>
+      <c r="C548" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E548" s="4">
+        <v>19</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G548" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H548" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I548" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J548" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K548" s="8">
+        <v>1152</v>
+      </c>
+      <c r="L548" s="8">
+        <v>13</v>
+      </c>
+      <c r="N548" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T548" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" customHeight="1" spans="1:20">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1">
+        <v>240510003</v>
+      </c>
+      <c r="C549" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E549" s="4">
+        <v>19</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G549" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H549" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I549" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J549" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K549" s="8">
+        <v>174</v>
+      </c>
+      <c r="L549" s="8">
+        <v>8</v>
+      </c>
+      <c r="N549" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T549" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" customHeight="1" spans="1:20">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1">
+        <v>240510004</v>
+      </c>
+      <c r="C550" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E550" s="4">
+        <v>19</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G550" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H550" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I550" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J550" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K550" s="8">
+        <v>256</v>
+      </c>
+      <c r="L550" s="8">
+        <v>8</v>
+      </c>
+      <c r="N550" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T550" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" customHeight="1" spans="1:20">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1">
+        <v>240510005</v>
+      </c>
+      <c r="C551" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E551" s="4">
+        <v>19</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G551" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H551" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I551" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J551" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K551" s="8">
+        <v>3</v>
+      </c>
+      <c r="L551" s="8">
+        <v>3</v>
+      </c>
+      <c r="N551" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T551" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" customHeight="1" spans="1:26">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1">
+        <v>240511001</v>
+      </c>
+      <c r="C552" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E552" s="4">
+        <v>19</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G552" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="H552" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I552" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J552" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K552" s="8">
+        <v>906</v>
+      </c>
+      <c r="L552" s="8">
+        <v>32</v>
+      </c>
+      <c r="M552" s="9">
+        <v>3</v>
+      </c>
+      <c r="N552" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O552" s="11">
+        <v>1</v>
+      </c>
+      <c r="T552" s="12">
+        <v>1</v>
+      </c>
+      <c r="U552" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="V552" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W552" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X552" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y552" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z552" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="553" customHeight="1" spans="1:26">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1">
+        <v>240511001</v>
+      </c>
+      <c r="C553" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E553" s="4">
+        <v>19</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G553" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="H553" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I553" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J553" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O553" s="11">
+        <v>2</v>
+      </c>
+      <c r="T553" s="12">
+        <v>2</v>
+      </c>
+      <c r="U553" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="V553" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W553" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X553" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y553" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z553" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="554" customHeight="1" spans="1:20">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="1">
+        <v>240511002</v>
+      </c>
+      <c r="C554" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E554" s="4">
+        <v>19</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G554" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H554" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I554" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J554" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K554" s="8">
+        <v>538</v>
+      </c>
+      <c r="L554" s="8">
+        <v>32</v>
+      </c>
+      <c r="N554" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T554" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" customHeight="1" spans="1:20">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1">
+        <v>240511003</v>
+      </c>
+      <c r="C555" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E555" s="4">
+        <v>19</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G555" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H555" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I555" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J555" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K555" s="8">
+        <v>33</v>
+      </c>
+      <c r="L555" s="8">
+        <v>8</v>
+      </c>
+      <c r="N555" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T555" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="1:26">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1">
+        <v>240511004</v>
+      </c>
+      <c r="C556" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E556" s="4">
+        <v>19</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G556" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H556" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I556" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J556" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K556" s="8">
+        <v>333</v>
+      </c>
+      <c r="L556" s="8">
+        <v>32</v>
+      </c>
+      <c r="M556" s="9">
+        <v>2</v>
+      </c>
+      <c r="N556" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O556" s="11">
+        <v>1</v>
+      </c>
+      <c r="T556" s="12">
+        <v>1</v>
+      </c>
+      <c r="U556" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="V556" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W556" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X556" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y556" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z556" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="1:26">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1">
+        <v>240511004</v>
+      </c>
+      <c r="C557" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E557" s="4">
+        <v>19</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G557" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H557" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I557" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J557" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O557" s="11">
+        <v>1</v>
+      </c>
+      <c r="T557" s="12">
+        <v>1</v>
+      </c>
+      <c r="U557" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="V557" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W557" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X557" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y557" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z557" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="558" customHeight="1" spans="1:20">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1">
+        <v>240511005</v>
+      </c>
+      <c r="C558" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E558" s="4">
+        <v>19</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G558" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H558" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I558" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J558" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K558" s="8">
+        <v>720</v>
+      </c>
+      <c r="L558" s="8">
+        <v>32</v>
+      </c>
+      <c r="N558" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T558" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" customHeight="1" spans="1:26">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1">
+        <v>240511006</v>
+      </c>
+      <c r="C559" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E559" s="4">
+        <v>19</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G559" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H559" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I559" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J559" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K559" s="8">
+        <v>418</v>
+      </c>
+      <c r="L559" s="8">
+        <v>32</v>
+      </c>
+      <c r="M559" s="9">
+        <v>1</v>
+      </c>
+      <c r="N559" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O559" s="11">
+        <v>1</v>
+      </c>
+      <c r="T559" s="12">
+        <v>1</v>
+      </c>
+      <c r="U559" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="V559" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W559" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X559" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y559" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z559" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="560" customHeight="1" spans="1:20">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1">
+        <v>240511007</v>
+      </c>
+      <c r="C560" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E560" s="4">
+        <v>19</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G560" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H560" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I560" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J560" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K560" s="8">
+        <v>2</v>
+      </c>
+      <c r="L560" s="8">
+        <v>2</v>
+      </c>
+      <c r="N560" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T560" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" customHeight="1" spans="1:20">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1">
+        <v>240511008</v>
+      </c>
+      <c r="C561" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E561" s="4">
+        <v>19</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G561" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H561" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I561" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J561" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K561" s="8">
+        <v>3</v>
+      </c>
+      <c r="L561" s="8">
+        <v>3</v>
+      </c>
+      <c r="N561" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T561" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" customHeight="1" spans="1:20">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="1">
+        <v>240511009</v>
+      </c>
+      <c r="C562" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E562" s="4">
+        <v>19</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G562" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H562" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I562" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J562" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K562" s="8">
+        <v>256</v>
+      </c>
+      <c r="L562" s="8">
+        <v>8</v>
+      </c>
+      <c r="N562" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T562" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" customHeight="1" spans="1:20">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1">
+        <v>240511010</v>
+      </c>
+      <c r="C563" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E563" s="4">
+        <v>19</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G563" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H563" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I563" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J563" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K563" s="8">
+        <v>107</v>
+      </c>
+      <c r="L563" s="8">
+        <v>8</v>
+      </c>
+      <c r="N563" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T563" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" customHeight="1" spans="1:20">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="1">
+        <v>240511011</v>
+      </c>
+      <c r="C564" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E564" s="4">
+        <v>19</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G564" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H564" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J564" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K564" s="8">
+        <v>20</v>
+      </c>
+      <c r="L564" s="8">
+        <v>8</v>
+      </c>
+      <c r="N564" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T564" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" customHeight="1" spans="1:20">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="1">
+        <v>240511012</v>
+      </c>
+      <c r="C565" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E565" s="4">
+        <v>19</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G565" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H565" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I565" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J565" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K565" s="8">
+        <v>1</v>
+      </c>
+      <c r="L565" s="8">
+        <v>1</v>
+      </c>
+      <c r="N565" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T565" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" customHeight="1" spans="1:20">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="1">
+        <v>240511013</v>
+      </c>
+      <c r="C566" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E566" s="4">
+        <v>19</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G566" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H566" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I566" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J566" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K566" s="8">
+        <v>960</v>
+      </c>
+      <c r="L566" s="8">
+        <v>13</v>
+      </c>
+      <c r="N566" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T566" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" customHeight="1" spans="1:20">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" s="1">
+        <v>240511014</v>
+      </c>
+      <c r="C567" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E567" s="4">
+        <v>19</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G567" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H567" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I567" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J567" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K567" s="8">
+        <v>136</v>
+      </c>
+      <c r="L567" s="8">
+        <v>8</v>
+      </c>
+      <c r="N567" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T567" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" customHeight="1" spans="1:20">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="1">
+        <v>240511015</v>
+      </c>
+      <c r="C568" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E568" s="4">
+        <v>19</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G568" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H568" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I568" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J568" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K568" s="8">
+        <v>144</v>
+      </c>
+      <c r="L568" s="8">
+        <v>8</v>
+      </c>
+      <c r="N568" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T568" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" customHeight="1" spans="1:20">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="1">
+        <v>240512001</v>
+      </c>
+      <c r="C569" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E569" s="4">
+        <v>20</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G569" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H569" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I569" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J569" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K569" s="8">
+        <v>2</v>
+      </c>
+      <c r="L569" s="8">
+        <v>2</v>
+      </c>
+      <c r="N569" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T569" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" customHeight="1" spans="1:20">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="1">
+        <v>240512002</v>
+      </c>
+      <c r="C570" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E570" s="4">
+        <v>20</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G570" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H570" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I570" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J570" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K570" s="8">
+        <v>13</v>
+      </c>
+      <c r="L570" s="8">
+        <v>8</v>
+      </c>
+      <c r="N570" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T570" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" customHeight="1" spans="1:20">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="1">
+        <v>240512003</v>
+      </c>
+      <c r="C571" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E571" s="4">
+        <v>20</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G571" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H571" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I571" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J571" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K571" s="8">
+        <v>131</v>
+      </c>
+      <c r="L571" s="8">
+        <v>8</v>
+      </c>
+      <c r="N571" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T571" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" customHeight="1" spans="1:20">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="1">
+        <v>240512004</v>
+      </c>
+      <c r="C572" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E572" s="4">
+        <v>20</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G572" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H572" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I572" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J572" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K572" s="8">
+        <v>308</v>
+      </c>
+      <c r="L572" s="8">
+        <v>32</v>
+      </c>
+      <c r="N572" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T572" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" customHeight="1" spans="1:20">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" s="1">
+        <v>240512005</v>
+      </c>
+      <c r="C573" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E573" s="4">
+        <v>20</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G573" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H573" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I573" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J573" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K573" s="8">
+        <v>1128</v>
+      </c>
+      <c r="L573" s="8">
+        <v>32</v>
+      </c>
+      <c r="N573" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T573" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" customHeight="1" spans="1:26">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="1">
+        <v>240512006</v>
+      </c>
+      <c r="C574" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E574" s="4">
+        <v>20</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G574" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H574" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I574" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J574" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K574" s="8">
+        <v>865</v>
+      </c>
+      <c r="L574" s="8">
+        <v>32</v>
+      </c>
+      <c r="M574" s="9">
+        <v>1</v>
+      </c>
+      <c r="N574" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O574" s="11">
+        <v>1</v>
+      </c>
+      <c r="T574" s="12">
+        <v>1</v>
+      </c>
+      <c r="U574" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="V574" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W574" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X574" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y574" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z574" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="575" customHeight="1" spans="1:26">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="1">
+        <v>240512007</v>
+      </c>
+      <c r="C575" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E575" s="4">
+        <v>20</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G575" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H575" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I575" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J575" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K575" s="8">
+        <v>491</v>
+      </c>
+      <c r="L575" s="8">
+        <v>32</v>
+      </c>
+      <c r="M575" s="9">
+        <v>1</v>
+      </c>
+      <c r="N575" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O575" s="11">
+        <v>1</v>
+      </c>
+      <c r="T575" s="12">
+        <v>1</v>
+      </c>
+      <c r="U575" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="V575" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W575" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X575" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y575" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z575" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="576" customHeight="1" spans="1:20">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" s="1">
+        <v>240512008</v>
+      </c>
+      <c r="C576" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E576" s="4">
+        <v>20</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G576" s="6">
+        <v>24033974</v>
+      </c>
+      <c r="H576" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I576" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J576" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K576" s="8">
+        <v>10</v>
+      </c>
+      <c r="L576" s="8">
+        <v>10</v>
+      </c>
+      <c r="N576" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T576" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" customHeight="1" spans="1:20">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="1">
+        <v>240512009</v>
+      </c>
+      <c r="C577" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E577" s="4">
+        <v>20</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G577" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H577" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I577" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J577" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K577" s="8">
+        <v>144</v>
+      </c>
+      <c r="L577" s="8">
+        <v>8</v>
+      </c>
+      <c r="N577" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T577" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" customHeight="1" spans="1:26">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="1">
+        <v>240512010</v>
+      </c>
+      <c r="C578" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E578" s="4">
+        <v>20</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G578" s="6">
+        <v>24044033</v>
+      </c>
+      <c r="H578" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I578" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J578" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K578" s="8">
+        <v>61</v>
+      </c>
+      <c r="L578" s="8">
+        <v>8</v>
+      </c>
+      <c r="M578" s="9">
+        <v>3</v>
+      </c>
+      <c r="N578" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O578" s="11">
+        <v>1</v>
+      </c>
+      <c r="T578" s="12">
+        <v>1</v>
+      </c>
+      <c r="U578" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="V578" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W578" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X578" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y578" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z578" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="579" customHeight="1" spans="1:26">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="B579" s="1">
+        <v>240512010</v>
+      </c>
+      <c r="C579" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E579" s="4">
+        <v>20</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G579" s="6">
+        <v>24044033</v>
+      </c>
+      <c r="H579" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I579" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J579" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O579" s="11">
+        <v>1</v>
+      </c>
+      <c r="T579" s="12">
+        <v>1</v>
+      </c>
+      <c r="U579" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="V579" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W579" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X579" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y579" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z579" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="580" customHeight="1" spans="1:26">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="1">
+        <v>240512010</v>
+      </c>
+      <c r="C580" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D580" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E580" s="4">
+        <v>20</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G580" s="6">
+        <v>24044033</v>
+      </c>
+      <c r="H580" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I580" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J580" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O580" s="11">
+        <v>1</v>
+      </c>
+      <c r="T580" s="12">
+        <v>1</v>
+      </c>
+      <c r="U580" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="V580" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W580" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X580" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y580" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z580" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="581" customHeight="1" spans="1:20">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1">
+        <v>240512011</v>
+      </c>
+      <c r="C581" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E581" s="4">
+        <v>20</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G581" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H581" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I581" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J581" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K581" s="8">
+        <v>960</v>
+      </c>
+      <c r="L581" s="8">
+        <v>13</v>
+      </c>
+      <c r="N581" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T581" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" customHeight="1" spans="1:26">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="1">
+        <v>240512012</v>
+      </c>
+      <c r="C582" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D582" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E582" s="4">
+        <v>20</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G582" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H582" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I582" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J582" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K582" s="8">
+        <v>1568</v>
+      </c>
+      <c r="L582" s="8">
+        <v>50</v>
+      </c>
+      <c r="M582" s="9">
+        <v>4</v>
+      </c>
+      <c r="N582" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O582" s="11">
+        <v>2</v>
+      </c>
+      <c r="T582" s="12">
+        <v>2</v>
+      </c>
+      <c r="U582" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="V582" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W582" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X582" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y582" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z582" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="583" customHeight="1" spans="1:26">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="1">
+        <v>240512012</v>
+      </c>
+      <c r="C583" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E583" s="4">
+        <v>20</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G583" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H583" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I583" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J583" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O583" s="11">
+        <v>1</v>
+      </c>
+      <c r="T583" s="12">
+        <v>1</v>
+      </c>
+      <c r="U583" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="V583" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W583" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X583" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y583" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z583" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="584" customHeight="1" spans="1:26">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="1">
+        <v>240512012</v>
+      </c>
+      <c r="C584" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E584" s="4">
+        <v>20</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G584" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H584" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I584" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J584" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O584" s="11">
+        <v>1</v>
+      </c>
+      <c r="T584" s="12">
+        <v>1</v>
+      </c>
+      <c r="U584" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="V584" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W584" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X584" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y584" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z584" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="585" customHeight="1" spans="1:20">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="1">
+        <v>240512013</v>
+      </c>
+      <c r="C585" s="3">
+        <v>45424</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E585" s="4">
+        <v>20</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G585" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H585" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I585" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J585" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K585" s="8">
+        <v>288</v>
+      </c>
+      <c r="L585" s="8">
+        <v>13</v>
+      </c>
+      <c r="N585" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T585" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" customHeight="1" spans="1:20">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="1">
+        <v>240513001</v>
+      </c>
+      <c r="C586" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E586" s="4">
+        <v>20</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G586" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H586" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I586" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J586" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K586" s="8">
+        <v>2</v>
+      </c>
+      <c r="L586" s="8">
+        <v>2</v>
+      </c>
+      <c r="N586" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T586" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" customHeight="1" spans="1:20">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="1">
+        <v>240513002</v>
+      </c>
+      <c r="C587" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E587" s="4">
+        <v>20</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G587" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H587" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I587" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J587" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K587" s="8">
+        <v>392</v>
+      </c>
+      <c r="L587" s="8">
+        <v>32</v>
+      </c>
+      <c r="N587" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T587" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" customHeight="1" spans="1:20">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1">
+        <v>240513003</v>
+      </c>
+      <c r="C588" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E588" s="4">
+        <v>20</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G588" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H588" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I588" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J588" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K588" s="8">
+        <v>288</v>
+      </c>
+      <c r="L588" s="8">
+        <v>32</v>
+      </c>
+      <c r="N588" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T588" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" customHeight="1" spans="1:26">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" s="1">
+        <v>240513004</v>
+      </c>
+      <c r="C589" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E589" s="4">
+        <v>20</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G589" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H589" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I589" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J589" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K589" s="8">
+        <v>50</v>
+      </c>
+      <c r="L589" s="8">
+        <v>10</v>
+      </c>
+      <c r="M589" s="9">
+        <v>1</v>
+      </c>
+      <c r="N589" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O589" s="11">
+        <v>1</v>
+      </c>
+      <c r="T589" s="12">
+        <v>1</v>
+      </c>
+      <c r="U589" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="V589" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W589" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X589" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y589" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z589" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="590" customHeight="1" spans="1:20">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="1">
+        <v>240513005</v>
+      </c>
+      <c r="C590" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E590" s="4">
+        <v>20</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G590" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H590" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I590" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J590" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K590" s="8">
+        <v>738</v>
+      </c>
+      <c r="L590" s="8">
+        <v>32</v>
+      </c>
+      <c r="N590" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T590" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" customHeight="1" spans="1:26">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="B591" s="1">
+        <v>240513006</v>
+      </c>
+      <c r="C591" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E591" s="4">
+        <v>20</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G591" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H591" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I591" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J591" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K591" s="8">
+        <v>864</v>
+      </c>
+      <c r="L591" s="8">
+        <v>32</v>
+      </c>
+      <c r="M591" s="9">
+        <v>1</v>
+      </c>
+      <c r="N591" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O591" s="11">
+        <v>1</v>
+      </c>
+      <c r="T591" s="12">
+        <v>1</v>
+      </c>
+      <c r="U591" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="V591" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W591" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X591" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y591" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z591" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="592" customHeight="1" spans="1:20">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="1">
+        <v>240513007</v>
+      </c>
+      <c r="C592" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D592" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E592" s="4">
+        <v>20</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G592" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H592" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I592" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J592" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K592" s="8">
+        <v>192</v>
+      </c>
+      <c r="L592" s="8">
+        <v>8</v>
+      </c>
+      <c r="N592" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T592" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" customHeight="1" spans="1:26">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" s="1">
+        <v>240513008</v>
+      </c>
+      <c r="C593" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E593" s="4">
+        <v>20</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G593" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H593" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I593" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J593" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K593" s="8">
+        <v>486</v>
+      </c>
+      <c r="L593" s="8">
+        <v>32</v>
+      </c>
+      <c r="M593" s="9">
+        <v>1</v>
+      </c>
+      <c r="N593" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O593" s="11">
+        <v>1</v>
+      </c>
+      <c r="T593" s="12">
+        <v>1</v>
+      </c>
+      <c r="U593" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="V593" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W593" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X593" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y593" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z593" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="594" customHeight="1" spans="1:20">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" s="1">
+        <v>240513009</v>
+      </c>
+      <c r="C594" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E594" s="4">
+        <v>20</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G594" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H594" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I594" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J594" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K594" s="8">
+        <v>2</v>
+      </c>
+      <c r="L594" s="8">
+        <v>2</v>
+      </c>
+      <c r="N594" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T594" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" customHeight="1" spans="1:20">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" s="1">
+        <v>240513010</v>
+      </c>
+      <c r="C595" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E595" s="4">
+        <v>20</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G595" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H595" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I595" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J595" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K595" s="8">
+        <v>494</v>
+      </c>
+      <c r="L595" s="8">
+        <v>32</v>
+      </c>
+      <c r="N595" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T595" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" customHeight="1" spans="1:26">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="1">
+        <v>240514001</v>
+      </c>
+      <c r="C596" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D596" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E596" s="4">
+        <v>20</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G596" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H596" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I596" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J596" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K596" s="8">
+        <v>3</v>
+      </c>
+      <c r="L596" s="8">
+        <v>3</v>
+      </c>
+      <c r="N596" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q596" s="11">
+        <v>1</v>
+      </c>
+      <c r="T596" s="12">
+        <v>1</v>
+      </c>
+      <c r="U596" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="V596" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W596" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X596" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y596" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z596" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="597" customHeight="1" spans="1:20">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="B597" s="1">
+        <v>240514002</v>
+      </c>
+      <c r="C597" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E597" s="4">
+        <v>20</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G597" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H597" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I597" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J597" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K597" s="8">
+        <v>2</v>
+      </c>
+      <c r="L597" s="8">
+        <v>2</v>
+      </c>
+      <c r="N597" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T597" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" customHeight="1" spans="1:20">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="1">
+        <v>240514003</v>
+      </c>
+      <c r="C598" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E598" s="4">
+        <v>20</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G598" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H598" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I598" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J598" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K598" s="8">
+        <v>1</v>
+      </c>
+      <c r="L598" s="8">
+        <v>1</v>
+      </c>
+      <c r="N598" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T598" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" customHeight="1" spans="1:20">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" s="1">
+        <v>240514004</v>
+      </c>
+      <c r="C599" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E599" s="4">
+        <v>20</v>
+      </c>
+      <c r="F599" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G599" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H599" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I599" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J599" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K599" s="8">
+        <v>198</v>
+      </c>
+      <c r="L599" s="8">
+        <v>8</v>
+      </c>
+      <c r="N599" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T599" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" customHeight="1" spans="1:26">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" s="1">
+        <v>240514005</v>
+      </c>
+      <c r="C600" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D600" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E600" s="4">
+        <v>20</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G600" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H600" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I600" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J600" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K600" s="8">
+        <v>1008</v>
+      </c>
+      <c r="L600" s="8">
+        <v>32</v>
+      </c>
+      <c r="N600" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O600" s="11">
+        <v>1</v>
+      </c>
+      <c r="T600" s="12">
+        <v>1</v>
+      </c>
+      <c r="U600" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="V600" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W600" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X600" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y600" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z600" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="601" customHeight="1" spans="1:29">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" s="1">
+        <v>240514006</v>
+      </c>
+      <c r="C601" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E601" s="4">
+        <v>20</v>
+      </c>
+      <c r="F601" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G601" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H601" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I601" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J601" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K601" s="8">
+        <v>208</v>
+      </c>
+      <c r="L601" s="8">
+        <v>8</v>
+      </c>
+      <c r="N601" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O601" s="11">
+        <v>1</v>
+      </c>
+      <c r="T601" s="12">
+        <v>1</v>
+      </c>
+      <c r="U601" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="V601" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W601" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X601" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y601" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z601" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC601" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="602" customHeight="1" spans="1:20">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" s="1">
+        <v>240514007</v>
+      </c>
+      <c r="C602" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E602" s="4">
+        <v>20</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G602" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H602" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I602" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J602" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K602" s="8">
+        <v>532</v>
+      </c>
+      <c r="L602" s="8">
+        <v>32</v>
+      </c>
+      <c r="N602" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T602" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" customHeight="1" spans="1:20">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="B603" s="1">
+        <v>240515001</v>
+      </c>
+      <c r="C603" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E603" s="4">
+        <v>20</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G603" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H603" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I603" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J603" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K603" s="8">
+        <v>192</v>
+      </c>
+      <c r="L603" s="8">
+        <v>20</v>
+      </c>
+      <c r="N603" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T603" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" customHeight="1" spans="1:26">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" s="1">
+        <v>240515002</v>
+      </c>
+      <c r="C604" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E604" s="4">
+        <v>20</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G604" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H604" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I604" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J604" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K604" s="8">
+        <v>512</v>
+      </c>
+      <c r="L604" s="8">
+        <v>32</v>
+      </c>
+      <c r="M604" s="9">
+        <v>1</v>
+      </c>
+      <c r="N604" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O604" s="11">
+        <v>1</v>
+      </c>
+      <c r="T604" s="12">
+        <v>1</v>
+      </c>
+      <c r="U604" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V604" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W604" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X604" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y604" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z604" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="605" customHeight="1" spans="1:29">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="B605" s="1">
+        <v>240515003</v>
+      </c>
+      <c r="C605" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E605" s="4">
+        <v>20</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G605" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H605" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I605" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J605" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K605" s="8">
+        <v>518</v>
+      </c>
+      <c r="L605" s="8">
+        <v>48</v>
+      </c>
+      <c r="M605" s="9">
+        <v>1</v>
+      </c>
+      <c r="N605" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q605" s="11">
+        <v>1</v>
+      </c>
+      <c r="T605" s="12">
+        <v>1</v>
+      </c>
+      <c r="U605" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="V605" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W605" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X605" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y605" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z605" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC605" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="606" customHeight="1" spans="1:20">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="B606" s="1">
+        <v>240515004</v>
+      </c>
+      <c r="C606" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D606" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E606" s="4">
+        <v>20</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G606" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H606" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I606" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J606" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K606" s="8">
+        <v>191</v>
+      </c>
+      <c r="L606" s="8">
+        <v>8</v>
+      </c>
+      <c r="N606" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T606" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" customHeight="1" spans="1:20">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" s="1">
+        <v>240515005</v>
+      </c>
+      <c r="C607" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E607" s="4">
+        <v>20</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G607" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H607" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I607" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J607" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K607" s="8">
+        <v>256</v>
+      </c>
+      <c r="L607" s="8">
+        <v>8</v>
+      </c>
+      <c r="N607" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T607" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" customHeight="1" spans="1:20">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" s="1">
+        <v>240515006</v>
+      </c>
+      <c r="C608" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D608" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E608" s="4">
+        <v>20</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G608" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H608" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I608" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J608" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K608" s="8">
+        <v>2</v>
+      </c>
+      <c r="L608" s="8">
+        <v>2</v>
+      </c>
+      <c r="N608" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T608" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" customHeight="1" spans="1:20">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="B609" s="1">
+        <v>240515007</v>
+      </c>
+      <c r="C609" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E609" s="4">
+        <v>20</v>
+      </c>
+      <c r="F609" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G609" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H609" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I609" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J609" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K609" s="8">
+        <v>262</v>
+      </c>
+      <c r="L609" s="8">
+        <v>8</v>
+      </c>
+      <c r="N609" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T609" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" customHeight="1" spans="1:26">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" s="1">
+        <v>240515008</v>
+      </c>
+      <c r="C610" s="3">
+        <v>45427</v>
+      </c>
+      <c r="D610" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E610" s="4">
+        <v>20</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G610" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H610" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I610" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J610" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K610" s="8">
+        <v>2086</v>
+      </c>
+      <c r="L610" s="8">
+        <v>50</v>
+      </c>
+      <c r="M610" s="9">
+        <v>1</v>
+      </c>
+      <c r="N610" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O610" s="11">
+        <v>1</v>
+      </c>
+      <c r="T610" s="12">
+        <v>1</v>
+      </c>
+      <c r="U610" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="V610" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W610" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X610" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y610" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z610" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="611" customHeight="1" spans="1:26">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="B611" s="1">
+        <v>240516001</v>
+      </c>
+      <c r="C611" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E611" s="4">
+        <v>20</v>
+      </c>
+      <c r="F611" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G611" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H611" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I611" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J611" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K611" s="8">
+        <v>576</v>
+      </c>
+      <c r="L611" s="8">
+        <v>32</v>
+      </c>
+      <c r="M611" s="9">
+        <v>1</v>
+      </c>
+      <c r="N611" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O611" s="11">
+        <v>1</v>
+      </c>
+      <c r="T611" s="12">
+        <v>1</v>
+      </c>
+      <c r="U611" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="V611" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W611" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X611" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y611" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z611" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="612" customHeight="1" spans="1:20">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1">
+        <v>240516002</v>
+      </c>
+      <c r="C612" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D612" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E612" s="4">
+        <v>20</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G612" s="6">
+        <v>24044033</v>
+      </c>
+      <c r="H612" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I612" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J612" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K612" s="8">
+        <v>55</v>
+      </c>
+      <c r="L612" s="8">
+        <v>8</v>
+      </c>
+      <c r="N612" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T612" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" customHeight="1" spans="1:26">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1">
+        <v>240516003</v>
+      </c>
+      <c r="C613" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E613" s="4">
+        <v>20</v>
+      </c>
+      <c r="F613" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G613" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H613" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I613" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J613" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K613" s="8">
+        <v>1536</v>
+      </c>
+      <c r="L613" s="8">
+        <v>50</v>
+      </c>
+      <c r="M613" s="9">
+        <v>2</v>
+      </c>
+      <c r="N613" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O613" s="11">
+        <v>1</v>
+      </c>
+      <c r="T613" s="12">
+        <v>1</v>
+      </c>
+      <c r="U613" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="V613" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W613" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X613" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y613" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z613" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="614" customHeight="1" spans="1:26">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" s="1">
+        <v>240516003</v>
+      </c>
+      <c r="C614" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D614" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E614" s="4">
+        <v>20</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G614" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H614" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I614" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J614" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R614" s="11">
+        <v>1</v>
+      </c>
+      <c r="T614" s="12">
+        <v>1</v>
+      </c>
+      <c r="U614" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="V614" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W614" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X614" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y614" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z614" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="615" customHeight="1" spans="1:20">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="B615" s="1">
+        <v>240516004</v>
+      </c>
+      <c r="C615" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E615" s="4">
+        <v>20</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G615" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H615" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I615" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J615" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K615" s="8">
+        <v>4</v>
+      </c>
+      <c r="L615" s="8">
+        <v>4</v>
+      </c>
+      <c r="N615" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T615" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" customHeight="1" spans="1:20">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" s="1">
+        <v>240516005</v>
+      </c>
+      <c r="C616" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E616" s="4">
+        <v>20</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G616" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H616" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I616" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J616" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K616" s="8">
+        <v>475</v>
+      </c>
+      <c r="L616" s="8">
+        <v>32</v>
+      </c>
+      <c r="N616" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T616" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" customHeight="1" spans="1:20">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="B617" s="1">
+        <v>240516006</v>
+      </c>
+      <c r="C617" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E617" s="4">
+        <v>20</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G617" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H617" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I617" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J617" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K617" s="8">
+        <v>128</v>
+      </c>
+      <c r="L617" s="8">
+        <v>8</v>
+      </c>
+      <c r="N617" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T617" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" customHeight="1" spans="1:20">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" s="1">
+        <v>240516007</v>
+      </c>
+      <c r="C618" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D618" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E618" s="4">
+        <v>20</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G618" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H618" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I618" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J618" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K618" s="8">
+        <v>20</v>
+      </c>
+      <c r="L618" s="8">
+        <v>8</v>
+      </c>
+      <c r="N618" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T618" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" customHeight="1" spans="1:20">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="B619" s="1">
+        <v>240516008</v>
+      </c>
+      <c r="C619" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E619" s="4">
+        <v>20</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G619" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H619" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="I619" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J619" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K619" s="8">
+        <v>30</v>
+      </c>
+      <c r="L619" s="8">
+        <v>8</v>
+      </c>
+      <c r="N619" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T619" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" customHeight="1" spans="1:26">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" s="1">
+        <v>240516009</v>
+      </c>
+      <c r="C620" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E620" s="4">
+        <v>20</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G620" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H620" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I620" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J620" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K620" s="8">
+        <v>1525</v>
+      </c>
+      <c r="L620" s="8">
+        <v>50</v>
+      </c>
+      <c r="M620" s="9">
+        <v>4</v>
+      </c>
+      <c r="N620" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O620" s="11">
+        <v>1</v>
+      </c>
+      <c r="T620" s="12">
+        <v>1</v>
+      </c>
+      <c r="U620" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="V620" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W620" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X620" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y620" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z620" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="621" customHeight="1" spans="1:26">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="B621" s="1">
+        <v>240516009</v>
+      </c>
+      <c r="C621" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E621" s="4">
+        <v>20</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G621" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H621" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I621" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J621" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O621" s="11">
+        <v>1</v>
+      </c>
+      <c r="T621" s="12">
+        <v>1</v>
+      </c>
+      <c r="U621" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="V621" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W621" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X621" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y621" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z621" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="622" customHeight="1" spans="1:26">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="B622" s="1">
+        <v>240516009</v>
+      </c>
+      <c r="C622" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D622" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E622" s="4">
+        <v>20</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G622" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H622" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I622" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J622" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O622" s="11">
+        <v>1</v>
+      </c>
+      <c r="T622" s="12">
+        <v>1</v>
+      </c>
+      <c r="U622" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="V622" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W622" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X622" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y622" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z622" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="623" customHeight="1" spans="1:26">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="B623" s="1">
+        <v>240516009</v>
+      </c>
+      <c r="C623" s="3">
+        <v>45428</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E623" s="4">
+        <v>20</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G623" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H623" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I623" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J623" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O623" s="11">
+        <v>1</v>
+      </c>
+      <c r="T623" s="12">
+        <v>1</v>
+      </c>
+      <c r="U623" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V623" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W623" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X623" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y623" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z623" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -40470,10 +45257,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -40494,7 +45281,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -40518,10 +45305,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -40529,28 +45316,28 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -40574,7 +45361,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -40590,18 +45377,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -40614,7 +45401,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -40622,7 +45409,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -40638,7 +45425,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -40646,15 +45433,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -40678,7 +45465,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -40718,10 +45505,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="B33" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -40742,7 +45529,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -40758,7 +45545,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -40790,7 +45577,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -40798,7 +45585,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -40806,7 +45593,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -40854,26 +45641,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="B50" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -40926,7 +45713,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -40942,7 +45729,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$623</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$652</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="608">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1743,6 +1743,30 @@
   </si>
   <si>
     <t>后面板旋钮掉漆</t>
+  </si>
+  <si>
+    <t>DD258139</t>
+  </si>
+  <si>
+    <t>DD259285</t>
+  </si>
+  <si>
+    <t>DD255560</t>
+  </si>
+  <si>
+    <t>DD256254</t>
+  </si>
+  <si>
+    <t>DD258837</t>
+  </si>
+  <si>
+    <t>旋钮掉漆*3</t>
+  </si>
+  <si>
+    <t>DD259389</t>
+  </si>
+  <si>
+    <t>前面板侧面掉漆</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -4153,9 +4177,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE623" totalsRowShown="0">
-  <autoFilter ref="A2:AE623"/>
-  <sortState ref="A2:AE623">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE652" totalsRowShown="0">
+  <autoFilter ref="A2:AE652"/>
+  <sortState ref="A2:AE652">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4447,12 +4471,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE623"/>
+  <dimension ref="A1:AE652"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E539" sqref="E539"/>
+      <selection pane="bottomLeft" activeCell="H624" sqref="H624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -44250,6 +44274,1402 @@
       </c>
       <c r="Z623" s="11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="624" customHeight="1" spans="1:20">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1">
+        <v>240517001</v>
+      </c>
+      <c r="C624" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D624" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E624" s="4">
+        <v>20</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G624" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H624" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I624" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J624" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K624" s="8">
+        <v>108</v>
+      </c>
+      <c r="L624" s="8">
+        <v>8</v>
+      </c>
+      <c r="N624" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T624" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" customHeight="1" spans="1:20">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="B625" s="1">
+        <v>240517002</v>
+      </c>
+      <c r="C625" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E625" s="4">
+        <v>20</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G625" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H625" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I625" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J625" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K625" s="8">
+        <v>336</v>
+      </c>
+      <c r="L625" s="8">
+        <v>32</v>
+      </c>
+      <c r="N625" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T625" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" customHeight="1" spans="1:20">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" s="1">
+        <v>240517003</v>
+      </c>
+      <c r="C626" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E626" s="4">
+        <v>20</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G626" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H626" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I626" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J626" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K626" s="8">
+        <v>136</v>
+      </c>
+      <c r="L626" s="8">
+        <v>8</v>
+      </c>
+      <c r="N626" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T626" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" customHeight="1" spans="1:20">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="B627" s="1">
+        <v>240517004</v>
+      </c>
+      <c r="C627" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E627" s="4">
+        <v>20</v>
+      </c>
+      <c r="F627" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G627" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H627" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I627" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J627" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K627" s="8">
+        <v>735</v>
+      </c>
+      <c r="L627" s="8">
+        <v>32</v>
+      </c>
+      <c r="N627" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T627" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" customHeight="1" spans="1:20">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="1">
+        <v>240517005</v>
+      </c>
+      <c r="C628" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D628" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E628" s="4">
+        <v>20</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G628" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H628" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I628" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J628" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K628" s="8">
+        <v>144</v>
+      </c>
+      <c r="L628" s="8">
+        <v>8</v>
+      </c>
+      <c r="N628" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T628" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" customHeight="1" spans="1:20">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="B629" s="1">
+        <v>240517006</v>
+      </c>
+      <c r="C629" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E629" s="4">
+        <v>20</v>
+      </c>
+      <c r="F629" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G629" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H629" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I629" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J629" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K629" s="8">
+        <v>420</v>
+      </c>
+      <c r="L629" s="8">
+        <v>32</v>
+      </c>
+      <c r="N629" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T629" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" customHeight="1" spans="1:20">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" s="1">
+        <v>240517007</v>
+      </c>
+      <c r="C630" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E630" s="4">
+        <v>20</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G630" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H630" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I630" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J630" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K630" s="8">
+        <v>1272</v>
+      </c>
+      <c r="L630" s="8">
+        <v>50</v>
+      </c>
+      <c r="N630" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T630" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" customHeight="1" spans="1:20">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="B631" s="1">
+        <v>240517008</v>
+      </c>
+      <c r="C631" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E631" s="4">
+        <v>20</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G631" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H631" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I631" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J631" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K631" s="8">
+        <v>46</v>
+      </c>
+      <c r="L631" s="8">
+        <v>8</v>
+      </c>
+      <c r="N631" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T631" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" customHeight="1" spans="1:26">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="B632" s="1">
+        <v>240517009</v>
+      </c>
+      <c r="C632" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E632" s="4">
+        <v>20</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G632" s="6">
+        <v>22090193</v>
+      </c>
+      <c r="H632" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I632" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J632" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K632" s="8">
+        <v>1</v>
+      </c>
+      <c r="L632" s="8">
+        <v>1</v>
+      </c>
+      <c r="M632" s="9">
+        <v>1</v>
+      </c>
+      <c r="N632" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P632" s="11">
+        <v>1</v>
+      </c>
+      <c r="T632" s="12">
+        <v>1</v>
+      </c>
+      <c r="U632" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="V632" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W632" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X632" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y632" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z632" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="633" customHeight="1" spans="1:20">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="B633" s="1">
+        <v>240517010</v>
+      </c>
+      <c r="C633" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E633" s="4">
+        <v>20</v>
+      </c>
+      <c r="F633" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G633" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="H633" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I633" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J633" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K633" s="8">
+        <v>1</v>
+      </c>
+      <c r="L633" s="8">
+        <v>1</v>
+      </c>
+      <c r="N633" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T633" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" customHeight="1" spans="1:20">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" s="1">
+        <v>240517011</v>
+      </c>
+      <c r="C634" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E634" s="4">
+        <v>20</v>
+      </c>
+      <c r="F634" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G634" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H634" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I634" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J634" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K634" s="8">
+        <v>13</v>
+      </c>
+      <c r="L634" s="8">
+        <v>8</v>
+      </c>
+      <c r="N634" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T634" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" customHeight="1" spans="1:20">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="B635" s="1">
+        <v>240517012</v>
+      </c>
+      <c r="C635" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E635" s="4">
+        <v>20</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G635" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H635" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I635" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J635" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K635" s="8">
+        <v>442</v>
+      </c>
+      <c r="L635" s="8">
+        <v>13</v>
+      </c>
+      <c r="N635" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T635" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" customHeight="1" spans="1:20">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" s="1">
+        <v>240518001</v>
+      </c>
+      <c r="C636" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E636" s="4">
+        <v>20</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G636" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H636" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I636" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J636" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K636" s="8">
+        <v>129</v>
+      </c>
+      <c r="L636" s="8">
+        <v>13</v>
+      </c>
+      <c r="N636" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T636" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" customHeight="1" spans="1:26">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="B637" s="1">
+        <v>240518002</v>
+      </c>
+      <c r="C637" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E637" s="4">
+        <v>20</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G637" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H637" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I637" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J637" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K637" s="8">
+        <v>377</v>
+      </c>
+      <c r="L637" s="8">
+        <v>13</v>
+      </c>
+      <c r="M637" s="9">
+        <v>1</v>
+      </c>
+      <c r="N637" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O637" s="11">
+        <v>1</v>
+      </c>
+      <c r="T637" s="12">
+        <v>1</v>
+      </c>
+      <c r="U637" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="V637" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W637" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X637" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y637" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z637" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="638" customHeight="1" spans="1:20">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" s="1">
+        <v>240518003</v>
+      </c>
+      <c r="C638" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E638" s="4">
+        <v>20</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G638" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H638" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I638" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J638" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K638" s="8">
+        <v>841</v>
+      </c>
+      <c r="L638" s="8">
+        <v>32</v>
+      </c>
+      <c r="N638" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T638" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" customHeight="1" spans="1:20">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="B639" s="1">
+        <v>240518004</v>
+      </c>
+      <c r="C639" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E639" s="4">
+        <v>20</v>
+      </c>
+      <c r="F639" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G639" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H639" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I639" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J639" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K639" s="8">
+        <v>348</v>
+      </c>
+      <c r="L639" s="8">
+        <v>32</v>
+      </c>
+      <c r="N639" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T639" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" customHeight="1" spans="1:26">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" s="1">
+        <v>240518005</v>
+      </c>
+      <c r="C640" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D640" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E640" s="4">
+        <v>20</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G640" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H640" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I640" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J640" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K640" s="8">
+        <v>1056</v>
+      </c>
+      <c r="L640" s="8">
+        <v>48</v>
+      </c>
+      <c r="M640" s="9">
+        <v>3</v>
+      </c>
+      <c r="N640" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O640" s="11">
+        <v>3</v>
+      </c>
+      <c r="T640" s="12">
+        <v>3</v>
+      </c>
+      <c r="U640" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="V640" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W640" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X640" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y640" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z640" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="641" customHeight="1" spans="1:26">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="B641" s="1">
+        <v>240518006</v>
+      </c>
+      <c r="C641" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E641" s="4">
+        <v>20</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G641" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H641" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I641" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J641" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K641" s="8">
+        <v>176</v>
+      </c>
+      <c r="L641" s="8">
+        <v>8</v>
+      </c>
+      <c r="M641" s="9">
+        <v>1</v>
+      </c>
+      <c r="N641" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O641" s="11">
+        <v>1</v>
+      </c>
+      <c r="T641" s="12">
+        <v>1</v>
+      </c>
+      <c r="U641" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="V641" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W641" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X641" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y641" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z641" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="642" customHeight="1" spans="1:26">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="B642" s="1">
+        <v>240518007</v>
+      </c>
+      <c r="C642" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E642" s="4">
+        <v>20</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G642" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H642" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I642" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J642" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K642" s="8">
+        <v>432</v>
+      </c>
+      <c r="L642" s="8">
+        <v>32</v>
+      </c>
+      <c r="M642" s="9">
+        <v>1</v>
+      </c>
+      <c r="N642" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O642" s="11">
+        <v>1</v>
+      </c>
+      <c r="T642" s="12">
+        <v>1</v>
+      </c>
+      <c r="U642" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="V642" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W642" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X642" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y642" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z642" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="643" customHeight="1" spans="1:20">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="B643" s="1">
+        <v>240518008</v>
+      </c>
+      <c r="C643" s="3">
+        <v>45430</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E643" s="4">
+        <v>20</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G643" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H643" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I643" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J643" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K643" s="8">
+        <v>242</v>
+      </c>
+      <c r="L643" s="8">
+        <v>8</v>
+      </c>
+      <c r="N643" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T643" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" customHeight="1" spans="1:20">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" s="1">
+        <v>240519001</v>
+      </c>
+      <c r="C644" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E644" s="4">
+        <v>21</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G644" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H644" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I644" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J644" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K644" s="8">
+        <v>256</v>
+      </c>
+      <c r="L644" s="8">
+        <v>8</v>
+      </c>
+      <c r="N644" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T644" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="1:20">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="B645" s="1">
+        <v>240519002</v>
+      </c>
+      <c r="C645" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E645" s="4">
+        <v>21</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G645" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H645" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I645" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J645" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K645" s="8">
+        <v>530</v>
+      </c>
+      <c r="L645" s="8">
+        <v>13</v>
+      </c>
+      <c r="N645" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T645" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" customHeight="1" spans="1:20">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" s="1">
+        <v>240519003</v>
+      </c>
+      <c r="C646" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E646" s="4">
+        <v>21</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G646" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H646" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I646" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J646" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K646" s="8">
+        <v>205</v>
+      </c>
+      <c r="L646" s="8">
+        <v>8</v>
+      </c>
+      <c r="N646" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T646" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" customHeight="1" spans="1:20">
+      <c r="A647" s="1">
+        <v>646</v>
+      </c>
+      <c r="B647" s="1">
+        <v>240519004</v>
+      </c>
+      <c r="C647" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E647" s="4">
+        <v>21</v>
+      </c>
+      <c r="F647" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G647" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H647" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I647" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J647" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K647" s="8">
+        <v>577</v>
+      </c>
+      <c r="L647" s="8">
+        <v>32</v>
+      </c>
+      <c r="N647" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T647" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="1:20">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" s="1">
+        <v>240519005</v>
+      </c>
+      <c r="C648" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E648" s="4">
+        <v>21</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G648" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H648" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I648" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J648" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K648" s="8">
+        <v>176</v>
+      </c>
+      <c r="L648" s="8">
+        <v>8</v>
+      </c>
+      <c r="N648" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T648" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" customHeight="1" spans="1:20">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1">
+        <v>240519006</v>
+      </c>
+      <c r="C649" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E649" s="4">
+        <v>21</v>
+      </c>
+      <c r="F649" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G649" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H649" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I649" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J649" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K649" s="8">
+        <v>864</v>
+      </c>
+      <c r="L649" s="8">
+        <v>32</v>
+      </c>
+      <c r="N649" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T649" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" customHeight="1" spans="1:20">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" s="1">
+        <v>240519007</v>
+      </c>
+      <c r="C650" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E650" s="4">
+        <v>21</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G650" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H650" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I650" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J650" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K650" s="8">
+        <v>720</v>
+      </c>
+      <c r="L650" s="8">
+        <v>32</v>
+      </c>
+      <c r="N650" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T650" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" customHeight="1" spans="1:20">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="B651" s="1">
+        <v>240519008</v>
+      </c>
+      <c r="C651" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E651" s="4">
+        <v>21</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G651" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H651" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I651" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J651" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K651" s="8">
+        <v>288</v>
+      </c>
+      <c r="L651" s="8">
+        <v>32</v>
+      </c>
+      <c r="N651" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T651" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" customHeight="1" spans="1:20">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="B652" s="1">
+        <v>240519009</v>
+      </c>
+      <c r="C652" s="3">
+        <v>45431</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E652" s="4">
+        <v>21</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G652" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H652" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I652" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J652" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K652" s="8">
+        <v>499</v>
+      </c>
+      <c r="L652" s="8">
+        <v>13</v>
+      </c>
+      <c r="N652" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T652" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -45257,10 +46677,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -45281,7 +46701,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -45321,7 +46741,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -45329,15 +46749,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -45361,7 +46781,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -45377,18 +46797,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B17" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B18" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -45401,7 +46821,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45409,7 +46829,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -45425,7 +46845,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -45433,15 +46853,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B24" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -45465,7 +46885,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -45505,10 +46925,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -45529,7 +46949,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -45545,7 +46965,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -45577,7 +46997,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -45585,7 +47005,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -45593,7 +47013,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -45641,26 +47061,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B50" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B51" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B52" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -45713,7 +47133,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -45729,7 +47149,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$652</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$673</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="617">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1767,6 +1767,33 @@
   </si>
   <si>
     <t>前面板侧面掉漆</t>
+  </si>
+  <si>
+    <t>DD261122</t>
+  </si>
+  <si>
+    <t>DD259845</t>
+  </si>
+  <si>
+    <t>电池盒盖凹坑*5</t>
+  </si>
+  <si>
+    <t>手柄装饰盖缝隙</t>
+  </si>
+  <si>
+    <t>电池盒盖凹坑*7</t>
+  </si>
+  <si>
+    <t>DD258773</t>
+  </si>
+  <si>
+    <t>电池盒盖凹坑</t>
+  </si>
+  <si>
+    <t>猫眼镜片起翘*3</t>
+  </si>
+  <si>
+    <t>前面板漏打螺丝（加抽8套无问题）</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -4177,9 +4204,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE652" totalsRowShown="0">
-  <autoFilter ref="A2:AE652"/>
-  <sortState ref="A2:AE652">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE673" totalsRowShown="0">
+  <autoFilter ref="A2:AE673"/>
+  <sortState ref="A2:AE673">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4471,12 +4498,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE652"/>
+  <dimension ref="A1:AE673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H624" sqref="H624"/>
+      <selection pane="bottomLeft" activeCell="A653" sqref="A653:AE673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -45669,6 +45696,1062 @@
         <v>37</v>
       </c>
       <c r="T652" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" customHeight="1" spans="1:20">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="B653" s="1">
+        <v>240520001</v>
+      </c>
+      <c r="C653" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E653" s="4">
+        <v>21</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G653" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H653" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I653" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J653" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K653" s="8">
+        <v>672</v>
+      </c>
+      <c r="L653" s="8">
+        <v>32</v>
+      </c>
+      <c r="N653" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T653" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" customHeight="1" spans="1:20">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" s="1">
+        <v>240520002</v>
+      </c>
+      <c r="C654" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E654" s="4">
+        <v>21</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G654" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H654" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I654" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J654" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K654" s="8">
+        <v>280</v>
+      </c>
+      <c r="L654" s="8">
+        <v>8</v>
+      </c>
+      <c r="N654" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T654" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" customHeight="1" spans="1:20">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="B655" s="1">
+        <v>240520003</v>
+      </c>
+      <c r="C655" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E655" s="4">
+        <v>21</v>
+      </c>
+      <c r="F655" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G655" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H655" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I655" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J655" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K655" s="8">
+        <v>10</v>
+      </c>
+      <c r="L655" s="8">
+        <v>8</v>
+      </c>
+      <c r="N655" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T655" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" customHeight="1" spans="1:20">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1">
+        <v>240520004</v>
+      </c>
+      <c r="C656" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E656" s="4">
+        <v>21</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G656" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H656" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I656" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J656" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K656" s="8">
+        <v>200</v>
+      </c>
+      <c r="L656" s="8">
+        <v>8</v>
+      </c>
+      <c r="N656" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T656" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" customHeight="1" spans="1:20">
+      <c r="A657" s="1">
+        <v>656</v>
+      </c>
+      <c r="B657" s="1">
+        <v>240520005</v>
+      </c>
+      <c r="C657" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E657" s="4">
+        <v>21</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G657" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H657" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I657" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J657" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K657" s="8">
+        <v>576</v>
+      </c>
+      <c r="L657" s="8">
+        <v>32</v>
+      </c>
+      <c r="N657" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T657" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" customHeight="1" spans="1:20">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="1">
+        <v>240520006</v>
+      </c>
+      <c r="C658" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E658" s="4">
+        <v>21</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G658" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H658" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I658" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J658" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K658" s="8">
+        <v>864</v>
+      </c>
+      <c r="L658" s="8">
+        <v>32</v>
+      </c>
+      <c r="N658" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T658" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" customHeight="1" spans="1:20">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="B659" s="1">
+        <v>240520007</v>
+      </c>
+      <c r="C659" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E659" s="4">
+        <v>21</v>
+      </c>
+      <c r="F659" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G659" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H659" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I659" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J659" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K659" s="8">
+        <v>924</v>
+      </c>
+      <c r="L659" s="8">
+        <v>32</v>
+      </c>
+      <c r="N659" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T659" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" customHeight="1" spans="1:20">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" s="1">
+        <v>240521001</v>
+      </c>
+      <c r="C660" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E660" s="4">
+        <v>21</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G660" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H660" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I660" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J660" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K660" s="8">
+        <v>720</v>
+      </c>
+      <c r="L660" s="8">
+        <v>32</v>
+      </c>
+      <c r="N660" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T660" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" customHeight="1" spans="1:20">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="B661" s="1">
+        <v>240521002</v>
+      </c>
+      <c r="C661" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E661" s="4">
+        <v>21</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G661" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H661" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I661" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J661" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K661" s="8">
+        <v>128</v>
+      </c>
+      <c r="L661" s="8">
+        <v>8</v>
+      </c>
+      <c r="N661" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T661" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" customHeight="1" spans="1:20">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="B662" s="1">
+        <v>240521003</v>
+      </c>
+      <c r="C662" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E662" s="4">
+        <v>21</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G662" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H662" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I662" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J662" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K662" s="8">
+        <v>576</v>
+      </c>
+      <c r="L662" s="8">
+        <v>32</v>
+      </c>
+      <c r="N662" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T662" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" customHeight="1" spans="1:26">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="B663" s="1">
+        <v>240521004</v>
+      </c>
+      <c r="C663" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E663" s="4">
+        <v>21</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G663" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H663" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I663" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J663" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K663" s="8">
+        <v>567</v>
+      </c>
+      <c r="L663" s="8">
+        <v>13</v>
+      </c>
+      <c r="M663" s="9">
+        <v>6</v>
+      </c>
+      <c r="N663" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O663" s="11">
+        <v>5</v>
+      </c>
+      <c r="T663" s="12">
+        <v>5</v>
+      </c>
+      <c r="U663" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="V663" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W663" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X663" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y663" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z663" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="664" customHeight="1" spans="1:26">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="1">
+        <v>240521004</v>
+      </c>
+      <c r="C664" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E664" s="4">
+        <v>21</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G664" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H664" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I664" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J664" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O664" s="11">
+        <v>1</v>
+      </c>
+      <c r="T664" s="12">
+        <v>1</v>
+      </c>
+      <c r="U664" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="V664" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W664" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X664" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y664" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z664" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="665" customHeight="1" spans="1:26">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" s="1">
+        <v>240521005</v>
+      </c>
+      <c r="C665" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E665" s="4">
+        <v>21</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G665" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H665" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I665" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J665" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K665" s="8">
+        <v>279</v>
+      </c>
+      <c r="L665" s="8">
+        <v>13</v>
+      </c>
+      <c r="M665" s="9">
+        <v>7</v>
+      </c>
+      <c r="N665" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O665" s="11">
+        <v>7</v>
+      </c>
+      <c r="T665" s="12">
+        <v>7</v>
+      </c>
+      <c r="U665" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="V665" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W665" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X665" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y665" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z665" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="666" customHeight="1" spans="1:26">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" s="1">
+        <v>240521006</v>
+      </c>
+      <c r="C666" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E666" s="4">
+        <v>21</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G666" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="H666" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I666" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J666" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K666" s="8">
+        <v>194</v>
+      </c>
+      <c r="L666" s="8">
+        <v>8</v>
+      </c>
+      <c r="M666" s="9">
+        <v>1</v>
+      </c>
+      <c r="N666" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O666" s="11">
+        <v>1</v>
+      </c>
+      <c r="T666" s="12">
+        <v>1</v>
+      </c>
+      <c r="U666" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="V666" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W666" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X666" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y666" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z666" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="667" customHeight="1" spans="1:26">
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
+      <c r="B667" s="1">
+        <v>240521007</v>
+      </c>
+      <c r="C667" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E667" s="4">
+        <v>21</v>
+      </c>
+      <c r="F667" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G667" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H667" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I667" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J667" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K667" s="8">
+        <v>717</v>
+      </c>
+      <c r="L667" s="8">
+        <v>48</v>
+      </c>
+      <c r="M667" s="9">
+        <v>3</v>
+      </c>
+      <c r="N667" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O667" s="11">
+        <v>3</v>
+      </c>
+      <c r="T667" s="12">
+        <v>3</v>
+      </c>
+      <c r="U667" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="V667" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W667" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X667" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y667" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z667" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="668" customHeight="1" spans="1:20">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1">
+        <v>240521008</v>
+      </c>
+      <c r="C668" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E668" s="4">
+        <v>21</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G668" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H668" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I668" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J668" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K668" s="8">
+        <v>210</v>
+      </c>
+      <c r="L668" s="8">
+        <v>13</v>
+      </c>
+      <c r="N668" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T668" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" customHeight="1" spans="1:20">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1">
+        <v>240522001</v>
+      </c>
+      <c r="C669" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E669" s="4">
+        <v>21</v>
+      </c>
+      <c r="F669" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G669" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H669" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I669" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J669" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K669" s="8">
+        <v>460</v>
+      </c>
+      <c r="L669" s="8">
+        <v>13</v>
+      </c>
+      <c r="N669" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T669" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" customHeight="1" spans="1:20">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1">
+        <v>240522002</v>
+      </c>
+      <c r="C670" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E670" s="4">
+        <v>21</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G670" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H670" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I670" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J670" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K670" s="8">
+        <v>210</v>
+      </c>
+      <c r="L670" s="8">
+        <v>13</v>
+      </c>
+      <c r="N670" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T670" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" customHeight="1" spans="1:26">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1">
+        <v>240522003</v>
+      </c>
+      <c r="C671" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E671" s="4">
+        <v>21</v>
+      </c>
+      <c r="F671" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G671" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H671" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I671" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J671" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K671" s="8">
+        <v>128</v>
+      </c>
+      <c r="L671" s="8">
+        <v>13</v>
+      </c>
+      <c r="M671" s="9">
+        <v>1</v>
+      </c>
+      <c r="N671" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R671" s="11">
+        <v>1</v>
+      </c>
+      <c r="T671" s="12">
+        <v>1</v>
+      </c>
+      <c r="U671" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="V671" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W671" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X671" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y671" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z671" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="672" customHeight="1" spans="1:20">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1">
+        <v>240522004</v>
+      </c>
+      <c r="C672" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E672" s="4">
+        <v>21</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G672" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H672" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I672" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J672" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K672" s="8">
+        <v>172</v>
+      </c>
+      <c r="L672" s="8">
+        <v>13</v>
+      </c>
+      <c r="N672" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T672" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" customHeight="1" spans="1:20">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1">
+        <v>240522005</v>
+      </c>
+      <c r="C673" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E673" s="4">
+        <v>21</v>
+      </c>
+      <c r="F673" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G673" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H673" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I673" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J673" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K673" s="8">
+        <v>252</v>
+      </c>
+      <c r="L673" s="8">
+        <v>13</v>
+      </c>
+      <c r="N673" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T673" s="12">
         <v>0</v>
       </c>
     </row>
@@ -46661,7 +47744,7 @@
   <sheetPr/>
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -46677,10 +47760,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -46701,7 +47784,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -46741,7 +47824,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -46749,15 +47832,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -46781,7 +47864,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -46797,18 +47880,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B17" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -46821,7 +47904,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -46829,7 +47912,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -46845,7 +47928,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -46853,15 +47936,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B24" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -46885,7 +47968,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -46925,10 +48008,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B33" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -46949,7 +48032,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -46965,7 +48048,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -46997,7 +48080,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -47005,7 +48088,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -47013,7 +48096,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -47061,26 +48144,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B50" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B51" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B52" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -47133,7 +48216,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -47149,7 +48232,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$673</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$708</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="629">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1794,6 +1794,42 @@
   </si>
   <si>
     <t>前面板漏打螺丝（加抽8套无问题）</t>
+  </si>
+  <si>
+    <t>电池盒盖紧不易打开，卡扣断</t>
+  </si>
+  <si>
+    <t>DD256260</t>
+  </si>
+  <si>
+    <t>DD259568</t>
+  </si>
+  <si>
+    <t>锁具色差*3</t>
+  </si>
+  <si>
+    <t>前面板装饰件未安装到位</t>
+  </si>
+  <si>
+    <t>电池无电量</t>
+  </si>
+  <si>
+    <t>锁具测试一半呈现死机状态</t>
+  </si>
+  <si>
+    <t>DD259843</t>
+  </si>
+  <si>
+    <t>Q3MVPRO假锁</t>
+  </si>
+  <si>
+    <t>DD259844</t>
+  </si>
+  <si>
+    <t>DD259035</t>
+  </si>
+  <si>
+    <t>APP无法绑定,模组应答超时（电机板问题）</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -4204,9 +4240,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE673" totalsRowShown="0">
-  <autoFilter ref="A2:AE673"/>
-  <sortState ref="A2:AE673">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE708" totalsRowShown="0">
+  <autoFilter ref="A2:AE708"/>
+  <sortState ref="A2:AE708">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4498,12 +4534,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE673"/>
+  <dimension ref="A1:AE708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A653" sqref="A653:AE673"/>
+      <selection pane="bottomLeft" activeCell="A674" sqref="A674:AE708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -46753,6 +46789,1738 @@
       </c>
       <c r="T673" s="12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="674" customHeight="1" spans="1:20">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1">
+        <v>240523001</v>
+      </c>
+      <c r="C674" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E674" s="4">
+        <v>21</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G674" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H674" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I674" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J674" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K674" s="8">
+        <v>792</v>
+      </c>
+      <c r="L674" s="8">
+        <v>32</v>
+      </c>
+      <c r="N674" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T674" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" customHeight="1" spans="1:20">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1">
+        <v>240523002</v>
+      </c>
+      <c r="C675" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E675" s="4">
+        <v>21</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G675" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H675" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I675" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J675" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K675" s="8">
+        <v>322</v>
+      </c>
+      <c r="L675" s="8">
+        <v>13</v>
+      </c>
+      <c r="N675" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T675" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" customHeight="1" spans="1:20">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1">
+        <v>240523003</v>
+      </c>
+      <c r="C676" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E676" s="4">
+        <v>21</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G676" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H676" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I676" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J676" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K676" s="8">
+        <v>527</v>
+      </c>
+      <c r="L676" s="8">
+        <v>13</v>
+      </c>
+      <c r="N676" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T676" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" customHeight="1" spans="1:20">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1">
+        <v>240523004</v>
+      </c>
+      <c r="C677" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E677" s="4">
+        <v>21</v>
+      </c>
+      <c r="F677" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G677" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H677" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I677" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J677" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K677" s="8">
+        <v>332</v>
+      </c>
+      <c r="L677" s="8">
+        <v>13</v>
+      </c>
+      <c r="N677" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T677" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" customHeight="1" spans="1:26">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1">
+        <v>240523005</v>
+      </c>
+      <c r="C678" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E678" s="4">
+        <v>21</v>
+      </c>
+      <c r="F678" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G678" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H678" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I678" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J678" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K678" s="8">
+        <v>96</v>
+      </c>
+      <c r="L678" s="8">
+        <v>8</v>
+      </c>
+      <c r="M678" s="9">
+        <v>1</v>
+      </c>
+      <c r="N678" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O678" s="11">
+        <v>1</v>
+      </c>
+      <c r="T678" s="12">
+        <v>1</v>
+      </c>
+      <c r="U678" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="V678" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W678" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X678" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y678" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z678" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="679" customHeight="1" spans="1:20">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1">
+        <v>240523006</v>
+      </c>
+      <c r="C679" s="3">
+        <v>45435</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E679" s="4">
+        <v>21</v>
+      </c>
+      <c r="F679" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G679" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H679" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I679" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J679" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K679" s="8">
+        <v>192</v>
+      </c>
+      <c r="L679" s="8">
+        <v>8</v>
+      </c>
+      <c r="N679" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T679" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" customHeight="1" spans="1:20">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1">
+        <v>240524001</v>
+      </c>
+      <c r="C680" s="3">
+        <v>45436</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E680" s="4">
+        <v>21</v>
+      </c>
+      <c r="F680" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G680" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H680" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I680" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J680" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K680" s="8">
+        <v>320</v>
+      </c>
+      <c r="L680" s="8">
+        <v>13</v>
+      </c>
+      <c r="N680" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T680" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" customHeight="1" spans="1:20">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1">
+        <v>240524002</v>
+      </c>
+      <c r="C681" s="3">
+        <v>45436</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E681" s="4">
+        <v>21</v>
+      </c>
+      <c r="F681" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G681" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H681" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I681" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J681" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K681" s="8">
+        <v>864</v>
+      </c>
+      <c r="L681" s="8">
+        <v>32</v>
+      </c>
+      <c r="N681" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T681" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" customHeight="1" spans="1:20">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1">
+        <v>240524003</v>
+      </c>
+      <c r="C682" s="3">
+        <v>45436</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E682" s="4">
+        <v>21</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G682" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H682" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I682" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J682" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K682" s="8">
+        <v>2304</v>
+      </c>
+      <c r="L682" s="8">
+        <v>50</v>
+      </c>
+      <c r="N682" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T682" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" customHeight="1" spans="1:20">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1">
+        <v>240524004</v>
+      </c>
+      <c r="C683" s="3">
+        <v>45436</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E683" s="4">
+        <v>21</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G683" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H683" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I683" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J683" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K683" s="8">
+        <v>634</v>
+      </c>
+      <c r="L683" s="8">
+        <v>13</v>
+      </c>
+      <c r="N683" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T683" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" customHeight="1" spans="1:20">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1">
+        <v>240525001</v>
+      </c>
+      <c r="C684" s="3">
+        <v>45437</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E684" s="4">
+        <v>21</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G684" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H684" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I684" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J684" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K684" s="8">
+        <v>870</v>
+      </c>
+      <c r="L684" s="8">
+        <v>13</v>
+      </c>
+      <c r="N684" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T684" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" customHeight="1" spans="1:26">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1">
+        <v>240525002</v>
+      </c>
+      <c r="C685" s="3">
+        <v>45437</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E685" s="4">
+        <v>21</v>
+      </c>
+      <c r="F685" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G685" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H685" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I685" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J685" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K685" s="8">
+        <v>1696</v>
+      </c>
+      <c r="L685" s="8">
+        <v>50</v>
+      </c>
+      <c r="M685" s="9">
+        <v>1</v>
+      </c>
+      <c r="N685" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O685" s="11">
+        <v>1</v>
+      </c>
+      <c r="T685" s="12">
+        <v>1</v>
+      </c>
+      <c r="U685" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V685" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W685" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X685" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y685" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z685" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="686" customHeight="1" spans="1:20">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1">
+        <v>240525003</v>
+      </c>
+      <c r="C686" s="3">
+        <v>45437</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E686" s="4">
+        <v>21</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G686" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H686" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I686" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J686" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K686" s="8">
+        <v>318</v>
+      </c>
+      <c r="L686" s="8">
+        <v>13</v>
+      </c>
+      <c r="N686" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T686" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" customHeight="1" spans="1:20">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1">
+        <v>240525004</v>
+      </c>
+      <c r="C687" s="3">
+        <v>45437</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E687" s="4">
+        <v>21</v>
+      </c>
+      <c r="F687" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G687" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H687" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I687" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J687" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K687" s="8">
+        <v>753</v>
+      </c>
+      <c r="L687" s="8">
+        <v>13</v>
+      </c>
+      <c r="N687" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T687" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" customHeight="1" spans="1:20">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1">
+        <v>240526001</v>
+      </c>
+      <c r="C688" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E688" s="4">
+        <v>22</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G688" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H688" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I688" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J688" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K688" s="8">
+        <v>753</v>
+      </c>
+      <c r="L688" s="8">
+        <v>13</v>
+      </c>
+      <c r="N688" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T688" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:20">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1">
+        <v>240526002</v>
+      </c>
+      <c r="C689" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E689" s="4">
+        <v>22</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G689" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H689" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I689" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J689" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K689" s="8">
+        <v>2173</v>
+      </c>
+      <c r="L689" s="8">
+        <v>50</v>
+      </c>
+      <c r="N689" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T689" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" customHeight="1" spans="1:20">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1">
+        <v>240526003</v>
+      </c>
+      <c r="C690" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E690" s="4">
+        <v>22</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G690" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H690" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I690" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J690" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K690" s="8">
+        <v>264</v>
+      </c>
+      <c r="L690" s="8">
+        <v>8</v>
+      </c>
+      <c r="N690" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T690" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" customHeight="1" spans="1:20">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1">
+        <v>240526004</v>
+      </c>
+      <c r="C691" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E691" s="4">
+        <v>22</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G691" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H691" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I691" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J691" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K691" s="8">
+        <v>56</v>
+      </c>
+      <c r="L691" s="8">
+        <v>8</v>
+      </c>
+      <c r="N691" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T691" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" customHeight="1" spans="1:20">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1">
+        <v>240526005</v>
+      </c>
+      <c r="C692" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E692" s="4">
+        <v>22</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G692" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H692" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I692" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J692" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K692" s="8">
+        <v>238</v>
+      </c>
+      <c r="L692" s="8">
+        <v>8</v>
+      </c>
+      <c r="N692" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T692" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:20">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1">
+        <v>240526006</v>
+      </c>
+      <c r="C693" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E693" s="4">
+        <v>22</v>
+      </c>
+      <c r="F693" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G693" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H693" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I693" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J693" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K693" s="8">
+        <v>144</v>
+      </c>
+      <c r="L693" s="8">
+        <v>8</v>
+      </c>
+      <c r="N693" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T693" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" customHeight="1" spans="1:26">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1">
+        <v>240527001</v>
+      </c>
+      <c r="C694" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E694" s="4">
+        <v>22</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G694" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H694" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I694" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J694" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K694" s="8">
+        <v>667</v>
+      </c>
+      <c r="L694" s="8">
+        <v>13</v>
+      </c>
+      <c r="M694" s="9">
+        <v>3</v>
+      </c>
+      <c r="N694" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O694" s="11">
+        <v>3</v>
+      </c>
+      <c r="T694" s="12">
+        <v>3</v>
+      </c>
+      <c r="U694" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="V694" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W694" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X694" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y694" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z694" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="695" customHeight="1" spans="1:26">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1">
+        <v>240527002</v>
+      </c>
+      <c r="C695" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E695" s="4">
+        <v>22</v>
+      </c>
+      <c r="F695" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G695" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H695" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I695" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J695" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K695" s="8">
+        <v>416</v>
+      </c>
+      <c r="L695" s="8">
+        <v>13</v>
+      </c>
+      <c r="M695" s="9">
+        <v>1</v>
+      </c>
+      <c r="N695" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O695" s="11">
+        <v>1</v>
+      </c>
+      <c r="T695" s="12">
+        <v>1</v>
+      </c>
+      <c r="U695" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="V695" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W695" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X695" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y695" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z695" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="696" customHeight="1" spans="1:20">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1">
+        <v>240527003</v>
+      </c>
+      <c r="C696" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E696" s="4">
+        <v>22</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G696" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H696" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I696" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J696" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K696" s="8">
+        <v>864</v>
+      </c>
+      <c r="L696" s="8">
+        <v>13</v>
+      </c>
+      <c r="N696" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T696" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" customHeight="1" spans="1:26">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1">
+        <v>240527004</v>
+      </c>
+      <c r="C697" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E697" s="4">
+        <v>22</v>
+      </c>
+      <c r="F697" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G697" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H697" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I697" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J697" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K697" s="8">
+        <v>1524</v>
+      </c>
+      <c r="L697" s="8">
+        <v>50</v>
+      </c>
+      <c r="M697" s="9">
+        <v>2</v>
+      </c>
+      <c r="N697" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S697" s="12">
+        <v>1</v>
+      </c>
+      <c r="T697" s="12">
+        <v>1</v>
+      </c>
+      <c r="U697" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="V697" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W697" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="X697" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y697" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z697" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="698" customHeight="1" spans="1:26">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1">
+        <v>240527004</v>
+      </c>
+      <c r="C698" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E698" s="4">
+        <v>22</v>
+      </c>
+      <c r="F698" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G698" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H698" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I698" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J698" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q698" s="11">
+        <v>1</v>
+      </c>
+      <c r="T698" s="12">
+        <v>1</v>
+      </c>
+      <c r="U698" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="V698" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W698" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X698" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y698" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z698" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="699" customHeight="1" spans="1:20">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1">
+        <v>240527005</v>
+      </c>
+      <c r="C699" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E699" s="4">
+        <v>22</v>
+      </c>
+      <c r="F699" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G699" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H699" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="I699" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J699" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K699" s="8">
+        <v>156</v>
+      </c>
+      <c r="L699" s="8">
+        <v>8</v>
+      </c>
+      <c r="N699" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T699" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" customHeight="1" spans="1:20">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1">
+        <v>240528001</v>
+      </c>
+      <c r="C700" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D700" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E700" s="4">
+        <v>22</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G700" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="H700" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I700" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J700" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K700" s="8">
+        <v>50</v>
+      </c>
+      <c r="L700" s="8">
+        <v>8</v>
+      </c>
+      <c r="N700" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T700" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" customHeight="1" spans="1:20">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1">
+        <v>240528002</v>
+      </c>
+      <c r="C701" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E701" s="4">
+        <v>22</v>
+      </c>
+      <c r="F701" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G701" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H701" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I701" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J701" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K701" s="8">
+        <v>50</v>
+      </c>
+      <c r="L701" s="8">
+        <v>8</v>
+      </c>
+      <c r="N701" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T701" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" customHeight="1" spans="1:20">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1">
+        <v>240528003</v>
+      </c>
+      <c r="C702" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E702" s="4">
+        <v>22</v>
+      </c>
+      <c r="F702" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G702" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H702" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I702" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J702" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K702" s="8">
+        <v>968</v>
+      </c>
+      <c r="L702" s="8">
+        <v>32</v>
+      </c>
+      <c r="N702" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T702" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" customHeight="1" spans="1:20">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1">
+        <v>240528004</v>
+      </c>
+      <c r="C703" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E703" s="4">
+        <v>22</v>
+      </c>
+      <c r="F703" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G703" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H703" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I703" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J703" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K703" s="8">
+        <v>144</v>
+      </c>
+      <c r="L703" s="8">
+        <v>8</v>
+      </c>
+      <c r="N703" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T703" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" customHeight="1" spans="1:20">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1">
+        <v>240528005</v>
+      </c>
+      <c r="C704" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E704" s="4">
+        <v>22</v>
+      </c>
+      <c r="F704" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G704" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H704" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I704" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J704" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K704" s="8">
+        <v>513</v>
+      </c>
+      <c r="L704" s="8">
+        <v>13</v>
+      </c>
+      <c r="N704" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T704" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" customHeight="1" spans="1:26">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1">
+        <v>240528006</v>
+      </c>
+      <c r="C705" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E705" s="4">
+        <v>22</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G705" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H705" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I705" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J705" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K705" s="8">
+        <v>653</v>
+      </c>
+      <c r="L705" s="8">
+        <v>32</v>
+      </c>
+      <c r="M705" s="9">
+        <v>2</v>
+      </c>
+      <c r="N705" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O705" s="11">
+        <v>1</v>
+      </c>
+      <c r="T705" s="12">
+        <v>1</v>
+      </c>
+      <c r="U705" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V705" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W705" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X705" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y705" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z705" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="706" customHeight="1" spans="1:26">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1">
+        <v>240528006</v>
+      </c>
+      <c r="C706" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E706" s="4">
+        <v>22</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G706" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H706" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I706" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J706" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q706" s="11">
+        <v>1</v>
+      </c>
+      <c r="T706" s="12">
+        <v>1</v>
+      </c>
+      <c r="U706" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="V706" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W706" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X706" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y706" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z706" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="707" customHeight="1" spans="1:20">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1">
+        <v>240528007</v>
+      </c>
+      <c r="C707" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E707" s="4">
+        <v>22</v>
+      </c>
+      <c r="F707" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G707" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H707" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I707" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J707" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K707" s="8">
+        <v>446</v>
+      </c>
+      <c r="L707" s="8">
+        <v>13</v>
+      </c>
+      <c r="N707" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T707" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" customHeight="1" spans="1:26">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1">
+        <v>240528008</v>
+      </c>
+      <c r="C708" s="3">
+        <v>45440</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E708" s="4">
+        <v>22</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G708" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H708" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I708" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J708" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K708" s="8">
+        <v>1126</v>
+      </c>
+      <c r="L708" s="8">
+        <v>32</v>
+      </c>
+      <c r="M708" s="9">
+        <v>1</v>
+      </c>
+      <c r="N708" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O708" s="11">
+        <v>1</v>
+      </c>
+      <c r="T708" s="12">
+        <v>1</v>
+      </c>
+      <c r="U708" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="V708" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W708" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X708" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y708" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z708" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -47760,10 +49528,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -47784,7 +49552,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -47824,7 +49592,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -47832,15 +49600,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -47864,7 +49632,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -47880,18 +49648,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B17" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -47904,7 +49672,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -47912,7 +49680,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -47928,7 +49696,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -47936,15 +49704,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -47968,7 +49736,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -48008,10 +49776,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -48032,7 +49800,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -48048,7 +49816,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -48080,7 +49848,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -48088,7 +49856,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -48096,7 +49864,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -48144,26 +49912,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B50" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B51" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="B52" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -48216,7 +49984,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -48232,7 +50000,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -13,9 +13,10 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$721</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="636">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1830,6 +1831,27 @@
   </si>
   <si>
     <t>APP无法绑定,模组应答超时（电机板问题）</t>
+  </si>
+  <si>
+    <t>DD259814</t>
+  </si>
+  <si>
+    <t>DD254370</t>
+  </si>
+  <si>
+    <t>240528006加抽16无问题调拨入库</t>
+  </si>
+  <si>
+    <t>返外观</t>
+  </si>
+  <si>
+    <t>DD259443</t>
+  </si>
+  <si>
+    <t>DD259966</t>
+  </si>
+  <si>
+    <t>V5P假锁</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -2757,7 +2779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3142,6 +3164,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4239,10 +4264,751 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="司内成品整体"/>
+      <sheetName val="外O整体"/>
+      <sheetName val="外O飞行检验"/>
+      <sheetName val="外O细分型号"/>
+      <sheetName val="工程发货抽检情况"/>
+      <sheetName val="成品日报表"/>
+      <sheetName val="检验日报表"/>
+      <sheetName val="市返维修抽检情况 "/>
+      <sheetName val="OQC抽检状况"/>
+      <sheetName val="成品日状况"/>
+      <sheetName val="成品周状况"/>
+      <sheetName val="成品月状况"/>
+      <sheetName val="成品年度报表"/>
+      <sheetName val="年度批次合格率"/>
+      <sheetName val="成品不良问题分析"/>
+      <sheetName val="外O不良问题分析"/>
+      <sheetName val="下拉列表源数据"/>
+      <sheetName val="其他入库"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>细分型号</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>D60-L</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>D60-L</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>E10</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>E10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>E10-ZC</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>E10</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>E10假锁</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>E10</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>E16</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>E16</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>E16-ZC</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>E16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>E180</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>E180</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>E180-3</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>E180</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>E26</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>E26</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>G00</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>G100</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>G100-2</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>G100-DZ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>G100-ZC</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>G101</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>G101</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>G105-ST-09</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>G105</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>G111</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>G111-C</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>G111（假）</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>G111-ST-08</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>G111-W-2</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>G111-W-PF</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>G112-2</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>G112</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>G301</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>G302</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>G302</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>G302</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>G302假锁</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>G302</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>G5</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>G5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>G5-1</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>G5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>G5-TY</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>G5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>G500</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>G500</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>G5C</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>G5C</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>P1-CM</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>P1-CM</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>P1-CM-3</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>P1-CM</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>P1-CM-PF</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>P1-CM</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>P1-CT</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>P1-CT(魔方）</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>P1-CT-3</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>P1-CT-MF</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>P1-CT-PF</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>P1-CT-ZC</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>PI-CT-MF</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>P1-CT-ST</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>P1-CT-ZC-ST</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Q3MPRO假锁</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Q5-TY</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Q5-TY</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>S5</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>S5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>S5-1</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>S5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>V1</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>V1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>V5P-1</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>V5P</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>V6</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>V6</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>V7</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>V7-3</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>V7-ZC</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>V7PLUS</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>V7假锁</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>新V7</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>P7-CT</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>P7-CT</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>G100-J</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>G100-W</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>G100</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>G102</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>G102</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>G109</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>G109</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>G111假锁</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>G111</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>G302-1</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>G302</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>P1-CM-ZC</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>P1-CM</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>P1-CM-ZC-ST</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>P1-CM</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>P1-CT-ST-ZC</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>P1-CT-ZC--ST</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>P1-CT</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>P8</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>P8</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Q3EMP</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Q3MPRO2.0</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Q3MPRO尊享版</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Q3MVPRO</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>Q3MVPRO</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Q3MVPRO2.0</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>Q3MVPRO</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>V7PLUS-ZC</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>V7-ZC假锁</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>E16-J</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>E16</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Q3FPRO</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>Q3FPRO</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Q3EFPRO</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>Q3EFPRO</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>V7-3-PF</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>V7</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Q3FVPRO</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>Q3FVPRO</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Q3MPRO2.0长续航版</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Q3MPRO</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>E10PLUS</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>E10PLUS</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Q3EM</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>Q3EM</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Q3MVPRO假锁</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>Q3MVPRO</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>V5P假锁</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>V5P</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE708" totalsRowShown="0">
-  <autoFilter ref="A2:AE708"/>
-  <sortState ref="A2:AE708">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE721" totalsRowShown="0">
+  <autoFilter ref="A2:AE721"/>
+  <sortState ref="A2:AE721">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -4534,12 +5300,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE708"/>
+  <dimension ref="A1:AE721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A674" sqref="A674:AE708"/>
+      <selection pane="bottomLeft" activeCell="L724" sqref="L724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4558,7 +5324,7 @@
     <col min="14" max="14" width="6.75961538461539" style="10" customWidth="1"/>
     <col min="15" max="18" width="5.125" style="11" customWidth="1"/>
     <col min="19" max="20" width="5.125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="34.7115384615385" style="11" customWidth="1"/>
+    <col min="21" max="21" width="43.3461538461538" style="11" customWidth="1"/>
     <col min="22" max="22" width="27.875" style="13" customWidth="1"/>
     <col min="23" max="23" width="8.875" style="8" customWidth="1"/>
     <col min="24" max="24" width="10.125" style="11" customWidth="1"/>
@@ -48522,6 +49288,842 @@
       <c r="Z708" s="11" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="709" customHeight="1" spans="1:31">
+      <c r="A709" s="22">
+        <v>708</v>
+      </c>
+      <c r="B709" s="23">
+        <v>240529001</v>
+      </c>
+      <c r="C709" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D709" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E709" s="61">
+        <f>IF(C709="","",WEEKNUM(C709,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F709" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G709" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="H709" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I709" s="22" t="str">
+        <f>VLOOKUP(H709,[3]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J709" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K709" s="22">
+        <v>440</v>
+      </c>
+      <c r="L709" s="22">
+        <v>13</v>
+      </c>
+      <c r="M709" s="22"/>
+      <c r="N709" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O709" s="22"/>
+      <c r="P709" s="22"/>
+      <c r="Q709" s="22"/>
+      <c r="R709" s="22"/>
+      <c r="S709" s="22"/>
+      <c r="T709" s="22">
+        <f>SUM(O709:S709)</f>
+        <v>0</v>
+      </c>
+      <c r="U709" s="27"/>
+      <c r="V709" s="10"/>
+      <c r="W709" s="11"/>
+      <c r="X709" s="11"/>
+      <c r="Y709" s="11"/>
+      <c r="Z709" s="11"/>
+      <c r="AA709" s="42"/>
+      <c r="AB709" s="42"/>
+      <c r="AC709" s="42"/>
+      <c r="AD709" s="42"/>
+      <c r="AE709" s="42"/>
+    </row>
+    <row r="710" customHeight="1" spans="1:31">
+      <c r="A710" s="22">
+        <v>709</v>
+      </c>
+      <c r="B710" s="22">
+        <v>240529002</v>
+      </c>
+      <c r="C710" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D710" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E710" s="61">
+        <f>IF(C710="","",WEEKNUM(C710,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F710" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G710" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="H710" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I710" s="22" t="str">
+        <f>VLOOKUP(H710,[3]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J710" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K710" s="22">
+        <v>200</v>
+      </c>
+      <c r="L710" s="22">
+        <v>8</v>
+      </c>
+      <c r="M710" s="22"/>
+      <c r="N710" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O710" s="22"/>
+      <c r="P710" s="22"/>
+      <c r="Q710" s="22"/>
+      <c r="R710" s="22"/>
+      <c r="S710" s="22"/>
+      <c r="T710" s="22">
+        <f>SUM(O710:S710)</f>
+        <v>0</v>
+      </c>
+      <c r="U710" s="27"/>
+      <c r="V710" s="10"/>
+      <c r="W710" s="11"/>
+      <c r="X710" s="11"/>
+      <c r="Y710" s="11"/>
+      <c r="Z710" s="11"/>
+      <c r="AA710" s="42"/>
+      <c r="AB710" s="42"/>
+      <c r="AC710" s="42"/>
+      <c r="AD710" s="42"/>
+      <c r="AE710" s="42"/>
+    </row>
+    <row r="711" customHeight="1" spans="1:31">
+      <c r="A711" s="22">
+        <v>710</v>
+      </c>
+      <c r="B711" s="22">
+        <v>240529003</v>
+      </c>
+      <c r="C711" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D711" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E711" s="61">
+        <f>IF(C711="","",WEEKNUM(C711,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F711" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G711" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="H711" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I711" s="22" t="str">
+        <f>VLOOKUP(H711,[3]外O细分型号!A:B,2,0)</f>
+        <v>V1</v>
+      </c>
+      <c r="J711" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K711" s="22">
+        <v>4</v>
+      </c>
+      <c r="L711" s="22">
+        <v>4</v>
+      </c>
+      <c r="M711" s="22"/>
+      <c r="N711" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O711" s="22"/>
+      <c r="P711" s="22"/>
+      <c r="Q711" s="22"/>
+      <c r="R711" s="22"/>
+      <c r="S711" s="22"/>
+      <c r="T711" s="22">
+        <f>SUM(O711:S711)</f>
+        <v>0</v>
+      </c>
+      <c r="U711" s="27"/>
+      <c r="V711" s="10"/>
+      <c r="W711" s="11"/>
+      <c r="X711" s="11"/>
+      <c r="Y711" s="11"/>
+      <c r="Z711" s="11"/>
+      <c r="AA711" s="42"/>
+      <c r="AB711" s="42"/>
+      <c r="AC711" s="42"/>
+      <c r="AD711" s="42"/>
+      <c r="AE711" s="42"/>
+    </row>
+    <row r="712" customHeight="1" spans="1:31">
+      <c r="A712" s="22">
+        <v>711</v>
+      </c>
+      <c r="B712" s="22">
+        <v>240529004</v>
+      </c>
+      <c r="C712" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D712" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E712" s="61">
+        <f>IF(C712="","",WEEKNUM(C712,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F712" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G712" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="H712" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="I712" s="22" t="str">
+        <f>VLOOKUP(H712,[3]外O细分型号!A:B,2,0)</f>
+        <v>V7</v>
+      </c>
+      <c r="J712" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K712" s="22">
+        <v>109</v>
+      </c>
+      <c r="L712" s="22">
+        <v>8</v>
+      </c>
+      <c r="M712" s="22"/>
+      <c r="N712" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O712" s="22"/>
+      <c r="P712" s="22"/>
+      <c r="Q712" s="22"/>
+      <c r="R712" s="22"/>
+      <c r="S712" s="22"/>
+      <c r="T712" s="22">
+        <f>SUM(O712:S712)</f>
+        <v>0</v>
+      </c>
+      <c r="U712" s="27"/>
+      <c r="V712" s="10"/>
+      <c r="W712" s="11"/>
+      <c r="X712" s="11"/>
+      <c r="Y712" s="11"/>
+      <c r="Z712" s="11"/>
+      <c r="AA712" s="42"/>
+      <c r="AB712" s="42"/>
+      <c r="AC712" s="42"/>
+      <c r="AD712" s="42"/>
+      <c r="AE712" s="42"/>
+    </row>
+    <row r="713" customHeight="1" spans="1:31">
+      <c r="A713" s="22">
+        <v>712</v>
+      </c>
+      <c r="B713" s="22">
+        <v>240529005</v>
+      </c>
+      <c r="C713" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D713" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E713" s="61">
+        <f>IF(C713="","",WEEKNUM(C713,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F713" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G713" s="22">
+        <v>24044032</v>
+      </c>
+      <c r="H713" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I713" s="22" t="str">
+        <f>VLOOKUP(H713,[3]外O细分型号!A:B,2,0)</f>
+        <v>Q3MVPRO</v>
+      </c>
+      <c r="J713" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K713" s="22">
+        <v>47</v>
+      </c>
+      <c r="L713" s="22">
+        <v>8</v>
+      </c>
+      <c r="M713" s="22"/>
+      <c r="N713" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O713" s="22"/>
+      <c r="P713" s="22"/>
+      <c r="Q713" s="22"/>
+      <c r="R713" s="22"/>
+      <c r="S713" s="22"/>
+      <c r="T713" s="22">
+        <f>SUM(O713:S713)</f>
+        <v>0</v>
+      </c>
+      <c r="U713" s="27"/>
+      <c r="V713" s="10"/>
+      <c r="W713" s="11"/>
+      <c r="X713" s="11"/>
+      <c r="Y713" s="11"/>
+      <c r="Z713" s="11"/>
+      <c r="AA713" s="42"/>
+      <c r="AB713" s="42"/>
+      <c r="AC713" s="42"/>
+      <c r="AD713" s="42"/>
+      <c r="AE713" s="42"/>
+    </row>
+    <row r="714" customHeight="1" spans="1:31">
+      <c r="A714" s="22">
+        <v>713</v>
+      </c>
+      <c r="B714" s="22">
+        <v>240529006</v>
+      </c>
+      <c r="C714" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D714" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E714" s="61">
+        <f>IF(C714="","",WEEKNUM(C714,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F714" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G714" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="H714" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="I714" s="22" t="str">
+        <f>VLOOKUP(H714,[3]外O细分型号!A:B,2,0)</f>
+        <v>Q3EM</v>
+      </c>
+      <c r="J714" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K714" s="22">
+        <v>651</v>
+      </c>
+      <c r="L714" s="22">
+        <v>16</v>
+      </c>
+      <c r="M714" s="22"/>
+      <c r="N714" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O714" s="22"/>
+      <c r="P714" s="22"/>
+      <c r="Q714" s="22"/>
+      <c r="R714" s="22"/>
+      <c r="S714" s="22"/>
+      <c r="T714" s="22">
+        <f>SUM(O714:S714)</f>
+        <v>0</v>
+      </c>
+      <c r="U714" s="27"/>
+      <c r="V714" s="10"/>
+      <c r="W714" s="11"/>
+      <c r="X714" s="11"/>
+      <c r="Y714" s="11"/>
+      <c r="Z714" s="11"/>
+      <c r="AA714" s="42"/>
+      <c r="AB714" s="42"/>
+      <c r="AC714" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD714" s="42"/>
+      <c r="AE714" s="42"/>
+    </row>
+    <row r="715" customHeight="1" spans="1:31">
+      <c r="A715" s="22">
+        <v>714</v>
+      </c>
+      <c r="B715" s="22">
+        <v>240529007</v>
+      </c>
+      <c r="C715" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D715" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E715" s="61">
+        <f>IF(C715="","",WEEKNUM(C715,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F715" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G715" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H715" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="I715" s="22" t="str">
+        <f>VLOOKUP(H715,[3]外O细分型号!A:B,2,0)</f>
+        <v>E10PLUS</v>
+      </c>
+      <c r="J715" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K715" s="22">
+        <v>1056</v>
+      </c>
+      <c r="L715" s="22">
+        <v>32</v>
+      </c>
+      <c r="M715" s="22"/>
+      <c r="N715" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O715" s="22"/>
+      <c r="P715" s="22"/>
+      <c r="Q715" s="22"/>
+      <c r="R715" s="22"/>
+      <c r="S715" s="22"/>
+      <c r="T715" s="22">
+        <f>SUM(O715:S715)</f>
+        <v>0</v>
+      </c>
+      <c r="U715" s="27"/>
+      <c r="V715" s="10"/>
+      <c r="W715" s="11"/>
+      <c r="X715" s="11"/>
+      <c r="Y715" s="11"/>
+      <c r="Z715" s="11"/>
+      <c r="AA715" s="42"/>
+      <c r="AB715" s="42"/>
+      <c r="AC715" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD715" s="42"/>
+      <c r="AE715" s="42"/>
+    </row>
+    <row r="716" customHeight="1" spans="1:31">
+      <c r="A716" s="22">
+        <v>715</v>
+      </c>
+      <c r="B716" s="22">
+        <v>240529008</v>
+      </c>
+      <c r="C716" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D716" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E716" s="61">
+        <f>IF(C716="","",WEEKNUM(C716,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F716" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G716" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="H716" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I716" s="22" t="str">
+        <f>VLOOKUP(H716,[3]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J716" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K716" s="22">
+        <v>80</v>
+      </c>
+      <c r="L716" s="22">
+        <v>8</v>
+      </c>
+      <c r="M716" s="22"/>
+      <c r="N716" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O716" s="22"/>
+      <c r="P716" s="22"/>
+      <c r="Q716" s="22"/>
+      <c r="R716" s="22"/>
+      <c r="S716" s="22"/>
+      <c r="T716" s="22">
+        <f>SUM(O716:S716)</f>
+        <v>0</v>
+      </c>
+      <c r="U716" s="27"/>
+      <c r="V716" s="10"/>
+      <c r="W716" s="11"/>
+      <c r="X716" s="11"/>
+      <c r="Y716" s="11"/>
+      <c r="Z716" s="11"/>
+      <c r="AA716" s="42"/>
+      <c r="AB716" s="42"/>
+      <c r="AC716" s="27"/>
+      <c r="AD716" s="42"/>
+      <c r="AE716" s="42"/>
+    </row>
+    <row r="717" customHeight="1" spans="1:31">
+      <c r="A717" s="22">
+        <v>716</v>
+      </c>
+      <c r="B717" s="22">
+        <v>240529009</v>
+      </c>
+      <c r="C717" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D717" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E717" s="61">
+        <f>IF(C717="","",WEEKNUM(C717,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F717" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G717" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="H717" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I717" s="22" t="str">
+        <f>VLOOKUP(H717,[3]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J717" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K717" s="22">
+        <v>172</v>
+      </c>
+      <c r="L717" s="22">
+        <v>8</v>
+      </c>
+      <c r="M717" s="22"/>
+      <c r="N717" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O717" s="22"/>
+      <c r="P717" s="22"/>
+      <c r="Q717" s="22"/>
+      <c r="R717" s="22"/>
+      <c r="S717" s="22"/>
+      <c r="T717" s="22">
+        <f>SUM(O717:S717)</f>
+        <v>0</v>
+      </c>
+      <c r="U717" s="27"/>
+      <c r="V717" s="10"/>
+      <c r="W717" s="11"/>
+      <c r="X717" s="11"/>
+      <c r="Y717" s="11"/>
+      <c r="Z717" s="11"/>
+      <c r="AA717" s="42"/>
+      <c r="AB717" s="42"/>
+      <c r="AC717" s="27"/>
+      <c r="AD717" s="42"/>
+      <c r="AE717" s="42"/>
+    </row>
+    <row r="718" customHeight="1" spans="1:31">
+      <c r="A718" s="22">
+        <v>717</v>
+      </c>
+      <c r="B718" s="22">
+        <v>240529010</v>
+      </c>
+      <c r="C718" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D718" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E718" s="61">
+        <f>IF(C718="","",WEEKNUM(C718,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F718" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G718" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="H718" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I718" s="22" t="str">
+        <f>VLOOKUP(H718,[3]外O细分型号!A:B,2,0)</f>
+        <v>E16</v>
+      </c>
+      <c r="J718" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K718" s="22">
+        <v>192</v>
+      </c>
+      <c r="L718" s="22">
+        <v>8</v>
+      </c>
+      <c r="M718" s="22"/>
+      <c r="N718" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O718" s="22"/>
+      <c r="P718" s="22"/>
+      <c r="Q718" s="22"/>
+      <c r="R718" s="22"/>
+      <c r="S718" s="22"/>
+      <c r="T718" s="22">
+        <f>SUM(O718:S718)</f>
+        <v>0</v>
+      </c>
+      <c r="U718" s="27"/>
+      <c r="V718" s="10"/>
+      <c r="W718" s="11"/>
+      <c r="X718" s="11"/>
+      <c r="Y718" s="11"/>
+      <c r="Z718" s="11"/>
+      <c r="AA718" s="42"/>
+      <c r="AB718" s="42"/>
+      <c r="AC718" s="27"/>
+      <c r="AD718" s="42"/>
+      <c r="AE718" s="42"/>
+    </row>
+    <row r="719" customHeight="1" spans="1:31">
+      <c r="A719" s="22">
+        <v>718</v>
+      </c>
+      <c r="B719" s="22">
+        <v>240529011</v>
+      </c>
+      <c r="C719" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D719" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E719" s="61">
+        <f>IF(C719="","",WEEKNUM(C719,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F719" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G719" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="H719" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I719" s="22" t="str">
+        <f>VLOOKUP(H719,[3]外O细分型号!A:B,2,0)</f>
+        <v>G302</v>
+      </c>
+      <c r="J719" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K719" s="22">
+        <v>24</v>
+      </c>
+      <c r="L719" s="22">
+        <v>8</v>
+      </c>
+      <c r="M719" s="22"/>
+      <c r="N719" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O719" s="22"/>
+      <c r="P719" s="22"/>
+      <c r="Q719" s="22"/>
+      <c r="R719" s="22"/>
+      <c r="S719" s="22"/>
+      <c r="T719" s="22">
+        <f>SUM(O719:S719)</f>
+        <v>0</v>
+      </c>
+      <c r="U719" s="27"/>
+      <c r="V719" s="10"/>
+      <c r="W719" s="11"/>
+      <c r="X719" s="11"/>
+      <c r="Y719" s="11"/>
+      <c r="Z719" s="11"/>
+      <c r="AA719" s="42"/>
+      <c r="AB719" s="42"/>
+      <c r="AC719" s="27"/>
+      <c r="AD719" s="42"/>
+      <c r="AE719" s="42"/>
+    </row>
+    <row r="720" customHeight="1" spans="1:31">
+      <c r="A720" s="22">
+        <v>719</v>
+      </c>
+      <c r="B720" s="22">
+        <v>240529012</v>
+      </c>
+      <c r="C720" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D720" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E720" s="61">
+        <f>IF(C720="","",WEEKNUM(C720,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F720" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G720" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="H720" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I720" s="22" t="str">
+        <f>VLOOKUP(H720,[3]外O细分型号!A:B,2,0)</f>
+        <v>G100</v>
+      </c>
+      <c r="J720" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K720" s="22">
+        <v>600</v>
+      </c>
+      <c r="L720" s="22">
+        <v>13</v>
+      </c>
+      <c r="M720" s="22"/>
+      <c r="N720" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O720" s="22"/>
+      <c r="P720" s="22"/>
+      <c r="Q720" s="22"/>
+      <c r="R720" s="22"/>
+      <c r="S720" s="22"/>
+      <c r="T720" s="22">
+        <f>SUM(O720:S720)</f>
+        <v>0</v>
+      </c>
+      <c r="U720" s="27"/>
+      <c r="V720" s="10"/>
+      <c r="W720" s="11"/>
+      <c r="X720" s="11"/>
+      <c r="Y720" s="11"/>
+      <c r="Z720" s="11"/>
+      <c r="AA720" s="42"/>
+      <c r="AB720" s="42"/>
+      <c r="AC720" s="27"/>
+      <c r="AD720" s="42"/>
+      <c r="AE720" s="42"/>
+    </row>
+    <row r="721" customHeight="1" spans="1:31">
+      <c r="A721" s="22">
+        <v>720</v>
+      </c>
+      <c r="B721" s="22">
+        <v>240529013</v>
+      </c>
+      <c r="C721" s="106">
+        <v>45441</v>
+      </c>
+      <c r="D721" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E721" s="61">
+        <f>IF(C721="","",WEEKNUM(C721,1))</f>
+        <v>22</v>
+      </c>
+      <c r="F721" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G721" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="H721" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="I721" s="22" t="str">
+        <f>VLOOKUP(H721,[3]外O细分型号!A:B,2,0)</f>
+        <v>V5P</v>
+      </c>
+      <c r="J721" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K721" s="22">
+        <v>1</v>
+      </c>
+      <c r="L721" s="22">
+        <v>1</v>
+      </c>
+      <c r="M721" s="22"/>
+      <c r="N721" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O721" s="22"/>
+      <c r="P721" s="22"/>
+      <c r="Q721" s="22"/>
+      <c r="R721" s="22"/>
+      <c r="S721" s="22"/>
+      <c r="T721" s="22">
+        <f>SUM(O721:S721)</f>
+        <v>0</v>
+      </c>
+      <c r="U721" s="27"/>
+      <c r="V721" s="10"/>
+      <c r="W721" s="11"/>
+      <c r="X721" s="11"/>
+      <c r="Y721" s="11"/>
+      <c r="Z721" s="11"/>
+      <c r="AA721" s="42"/>
+      <c r="AB721" s="42"/>
+      <c r="AC721" s="27"/>
+      <c r="AD721" s="42"/>
+      <c r="AE721" s="42"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
@@ -49472,27 +51074,30 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y427 Y428 Y429 Y430 Y431 Y432 Y433 Y434 Y435 Y436 Y437 Y438 Y439 Y440 Y442 Y443 Y444 Y445 Y446 Y447 Y448 Y449 Y450 Y451 Y452 Y453 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3 Y16 Y17 Y18 Y19 Y20 Y31 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Y48 Z49 Y50 Y51 Y52 Y53 Y54 Y55 Y56 Y57 Y58 Y59 Y60 Y61 Y62 Y63 Y64 Y65 Y66 Y67 Y68 Y69 Y70 Y71 Y72 Y73 Y74 Y178 Y179 Y180 Y181 Y182 Y183 Y184 Y185 Y186 Y187 Y188 Y189 Y190 Y191 Y192 Y193 Y194 Y212 Y213 Y214 Y215 Y216 Y217 Y218 Y219 Y220 Y221 Y222 Y223 Y224 Y225 Y226 Y227 Y228 Y229 Y230 Y231 Y232 Y233 Y234 Y235 Y236 Y237 Y238 Y239 Y240 Y241 Y242 Y243 Y244 Y245 Y246 Y249 Y250 Y251 Y252 Y253 Y254 Y255 Y256 Y260 Y261 Y262 Y263 Y264 Y265 Y266 Y267 Y268 Y269 Y270 Y271 Y272 Y273 Y274 Y275 Y276 Y277 Y278 Y279 Y280 Y281 Y282 Y283 Y284 Y285 Y286 Y287 Y288 Y289 Y290 Y291 Y292 Y293 Y294 Y295 Y296 Y297 Y298 Y299 Y300 Y301 Y302 Y303 Y304 Y305 Y307 Y308 Y309 Y310 Y311 Y312 Y313 Y314 Y315 Y316 Y317 Y318 Y319 Y321 Y322 Y323 Y324 Y325 Y326 Y327 Y328 Y329 Y330 Y331 Y332 Y333 Y334 Y335 Y336 Y337 Y338 Y339 Y340 Y341 Y342 Y343 Y344 Y346 Y347 Y348 Y349 Y350 Y351 Y352 Y353 Y354 Y355 Y356 Y357 Y358 Y359 Y360 Y361 Y362 Y363 Y364 Y365 Y366 Y367 Y368 Y369 Y370 Y371 Y372 Y374 Y376 Y377 Y378 Y379 Y380 Y381 Y382 Y383 Y384 Y385 Y386 Y387 Y388 Y389 Y390 Y395 Y396 Y397 Y398 Y399 Y400 Y401 Y402 Y403 Y404 Y405 Y406 Y407 Y408 Y409 Y410 Y411 Y412 Y413 Y418 Y419 Y420 Y421 Y422 Y423 Y424 Y425 Y426 Y427 Y428 Y429 Y430 Y431 Y432 Y433 Y434 Y435 Y436 Y437 Y438 Y439 Y440 Y442 Y443 Y444 Y445 Y446 Y447 Y448 Y449 Y450 Y451 Y452 Y453 Y709 Y710 Y711 Y712 Y713 Y714 Y715 Y716 Y4:Y15 Y21:Y26 Y27:Y30 Y32:Y35 Y36:Y37 Y38:Y39 Y195:Y211 Y247:Y248 Y257:Y259 Y414:Y417">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z401 Z402 Z403 Z404 Z405 Z406 Z407 Z408 Z409 Z410 Z411 Z412 Z413 Z418 Z419 Z420 Z421 Z422 Z423 Z424 Z425 Z426 Z427 Z428 Z429 Z430 Z431 Z432 Z433 Z434 Z435 Z436 Z437 Z438 Z439 Z440 Z442 Z443 Z444 Z445 Z446 Z447 Z448 Z449 Z450 Z451 Z452 Z453 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372 Z414:Z417">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 Z3 Z16 Z17 Z18 Z19 Z20 Z31 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 Z48 Z50 Z51 Z52 Z53 Z54 Z55 Z56 Z57 Z58 Z59 Z60 Z61 Z62 Z63 Z64 Z65 Z66 Z67 Z68 Z69 Z70 Z71 Z72 Z73 Z74 Z178 Z179 Z180 Z184 Z215 Z216 Z217 Z218 Z219 Z220 Z221 Z222 Z223 Z224 Z225 Z226 Z227 Z228 Z229 Z230 Z231 Z232 Z233 Z234 Z235 Z236 Z237 Z238 Z239 Z240 Z241 Z242 Z243 Z244 Z245 Z246 Z249 Z250 Z251 Z252 Z253 Z254 Z255 Z256 Z260 Z261 Z262 Z263 Z264 Z265 Z266 Z267 Z268 Z269 Z270 Z271 Z272 Z273 Z274 Z275 Z276 Z277 Z278 Z279 Z280 Z281 Z282 Z283 Z284 Z285 Z286 Z287 Z288 Z289 Z290 Z291 Z292 Z293 Z294 Z295 Z296 Z297 Z298 Z299 Z300 Z301 Z302 Z303 Z304 Z305 Z307 Z310 Z311 Z312 Z313 Z314 Z315 Z316 Z317 Z318 Z319 Z321 Z322 Z323 Z324 Z325 Z326 Z327 Z328 Z329 Z330 Z331 Z332 Z333 Z334 Z335 Z336 Z337 Z338 Z339 Z340 Z341 Z342 Z343 Z344 Z346 Z347 Z348 Z349 Z350 Z351 Z352 Z353 Z354 Z355 Z356 Z357 Z358 Z359 Z360 Z361 Z362 Z363 Z364 Z365 Z366 Z367 Z368 Z369 Z370 Z374 Z376 Z377 Z378 Z379 Z380 Z381 Z382 Z383 Z384 Z385 Z386 Z387 Z388 Z389 Z390 Z395 Z396 Z397 Z398 Z399 Z400 Z401 Z402 Z403 Z404 Z405 Z406 Z407 Z408 Z409 Z410 Z411 Z412 Z413 Z418 Z419 Z420 Z421 Z422 Z423 Z424 Z425 Z426 Z427 Z428 Z429 Z430 Z431 Z432 Z433 Z434 Z435 Z436 Z437 Z438 Z439 Z440 Z442 Z443 Z444 Z445 Z446 Z447 Z448 Z449 Z450 Z451 Z452 Z453 Z709 Z710 Z711 Z712 Z713 Z714 Z715 Z716 Z4:Z15 Z21:Z26 Z27:Z30 Z32:Z35 Z36:Z37 Z38:Z39 Z181:Z183 Z185:Z214 Z247:Z248 Z257:Z259 Z308:Z309 Z371:Z372 Z414:Z417">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V427 V428 V429 V430 V431 V432 V433 V434 V435 V436 V437 V438 V439 V440 V441 V442 V443 V444 V445 V446 V447 V448 V449 V450 V451 V452 V453 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 W75:W177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3 V16 V17 V18 V19 V20 V31 V32 V33 V40 V41 V42 V43 V44 V45 V46 V47 V48 V49 V50 V51 V52 V53 V54 V55 V56 V57 V58 V59 V60 V61 V62 V63 V64 V65 V66 V67 V68 V69 V70 V71 V72 V73 V74 V178 V179 V180 V212 V213 V214 V215 V216 V217 V229 V230 V231 V232 V233 V234 V235 V236 V237 V238 V239 V240 V241 V242 V243 V244 V245 V246 V247 V248 V249 V250 V251 V252 V253 V254 V260 V261 V262 V263 V264 V265 V266 V267 V268 V269 V270 V271 V272 V273 V274 V275 V276 V277 V278 V279 V280 V281 V282 V283 V284 V285 V286 V287 V288 V289 V290 V291 V292 V293 V294 V295 V296 V297 V298 V299 V300 V301 V302 V303 V304 V305 V306 V307 V308 V309 V310 V311 V312 V313 V314 V315 V316 V317 V318 V321 V322 V323 V324 V325 V326 V327 V328 V329 V330 V331 V332 V333 V334 V335 V336 V337 V338 V339 V340 V341 V342 V343 V344 V345 V346 V347 V348 V349 V350 V351 V352 V353 V354 V355 V356 V357 V358 V359 V360 V361 V362 V363 V364 V365 V366 V367 V368 V369 V370 V371 V372 V376 V377 V378 V379 V380 V381 V382 V383 V384 V385 V386 V387 V388 V389 V390 V395 V396 V397 V398 V399 V400 V401 V402 V403 V404 V405 V406 V407 V408 V409 V410 V411 V412 V413 V414 V418 V419 V420 V421 V422 V423 V424 V425 V426 V427 V428 V429 V430 V431 V432 V433 V434 V435 V436 V437 V438 V439 V440 V441 V442 V443 V444 V445 V446 V447 V448 V449 V450 V451 V452 V453 V709 V710 V711 V712 V713 V714 V715 V716 V717 V4:V15 V21:V26 V27:V30 V34:V35 V36:V37 V38:V39 V181:V184 V185:V205 V206:V209 V210:V211 V218:V228 V255:V259 V319:V320 V373:V375 V391:V394 V415:V417 V718:V721 W75:W177">
       <formula1>"OK批,NG批"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3 W16 W17 W18 W19 W20 W31 W32 W33 W40 W41 W42 W43 W44 W45 W46 W47 W48 W49 W50 W51 W52 W53 W54 W55 W56 W57 W58 W59 W60 W61 W62 W63 W64 W65 W66 W67 W68 W69 W70 W71 W72 W73 W74 W178 W179 W180 W181 W182 W183 W184 W185 W186 W187 W188 W189 W190 W191 W192 W193 W212 W213 W214 W215 W216 W217 W218 W219 W220 W221 W222 W223 W224 W225 W226 W227 W228 W229 W230 W231 W232 W233 W234 W235 W236 W238 W239 W240 W241 W242 W243 W244 W245 W246 W249 W250 W251 W252 W253 W254 W255 W256 W260 W261 W262 W263 W264 W265 W266 W267 W268 W269 W270 W271 W272 W273 W274 W275 W276 W277 W278 W279 W280 W281 W282 W283 W284 W285 W286 W287 W288 W289 W290 W291 W292 W293 W294 W295 W296 W297 W298 W299 W300 W301 W302 W303 W304 W305 W307 W308 W309 W310 W311 W312 W313 W314 W315 W316 W317 W318 W319 W321 W322 W323 W324 W325 W326 W327 W328 W329 W330 W331 W332 W333 W334 W335 W336 W337 W338 W339 W340 W341 W342 W343 W344 W346 W347 W348 W349 W350 W351 W352 W353 W354 W355 W356 W357 W358 W359 W360 W361 W362 W363 W364 W365 W366 W367 W368 W369 W370 W371 W372 W374 W376 W377 W378 W379 W380 W381 W382 W383 W384 W385 W386 W387 W388 W389 W390 W395 W396 W397 W398 W399 W400 W401 W402 W403 W404 W405 W406 W407 W408 W409 W410 W411 W412 W413 W414 W415 W416 W417 W418 W419 W420 W421 W422 W423 W424 W425 W426 W427 W428 W429 W430 W431 W432 W433 W434 W435 W436 W437 W438 W439 W440 W442 W443 W444 W445 W446 W447 W448 W449 W450 W451 W452 W453 W4:W15 W21:W26 W27:W30 W34:W35 W36:W37 W38:W39 W194:W208 W209:W210">
       <formula1>[2]下拉列表源数据!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X427 X428 X429 X430 X431 X432 X433 X434 X435 X436 X437 X438 X439 X440 X442 X443 X444 X445 X446 X447 X448 X449 X450 X451 X452 X453 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 X8 X11 X12 X13 X16 X17 X18 X19 X20 X21 X29 X30 X31 X32 X33 X40 X41 X42 X43 X44 X45 X46 X47 X48 X49 X50 X51 X52 X53 X54 X55 X56 X57 X58 X59 X60 X61 X62 X63 X64 X65 X66 X67 X68 X69 X70 X71 X72 X73 X74 X178 X179 X180 X181 X182 X183 X184 X185 X186 X187 X188 X189 X190 X191 X192 X193 X212 X213 X214 X215 X216 X217 X218 X219 X220 X221 X222 X223 X224 X225 X226 X227 X228 X229 X230 X231 X232 X233 X234 X235 X236 X238 X239 X240 X241 X242 X243 X244 X245 X246 X249 X250 X251 X252 X253 X254 X255 X256 X260 X261 X262 X263 X264 X265 X266 X267 X268 X269 X270 X271 X272 X273 X274 X275 X276 X277 X278 X279 X280 X281 X282 X283 X284 X285 X286 X287 X288 X289 X290 X291 X292 X293 X294 X295 X296 X297 X298 X299 X300 X301 X302 X303 X304 X305 X307 X308 X309 X310 X311 X312 X313 X314 X315 X316 X317 X318 X319 X321 X322 X323 X324 X325 X326 X327 X328 X329 X330 X331 X332 X333 X334 X335 X336 X337 X338 X339 X340 X341 X342 X343 X344 X346 X347 X348 X349 X350 X351 X352 X353 X354 X355 X356 X357 X358 X359 X360 X361 X362 X363 X364 X365 X366 X367 X368 X369 X370 X371 X372 X374 X376 X377 X378 X379 X380 X381 X382 X383 X384 X385 X386 X387 X388 X389 X390 X395 X396 X397 X398 X399 X400 X401 X402 X403 X404 X405 X406 X407 X408 X409 X410 X411 X412 X413 X414 X415 X416 X417 X418 X419 X420 X421 X422 X423 X424 X425 X426 X427 X428 X429 X430 X431 X432 X433 X434 X435 X436 X437 X438 X439 X440 X442 X443 X444 X445 X446 X447 X448 X449 X450 X451 X452 X453 X709 X710 X711 X712 X713 X714 X715 X716 X4:X7 X9:X10 X14:X15 X22:X26 X27:X28 X34:X35 X36:X37 X38:X39 X194:X211">
       <formula1>INDIRECT($W3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N405 N406 N407 N408 N414 N422 N423 N426 N429 N430 N440 N445 N446 N447 N448 N449 N450 N453 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398 N401:N404 N409:N413 N415:N417 N418:N421 N424:N425 N427:N428 N431:N439 N441:N442 N443:N444 N451:N452">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N8 N10 N15 N17 N18 N23 N30 N33 N37 N41 N42 N43 N48 N49 N52 N53 N54 N57 N58 N59 N60 N61 N62 N63 N65 N66 N67 N68 N75 N80 N81 N82 N84 N85 N89 N92 N93 N94 N95 N100 N103 N104 N105 N106 N111 N118 N119 N120 N121 N126 N131 N134 N135 N139 N140 N141 N142 N143 N144 N145 N146 N147 N152 N155 N162 N164 N165 N167 N168 N169 N170 N175 N176 N177 N183 N192 N193 N194 N195 N196 N197 N198 N202 N205 N210 N211 N215 N216 N217 N218 N230 N236 N248 N249 N252 N255 N256 N261 N262 N263 N264 N265 N266 N267 N268 N269 N274 N275 N279 N280 N286 N287 N288 N289 N290 N291 N298 N303 N304 N305 N306 N307 N308 N309 N310 N311 N312 N313 N325 N326 N327 N332 N333 N334 N349 N350 N353 N360 N370 N371 N372 N379 N380 N381 N382 N394 N399 N400 N405 N406 N407 N408 N414 N422 N423 N426 N429 N430 N440 N445 N446 N447 N448 N449 N450 N453 N709 N710 N711 N712 N713 N714 N715 N50:N51 N55:N56 N69:N74 N76:N79 N86:N88 N90:N91 N96:N99 N101:N102 N107:N110 N112:N113 N114:N115 N116:N117 N122:N125 N127:N130 N132:N133 N136:N138 N148:N151 N153:N154 N156:N161 N172:N174 N178:N179 N180:N182 N185:N191 N199:N201 N203:N204 N207:N208 N212:N214 N219:N223 N224:N229 N231:N235 N237:N247 N253:N254 N257:N258 N259:N260 N270:N273 N276:N278 N281:N285 N292:N295 N296:N297 N300:N302 N314:N315 N316:N324 N328:N331 N335:N336 N337:N338 N339:N342 N343:N348 N351:N352 N354:N359 N361:N369 N373:N378 N383:N389 N390:N393 N395:N398 N401:N404 N409:N413 N415:N417 N418:N421 N424:N425 N427:N428 N431:N439 N441:N442 N443:N444 N451:N452 N716:N721">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83 Y84 Y85 Y163 Y164 Y165 Y166 Y167 Y171 Y175 Y75:Y82 Y86:Y88 Y89:Y94 Y95:Y101 Y102:Y105 Y106:Y113 Y114:Y115 Y116:Y139 Y140:Y154 Y155:Y162 Y168:Y170 Y172:Y174 Y176:Y177">
       <formula1>INDIRECT($X75)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W709 W710 W711 W712 W713 W714 W715 W716">
+      <formula1>[3]下拉列表源数据!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X75:X177">
       <formula1>[1]下拉列表源数据!#REF!</formula1>
@@ -49528,10 +51133,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -49552,7 +51157,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -49592,7 +51197,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -49600,15 +51205,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -49632,7 +51237,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -49648,18 +51253,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B18" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -49672,7 +51277,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -49680,7 +51285,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -49696,7 +51301,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -49704,15 +51309,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B24" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -49736,7 +51341,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -49776,10 +51381,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -49800,7 +51405,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -49816,7 +51421,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -49848,7 +51453,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -49856,7 +51461,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -49864,7 +51469,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -49912,26 +51517,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B50" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B51" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B52" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -49984,7 +51589,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -50000,7 +51605,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -5303,7 +5303,7 @@
   <dimension ref="A1:AE721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L724" sqref="L724"/>
     </sheetView>
@@ -5481,7 +5481,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="22">
-        <f>WEEKNUM(C3,1)</f>
+        <f t="shared" ref="E3:E66" si="0">WEEKNUM(C3,1)</f>
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -5515,7 +5515,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f>SUM(O3:S3)</f>
+        <f t="shared" ref="T3:T27" si="1">SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -5544,7 +5544,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f>WEEKNUM(C4,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -5578,7 +5578,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f>SUM(O4:S4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -5607,7 +5607,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f>WEEKNUM(C5,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -5641,7 +5641,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f>SUM(O5:S5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -5670,7 +5670,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f>WEEKNUM(C6,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -5704,7 +5704,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f>SUM(O6:S6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -5733,7 +5733,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f>WEEKNUM(C7,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -5771,7 +5771,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f>SUM(O7:S7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -5812,7 +5812,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f>WEEKNUM(C8,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -5842,7 +5842,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f>SUM(O8:S8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -5883,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f>WEEKNUM(C9,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -5917,7 +5917,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f>SUM(O9:S9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -5946,7 +5946,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f>WEEKNUM(C10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -5984,7 +5984,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f>SUM(O10:S10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -6027,7 +6027,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f>WEEKNUM(C11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -6061,7 +6061,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f>SUM(O11:S11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -6090,7 +6090,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f>WEEKNUM(C12,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -6124,7 +6124,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f>SUM(O12:S12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -6153,7 +6153,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f>WEEKNUM(C13,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -6187,7 +6187,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f>SUM(O13:S13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -6216,7 +6216,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f>WEEKNUM(C14,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -6254,7 +6254,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f>SUM(O14:S14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -6297,7 +6297,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f>WEEKNUM(C15,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -6327,7 +6327,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f>SUM(O15:S15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -6368,7 +6368,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f>WEEKNUM(C16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -6406,7 +6406,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f>SUM(O16:S16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -6447,7 +6447,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f>WEEKNUM(C17,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -6477,7 +6477,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f>SUM(O17:S17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -6518,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f>WEEKNUM(C18,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f>SUM(O18:S18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -6597,7 +6597,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f>WEEKNUM(C19,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f>SUM(O19:S19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -6668,7 +6668,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f>WEEKNUM(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -6702,7 +6702,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f>SUM(O20:S20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -6731,7 +6731,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f>WEEKNUM(C21,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -6765,7 +6765,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f>SUM(O21:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -6794,7 +6794,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f>WEEKNUM(C22,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -6832,7 +6832,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f>SUM(O22:S22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -6873,7 +6873,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f>WEEKNUM(C23,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -6903,7 +6903,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f>SUM(O23:S23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -6944,7 +6944,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f>WEEKNUM(C24,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -6978,7 +6978,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f>SUM(O24:S24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -7007,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f>WEEKNUM(C25,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -7041,7 +7041,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f>SUM(O25:S25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -7070,7 +7070,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f>WEEKNUM(C26,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -7104,7 +7104,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f>SUM(O26:S26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -7133,7 +7133,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f>WEEKNUM(C27,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -7167,7 +7167,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f>SUM(O27:S27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -7196,7 +7196,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f>WEEKNUM(C28,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -7259,7 +7259,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f>WEEKNUM(C29,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -7322,7 +7322,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f>WEEKNUM(C30,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -7401,7 +7401,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f>WEEKNUM(C31,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -7480,7 +7480,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f>WEEKNUM(C32,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -7543,7 +7543,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f>WEEKNUM(C33,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f>WEEKNUM(C34,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -7685,7 +7685,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f>WEEKNUM(C35,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -7748,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f>WEEKNUM(C36,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -7811,7 +7811,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f>WEEKNUM(C37,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -7890,7 +7890,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f>WEEKNUM(C38,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -7928,7 +7928,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f>SUM(O38:S38)</f>
+        <f t="shared" ref="T38:T74" si="2">SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -7969,7 +7969,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f>WEEKNUM(C39,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -8003,7 +8003,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f>SUM(O39:S39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -8032,7 +8032,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f>WEEKNUM(C40,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f>SUM(O40:S40)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -8113,7 +8113,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f>WEEKNUM(C41,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -8151,7 +8151,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f>SUM(O41:S41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -8192,7 +8192,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f>WEEKNUM(C42,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -8222,7 +8222,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f>SUM(O42:S42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -8263,7 +8263,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f>WEEKNUM(C43,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -8301,7 +8301,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f>SUM(O43:S43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -8342,7 +8342,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f>WEEKNUM(C44,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -8376,7 +8376,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f>SUM(O44:S44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -8405,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f>WEEKNUM(C45,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -8439,7 +8439,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f>SUM(O45:S45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -8468,7 +8468,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f>WEEKNUM(C46,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -8502,7 +8502,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f>SUM(O46:S46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -8531,7 +8531,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f>WEEKNUM(C47,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -8565,7 +8565,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f>SUM(O47:S47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -8594,7 +8594,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f>WEEKNUM(C48,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -8628,7 +8628,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f>SUM(O48:S48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -8657,7 +8657,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f>WEEKNUM(C49,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -8691,7 +8691,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f>SUM(O49:S49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -8720,7 +8720,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f>WEEKNUM(C50,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -8758,7 +8758,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f>SUM(O50:S50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -8799,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f>WEEKNUM(C51,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -8833,7 +8833,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f>SUM(O51:S51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -8862,7 +8862,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f>WEEKNUM(C52,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -8900,7 +8900,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f>SUM(O52:S52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -8941,7 +8941,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f>WEEKNUM(C53,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -8971,7 +8971,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f>SUM(O53:S53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -9012,7 +9012,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f>WEEKNUM(C54,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -9050,7 +9050,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f>SUM(O54:S54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -9091,7 +9091,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f>WEEKNUM(C55,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -9125,7 +9125,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f>SUM(O55:S55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -9154,7 +9154,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f>WEEKNUM(C56,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -9188,7 +9188,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f>SUM(O56:S56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -9217,7 +9217,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f>WEEKNUM(C57,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -9251,7 +9251,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f>SUM(O57:S57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -9280,7 +9280,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f>WEEKNUM(C58,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -9314,7 +9314,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f>SUM(O58:S58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -9343,7 +9343,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f>WEEKNUM(C59,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -9377,7 +9377,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f>SUM(O59:S59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -9406,7 +9406,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f>WEEKNUM(C60,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -9444,7 +9444,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f>SUM(O60:S60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -9485,7 +9485,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f>WEEKNUM(C61,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -9519,7 +9519,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f>SUM(O61:S61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -9548,7 +9548,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f>WEEKNUM(C62,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -9582,7 +9582,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f>SUM(O62:S62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -9611,7 +9611,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f>WEEKNUM(C63,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -9649,7 +9649,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f>SUM(O63:S63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -9690,7 +9690,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f>WEEKNUM(C64,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -9720,7 +9720,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f>SUM(O64:S64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -9761,7 +9761,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f>WEEKNUM(C65,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -9799,7 +9799,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f>SUM(O65:S65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -9840,7 +9840,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f>WEEKNUM(C66,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -9870,7 +9870,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f>SUM(O66:S66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -9911,7 +9911,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f>WEEKNUM(C67,1)</f>
+        <f t="shared" ref="E67:E130" si="3">WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f>SUM(O67:S67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -9990,7 +9990,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f>WEEKNUM(C68,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -10028,7 +10028,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f>SUM(O68:S68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -10069,7 +10069,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f>WEEKNUM(C69,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -10103,7 +10103,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f>SUM(O69:S69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -10132,7 +10132,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f>WEEKNUM(C70,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -10166,7 +10166,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f>SUM(O70:S70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -10195,7 +10195,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f>WEEKNUM(C71,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -10229,7 +10229,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f>SUM(O71:S71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -10258,7 +10258,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f>WEEKNUM(C72,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -10292,7 +10292,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f>SUM(O72:S72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -10321,7 +10321,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f>WEEKNUM(C73,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -10359,7 +10359,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f>SUM(O73:S73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -10400,7 +10400,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f>WEEKNUM(C74,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -10434,7 +10434,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f>SUM(O74:S74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -10463,7 +10463,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f>WEEKNUM(C75,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -10541,7 +10541,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f>WEEKNUM(C76,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -10619,7 +10619,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f>WEEKNUM(C77,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -10689,7 +10689,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f>WEEKNUM(C78,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -10751,7 +10751,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f>WEEKNUM(C79,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -10813,7 +10813,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f>WEEKNUM(C80,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -10875,7 +10875,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f>WEEKNUM(C81,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -10937,7 +10937,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f>WEEKNUM(C82,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -10999,7 +10999,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f>WEEKNUM(C83,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -11061,7 +11061,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f>WEEKNUM(C84,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -11139,7 +11139,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f>WEEKNUM(C85,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -11201,7 +11201,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f>WEEKNUM(C86,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -11263,7 +11263,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f>WEEKNUM(C87,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -11325,7 +11325,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f>WEEKNUM(C88,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -11387,7 +11387,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f>WEEKNUM(C89,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -11449,7 +11449,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f>WEEKNUM(C90,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -11527,7 +11527,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f>WEEKNUM(C91,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -11605,7 +11605,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f>WEEKNUM(C92,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -11683,7 +11683,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f>WEEKNUM(C93,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -11745,7 +11745,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f>WEEKNUM(C94,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -11807,7 +11807,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f>WEEKNUM(C95,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -11869,7 +11869,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f>WEEKNUM(C96,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -11947,7 +11947,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f>WEEKNUM(C97,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -12009,7 +12009,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f>WEEKNUM(C98,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -12071,7 +12071,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f>WEEKNUM(C99,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -12133,7 +12133,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f>WEEKNUM(C100,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -12209,7 +12209,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f>WEEKNUM(C101,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -12271,7 +12271,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f>WEEKNUM(C102,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -12349,7 +12349,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f>WEEKNUM(C103,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -12411,7 +12411,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f>WEEKNUM(C104,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -12473,7 +12473,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f>WEEKNUM(C105,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -12535,7 +12535,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f>WEEKNUM(C106,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -12613,7 +12613,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f>WEEKNUM(C107,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -12691,7 +12691,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f>WEEKNUM(C108,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -12759,7 +12759,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f>WEEKNUM(C109,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -12821,7 +12821,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f>WEEKNUM(C110,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -12883,7 +12883,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f>WEEKNUM(C111,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -12945,7 +12945,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f>WEEKNUM(C112,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -13023,7 +13023,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f>WEEKNUM(C113,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -13093,7 +13093,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f>WEEKNUM(C114,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -13155,7 +13155,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f>WEEKNUM(C115,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -13217,7 +13217,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f>WEEKNUM(C116,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -13295,7 +13295,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f>WEEKNUM(C117,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -13373,7 +13373,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f>WEEKNUM(C118,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -13451,7 +13451,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f>WEEKNUM(C119,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -13529,7 +13529,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f>WEEKNUM(C120,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -13591,7 +13591,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f>WEEKNUM(C121,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -13669,7 +13669,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f>WEEKNUM(C122,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -13731,7 +13731,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f>WEEKNUM(C123,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -13793,7 +13793,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f>WEEKNUM(C124,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -13871,7 +13871,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f>WEEKNUM(C125,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -13931,7 +13931,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f>WEEKNUM(C126,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -13991,7 +13991,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f>WEEKNUM(C127,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -14051,7 +14051,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f>WEEKNUM(C128,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -14111,7 +14111,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f>WEEKNUM(C129,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -14171,7 +14171,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f>WEEKNUM(C130,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -14231,7 +14231,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f>WEEKNUM(C131,1)</f>
+        <f t="shared" ref="E131:E175" si="4">WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -14291,7 +14291,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f>WEEKNUM(C132,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -14351,7 +14351,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f>WEEKNUM(C133,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -14411,7 +14411,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f>WEEKNUM(C134,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -14471,7 +14471,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f>WEEKNUM(C135,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -14549,7 +14549,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f>WEEKNUM(C136,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -14611,7 +14611,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f>WEEKNUM(C137,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -14673,7 +14673,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f>WEEKNUM(C138,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -14751,7 +14751,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f>WEEKNUM(C139,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -14829,7 +14829,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f>WEEKNUM(C140,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -14899,7 +14899,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f>WEEKNUM(C141,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F141" s="57" t="s">
@@ -14961,7 +14961,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f>WEEKNUM(C142,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -15023,7 +15023,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f>WEEKNUM(C143,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F143" s="57" t="s">
@@ -15101,7 +15101,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f>WEEKNUM(C144,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -15171,7 +15171,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f>WEEKNUM(C145,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F145" s="57" t="s">
@@ -15233,7 +15233,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f>WEEKNUM(C146,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -15295,7 +15295,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f>WEEKNUM(C147,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F147" s="57" t="s">
@@ -15357,7 +15357,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f>WEEKNUM(C148,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -15419,7 +15419,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f>WEEKNUM(C149,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F149" s="57" t="s">
@@ -15481,7 +15481,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f>WEEKNUM(C150,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -15559,7 +15559,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f>WEEKNUM(C151,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F151" s="57" t="s">
@@ -15629,7 +15629,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f>WEEKNUM(C152,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -15707,7 +15707,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f>WEEKNUM(C153,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F153" s="57" t="s">
@@ -15777,7 +15777,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f>WEEKNUM(C154,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -15839,7 +15839,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f>WEEKNUM(C155,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -15917,7 +15917,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f>WEEKNUM(C156,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -15979,7 +15979,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f>WEEKNUM(C157,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -16041,7 +16041,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f>WEEKNUM(C158,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -16103,7 +16103,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f>WEEKNUM(C159,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -16165,7 +16165,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f>WEEKNUM(C160,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -16227,7 +16227,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f>WEEKNUM(C161,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -16289,7 +16289,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f>WEEKNUM(C162,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -16351,7 +16351,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f>WEEKNUM(C163,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -16413,7 +16413,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f>WEEKNUM(C164,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -16475,7 +16475,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f>WEEKNUM(C165,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -16537,7 +16537,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f>WEEKNUM(C166,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -16599,7 +16599,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f>WEEKNUM(C167,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -16661,7 +16661,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f>WEEKNUM(C168,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -16723,7 +16723,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f>WEEKNUM(C169,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -16785,7 +16785,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f>WEEKNUM(C170,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -16863,7 +16863,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f>WEEKNUM(C171,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -16925,7 +16925,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f>WEEKNUM(C172,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -16987,7 +16987,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f>WEEKNUM(C173,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -17049,7 +17049,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f>WEEKNUM(C174,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -17111,7 +17111,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f>WEEKNUM(C175,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -17311,7 +17311,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="61">
-        <f>IF(C178="","",WEEKNUM(C178,1))</f>
+        <f t="shared" ref="E178:E241" si="5">IF(C178="","",WEEKNUM(C178,1))</f>
         <v>11</v>
       </c>
       <c r="F178" s="22" t="s">
@@ -17346,7 +17346,7 @@
       <c r="R178" s="22"/>
       <c r="S178" s="22"/>
       <c r="T178" s="22">
-        <f>SUM(O178:S178)</f>
+        <f t="shared" ref="T178:T197" si="6">SUM(O178:S178)</f>
         <v>0</v>
       </c>
       <c r="U178" s="11"/>
@@ -17375,7 +17375,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="61">
-        <f>IF(C179="","",WEEKNUM(C179,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F179" s="22" t="s">
@@ -17410,7 +17410,7 @@
       <c r="R179" s="22"/>
       <c r="S179" s="22"/>
       <c r="T179" s="22">
-        <f>SUM(O179:S179)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U179" s="11"/>
@@ -17439,7 +17439,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="61">
-        <f>IF(C180="","",WEEKNUM(C180,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F180" s="22" t="s">
@@ -17474,7 +17474,7 @@
       <c r="R180" s="22"/>
       <c r="S180" s="22"/>
       <c r="T180" s="22">
-        <f>SUM(O180:S180)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U180" s="11"/>
@@ -17503,7 +17503,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="61">
-        <f>IF(C181="","",WEEKNUM(C181,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F181" s="22" t="s">
@@ -17538,7 +17538,7 @@
       <c r="R181" s="22"/>
       <c r="S181" s="22"/>
       <c r="T181" s="22">
-        <f>SUM(O181:S181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U181" s="11"/>
@@ -17567,7 +17567,7 @@
         <v>230</v>
       </c>
       <c r="E182" s="61">
-        <f>IF(C182="","",WEEKNUM(C182,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F182" s="22" t="s">
@@ -17602,7 +17602,7 @@
       <c r="R182" s="22"/>
       <c r="S182" s="22"/>
       <c r="T182" s="22">
-        <f>SUM(O182:S182)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U182" s="11"/>
@@ -17631,7 +17631,7 @@
         <v>230</v>
       </c>
       <c r="E183" s="61">
-        <f>IF(C183="","",WEEKNUM(C183,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F183" s="22" t="s">
@@ -17670,7 +17670,7 @@
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
       <c r="T183" s="22">
-        <f>SUM(O183:S183)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U183" s="11" t="s">
@@ -17713,7 +17713,7 @@
         <v>230</v>
       </c>
       <c r="E184" s="61">
-        <f>IF(C184="","",WEEKNUM(C184,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F184" s="22" t="s">
@@ -17744,7 +17744,7 @@
       <c r="R184" s="22"/>
       <c r="S184" s="22"/>
       <c r="T184" s="22">
-        <f>SUM(O184:S184)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U184" s="11" t="s">
@@ -17785,7 +17785,7 @@
         <v>230</v>
       </c>
       <c r="E185" s="61">
-        <f>IF(C185="","",WEEKNUM(C185,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F185" s="22" t="s">
@@ -17820,7 +17820,7 @@
       <c r="R185" s="22"/>
       <c r="S185" s="22"/>
       <c r="T185" s="22">
-        <f>SUM(O185:S185)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U185" s="11"/>
@@ -17849,7 +17849,7 @@
         <v>230</v>
       </c>
       <c r="E186" s="61">
-        <f>IF(C186="","",WEEKNUM(C186,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F186" s="22" t="s">
@@ -17888,7 +17888,7 @@
       <c r="R186" s="22"/>
       <c r="S186" s="22"/>
       <c r="T186" s="22">
-        <f>SUM(O186:S186)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U186" s="11" t="s">
@@ -17929,7 +17929,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="61">
-        <f>IF(C187="","",WEEKNUM(C187,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F187" s="22" t="s">
@@ -17964,7 +17964,7 @@
       <c r="R187" s="22"/>
       <c r="S187" s="22"/>
       <c r="T187" s="22">
-        <f>SUM(O187:S187)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U187" s="11"/>
@@ -17993,7 +17993,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="61">
-        <f>IF(C188="","",WEEKNUM(C188,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F188" s="22" t="s">
@@ -18028,7 +18028,7 @@
       <c r="R188" s="22"/>
       <c r="S188" s="22"/>
       <c r="T188" s="22">
-        <f>SUM(O188:S188)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U188" s="11"/>
@@ -18057,7 +18057,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="61">
-        <f>IF(C189="","",WEEKNUM(C189,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F189" s="22" t="s">
@@ -18092,7 +18092,7 @@
       <c r="R189" s="22"/>
       <c r="S189" s="22"/>
       <c r="T189" s="22">
-        <f>SUM(O189:S189)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U189" s="11"/>
@@ -18121,7 +18121,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="61">
-        <f>IF(C190="","",WEEKNUM(C190,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F190" s="40" t="s">
@@ -18156,7 +18156,7 @@
       <c r="R190" s="22"/>
       <c r="S190" s="22"/>
       <c r="T190" s="22">
-        <f>SUM(O190:S190)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U190" s="11"/>
@@ -18185,7 +18185,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="61">
-        <f>IF(C191="","",WEEKNUM(C191,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F191" s="22" t="s">
@@ -18220,7 +18220,7 @@
       <c r="R191" s="22"/>
       <c r="S191" s="22"/>
       <c r="T191" s="22">
-        <f>SUM(O191:S191)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U191" s="11"/>
@@ -18249,7 +18249,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="61">
-        <f>IF(C192="","",WEEKNUM(C192,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F192" s="22" t="s">
@@ -18284,7 +18284,7 @@
       <c r="R192" s="22"/>
       <c r="S192" s="22"/>
       <c r="T192" s="22">
-        <f>SUM(O192:S192)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U192" s="11"/>
@@ -18313,7 +18313,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="61">
-        <f>IF(C193="","",WEEKNUM(C193,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F193" s="22" t="s">
@@ -18352,7 +18352,7 @@
       </c>
       <c r="S193" s="22"/>
       <c r="T193" s="22">
-        <f>SUM(O193:S193)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U193" s="11" t="s">
@@ -18395,7 +18395,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="61">
-        <f>IF(C194="","",WEEKNUM(C194,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F194" s="22" t="s">
@@ -18430,7 +18430,7 @@
       <c r="R194" s="22"/>
       <c r="S194" s="22"/>
       <c r="T194" s="22">
-        <f>SUM(O194:S194)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U194" s="11"/>
@@ -18459,7 +18459,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="61">
-        <f>IF(C195="","",WEEKNUM(C195,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F195" s="22" t="s">
@@ -18494,7 +18494,7 @@
       <c r="R195" s="22"/>
       <c r="S195" s="22"/>
       <c r="T195" s="22">
-        <f>SUM(O195:S195)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U195" s="11"/>
@@ -18523,7 +18523,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="61">
-        <f>IF(C196="","",WEEKNUM(C196,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F196" s="22" t="s">
@@ -18558,7 +18558,7 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22">
-        <f>SUM(O196:S196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U196" s="27"/>
@@ -18587,7 +18587,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="61">
-        <f>IF(C197="","",WEEKNUM(C197,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F197" s="22" t="s">
@@ -18626,7 +18626,7 @@
       <c r="R197" s="22"/>
       <c r="S197" s="22"/>
       <c r="T197" s="22">
-        <f>SUM(O197:S197)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U197" s="27" t="s">
@@ -18667,7 +18667,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="61">
-        <f>IF(C198="","",WEEKNUM(C198,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F198" s="22" t="s">
@@ -18728,7 +18728,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="61">
-        <f>IF(C199="","",WEEKNUM(C199,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F199" s="22" t="s">
@@ -18763,7 +18763,7 @@
       <c r="R199" s="22"/>
       <c r="S199" s="22"/>
       <c r="T199" s="22">
-        <f>SUM(O199:S199)</f>
+        <f t="shared" ref="T199:T208" si="7">SUM(O199:S199)</f>
         <v>0</v>
       </c>
       <c r="U199" s="27"/>
@@ -18794,7 +18794,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="61">
-        <f>IF(C200="","",WEEKNUM(C200,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F200" s="22" t="s">
@@ -18829,7 +18829,7 @@
       <c r="R200" s="22"/>
       <c r="S200" s="22"/>
       <c r="T200" s="22">
-        <f>SUM(O200:S200)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U200" s="27"/>
@@ -18858,7 +18858,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="61">
-        <f>IF(C201="","",WEEKNUM(C201,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F201" s="22" t="s">
@@ -18897,7 +18897,7 @@
       <c r="R201" s="22"/>
       <c r="S201" s="22"/>
       <c r="T201" s="22">
-        <f>SUM(O201:S201)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U201" s="27" t="s">
@@ -18940,7 +18940,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="61">
-        <f>IF(C202="","",WEEKNUM(C202,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F202" s="22" t="s">
@@ -18979,7 +18979,7 @@
       <c r="R202" s="22"/>
       <c r="S202" s="22"/>
       <c r="T202" s="22">
-        <f>SUM(O202:S202)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U202" s="27" t="s">
@@ -19020,7 +19020,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="61">
-        <f>IF(C203="","",WEEKNUM(C203,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F203" s="22" t="s">
@@ -19055,7 +19055,7 @@
       <c r="R203" s="22"/>
       <c r="S203" s="22"/>
       <c r="T203" s="22">
-        <f>SUM(O203:S203)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U203" s="27"/>
@@ -19084,7 +19084,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="61">
-        <f>IF(C204="","",WEEKNUM(C204,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F204" s="22" t="s">
@@ -19119,7 +19119,7 @@
       <c r="R204" s="22"/>
       <c r="S204" s="22"/>
       <c r="T204" s="22">
-        <f>SUM(O204:S204)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U204" s="27"/>
@@ -19148,7 +19148,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="61">
-        <f>IF(C205="","",WEEKNUM(C205,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F205" s="22" t="s">
@@ -19187,7 +19187,7 @@
         <v>2</v>
       </c>
       <c r="T205" s="22">
-        <f>SUM(O205:S205)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U205" s="27" t="s">
@@ -19228,7 +19228,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="61">
-        <f>IF(C206="","",WEEKNUM(C206,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F206" s="22" t="s">
@@ -19259,7 +19259,7 @@
       <c r="R206" s="22"/>
       <c r="S206" s="22"/>
       <c r="T206" s="22">
-        <f>SUM(O206:S206)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U206" s="27" t="s">
@@ -19300,7 +19300,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="61">
-        <f>IF(C207="","",WEEKNUM(C207,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F207" s="22" t="s">
@@ -19335,7 +19335,7 @@
       <c r="R207" s="22"/>
       <c r="S207" s="22"/>
       <c r="T207" s="22">
-        <f>SUM(O207:S207)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U207" s="27"/>
@@ -19364,7 +19364,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="61">
-        <f>IF(C208="","",WEEKNUM(C208,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F208" s="22" t="s">
@@ -19403,7 +19403,7 @@
       <c r="R208" s="22"/>
       <c r="S208" s="22"/>
       <c r="T208" s="22">
-        <f>SUM(O208:S208)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U208" s="27" t="s">
@@ -19446,7 +19446,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="61">
-        <f>IF(C209="","",WEEKNUM(C209,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F209" s="22" t="s">
@@ -19515,7 +19515,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="61">
-        <f>IF(C210="","",WEEKNUM(C210,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F210" s="22" t="s">
@@ -19595,7 +19595,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="61">
-        <f>IF(C211="","",WEEKNUM(C211,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F211" s="22" t="s">
@@ -19659,7 +19659,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="61">
-        <f>IF(C212="","",WEEKNUM(C212,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F212" s="22" t="s">
@@ -19720,7 +19720,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="61">
-        <f>IF(C213="","",WEEKNUM(C213,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F213" s="22" t="s">
@@ -19781,7 +19781,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="61">
-        <f>IF(C214="","",WEEKNUM(C214,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F214" s="22" t="s">
@@ -19842,7 +19842,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="61">
-        <f>IF(C215="","",WEEKNUM(C215,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F215" s="22" t="s">
@@ -19877,7 +19877,7 @@
       <c r="R215" s="22"/>
       <c r="S215" s="22"/>
       <c r="T215" s="22">
-        <f>SUM(O215:S215)</f>
+        <f t="shared" ref="T215:T235" si="8">SUM(O215:S215)</f>
         <v>0</v>
       </c>
       <c r="U215" s="27"/>
@@ -19906,7 +19906,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="61">
-        <f>IF(C216="","",WEEKNUM(C216,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F216" s="22" t="s">
@@ -19945,7 +19945,7 @@
       <c r="R216" s="22"/>
       <c r="S216" s="22"/>
       <c r="T216" s="22">
-        <f>SUM(O216:S216)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U216" s="27" t="s">
@@ -19988,7 +19988,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="61">
-        <f>IF(C217="","",WEEKNUM(C217,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F217" s="22" t="s">
@@ -20023,7 +20023,7 @@
       <c r="R217" s="22"/>
       <c r="S217" s="22"/>
       <c r="T217" s="22">
-        <f>SUM(O217:S217)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U217" s="27"/>
@@ -20052,7 +20052,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="61">
-        <f>IF(C218="","",WEEKNUM(C218,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F218" s="22" t="s">
@@ -20087,7 +20087,7 @@
       <c r="R218" s="22"/>
       <c r="S218" s="22"/>
       <c r="T218" s="22">
-        <f>SUM(O218:S218)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U218" s="27"/>
@@ -20116,7 +20116,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="61">
-        <f>IF(C219="","",WEEKNUM(C219,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F219" s="22" t="s">
@@ -20155,7 +20155,7 @@
       <c r="R219" s="22"/>
       <c r="S219" s="22"/>
       <c r="T219" s="22">
-        <f>SUM(O219:S219)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U219" s="27" t="s">
@@ -20196,7 +20196,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="61">
-        <f>IF(C220="","",WEEKNUM(C220,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F220" s="22" t="s">
@@ -20231,7 +20231,7 @@
       <c r="R220" s="22"/>
       <c r="S220" s="22"/>
       <c r="T220" s="22">
-        <f>SUM(O220:S220)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U220" s="27"/>
@@ -20260,7 +20260,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="61">
-        <f>IF(C221="","",WEEKNUM(C221,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F221" s="22" t="s">
@@ -20295,7 +20295,7 @@
       <c r="R221" s="22"/>
       <c r="S221" s="22"/>
       <c r="T221" s="22">
-        <f>SUM(O221:S221)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U221" s="27"/>
@@ -20324,7 +20324,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="61">
-        <f>IF(C222="","",WEEKNUM(C222,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F222" s="22" t="s">
@@ -20359,7 +20359,7 @@
       <c r="R222" s="22"/>
       <c r="S222" s="22"/>
       <c r="T222" s="22">
-        <f>SUM(O222:S222)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U222" s="27"/>
@@ -20388,7 +20388,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="61">
-        <f>IF(C223="","",WEEKNUM(C223,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F223" s="22" t="s">
@@ -20427,7 +20427,7 @@
       <c r="R223" s="22"/>
       <c r="S223" s="22"/>
       <c r="T223" s="22">
-        <f>SUM(O223:S223)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U223" s="27" t="s">
@@ -20468,7 +20468,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="61">
-        <f>IF(C224="","",WEEKNUM(C224,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F224" s="22" t="s">
@@ -20503,7 +20503,7 @@
       <c r="R224" s="22"/>
       <c r="S224" s="22"/>
       <c r="T224" s="22">
-        <f>SUM(O224:S224)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U224" s="27"/>
@@ -20532,7 +20532,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="61">
-        <f>IF(C225="","",WEEKNUM(C225,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F225" s="22" t="s">
@@ -20571,7 +20571,7 @@
       <c r="R225" s="22"/>
       <c r="S225" s="22"/>
       <c r="T225" s="22">
-        <f>SUM(O225:S225)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U225" s="27" t="s">
@@ -20612,7 +20612,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="61">
-        <f>IF(C226="","",WEEKNUM(C226,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F226" s="22" t="s">
@@ -20647,7 +20647,7 @@
       <c r="R226" s="22"/>
       <c r="S226" s="22"/>
       <c r="T226" s="22">
-        <f>SUM(O226:S226)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U226" s="27"/>
@@ -20676,7 +20676,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="61">
-        <f>IF(C227="","",WEEKNUM(C227,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F227" s="22" t="s">
@@ -20715,7 +20715,7 @@
       </c>
       <c r="S227" s="22"/>
       <c r="T227" s="22">
-        <f>SUM(O227:S227)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U227" s="27" t="s">
@@ -20756,7 +20756,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="61">
-        <f>IF(C228="","",WEEKNUM(C228,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F228" s="22" t="s">
@@ -20791,7 +20791,7 @@
       <c r="R228" s="22"/>
       <c r="S228" s="22"/>
       <c r="T228" s="22">
-        <f>SUM(O228:S228)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U228" s="27"/>
@@ -20820,7 +20820,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="61">
-        <f>IF(C229="","",WEEKNUM(C229,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F229" s="22" t="s">
@@ -20855,7 +20855,7 @@
       <c r="R229" s="22"/>
       <c r="S229" s="22"/>
       <c r="T229" s="22">
-        <f>SUM(O229:S229)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U229" s="27"/>
@@ -20884,7 +20884,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="61">
-        <f>IF(C230="","",WEEKNUM(C230,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F230" s="22" t="s">
@@ -20923,7 +20923,7 @@
       <c r="R230" s="22"/>
       <c r="S230" s="22"/>
       <c r="T230" s="22">
-        <f>SUM(O230:S230)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U230" s="27" t="s">
@@ -20964,7 +20964,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="61">
-        <f>IF(C231="","",WEEKNUM(C231,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F231" s="22" t="s">
@@ -20999,7 +20999,7 @@
       <c r="R231" s="22"/>
       <c r="S231" s="22"/>
       <c r="T231" s="22">
-        <f>SUM(O231:S231)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U231" s="27"/>
@@ -21028,7 +21028,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="61">
-        <f>IF(C232="","",WEEKNUM(C232,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F232" s="22" t="s">
@@ -21063,7 +21063,7 @@
       <c r="R232" s="22"/>
       <c r="S232" s="22"/>
       <c r="T232" s="22">
-        <f>SUM(O232:S232)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U232" s="27"/>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="61">
-        <f>IF(C233="","",WEEKNUM(C233,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F233" s="22" t="s">
@@ -21127,7 +21127,7 @@
       <c r="R233" s="22"/>
       <c r="S233" s="22"/>
       <c r="T233" s="22">
-        <f>SUM(O233:S233)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U233" s="27"/>
@@ -21156,7 +21156,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="61">
-        <f>IF(C234="","",WEEKNUM(C234,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F234" s="22" t="s">
@@ -21191,7 +21191,7 @@
       <c r="R234" s="22"/>
       <c r="S234" s="22"/>
       <c r="T234" s="22">
-        <f>SUM(O234:S234)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U234" s="27"/>
@@ -21220,7 +21220,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="61">
-        <f>IF(C235="","",WEEKNUM(C235,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F235" s="22" t="s">
@@ -21259,7 +21259,7 @@
       <c r="R235" s="22"/>
       <c r="S235" s="22"/>
       <c r="T235" s="22">
-        <f>SUM(O235:S235)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U235" s="27" t="s">
@@ -21300,7 +21300,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="61">
-        <f>IF(C236="","",WEEKNUM(C236,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F236" s="22" t="s">
@@ -21361,7 +21361,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="93">
-        <f>IF(C237="","",WEEKNUM(C237,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F237" s="42" t="s">
@@ -21396,7 +21396,7 @@
       <c r="R237" s="42"/>
       <c r="S237" s="42"/>
       <c r="T237" s="42">
-        <f>SUM(O237:S237)</f>
+        <f t="shared" ref="T237:T272" si="9">SUM(O237:S237)</f>
         <v>0</v>
       </c>
       <c r="U237" s="38"/>
@@ -21425,7 +21425,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="93">
-        <f>IF(C238="","",WEEKNUM(C238,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F238" s="42" t="s">
@@ -21460,7 +21460,7 @@
       <c r="R238" s="42"/>
       <c r="S238" s="42"/>
       <c r="T238" s="42">
-        <f>SUM(O238:S238)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U238" s="38"/>
@@ -21489,7 +21489,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="93">
-        <f>IF(C239="","",WEEKNUM(C239,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F239" s="42" t="s">
@@ -21524,7 +21524,7 @@
       <c r="R239" s="42"/>
       <c r="S239" s="42"/>
       <c r="T239" s="42">
-        <f>SUM(O239:S239)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U239" s="38"/>
@@ -21553,7 +21553,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="93">
-        <f>IF(C240="","",WEEKNUM(C240,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F240" s="42" t="s">
@@ -21588,7 +21588,7 @@
       <c r="R240" s="42"/>
       <c r="S240" s="42"/>
       <c r="T240" s="42">
-        <f>SUM(O240:S240)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U240" s="38"/>
@@ -21617,7 +21617,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="93">
-        <f>IF(C241="","",WEEKNUM(C241,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F241" s="42" t="s">
@@ -21656,7 +21656,7 @@
       <c r="R241" s="42"/>
       <c r="S241" s="42"/>
       <c r="T241" s="42">
-        <f>SUM(O241:S241)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U241" s="38" t="s">
@@ -21697,7 +21697,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="93">
-        <f>IF(C242="","",WEEKNUM(C242,1))</f>
+        <f t="shared" ref="E242:E305" si="10">IF(C242="","",WEEKNUM(C242,1))</f>
         <v>13</v>
       </c>
       <c r="F242" s="42" t="s">
@@ -21732,7 +21732,7 @@
       <c r="R242" s="42"/>
       <c r="S242" s="42"/>
       <c r="T242" s="42">
-        <f>SUM(O242:S242)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U242" s="38"/>
@@ -21761,7 +21761,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="93">
-        <f>IF(C243="","",WEEKNUM(C243,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F243" s="42" t="s">
@@ -21796,7 +21796,7 @@
       <c r="R243" s="42"/>
       <c r="S243" s="42"/>
       <c r="T243" s="42">
-        <f>SUM(O243:S243)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U243" s="38"/>
@@ -21827,7 +21827,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="93">
-        <f>IF(C244="","",WEEKNUM(C244,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F244" s="42" t="s">
@@ -21862,7 +21862,7 @@
       <c r="R244" s="42"/>
       <c r="S244" s="42"/>
       <c r="T244" s="42">
-        <f>SUM(O244:S244)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U244" s="38"/>
@@ -21893,7 +21893,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="93">
-        <f>IF(C245="","",WEEKNUM(C245,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -21928,7 +21928,7 @@
       <c r="R245" s="42"/>
       <c r="S245" s="42"/>
       <c r="T245" s="42">
-        <f>SUM(O245:S245)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U245" s="38"/>
@@ -21957,7 +21957,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="93">
-        <f>IF(C246="","",WEEKNUM(C246,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -21992,7 +21992,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f>SUM(O246:S246)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U246" s="38"/>
@@ -22021,7 +22021,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="93">
-        <f>IF(C247="","",WEEKNUM(C247,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -22056,7 +22056,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f>SUM(O247:S247)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U247" s="38"/>
@@ -22087,7 +22087,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="93">
-        <f>IF(C248="","",WEEKNUM(C248,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -22122,7 +22122,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="12"/>
       <c r="T248" s="42">
-        <f>SUM(O248:S248)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U248" s="36"/>
@@ -22151,7 +22151,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="93">
-        <f>IF(C249="","",WEEKNUM(C249,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F249" s="42" t="s">
@@ -22190,7 +22190,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="12"/>
       <c r="T249" s="42">
-        <f>SUM(O249:S249)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U249" s="38" t="s">
@@ -22231,7 +22231,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="93">
-        <f>IF(C250="","",WEEKNUM(C250,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F250" s="42" t="s">
@@ -22262,7 +22262,7 @@
       <c r="R250" s="42"/>
       <c r="S250" s="42"/>
       <c r="T250" s="42">
-        <f>SUM(O250:S250)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U250" s="38" t="s">
@@ -22303,7 +22303,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="93">
-        <f>IF(C251="","",WEEKNUM(C251,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F251" s="42" t="s">
@@ -22334,7 +22334,7 @@
       <c r="R251" s="42"/>
       <c r="S251" s="42"/>
       <c r="T251" s="42">
-        <f>SUM(O251:S251)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U251" s="38" t="s">
@@ -22375,7 +22375,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="93">
-        <f>IF(C252="","",WEEKNUM(C252,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F252" s="42" t="s">
@@ -22414,7 +22414,7 @@
       <c r="R252" s="42"/>
       <c r="S252" s="42"/>
       <c r="T252" s="42">
-        <f>SUM(O252:S252)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U252" s="38" t="s">
@@ -22455,7 +22455,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="61">
-        <f>IF(C253="","",WEEKNUM(C253,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -22490,7 +22490,7 @@
       <c r="R253" s="22"/>
       <c r="S253" s="22"/>
       <c r="T253" s="22">
-        <f>SUM(O253:S253)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U253" s="27"/>
@@ -22519,7 +22519,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="61">
-        <f>IF(C254="","",WEEKNUM(C254,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -22558,7 +22558,7 @@
       <c r="R254" s="22"/>
       <c r="S254" s="22"/>
       <c r="T254" s="22">
-        <f>SUM(O254:S254)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U254" s="27" t="s">
@@ -22599,7 +22599,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="61">
-        <f>IF(C255="","",WEEKNUM(C255,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -22630,7 +22630,7 @@
       <c r="R255" s="22"/>
       <c r="S255" s="22"/>
       <c r="T255" s="22">
-        <f>SUM(O255:S255)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U255" s="27" t="s">
@@ -22671,7 +22671,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="61">
-        <f>IF(C256="","",WEEKNUM(C256,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -22706,7 +22706,7 @@
       <c r="R256" s="22"/>
       <c r="S256" s="22"/>
       <c r="T256" s="22">
-        <f>SUM(O256:S256)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U256" s="27"/>
@@ -22735,7 +22735,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="61">
-        <f>IF(C257="","",WEEKNUM(C257,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -22770,7 +22770,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f>SUM(O257:S257)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -22799,7 +22799,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="61">
-        <f>IF(C258="","",WEEKNUM(C258,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -22834,7 +22834,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f>SUM(O258:S258)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -22863,7 +22863,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="61">
-        <f>IF(C259="","",WEEKNUM(C259,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -22898,7 +22898,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f>SUM(O259:S259)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -22927,7 +22927,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="61">
-        <f>IF(C260="","",WEEKNUM(C260,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -22966,7 +22966,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f>SUM(O260:S260)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U260" s="36" t="s">
@@ -23009,7 +23009,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="61">
-        <f>IF(C261="","",WEEKNUM(C261,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -23044,7 +23044,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f>SUM(O261:S261)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -23073,7 +23073,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="61">
-        <f>IF(C262="","",WEEKNUM(C262,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -23108,7 +23108,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f>SUM(O262:S262)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -23137,7 +23137,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="61">
-        <f>IF(C263="","",WEEKNUM(C263,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -23172,7 +23172,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f>SUM(O263:S263)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -23203,7 +23203,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="61">
-        <f>IF(C264="","",WEEKNUM(C264,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -23238,7 +23238,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f>SUM(O264:S264)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -23267,7 +23267,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="61">
-        <f>IF(C265="","",WEEKNUM(C265,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -23302,7 +23302,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f>SUM(O265:S265)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -23331,7 +23331,7 @@
         <v>230</v>
       </c>
       <c r="E266" s="61">
-        <f>IF(C266="","",WEEKNUM(C266,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -23366,7 +23366,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="12"/>
       <c r="T266" s="42">
-        <f>SUM(O266:S266)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U266" s="36"/>
@@ -23395,7 +23395,7 @@
         <v>230</v>
       </c>
       <c r="E267" s="61">
-        <f>IF(C267="","",WEEKNUM(C267,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -23430,7 +23430,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="12"/>
       <c r="T267" s="42">
-        <f>SUM(O267:S267)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U267" s="36"/>
@@ -23459,7 +23459,7 @@
         <v>230</v>
       </c>
       <c r="E268" s="61">
-        <f>IF(C268="","",WEEKNUM(C268,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -23494,7 +23494,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="12"/>
       <c r="T268" s="42">
-        <f>SUM(O268:S268)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U268" s="36"/>
@@ -23523,7 +23523,7 @@
         <v>230</v>
       </c>
       <c r="E269" s="61">
-        <f>IF(C269="","",WEEKNUM(C269,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -23558,7 +23558,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="12"/>
       <c r="T269" s="42">
-        <f>SUM(O269:S269)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U269" s="36"/>
@@ -23587,7 +23587,7 @@
         <v>356</v>
       </c>
       <c r="E270" s="61">
-        <f>IF(C270="","",WEEKNUM(C270,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -23622,7 +23622,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f>SUM(O270:S270)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U270" s="27"/>
@@ -23651,7 +23651,7 @@
         <v>356</v>
       </c>
       <c r="E271" s="61">
-        <f>IF(C271="","",WEEKNUM(C271,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -23686,7 +23686,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f>SUM(O271:S271)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U271" s="27"/>
@@ -23715,7 +23715,7 @@
         <v>356</v>
       </c>
       <c r="E272" s="61">
-        <f>IF(C272="","",WEEKNUM(C272,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -23750,7 +23750,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f>SUM(O272:S272)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -23779,7 +23779,7 @@
         <v>356</v>
       </c>
       <c r="E273" s="61">
-        <f>IF(C273="","",WEEKNUM(C273,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -23840,7 +23840,7 @@
         <v>356</v>
       </c>
       <c r="E274" s="61">
-        <f>IF(C274="","",WEEKNUM(C274,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -23879,7 +23879,7 @@
       <c r="R274" s="22"/>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f>SUM(O274:S274)</f>
+        <f t="shared" ref="T274:T337" si="11">SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -23920,7 +23920,7 @@
         <v>356</v>
       </c>
       <c r="E275" s="61">
-        <f>IF(C275="","",WEEKNUM(C275,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -23951,7 +23951,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f>SUM(O275:S275)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U275" s="27" t="s">
@@ -23992,7 +23992,7 @@
         <v>356</v>
       </c>
       <c r="E276" s="61">
-        <f>IF(C276="","",WEEKNUM(C276,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -24027,7 +24027,7 @@
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f>SUM(O276:S276)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U276" s="27"/>
@@ -24056,7 +24056,7 @@
         <v>356</v>
       </c>
       <c r="E277" s="61">
-        <f>IF(C277="","",WEEKNUM(C277,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -24095,7 +24095,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f>SUM(O277:S277)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -24136,7 +24136,7 @@
         <v>356</v>
       </c>
       <c r="E278" s="61">
-        <f>IF(C278="","",WEEKNUM(C278,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f>SUM(O278:S278)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U278" s="27" t="s">
@@ -24216,7 +24216,7 @@
         <v>356</v>
       </c>
       <c r="E279" s="61">
-        <f>IF(C279="","",WEEKNUM(C279,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -24251,7 +24251,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f>SUM(O279:S279)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U279" s="27"/>
@@ -24280,7 +24280,7 @@
         <v>356</v>
       </c>
       <c r="E280" s="61">
-        <f>IF(C280="","",WEEKNUM(C280,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -24319,7 +24319,7 @@
       </c>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f>SUM(O280:S280)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U280" s="27" t="s">
@@ -24362,7 +24362,7 @@
         <v>356</v>
       </c>
       <c r="E281" s="61">
-        <f>IF(C281="","",WEEKNUM(C281,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -24401,7 +24401,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f>SUM(O281:S281)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U281" s="27" t="s">
@@ -24444,7 +24444,7 @@
         <v>356</v>
       </c>
       <c r="E282" s="61">
-        <f>IF(C282="","",WEEKNUM(C282,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -24479,7 +24479,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f>SUM(O282:S282)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -24510,7 +24510,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="61">
-        <f>IF(C283="","",WEEKNUM(C283,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -24549,7 +24549,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f>SUM(O283:S283)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U283" s="27" t="s">
@@ -24590,7 +24590,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="61">
-        <f>IF(C284="","",WEEKNUM(C284,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -24625,7 +24625,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f>SUM(O284:S284)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -24654,7 +24654,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="61">
-        <f>IF(C285="","",WEEKNUM(C285,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -24689,7 +24689,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f>SUM(O285:S285)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -24718,7 +24718,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="61">
-        <f>IF(C286="","",WEEKNUM(C286,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -24753,7 +24753,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f>SUM(O286:S286)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U286" s="27"/>
@@ -24782,7 +24782,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="61">
-        <f>IF(C287="","",WEEKNUM(C287,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -24817,7 +24817,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f>SUM(O287:S287)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U287" s="27"/>
@@ -24846,7 +24846,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="61">
-        <f>IF(C288="","",WEEKNUM(C288,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -24881,7 +24881,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f>SUM(O288:S288)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -24912,7 +24912,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="61">
-        <f>IF(C289="","",WEEKNUM(C289,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -24947,7 +24947,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f>SUM(O289:S289)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -24976,7 +24976,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="61">
-        <f>IF(C290="","",WEEKNUM(C290,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -25015,7 +25015,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f>SUM(O290:S290)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U290" s="27" t="s">
@@ -25056,7 +25056,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="61">
-        <f>IF(C291="","",WEEKNUM(C291,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -25087,7 +25087,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f>SUM(O291:S291)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U291" s="27" t="s">
@@ -25128,7 +25128,7 @@
         <v>356</v>
       </c>
       <c r="E292" s="61">
-        <f>IF(C292="","",WEEKNUM(C292,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -25163,7 +25163,7 @@
       <c r="R292" s="22"/>
       <c r="S292" s="22"/>
       <c r="T292" s="22">
-        <f>SUM(O292:S292)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U292" s="27"/>
@@ -25192,7 +25192,7 @@
         <v>356</v>
       </c>
       <c r="E293" s="61">
-        <f>IF(C293="","",WEEKNUM(C293,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -25227,7 +25227,7 @@
       <c r="R293" s="22"/>
       <c r="S293" s="22"/>
       <c r="T293" s="22">
-        <f>SUM(O293:S293)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U293" s="27"/>
@@ -25256,7 +25256,7 @@
         <v>356</v>
       </c>
       <c r="E294" s="61">
-        <f>IF(C294="","",WEEKNUM(C294,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -25291,7 +25291,7 @@
       <c r="R294" s="22"/>
       <c r="S294" s="22"/>
       <c r="T294" s="22">
-        <f>SUM(O294:S294)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U294" s="27"/>
@@ -25320,7 +25320,7 @@
         <v>356</v>
       </c>
       <c r="E295" s="61">
-        <f>IF(C295="","",WEEKNUM(C295,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -25355,7 +25355,7 @@
       <c r="R295" s="22"/>
       <c r="S295" s="22"/>
       <c r="T295" s="22">
-        <f>SUM(O295:S295)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U295" s="27"/>
@@ -25384,7 +25384,7 @@
         <v>356</v>
       </c>
       <c r="E296" s="61">
-        <f>IF(C296="","",WEEKNUM(C296,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -25419,7 +25419,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f>SUM(O296:S296)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -25448,7 +25448,7 @@
         <v>356</v>
       </c>
       <c r="E297" s="61">
-        <f>IF(C297="","",WEEKNUM(C297,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -25483,7 +25483,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f>SUM(O297:S297)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -25512,7 +25512,7 @@
         <v>356</v>
       </c>
       <c r="E298" s="61">
-        <f>IF(C298="","",WEEKNUM(C298,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -25551,7 +25551,7 @@
       </c>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f>SUM(O298:S298)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U298" s="13" t="s">
@@ -25594,7 +25594,7 @@
         <v>356</v>
       </c>
       <c r="E299" s="61">
-        <f>IF(C299="","",WEEKNUM(C299,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -25625,7 +25625,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="22">
-        <f>SUM(O299:S299)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U299" s="13" t="s">
@@ -25668,7 +25668,7 @@
         <v>356</v>
       </c>
       <c r="E300" s="61">
-        <f>IF(C300="","",WEEKNUM(C300,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -25703,7 +25703,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="12"/>
       <c r="T300" s="22">
-        <f>SUM(O300:S300)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U300" s="13"/>
@@ -25732,7 +25732,7 @@
         <v>356</v>
       </c>
       <c r="E301" s="61">
-        <f>IF(C301="","",WEEKNUM(C301,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -25767,7 +25767,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="12"/>
       <c r="T301" s="22">
-        <f>SUM(O301:S301)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U301" s="13"/>
@@ -25798,7 +25798,7 @@
         <v>356</v>
       </c>
       <c r="E302" s="61">
-        <f>IF(C302="","",WEEKNUM(C302,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -25833,7 +25833,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
       <c r="T302" s="22">
-        <f>SUM(O302:S302)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U302" s="13"/>
@@ -25862,7 +25862,7 @@
         <v>356</v>
       </c>
       <c r="E303" s="61">
-        <f>IF(C303="","",WEEKNUM(C303,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
@@ -25897,7 +25897,7 @@
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
       <c r="T303" s="22">
-        <f>SUM(O303:S303)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U303" s="27"/>
@@ -25926,7 +25926,7 @@
         <v>356</v>
       </c>
       <c r="E304" s="61">
-        <f>IF(C304="","",WEEKNUM(C304,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -25965,7 +25965,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f>SUM(O304:S304)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -26008,7 +26008,7 @@
         <v>356</v>
       </c>
       <c r="E305" s="61">
-        <f>IF(C305="","",WEEKNUM(C305,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -26039,7 +26039,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f>SUM(O305:S305)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -26080,7 +26080,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="61">
-        <f>IF(C306="","",WEEKNUM(C306,1))</f>
+        <f t="shared" ref="E306:E369" si="12">IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -26115,7 +26115,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f>SUM(O306:S306)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U306" s="27"/>
@@ -26144,7 +26144,7 @@
         <v>356</v>
       </c>
       <c r="E307" s="61">
-        <f>IF(C307="","",WEEKNUM(C307,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -26179,7 +26179,7 @@
       <c r="R307" s="95"/>
       <c r="S307" s="95"/>
       <c r="T307" s="22">
-        <f>SUM(O307:S307)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U307" s="95"/>
@@ -26208,7 +26208,7 @@
         <v>356</v>
       </c>
       <c r="E308" s="61">
-        <f>IF(C308="","",WEEKNUM(C308,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -26247,7 +26247,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f>SUM(O308:S308)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -26288,7 +26288,7 @@
         <v>356</v>
       </c>
       <c r="E309" s="61">
-        <f>IF(C309="","",WEEKNUM(C309,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F309" s="22" t="s">
@@ -26319,7 +26319,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f>SUM(O309:S309)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -26360,7 +26360,7 @@
         <v>356</v>
       </c>
       <c r="E310" s="61">
-        <f>IF(C310="","",WEEKNUM(C310,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F310" s="22" t="s">
@@ -26399,7 +26399,7 @@
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
       <c r="T310" s="22">
-        <f>SUM(O310:S310)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U310" s="27" t="s">
@@ -26440,7 +26440,7 @@
         <v>356</v>
       </c>
       <c r="E311" s="61">
-        <f>IF(C311="","",WEEKNUM(C311,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F311" s="22" t="s">
@@ -26479,7 +26479,7 @@
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22">
-        <f>SUM(O311:S311)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U311" s="27" t="s">
@@ -26520,7 +26520,7 @@
         <v>356</v>
       </c>
       <c r="E312" s="61">
-        <f>IF(C312="","",WEEKNUM(C312,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F312" s="22" t="s">
@@ -26551,7 +26551,7 @@
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22">
-        <f>SUM(O312:S312)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U312" s="27" t="s">
@@ -26592,7 +26592,7 @@
         <v>356</v>
       </c>
       <c r="E313" s="61">
-        <f>IF(C313="","",WEEKNUM(C313,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F313" s="22" t="s">
@@ -26631,7 +26631,7 @@
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
       <c r="T313" s="22">
-        <f>SUM(O313:S313)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U313" s="27" t="s">
@@ -26669,7 +26669,7 @@
         <v>356</v>
       </c>
       <c r="E314" s="61">
-        <f>IF(C314="","",WEEKNUM(C314,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F314" s="22" t="s">
@@ -26704,7 +26704,7 @@
       <c r="R314" s="22"/>
       <c r="S314" s="22"/>
       <c r="T314" s="22">
-        <f>SUM(O314:S314)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U314" s="27"/>
@@ -26730,7 +26730,7 @@
         <v>356</v>
       </c>
       <c r="E315" s="61">
-        <f>IF(C315="","",WEEKNUM(C315,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F315" s="22" t="s">
@@ -26769,7 +26769,7 @@
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
       <c r="T315" s="22">
-        <f>SUM(O315:S315)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U315" s="27" t="s">
@@ -26810,7 +26810,7 @@
         <v>356</v>
       </c>
       <c r="E316" s="61">
-        <f>IF(C316="","",WEEKNUM(C316,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F316" s="22" t="s">
@@ -26845,7 +26845,7 @@
       <c r="R316" s="22"/>
       <c r="S316" s="22"/>
       <c r="T316" s="22">
-        <f>SUM(O316:S316)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U316" s="27"/>
@@ -26871,7 +26871,7 @@
         <v>356</v>
       </c>
       <c r="E317" s="61">
-        <f>IF(C317="","",WEEKNUM(C317,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F317" s="22" t="s">
@@ -26906,7 +26906,7 @@
       <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22">
-        <f>SUM(O317:S317)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U317" s="27"/>
@@ -26932,7 +26932,7 @@
         <v>356</v>
       </c>
       <c r="E318" s="61">
-        <f>IF(C318="","",WEEKNUM(C318,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F318" s="22" t="s">
@@ -26967,7 +26967,7 @@
       <c r="R318" s="22"/>
       <c r="S318" s="22"/>
       <c r="T318" s="22">
-        <f>SUM(O318:S318)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U318" s="27"/>
@@ -26995,7 +26995,7 @@
         <v>356</v>
       </c>
       <c r="E319" s="61">
-        <f>IF(C319="","",WEEKNUM(C319,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F319" s="22" t="s">
@@ -27034,7 +27034,7 @@
       <c r="R319" s="22"/>
       <c r="S319" s="22"/>
       <c r="T319" s="22">
-        <f>SUM(O319:S319)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U319" s="27" t="s">
@@ -27075,7 +27075,7 @@
         <v>356</v>
       </c>
       <c r="E320" s="61">
-        <f>IF(C320="","",WEEKNUM(C320,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F320" s="22" t="s">
@@ -27110,7 +27110,7 @@
       <c r="R320" s="22"/>
       <c r="S320" s="22"/>
       <c r="T320" s="22">
-        <f>SUM(O320:S320)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U320" s="27"/>
@@ -27139,7 +27139,7 @@
         <v>356</v>
       </c>
       <c r="E321" s="61">
-        <f>IF(C321="","",WEEKNUM(C321,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F321" s="22" t="s">
@@ -27174,7 +27174,7 @@
       <c r="R321" s="22"/>
       <c r="S321" s="22"/>
       <c r="T321" s="22">
-        <f>SUM(O321:S321)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U321" s="27"/>
@@ -27200,7 +27200,7 @@
         <v>356</v>
       </c>
       <c r="E322" s="61">
-        <f>IF(C322="","",WEEKNUM(C322,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F322" s="22" t="s">
@@ -27235,7 +27235,7 @@
       <c r="R322" s="22"/>
       <c r="S322" s="22"/>
       <c r="T322" s="22">
-        <f>SUM(O322:S322)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U322" s="27"/>
@@ -27263,7 +27263,7 @@
         <v>356</v>
       </c>
       <c r="E323" s="61">
-        <f>IF(C323="","",WEEKNUM(C323,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F323" s="22" t="s">
@@ -27298,7 +27298,7 @@
       <c r="R323" s="22"/>
       <c r="S323" s="22"/>
       <c r="T323" s="22">
-        <f>SUM(O323:S323)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U323" s="27"/>
@@ -27324,7 +27324,7 @@
         <v>356</v>
       </c>
       <c r="E324" s="61">
-        <f>IF(C324="","",WEEKNUM(C324,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F324" s="22" t="s">
@@ -27359,7 +27359,7 @@
       <c r="R324" s="22"/>
       <c r="S324" s="22"/>
       <c r="T324" s="22">
-        <f>SUM(O324:S324)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U324" s="27"/>
@@ -27385,7 +27385,7 @@
         <v>356</v>
       </c>
       <c r="E325" s="61">
-        <f>IF(C325="","",WEEKNUM(C325,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F325" s="22" t="s">
@@ -27420,7 +27420,7 @@
       <c r="R325" s="95"/>
       <c r="S325" s="95"/>
       <c r="T325" s="22">
-        <f>SUM(O325:S325)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U325" s="95"/>
@@ -27446,7 +27446,7 @@
         <v>356</v>
       </c>
       <c r="E326" s="61">
-        <f>IF(C326="","",WEEKNUM(C326,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F326" s="22" t="s">
@@ -27485,7 +27485,7 @@
       <c r="R326" s="22"/>
       <c r="S326" s="22"/>
       <c r="T326" s="22">
-        <f>SUM(O326:S326)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U326" s="27" t="s">
@@ -27526,7 +27526,7 @@
         <v>356</v>
       </c>
       <c r="E327" s="61">
-        <f>IF(C327="","",WEEKNUM(C327,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F327" s="22" t="s">
@@ -27565,7 +27565,7 @@
       </c>
       <c r="S327" s="22"/>
       <c r="T327" s="22">
-        <f>SUM(O327:S327)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="U327" s="27" t="s">
@@ -27608,7 +27608,7 @@
         <v>356</v>
       </c>
       <c r="E328" s="61">
-        <f>IF(C328="","",WEEKNUM(C328,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F328" s="22" t="s">
@@ -27643,7 +27643,7 @@
       <c r="R328" s="95"/>
       <c r="S328" s="95"/>
       <c r="T328" s="22">
-        <f>SUM(O328:S328)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U328" s="95"/>
@@ -27669,7 +27669,7 @@
         <v>356</v>
       </c>
       <c r="E329" s="61">
-        <f>IF(C329="","",WEEKNUM(C329,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F329" s="22" t="s">
@@ -27704,7 +27704,7 @@
       <c r="R329" s="95"/>
       <c r="S329" s="95"/>
       <c r="T329" s="22">
-        <f>SUM(O329:S329)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U329" s="95"/>
@@ -27730,7 +27730,7 @@
         <v>356</v>
       </c>
       <c r="E330" s="61">
-        <f>IF(C330="","",WEEKNUM(C330,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F330" s="22" t="s">
@@ -27765,7 +27765,7 @@
       <c r="R330" s="95"/>
       <c r="S330" s="95"/>
       <c r="T330" s="22">
-        <f>SUM(O330:S330)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U330" s="95"/>
@@ -27791,7 +27791,7 @@
         <v>356</v>
       </c>
       <c r="E331" s="61">
-        <f>IF(C331="","",WEEKNUM(C331,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F331" s="22" t="s">
@@ -27826,7 +27826,7 @@
       <c r="R331" s="95"/>
       <c r="S331" s="95"/>
       <c r="T331" s="22">
-        <f>SUM(O331:S331)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U331" s="95"/>
@@ -27852,7 +27852,7 @@
         <v>356</v>
       </c>
       <c r="E332" s="61">
-        <f>IF(C332="","",WEEKNUM(C332,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F332" s="22" t="s">
@@ -27887,7 +27887,7 @@
       <c r="R332" s="22"/>
       <c r="S332" s="22"/>
       <c r="T332" s="22">
-        <f>SUM(O332:S332)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U332" s="27"/>
@@ -27913,7 +27913,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="61">
-        <f>IF(C333="","",WEEKNUM(C333,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F333" s="22" t="s">
@@ -27952,7 +27952,7 @@
       <c r="R333" s="22"/>
       <c r="S333" s="22"/>
       <c r="T333" s="22">
-        <f>SUM(O333:S333)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U333" s="27" t="s">
@@ -27993,7 +27993,7 @@
         <v>356</v>
       </c>
       <c r="E334" s="61">
-        <f>IF(C334="","",WEEKNUM(C334,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F334" s="22" t="s">
@@ -28028,7 +28028,7 @@
       <c r="R334" s="95"/>
       <c r="S334" s="95"/>
       <c r="T334" s="22">
-        <f>SUM(O334:S334)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U334" s="95"/>
@@ -28056,7 +28056,7 @@
         <v>356</v>
       </c>
       <c r="E335" s="61">
-        <f>IF(C335="","",WEEKNUM(C335,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F335" s="22" t="s">
@@ -28091,7 +28091,7 @@
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="22">
-        <f>SUM(O335:S335)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U335" s="27"/>
@@ -28117,7 +28117,7 @@
         <v>356</v>
       </c>
       <c r="E336" s="61">
-        <f>IF(C336="","",WEEKNUM(C336,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F336" s="22" t="s">
@@ -28156,7 +28156,7 @@
       <c r="R336" s="22"/>
       <c r="S336" s="22"/>
       <c r="T336" s="22">
-        <f>SUM(O336:S336)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U336" s="27" t="s">
@@ -28197,7 +28197,7 @@
         <v>356</v>
       </c>
       <c r="E337" s="61">
-        <f>IF(C337="","",WEEKNUM(C337,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F337" s="22" t="s">
@@ -28232,7 +28232,7 @@
       <c r="R337" s="95"/>
       <c r="S337" s="95"/>
       <c r="T337" s="22">
-        <f>SUM(O337:S337)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U337" s="95"/>
@@ -28258,7 +28258,7 @@
         <v>356</v>
       </c>
       <c r="E338" s="61">
-        <f>IF(C338="","",WEEKNUM(C338,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F338" s="22" t="s">
@@ -28293,7 +28293,7 @@
       <c r="R338" s="95"/>
       <c r="S338" s="95"/>
       <c r="T338" s="22">
-        <f>SUM(O338:S338)</f>
+        <f t="shared" ref="T338:T401" si="13">SUM(O338:S338)</f>
         <v>0</v>
       </c>
       <c r="U338" s="95"/>
@@ -28319,7 +28319,7 @@
         <v>356</v>
       </c>
       <c r="E339" s="61">
-        <f>IF(C339="","",WEEKNUM(C339,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F339" s="22" t="s">
@@ -28354,7 +28354,7 @@
       <c r="R339" s="95"/>
       <c r="S339" s="95"/>
       <c r="T339" s="22">
-        <f>SUM(O339:S339)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U339" s="95"/>
@@ -28380,7 +28380,7 @@
         <v>356</v>
       </c>
       <c r="E340" s="61">
-        <f>IF(C340="","",WEEKNUM(C340,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F340" s="22" t="s">
@@ -28415,7 +28415,7 @@
       <c r="R340" s="95"/>
       <c r="S340" s="95"/>
       <c r="T340" s="22">
-        <f>SUM(O340:S340)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U340" s="95"/>
@@ -28441,7 +28441,7 @@
         <v>356</v>
       </c>
       <c r="E341" s="61">
-        <f>IF(C341="","",WEEKNUM(C341,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F341" s="22" t="s">
@@ -28476,7 +28476,7 @@
       <c r="R341" s="95"/>
       <c r="S341" s="95"/>
       <c r="T341" s="22">
-        <f>SUM(O341:S341)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U341" s="95"/>
@@ -28502,7 +28502,7 @@
         <v>356</v>
       </c>
       <c r="E342" s="61">
-        <f>IF(C342="","",WEEKNUM(C342,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F342" s="22" t="s">
@@ -28537,7 +28537,7 @@
       <c r="R342" s="95"/>
       <c r="S342" s="95"/>
       <c r="T342" s="22">
-        <f>SUM(O342:S342)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U342" s="95"/>
@@ -28563,7 +28563,7 @@
         <v>356</v>
       </c>
       <c r="E343" s="61">
-        <f>IF(C343="","",WEEKNUM(C343,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F343" s="22" t="s">
@@ -28598,7 +28598,7 @@
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="22">
-        <f>SUM(O343:S343)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U343" s="27"/>
@@ -28624,7 +28624,7 @@
         <v>356</v>
       </c>
       <c r="E344" s="61">
-        <f>IF(C344="","",WEEKNUM(C344,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F344" s="22" t="s">
@@ -28663,7 +28663,7 @@
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="22">
-        <f>SUM(O344:S344)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U344" s="27" t="s">
@@ -28706,7 +28706,7 @@
         <v>356</v>
       </c>
       <c r="E345" s="61">
-        <f>IF(C345="","",WEEKNUM(C345,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F345" s="22" t="s">
@@ -28741,7 +28741,7 @@
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="22">
-        <f>SUM(O345:S345)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U345" s="27"/>
@@ -28770,7 +28770,7 @@
         <v>356</v>
       </c>
       <c r="E346" s="61">
-        <f>IF(C346="","",WEEKNUM(C346,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F346" s="22" t="s">
@@ -28805,7 +28805,7 @@
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="22">
-        <f>SUM(O346:S346)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U346" s="27"/>
@@ -28831,7 +28831,7 @@
         <v>356</v>
       </c>
       <c r="E347" s="61">
-        <f>IF(C347="","",WEEKNUM(C347,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F347" s="22" t="s">
@@ -28866,7 +28866,7 @@
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="22">
-        <f>SUM(O347:S347)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U347" s="27"/>
@@ -28892,7 +28892,7 @@
         <v>356</v>
       </c>
       <c r="E348" s="61">
-        <f>IF(C348="","",WEEKNUM(C348,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F348" s="22" t="s">
@@ -28927,7 +28927,7 @@
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="22">
-        <f>SUM(O348:S348)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U348" s="27"/>
@@ -28953,7 +28953,7 @@
         <v>356</v>
       </c>
       <c r="E349" s="61">
-        <f>IF(C349="","",WEEKNUM(C349,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F349" s="22" t="s">
@@ -28988,7 +28988,7 @@
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="22">
-        <f>SUM(O349:S349)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U349" s="27"/>
@@ -29014,7 +29014,7 @@
         <v>356</v>
       </c>
       <c r="E350" s="61">
-        <f>IF(C350="","",WEEKNUM(C350,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F350" s="22" t="s">
@@ -29053,7 +29053,7 @@
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="22">
-        <f>SUM(O350:S350)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U350" s="27" t="s">
@@ -29094,7 +29094,7 @@
         <v>356</v>
       </c>
       <c r="E351" s="61">
-        <f>IF(C351="","",WEEKNUM(C351,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F351" s="22" t="s">
@@ -29129,7 +29129,7 @@
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="22">
-        <f>SUM(O351:S351)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U351" s="27"/>
@@ -29155,7 +29155,7 @@
         <v>356</v>
       </c>
       <c r="E352" s="61">
-        <f>IF(C352="","",WEEKNUM(C352,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F352" s="22" t="s">
@@ -29194,7 +29194,7 @@
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="22">
-        <f>SUM(O352:S352)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U352" s="27" t="s">
@@ -29237,7 +29237,7 @@
         <v>356</v>
       </c>
       <c r="E353" s="61">
-        <f>IF(C353="","",WEEKNUM(C353,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F353" s="22" t="s">
@@ -29268,7 +29268,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="22">
-        <f>SUM(O353:S353)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U353" s="27" t="s">
@@ -29309,7 +29309,7 @@
         <v>356</v>
       </c>
       <c r="E354" s="61">
-        <f>IF(C354="","",WEEKNUM(C354,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F354" s="22" t="s">
@@ -29344,7 +29344,7 @@
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="22">
-        <f>SUM(O354:S354)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U354" s="27"/>
@@ -29370,7 +29370,7 @@
         <v>356</v>
       </c>
       <c r="E355" s="61">
-        <f>IF(C355="","",WEEKNUM(C355,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F355" s="22" t="s">
@@ -29405,7 +29405,7 @@
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="22">
-        <f>SUM(O355:S355)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U355" s="27"/>
@@ -29431,7 +29431,7 @@
         <v>356</v>
       </c>
       <c r="E356" s="61">
-        <f>IF(C356="","",WEEKNUM(C356,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F356" s="22" t="s">
@@ -29466,7 +29466,7 @@
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="22">
-        <f>SUM(O356:S356)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U356" s="27"/>
@@ -29492,7 +29492,7 @@
         <v>356</v>
       </c>
       <c r="E357" s="61">
-        <f>IF(C357="","",WEEKNUM(C357,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F357" s="22" t="s">
@@ -29531,7 +29531,7 @@
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="22">
-        <f>SUM(O357:S357)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U357" s="27" t="s">
@@ -29572,7 +29572,7 @@
         <v>356</v>
       </c>
       <c r="E358" s="61">
-        <f>IF(C358="","",WEEKNUM(C358,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F358" s="22" t="s">
@@ -29607,7 +29607,7 @@
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="22">
-        <f>SUM(O358:S358)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U358" s="27"/>
@@ -29633,7 +29633,7 @@
         <v>356</v>
       </c>
       <c r="E359" s="61">
-        <f>IF(C359="","",WEEKNUM(C359,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F359" s="22" t="s">
@@ -29668,7 +29668,7 @@
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="22">
-        <f>SUM(O359:S359)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U359" s="27"/>
@@ -29694,7 +29694,7 @@
         <v>356</v>
       </c>
       <c r="E360" s="61">
-        <f>IF(C360="","",WEEKNUM(C360,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F360" s="22" t="s">
@@ -29731,7 +29731,7 @@
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="22">
-        <f>SUM(O360:S360)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U360" s="27" t="s">
@@ -29774,7 +29774,7 @@
         <v>356</v>
       </c>
       <c r="E361" s="61">
-        <f>IF(C361="","",WEEKNUM(C361,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F361" s="22" t="s">
@@ -29809,7 +29809,7 @@
       <c r="R361" s="95"/>
       <c r="S361" s="95"/>
       <c r="T361" s="22">
-        <f>SUM(O361:S361)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U361" s="95"/>
@@ -29837,7 +29837,7 @@
         <v>356</v>
       </c>
       <c r="E362" s="61">
-        <f>IF(C362="","",WEEKNUM(C362,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F362" s="22" t="s">
@@ -29872,7 +29872,7 @@
       <c r="R362" s="95"/>
       <c r="S362" s="95"/>
       <c r="T362" s="22">
-        <f>SUM(O362:S362)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U362" s="95"/>
@@ -29898,7 +29898,7 @@
         <v>356</v>
       </c>
       <c r="E363" s="61">
-        <f>IF(C363="","",WEEKNUM(C363,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F363" s="22" t="s">
@@ -29933,7 +29933,7 @@
       <c r="R363" s="95"/>
       <c r="S363" s="95"/>
       <c r="T363" s="22">
-        <f>SUM(O363:S363)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U363" s="95"/>
@@ -29959,7 +29959,7 @@
         <v>356</v>
       </c>
       <c r="E364" s="61">
-        <f>IF(C364="","",WEEKNUM(C364,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F364" s="22" t="s">
@@ -29994,7 +29994,7 @@
       <c r="R364" s="95"/>
       <c r="S364" s="95"/>
       <c r="T364" s="22">
-        <f>SUM(O364:S364)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U364" s="95"/>
@@ -30022,7 +30022,7 @@
         <v>356</v>
       </c>
       <c r="E365" s="61">
-        <f>IF(C365="","",WEEKNUM(C365,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F365" s="22" t="s">
@@ -30057,7 +30057,7 @@
       <c r="R365" s="95"/>
       <c r="S365" s="95"/>
       <c r="T365" s="22">
-        <f>SUM(O365:S365)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U365" s="95"/>
@@ -30083,7 +30083,7 @@
         <v>356</v>
       </c>
       <c r="E366" s="61">
-        <f>IF(C366="","",WEEKNUM(C366,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F366" s="22" t="s">
@@ -30118,7 +30118,7 @@
       <c r="R366" s="95"/>
       <c r="S366" s="95"/>
       <c r="T366" s="22">
-        <f>SUM(O366:S366)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U366" s="95"/>
@@ -30144,7 +30144,7 @@
         <v>356</v>
       </c>
       <c r="E367" s="61">
-        <f>IF(C367="","",WEEKNUM(C367,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F367" s="22" t="s">
@@ -30179,7 +30179,7 @@
       <c r="R367" s="95"/>
       <c r="S367" s="95"/>
       <c r="T367" s="22">
-        <f>SUM(O367:S367)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U367" s="95"/>
@@ -30205,7 +30205,7 @@
         <v>356</v>
       </c>
       <c r="E368" s="61">
-        <f>IF(C368="","",WEEKNUM(C368,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F368" s="22" t="s">
@@ -30240,7 +30240,7 @@
       <c r="R368" s="95"/>
       <c r="S368" s="95"/>
       <c r="T368" s="22">
-        <f>SUM(O368:S368)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U368" s="95"/>
@@ -30266,7 +30266,7 @@
         <v>356</v>
       </c>
       <c r="E369" s="61">
-        <f>IF(C369="","",WEEKNUM(C369,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F369" s="22" t="s">
@@ -30301,7 +30301,7 @@
       <c r="R369" s="95"/>
       <c r="S369" s="95"/>
       <c r="T369" s="22">
-        <f>SUM(O369:S369)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U369" s="95"/>
@@ -30327,7 +30327,7 @@
         <v>356</v>
       </c>
       <c r="E370" s="61">
-        <f>IF(C370="","",WEEKNUM(C370,1))</f>
+        <f t="shared" ref="E370:E433" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
         <v>16</v>
       </c>
       <c r="F370" s="22" t="s">
@@ -30362,7 +30362,7 @@
       <c r="R370" s="95"/>
       <c r="S370" s="95"/>
       <c r="T370" s="22">
-        <f>SUM(O370:S370)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U370" s="95"/>
@@ -30388,7 +30388,7 @@
         <v>356</v>
       </c>
       <c r="E371" s="61">
-        <f>IF(C371="","",WEEKNUM(C371,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F371" s="22" t="s">
@@ -30427,7 +30427,7 @@
       <c r="R371" s="22"/>
       <c r="S371" s="22"/>
       <c r="T371" s="22">
-        <f>SUM(O371:S371)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U371" s="27" t="s">
@@ -30468,7 +30468,7 @@
         <v>356</v>
       </c>
       <c r="E372" s="61">
-        <f>IF(C372="","",WEEKNUM(C372,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F372" s="22" t="s">
@@ -30499,7 +30499,7 @@
       <c r="R372" s="22"/>
       <c r="S372" s="22"/>
       <c r="T372" s="22">
-        <f>SUM(O372:S372)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U372" s="27" t="s">
@@ -30540,7 +30540,7 @@
         <v>356</v>
       </c>
       <c r="E373" s="61">
-        <f>IF(C373="","",WEEKNUM(C373,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F373" s="22" t="s">
@@ -30575,7 +30575,7 @@
       <c r="R373" s="22"/>
       <c r="S373" s="22"/>
       <c r="T373" s="22">
-        <f>SUM(O373:S373)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U373" s="27"/>
@@ -30604,7 +30604,7 @@
         <v>356</v>
       </c>
       <c r="E374" s="61">
-        <f>IF(C374="","",WEEKNUM(C374,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F374" s="22" t="s">
@@ -30643,7 +30643,7 @@
       <c r="R374" s="22"/>
       <c r="S374" s="22"/>
       <c r="T374" s="22">
-        <f>SUM(O374:S374)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U374" s="27" t="s">
@@ -30684,7 +30684,7 @@
         <v>356</v>
       </c>
       <c r="E375" s="61">
-        <f>IF(C375="","",WEEKNUM(C375,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F375" s="22" t="s">
@@ -30719,7 +30719,7 @@
       <c r="R375" s="22"/>
       <c r="S375" s="22"/>
       <c r="T375" s="22">
-        <f>SUM(O375:S375)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U375" s="27"/>
@@ -30748,7 +30748,7 @@
         <v>356</v>
       </c>
       <c r="E376" s="61">
-        <f>IF(C376="","",WEEKNUM(C376,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F376" s="22" t="s">
@@ -30783,7 +30783,7 @@
       <c r="R376" s="22"/>
       <c r="S376" s="22"/>
       <c r="T376" s="22">
-        <f>SUM(O376:S376)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U376" s="27"/>
@@ -30809,7 +30809,7 @@
         <v>356</v>
       </c>
       <c r="E377" s="61">
-        <f>IF(C377="","",WEEKNUM(C377,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F377" s="22" t="s">
@@ -30844,7 +30844,7 @@
       <c r="R377" s="22"/>
       <c r="S377" s="22"/>
       <c r="T377" s="22">
-        <f>SUM(O377:S377)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U377" s="27"/>
@@ -30870,7 +30870,7 @@
         <v>356</v>
       </c>
       <c r="E378" s="61">
-        <f>IF(C378="","",WEEKNUM(C378,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F378" s="22" t="s">
@@ -30905,7 +30905,7 @@
       <c r="R378" s="22"/>
       <c r="S378" s="22"/>
       <c r="T378" s="22">
-        <f>SUM(O378:S378)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U378" s="27"/>
@@ -30931,7 +30931,7 @@
         <v>356</v>
       </c>
       <c r="E379" s="61">
-        <f>IF(C379="","",WEEKNUM(C379,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F379" s="22" t="s">
@@ -30966,7 +30966,7 @@
       <c r="R379" s="95"/>
       <c r="S379" s="95"/>
       <c r="T379" s="22">
-        <f>SUM(O379:S379)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U379" s="95"/>
@@ -30992,7 +30992,7 @@
         <v>356</v>
       </c>
       <c r="E380" s="61">
-        <f>IF(C380="","",WEEKNUM(C380,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F380" s="22" t="s">
@@ -31031,7 +31031,7 @@
       </c>
       <c r="S380" s="95"/>
       <c r="T380" s="22">
-        <f>SUM(O380:S380)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U380" s="27" t="s">
@@ -31072,7 +31072,7 @@
         <v>356</v>
       </c>
       <c r="E381" s="61">
-        <f>IF(C381="","",WEEKNUM(C381,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F381" s="22" t="s">
@@ -31107,7 +31107,7 @@
       <c r="R381" s="22"/>
       <c r="S381" s="22"/>
       <c r="T381" s="22">
-        <f>SUM(O381:S381)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U381" s="27"/>
@@ -31133,7 +31133,7 @@
         <v>356</v>
       </c>
       <c r="E382" s="61">
-        <f>IF(C382="","",WEEKNUM(C382,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F382" s="22" t="s">
@@ -31172,7 +31172,7 @@
       <c r="R382" s="22"/>
       <c r="S382" s="22"/>
       <c r="T382" s="22">
-        <f>SUM(O382:S382)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U382" s="27" t="s">
@@ -31213,7 +31213,7 @@
         <v>356</v>
       </c>
       <c r="E383" s="61">
-        <f>IF(C383="","",WEEKNUM(C383,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F383" s="22" t="s">
@@ -31248,7 +31248,7 @@
       <c r="R383" s="22"/>
       <c r="S383" s="22"/>
       <c r="T383" s="22">
-        <f>SUM(O383:S383)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U383" s="27"/>
@@ -31274,7 +31274,7 @@
         <v>356</v>
       </c>
       <c r="E384" s="61">
-        <f>IF(C384="","",WEEKNUM(C384,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F384" s="22" t="s">
@@ -31309,7 +31309,7 @@
       <c r="R384" s="22"/>
       <c r="S384" s="22"/>
       <c r="T384" s="22">
-        <f>SUM(O384:S384)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U384" s="27"/>
@@ -31335,7 +31335,7 @@
         <v>356</v>
       </c>
       <c r="E385" s="61">
-        <f>IF(C385="","",WEEKNUM(C385,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F385" s="22" t="s">
@@ -31370,7 +31370,7 @@
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="22">
-        <f>SUM(O385:S385)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U385" s="27"/>
@@ -31396,7 +31396,7 @@
         <v>356</v>
       </c>
       <c r="E386" s="61">
-        <f>IF(C386="","",WEEKNUM(C386,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F386" s="22" t="s">
@@ -31435,7 +31435,7 @@
       <c r="R386" s="22"/>
       <c r="S386" s="22"/>
       <c r="T386" s="22">
-        <f>SUM(O386:S386)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U386" s="27" t="s">
@@ -31478,7 +31478,7 @@
         <v>356</v>
       </c>
       <c r="E387" s="61">
-        <f>IF(C387="","",WEEKNUM(C387,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F387" s="22" t="s">
@@ -31513,7 +31513,7 @@
       <c r="R387" s="22"/>
       <c r="S387" s="22"/>
       <c r="T387" s="22">
-        <f>SUM(O387:S387)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U387" s="27"/>
@@ -31539,7 +31539,7 @@
         <v>356</v>
       </c>
       <c r="E388" s="61">
-        <f>IF(C388="","",WEEKNUM(C388,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F388" s="22" t="s">
@@ -31574,7 +31574,7 @@
       <c r="R388" s="22"/>
       <c r="S388" s="22"/>
       <c r="T388" s="22">
-        <f>SUM(O388:S388)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U388" s="27"/>
@@ -31600,7 +31600,7 @@
         <v>356</v>
       </c>
       <c r="E389" s="61">
-        <f>IF(C389="","",WEEKNUM(C389,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F389" s="22" t="s">
@@ -31635,7 +31635,7 @@
       <c r="R389" s="22"/>
       <c r="S389" s="22"/>
       <c r="T389" s="22">
-        <f>SUM(O389:S389)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U389" s="27"/>
@@ -31661,7 +31661,7 @@
         <v>356</v>
       </c>
       <c r="E390" s="61">
-        <f>IF(C390="","",WEEKNUM(C390,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F390" s="22" t="s">
@@ -31696,7 +31696,7 @@
       <c r="R390" s="95"/>
       <c r="S390" s="95"/>
       <c r="T390" s="22">
-        <f>SUM(O390:S390)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U390" s="95"/>
@@ -31724,7 +31724,7 @@
         <v>356</v>
       </c>
       <c r="E391" s="61">
-        <f>IF(C391="","",WEEKNUM(C391,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F391" s="22" t="s">
@@ -31759,7 +31759,7 @@
       <c r="R391" s="95"/>
       <c r="S391" s="95"/>
       <c r="T391" s="22">
-        <f>SUM(O391:S391)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U391" s="95"/>
@@ -31788,7 +31788,7 @@
         <v>356</v>
       </c>
       <c r="E392" s="61">
-        <f>IF(C392="","",WEEKNUM(C392,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F392" s="22" t="s">
@@ -31823,7 +31823,7 @@
       <c r="R392" s="95"/>
       <c r="S392" s="95"/>
       <c r="T392" s="22">
-        <f>SUM(O392:S392)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U392" s="95"/>
@@ -31852,7 +31852,7 @@
         <v>356</v>
       </c>
       <c r="E393" s="61">
-        <f>IF(C393="","",WEEKNUM(C393,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F393" s="22" t="s">
@@ -31887,7 +31887,7 @@
       <c r="R393" s="95"/>
       <c r="S393" s="95"/>
       <c r="T393" s="22">
-        <f>SUM(O393:S393)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U393" s="95"/>
@@ -31916,7 +31916,7 @@
         <v>356</v>
       </c>
       <c r="E394" s="61">
-        <f>IF(C394="","",WEEKNUM(C394,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F394" s="22" t="s">
@@ -31951,7 +31951,7 @@
       <c r="R394" s="95"/>
       <c r="S394" s="95"/>
       <c r="T394" s="22">
-        <f>SUM(O394:S394)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U394" s="95"/>
@@ -31980,7 +31980,7 @@
         <v>356</v>
       </c>
       <c r="E395" s="61">
-        <f>IF(C395="","",WEEKNUM(C395,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F395" s="22" t="s">
@@ -32015,7 +32015,7 @@
       <c r="R395" s="95"/>
       <c r="S395" s="95"/>
       <c r="T395" s="22">
-        <f>SUM(O395:S395)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U395" s="95"/>
@@ -32041,7 +32041,7 @@
         <v>356</v>
       </c>
       <c r="E396" s="61">
-        <f>IF(C396="","",WEEKNUM(C396,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F396" s="22" t="s">
@@ -32076,7 +32076,7 @@
       <c r="R396" s="95"/>
       <c r="S396" s="95"/>
       <c r="T396" s="22">
-        <f>SUM(O396:S396)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U396" s="95"/>
@@ -32102,7 +32102,7 @@
         <v>356</v>
       </c>
       <c r="E397" s="61">
-        <f>IF(C397="","",WEEKNUM(C397,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F397" s="22" t="s">
@@ -32137,7 +32137,7 @@
       <c r="R397" s="95"/>
       <c r="S397" s="95"/>
       <c r="T397" s="22">
-        <f>SUM(O397:S397)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U397" s="95"/>
@@ -32163,7 +32163,7 @@
         <v>356</v>
       </c>
       <c r="E398" s="61">
-        <f>IF(C398="","",WEEKNUM(C398,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F398" s="22" t="s">
@@ -32198,7 +32198,7 @@
       <c r="R398" s="95"/>
       <c r="S398" s="95"/>
       <c r="T398" s="22">
-        <f>SUM(O398:S398)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U398" s="95"/>
@@ -32224,7 +32224,7 @@
         <v>356</v>
       </c>
       <c r="E399" s="61">
-        <f>IF(C399="","",WEEKNUM(C399,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F399" s="22" t="s">
@@ -32259,7 +32259,7 @@
       <c r="R399" s="95"/>
       <c r="S399" s="95"/>
       <c r="T399" s="22">
-        <f>SUM(O399:S399)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U399" s="95"/>
@@ -32285,7 +32285,7 @@
         <v>356</v>
       </c>
       <c r="E400" s="61">
-        <f>IF(C400="","",WEEKNUM(C400,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F400" s="22" t="s">
@@ -32324,7 +32324,7 @@
       <c r="R400" s="95"/>
       <c r="S400" s="95"/>
       <c r="T400" s="22">
-        <f>SUM(O400:S400)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U400" s="95" t="s">
@@ -32365,7 +32365,7 @@
         <v>356</v>
       </c>
       <c r="E401" s="61">
-        <f>IF(C401="","",WEEKNUM(C401,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F401" s="22" t="s">
@@ -32400,7 +32400,7 @@
       <c r="R401" s="22"/>
       <c r="S401" s="22"/>
       <c r="T401" s="22">
-        <f>SUM(O401:S401)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U401" s="27"/>
@@ -32424,7 +32424,7 @@
         <v>356</v>
       </c>
       <c r="E402" s="61">
-        <f>IF(C402="","",WEEKNUM(C402,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F402" s="22" t="s">
@@ -32459,7 +32459,7 @@
       <c r="R402" s="22"/>
       <c r="S402" s="22"/>
       <c r="T402" s="22">
-        <f>SUM(O402:S402)</f>
+        <f t="shared" ref="T402:T423" si="15">SUM(O402:S402)</f>
         <v>0</v>
       </c>
       <c r="U402" s="27"/>
@@ -32483,7 +32483,7 @@
         <v>356</v>
       </c>
       <c r="E403" s="61">
-        <f>IF(C403="","",WEEKNUM(C403,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F403" s="22" t="s">
@@ -32518,7 +32518,7 @@
       <c r="R403" s="22"/>
       <c r="S403" s="22"/>
       <c r="T403" s="22">
-        <f>SUM(O403:S403)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U403" s="27"/>
@@ -32542,7 +32542,7 @@
         <v>356</v>
       </c>
       <c r="E404" s="61">
-        <f>IF(C404="","",WEEKNUM(C404,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F404" s="22" t="s">
@@ -32581,7 +32581,7 @@
       <c r="R404" s="22"/>
       <c r="S404" s="22"/>
       <c r="T404" s="22">
-        <f>SUM(O404:S404)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U404" s="27" t="s">
@@ -32622,7 +32622,7 @@
         <v>356</v>
       </c>
       <c r="E405" s="61">
-        <f>IF(C405="","",WEEKNUM(C405,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F405" s="22" t="s">
@@ -32657,7 +32657,7 @@
       <c r="R405" s="22"/>
       <c r="S405" s="22"/>
       <c r="T405" s="22">
-        <f>SUM(O405:S405)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U405" s="27"/>
@@ -32681,7 +32681,7 @@
         <v>356</v>
       </c>
       <c r="E406" s="61">
-        <f>IF(C406="","",WEEKNUM(C406,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F406" s="22" t="s">
@@ -32716,7 +32716,7 @@
       <c r="R406" s="22"/>
       <c r="S406" s="22"/>
       <c r="T406" s="22">
-        <f>SUM(O406:S406)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U406" s="27"/>
@@ -32740,7 +32740,7 @@
         <v>356</v>
       </c>
       <c r="E407" s="61">
-        <f>IF(C407="","",WEEKNUM(C407,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F407" s="22" t="s">
@@ -32775,7 +32775,7 @@
       <c r="R407" s="22"/>
       <c r="S407" s="22"/>
       <c r="T407" s="22">
-        <f>SUM(O407:S407)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U407" s="27"/>
@@ -32799,7 +32799,7 @@
         <v>356</v>
       </c>
       <c r="E408" s="61">
-        <f>IF(C408="","",WEEKNUM(C408,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F408" s="22" t="s">
@@ -32838,7 +32838,7 @@
       <c r="R408" s="22"/>
       <c r="S408" s="22"/>
       <c r="T408" s="22">
-        <f>SUM(O408:S408)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U408" s="27" t="s">
@@ -32877,7 +32877,7 @@
         <v>356</v>
       </c>
       <c r="E409" s="61">
-        <f>IF(C409="","",WEEKNUM(C409,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F409" s="22" t="s">
@@ -32912,7 +32912,7 @@
       <c r="R409" s="22"/>
       <c r="S409" s="22"/>
       <c r="T409" s="22">
-        <f>SUM(O409:S409)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U409" s="27"/>
@@ -32936,7 +32936,7 @@
         <v>356</v>
       </c>
       <c r="E410" s="61">
-        <f>IF(C410="","",WEEKNUM(C410,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F410" s="22" t="s">
@@ -32971,7 +32971,7 @@
       <c r="R410" s="22"/>
       <c r="S410" s="22"/>
       <c r="T410" s="22">
-        <f>SUM(O410:S410)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U410" s="27"/>
@@ -32995,7 +32995,7 @@
         <v>356</v>
       </c>
       <c r="E411" s="61">
-        <f>IF(C411="","",WEEKNUM(C411,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F411" s="22" t="s">
@@ -33030,7 +33030,7 @@
       <c r="R411" s="22"/>
       <c r="S411" s="22"/>
       <c r="T411" s="22">
-        <f>SUM(O411:S411)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U411" s="27"/>
@@ -33054,7 +33054,7 @@
         <v>356</v>
       </c>
       <c r="E412" s="61">
-        <f>IF(C412="","",WEEKNUM(C412,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F412" s="22" t="s">
@@ -33089,7 +33089,7 @@
       <c r="R412" s="22"/>
       <c r="S412" s="22"/>
       <c r="T412" s="22">
-        <f>SUM(O412:S412)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U412" s="27"/>
@@ -33113,7 +33113,7 @@
         <v>356</v>
       </c>
       <c r="E413" s="61">
-        <f>IF(C413="","",WEEKNUM(C413,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F413" s="22" t="s">
@@ -33148,7 +33148,7 @@
       <c r="R413" s="22"/>
       <c r="S413" s="22"/>
       <c r="T413" s="22">
-        <f>SUM(O413:S413)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U413" s="27"/>
@@ -33172,7 +33172,7 @@
         <v>356</v>
       </c>
       <c r="E414" s="61">
-        <f>IF(C414="","",WEEKNUM(C414,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F414" s="22" t="s">
@@ -33211,7 +33211,7 @@
       <c r="R414" s="22"/>
       <c r="S414" s="22"/>
       <c r="T414" s="22">
-        <f>SUM(O414:S414)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U414" s="27" t="s">
@@ -33250,7 +33250,7 @@
         <v>356</v>
       </c>
       <c r="E415" s="61">
-        <f>IF(C415="","",WEEKNUM(C415,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F415" s="22" t="s">
@@ -33281,7 +33281,7 @@
       </c>
       <c r="S415" s="22"/>
       <c r="T415" s="22">
-        <f>SUM(O415:S415)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U415" s="27" t="s">
@@ -33320,7 +33320,7 @@
         <v>356</v>
       </c>
       <c r="E416" s="61">
-        <f>IF(C416="","",WEEKNUM(C416,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F416" s="22" t="s">
@@ -33351,7 +33351,7 @@
       <c r="R416" s="22"/>
       <c r="S416" s="22"/>
       <c r="T416" s="22">
-        <f>SUM(O416:S416)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U416" s="27" t="s">
@@ -33390,7 +33390,7 @@
         <v>356</v>
       </c>
       <c r="E417" s="61">
-        <f>IF(C417="","",WEEKNUM(C417,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F417" s="22" t="s">
@@ -33421,7 +33421,7 @@
       <c r="R417" s="22"/>
       <c r="S417" s="22"/>
       <c r="T417" s="22">
-        <f>SUM(O417:S417)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="U417" s="27" t="s">
@@ -33460,7 +33460,7 @@
         <v>356</v>
       </c>
       <c r="E418" s="61">
-        <f>IF(C418="","",WEEKNUM(C418,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F418" s="22" t="s">
@@ -33495,7 +33495,7 @@
       <c r="R418" s="22"/>
       <c r="S418" s="22"/>
       <c r="T418" s="22">
-        <f>SUM(O418:S418)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U418" s="27"/>
@@ -33519,7 +33519,7 @@
         <v>356</v>
       </c>
       <c r="E419" s="61">
-        <f>IF(C419="","",WEEKNUM(C419,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F419" s="22" t="s">
@@ -33558,7 +33558,7 @@
       <c r="R419" s="22"/>
       <c r="S419" s="22"/>
       <c r="T419" s="22">
-        <f>SUM(O419:S419)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U419" s="27" t="s">
@@ -33597,7 +33597,7 @@
         <v>356</v>
       </c>
       <c r="E420" s="61">
-        <f>IF(C420="","",WEEKNUM(C420,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F420" s="22" t="s">
@@ -33632,7 +33632,7 @@
       <c r="R420" s="22"/>
       <c r="S420" s="22"/>
       <c r="T420" s="22">
-        <f>SUM(O420:S420)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U420" s="27"/>
@@ -33656,7 +33656,7 @@
         <v>356</v>
       </c>
       <c r="E421" s="61">
-        <f>IF(C421="","",WEEKNUM(C421,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F421" s="22" t="s">
@@ -33691,7 +33691,7 @@
       <c r="R421" s="22"/>
       <c r="S421" s="22"/>
       <c r="T421" s="22">
-        <f>SUM(O421:S421)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U421" s="27"/>
@@ -33715,7 +33715,7 @@
         <v>356</v>
       </c>
       <c r="E422" s="61">
-        <f>IF(C422="","",WEEKNUM(C422,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F422" s="22" t="s">
@@ -33754,7 +33754,7 @@
       <c r="R422" s="22"/>
       <c r="S422" s="22"/>
       <c r="T422" s="22">
-        <f>SUM(O422:S422)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U422" s="27" t="s">
@@ -33793,7 +33793,7 @@
         <v>356</v>
       </c>
       <c r="E423" s="61">
-        <f>IF(C423="","",WEEKNUM(C423,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F423" s="22" t="s">
@@ -33824,7 +33824,7 @@
       <c r="R423" s="22"/>
       <c r="S423" s="22"/>
       <c r="T423" s="22">
-        <f>SUM(O423:S423)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U423" s="27" t="s">
@@ -33863,7 +33863,7 @@
         <v>356</v>
       </c>
       <c r="E424" s="61">
-        <f>IF(C424="","",WEEKNUM(C424,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F424" s="22" t="s">
@@ -33919,7 +33919,7 @@
         <v>356</v>
       </c>
       <c r="E425" s="61">
-        <f>IF(C425="","",WEEKNUM(C425,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F425" s="22" t="s">
@@ -33975,7 +33975,7 @@
         <v>356</v>
       </c>
       <c r="E426" s="61">
-        <f>IF(C426="","",WEEKNUM(C426,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F426" s="22" t="s">
@@ -34031,7 +34031,7 @@
         <v>356</v>
       </c>
       <c r="E427" s="61">
-        <f>IF(C427="","",WEEKNUM(C427,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F427" s="22" t="s">
@@ -34066,7 +34066,7 @@
       <c r="R427" s="22"/>
       <c r="S427" s="22"/>
       <c r="T427" s="22">
-        <f>SUM(O427:S427)</f>
+        <f t="shared" ref="T427:T440" si="16">SUM(O427:S427)</f>
         <v>0</v>
       </c>
       <c r="U427" s="27"/>
@@ -34092,7 +34092,7 @@
         <v>356</v>
       </c>
       <c r="E428" s="61">
-        <f>IF(C428="","",WEEKNUM(C428,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F428" s="22" t="s">
@@ -34127,7 +34127,7 @@
       <c r="R428" s="22"/>
       <c r="S428" s="22"/>
       <c r="T428" s="22">
-        <f>SUM(O428:S428)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U428" s="27"/>
@@ -34153,7 +34153,7 @@
         <v>356</v>
       </c>
       <c r="E429" s="61">
-        <f>IF(C429="","",WEEKNUM(C429,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F429" s="22" t="s">
@@ -34192,7 +34192,7 @@
       <c r="R429" s="22"/>
       <c r="S429" s="22"/>
       <c r="T429" s="22">
-        <f>SUM(O429:S429)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U429" s="27" t="s">
@@ -34233,7 +34233,7 @@
         <v>356</v>
       </c>
       <c r="E430" s="61">
-        <f>IF(C430="","",WEEKNUM(C430,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F430" s="22" t="s">
@@ -34268,7 +34268,7 @@
       <c r="R430" s="22"/>
       <c r="S430" s="22"/>
       <c r="T430" s="22">
-        <f>SUM(O430:S430)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U430" s="27"/>
@@ -34294,7 +34294,7 @@
         <v>356</v>
       </c>
       <c r="E431" s="61">
-        <f>IF(C431="","",WEEKNUM(C431,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F431" s="22" t="s">
@@ -34329,7 +34329,7 @@
       <c r="R431" s="22"/>
       <c r="S431" s="22"/>
       <c r="T431" s="22">
-        <f>SUM(O431:S431)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U431" s="27"/>
@@ -34355,7 +34355,7 @@
         <v>356</v>
       </c>
       <c r="E432" s="61">
-        <f>IF(C432="","",WEEKNUM(C432,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F432" s="22" t="s">
@@ -34390,7 +34390,7 @@
       <c r="R432" s="22"/>
       <c r="S432" s="22"/>
       <c r="T432" s="22">
-        <f>SUM(O432:S432)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U432" s="27"/>
@@ -34416,7 +34416,7 @@
         <v>356</v>
       </c>
       <c r="E433" s="61">
-        <f>IF(C433="","",WEEKNUM(C433,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F433" s="22" t="s">
@@ -34451,7 +34451,7 @@
       <c r="R433" s="22"/>
       <c r="S433" s="22"/>
       <c r="T433" s="22">
-        <f>SUM(O433:S433)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U433" s="27"/>
@@ -34477,7 +34477,7 @@
         <v>356</v>
       </c>
       <c r="E434" s="61">
-        <f>IF(C434="","",WEEKNUM(C434,1))</f>
+        <f t="shared" ref="E434:E453" si="17">IF(C434="","",WEEKNUM(C434,1))</f>
         <v>17</v>
       </c>
       <c r="F434" s="22" t="s">
@@ -34512,7 +34512,7 @@
       <c r="R434" s="22"/>
       <c r="S434" s="22"/>
       <c r="T434" s="22">
-        <f>SUM(O434:S434)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U434" s="27"/>
@@ -34538,7 +34538,7 @@
         <v>356</v>
       </c>
       <c r="E435" s="61">
-        <f>IF(C435="","",WEEKNUM(C435,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F435" s="22" t="s">
@@ -34573,7 +34573,7 @@
       <c r="R435" s="22"/>
       <c r="S435" s="22"/>
       <c r="T435" s="22">
-        <f>SUM(O435:S435)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U435" s="27"/>
@@ -34599,7 +34599,7 @@
         <v>356</v>
       </c>
       <c r="E436" s="61">
-        <f>IF(C436="","",WEEKNUM(C436,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F436" s="22" t="s">
@@ -34634,7 +34634,7 @@
       <c r="R436" s="22"/>
       <c r="S436" s="22"/>
       <c r="T436" s="22">
-        <f>SUM(O436:S436)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U436" s="27"/>
@@ -34660,7 +34660,7 @@
         <v>356</v>
       </c>
       <c r="E437" s="61">
-        <f>IF(C437="","",WEEKNUM(C437,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F437" s="22" t="s">
@@ -34695,7 +34695,7 @@
       <c r="R437" s="22"/>
       <c r="S437" s="22"/>
       <c r="T437" s="22">
-        <f>SUM(O437:S437)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U437" s="27"/>
@@ -34721,7 +34721,7 @@
         <v>356</v>
       </c>
       <c r="E438" s="61">
-        <f>IF(C438="","",WEEKNUM(C438,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F438" s="22" t="s">
@@ -34756,7 +34756,7 @@
       <c r="R438" s="22"/>
       <c r="S438" s="22"/>
       <c r="T438" s="22">
-        <f>SUM(O438:S438)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U438" s="27"/>
@@ -34782,7 +34782,7 @@
         <v>356</v>
       </c>
       <c r="E439" s="61">
-        <f>IF(C439="","",WEEKNUM(C439,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F439" s="22" t="s">
@@ -34821,7 +34821,7 @@
       <c r="R439" s="22"/>
       <c r="S439" s="22"/>
       <c r="T439" s="22">
-        <f>SUM(O439:S439)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U439" s="27" t="s">
@@ -34862,7 +34862,7 @@
         <v>356</v>
       </c>
       <c r="E440" s="61">
-        <f>IF(C440="","",WEEKNUM(C440,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F440" s="22" t="s">
@@ -34901,7 +34901,7 @@
       <c r="R440" s="22"/>
       <c r="S440" s="22"/>
       <c r="T440" s="22">
-        <f>SUM(O440:S440)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U440" s="27" t="s">
@@ -34942,7 +34942,7 @@
         <v>356</v>
       </c>
       <c r="E441" s="61">
-        <f>IF(C441="","",WEEKNUM(C441,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F441" s="22" t="s">
@@ -35003,7 +35003,7 @@
         <v>356</v>
       </c>
       <c r="E442" s="61">
-        <f>IF(C442="","",WEEKNUM(C442,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F442" s="22" t="s">
@@ -35061,7 +35061,7 @@
         <v>356</v>
       </c>
       <c r="E443" s="61">
-        <f>IF(C443="","",WEEKNUM(C443,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F443" s="22" t="s">
@@ -35096,7 +35096,7 @@
       <c r="R443" s="22"/>
       <c r="S443" s="22"/>
       <c r="T443" s="22">
-        <f>SUM(O443:S443)</f>
+        <f t="shared" ref="T443:T453" si="18">SUM(O443:S443)</f>
         <v>0</v>
       </c>
       <c r="U443" s="27"/>
@@ -35122,7 +35122,7 @@
         <v>356</v>
       </c>
       <c r="E444" s="61">
-        <f>IF(C444="","",WEEKNUM(C444,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F444" s="22" t="s">
@@ -35157,7 +35157,7 @@
       <c r="R444" s="22"/>
       <c r="S444" s="22"/>
       <c r="T444" s="22">
-        <f>SUM(O444:S444)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U444" s="27"/>
@@ -35183,7 +35183,7 @@
         <v>356</v>
       </c>
       <c r="E445" s="61">
-        <f>IF(C445="","",WEEKNUM(C445,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F445" s="22" t="s">
@@ -35222,7 +35222,7 @@
       <c r="R445" s="22"/>
       <c r="S445" s="22"/>
       <c r="T445" s="22">
-        <f>SUM(O445:S445)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U445" s="27" t="s">
@@ -35263,7 +35263,7 @@
         <v>356</v>
       </c>
       <c r="E446" s="61">
-        <f>IF(C446="","",WEEKNUM(C446,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F446" s="22" t="s">
@@ -35294,7 +35294,7 @@
       <c r="R446" s="22"/>
       <c r="S446" s="22"/>
       <c r="T446" s="22">
-        <f>SUM(O446:S446)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U446" s="27" t="s">
@@ -35335,7 +35335,7 @@
         <v>356</v>
       </c>
       <c r="E447" s="61">
-        <f>IF(C447="","",WEEKNUM(C447,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F447" s="22" t="s">
@@ -35370,7 +35370,7 @@
       <c r="R447" s="22"/>
       <c r="S447" s="22"/>
       <c r="T447" s="22">
-        <f>SUM(O447:S447)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U447" s="27"/>
@@ -35396,7 +35396,7 @@
         <v>356</v>
       </c>
       <c r="E448" s="61">
-        <f>IF(C448="","",WEEKNUM(C448,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F448" s="22" t="s">
@@ -35435,7 +35435,7 @@
       <c r="R448" s="22"/>
       <c r="S448" s="22"/>
       <c r="T448" s="22">
-        <f>SUM(O448:S448)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="U448" s="27" t="s">
@@ -35476,7 +35476,7 @@
         <v>356</v>
       </c>
       <c r="E449" s="61">
-        <f>IF(C449="","",WEEKNUM(C449,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F449" s="22" t="s">
@@ -35511,7 +35511,7 @@
       <c r="R449" s="22"/>
       <c r="S449" s="22"/>
       <c r="T449" s="22">
-        <f>SUM(O449:S449)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U449" s="27"/>
@@ -35537,7 +35537,7 @@
         <v>356</v>
       </c>
       <c r="E450" s="61">
-        <f>IF(C450="","",WEEKNUM(C450,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F450" s="22" t="s">
@@ -35576,7 +35576,7 @@
       <c r="R450" s="22"/>
       <c r="S450" s="22"/>
       <c r="T450" s="22">
-        <f>SUM(O450:S450)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="U450" s="27" t="s">
@@ -35617,7 +35617,7 @@
         <v>356</v>
       </c>
       <c r="E451" s="61">
-        <f>IF(C451="","",WEEKNUM(C451,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F451" s="22" t="s">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="S451" s="22"/>
       <c r="T451" s="22">
-        <f>SUM(O451:S451)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U451" s="27" t="s">
@@ -35689,7 +35689,7 @@
         <v>356</v>
       </c>
       <c r="E452" s="61">
-        <f>IF(C452="","",WEEKNUM(C452,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F452" s="22" t="s">
@@ -35720,7 +35720,7 @@
       <c r="R452" s="22"/>
       <c r="S452" s="22"/>
       <c r="T452" s="22">
-        <f>SUM(O452:S452)</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="U452" s="27" t="s">
@@ -35761,7 +35761,7 @@
         <v>356</v>
       </c>
       <c r="E453" s="61">
-        <f>IF(C453="","",WEEKNUM(C453,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F453" s="22" t="s">
@@ -35800,7 +35800,7 @@
       <c r="R453" s="22"/>
       <c r="S453" s="22"/>
       <c r="T453" s="22">
-        <f>SUM(O453:S453)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U453" s="27" t="s">
@@ -49303,7 +49303,7 @@
         <v>487</v>
       </c>
       <c r="E709" s="61">
-        <f>IF(C709="","",WEEKNUM(C709,1))</f>
+        <f t="shared" ref="E709:E721" si="19">IF(C709="","",WEEKNUM(C709,1))</f>
         <v>22</v>
       </c>
       <c r="F709" s="22" t="s">
@@ -49338,15 +49338,12 @@
       <c r="R709" s="22"/>
       <c r="S709" s="22"/>
       <c r="T709" s="22">
-        <f>SUM(O709:S709)</f>
+        <f t="shared" ref="T709:T721" si="20">SUM(O709:S709)</f>
         <v>0</v>
       </c>
       <c r="U709" s="27"/>
       <c r="V709" s="10"/>
       <c r="W709" s="11"/>
-      <c r="X709" s="11"/>
-      <c r="Y709" s="11"/>
-      <c r="Z709" s="11"/>
       <c r="AA709" s="42"/>
       <c r="AB709" s="42"/>
       <c r="AC709" s="42"/>
@@ -49367,7 +49364,7 @@
         <v>487</v>
       </c>
       <c r="E710" s="61">
-        <f>IF(C710="","",WEEKNUM(C710,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F710" s="22" t="s">
@@ -49402,15 +49399,12 @@
       <c r="R710" s="22"/>
       <c r="S710" s="22"/>
       <c r="T710" s="22">
-        <f>SUM(O710:S710)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U710" s="27"/>
       <c r="V710" s="10"/>
       <c r="W710" s="11"/>
-      <c r="X710" s="11"/>
-      <c r="Y710" s="11"/>
-      <c r="Z710" s="11"/>
       <c r="AA710" s="42"/>
       <c r="AB710" s="42"/>
       <c r="AC710" s="42"/>
@@ -49431,7 +49425,7 @@
         <v>487</v>
       </c>
       <c r="E711" s="61">
-        <f>IF(C711="","",WEEKNUM(C711,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F711" s="22" t="s">
@@ -49466,15 +49460,12 @@
       <c r="R711" s="22"/>
       <c r="S711" s="22"/>
       <c r="T711" s="22">
-        <f>SUM(O711:S711)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U711" s="27"/>
       <c r="V711" s="10"/>
       <c r="W711" s="11"/>
-      <c r="X711" s="11"/>
-      <c r="Y711" s="11"/>
-      <c r="Z711" s="11"/>
       <c r="AA711" s="42"/>
       <c r="AB711" s="42"/>
       <c r="AC711" s="42"/>
@@ -49495,7 +49486,7 @@
         <v>487</v>
       </c>
       <c r="E712" s="61">
-        <f>IF(C712="","",WEEKNUM(C712,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F712" s="22" t="s">
@@ -49530,15 +49521,12 @@
       <c r="R712" s="22"/>
       <c r="S712" s="22"/>
       <c r="T712" s="22">
-        <f>SUM(O712:S712)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U712" s="27"/>
       <c r="V712" s="10"/>
       <c r="W712" s="11"/>
-      <c r="X712" s="11"/>
-      <c r="Y712" s="11"/>
-      <c r="Z712" s="11"/>
       <c r="AA712" s="42"/>
       <c r="AB712" s="42"/>
       <c r="AC712" s="42"/>
@@ -49559,7 +49547,7 @@
         <v>487</v>
       </c>
       <c r="E713" s="61">
-        <f>IF(C713="","",WEEKNUM(C713,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F713" s="22" t="s">
@@ -49594,15 +49582,12 @@
       <c r="R713" s="22"/>
       <c r="S713" s="22"/>
       <c r="T713" s="22">
-        <f>SUM(O713:S713)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U713" s="27"/>
       <c r="V713" s="10"/>
       <c r="W713" s="11"/>
-      <c r="X713" s="11"/>
-      <c r="Y713" s="11"/>
-      <c r="Z713" s="11"/>
       <c r="AA713" s="42"/>
       <c r="AB713" s="42"/>
       <c r="AC713" s="42"/>
@@ -49623,7 +49608,7 @@
         <v>487</v>
       </c>
       <c r="E714" s="61">
-        <f>IF(C714="","",WEEKNUM(C714,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F714" s="22" t="s">
@@ -49658,15 +49643,12 @@
       <c r="R714" s="22"/>
       <c r="S714" s="22"/>
       <c r="T714" s="22">
-        <f>SUM(O714:S714)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U714" s="27"/>
       <c r="V714" s="10"/>
       <c r="W714" s="11"/>
-      <c r="X714" s="11"/>
-      <c r="Y714" s="11"/>
-      <c r="Z714" s="11"/>
       <c r="AA714" s="42"/>
       <c r="AB714" s="42"/>
       <c r="AC714" s="27" t="s">
@@ -49689,7 +49671,7 @@
         <v>487</v>
       </c>
       <c r="E715" s="61">
-        <f>IF(C715="","",WEEKNUM(C715,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F715" s="22" t="s">
@@ -49724,15 +49706,12 @@
       <c r="R715" s="22"/>
       <c r="S715" s="22"/>
       <c r="T715" s="22">
-        <f>SUM(O715:S715)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U715" s="27"/>
       <c r="V715" s="10"/>
       <c r="W715" s="11"/>
-      <c r="X715" s="11"/>
-      <c r="Y715" s="11"/>
-      <c r="Z715" s="11"/>
       <c r="AA715" s="42"/>
       <c r="AB715" s="42"/>
       <c r="AC715" s="27" t="s">
@@ -49755,7 +49734,7 @@
         <v>487</v>
       </c>
       <c r="E716" s="61">
-        <f>IF(C716="","",WEEKNUM(C716,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F716" s="22" t="s">
@@ -49790,15 +49769,12 @@
       <c r="R716" s="22"/>
       <c r="S716" s="22"/>
       <c r="T716" s="22">
-        <f>SUM(O716:S716)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U716" s="27"/>
       <c r="V716" s="10"/>
       <c r="W716" s="11"/>
-      <c r="X716" s="11"/>
-      <c r="Y716" s="11"/>
-      <c r="Z716" s="11"/>
       <c r="AA716" s="42"/>
       <c r="AB716" s="42"/>
       <c r="AC716" s="27"/>
@@ -49819,7 +49795,7 @@
         <v>487</v>
       </c>
       <c r="E717" s="61">
-        <f>IF(C717="","",WEEKNUM(C717,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F717" s="22" t="s">
@@ -49854,15 +49830,12 @@
       <c r="R717" s="22"/>
       <c r="S717" s="22"/>
       <c r="T717" s="22">
-        <f>SUM(O717:S717)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U717" s="27"/>
       <c r="V717" s="10"/>
       <c r="W717" s="11"/>
-      <c r="X717" s="11"/>
-      <c r="Y717" s="11"/>
-      <c r="Z717" s="11"/>
       <c r="AA717" s="42"/>
       <c r="AB717" s="42"/>
       <c r="AC717" s="27"/>
@@ -49883,7 +49856,7 @@
         <v>487</v>
       </c>
       <c r="E718" s="61">
-        <f>IF(C718="","",WEEKNUM(C718,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F718" s="22" t="s">
@@ -49918,15 +49891,12 @@
       <c r="R718" s="22"/>
       <c r="S718" s="22"/>
       <c r="T718" s="22">
-        <f>SUM(O718:S718)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U718" s="27"/>
       <c r="V718" s="10"/>
       <c r="W718" s="11"/>
-      <c r="X718" s="11"/>
-      <c r="Y718" s="11"/>
-      <c r="Z718" s="11"/>
       <c r="AA718" s="42"/>
       <c r="AB718" s="42"/>
       <c r="AC718" s="27"/>
@@ -49947,7 +49917,7 @@
         <v>487</v>
       </c>
       <c r="E719" s="61">
-        <f>IF(C719="","",WEEKNUM(C719,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F719" s="22" t="s">
@@ -49982,15 +49952,12 @@
       <c r="R719" s="22"/>
       <c r="S719" s="22"/>
       <c r="T719" s="22">
-        <f>SUM(O719:S719)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U719" s="27"/>
       <c r="V719" s="10"/>
       <c r="W719" s="11"/>
-      <c r="X719" s="11"/>
-      <c r="Y719" s="11"/>
-      <c r="Z719" s="11"/>
       <c r="AA719" s="42"/>
       <c r="AB719" s="42"/>
       <c r="AC719" s="27"/>
@@ -50011,7 +49978,7 @@
         <v>487</v>
       </c>
       <c r="E720" s="61">
-        <f>IF(C720="","",WEEKNUM(C720,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F720" s="22" t="s">
@@ -50046,15 +50013,12 @@
       <c r="R720" s="22"/>
       <c r="S720" s="22"/>
       <c r="T720" s="22">
-        <f>SUM(O720:S720)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U720" s="27"/>
       <c r="V720" s="10"/>
       <c r="W720" s="11"/>
-      <c r="X720" s="11"/>
-      <c r="Y720" s="11"/>
-      <c r="Z720" s="11"/>
       <c r="AA720" s="42"/>
       <c r="AB720" s="42"/>
       <c r="AC720" s="27"/>
@@ -50075,7 +50039,7 @@
         <v>487</v>
       </c>
       <c r="E721" s="61">
-        <f>IF(C721="","",WEEKNUM(C721,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F721" s="22" t="s">
@@ -50110,15 +50074,12 @@
       <c r="R721" s="22"/>
       <c r="S721" s="22"/>
       <c r="T721" s="22">
-        <f>SUM(O721:S721)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U721" s="27"/>
       <c r="V721" s="10"/>
       <c r="W721" s="11"/>
-      <c r="X721" s="11"/>
-      <c r="Y721" s="11"/>
-      <c r="Z721" s="11"/>
       <c r="AA721" s="42"/>
       <c r="AB721" s="42"/>
       <c r="AC721" s="27"/>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -2779,7 +2779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3164,9 +3164,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5302,10 +5299,10 @@
   </sheetPr>
   <dimension ref="A1:AE721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L724" sqref="L724"/>
+      <selection pane="bottomLeft" activeCell="A709" sqref="$A709:$XFD721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -49289,802 +49286,700 @@
         <v>67</v>
       </c>
     </row>
-    <row r="709" customHeight="1" spans="1:31">
-      <c r="A709" s="22">
+    <row r="709" customHeight="1" spans="1:20">
+      <c r="A709" s="1">
         <v>708</v>
       </c>
-      <c r="B709" s="23">
+      <c r="B709" s="1">
         <v>240529001</v>
       </c>
-      <c r="C709" s="106">
+      <c r="C709" s="3">
         <v>45441</v>
       </c>
-      <c r="D709" s="22" t="s">
+      <c r="D709" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E709" s="61">
+      <c r="E709" s="4">
         <f t="shared" ref="E709:E721" si="19">IF(C709="","",WEEKNUM(C709,1))</f>
         <v>22</v>
       </c>
-      <c r="F709" s="22" t="s">
+      <c r="F709" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G709" s="22" t="s">
+      <c r="G709" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="H709" s="22" t="s">
+      <c r="H709" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I709" s="22" t="str">
+      <c r="I709" s="7" t="str">
         <f>VLOOKUP(H709,[3]外O细分型号!A:B,2,0)</f>
         <v>G100</v>
       </c>
-      <c r="J709" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K709" s="22">
+      <c r="J709" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K709" s="8">
         <v>440</v>
       </c>
-      <c r="L709" s="22">
+      <c r="L709" s="8">
         <v>13</v>
       </c>
-      <c r="M709" s="22"/>
-      <c r="N709" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O709" s="22"/>
-      <c r="P709" s="22"/>
-      <c r="Q709" s="22"/>
-      <c r="R709" s="22"/>
-      <c r="S709" s="22"/>
-      <c r="T709" s="22">
+      <c r="M709" s="9"/>
+      <c r="N709" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O709" s="11"/>
+      <c r="P709" s="11"/>
+      <c r="Q709" s="11"/>
+      <c r="R709" s="11"/>
+      <c r="S709" s="12"/>
+      <c r="T709" s="12">
         <f t="shared" ref="T709:T721" si="20">SUM(O709:S709)</f>
         <v>0</v>
       </c>
-      <c r="U709" s="27"/>
-      <c r="V709" s="10"/>
-      <c r="W709" s="11"/>
-      <c r="AA709" s="42"/>
-      <c r="AB709" s="42"/>
-      <c r="AC709" s="42"/>
-      <c r="AD709" s="42"/>
-      <c r="AE709" s="42"/>
-    </row>
-    <row r="710" customHeight="1" spans="1:31">
-      <c r="A710" s="22">
+    </row>
+    <row r="710" customHeight="1" spans="1:20">
+      <c r="A710" s="1">
         <v>709</v>
       </c>
-      <c r="B710" s="22">
+      <c r="B710" s="1">
         <v>240529002</v>
       </c>
-      <c r="C710" s="106">
+      <c r="C710" s="3">
         <v>45441</v>
       </c>
-      <c r="D710" s="22" t="s">
+      <c r="D710" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E710" s="61">
+      <c r="E710" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F710" s="22" t="s">
+      <c r="F710" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G710" s="22" t="s">
+      <c r="G710" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="H710" s="22" t="s">
+      <c r="H710" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="I710" s="22" t="str">
+      <c r="I710" s="7" t="str">
         <f>VLOOKUP(H710,[3]外O细分型号!A:B,2,0)</f>
         <v>E16</v>
       </c>
-      <c r="J710" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K710" s="22">
+      <c r="J710" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K710" s="8">
         <v>200</v>
       </c>
-      <c r="L710" s="22">
+      <c r="L710" s="8">
         <v>8</v>
       </c>
-      <c r="M710" s="22"/>
-      <c r="N710" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O710" s="22"/>
-      <c r="P710" s="22"/>
-      <c r="Q710" s="22"/>
-      <c r="R710" s="22"/>
-      <c r="S710" s="22"/>
-      <c r="T710" s="22">
+      <c r="M710" s="9"/>
+      <c r="N710" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O710" s="11"/>
+      <c r="P710" s="11"/>
+      <c r="Q710" s="11"/>
+      <c r="R710" s="11"/>
+      <c r="S710" s="12"/>
+      <c r="T710" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U710" s="27"/>
-      <c r="V710" s="10"/>
-      <c r="W710" s="11"/>
-      <c r="AA710" s="42"/>
-      <c r="AB710" s="42"/>
-      <c r="AC710" s="42"/>
-      <c r="AD710" s="42"/>
-      <c r="AE710" s="42"/>
-    </row>
-    <row r="711" customHeight="1" spans="1:31">
-      <c r="A711" s="22">
+    </row>
+    <row r="711" customHeight="1" spans="1:20">
+      <c r="A711" s="1">
         <v>710</v>
       </c>
-      <c r="B711" s="22">
+      <c r="B711" s="1">
         <v>240529003</v>
       </c>
-      <c r="C711" s="106">
+      <c r="C711" s="3">
         <v>45441</v>
       </c>
-      <c r="D711" s="22" t="s">
+      <c r="D711" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E711" s="61">
+      <c r="E711" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F711" s="22" t="s">
+      <c r="F711" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G711" s="22" t="s">
+      <c r="G711" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="H711" s="22" t="s">
+      <c r="H711" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I711" s="22" t="str">
+      <c r="I711" s="7" t="str">
         <f>VLOOKUP(H711,[3]外O细分型号!A:B,2,0)</f>
         <v>V1</v>
       </c>
-      <c r="J711" s="22" t="s">
+      <c r="J711" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K711" s="22">
+      <c r="K711" s="8">
         <v>4</v>
       </c>
-      <c r="L711" s="22">
+      <c r="L711" s="8">
         <v>4</v>
       </c>
-      <c r="M711" s="22"/>
-      <c r="N711" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O711" s="22"/>
-      <c r="P711" s="22"/>
-      <c r="Q711" s="22"/>
-      <c r="R711" s="22"/>
-      <c r="S711" s="22"/>
-      <c r="T711" s="22">
+      <c r="M711" s="9"/>
+      <c r="N711" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O711" s="11"/>
+      <c r="P711" s="11"/>
+      <c r="Q711" s="11"/>
+      <c r="R711" s="11"/>
+      <c r="S711" s="12"/>
+      <c r="T711" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U711" s="27"/>
-      <c r="V711" s="10"/>
-      <c r="W711" s="11"/>
-      <c r="AA711" s="42"/>
-      <c r="AB711" s="42"/>
-      <c r="AC711" s="42"/>
-      <c r="AD711" s="42"/>
-      <c r="AE711" s="42"/>
-    </row>
-    <row r="712" customHeight="1" spans="1:31">
-      <c r="A712" s="22">
+    </row>
+    <row r="712" customHeight="1" spans="1:20">
+      <c r="A712" s="1">
         <v>711</v>
       </c>
-      <c r="B712" s="22">
+      <c r="B712" s="1">
         <v>240529004</v>
       </c>
-      <c r="C712" s="106">
+      <c r="C712" s="3">
         <v>45441</v>
       </c>
-      <c r="D712" s="22" t="s">
+      <c r="D712" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E712" s="61">
+      <c r="E712" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F712" s="22" t="s">
+      <c r="F712" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G712" s="22" t="s">
+      <c r="G712" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="H712" s="22" t="s">
+      <c r="H712" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="I712" s="22" t="str">
+      <c r="I712" s="7" t="str">
         <f>VLOOKUP(H712,[3]外O细分型号!A:B,2,0)</f>
         <v>V7</v>
       </c>
-      <c r="J712" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K712" s="22">
+      <c r="J712" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K712" s="8">
         <v>109</v>
       </c>
-      <c r="L712" s="22">
+      <c r="L712" s="8">
         <v>8</v>
       </c>
-      <c r="M712" s="22"/>
-      <c r="N712" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O712" s="22"/>
-      <c r="P712" s="22"/>
-      <c r="Q712" s="22"/>
-      <c r="R712" s="22"/>
-      <c r="S712" s="22"/>
-      <c r="T712" s="22">
+      <c r="M712" s="9"/>
+      <c r="N712" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O712" s="11"/>
+      <c r="P712" s="11"/>
+      <c r="Q712" s="11"/>
+      <c r="R712" s="11"/>
+      <c r="S712" s="12"/>
+      <c r="T712" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U712" s="27"/>
-      <c r="V712" s="10"/>
-      <c r="W712" s="11"/>
-      <c r="AA712" s="42"/>
-      <c r="AB712" s="42"/>
-      <c r="AC712" s="42"/>
-      <c r="AD712" s="42"/>
-      <c r="AE712" s="42"/>
-    </row>
-    <row r="713" customHeight="1" spans="1:31">
-      <c r="A713" s="22">
+    </row>
+    <row r="713" customHeight="1" spans="1:20">
+      <c r="A713" s="1">
         <v>712</v>
       </c>
-      <c r="B713" s="22">
+      <c r="B713" s="1">
         <v>240529005</v>
       </c>
-      <c r="C713" s="106">
+      <c r="C713" s="3">
         <v>45441</v>
       </c>
-      <c r="D713" s="22" t="s">
+      <c r="D713" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E713" s="61">
+      <c r="E713" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F713" s="22" t="s">
+      <c r="F713" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G713" s="22">
+      <c r="G713" s="6">
         <v>24044032</v>
       </c>
-      <c r="H713" s="22" t="s">
+      <c r="H713" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I713" s="22" t="str">
+      <c r="I713" s="7" t="str">
         <f>VLOOKUP(H713,[3]外O细分型号!A:B,2,0)</f>
         <v>Q3MVPRO</v>
       </c>
-      <c r="J713" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K713" s="22">
+      <c r="J713" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K713" s="8">
         <v>47</v>
       </c>
-      <c r="L713" s="22">
+      <c r="L713" s="8">
         <v>8</v>
       </c>
-      <c r="M713" s="22"/>
-      <c r="N713" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O713" s="22"/>
-      <c r="P713" s="22"/>
-      <c r="Q713" s="22"/>
-      <c r="R713" s="22"/>
-      <c r="S713" s="22"/>
-      <c r="T713" s="22">
+      <c r="M713" s="9"/>
+      <c r="N713" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O713" s="11"/>
+      <c r="P713" s="11"/>
+      <c r="Q713" s="11"/>
+      <c r="R713" s="11"/>
+      <c r="S713" s="12"/>
+      <c r="T713" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U713" s="27"/>
-      <c r="V713" s="10"/>
-      <c r="W713" s="11"/>
-      <c r="AA713" s="42"/>
-      <c r="AB713" s="42"/>
-      <c r="AC713" s="42"/>
-      <c r="AD713" s="42"/>
-      <c r="AE713" s="42"/>
-    </row>
-    <row r="714" customHeight="1" spans="1:31">
-      <c r="A714" s="22">
+    </row>
+    <row r="714" customHeight="1" spans="1:29">
+      <c r="A714" s="1">
         <v>713</v>
       </c>
-      <c r="B714" s="22">
+      <c r="B714" s="1">
         <v>240529006</v>
       </c>
-      <c r="C714" s="106">
+      <c r="C714" s="3">
         <v>45441</v>
       </c>
-      <c r="D714" s="22" t="s">
+      <c r="D714" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E714" s="61">
+      <c r="E714" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F714" s="22" t="s">
+      <c r="F714" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G714" s="22" t="s">
+      <c r="G714" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="H714" s="22" t="s">
+      <c r="H714" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="I714" s="22" t="str">
+      <c r="I714" s="7" t="str">
         <f>VLOOKUP(H714,[3]外O细分型号!A:B,2,0)</f>
         <v>Q3EM</v>
       </c>
-      <c r="J714" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K714" s="22">
+      <c r="J714" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K714" s="8">
         <v>651</v>
       </c>
-      <c r="L714" s="22">
+      <c r="L714" s="8">
         <v>16</v>
       </c>
-      <c r="M714" s="22"/>
-      <c r="N714" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O714" s="22"/>
-      <c r="P714" s="22"/>
-      <c r="Q714" s="22"/>
-      <c r="R714" s="22"/>
-      <c r="S714" s="22"/>
-      <c r="T714" s="22">
+      <c r="M714" s="9"/>
+      <c r="N714" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O714" s="11"/>
+      <c r="P714" s="11"/>
+      <c r="Q714" s="11"/>
+      <c r="R714" s="11"/>
+      <c r="S714" s="12"/>
+      <c r="T714" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U714" s="27"/>
-      <c r="V714" s="10"/>
-      <c r="W714" s="11"/>
-      <c r="AA714" s="42"/>
-      <c r="AB714" s="42"/>
-      <c r="AC714" s="27" t="s">
+      <c r="AC714" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="AD714" s="42"/>
-      <c r="AE714" s="42"/>
-    </row>
-    <row r="715" customHeight="1" spans="1:31">
-      <c r="A715" s="22">
+    </row>
+    <row r="715" customHeight="1" spans="1:29">
+      <c r="A715" s="1">
         <v>714</v>
       </c>
-      <c r="B715" s="22">
+      <c r="B715" s="1">
         <v>240529007</v>
       </c>
-      <c r="C715" s="106">
+      <c r="C715" s="3">
         <v>45441</v>
       </c>
-      <c r="D715" s="22" t="s">
+      <c r="D715" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E715" s="61">
+      <c r="E715" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F715" s="22" t="s">
+      <c r="F715" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G715" s="22" t="s">
+      <c r="G715" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="H715" s="22" t="s">
+      <c r="H715" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="I715" s="22" t="str">
+      <c r="I715" s="7" t="str">
         <f>VLOOKUP(H715,[3]外O细分型号!A:B,2,0)</f>
         <v>E10PLUS</v>
       </c>
-      <c r="J715" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K715" s="22">
+      <c r="J715" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K715" s="8">
         <v>1056</v>
       </c>
-      <c r="L715" s="22">
+      <c r="L715" s="8">
         <v>32</v>
       </c>
-      <c r="M715" s="22"/>
-      <c r="N715" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O715" s="22"/>
-      <c r="P715" s="22"/>
-      <c r="Q715" s="22"/>
-      <c r="R715" s="22"/>
-      <c r="S715" s="22"/>
-      <c r="T715" s="22">
+      <c r="M715" s="9"/>
+      <c r="N715" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O715" s="11"/>
+      <c r="P715" s="11"/>
+      <c r="Q715" s="11"/>
+      <c r="R715" s="11"/>
+      <c r="S715" s="12"/>
+      <c r="T715" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U715" s="27"/>
-      <c r="V715" s="10"/>
-      <c r="W715" s="11"/>
-      <c r="AA715" s="42"/>
-      <c r="AB715" s="42"/>
-      <c r="AC715" s="27" t="s">
+      <c r="AC715" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="AD715" s="42"/>
-      <c r="AE715" s="42"/>
-    </row>
-    <row r="716" customHeight="1" spans="1:31">
-      <c r="A716" s="22">
+    </row>
+    <row r="716" customHeight="1" spans="1:20">
+      <c r="A716" s="1">
         <v>715</v>
       </c>
-      <c r="B716" s="22">
+      <c r="B716" s="1">
         <v>240529008</v>
       </c>
-      <c r="C716" s="106">
+      <c r="C716" s="3">
         <v>45441</v>
       </c>
-      <c r="D716" s="22" t="s">
+      <c r="D716" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E716" s="61">
+      <c r="E716" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F716" s="22" t="s">
+      <c r="F716" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G716" s="22" t="s">
+      <c r="G716" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="H716" s="22" t="s">
+      <c r="H716" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="I716" s="22" t="str">
+      <c r="I716" s="7" t="str">
         <f>VLOOKUP(H716,[3]外O细分型号!A:B,2,0)</f>
         <v>E16</v>
       </c>
-      <c r="J716" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K716" s="22">
+      <c r="J716" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K716" s="8">
         <v>80</v>
       </c>
-      <c r="L716" s="22">
+      <c r="L716" s="8">
         <v>8</v>
       </c>
-      <c r="M716" s="22"/>
-      <c r="N716" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O716" s="22"/>
-      <c r="P716" s="22"/>
-      <c r="Q716" s="22"/>
-      <c r="R716" s="22"/>
-      <c r="S716" s="22"/>
-      <c r="T716" s="22">
+      <c r="M716" s="9"/>
+      <c r="N716" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O716" s="11"/>
+      <c r="P716" s="11"/>
+      <c r="Q716" s="11"/>
+      <c r="R716" s="11"/>
+      <c r="S716" s="12"/>
+      <c r="T716" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U716" s="27"/>
-      <c r="V716" s="10"/>
-      <c r="W716" s="11"/>
-      <c r="AA716" s="42"/>
-      <c r="AB716" s="42"/>
-      <c r="AC716" s="27"/>
-      <c r="AD716" s="42"/>
-      <c r="AE716" s="42"/>
-    </row>
-    <row r="717" customHeight="1" spans="1:31">
-      <c r="A717" s="22">
+    </row>
+    <row r="717" customHeight="1" spans="1:20">
+      <c r="A717" s="1">
         <v>716</v>
       </c>
-      <c r="B717" s="22">
+      <c r="B717" s="1">
         <v>240529009</v>
       </c>
-      <c r="C717" s="106">
+      <c r="C717" s="3">
         <v>45441</v>
       </c>
-      <c r="D717" s="22" t="s">
+      <c r="D717" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E717" s="61">
+      <c r="E717" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F717" s="22" t="s">
+      <c r="F717" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G717" s="22" t="s">
+      <c r="G717" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="H717" s="22" t="s">
+      <c r="H717" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I717" s="22" t="str">
+      <c r="I717" s="7" t="str">
         <f>VLOOKUP(H717,[3]外O细分型号!A:B,2,0)</f>
         <v>G100</v>
       </c>
-      <c r="J717" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K717" s="22">
+      <c r="J717" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K717" s="8">
         <v>172</v>
       </c>
-      <c r="L717" s="22">
+      <c r="L717" s="8">
         <v>8</v>
       </c>
-      <c r="M717" s="22"/>
-      <c r="N717" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O717" s="22"/>
-      <c r="P717" s="22"/>
-      <c r="Q717" s="22"/>
-      <c r="R717" s="22"/>
-      <c r="S717" s="22"/>
-      <c r="T717" s="22">
+      <c r="M717" s="9"/>
+      <c r="N717" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O717" s="11"/>
+      <c r="P717" s="11"/>
+      <c r="Q717" s="11"/>
+      <c r="R717" s="11"/>
+      <c r="S717" s="12"/>
+      <c r="T717" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U717" s="27"/>
-      <c r="V717" s="10"/>
-      <c r="W717" s="11"/>
-      <c r="AA717" s="42"/>
-      <c r="AB717" s="42"/>
-      <c r="AC717" s="27"/>
-      <c r="AD717" s="42"/>
-      <c r="AE717" s="42"/>
-    </row>
-    <row r="718" customHeight="1" spans="1:31">
-      <c r="A718" s="22">
+    </row>
+    <row r="718" customHeight="1" spans="1:20">
+      <c r="A718" s="1">
         <v>717</v>
       </c>
-      <c r="B718" s="22">
+      <c r="B718" s="1">
         <v>240529010</v>
       </c>
-      <c r="C718" s="106">
+      <c r="C718" s="3">
         <v>45441</v>
       </c>
-      <c r="D718" s="22" t="s">
+      <c r="D718" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E718" s="61">
+      <c r="E718" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F718" s="22" t="s">
+      <c r="F718" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G718" s="22" t="s">
+      <c r="G718" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="H718" s="22" t="s">
+      <c r="H718" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="I718" s="22" t="str">
+      <c r="I718" s="7" t="str">
         <f>VLOOKUP(H718,[3]外O细分型号!A:B,2,0)</f>
         <v>E16</v>
       </c>
-      <c r="J718" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K718" s="22">
+      <c r="J718" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K718" s="8">
         <v>192</v>
       </c>
-      <c r="L718" s="22">
+      <c r="L718" s="8">
         <v>8</v>
       </c>
-      <c r="M718" s="22"/>
-      <c r="N718" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O718" s="22"/>
-      <c r="P718" s="22"/>
-      <c r="Q718" s="22"/>
-      <c r="R718" s="22"/>
-      <c r="S718" s="22"/>
-      <c r="T718" s="22">
+      <c r="M718" s="9"/>
+      <c r="N718" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O718" s="11"/>
+      <c r="P718" s="11"/>
+      <c r="Q718" s="11"/>
+      <c r="R718" s="11"/>
+      <c r="S718" s="12"/>
+      <c r="T718" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U718" s="27"/>
-      <c r="V718" s="10"/>
-      <c r="W718" s="11"/>
-      <c r="AA718" s="42"/>
-      <c r="AB718" s="42"/>
-      <c r="AC718" s="27"/>
-      <c r="AD718" s="42"/>
-      <c r="AE718" s="42"/>
-    </row>
-    <row r="719" customHeight="1" spans="1:31">
-      <c r="A719" s="22">
+    </row>
+    <row r="719" customHeight="1" spans="1:20">
+      <c r="A719" s="1">
         <v>718</v>
       </c>
-      <c r="B719" s="22">
+      <c r="B719" s="1">
         <v>240529011</v>
       </c>
-      <c r="C719" s="106">
+      <c r="C719" s="3">
         <v>45441</v>
       </c>
-      <c r="D719" s="22" t="s">
+      <c r="D719" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E719" s="61">
+      <c r="E719" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F719" s="22" t="s">
+      <c r="F719" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G719" s="22" t="s">
+      <c r="G719" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="H719" s="22" t="s">
+      <c r="H719" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I719" s="22" t="str">
+      <c r="I719" s="7" t="str">
         <f>VLOOKUP(H719,[3]外O细分型号!A:B,2,0)</f>
         <v>G302</v>
       </c>
-      <c r="J719" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K719" s="22">
+      <c r="J719" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K719" s="8">
         <v>24</v>
       </c>
-      <c r="L719" s="22">
+      <c r="L719" s="8">
         <v>8</v>
       </c>
-      <c r="M719" s="22"/>
-      <c r="N719" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O719" s="22"/>
-      <c r="P719" s="22"/>
-      <c r="Q719" s="22"/>
-      <c r="R719" s="22"/>
-      <c r="S719" s="22"/>
-      <c r="T719" s="22">
+      <c r="M719" s="9"/>
+      <c r="N719" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O719" s="11"/>
+      <c r="P719" s="11"/>
+      <c r="Q719" s="11"/>
+      <c r="R719" s="11"/>
+      <c r="S719" s="12"/>
+      <c r="T719" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U719" s="27"/>
-      <c r="V719" s="10"/>
-      <c r="W719" s="11"/>
-      <c r="AA719" s="42"/>
-      <c r="AB719" s="42"/>
-      <c r="AC719" s="27"/>
-      <c r="AD719" s="42"/>
-      <c r="AE719" s="42"/>
-    </row>
-    <row r="720" customHeight="1" spans="1:31">
-      <c r="A720" s="22">
+    </row>
+    <row r="720" customHeight="1" spans="1:20">
+      <c r="A720" s="1">
         <v>719</v>
       </c>
-      <c r="B720" s="22">
+      <c r="B720" s="1">
         <v>240529012</v>
       </c>
-      <c r="C720" s="106">
+      <c r="C720" s="3">
         <v>45441</v>
       </c>
-      <c r="D720" s="22" t="s">
+      <c r="D720" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E720" s="61">
+      <c r="E720" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F720" s="22" t="s">
+      <c r="F720" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G720" s="22" t="s">
+      <c r="G720" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="H720" s="22" t="s">
+      <c r="H720" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I720" s="22" t="str">
+      <c r="I720" s="7" t="str">
         <f>VLOOKUP(H720,[3]外O细分型号!A:B,2,0)</f>
         <v>G100</v>
       </c>
-      <c r="J720" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K720" s="22">
+      <c r="J720" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K720" s="8">
         <v>600</v>
       </c>
-      <c r="L720" s="22">
+      <c r="L720" s="8">
         <v>13</v>
       </c>
-      <c r="M720" s="22"/>
-      <c r="N720" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O720" s="22"/>
-      <c r="P720" s="22"/>
-      <c r="Q720" s="22"/>
-      <c r="R720" s="22"/>
-      <c r="S720" s="22"/>
-      <c r="T720" s="22">
+      <c r="M720" s="9"/>
+      <c r="N720" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O720" s="11"/>
+      <c r="P720" s="11"/>
+      <c r="Q720" s="11"/>
+      <c r="R720" s="11"/>
+      <c r="S720" s="12"/>
+      <c r="T720" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U720" s="27"/>
-      <c r="V720" s="10"/>
-      <c r="W720" s="11"/>
-      <c r="AA720" s="42"/>
-      <c r="AB720" s="42"/>
-      <c r="AC720" s="27"/>
-      <c r="AD720" s="42"/>
-      <c r="AE720" s="42"/>
-    </row>
-    <row r="721" customHeight="1" spans="1:31">
-      <c r="A721" s="22">
+    </row>
+    <row r="721" customHeight="1" spans="1:20">
+      <c r="A721" s="1">
         <v>720</v>
       </c>
-      <c r="B721" s="22">
+      <c r="B721" s="1">
         <v>240529013</v>
       </c>
-      <c r="C721" s="106">
+      <c r="C721" s="3">
         <v>45441</v>
       </c>
-      <c r="D721" s="22" t="s">
+      <c r="D721" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E721" s="61">
+      <c r="E721" s="4">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="F721" s="22" t="s">
+      <c r="F721" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G721" s="22" t="s">
+      <c r="G721" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H721" s="22" t="s">
+      <c r="H721" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="I721" s="22" t="str">
+      <c r="I721" s="7" t="str">
         <f>VLOOKUP(H721,[3]外O细分型号!A:B,2,0)</f>
         <v>V5P</v>
       </c>
-      <c r="J721" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K721" s="22">
-        <v>1</v>
-      </c>
-      <c r="L721" s="22">
-        <v>1</v>
-      </c>
-      <c r="M721" s="22"/>
-      <c r="N721" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O721" s="22"/>
-      <c r="P721" s="22"/>
-      <c r="Q721" s="22"/>
-      <c r="R721" s="22"/>
-      <c r="S721" s="22"/>
-      <c r="T721" s="22">
+      <c r="J721" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K721" s="8">
+        <v>1</v>
+      </c>
+      <c r="L721" s="8">
+        <v>1</v>
+      </c>
+      <c r="M721" s="9"/>
+      <c r="N721" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O721" s="11"/>
+      <c r="P721" s="11"/>
+      <c r="Q721" s="11"/>
+      <c r="R721" s="11"/>
+      <c r="S721" s="12"/>
+      <c r="T721" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U721" s="27"/>
-      <c r="V721" s="10"/>
-      <c r="W721" s="11"/>
-      <c r="AA721" s="42"/>
-      <c r="AB721" s="42"/>
-      <c r="AC721" s="27"/>
-      <c r="AD721" s="42"/>
-      <c r="AE721" s="42"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$721</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$742</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6431" uniqueCount="643">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1852,6 +1852,27 @@
   </si>
   <si>
     <t>V5P假锁</t>
+  </si>
+  <si>
+    <t>DD259842</t>
+  </si>
+  <si>
+    <t>DD259185</t>
+  </si>
+  <si>
+    <t>电池仓掉漆</t>
+  </si>
+  <si>
+    <t>锁后屏划伤</t>
+  </si>
+  <si>
+    <t>拉手底座划伤</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>前面板侧面划伤</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -5003,9 +5024,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE721" totalsRowShown="0">
-  <autoFilter ref="A2:AE721"/>
-  <sortState ref="A2:AE721">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE742" totalsRowShown="0">
+  <autoFilter ref="A2:AE742"/>
+  <sortState ref="A2:AE742">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -5297,12 +5318,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE721"/>
+  <dimension ref="A1:AE742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A709" sqref="$A709:$XFD721"/>
+      <selection pane="bottomLeft" activeCell="Q737" sqref="Q737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -49325,15 +49346,9 @@
       <c r="L709" s="8">
         <v>13</v>
       </c>
-      <c r="M709" s="9"/>
       <c r="N709" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O709" s="11"/>
-      <c r="P709" s="11"/>
-      <c r="Q709" s="11"/>
-      <c r="R709" s="11"/>
-      <c r="S709" s="12"/>
       <c r="T709" s="12">
         <f t="shared" ref="T709:T721" si="20">SUM(O709:S709)</f>
         <v>0</v>
@@ -49378,15 +49393,9 @@
       <c r="L710" s="8">
         <v>8</v>
       </c>
-      <c r="M710" s="9"/>
       <c r="N710" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O710" s="11"/>
-      <c r="P710" s="11"/>
-      <c r="Q710" s="11"/>
-      <c r="R710" s="11"/>
-      <c r="S710" s="12"/>
       <c r="T710" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49431,15 +49440,9 @@
       <c r="L711" s="8">
         <v>4</v>
       </c>
-      <c r="M711" s="9"/>
       <c r="N711" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O711" s="11"/>
-      <c r="P711" s="11"/>
-      <c r="Q711" s="11"/>
-      <c r="R711" s="11"/>
-      <c r="S711" s="12"/>
       <c r="T711" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49484,15 +49487,9 @@
       <c r="L712" s="8">
         <v>8</v>
       </c>
-      <c r="M712" s="9"/>
       <c r="N712" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O712" s="11"/>
-      <c r="P712" s="11"/>
-      <c r="Q712" s="11"/>
-      <c r="R712" s="11"/>
-      <c r="S712" s="12"/>
       <c r="T712" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49537,15 +49534,9 @@
       <c r="L713" s="8">
         <v>8</v>
       </c>
-      <c r="M713" s="9"/>
       <c r="N713" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O713" s="11"/>
-      <c r="P713" s="11"/>
-      <c r="Q713" s="11"/>
-      <c r="R713" s="11"/>
-      <c r="S713" s="12"/>
       <c r="T713" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49590,15 +49581,9 @@
       <c r="L714" s="8">
         <v>16</v>
       </c>
-      <c r="M714" s="9"/>
       <c r="N714" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O714" s="11"/>
-      <c r="P714" s="11"/>
-      <c r="Q714" s="11"/>
-      <c r="R714" s="11"/>
-      <c r="S714" s="12"/>
       <c r="T714" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49646,15 +49631,9 @@
       <c r="L715" s="8">
         <v>32</v>
       </c>
-      <c r="M715" s="9"/>
       <c r="N715" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O715" s="11"/>
-      <c r="P715" s="11"/>
-      <c r="Q715" s="11"/>
-      <c r="R715" s="11"/>
-      <c r="S715" s="12"/>
       <c r="T715" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49702,15 +49681,9 @@
       <c r="L716" s="8">
         <v>8</v>
       </c>
-      <c r="M716" s="9"/>
       <c r="N716" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O716" s="11"/>
-      <c r="P716" s="11"/>
-      <c r="Q716" s="11"/>
-      <c r="R716" s="11"/>
-      <c r="S716" s="12"/>
       <c r="T716" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49755,15 +49728,9 @@
       <c r="L717" s="8">
         <v>8</v>
       </c>
-      <c r="M717" s="9"/>
       <c r="N717" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O717" s="11"/>
-      <c r="P717" s="11"/>
-      <c r="Q717" s="11"/>
-      <c r="R717" s="11"/>
-      <c r="S717" s="12"/>
       <c r="T717" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49808,15 +49775,9 @@
       <c r="L718" s="8">
         <v>8</v>
       </c>
-      <c r="M718" s="9"/>
       <c r="N718" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O718" s="11"/>
-      <c r="P718" s="11"/>
-      <c r="Q718" s="11"/>
-      <c r="R718" s="11"/>
-      <c r="S718" s="12"/>
       <c r="T718" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49861,15 +49822,9 @@
       <c r="L719" s="8">
         <v>8</v>
       </c>
-      <c r="M719" s="9"/>
       <c r="N719" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O719" s="11"/>
-      <c r="P719" s="11"/>
-      <c r="Q719" s="11"/>
-      <c r="R719" s="11"/>
-      <c r="S719" s="12"/>
       <c r="T719" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49914,15 +49869,9 @@
       <c r="L720" s="8">
         <v>13</v>
       </c>
-      <c r="M720" s="9"/>
       <c r="N720" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O720" s="11"/>
-      <c r="P720" s="11"/>
-      <c r="Q720" s="11"/>
-      <c r="R720" s="11"/>
-      <c r="S720" s="12"/>
       <c r="T720" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -49967,18 +49916,1080 @@
       <c r="L721" s="8">
         <v>1</v>
       </c>
-      <c r="M721" s="9"/>
       <c r="N721" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O721" s="11"/>
-      <c r="P721" s="11"/>
-      <c r="Q721" s="11"/>
-      <c r="R721" s="11"/>
-      <c r="S721" s="12"/>
       <c r="T721" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="722" customHeight="1" spans="1:20">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1">
+        <v>240530001</v>
+      </c>
+      <c r="C722" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E722" s="4">
+        <v>22</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G722" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H722" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I722" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J722" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K722" s="8">
+        <v>1061</v>
+      </c>
+      <c r="L722" s="8">
+        <v>13</v>
+      </c>
+      <c r="N722" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T722" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:20">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1">
+        <v>240530002</v>
+      </c>
+      <c r="C723" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E723" s="4">
+        <v>22</v>
+      </c>
+      <c r="F723" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G723" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H723" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I723" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J723" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K723" s="8">
+        <v>943</v>
+      </c>
+      <c r="L723" s="8">
+        <v>13</v>
+      </c>
+      <c r="N723" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T723" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" customHeight="1" spans="1:20">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1">
+        <v>240530003</v>
+      </c>
+      <c r="C724" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E724" s="4">
+        <v>22</v>
+      </c>
+      <c r="F724" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G724" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H724" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I724" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J724" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K724" s="8">
+        <v>216</v>
+      </c>
+      <c r="L724" s="8">
+        <v>8</v>
+      </c>
+      <c r="N724" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T724" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" customHeight="1" spans="1:20">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1">
+        <v>240530004</v>
+      </c>
+      <c r="C725" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E725" s="4">
+        <v>22</v>
+      </c>
+      <c r="F725" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G725" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H725" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I725" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J725" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K725" s="8">
+        <v>576</v>
+      </c>
+      <c r="L725" s="8">
+        <v>32</v>
+      </c>
+      <c r="N725" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T725" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" customHeight="1" spans="1:20">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1">
+        <v>240530005</v>
+      </c>
+      <c r="C726" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E726" s="4">
+        <v>22</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G726" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H726" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I726" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J726" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K726" s="8">
+        <v>1028</v>
+      </c>
+      <c r="L726" s="8">
+        <v>8</v>
+      </c>
+      <c r="N726" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T726" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" customHeight="1" spans="1:26">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1">
+        <v>240530006</v>
+      </c>
+      <c r="C727" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E727" s="4">
+        <v>22</v>
+      </c>
+      <c r="F727" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G727" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H727" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I727" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J727" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K727" s="8">
+        <v>780</v>
+      </c>
+      <c r="L727" s="8">
+        <v>13</v>
+      </c>
+      <c r="M727" s="9">
+        <v>1</v>
+      </c>
+      <c r="N727" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O727" s="11">
+        <v>1</v>
+      </c>
+      <c r="T727" s="12">
+        <v>1</v>
+      </c>
+      <c r="U727" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="V727" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W727" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X727" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y727" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z727" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="728" customHeight="1" spans="1:20">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1">
+        <v>240530007</v>
+      </c>
+      <c r="C728" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E728" s="4">
+        <v>22</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G728" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H728" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I728" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J728" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K728" s="8">
+        <v>543</v>
+      </c>
+      <c r="L728" s="8">
+        <v>32</v>
+      </c>
+      <c r="N728" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T728" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" customHeight="1" spans="1:20">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1">
+        <v>240530008</v>
+      </c>
+      <c r="C729" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E729" s="4">
+        <v>22</v>
+      </c>
+      <c r="F729" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G729" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H729" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I729" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J729" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K729" s="8">
+        <v>104</v>
+      </c>
+      <c r="L729" s="8">
+        <v>8</v>
+      </c>
+      <c r="N729" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T729" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" customHeight="1" spans="1:26">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1">
+        <v>240530009</v>
+      </c>
+      <c r="C730" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E730" s="4">
+        <v>22</v>
+      </c>
+      <c r="F730" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G730" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H730" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I730" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J730" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K730" s="8">
+        <v>720</v>
+      </c>
+      <c r="L730" s="8">
+        <v>48</v>
+      </c>
+      <c r="M730" s="9">
+        <v>2</v>
+      </c>
+      <c r="N730" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O730" s="11">
+        <v>1</v>
+      </c>
+      <c r="T730" s="12">
+        <v>1</v>
+      </c>
+      <c r="U730" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V730" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W730" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X730" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y730" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z730" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="731" customHeight="1" spans="1:26">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1">
+        <v>240530009</v>
+      </c>
+      <c r="C731" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E731" s="4">
+        <v>22</v>
+      </c>
+      <c r="F731" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G731" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H731" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I731" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J731" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O731" s="11">
+        <v>1</v>
+      </c>
+      <c r="T731" s="12">
+        <v>1</v>
+      </c>
+      <c r="U731" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="V731" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W731" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X731" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y731" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z731" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="732" customHeight="1" spans="1:20">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1">
+        <v>240530010</v>
+      </c>
+      <c r="C732" s="3">
+        <v>45442</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E732" s="4">
+        <v>22</v>
+      </c>
+      <c r="F732" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G732" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H732" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I732" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J732" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K732" s="8">
+        <v>2</v>
+      </c>
+      <c r="L732" s="8">
+        <v>2</v>
+      </c>
+      <c r="N732" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T732" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" customHeight="1" spans="1:20">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1">
+        <v>240531001</v>
+      </c>
+      <c r="C733" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E733" s="4">
+        <v>22</v>
+      </c>
+      <c r="F733" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G733" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H733" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I733" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J733" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K733" s="8">
+        <v>91</v>
+      </c>
+      <c r="L733" s="8">
+        <v>8</v>
+      </c>
+      <c r="N733" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T733" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" customHeight="1" spans="1:20">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1">
+        <v>240531002</v>
+      </c>
+      <c r="C734" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E734" s="4">
+        <v>22</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G734" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H734" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I734" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J734" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K734" s="8">
+        <v>1440</v>
+      </c>
+      <c r="L734" s="8">
+        <v>50</v>
+      </c>
+      <c r="N734" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T734" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" customHeight="1" spans="1:20">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1">
+        <v>240531003</v>
+      </c>
+      <c r="C735" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E735" s="4">
+        <v>22</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G735" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H735" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I735" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J735" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K735" s="8">
+        <v>1584</v>
+      </c>
+      <c r="L735" s="8">
+        <v>50</v>
+      </c>
+      <c r="N735" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T735" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" customHeight="1" spans="1:26">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1">
+        <v>240531004</v>
+      </c>
+      <c r="C736" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E736" s="4">
+        <v>22</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G736" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H736" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I736" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J736" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K736" s="8">
+        <v>720</v>
+      </c>
+      <c r="L736" s="8">
+        <v>32</v>
+      </c>
+      <c r="M736" s="9">
+        <v>1</v>
+      </c>
+      <c r="N736" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O736" s="11">
+        <v>1</v>
+      </c>
+      <c r="T736" s="12">
+        <v>1</v>
+      </c>
+      <c r="U736" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="V736" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W736" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X736" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y736" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z736" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="737" customHeight="1" spans="1:26">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1">
+        <v>240531005</v>
+      </c>
+      <c r="C737" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E737" s="4">
+        <v>22</v>
+      </c>
+      <c r="F737" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G737" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H737" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I737" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J737" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K737" s="8">
+        <v>199</v>
+      </c>
+      <c r="L737" s="8">
+        <v>16</v>
+      </c>
+      <c r="M737" s="9">
+        <v>1</v>
+      </c>
+      <c r="N737" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O737" s="11">
+        <v>1</v>
+      </c>
+      <c r="T737" s="12">
+        <v>1</v>
+      </c>
+      <c r="U737" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="V737" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W737" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X737" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y737" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z737" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="738" customHeight="1" spans="1:20">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1">
+        <v>240531006</v>
+      </c>
+      <c r="C738" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E738" s="4">
+        <v>22</v>
+      </c>
+      <c r="F738" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G738" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H738" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I738" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J738" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K738" s="8">
+        <v>356</v>
+      </c>
+      <c r="L738" s="8">
+        <v>13</v>
+      </c>
+      <c r="N738" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T738" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" customHeight="1" spans="1:20">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1">
+        <v>240531007</v>
+      </c>
+      <c r="C739" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E739" s="4">
+        <v>22</v>
+      </c>
+      <c r="F739" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G739" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H739" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I739" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J739" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K739" s="8">
+        <v>576</v>
+      </c>
+      <c r="L739" s="8">
+        <v>13</v>
+      </c>
+      <c r="N739" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T739" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" customHeight="1" spans="1:20">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1">
+        <v>240531008</v>
+      </c>
+      <c r="C740" s="3">
+        <v>45443</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E740" s="4">
+        <v>22</v>
+      </c>
+      <c r="F740" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G740" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H740" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I740" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J740" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K740" s="8">
+        <v>418</v>
+      </c>
+      <c r="L740" s="8">
+        <v>32</v>
+      </c>
+      <c r="N740" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T740" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" customHeight="1" spans="1:26">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1">
+        <v>240601001</v>
+      </c>
+      <c r="C741" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E741" s="4">
+        <v>22</v>
+      </c>
+      <c r="F741" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G741" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H741" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I741" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J741" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K741" s="8">
+        <v>16</v>
+      </c>
+      <c r="L741" s="8">
+        <v>8</v>
+      </c>
+      <c r="M741" s="9">
+        <v>2</v>
+      </c>
+      <c r="N741" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O741" s="11">
+        <v>1</v>
+      </c>
+      <c r="T741" s="12">
+        <v>1</v>
+      </c>
+      <c r="U741" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="V741" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W741" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X741" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y741" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z741" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="742" customHeight="1" spans="1:26">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1">
+        <v>240601001</v>
+      </c>
+      <c r="C742" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E742" s="4">
+        <v>22</v>
+      </c>
+      <c r="F742" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G742" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H742" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I742" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J742" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O742" s="11">
+        <v>1</v>
+      </c>
+      <c r="T742" s="12">
+        <v>1</v>
+      </c>
+      <c r="U742" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="V742" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W742" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X742" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y742" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z742" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -50989,10 +52000,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -51013,7 +52024,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -51053,7 +52064,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -51061,15 +52072,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -51093,7 +52104,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -51109,18 +52120,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -51133,7 +52144,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -51141,7 +52152,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -51157,7 +52168,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -51165,15 +52176,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B24" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -51197,7 +52208,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -51237,10 +52248,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B33" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -51261,7 +52272,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -51277,7 +52288,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -51309,7 +52320,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -51317,7 +52328,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -51325,7 +52336,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -51373,26 +52384,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B50" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B51" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -51445,7 +52456,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -51461,7 +52472,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11720"/>
+    <workbookView windowWidth="27660" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="数据源" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,28 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$742</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$746</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6431" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6471" uniqueCount="645">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1873,6 +1886,12 @@
   </si>
   <si>
     <t>前面板侧面划伤</t>
+  </si>
+  <si>
+    <t>漏贴封口贴</t>
+  </si>
+  <si>
+    <t>批量漏贴封口贴，批量电池盒盖有缩水印，发白</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -5024,9 +5043,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE742" totalsRowShown="0">
-  <autoFilter ref="A2:AE742"/>
-  <sortState ref="A2:AE742">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE746" totalsRowShown="0">
+  <autoFilter ref="A2:AE746"/>
+  <sortState ref="A2:AE746">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -5318,12 +5337,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE742"/>
+  <dimension ref="A1:AE746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q737" sqref="Q737"/>
+      <selection pane="bottomLeft" activeCell="J749" sqref="J749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -5499,7 +5518,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="22">
-        <f t="shared" ref="E3:E66" si="0">WEEKNUM(C3,1)</f>
+        <f>WEEKNUM(C3,1)</f>
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -5533,7 +5552,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f t="shared" ref="T3:T27" si="1">SUM(O3:S3)</f>
+        <f>SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -5562,7 +5581,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C4,1)</f>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -5596,7 +5615,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O4:S4)</f>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -5625,7 +5644,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C5,1)</f>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -5659,7 +5678,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O5:S5)</f>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -5688,7 +5707,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C6,1)</f>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -5722,7 +5741,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O6:S6)</f>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -5751,7 +5770,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C7,1)</f>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -5789,7 +5808,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O7:S7)</f>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -5830,7 +5849,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C8,1)</f>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -5860,7 +5879,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O8:S8)</f>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -5901,7 +5920,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C9,1)</f>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -5935,7 +5954,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O9:S9)</f>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -5964,7 +5983,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C10,1)</f>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -6002,7 +6021,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O10:S10)</f>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -6045,7 +6064,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C11,1)</f>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -6079,7 +6098,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O11:S11)</f>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -6108,7 +6127,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C12,1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -6142,7 +6161,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O12:S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -6171,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C13,1)</f>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -6205,7 +6224,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O13:S13)</f>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -6234,7 +6253,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C14,1)</f>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -6272,7 +6291,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O14:S14)</f>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -6315,7 +6334,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C15,1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -6345,7 +6364,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O15:S15)</f>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -6386,7 +6405,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C16,1)</f>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -6424,7 +6443,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O16:S16)</f>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -6465,7 +6484,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C17,1)</f>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -6495,7 +6514,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O17:S17)</f>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -6536,7 +6555,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C18,1)</f>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -6574,7 +6593,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O18:S18)</f>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -6615,7 +6634,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C19,1)</f>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -6645,7 +6664,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O19:S19)</f>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -6686,7 +6705,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C20,1)</f>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -6720,7 +6739,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O20:S20)</f>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -6749,7 +6768,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C21,1)</f>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -6783,7 +6802,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(O21:S21)</f>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -6812,7 +6831,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C22,1)</f>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -6850,7 +6869,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O22:S22)</f>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -6891,7 +6910,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C23,1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -6921,7 +6940,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O23:S23)</f>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -6962,7 +6981,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C24,1)</f>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -6996,7 +7015,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O24:S24)</f>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -7025,7 +7044,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C25,1)</f>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -7059,7 +7078,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O25:S25)</f>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -7088,7 +7107,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C26,1)</f>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -7122,7 +7141,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O26:S26)</f>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -7151,7 +7170,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C27,1)</f>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -7185,7 +7204,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f t="shared" si="1"/>
+        <f>SUM(O27:S27)</f>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -7214,7 +7233,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C28,1)</f>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -7277,7 +7296,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C29,1)</f>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -7340,7 +7359,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C30,1)</f>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -7419,7 +7438,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C31,1)</f>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -7498,7 +7517,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C32,1)</f>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -7561,7 +7580,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C33,1)</f>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -7640,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C34,1)</f>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -7703,7 +7722,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C35,1)</f>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -7766,7 +7785,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C36,1)</f>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -7829,7 +7848,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C37,1)</f>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -7908,7 +7927,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C38,1)</f>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -7946,7 +7965,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f t="shared" ref="T38:T74" si="2">SUM(O38:S38)</f>
+        <f>SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -7987,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C39,1)</f>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -8021,7 +8040,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O39:S39)</f>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -8050,7 +8069,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C40,1)</f>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -8090,7 +8109,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O40:S40)</f>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -8131,7 +8150,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C41,1)</f>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -8169,7 +8188,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O41:S41)</f>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -8210,7 +8229,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C42,1)</f>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -8240,7 +8259,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O42:S42)</f>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -8281,7 +8300,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C43,1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -8319,7 +8338,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O43:S43)</f>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -8360,7 +8379,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C44,1)</f>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -8394,7 +8413,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O44:S44)</f>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -8423,7 +8442,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C45,1)</f>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -8457,7 +8476,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O45:S45)</f>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -8486,7 +8505,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C46,1)</f>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -8520,7 +8539,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O46:S46)</f>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -8549,7 +8568,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C47,1)</f>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -8583,7 +8602,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O47:S47)</f>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -8612,7 +8631,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C48,1)</f>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -8646,7 +8665,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O48:S48)</f>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -8675,7 +8694,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C49,1)</f>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -8709,7 +8728,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O49:S49)</f>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -8738,7 +8757,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C50,1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -8776,7 +8795,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O50:S50)</f>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -8817,7 +8836,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C51,1)</f>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -8851,7 +8870,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O51:S51)</f>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -8880,7 +8899,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C52,1)</f>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -8918,7 +8937,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O52:S52)</f>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -8959,7 +8978,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C53,1)</f>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -8989,7 +9008,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O53:S53)</f>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -9030,7 +9049,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C54,1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -9068,7 +9087,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O54:S54)</f>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -9109,7 +9128,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C55,1)</f>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -9143,7 +9162,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O55:S55)</f>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -9172,7 +9191,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C56,1)</f>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -9206,7 +9225,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O56:S56)</f>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -9235,7 +9254,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C57,1)</f>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -9269,7 +9288,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O57:S57)</f>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -9298,7 +9317,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C58,1)</f>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -9332,7 +9351,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O58:S58)</f>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -9361,7 +9380,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C59,1)</f>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -9395,7 +9414,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O59:S59)</f>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -9424,7 +9443,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C60,1)</f>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -9462,7 +9481,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O60:S60)</f>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -9503,7 +9522,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C61,1)</f>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -9537,7 +9556,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O61:S61)</f>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -9566,7 +9585,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C62,1)</f>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -9600,7 +9619,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O62:S62)</f>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -9629,7 +9648,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C63,1)</f>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -9667,7 +9686,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O63:S63)</f>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -9708,7 +9727,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C64,1)</f>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -9738,7 +9757,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O64:S64)</f>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -9779,7 +9798,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C65,1)</f>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -9817,7 +9836,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O65:S65)</f>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -9858,7 +9877,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C66,1)</f>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -9888,7 +9907,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O66:S66)</f>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -9929,7 +9948,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f t="shared" ref="E67:E130" si="3">WEEKNUM(C67,1)</f>
+        <f>WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -9967,7 +9986,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O67:S67)</f>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -10008,7 +10027,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C68,1)</f>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -10046,7 +10065,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O68:S68)</f>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -10087,7 +10106,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C69,1)</f>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -10121,7 +10140,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O69:S69)</f>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -10150,7 +10169,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C70,1)</f>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -10184,7 +10203,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O70:S70)</f>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -10213,7 +10232,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C71,1)</f>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -10247,7 +10266,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O71:S71)</f>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -10276,7 +10295,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C72,1)</f>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -10310,7 +10329,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O72:S72)</f>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -10339,7 +10358,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C73,1)</f>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -10377,7 +10396,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O73:S73)</f>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -10418,7 +10437,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C74,1)</f>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -10452,7 +10471,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f t="shared" si="2"/>
+        <f>SUM(O74:S74)</f>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -10481,7 +10500,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C75,1)</f>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -10559,7 +10578,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C76,1)</f>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -10637,7 +10656,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C77,1)</f>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -10707,7 +10726,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C78,1)</f>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -10769,7 +10788,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C79,1)</f>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -10831,7 +10850,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C80,1)</f>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -10893,7 +10912,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C81,1)</f>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -10955,7 +10974,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C82,1)</f>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -11017,7 +11036,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C83,1)</f>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -11079,7 +11098,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C84,1)</f>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -11157,7 +11176,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C85,1)</f>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -11219,7 +11238,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C86,1)</f>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -11281,7 +11300,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C87,1)</f>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -11343,7 +11362,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C88,1)</f>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -11405,7 +11424,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C89,1)</f>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -11467,7 +11486,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C90,1)</f>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -11545,7 +11564,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C91,1)</f>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -11623,7 +11642,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C92,1)</f>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -11701,7 +11720,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C93,1)</f>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -11763,7 +11782,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C94,1)</f>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -11825,7 +11844,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C95,1)</f>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -11887,7 +11906,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C96,1)</f>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -11965,7 +11984,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C97,1)</f>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -12027,7 +12046,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C98,1)</f>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -12089,7 +12108,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C99,1)</f>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -12151,7 +12170,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C100,1)</f>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -12227,7 +12246,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C101,1)</f>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -12289,7 +12308,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C102,1)</f>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -12367,7 +12386,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C103,1)</f>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -12429,7 +12448,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C104,1)</f>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -12491,7 +12510,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C105,1)</f>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -12553,7 +12572,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C106,1)</f>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -12631,7 +12650,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C107,1)</f>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -12709,7 +12728,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C108,1)</f>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -12777,7 +12796,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C109,1)</f>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -12839,7 +12858,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C110,1)</f>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -12901,7 +12920,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C111,1)</f>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -12963,7 +12982,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C112,1)</f>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -13041,7 +13060,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C113,1)</f>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -13111,7 +13130,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C114,1)</f>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -13173,7 +13192,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C115,1)</f>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -13235,7 +13254,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C116,1)</f>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -13313,7 +13332,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C117,1)</f>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -13391,7 +13410,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C118,1)</f>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -13469,7 +13488,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C119,1)</f>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -13547,7 +13566,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C120,1)</f>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -13609,7 +13628,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C121,1)</f>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -13687,7 +13706,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C122,1)</f>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -13749,7 +13768,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C123,1)</f>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -13811,7 +13830,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C124,1)</f>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -13889,7 +13908,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C125,1)</f>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -13949,7 +13968,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C126,1)</f>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -14009,7 +14028,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C127,1)</f>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -14069,7 +14088,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C128,1)</f>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -14129,7 +14148,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C129,1)</f>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -14189,7 +14208,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f t="shared" si="3"/>
+        <f>WEEKNUM(C130,1)</f>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -14249,7 +14268,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f t="shared" ref="E131:E175" si="4">WEEKNUM(C131,1)</f>
+        <f>WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -14309,7 +14328,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C132,1)</f>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -14369,7 +14388,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C133,1)</f>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -14429,7 +14448,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C134,1)</f>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -14489,7 +14508,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C135,1)</f>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -14567,7 +14586,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C136,1)</f>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -14629,7 +14648,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C137,1)</f>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -14691,7 +14710,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C138,1)</f>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -14769,7 +14788,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C139,1)</f>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -14847,7 +14866,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C140,1)</f>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -14917,7 +14936,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C141,1)</f>
         <v>10</v>
       </c>
       <c r="F141" s="57" t="s">
@@ -14979,7 +14998,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C142,1)</f>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -15041,7 +15060,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C143,1)</f>
         <v>10</v>
       </c>
       <c r="F143" s="57" t="s">
@@ -15119,7 +15138,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C144,1)</f>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -15189,7 +15208,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C145,1)</f>
         <v>10</v>
       </c>
       <c r="F145" s="57" t="s">
@@ -15251,7 +15270,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C146,1)</f>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -15313,7 +15332,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C147,1)</f>
         <v>10</v>
       </c>
       <c r="F147" s="57" t="s">
@@ -15375,7 +15394,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C148,1)</f>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -15437,7 +15456,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C149,1)</f>
         <v>10</v>
       </c>
       <c r="F149" s="57" t="s">
@@ -15499,7 +15518,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C150,1)</f>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -15577,7 +15596,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C151,1)</f>
         <v>10</v>
       </c>
       <c r="F151" s="57" t="s">
@@ -15647,7 +15666,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C152,1)</f>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -15725,7 +15744,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C153,1)</f>
         <v>10</v>
       </c>
       <c r="F153" s="57" t="s">
@@ -15795,7 +15814,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C154,1)</f>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -15857,7 +15876,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C155,1)</f>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -15935,7 +15954,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C156,1)</f>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -15997,7 +16016,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C157,1)</f>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -16059,7 +16078,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C158,1)</f>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -16121,7 +16140,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C159,1)</f>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -16183,7 +16202,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C160,1)</f>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -16245,7 +16264,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C161,1)</f>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -16307,7 +16326,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C162,1)</f>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -16369,7 +16388,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C163,1)</f>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -16431,7 +16450,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C164,1)</f>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -16493,7 +16512,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C165,1)</f>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -16555,7 +16574,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C166,1)</f>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -16617,7 +16636,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C167,1)</f>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -16679,7 +16698,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C168,1)</f>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -16741,7 +16760,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C169,1)</f>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -16803,7 +16822,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C170,1)</f>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -16881,7 +16900,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C171,1)</f>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -16943,7 +16962,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C172,1)</f>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -17005,7 +17024,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C173,1)</f>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -17067,7 +17086,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C174,1)</f>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -17129,7 +17148,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(C175,1)</f>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -17329,7 +17348,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="61">
-        <f t="shared" ref="E178:E241" si="5">IF(C178="","",WEEKNUM(C178,1))</f>
+        <f>IF(C178="","",WEEKNUM(C178,1))</f>
         <v>11</v>
       </c>
       <c r="F178" s="22" t="s">
@@ -17364,7 +17383,7 @@
       <c r="R178" s="22"/>
       <c r="S178" s="22"/>
       <c r="T178" s="22">
-        <f t="shared" ref="T178:T197" si="6">SUM(O178:S178)</f>
+        <f>SUM(O178:S178)</f>
         <v>0</v>
       </c>
       <c r="U178" s="11"/>
@@ -17393,7 +17412,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C179="","",WEEKNUM(C179,1))</f>
         <v>11</v>
       </c>
       <c r="F179" s="22" t="s">
@@ -17428,7 +17447,7 @@
       <c r="R179" s="22"/>
       <c r="S179" s="22"/>
       <c r="T179" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O179:S179)</f>
         <v>0</v>
       </c>
       <c r="U179" s="11"/>
@@ -17457,7 +17476,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C180="","",WEEKNUM(C180,1))</f>
         <v>11</v>
       </c>
       <c r="F180" s="22" t="s">
@@ -17492,7 +17511,7 @@
       <c r="R180" s="22"/>
       <c r="S180" s="22"/>
       <c r="T180" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O180:S180)</f>
         <v>0</v>
       </c>
       <c r="U180" s="11"/>
@@ -17521,7 +17540,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C181="","",WEEKNUM(C181,1))</f>
         <v>11</v>
       </c>
       <c r="F181" s="22" t="s">
@@ -17556,7 +17575,7 @@
       <c r="R181" s="22"/>
       <c r="S181" s="22"/>
       <c r="T181" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O181:S181)</f>
         <v>0</v>
       </c>
       <c r="U181" s="11"/>
@@ -17585,7 +17604,7 @@
         <v>230</v>
       </c>
       <c r="E182" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C182="","",WEEKNUM(C182,1))</f>
         <v>11</v>
       </c>
       <c r="F182" s="22" t="s">
@@ -17620,7 +17639,7 @@
       <c r="R182" s="22"/>
       <c r="S182" s="22"/>
       <c r="T182" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O182:S182)</f>
         <v>0</v>
       </c>
       <c r="U182" s="11"/>
@@ -17649,7 +17668,7 @@
         <v>230</v>
       </c>
       <c r="E183" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C183="","",WEEKNUM(C183,1))</f>
         <v>11</v>
       </c>
       <c r="F183" s="22" t="s">
@@ -17688,7 +17707,7 @@
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
       <c r="T183" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O183:S183)</f>
         <v>1</v>
       </c>
       <c r="U183" s="11" t="s">
@@ -17731,7 +17750,7 @@
         <v>230</v>
       </c>
       <c r="E184" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C184="","",WEEKNUM(C184,1))</f>
         <v>11</v>
       </c>
       <c r="F184" s="22" t="s">
@@ -17762,7 +17781,7 @@
       <c r="R184" s="22"/>
       <c r="S184" s="22"/>
       <c r="T184" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O184:S184)</f>
         <v>1</v>
       </c>
       <c r="U184" s="11" t="s">
@@ -17803,7 +17822,7 @@
         <v>230</v>
       </c>
       <c r="E185" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C185="","",WEEKNUM(C185,1))</f>
         <v>11</v>
       </c>
       <c r="F185" s="22" t="s">
@@ -17838,7 +17857,7 @@
       <c r="R185" s="22"/>
       <c r="S185" s="22"/>
       <c r="T185" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O185:S185)</f>
         <v>0</v>
       </c>
       <c r="U185" s="11"/>
@@ -17867,7 +17886,7 @@
         <v>230</v>
       </c>
       <c r="E186" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C186="","",WEEKNUM(C186,1))</f>
         <v>11</v>
       </c>
       <c r="F186" s="22" t="s">
@@ -17906,7 +17925,7 @@
       <c r="R186" s="22"/>
       <c r="S186" s="22"/>
       <c r="T186" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O186:S186)</f>
         <v>1</v>
       </c>
       <c r="U186" s="11" t="s">
@@ -17947,7 +17966,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C187="","",WEEKNUM(C187,1))</f>
         <v>11</v>
       </c>
       <c r="F187" s="22" t="s">
@@ -17982,7 +18001,7 @@
       <c r="R187" s="22"/>
       <c r="S187" s="22"/>
       <c r="T187" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O187:S187)</f>
         <v>0</v>
       </c>
       <c r="U187" s="11"/>
@@ -18011,7 +18030,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C188="","",WEEKNUM(C188,1))</f>
         <v>11</v>
       </c>
       <c r="F188" s="22" t="s">
@@ -18046,7 +18065,7 @@
       <c r="R188" s="22"/>
       <c r="S188" s="22"/>
       <c r="T188" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O188:S188)</f>
         <v>0</v>
       </c>
       <c r="U188" s="11"/>
@@ -18075,7 +18094,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C189="","",WEEKNUM(C189,1))</f>
         <v>11</v>
       </c>
       <c r="F189" s="22" t="s">
@@ -18110,7 +18129,7 @@
       <c r="R189" s="22"/>
       <c r="S189" s="22"/>
       <c r="T189" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O189:S189)</f>
         <v>0</v>
       </c>
       <c r="U189" s="11"/>
@@ -18139,7 +18158,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C190="","",WEEKNUM(C190,1))</f>
         <v>11</v>
       </c>
       <c r="F190" s="40" t="s">
@@ -18174,7 +18193,7 @@
       <c r="R190" s="22"/>
       <c r="S190" s="22"/>
       <c r="T190" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O190:S190)</f>
         <v>0</v>
       </c>
       <c r="U190" s="11"/>
@@ -18203,7 +18222,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C191="","",WEEKNUM(C191,1))</f>
         <v>11</v>
       </c>
       <c r="F191" s="22" t="s">
@@ -18238,7 +18257,7 @@
       <c r="R191" s="22"/>
       <c r="S191" s="22"/>
       <c r="T191" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O191:S191)</f>
         <v>0</v>
       </c>
       <c r="U191" s="11"/>
@@ -18267,7 +18286,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C192="","",WEEKNUM(C192,1))</f>
         <v>11</v>
       </c>
       <c r="F192" s="22" t="s">
@@ -18302,7 +18321,7 @@
       <c r="R192" s="22"/>
       <c r="S192" s="22"/>
       <c r="T192" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O192:S192)</f>
         <v>0</v>
       </c>
       <c r="U192" s="11"/>
@@ -18331,7 +18350,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C193="","",WEEKNUM(C193,1))</f>
         <v>11</v>
       </c>
       <c r="F193" s="22" t="s">
@@ -18370,7 +18389,7 @@
       </c>
       <c r="S193" s="22"/>
       <c r="T193" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O193:S193)</f>
         <v>1</v>
       </c>
       <c r="U193" s="11" t="s">
@@ -18413,7 +18432,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C194="","",WEEKNUM(C194,1))</f>
         <v>11</v>
       </c>
       <c r="F194" s="22" t="s">
@@ -18448,7 +18467,7 @@
       <c r="R194" s="22"/>
       <c r="S194" s="22"/>
       <c r="T194" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O194:S194)</f>
         <v>0</v>
       </c>
       <c r="U194" s="11"/>
@@ -18477,7 +18496,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C195="","",WEEKNUM(C195,1))</f>
         <v>11</v>
       </c>
       <c r="F195" s="22" t="s">
@@ -18512,7 +18531,7 @@
       <c r="R195" s="22"/>
       <c r="S195" s="22"/>
       <c r="T195" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O195:S195)</f>
         <v>0</v>
       </c>
       <c r="U195" s="11"/>
@@ -18541,7 +18560,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C196="","",WEEKNUM(C196,1))</f>
         <v>12</v>
       </c>
       <c r="F196" s="22" t="s">
@@ -18576,7 +18595,7 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O196:S196)</f>
         <v>0</v>
       </c>
       <c r="U196" s="27"/>
@@ -18605,7 +18624,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C197="","",WEEKNUM(C197,1))</f>
         <v>12</v>
       </c>
       <c r="F197" s="22" t="s">
@@ -18644,7 +18663,7 @@
       <c r="R197" s="22"/>
       <c r="S197" s="22"/>
       <c r="T197" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(O197:S197)</f>
         <v>1</v>
       </c>
       <c r="U197" s="27" t="s">
@@ -18685,7 +18704,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C198="","",WEEKNUM(C198,1))</f>
         <v>12</v>
       </c>
       <c r="F198" s="22" t="s">
@@ -18746,7 +18765,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C199="","",WEEKNUM(C199,1))</f>
         <v>12</v>
       </c>
       <c r="F199" s="22" t="s">
@@ -18781,7 +18800,7 @@
       <c r="R199" s="22"/>
       <c r="S199" s="22"/>
       <c r="T199" s="22">
-        <f t="shared" ref="T199:T208" si="7">SUM(O199:S199)</f>
+        <f>SUM(O199:S199)</f>
         <v>0</v>
       </c>
       <c r="U199" s="27"/>
@@ -18812,7 +18831,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C200="","",WEEKNUM(C200,1))</f>
         <v>12</v>
       </c>
       <c r="F200" s="22" t="s">
@@ -18847,7 +18866,7 @@
       <c r="R200" s="22"/>
       <c r="S200" s="22"/>
       <c r="T200" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O200:S200)</f>
         <v>0</v>
       </c>
       <c r="U200" s="27"/>
@@ -18876,7 +18895,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C201="","",WEEKNUM(C201,1))</f>
         <v>12</v>
       </c>
       <c r="F201" s="22" t="s">
@@ -18915,7 +18934,7 @@
       <c r="R201" s="22"/>
       <c r="S201" s="22"/>
       <c r="T201" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O201:S201)</f>
         <v>1</v>
       </c>
       <c r="U201" s="27" t="s">
@@ -18958,7 +18977,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C202="","",WEEKNUM(C202,1))</f>
         <v>12</v>
       </c>
       <c r="F202" s="22" t="s">
@@ -18997,7 +19016,7 @@
       <c r="R202" s="22"/>
       <c r="S202" s="22"/>
       <c r="T202" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O202:S202)</f>
         <v>1</v>
       </c>
       <c r="U202" s="27" t="s">
@@ -19038,7 +19057,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C203="","",WEEKNUM(C203,1))</f>
         <v>12</v>
       </c>
       <c r="F203" s="22" t="s">
@@ -19073,7 +19092,7 @@
       <c r="R203" s="22"/>
       <c r="S203" s="22"/>
       <c r="T203" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O203:S203)</f>
         <v>0</v>
       </c>
       <c r="U203" s="27"/>
@@ -19102,7 +19121,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C204="","",WEEKNUM(C204,1))</f>
         <v>12</v>
       </c>
       <c r="F204" s="22" t="s">
@@ -19137,7 +19156,7 @@
       <c r="R204" s="22"/>
       <c r="S204" s="22"/>
       <c r="T204" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O204:S204)</f>
         <v>0</v>
       </c>
       <c r="U204" s="27"/>
@@ -19166,7 +19185,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C205="","",WEEKNUM(C205,1))</f>
         <v>12</v>
       </c>
       <c r="F205" s="22" t="s">
@@ -19205,7 +19224,7 @@
         <v>2</v>
       </c>
       <c r="T205" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O205:S205)</f>
         <v>2</v>
       </c>
       <c r="U205" s="27" t="s">
@@ -19246,7 +19265,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C206="","",WEEKNUM(C206,1))</f>
         <v>12</v>
       </c>
       <c r="F206" s="22" t="s">
@@ -19277,7 +19296,7 @@
       <c r="R206" s="22"/>
       <c r="S206" s="22"/>
       <c r="T206" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O206:S206)</f>
         <v>1</v>
       </c>
       <c r="U206" s="27" t="s">
@@ -19318,7 +19337,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C207="","",WEEKNUM(C207,1))</f>
         <v>12</v>
       </c>
       <c r="F207" s="22" t="s">
@@ -19353,7 +19372,7 @@
       <c r="R207" s="22"/>
       <c r="S207" s="22"/>
       <c r="T207" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O207:S207)</f>
         <v>0</v>
       </c>
       <c r="U207" s="27"/>
@@ -19382,7 +19401,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C208="","",WEEKNUM(C208,1))</f>
         <v>12</v>
       </c>
       <c r="F208" s="22" t="s">
@@ -19421,7 +19440,7 @@
       <c r="R208" s="22"/>
       <c r="S208" s="22"/>
       <c r="T208" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(O208:S208)</f>
         <v>1</v>
       </c>
       <c r="U208" s="27" t="s">
@@ -19464,7 +19483,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C209="","",WEEKNUM(C209,1))</f>
         <v>12</v>
       </c>
       <c r="F209" s="22" t="s">
@@ -19533,7 +19552,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C210="","",WEEKNUM(C210,1))</f>
         <v>12</v>
       </c>
       <c r="F210" s="22" t="s">
@@ -19613,7 +19632,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C211="","",WEEKNUM(C211,1))</f>
         <v>12</v>
       </c>
       <c r="F211" s="22" t="s">
@@ -19677,7 +19696,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C212="","",WEEKNUM(C212,1))</f>
         <v>12</v>
       </c>
       <c r="F212" s="22" t="s">
@@ -19738,7 +19757,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C213="","",WEEKNUM(C213,1))</f>
         <v>12</v>
       </c>
       <c r="F213" s="22" t="s">
@@ -19799,7 +19818,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C214="","",WEEKNUM(C214,1))</f>
         <v>12</v>
       </c>
       <c r="F214" s="22" t="s">
@@ -19860,7 +19879,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C215="","",WEEKNUM(C215,1))</f>
         <v>12</v>
       </c>
       <c r="F215" s="22" t="s">
@@ -19895,7 +19914,7 @@
       <c r="R215" s="22"/>
       <c r="S215" s="22"/>
       <c r="T215" s="22">
-        <f t="shared" ref="T215:T235" si="8">SUM(O215:S215)</f>
+        <f>SUM(O215:S215)</f>
         <v>0</v>
       </c>
       <c r="U215" s="27"/>
@@ -19924,7 +19943,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C216="","",WEEKNUM(C216,1))</f>
         <v>12</v>
       </c>
       <c r="F216" s="22" t="s">
@@ -19963,7 +19982,7 @@
       <c r="R216" s="22"/>
       <c r="S216" s="22"/>
       <c r="T216" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O216:S216)</f>
         <v>1</v>
       </c>
       <c r="U216" s="27" t="s">
@@ -20006,7 +20025,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C217="","",WEEKNUM(C217,1))</f>
         <v>12</v>
       </c>
       <c r="F217" s="22" t="s">
@@ -20041,7 +20060,7 @@
       <c r="R217" s="22"/>
       <c r="S217" s="22"/>
       <c r="T217" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O217:S217)</f>
         <v>0</v>
       </c>
       <c r="U217" s="27"/>
@@ -20070,7 +20089,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C218="","",WEEKNUM(C218,1))</f>
         <v>12</v>
       </c>
       <c r="F218" s="22" t="s">
@@ -20105,7 +20124,7 @@
       <c r="R218" s="22"/>
       <c r="S218" s="22"/>
       <c r="T218" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O218:S218)</f>
         <v>0</v>
       </c>
       <c r="U218" s="27"/>
@@ -20134,7 +20153,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C219="","",WEEKNUM(C219,1))</f>
         <v>12</v>
       </c>
       <c r="F219" s="22" t="s">
@@ -20173,7 +20192,7 @@
       <c r="R219" s="22"/>
       <c r="S219" s="22"/>
       <c r="T219" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O219:S219)</f>
         <v>1</v>
       </c>
       <c r="U219" s="27" t="s">
@@ -20214,7 +20233,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C220="","",WEEKNUM(C220,1))</f>
         <v>12</v>
       </c>
       <c r="F220" s="22" t="s">
@@ -20249,7 +20268,7 @@
       <c r="R220" s="22"/>
       <c r="S220" s="22"/>
       <c r="T220" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O220:S220)</f>
         <v>0</v>
       </c>
       <c r="U220" s="27"/>
@@ -20278,7 +20297,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C221="","",WEEKNUM(C221,1))</f>
         <v>12</v>
       </c>
       <c r="F221" s="22" t="s">
@@ -20313,7 +20332,7 @@
       <c r="R221" s="22"/>
       <c r="S221" s="22"/>
       <c r="T221" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O221:S221)</f>
         <v>0</v>
       </c>
       <c r="U221" s="27"/>
@@ -20342,7 +20361,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C222="","",WEEKNUM(C222,1))</f>
         <v>12</v>
       </c>
       <c r="F222" s="22" t="s">
@@ -20377,7 +20396,7 @@
       <c r="R222" s="22"/>
       <c r="S222" s="22"/>
       <c r="T222" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O222:S222)</f>
         <v>0</v>
       </c>
       <c r="U222" s="27"/>
@@ -20406,7 +20425,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C223="","",WEEKNUM(C223,1))</f>
         <v>12</v>
       </c>
       <c r="F223" s="22" t="s">
@@ -20445,7 +20464,7 @@
       <c r="R223" s="22"/>
       <c r="S223" s="22"/>
       <c r="T223" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O223:S223)</f>
         <v>1</v>
       </c>
       <c r="U223" s="27" t="s">
@@ -20486,7 +20505,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C224="","",WEEKNUM(C224,1))</f>
         <v>12</v>
       </c>
       <c r="F224" s="22" t="s">
@@ -20521,7 +20540,7 @@
       <c r="R224" s="22"/>
       <c r="S224" s="22"/>
       <c r="T224" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O224:S224)</f>
         <v>0</v>
       </c>
       <c r="U224" s="27"/>
@@ -20550,7 +20569,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C225="","",WEEKNUM(C225,1))</f>
         <v>12</v>
       </c>
       <c r="F225" s="22" t="s">
@@ -20589,7 +20608,7 @@
       <c r="R225" s="22"/>
       <c r="S225" s="22"/>
       <c r="T225" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O225:S225)</f>
         <v>1</v>
       </c>
       <c r="U225" s="27" t="s">
@@ -20630,7 +20649,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C226="","",WEEKNUM(C226,1))</f>
         <v>12</v>
       </c>
       <c r="F226" s="22" t="s">
@@ -20665,7 +20684,7 @@
       <c r="R226" s="22"/>
       <c r="S226" s="22"/>
       <c r="T226" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O226:S226)</f>
         <v>0</v>
       </c>
       <c r="U226" s="27"/>
@@ -20694,7 +20713,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C227="","",WEEKNUM(C227,1))</f>
         <v>12</v>
       </c>
       <c r="F227" s="22" t="s">
@@ -20733,7 +20752,7 @@
       </c>
       <c r="S227" s="22"/>
       <c r="T227" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O227:S227)</f>
         <v>1</v>
       </c>
       <c r="U227" s="27" t="s">
@@ -20774,7 +20793,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C228="","",WEEKNUM(C228,1))</f>
         <v>12</v>
       </c>
       <c r="F228" s="22" t="s">
@@ -20809,7 +20828,7 @@
       <c r="R228" s="22"/>
       <c r="S228" s="22"/>
       <c r="T228" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O228:S228)</f>
         <v>0</v>
       </c>
       <c r="U228" s="27"/>
@@ -20838,7 +20857,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C229="","",WEEKNUM(C229,1))</f>
         <v>12</v>
       </c>
       <c r="F229" s="22" t="s">
@@ -20873,7 +20892,7 @@
       <c r="R229" s="22"/>
       <c r="S229" s="22"/>
       <c r="T229" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O229:S229)</f>
         <v>0</v>
       </c>
       <c r="U229" s="27"/>
@@ -20902,7 +20921,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C230="","",WEEKNUM(C230,1))</f>
         <v>12</v>
       </c>
       <c r="F230" s="22" t="s">
@@ -20941,7 +20960,7 @@
       <c r="R230" s="22"/>
       <c r="S230" s="22"/>
       <c r="T230" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O230:S230)</f>
         <v>1</v>
       </c>
       <c r="U230" s="27" t="s">
@@ -20982,7 +21001,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C231="","",WEEKNUM(C231,1))</f>
         <v>13</v>
       </c>
       <c r="F231" s="22" t="s">
@@ -21017,7 +21036,7 @@
       <c r="R231" s="22"/>
       <c r="S231" s="22"/>
       <c r="T231" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O231:S231)</f>
         <v>0</v>
       </c>
       <c r="U231" s="27"/>
@@ -21046,7 +21065,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C232="","",WEEKNUM(C232,1))</f>
         <v>13</v>
       </c>
       <c r="F232" s="22" t="s">
@@ -21081,7 +21100,7 @@
       <c r="R232" s="22"/>
       <c r="S232" s="22"/>
       <c r="T232" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O232:S232)</f>
         <v>0</v>
       </c>
       <c r="U232" s="27"/>
@@ -21110,7 +21129,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C233="","",WEEKNUM(C233,1))</f>
         <v>13</v>
       </c>
       <c r="F233" s="22" t="s">
@@ -21145,7 +21164,7 @@
       <c r="R233" s="22"/>
       <c r="S233" s="22"/>
       <c r="T233" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O233:S233)</f>
         <v>0</v>
       </c>
       <c r="U233" s="27"/>
@@ -21174,7 +21193,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C234="","",WEEKNUM(C234,1))</f>
         <v>13</v>
       </c>
       <c r="F234" s="22" t="s">
@@ -21209,7 +21228,7 @@
       <c r="R234" s="22"/>
       <c r="S234" s="22"/>
       <c r="T234" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O234:S234)</f>
         <v>0</v>
       </c>
       <c r="U234" s="27"/>
@@ -21238,7 +21257,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C235="","",WEEKNUM(C235,1))</f>
         <v>13</v>
       </c>
       <c r="F235" s="22" t="s">
@@ -21277,7 +21296,7 @@
       <c r="R235" s="22"/>
       <c r="S235" s="22"/>
       <c r="T235" s="22">
-        <f t="shared" si="8"/>
+        <f>SUM(O235:S235)</f>
         <v>1</v>
       </c>
       <c r="U235" s="27" t="s">
@@ -21318,7 +21337,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="61">
-        <f t="shared" si="5"/>
+        <f>IF(C236="","",WEEKNUM(C236,1))</f>
         <v>13</v>
       </c>
       <c r="F236" s="22" t="s">
@@ -21379,7 +21398,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C237="","",WEEKNUM(C237,1))</f>
         <v>13</v>
       </c>
       <c r="F237" s="42" t="s">
@@ -21414,7 +21433,7 @@
       <c r="R237" s="42"/>
       <c r="S237" s="42"/>
       <c r="T237" s="42">
-        <f t="shared" ref="T237:T272" si="9">SUM(O237:S237)</f>
+        <f>SUM(O237:S237)</f>
         <v>0</v>
       </c>
       <c r="U237" s="38"/>
@@ -21443,7 +21462,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C238="","",WEEKNUM(C238,1))</f>
         <v>13</v>
       </c>
       <c r="F238" s="42" t="s">
@@ -21478,7 +21497,7 @@
       <c r="R238" s="42"/>
       <c r="S238" s="42"/>
       <c r="T238" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O238:S238)</f>
         <v>0</v>
       </c>
       <c r="U238" s="38"/>
@@ -21507,7 +21526,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C239="","",WEEKNUM(C239,1))</f>
         <v>13</v>
       </c>
       <c r="F239" s="42" t="s">
@@ -21542,7 +21561,7 @@
       <c r="R239" s="42"/>
       <c r="S239" s="42"/>
       <c r="T239" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O239:S239)</f>
         <v>0</v>
       </c>
       <c r="U239" s="38"/>
@@ -21571,7 +21590,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C240="","",WEEKNUM(C240,1))</f>
         <v>13</v>
       </c>
       <c r="F240" s="42" t="s">
@@ -21606,7 +21625,7 @@
       <c r="R240" s="42"/>
       <c r="S240" s="42"/>
       <c r="T240" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O240:S240)</f>
         <v>0</v>
       </c>
       <c r="U240" s="38"/>
@@ -21635,7 +21654,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="93">
-        <f t="shared" si="5"/>
+        <f>IF(C241="","",WEEKNUM(C241,1))</f>
         <v>13</v>
       </c>
       <c r="F241" s="42" t="s">
@@ -21674,7 +21693,7 @@
       <c r="R241" s="42"/>
       <c r="S241" s="42"/>
       <c r="T241" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O241:S241)</f>
         <v>1</v>
       </c>
       <c r="U241" s="38" t="s">
@@ -21715,7 +21734,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="93">
-        <f t="shared" ref="E242:E305" si="10">IF(C242="","",WEEKNUM(C242,1))</f>
+        <f>IF(C242="","",WEEKNUM(C242,1))</f>
         <v>13</v>
       </c>
       <c r="F242" s="42" t="s">
@@ -21750,7 +21769,7 @@
       <c r="R242" s="42"/>
       <c r="S242" s="42"/>
       <c r="T242" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O242:S242)</f>
         <v>0</v>
       </c>
       <c r="U242" s="38"/>
@@ -21779,7 +21798,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C243="","",WEEKNUM(C243,1))</f>
         <v>13</v>
       </c>
       <c r="F243" s="42" t="s">
@@ -21814,7 +21833,7 @@
       <c r="R243" s="42"/>
       <c r="S243" s="42"/>
       <c r="T243" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O243:S243)</f>
         <v>0</v>
       </c>
       <c r="U243" s="38"/>
@@ -21845,7 +21864,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C244="","",WEEKNUM(C244,1))</f>
         <v>13</v>
       </c>
       <c r="F244" s="42" t="s">
@@ -21880,7 +21899,7 @@
       <c r="R244" s="42"/>
       <c r="S244" s="42"/>
       <c r="T244" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O244:S244)</f>
         <v>0</v>
       </c>
       <c r="U244" s="38"/>
@@ -21911,7 +21930,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C245="","",WEEKNUM(C245,1))</f>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -21946,7 +21965,7 @@
       <c r="R245" s="42"/>
       <c r="S245" s="42"/>
       <c r="T245" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O245:S245)</f>
         <v>0</v>
       </c>
       <c r="U245" s="38"/>
@@ -21975,7 +21994,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C246="","",WEEKNUM(C246,1))</f>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -22010,7 +22029,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O246:S246)</f>
         <v>0</v>
       </c>
       <c r="U246" s="38"/>
@@ -22039,7 +22058,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C247="","",WEEKNUM(C247,1))</f>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -22074,7 +22093,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O247:S247)</f>
         <v>0</v>
       </c>
       <c r="U247" s="38"/>
@@ -22105,7 +22124,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C248="","",WEEKNUM(C248,1))</f>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -22140,7 +22159,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="12"/>
       <c r="T248" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O248:S248)</f>
         <v>0</v>
       </c>
       <c r="U248" s="36"/>
@@ -22169,7 +22188,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C249="","",WEEKNUM(C249,1))</f>
         <v>13</v>
       </c>
       <c r="F249" s="42" t="s">
@@ -22208,7 +22227,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="12"/>
       <c r="T249" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O249:S249)</f>
         <v>1</v>
       </c>
       <c r="U249" s="38" t="s">
@@ -22249,7 +22268,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C250="","",WEEKNUM(C250,1))</f>
         <v>13</v>
       </c>
       <c r="F250" s="42" t="s">
@@ -22280,7 +22299,7 @@
       <c r="R250" s="42"/>
       <c r="S250" s="42"/>
       <c r="T250" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O250:S250)</f>
         <v>1</v>
       </c>
       <c r="U250" s="38" t="s">
@@ -22321,7 +22340,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C251="","",WEEKNUM(C251,1))</f>
         <v>13</v>
       </c>
       <c r="F251" s="42" t="s">
@@ -22352,7 +22371,7 @@
       <c r="R251" s="42"/>
       <c r="S251" s="42"/>
       <c r="T251" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O251:S251)</f>
         <v>1</v>
       </c>
       <c r="U251" s="38" t="s">
@@ -22393,7 +22412,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="93">
-        <f t="shared" si="10"/>
+        <f>IF(C252="","",WEEKNUM(C252,1))</f>
         <v>13</v>
       </c>
       <c r="F252" s="42" t="s">
@@ -22432,7 +22451,7 @@
       <c r="R252" s="42"/>
       <c r="S252" s="42"/>
       <c r="T252" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O252:S252)</f>
         <v>1</v>
       </c>
       <c r="U252" s="38" t="s">
@@ -22473,7 +22492,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C253="","",WEEKNUM(C253,1))</f>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -22508,7 +22527,7 @@
       <c r="R253" s="22"/>
       <c r="S253" s="22"/>
       <c r="T253" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O253:S253)</f>
         <v>0</v>
       </c>
       <c r="U253" s="27"/>
@@ -22537,7 +22556,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C254="","",WEEKNUM(C254,1))</f>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -22576,7 +22595,7 @@
       <c r="R254" s="22"/>
       <c r="S254" s="22"/>
       <c r="T254" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O254:S254)</f>
         <v>1</v>
       </c>
       <c r="U254" s="27" t="s">
@@ -22617,7 +22636,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C255="","",WEEKNUM(C255,1))</f>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -22648,7 +22667,7 @@
       <c r="R255" s="22"/>
       <c r="S255" s="22"/>
       <c r="T255" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O255:S255)</f>
         <v>1</v>
       </c>
       <c r="U255" s="27" t="s">
@@ -22689,7 +22708,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C256="","",WEEKNUM(C256,1))</f>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -22724,7 +22743,7 @@
       <c r="R256" s="22"/>
       <c r="S256" s="22"/>
       <c r="T256" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O256:S256)</f>
         <v>0</v>
       </c>
       <c r="U256" s="27"/>
@@ -22753,7 +22772,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C257="","",WEEKNUM(C257,1))</f>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -22788,7 +22807,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O257:S257)</f>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -22817,7 +22836,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C258="","",WEEKNUM(C258,1))</f>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -22852,7 +22871,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O258:S258)</f>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -22881,7 +22900,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C259="","",WEEKNUM(C259,1))</f>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -22916,7 +22935,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O259:S259)</f>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -22945,7 +22964,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C260="","",WEEKNUM(C260,1))</f>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -22984,7 +23003,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O260:S260)</f>
         <v>1</v>
       </c>
       <c r="U260" s="36" t="s">
@@ -23027,7 +23046,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C261="","",WEEKNUM(C261,1))</f>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -23062,7 +23081,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O261:S261)</f>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -23091,7 +23110,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C262="","",WEEKNUM(C262,1))</f>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -23126,7 +23145,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O262:S262)</f>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -23155,7 +23174,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C263="","",WEEKNUM(C263,1))</f>
         <v>13</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -23190,7 +23209,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O263:S263)</f>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -23221,7 +23240,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C264="","",WEEKNUM(C264,1))</f>
         <v>13</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -23256,7 +23275,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O264:S264)</f>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -23285,7 +23304,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C265="","",WEEKNUM(C265,1))</f>
         <v>13</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -23320,7 +23339,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O265:S265)</f>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -23349,7 +23368,7 @@
         <v>230</v>
       </c>
       <c r="E266" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C266="","",WEEKNUM(C266,1))</f>
         <v>13</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -23384,7 +23403,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="12"/>
       <c r="T266" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O266:S266)</f>
         <v>0</v>
       </c>
       <c r="U266" s="36"/>
@@ -23413,7 +23432,7 @@
         <v>230</v>
       </c>
       <c r="E267" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C267="","",WEEKNUM(C267,1))</f>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -23448,7 +23467,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="12"/>
       <c r="T267" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O267:S267)</f>
         <v>0</v>
       </c>
       <c r="U267" s="36"/>
@@ -23477,7 +23496,7 @@
         <v>230</v>
       </c>
       <c r="E268" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C268="","",WEEKNUM(C268,1))</f>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -23512,7 +23531,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="12"/>
       <c r="T268" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O268:S268)</f>
         <v>0</v>
       </c>
       <c r="U268" s="36"/>
@@ -23541,7 +23560,7 @@
         <v>230</v>
       </c>
       <c r="E269" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C269="","",WEEKNUM(C269,1))</f>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -23576,7 +23595,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="12"/>
       <c r="T269" s="42">
-        <f t="shared" si="9"/>
+        <f>SUM(O269:S269)</f>
         <v>0</v>
       </c>
       <c r="U269" s="36"/>
@@ -23605,7 +23624,7 @@
         <v>356</v>
       </c>
       <c r="E270" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C270="","",WEEKNUM(C270,1))</f>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -23640,7 +23659,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O270:S270)</f>
         <v>0</v>
       </c>
       <c r="U270" s="27"/>
@@ -23669,7 +23688,7 @@
         <v>356</v>
       </c>
       <c r="E271" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C271="","",WEEKNUM(C271,1))</f>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -23704,7 +23723,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O271:S271)</f>
         <v>0</v>
       </c>
       <c r="U271" s="27"/>
@@ -23733,7 +23752,7 @@
         <v>356</v>
       </c>
       <c r="E272" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C272="","",WEEKNUM(C272,1))</f>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -23768,7 +23787,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f t="shared" si="9"/>
+        <f>SUM(O272:S272)</f>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -23797,7 +23816,7 @@
         <v>356</v>
       </c>
       <c r="E273" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C273="","",WEEKNUM(C273,1))</f>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -23858,7 +23877,7 @@
         <v>356</v>
       </c>
       <c r="E274" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C274="","",WEEKNUM(C274,1))</f>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -23897,7 +23916,7 @@
       <c r="R274" s="22"/>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f t="shared" ref="T274:T337" si="11">SUM(O274:S274)</f>
+        <f>SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -23938,7 +23957,7 @@
         <v>356</v>
       </c>
       <c r="E275" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C275="","",WEEKNUM(C275,1))</f>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -23969,7 +23988,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O275:S275)</f>
         <v>1</v>
       </c>
       <c r="U275" s="27" t="s">
@@ -24010,7 +24029,7 @@
         <v>356</v>
       </c>
       <c r="E276" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C276="","",WEEKNUM(C276,1))</f>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -24045,7 +24064,7 @@
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O276:S276)</f>
         <v>0</v>
       </c>
       <c r="U276" s="27"/>
@@ -24074,7 +24093,7 @@
         <v>356</v>
       </c>
       <c r="E277" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C277="","",WEEKNUM(C277,1))</f>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -24113,7 +24132,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O277:S277)</f>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -24154,7 +24173,7 @@
         <v>356</v>
       </c>
       <c r="E278" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C278="","",WEEKNUM(C278,1))</f>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -24193,7 +24212,7 @@
       </c>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O278:S278)</f>
         <v>1</v>
       </c>
       <c r="U278" s="27" t="s">
@@ -24234,7 +24253,7 @@
         <v>356</v>
       </c>
       <c r="E279" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C279="","",WEEKNUM(C279,1))</f>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -24269,7 +24288,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O279:S279)</f>
         <v>0</v>
       </c>
       <c r="U279" s="27"/>
@@ -24298,7 +24317,7 @@
         <v>356</v>
       </c>
       <c r="E280" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C280="","",WEEKNUM(C280,1))</f>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -24337,7 +24356,7 @@
       </c>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O280:S280)</f>
         <v>3</v>
       </c>
       <c r="U280" s="27" t="s">
@@ -24380,7 +24399,7 @@
         <v>356</v>
       </c>
       <c r="E281" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C281="","",WEEKNUM(C281,1))</f>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -24419,7 +24438,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O281:S281)</f>
         <v>1</v>
       </c>
       <c r="U281" s="27" t="s">
@@ -24462,7 +24481,7 @@
         <v>356</v>
       </c>
       <c r="E282" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C282="","",WEEKNUM(C282,1))</f>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -24497,7 +24516,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O282:S282)</f>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -24528,7 +24547,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C283="","",WEEKNUM(C283,1))</f>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -24567,7 +24586,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O283:S283)</f>
         <v>1</v>
       </c>
       <c r="U283" s="27" t="s">
@@ -24608,7 +24627,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C284="","",WEEKNUM(C284,1))</f>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -24643,7 +24662,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O284:S284)</f>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -24672,7 +24691,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C285="","",WEEKNUM(C285,1))</f>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -24707,7 +24726,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O285:S285)</f>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -24736,7 +24755,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C286="","",WEEKNUM(C286,1))</f>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -24771,7 +24790,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O286:S286)</f>
         <v>0</v>
       </c>
       <c r="U286" s="27"/>
@@ -24800,7 +24819,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C287="","",WEEKNUM(C287,1))</f>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -24835,7 +24854,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O287:S287)</f>
         <v>0</v>
       </c>
       <c r="U287" s="27"/>
@@ -24864,7 +24883,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C288="","",WEEKNUM(C288,1))</f>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -24899,7 +24918,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O288:S288)</f>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -24930,7 +24949,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C289="","",WEEKNUM(C289,1))</f>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -24965,7 +24984,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O289:S289)</f>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -24994,7 +25013,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C290="","",WEEKNUM(C290,1))</f>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -25033,7 +25052,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O290:S290)</f>
         <v>1</v>
       </c>
       <c r="U290" s="27" t="s">
@@ -25074,7 +25093,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C291="","",WEEKNUM(C291,1))</f>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -25105,7 +25124,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O291:S291)</f>
         <v>1</v>
       </c>
       <c r="U291" s="27" t="s">
@@ -25146,7 +25165,7 @@
         <v>356</v>
       </c>
       <c r="E292" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C292="","",WEEKNUM(C292,1))</f>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -25181,7 +25200,7 @@
       <c r="R292" s="22"/>
       <c r="S292" s="22"/>
       <c r="T292" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O292:S292)</f>
         <v>0</v>
       </c>
       <c r="U292" s="27"/>
@@ -25210,7 +25229,7 @@
         <v>356</v>
       </c>
       <c r="E293" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C293="","",WEEKNUM(C293,1))</f>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -25245,7 +25264,7 @@
       <c r="R293" s="22"/>
       <c r="S293" s="22"/>
       <c r="T293" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O293:S293)</f>
         <v>0</v>
       </c>
       <c r="U293" s="27"/>
@@ -25274,7 +25293,7 @@
         <v>356</v>
       </c>
       <c r="E294" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C294="","",WEEKNUM(C294,1))</f>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -25309,7 +25328,7 @@
       <c r="R294" s="22"/>
       <c r="S294" s="22"/>
       <c r="T294" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O294:S294)</f>
         <v>0</v>
       </c>
       <c r="U294" s="27"/>
@@ -25338,7 +25357,7 @@
         <v>356</v>
       </c>
       <c r="E295" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C295="","",WEEKNUM(C295,1))</f>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -25373,7 +25392,7 @@
       <c r="R295" s="22"/>
       <c r="S295" s="22"/>
       <c r="T295" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O295:S295)</f>
         <v>0</v>
       </c>
       <c r="U295" s="27"/>
@@ -25402,7 +25421,7 @@
         <v>356</v>
       </c>
       <c r="E296" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C296="","",WEEKNUM(C296,1))</f>
         <v>14</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -25437,7 +25456,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O296:S296)</f>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -25466,7 +25485,7 @@
         <v>356</v>
       </c>
       <c r="E297" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C297="","",WEEKNUM(C297,1))</f>
         <v>14</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -25501,7 +25520,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O297:S297)</f>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -25530,7 +25549,7 @@
         <v>356</v>
       </c>
       <c r="E298" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C298="","",WEEKNUM(C298,1))</f>
         <v>14</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -25569,7 +25588,7 @@
       </c>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O298:S298)</f>
         <v>1</v>
       </c>
       <c r="U298" s="13" t="s">
@@ -25612,7 +25631,7 @@
         <v>356</v>
       </c>
       <c r="E299" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C299="","",WEEKNUM(C299,1))</f>
         <v>14</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -25643,7 +25662,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O299:S299)</f>
         <v>1</v>
       </c>
       <c r="U299" s="13" t="s">
@@ -25686,7 +25705,7 @@
         <v>356</v>
       </c>
       <c r="E300" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C300="","",WEEKNUM(C300,1))</f>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -25721,7 +25740,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="12"/>
       <c r="T300" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O300:S300)</f>
         <v>0</v>
       </c>
       <c r="U300" s="13"/>
@@ -25750,7 +25769,7 @@
         <v>356</v>
       </c>
       <c r="E301" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C301="","",WEEKNUM(C301,1))</f>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -25785,7 +25804,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="12"/>
       <c r="T301" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O301:S301)</f>
         <v>0</v>
       </c>
       <c r="U301" s="13"/>
@@ -25816,7 +25835,7 @@
         <v>356</v>
       </c>
       <c r="E302" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C302="","",WEEKNUM(C302,1))</f>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -25851,7 +25870,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
       <c r="T302" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O302:S302)</f>
         <v>0</v>
       </c>
       <c r="U302" s="13"/>
@@ -25880,7 +25899,7 @@
         <v>356</v>
       </c>
       <c r="E303" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C303="","",WEEKNUM(C303,1))</f>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
@@ -25915,7 +25934,7 @@
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
       <c r="T303" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O303:S303)</f>
         <v>0</v>
       </c>
       <c r="U303" s="27"/>
@@ -25944,7 +25963,7 @@
         <v>356</v>
       </c>
       <c r="E304" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C304="","",WEEKNUM(C304,1))</f>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -25983,7 +26002,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O304:S304)</f>
         <v>6</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -26026,7 +26045,7 @@
         <v>356</v>
       </c>
       <c r="E305" s="61">
-        <f t="shared" si="10"/>
+        <f>IF(C305="","",WEEKNUM(C305,1))</f>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -26057,7 +26076,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O305:S305)</f>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -26098,7 +26117,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="61">
-        <f t="shared" ref="E306:E369" si="12">IF(C306="","",WEEKNUM(C306,1))</f>
+        <f>IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -26133,7 +26152,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O306:S306)</f>
         <v>0</v>
       </c>
       <c r="U306" s="27"/>
@@ -26162,7 +26181,7 @@
         <v>356</v>
       </c>
       <c r="E307" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C307="","",WEEKNUM(C307,1))</f>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -26197,7 +26216,7 @@
       <c r="R307" s="95"/>
       <c r="S307" s="95"/>
       <c r="T307" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O307:S307)</f>
         <v>0</v>
       </c>
       <c r="U307" s="95"/>
@@ -26226,7 +26245,7 @@
         <v>356</v>
       </c>
       <c r="E308" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C308="","",WEEKNUM(C308,1))</f>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -26265,7 +26284,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O308:S308)</f>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -26306,7 +26325,7 @@
         <v>356</v>
       </c>
       <c r="E309" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C309="","",WEEKNUM(C309,1))</f>
         <v>15</v>
       </c>
       <c r="F309" s="22" t="s">
@@ -26337,7 +26356,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O309:S309)</f>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -26378,7 +26397,7 @@
         <v>356</v>
       </c>
       <c r="E310" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C310="","",WEEKNUM(C310,1))</f>
         <v>15</v>
       </c>
       <c r="F310" s="22" t="s">
@@ -26417,7 +26436,7 @@
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
       <c r="T310" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O310:S310)</f>
         <v>1</v>
       </c>
       <c r="U310" s="27" t="s">
@@ -26458,7 +26477,7 @@
         <v>356</v>
       </c>
       <c r="E311" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C311="","",WEEKNUM(C311,1))</f>
         <v>15</v>
       </c>
       <c r="F311" s="22" t="s">
@@ -26497,7 +26516,7 @@
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O311:S311)</f>
         <v>1</v>
       </c>
       <c r="U311" s="27" t="s">
@@ -26538,7 +26557,7 @@
         <v>356</v>
       </c>
       <c r="E312" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C312="","",WEEKNUM(C312,1))</f>
         <v>15</v>
       </c>
       <c r="F312" s="22" t="s">
@@ -26569,7 +26588,7 @@
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O312:S312)</f>
         <v>1</v>
       </c>
       <c r="U312" s="27" t="s">
@@ -26610,7 +26629,7 @@
         <v>356</v>
       </c>
       <c r="E313" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C313="","",WEEKNUM(C313,1))</f>
         <v>15</v>
       </c>
       <c r="F313" s="22" t="s">
@@ -26649,7 +26668,7 @@
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
       <c r="T313" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O313:S313)</f>
         <v>1</v>
       </c>
       <c r="U313" s="27" t="s">
@@ -26687,7 +26706,7 @@
         <v>356</v>
       </c>
       <c r="E314" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C314="","",WEEKNUM(C314,1))</f>
         <v>15</v>
       </c>
       <c r="F314" s="22" t="s">
@@ -26722,7 +26741,7 @@
       <c r="R314" s="22"/>
       <c r="S314" s="22"/>
       <c r="T314" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O314:S314)</f>
         <v>0</v>
       </c>
       <c r="U314" s="27"/>
@@ -26748,7 +26767,7 @@
         <v>356</v>
       </c>
       <c r="E315" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C315="","",WEEKNUM(C315,1))</f>
         <v>15</v>
       </c>
       <c r="F315" s="22" t="s">
@@ -26787,7 +26806,7 @@
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
       <c r="T315" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O315:S315)</f>
         <v>1</v>
       </c>
       <c r="U315" s="27" t="s">
@@ -26828,7 +26847,7 @@
         <v>356</v>
       </c>
       <c r="E316" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C316="","",WEEKNUM(C316,1))</f>
         <v>15</v>
       </c>
       <c r="F316" s="22" t="s">
@@ -26863,7 +26882,7 @@
       <c r="R316" s="22"/>
       <c r="S316" s="22"/>
       <c r="T316" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O316:S316)</f>
         <v>0</v>
       </c>
       <c r="U316" s="27"/>
@@ -26889,7 +26908,7 @@
         <v>356</v>
       </c>
       <c r="E317" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C317="","",WEEKNUM(C317,1))</f>
         <v>15</v>
       </c>
       <c r="F317" s="22" t="s">
@@ -26924,7 +26943,7 @@
       <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O317:S317)</f>
         <v>0</v>
       </c>
       <c r="U317" s="27"/>
@@ -26950,7 +26969,7 @@
         <v>356</v>
       </c>
       <c r="E318" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C318="","",WEEKNUM(C318,1))</f>
         <v>15</v>
       </c>
       <c r="F318" s="22" t="s">
@@ -26985,7 +27004,7 @@
       <c r="R318" s="22"/>
       <c r="S318" s="22"/>
       <c r="T318" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O318:S318)</f>
         <v>0</v>
       </c>
       <c r="U318" s="27"/>
@@ -27013,7 +27032,7 @@
         <v>356</v>
       </c>
       <c r="E319" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C319="","",WEEKNUM(C319,1))</f>
         <v>15</v>
       </c>
       <c r="F319" s="22" t="s">
@@ -27052,7 +27071,7 @@
       <c r="R319" s="22"/>
       <c r="S319" s="22"/>
       <c r="T319" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O319:S319)</f>
         <v>1</v>
       </c>
       <c r="U319" s="27" t="s">
@@ -27093,7 +27112,7 @@
         <v>356</v>
       </c>
       <c r="E320" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C320="","",WEEKNUM(C320,1))</f>
         <v>15</v>
       </c>
       <c r="F320" s="22" t="s">
@@ -27128,7 +27147,7 @@
       <c r="R320" s="22"/>
       <c r="S320" s="22"/>
       <c r="T320" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O320:S320)</f>
         <v>0</v>
       </c>
       <c r="U320" s="27"/>
@@ -27157,7 +27176,7 @@
         <v>356</v>
       </c>
       <c r="E321" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C321="","",WEEKNUM(C321,1))</f>
         <v>15</v>
       </c>
       <c r="F321" s="22" t="s">
@@ -27192,7 +27211,7 @@
       <c r="R321" s="22"/>
       <c r="S321" s="22"/>
       <c r="T321" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O321:S321)</f>
         <v>0</v>
       </c>
       <c r="U321" s="27"/>
@@ -27218,7 +27237,7 @@
         <v>356</v>
       </c>
       <c r="E322" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C322="","",WEEKNUM(C322,1))</f>
         <v>15</v>
       </c>
       <c r="F322" s="22" t="s">
@@ -27253,7 +27272,7 @@
       <c r="R322" s="22"/>
       <c r="S322" s="22"/>
       <c r="T322" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O322:S322)</f>
         <v>0</v>
       </c>
       <c r="U322" s="27"/>
@@ -27281,7 +27300,7 @@
         <v>356</v>
       </c>
       <c r="E323" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C323="","",WEEKNUM(C323,1))</f>
         <v>15</v>
       </c>
       <c r="F323" s="22" t="s">
@@ -27316,7 +27335,7 @@
       <c r="R323" s="22"/>
       <c r="S323" s="22"/>
       <c r="T323" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O323:S323)</f>
         <v>0</v>
       </c>
       <c r="U323" s="27"/>
@@ -27342,7 +27361,7 @@
         <v>356</v>
       </c>
       <c r="E324" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C324="","",WEEKNUM(C324,1))</f>
         <v>15</v>
       </c>
       <c r="F324" s="22" t="s">
@@ -27377,7 +27396,7 @@
       <c r="R324" s="22"/>
       <c r="S324" s="22"/>
       <c r="T324" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O324:S324)</f>
         <v>0</v>
       </c>
       <c r="U324" s="27"/>
@@ -27403,7 +27422,7 @@
         <v>356</v>
       </c>
       <c r="E325" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C325="","",WEEKNUM(C325,1))</f>
         <v>15</v>
       </c>
       <c r="F325" s="22" t="s">
@@ -27438,7 +27457,7 @@
       <c r="R325" s="95"/>
       <c r="S325" s="95"/>
       <c r="T325" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O325:S325)</f>
         <v>0</v>
       </c>
       <c r="U325" s="95"/>
@@ -27464,7 +27483,7 @@
         <v>356</v>
       </c>
       <c r="E326" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C326="","",WEEKNUM(C326,1))</f>
         <v>15</v>
       </c>
       <c r="F326" s="22" t="s">
@@ -27503,7 +27522,7 @@
       <c r="R326" s="22"/>
       <c r="S326" s="22"/>
       <c r="T326" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O326:S326)</f>
         <v>1</v>
       </c>
       <c r="U326" s="27" t="s">
@@ -27544,7 +27563,7 @@
         <v>356</v>
       </c>
       <c r="E327" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C327="","",WEEKNUM(C327,1))</f>
         <v>15</v>
       </c>
       <c r="F327" s="22" t="s">
@@ -27583,7 +27602,7 @@
       </c>
       <c r="S327" s="22"/>
       <c r="T327" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O327:S327)</f>
         <v>17</v>
       </c>
       <c r="U327" s="27" t="s">
@@ -27626,7 +27645,7 @@
         <v>356</v>
       </c>
       <c r="E328" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C328="","",WEEKNUM(C328,1))</f>
         <v>15</v>
       </c>
       <c r="F328" s="22" t="s">
@@ -27661,7 +27680,7 @@
       <c r="R328" s="95"/>
       <c r="S328" s="95"/>
       <c r="T328" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O328:S328)</f>
         <v>0</v>
       </c>
       <c r="U328" s="95"/>
@@ -27687,7 +27706,7 @@
         <v>356</v>
       </c>
       <c r="E329" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C329="","",WEEKNUM(C329,1))</f>
         <v>15</v>
       </c>
       <c r="F329" s="22" t="s">
@@ -27722,7 +27741,7 @@
       <c r="R329" s="95"/>
       <c r="S329" s="95"/>
       <c r="T329" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O329:S329)</f>
         <v>0</v>
       </c>
       <c r="U329" s="95"/>
@@ -27748,7 +27767,7 @@
         <v>356</v>
       </c>
       <c r="E330" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C330="","",WEEKNUM(C330,1))</f>
         <v>15</v>
       </c>
       <c r="F330" s="22" t="s">
@@ -27783,7 +27802,7 @@
       <c r="R330" s="95"/>
       <c r="S330" s="95"/>
       <c r="T330" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O330:S330)</f>
         <v>0</v>
       </c>
       <c r="U330" s="95"/>
@@ -27809,7 +27828,7 @@
         <v>356</v>
       </c>
       <c r="E331" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C331="","",WEEKNUM(C331,1))</f>
         <v>15</v>
       </c>
       <c r="F331" s="22" t="s">
@@ -27844,7 +27863,7 @@
       <c r="R331" s="95"/>
       <c r="S331" s="95"/>
       <c r="T331" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O331:S331)</f>
         <v>0</v>
       </c>
       <c r="U331" s="95"/>
@@ -27870,7 +27889,7 @@
         <v>356</v>
       </c>
       <c r="E332" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C332="","",WEEKNUM(C332,1))</f>
         <v>15</v>
       </c>
       <c r="F332" s="22" t="s">
@@ -27905,7 +27924,7 @@
       <c r="R332" s="22"/>
       <c r="S332" s="22"/>
       <c r="T332" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O332:S332)</f>
         <v>0</v>
       </c>
       <c r="U332" s="27"/>
@@ -27931,7 +27950,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C333="","",WEEKNUM(C333,1))</f>
         <v>15</v>
       </c>
       <c r="F333" s="22" t="s">
@@ -27970,7 +27989,7 @@
       <c r="R333" s="22"/>
       <c r="S333" s="22"/>
       <c r="T333" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O333:S333)</f>
         <v>5</v>
       </c>
       <c r="U333" s="27" t="s">
@@ -28011,7 +28030,7 @@
         <v>356</v>
       </c>
       <c r="E334" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C334="","",WEEKNUM(C334,1))</f>
         <v>15</v>
       </c>
       <c r="F334" s="22" t="s">
@@ -28046,7 +28065,7 @@
       <c r="R334" s="95"/>
       <c r="S334" s="95"/>
       <c r="T334" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O334:S334)</f>
         <v>0</v>
       </c>
       <c r="U334" s="95"/>
@@ -28074,7 +28093,7 @@
         <v>356</v>
       </c>
       <c r="E335" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C335="","",WEEKNUM(C335,1))</f>
         <v>15</v>
       </c>
       <c r="F335" s="22" t="s">
@@ -28109,7 +28128,7 @@
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O335:S335)</f>
         <v>0</v>
       </c>
       <c r="U335" s="27"/>
@@ -28135,7 +28154,7 @@
         <v>356</v>
       </c>
       <c r="E336" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C336="","",WEEKNUM(C336,1))</f>
         <v>15</v>
       </c>
       <c r="F336" s="22" t="s">
@@ -28174,7 +28193,7 @@
       <c r="R336" s="22"/>
       <c r="S336" s="22"/>
       <c r="T336" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O336:S336)</f>
         <v>1</v>
       </c>
       <c r="U336" s="27" t="s">
@@ -28215,7 +28234,7 @@
         <v>356</v>
       </c>
       <c r="E337" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C337="","",WEEKNUM(C337,1))</f>
         <v>15</v>
       </c>
       <c r="F337" s="22" t="s">
@@ -28250,7 +28269,7 @@
       <c r="R337" s="95"/>
       <c r="S337" s="95"/>
       <c r="T337" s="22">
-        <f t="shared" si="11"/>
+        <f>SUM(O337:S337)</f>
         <v>0</v>
       </c>
       <c r="U337" s="95"/>
@@ -28276,7 +28295,7 @@
         <v>356</v>
       </c>
       <c r="E338" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C338="","",WEEKNUM(C338,1))</f>
         <v>15</v>
       </c>
       <c r="F338" s="22" t="s">
@@ -28311,7 +28330,7 @@
       <c r="R338" s="95"/>
       <c r="S338" s="95"/>
       <c r="T338" s="22">
-        <f t="shared" ref="T338:T401" si="13">SUM(O338:S338)</f>
+        <f>SUM(O338:S338)</f>
         <v>0</v>
       </c>
       <c r="U338" s="95"/>
@@ -28337,7 +28356,7 @@
         <v>356</v>
       </c>
       <c r="E339" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C339="","",WEEKNUM(C339,1))</f>
         <v>16</v>
       </c>
       <c r="F339" s="22" t="s">
@@ -28372,7 +28391,7 @@
       <c r="R339" s="95"/>
       <c r="S339" s="95"/>
       <c r="T339" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O339:S339)</f>
         <v>0</v>
       </c>
       <c r="U339" s="95"/>
@@ -28398,7 +28417,7 @@
         <v>356</v>
       </c>
       <c r="E340" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C340="","",WEEKNUM(C340,1))</f>
         <v>16</v>
       </c>
       <c r="F340" s="22" t="s">
@@ -28433,7 +28452,7 @@
       <c r="R340" s="95"/>
       <c r="S340" s="95"/>
       <c r="T340" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O340:S340)</f>
         <v>0</v>
       </c>
       <c r="U340" s="95"/>
@@ -28459,7 +28478,7 @@
         <v>356</v>
       </c>
       <c r="E341" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C341="","",WEEKNUM(C341,1))</f>
         <v>16</v>
       </c>
       <c r="F341" s="22" t="s">
@@ -28494,7 +28513,7 @@
       <c r="R341" s="95"/>
       <c r="S341" s="95"/>
       <c r="T341" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O341:S341)</f>
         <v>0</v>
       </c>
       <c r="U341" s="95"/>
@@ -28520,7 +28539,7 @@
         <v>356</v>
       </c>
       <c r="E342" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C342="","",WEEKNUM(C342,1))</f>
         <v>16</v>
       </c>
       <c r="F342" s="22" t="s">
@@ -28555,7 +28574,7 @@
       <c r="R342" s="95"/>
       <c r="S342" s="95"/>
       <c r="T342" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O342:S342)</f>
         <v>0</v>
       </c>
       <c r="U342" s="95"/>
@@ -28581,7 +28600,7 @@
         <v>356</v>
       </c>
       <c r="E343" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C343="","",WEEKNUM(C343,1))</f>
         <v>16</v>
       </c>
       <c r="F343" s="22" t="s">
@@ -28616,7 +28635,7 @@
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O343:S343)</f>
         <v>0</v>
       </c>
       <c r="U343" s="27"/>
@@ -28642,7 +28661,7 @@
         <v>356</v>
       </c>
       <c r="E344" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C344="","",WEEKNUM(C344,1))</f>
         <v>16</v>
       </c>
       <c r="F344" s="22" t="s">
@@ -28681,7 +28700,7 @@
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O344:S344)</f>
         <v>1</v>
       </c>
       <c r="U344" s="27" t="s">
@@ -28724,7 +28743,7 @@
         <v>356</v>
       </c>
       <c r="E345" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C345="","",WEEKNUM(C345,1))</f>
         <v>16</v>
       </c>
       <c r="F345" s="22" t="s">
@@ -28759,7 +28778,7 @@
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O345:S345)</f>
         <v>0</v>
       </c>
       <c r="U345" s="27"/>
@@ -28788,7 +28807,7 @@
         <v>356</v>
       </c>
       <c r="E346" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C346="","",WEEKNUM(C346,1))</f>
         <v>16</v>
       </c>
       <c r="F346" s="22" t="s">
@@ -28823,7 +28842,7 @@
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O346:S346)</f>
         <v>0</v>
       </c>
       <c r="U346" s="27"/>
@@ -28849,7 +28868,7 @@
         <v>356</v>
       </c>
       <c r="E347" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C347="","",WEEKNUM(C347,1))</f>
         <v>16</v>
       </c>
       <c r="F347" s="22" t="s">
@@ -28884,7 +28903,7 @@
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O347:S347)</f>
         <v>0</v>
       </c>
       <c r="U347" s="27"/>
@@ -28910,7 +28929,7 @@
         <v>356</v>
       </c>
       <c r="E348" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C348="","",WEEKNUM(C348,1))</f>
         <v>16</v>
       </c>
       <c r="F348" s="22" t="s">
@@ -28945,7 +28964,7 @@
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O348:S348)</f>
         <v>0</v>
       </c>
       <c r="U348" s="27"/>
@@ -28971,7 +28990,7 @@
         <v>356</v>
       </c>
       <c r="E349" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C349="","",WEEKNUM(C349,1))</f>
         <v>16</v>
       </c>
       <c r="F349" s="22" t="s">
@@ -29006,7 +29025,7 @@
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O349:S349)</f>
         <v>0</v>
       </c>
       <c r="U349" s="27"/>
@@ -29032,7 +29051,7 @@
         <v>356</v>
       </c>
       <c r="E350" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C350="","",WEEKNUM(C350,1))</f>
         <v>16</v>
       </c>
       <c r="F350" s="22" t="s">
@@ -29071,7 +29090,7 @@
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O350:S350)</f>
         <v>1</v>
       </c>
       <c r="U350" s="27" t="s">
@@ -29112,7 +29131,7 @@
         <v>356</v>
       </c>
       <c r="E351" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C351="","",WEEKNUM(C351,1))</f>
         <v>16</v>
       </c>
       <c r="F351" s="22" t="s">
@@ -29147,7 +29166,7 @@
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O351:S351)</f>
         <v>0</v>
       </c>
       <c r="U351" s="27"/>
@@ -29173,7 +29192,7 @@
         <v>356</v>
       </c>
       <c r="E352" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C352="","",WEEKNUM(C352,1))</f>
         <v>16</v>
       </c>
       <c r="F352" s="22" t="s">
@@ -29212,7 +29231,7 @@
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O352:S352)</f>
         <v>1</v>
       </c>
       <c r="U352" s="27" t="s">
@@ -29255,7 +29274,7 @@
         <v>356</v>
       </c>
       <c r="E353" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C353="","",WEEKNUM(C353,1))</f>
         <v>16</v>
       </c>
       <c r="F353" s="22" t="s">
@@ -29286,7 +29305,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O353:S353)</f>
         <v>1</v>
       </c>
       <c r="U353" s="27" t="s">
@@ -29327,7 +29346,7 @@
         <v>356</v>
       </c>
       <c r="E354" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C354="","",WEEKNUM(C354,1))</f>
         <v>16</v>
       </c>
       <c r="F354" s="22" t="s">
@@ -29362,7 +29381,7 @@
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O354:S354)</f>
         <v>0</v>
       </c>
       <c r="U354" s="27"/>
@@ -29388,7 +29407,7 @@
         <v>356</v>
       </c>
       <c r="E355" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C355="","",WEEKNUM(C355,1))</f>
         <v>16</v>
       </c>
       <c r="F355" s="22" t="s">
@@ -29423,7 +29442,7 @@
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O355:S355)</f>
         <v>0</v>
       </c>
       <c r="U355" s="27"/>
@@ -29449,7 +29468,7 @@
         <v>356</v>
       </c>
       <c r="E356" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C356="","",WEEKNUM(C356,1))</f>
         <v>16</v>
       </c>
       <c r="F356" s="22" t="s">
@@ -29484,7 +29503,7 @@
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O356:S356)</f>
         <v>0</v>
       </c>
       <c r="U356" s="27"/>
@@ -29510,7 +29529,7 @@
         <v>356</v>
       </c>
       <c r="E357" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C357="","",WEEKNUM(C357,1))</f>
         <v>16</v>
       </c>
       <c r="F357" s="22" t="s">
@@ -29549,7 +29568,7 @@
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O357:S357)</f>
         <v>1</v>
       </c>
       <c r="U357" s="27" t="s">
@@ -29590,7 +29609,7 @@
         <v>356</v>
       </c>
       <c r="E358" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C358="","",WEEKNUM(C358,1))</f>
         <v>16</v>
       </c>
       <c r="F358" s="22" t="s">
@@ -29625,7 +29644,7 @@
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O358:S358)</f>
         <v>0</v>
       </c>
       <c r="U358" s="27"/>
@@ -29651,7 +29670,7 @@
         <v>356</v>
       </c>
       <c r="E359" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C359="","",WEEKNUM(C359,1))</f>
         <v>16</v>
       </c>
       <c r="F359" s="22" t="s">
@@ -29686,7 +29705,7 @@
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O359:S359)</f>
         <v>0</v>
       </c>
       <c r="U359" s="27"/>
@@ -29712,7 +29731,7 @@
         <v>356</v>
       </c>
       <c r="E360" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C360="","",WEEKNUM(C360,1))</f>
         <v>16</v>
       </c>
       <c r="F360" s="22" t="s">
@@ -29749,7 +29768,7 @@
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O360:S360)</f>
         <v>1</v>
       </c>
       <c r="U360" s="27" t="s">
@@ -29792,7 +29811,7 @@
         <v>356</v>
       </c>
       <c r="E361" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C361="","",WEEKNUM(C361,1))</f>
         <v>16</v>
       </c>
       <c r="F361" s="22" t="s">
@@ -29827,7 +29846,7 @@
       <c r="R361" s="95"/>
       <c r="S361" s="95"/>
       <c r="T361" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O361:S361)</f>
         <v>0</v>
       </c>
       <c r="U361" s="95"/>
@@ -29855,7 +29874,7 @@
         <v>356</v>
       </c>
       <c r="E362" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C362="","",WEEKNUM(C362,1))</f>
         <v>16</v>
       </c>
       <c r="F362" s="22" t="s">
@@ -29890,7 +29909,7 @@
       <c r="R362" s="95"/>
       <c r="S362" s="95"/>
       <c r="T362" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O362:S362)</f>
         <v>0</v>
       </c>
       <c r="U362" s="95"/>
@@ -29916,7 +29935,7 @@
         <v>356</v>
       </c>
       <c r="E363" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C363="","",WEEKNUM(C363,1))</f>
         <v>16</v>
       </c>
       <c r="F363" s="22" t="s">
@@ -29951,7 +29970,7 @@
       <c r="R363" s="95"/>
       <c r="S363" s="95"/>
       <c r="T363" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O363:S363)</f>
         <v>0</v>
       </c>
       <c r="U363" s="95"/>
@@ -29977,7 +29996,7 @@
         <v>356</v>
       </c>
       <c r="E364" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C364="","",WEEKNUM(C364,1))</f>
         <v>16</v>
       </c>
       <c r="F364" s="22" t="s">
@@ -30012,7 +30031,7 @@
       <c r="R364" s="95"/>
       <c r="S364" s="95"/>
       <c r="T364" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O364:S364)</f>
         <v>0</v>
       </c>
       <c r="U364" s="95"/>
@@ -30040,7 +30059,7 @@
         <v>356</v>
       </c>
       <c r="E365" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C365="","",WEEKNUM(C365,1))</f>
         <v>16</v>
       </c>
       <c r="F365" s="22" t="s">
@@ -30075,7 +30094,7 @@
       <c r="R365" s="95"/>
       <c r="S365" s="95"/>
       <c r="T365" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O365:S365)</f>
         <v>0</v>
       </c>
       <c r="U365" s="95"/>
@@ -30101,7 +30120,7 @@
         <v>356</v>
       </c>
       <c r="E366" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C366="","",WEEKNUM(C366,1))</f>
         <v>16</v>
       </c>
       <c r="F366" s="22" t="s">
@@ -30136,7 +30155,7 @@
       <c r="R366" s="95"/>
       <c r="S366" s="95"/>
       <c r="T366" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O366:S366)</f>
         <v>0</v>
       </c>
       <c r="U366" s="95"/>
@@ -30162,7 +30181,7 @@
         <v>356</v>
       </c>
       <c r="E367" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C367="","",WEEKNUM(C367,1))</f>
         <v>16</v>
       </c>
       <c r="F367" s="22" t="s">
@@ -30197,7 +30216,7 @@
       <c r="R367" s="95"/>
       <c r="S367" s="95"/>
       <c r="T367" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O367:S367)</f>
         <v>0</v>
       </c>
       <c r="U367" s="95"/>
@@ -30223,7 +30242,7 @@
         <v>356</v>
       </c>
       <c r="E368" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C368="","",WEEKNUM(C368,1))</f>
         <v>16</v>
       </c>
       <c r="F368" s="22" t="s">
@@ -30258,7 +30277,7 @@
       <c r="R368" s="95"/>
       <c r="S368" s="95"/>
       <c r="T368" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O368:S368)</f>
         <v>0</v>
       </c>
       <c r="U368" s="95"/>
@@ -30284,7 +30303,7 @@
         <v>356</v>
       </c>
       <c r="E369" s="61">
-        <f t="shared" si="12"/>
+        <f>IF(C369="","",WEEKNUM(C369,1))</f>
         <v>16</v>
       </c>
       <c r="F369" s="22" t="s">
@@ -30319,7 +30338,7 @@
       <c r="R369" s="95"/>
       <c r="S369" s="95"/>
       <c r="T369" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O369:S369)</f>
         <v>0</v>
       </c>
       <c r="U369" s="95"/>
@@ -30345,7 +30364,7 @@
         <v>356</v>
       </c>
       <c r="E370" s="61">
-        <f t="shared" ref="E370:E433" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
+        <f>IF(C370="","",WEEKNUM(C370,1))</f>
         <v>16</v>
       </c>
       <c r="F370" s="22" t="s">
@@ -30380,7 +30399,7 @@
       <c r="R370" s="95"/>
       <c r="S370" s="95"/>
       <c r="T370" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O370:S370)</f>
         <v>0</v>
       </c>
       <c r="U370" s="95"/>
@@ -30406,7 +30425,7 @@
         <v>356</v>
       </c>
       <c r="E371" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C371="","",WEEKNUM(C371,1))</f>
         <v>16</v>
       </c>
       <c r="F371" s="22" t="s">
@@ -30445,7 +30464,7 @@
       <c r="R371" s="22"/>
       <c r="S371" s="22"/>
       <c r="T371" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O371:S371)</f>
         <v>2</v>
       </c>
       <c r="U371" s="27" t="s">
@@ -30486,7 +30505,7 @@
         <v>356</v>
       </c>
       <c r="E372" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C372="","",WEEKNUM(C372,1))</f>
         <v>16</v>
       </c>
       <c r="F372" s="22" t="s">
@@ -30517,7 +30536,7 @@
       <c r="R372" s="22"/>
       <c r="S372" s="22"/>
       <c r="T372" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O372:S372)</f>
         <v>2</v>
       </c>
       <c r="U372" s="27" t="s">
@@ -30558,7 +30577,7 @@
         <v>356</v>
       </c>
       <c r="E373" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C373="","",WEEKNUM(C373,1))</f>
         <v>16</v>
       </c>
       <c r="F373" s="22" t="s">
@@ -30593,7 +30612,7 @@
       <c r="R373" s="22"/>
       <c r="S373" s="22"/>
       <c r="T373" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O373:S373)</f>
         <v>0</v>
       </c>
       <c r="U373" s="27"/>
@@ -30622,7 +30641,7 @@
         <v>356</v>
       </c>
       <c r="E374" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C374="","",WEEKNUM(C374,1))</f>
         <v>16</v>
       </c>
       <c r="F374" s="22" t="s">
@@ -30661,7 +30680,7 @@
       <c r="R374" s="22"/>
       <c r="S374" s="22"/>
       <c r="T374" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O374:S374)</f>
         <v>1</v>
       </c>
       <c r="U374" s="27" t="s">
@@ -30702,7 +30721,7 @@
         <v>356</v>
       </c>
       <c r="E375" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C375="","",WEEKNUM(C375,1))</f>
         <v>16</v>
       </c>
       <c r="F375" s="22" t="s">
@@ -30737,7 +30756,7 @@
       <c r="R375" s="22"/>
       <c r="S375" s="22"/>
       <c r="T375" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O375:S375)</f>
         <v>0</v>
       </c>
       <c r="U375" s="27"/>
@@ -30766,7 +30785,7 @@
         <v>356</v>
       </c>
       <c r="E376" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C376="","",WEEKNUM(C376,1))</f>
         <v>16</v>
       </c>
       <c r="F376" s="22" t="s">
@@ -30801,7 +30820,7 @@
       <c r="R376" s="22"/>
       <c r="S376" s="22"/>
       <c r="T376" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O376:S376)</f>
         <v>0</v>
       </c>
       <c r="U376" s="27"/>
@@ -30827,7 +30846,7 @@
         <v>356</v>
       </c>
       <c r="E377" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C377="","",WEEKNUM(C377,1))</f>
         <v>16</v>
       </c>
       <c r="F377" s="22" t="s">
@@ -30862,7 +30881,7 @@
       <c r="R377" s="22"/>
       <c r="S377" s="22"/>
       <c r="T377" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O377:S377)</f>
         <v>0</v>
       </c>
       <c r="U377" s="27"/>
@@ -30888,7 +30907,7 @@
         <v>356</v>
       </c>
       <c r="E378" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C378="","",WEEKNUM(C378,1))</f>
         <v>16</v>
       </c>
       <c r="F378" s="22" t="s">
@@ -30923,7 +30942,7 @@
       <c r="R378" s="22"/>
       <c r="S378" s="22"/>
       <c r="T378" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O378:S378)</f>
         <v>0</v>
       </c>
       <c r="U378" s="27"/>
@@ -30949,7 +30968,7 @@
         <v>356</v>
       </c>
       <c r="E379" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C379="","",WEEKNUM(C379,1))</f>
         <v>16</v>
       </c>
       <c r="F379" s="22" t="s">
@@ -30984,7 +31003,7 @@
       <c r="R379" s="95"/>
       <c r="S379" s="95"/>
       <c r="T379" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O379:S379)</f>
         <v>0</v>
       </c>
       <c r="U379" s="95"/>
@@ -31010,7 +31029,7 @@
         <v>356</v>
       </c>
       <c r="E380" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C380="","",WEEKNUM(C380,1))</f>
         <v>16</v>
       </c>
       <c r="F380" s="22" t="s">
@@ -31049,7 +31068,7 @@
       </c>
       <c r="S380" s="95"/>
       <c r="T380" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O380:S380)</f>
         <v>2</v>
       </c>
       <c r="U380" s="27" t="s">
@@ -31090,7 +31109,7 @@
         <v>356</v>
       </c>
       <c r="E381" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C381="","",WEEKNUM(C381,1))</f>
         <v>16</v>
       </c>
       <c r="F381" s="22" t="s">
@@ -31125,7 +31144,7 @@
       <c r="R381" s="22"/>
       <c r="S381" s="22"/>
       <c r="T381" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O381:S381)</f>
         <v>0</v>
       </c>
       <c r="U381" s="27"/>
@@ -31151,7 +31170,7 @@
         <v>356</v>
       </c>
       <c r="E382" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C382="","",WEEKNUM(C382,1))</f>
         <v>16</v>
       </c>
       <c r="F382" s="22" t="s">
@@ -31190,7 +31209,7 @@
       <c r="R382" s="22"/>
       <c r="S382" s="22"/>
       <c r="T382" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O382:S382)</f>
         <v>1</v>
       </c>
       <c r="U382" s="27" t="s">
@@ -31231,7 +31250,7 @@
         <v>356</v>
       </c>
       <c r="E383" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C383="","",WEEKNUM(C383,1))</f>
         <v>16</v>
       </c>
       <c r="F383" s="22" t="s">
@@ -31266,7 +31285,7 @@
       <c r="R383" s="22"/>
       <c r="S383" s="22"/>
       <c r="T383" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O383:S383)</f>
         <v>0</v>
       </c>
       <c r="U383" s="27"/>
@@ -31292,7 +31311,7 @@
         <v>356</v>
       </c>
       <c r="E384" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C384="","",WEEKNUM(C384,1))</f>
         <v>16</v>
       </c>
       <c r="F384" s="22" t="s">
@@ -31327,7 +31346,7 @@
       <c r="R384" s="22"/>
       <c r="S384" s="22"/>
       <c r="T384" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O384:S384)</f>
         <v>0</v>
       </c>
       <c r="U384" s="27"/>
@@ -31353,7 +31372,7 @@
         <v>356</v>
       </c>
       <c r="E385" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C385="","",WEEKNUM(C385,1))</f>
         <v>16</v>
       </c>
       <c r="F385" s="22" t="s">
@@ -31388,7 +31407,7 @@
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O385:S385)</f>
         <v>0</v>
       </c>
       <c r="U385" s="27"/>
@@ -31414,7 +31433,7 @@
         <v>356</v>
       </c>
       <c r="E386" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C386="","",WEEKNUM(C386,1))</f>
         <v>16</v>
       </c>
       <c r="F386" s="22" t="s">
@@ -31453,7 +31472,7 @@
       <c r="R386" s="22"/>
       <c r="S386" s="22"/>
       <c r="T386" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O386:S386)</f>
         <v>1</v>
       </c>
       <c r="U386" s="27" t="s">
@@ -31496,7 +31515,7 @@
         <v>356</v>
       </c>
       <c r="E387" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C387="","",WEEKNUM(C387,1))</f>
         <v>16</v>
       </c>
       <c r="F387" s="22" t="s">
@@ -31531,7 +31550,7 @@
       <c r="R387" s="22"/>
       <c r="S387" s="22"/>
       <c r="T387" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O387:S387)</f>
         <v>0</v>
       </c>
       <c r="U387" s="27"/>
@@ -31557,7 +31576,7 @@
         <v>356</v>
       </c>
       <c r="E388" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C388="","",WEEKNUM(C388,1))</f>
         <v>16</v>
       </c>
       <c r="F388" s="22" t="s">
@@ -31592,7 +31611,7 @@
       <c r="R388" s="22"/>
       <c r="S388" s="22"/>
       <c r="T388" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O388:S388)</f>
         <v>0</v>
       </c>
       <c r="U388" s="27"/>
@@ -31618,7 +31637,7 @@
         <v>356</v>
       </c>
       <c r="E389" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C389="","",WEEKNUM(C389,1))</f>
         <v>16</v>
       </c>
       <c r="F389" s="22" t="s">
@@ -31653,7 +31672,7 @@
       <c r="R389" s="22"/>
       <c r="S389" s="22"/>
       <c r="T389" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O389:S389)</f>
         <v>0</v>
       </c>
       <c r="U389" s="27"/>
@@ -31679,7 +31698,7 @@
         <v>356</v>
       </c>
       <c r="E390" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C390="","",WEEKNUM(C390,1))</f>
         <v>17</v>
       </c>
       <c r="F390" s="22" t="s">
@@ -31714,7 +31733,7 @@
       <c r="R390" s="95"/>
       <c r="S390" s="95"/>
       <c r="T390" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O390:S390)</f>
         <v>0</v>
       </c>
       <c r="U390" s="95"/>
@@ -31742,7 +31761,7 @@
         <v>356</v>
       </c>
       <c r="E391" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C391="","",WEEKNUM(C391,1))</f>
         <v>17</v>
       </c>
       <c r="F391" s="22" t="s">
@@ -31777,7 +31796,7 @@
       <c r="R391" s="95"/>
       <c r="S391" s="95"/>
       <c r="T391" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O391:S391)</f>
         <v>0</v>
       </c>
       <c r="U391" s="95"/>
@@ -31806,7 +31825,7 @@
         <v>356</v>
       </c>
       <c r="E392" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C392="","",WEEKNUM(C392,1))</f>
         <v>17</v>
       </c>
       <c r="F392" s="22" t="s">
@@ -31841,7 +31860,7 @@
       <c r="R392" s="95"/>
       <c r="S392" s="95"/>
       <c r="T392" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O392:S392)</f>
         <v>0</v>
       </c>
       <c r="U392" s="95"/>
@@ -31870,7 +31889,7 @@
         <v>356</v>
       </c>
       <c r="E393" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C393="","",WEEKNUM(C393,1))</f>
         <v>17</v>
       </c>
       <c r="F393" s="22" t="s">
@@ -31905,7 +31924,7 @@
       <c r="R393" s="95"/>
       <c r="S393" s="95"/>
       <c r="T393" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O393:S393)</f>
         <v>0</v>
       </c>
       <c r="U393" s="95"/>
@@ -31934,7 +31953,7 @@
         <v>356</v>
       </c>
       <c r="E394" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C394="","",WEEKNUM(C394,1))</f>
         <v>17</v>
       </c>
       <c r="F394" s="22" t="s">
@@ -31969,7 +31988,7 @@
       <c r="R394" s="95"/>
       <c r="S394" s="95"/>
       <c r="T394" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O394:S394)</f>
         <v>0</v>
       </c>
       <c r="U394" s="95"/>
@@ -31998,7 +32017,7 @@
         <v>356</v>
       </c>
       <c r="E395" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C395="","",WEEKNUM(C395,1))</f>
         <v>17</v>
       </c>
       <c r="F395" s="22" t="s">
@@ -32033,7 +32052,7 @@
       <c r="R395" s="95"/>
       <c r="S395" s="95"/>
       <c r="T395" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O395:S395)</f>
         <v>0</v>
       </c>
       <c r="U395" s="95"/>
@@ -32059,7 +32078,7 @@
         <v>356</v>
       </c>
       <c r="E396" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C396="","",WEEKNUM(C396,1))</f>
         <v>17</v>
       </c>
       <c r="F396" s="22" t="s">
@@ -32094,7 +32113,7 @@
       <c r="R396" s="95"/>
       <c r="S396" s="95"/>
       <c r="T396" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O396:S396)</f>
         <v>0</v>
       </c>
       <c r="U396" s="95"/>
@@ -32120,7 +32139,7 @@
         <v>356</v>
       </c>
       <c r="E397" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C397="","",WEEKNUM(C397,1))</f>
         <v>17</v>
       </c>
       <c r="F397" s="22" t="s">
@@ -32155,7 +32174,7 @@
       <c r="R397" s="95"/>
       <c r="S397" s="95"/>
       <c r="T397" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O397:S397)</f>
         <v>0</v>
       </c>
       <c r="U397" s="95"/>
@@ -32181,7 +32200,7 @@
         <v>356</v>
       </c>
       <c r="E398" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C398="","",WEEKNUM(C398,1))</f>
         <v>17</v>
       </c>
       <c r="F398" s="22" t="s">
@@ -32216,7 +32235,7 @@
       <c r="R398" s="95"/>
       <c r="S398" s="95"/>
       <c r="T398" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O398:S398)</f>
         <v>0</v>
       </c>
       <c r="U398" s="95"/>
@@ -32242,7 +32261,7 @@
         <v>356</v>
       </c>
       <c r="E399" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C399="","",WEEKNUM(C399,1))</f>
         <v>17</v>
       </c>
       <c r="F399" s="22" t="s">
@@ -32277,7 +32296,7 @@
       <c r="R399" s="95"/>
       <c r="S399" s="95"/>
       <c r="T399" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O399:S399)</f>
         <v>0</v>
       </c>
       <c r="U399" s="95"/>
@@ -32303,7 +32322,7 @@
         <v>356</v>
       </c>
       <c r="E400" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C400="","",WEEKNUM(C400,1))</f>
         <v>17</v>
       </c>
       <c r="F400" s="22" t="s">
@@ -32342,7 +32361,7 @@
       <c r="R400" s="95"/>
       <c r="S400" s="95"/>
       <c r="T400" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O400:S400)</f>
         <v>1</v>
       </c>
       <c r="U400" s="95" t="s">
@@ -32383,7 +32402,7 @@
         <v>356</v>
       </c>
       <c r="E401" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C401="","",WEEKNUM(C401,1))</f>
         <v>17</v>
       </c>
       <c r="F401" s="22" t="s">
@@ -32418,7 +32437,7 @@
       <c r="R401" s="22"/>
       <c r="S401" s="22"/>
       <c r="T401" s="22">
-        <f t="shared" si="13"/>
+        <f>SUM(O401:S401)</f>
         <v>0</v>
       </c>
       <c r="U401" s="27"/>
@@ -32442,7 +32461,7 @@
         <v>356</v>
       </c>
       <c r="E402" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C402="","",WEEKNUM(C402,1))</f>
         <v>17</v>
       </c>
       <c r="F402" s="22" t="s">
@@ -32477,7 +32496,7 @@
       <c r="R402" s="22"/>
       <c r="S402" s="22"/>
       <c r="T402" s="22">
-        <f t="shared" ref="T402:T423" si="15">SUM(O402:S402)</f>
+        <f>SUM(O402:S402)</f>
         <v>0</v>
       </c>
       <c r="U402" s="27"/>
@@ -32501,7 +32520,7 @@
         <v>356</v>
       </c>
       <c r="E403" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C403="","",WEEKNUM(C403,1))</f>
         <v>17</v>
       </c>
       <c r="F403" s="22" t="s">
@@ -32536,7 +32555,7 @@
       <c r="R403" s="22"/>
       <c r="S403" s="22"/>
       <c r="T403" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O403:S403)</f>
         <v>0</v>
       </c>
       <c r="U403" s="27"/>
@@ -32560,7 +32579,7 @@
         <v>356</v>
       </c>
       <c r="E404" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C404="","",WEEKNUM(C404,1))</f>
         <v>17</v>
       </c>
       <c r="F404" s="22" t="s">
@@ -32599,7 +32618,7 @@
       <c r="R404" s="22"/>
       <c r="S404" s="22"/>
       <c r="T404" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O404:S404)</f>
         <v>1</v>
       </c>
       <c r="U404" s="27" t="s">
@@ -32640,7 +32659,7 @@
         <v>356</v>
       </c>
       <c r="E405" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C405="","",WEEKNUM(C405,1))</f>
         <v>17</v>
       </c>
       <c r="F405" s="22" t="s">
@@ -32675,7 +32694,7 @@
       <c r="R405" s="22"/>
       <c r="S405" s="22"/>
       <c r="T405" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O405:S405)</f>
         <v>0</v>
       </c>
       <c r="U405" s="27"/>
@@ -32699,7 +32718,7 @@
         <v>356</v>
       </c>
       <c r="E406" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C406="","",WEEKNUM(C406,1))</f>
         <v>17</v>
       </c>
       <c r="F406" s="22" t="s">
@@ -32734,7 +32753,7 @@
       <c r="R406" s="22"/>
       <c r="S406" s="22"/>
       <c r="T406" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O406:S406)</f>
         <v>0</v>
       </c>
       <c r="U406" s="27"/>
@@ -32758,7 +32777,7 @@
         <v>356</v>
       </c>
       <c r="E407" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C407="","",WEEKNUM(C407,1))</f>
         <v>17</v>
       </c>
       <c r="F407" s="22" t="s">
@@ -32793,7 +32812,7 @@
       <c r="R407" s="22"/>
       <c r="S407" s="22"/>
       <c r="T407" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O407:S407)</f>
         <v>0</v>
       </c>
       <c r="U407" s="27"/>
@@ -32817,7 +32836,7 @@
         <v>356</v>
       </c>
       <c r="E408" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C408="","",WEEKNUM(C408,1))</f>
         <v>17</v>
       </c>
       <c r="F408" s="22" t="s">
@@ -32856,7 +32875,7 @@
       <c r="R408" s="22"/>
       <c r="S408" s="22"/>
       <c r="T408" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O408:S408)</f>
         <v>1</v>
       </c>
       <c r="U408" s="27" t="s">
@@ -32895,7 +32914,7 @@
         <v>356</v>
       </c>
       <c r="E409" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C409="","",WEEKNUM(C409,1))</f>
         <v>17</v>
       </c>
       <c r="F409" s="22" t="s">
@@ -32930,7 +32949,7 @@
       <c r="R409" s="22"/>
       <c r="S409" s="22"/>
       <c r="T409" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O409:S409)</f>
         <v>0</v>
       </c>
       <c r="U409" s="27"/>
@@ -32954,7 +32973,7 @@
         <v>356</v>
       </c>
       <c r="E410" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C410="","",WEEKNUM(C410,1))</f>
         <v>17</v>
       </c>
       <c r="F410" s="22" t="s">
@@ -32989,7 +33008,7 @@
       <c r="R410" s="22"/>
       <c r="S410" s="22"/>
       <c r="T410" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O410:S410)</f>
         <v>0</v>
       </c>
       <c r="U410" s="27"/>
@@ -33013,7 +33032,7 @@
         <v>356</v>
       </c>
       <c r="E411" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C411="","",WEEKNUM(C411,1))</f>
         <v>17</v>
       </c>
       <c r="F411" s="22" t="s">
@@ -33048,7 +33067,7 @@
       <c r="R411" s="22"/>
       <c r="S411" s="22"/>
       <c r="T411" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O411:S411)</f>
         <v>0</v>
       </c>
       <c r="U411" s="27"/>
@@ -33072,7 +33091,7 @@
         <v>356</v>
       </c>
       <c r="E412" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C412="","",WEEKNUM(C412,1))</f>
         <v>17</v>
       </c>
       <c r="F412" s="22" t="s">
@@ -33107,7 +33126,7 @@
       <c r="R412" s="22"/>
       <c r="S412" s="22"/>
       <c r="T412" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O412:S412)</f>
         <v>0</v>
       </c>
       <c r="U412" s="27"/>
@@ -33131,7 +33150,7 @@
         <v>356</v>
       </c>
       <c r="E413" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C413="","",WEEKNUM(C413,1))</f>
         <v>17</v>
       </c>
       <c r="F413" s="22" t="s">
@@ -33166,7 +33185,7 @@
       <c r="R413" s="22"/>
       <c r="S413" s="22"/>
       <c r="T413" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O413:S413)</f>
         <v>0</v>
       </c>
       <c r="U413" s="27"/>
@@ -33190,7 +33209,7 @@
         <v>356</v>
       </c>
       <c r="E414" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C414="","",WEEKNUM(C414,1))</f>
         <v>17</v>
       </c>
       <c r="F414" s="22" t="s">
@@ -33229,7 +33248,7 @@
       <c r="R414" s="22"/>
       <c r="S414" s="22"/>
       <c r="T414" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O414:S414)</f>
         <v>1</v>
       </c>
       <c r="U414" s="27" t="s">
@@ -33268,7 +33287,7 @@
         <v>356</v>
       </c>
       <c r="E415" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C415="","",WEEKNUM(C415,1))</f>
         <v>17</v>
       </c>
       <c r="F415" s="22" t="s">
@@ -33299,7 +33318,7 @@
       </c>
       <c r="S415" s="22"/>
       <c r="T415" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O415:S415)</f>
         <v>1</v>
       </c>
       <c r="U415" s="27" t="s">
@@ -33338,7 +33357,7 @@
         <v>356</v>
       </c>
       <c r="E416" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C416="","",WEEKNUM(C416,1))</f>
         <v>17</v>
       </c>
       <c r="F416" s="22" t="s">
@@ -33369,7 +33388,7 @@
       <c r="R416" s="22"/>
       <c r="S416" s="22"/>
       <c r="T416" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O416:S416)</f>
         <v>1</v>
       </c>
       <c r="U416" s="27" t="s">
@@ -33408,7 +33427,7 @@
         <v>356</v>
       </c>
       <c r="E417" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C417="","",WEEKNUM(C417,1))</f>
         <v>17</v>
       </c>
       <c r="F417" s="22" t="s">
@@ -33439,7 +33458,7 @@
       <c r="R417" s="22"/>
       <c r="S417" s="22"/>
       <c r="T417" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O417:S417)</f>
         <v>9</v>
       </c>
       <c r="U417" s="27" t="s">
@@ -33478,7 +33497,7 @@
         <v>356</v>
       </c>
       <c r="E418" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C418="","",WEEKNUM(C418,1))</f>
         <v>17</v>
       </c>
       <c r="F418" s="22" t="s">
@@ -33513,7 +33532,7 @@
       <c r="R418" s="22"/>
       <c r="S418" s="22"/>
       <c r="T418" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O418:S418)</f>
         <v>0</v>
       </c>
       <c r="U418" s="27"/>
@@ -33537,7 +33556,7 @@
         <v>356</v>
       </c>
       <c r="E419" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C419="","",WEEKNUM(C419,1))</f>
         <v>17</v>
       </c>
       <c r="F419" s="22" t="s">
@@ -33576,7 +33595,7 @@
       <c r="R419" s="22"/>
       <c r="S419" s="22"/>
       <c r="T419" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O419:S419)</f>
         <v>1</v>
       </c>
       <c r="U419" s="27" t="s">
@@ -33615,7 +33634,7 @@
         <v>356</v>
       </c>
       <c r="E420" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C420="","",WEEKNUM(C420,1))</f>
         <v>17</v>
       </c>
       <c r="F420" s="22" t="s">
@@ -33650,7 +33669,7 @@
       <c r="R420" s="22"/>
       <c r="S420" s="22"/>
       <c r="T420" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O420:S420)</f>
         <v>0</v>
       </c>
       <c r="U420" s="27"/>
@@ -33674,7 +33693,7 @@
         <v>356</v>
       </c>
       <c r="E421" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C421="","",WEEKNUM(C421,1))</f>
         <v>17</v>
       </c>
       <c r="F421" s="22" t="s">
@@ -33709,7 +33728,7 @@
       <c r="R421" s="22"/>
       <c r="S421" s="22"/>
       <c r="T421" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O421:S421)</f>
         <v>0</v>
       </c>
       <c r="U421" s="27"/>
@@ -33733,7 +33752,7 @@
         <v>356</v>
       </c>
       <c r="E422" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C422="","",WEEKNUM(C422,1))</f>
         <v>17</v>
       </c>
       <c r="F422" s="22" t="s">
@@ -33772,7 +33791,7 @@
       <c r="R422" s="22"/>
       <c r="S422" s="22"/>
       <c r="T422" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O422:S422)</f>
         <v>1</v>
       </c>
       <c r="U422" s="27" t="s">
@@ -33811,7 +33830,7 @@
         <v>356</v>
       </c>
       <c r="E423" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C423="","",WEEKNUM(C423,1))</f>
         <v>17</v>
       </c>
       <c r="F423" s="22" t="s">
@@ -33842,7 +33861,7 @@
       <c r="R423" s="22"/>
       <c r="S423" s="22"/>
       <c r="T423" s="22">
-        <f t="shared" si="15"/>
+        <f>SUM(O423:S423)</f>
         <v>1</v>
       </c>
       <c r="U423" s="27" t="s">
@@ -33881,7 +33900,7 @@
         <v>356</v>
       </c>
       <c r="E424" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C424="","",WEEKNUM(C424,1))</f>
         <v>17</v>
       </c>
       <c r="F424" s="22" t="s">
@@ -33937,7 +33956,7 @@
         <v>356</v>
       </c>
       <c r="E425" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C425="","",WEEKNUM(C425,1))</f>
         <v>17</v>
       </c>
       <c r="F425" s="22" t="s">
@@ -33993,7 +34012,7 @@
         <v>356</v>
       </c>
       <c r="E426" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C426="","",WEEKNUM(C426,1))</f>
         <v>17</v>
       </c>
       <c r="F426" s="22" t="s">
@@ -34049,7 +34068,7 @@
         <v>356</v>
       </c>
       <c r="E427" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C427="","",WEEKNUM(C427,1))</f>
         <v>17</v>
       </c>
       <c r="F427" s="22" t="s">
@@ -34084,7 +34103,7 @@
       <c r="R427" s="22"/>
       <c r="S427" s="22"/>
       <c r="T427" s="22">
-        <f t="shared" ref="T427:T440" si="16">SUM(O427:S427)</f>
+        <f>SUM(O427:S427)</f>
         <v>0</v>
       </c>
       <c r="U427" s="27"/>
@@ -34110,7 +34129,7 @@
         <v>356</v>
       </c>
       <c r="E428" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C428="","",WEEKNUM(C428,1))</f>
         <v>17</v>
       </c>
       <c r="F428" s="22" t="s">
@@ -34145,7 +34164,7 @@
       <c r="R428" s="22"/>
       <c r="S428" s="22"/>
       <c r="T428" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O428:S428)</f>
         <v>0</v>
       </c>
       <c r="U428" s="27"/>
@@ -34171,7 +34190,7 @@
         <v>356</v>
       </c>
       <c r="E429" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C429="","",WEEKNUM(C429,1))</f>
         <v>17</v>
       </c>
       <c r="F429" s="22" t="s">
@@ -34210,7 +34229,7 @@
       <c r="R429" s="22"/>
       <c r="S429" s="22"/>
       <c r="T429" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O429:S429)</f>
         <v>1</v>
       </c>
       <c r="U429" s="27" t="s">
@@ -34251,7 +34270,7 @@
         <v>356</v>
       </c>
       <c r="E430" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C430="","",WEEKNUM(C430,1))</f>
         <v>17</v>
       </c>
       <c r="F430" s="22" t="s">
@@ -34286,7 +34305,7 @@
       <c r="R430" s="22"/>
       <c r="S430" s="22"/>
       <c r="T430" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O430:S430)</f>
         <v>0</v>
       </c>
       <c r="U430" s="27"/>
@@ -34312,7 +34331,7 @@
         <v>356</v>
       </c>
       <c r="E431" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C431="","",WEEKNUM(C431,1))</f>
         <v>17</v>
       </c>
       <c r="F431" s="22" t="s">
@@ -34347,7 +34366,7 @@
       <c r="R431" s="22"/>
       <c r="S431" s="22"/>
       <c r="T431" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O431:S431)</f>
         <v>0</v>
       </c>
       <c r="U431" s="27"/>
@@ -34373,7 +34392,7 @@
         <v>356</v>
       </c>
       <c r="E432" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C432="","",WEEKNUM(C432,1))</f>
         <v>17</v>
       </c>
       <c r="F432" s="22" t="s">
@@ -34408,7 +34427,7 @@
       <c r="R432" s="22"/>
       <c r="S432" s="22"/>
       <c r="T432" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O432:S432)</f>
         <v>0</v>
       </c>
       <c r="U432" s="27"/>
@@ -34434,7 +34453,7 @@
         <v>356</v>
       </c>
       <c r="E433" s="61">
-        <f t="shared" si="14"/>
+        <f>IF(C433="","",WEEKNUM(C433,1))</f>
         <v>17</v>
       </c>
       <c r="F433" s="22" t="s">
@@ -34469,7 +34488,7 @@
       <c r="R433" s="22"/>
       <c r="S433" s="22"/>
       <c r="T433" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O433:S433)</f>
         <v>0</v>
       </c>
       <c r="U433" s="27"/>
@@ -34495,7 +34514,7 @@
         <v>356</v>
       </c>
       <c r="E434" s="61">
-        <f t="shared" ref="E434:E453" si="17">IF(C434="","",WEEKNUM(C434,1))</f>
+        <f>IF(C434="","",WEEKNUM(C434,1))</f>
         <v>17</v>
       </c>
       <c r="F434" s="22" t="s">
@@ -34530,7 +34549,7 @@
       <c r="R434" s="22"/>
       <c r="S434" s="22"/>
       <c r="T434" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O434:S434)</f>
         <v>0</v>
       </c>
       <c r="U434" s="27"/>
@@ -34556,7 +34575,7 @@
         <v>356</v>
       </c>
       <c r="E435" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C435="","",WEEKNUM(C435,1))</f>
         <v>17</v>
       </c>
       <c r="F435" s="22" t="s">
@@ -34591,7 +34610,7 @@
       <c r="R435" s="22"/>
       <c r="S435" s="22"/>
       <c r="T435" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O435:S435)</f>
         <v>0</v>
       </c>
       <c r="U435" s="27"/>
@@ -34617,7 +34636,7 @@
         <v>356</v>
       </c>
       <c r="E436" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C436="","",WEEKNUM(C436,1))</f>
         <v>17</v>
       </c>
       <c r="F436" s="22" t="s">
@@ -34652,7 +34671,7 @@
       <c r="R436" s="22"/>
       <c r="S436" s="22"/>
       <c r="T436" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O436:S436)</f>
         <v>0</v>
       </c>
       <c r="U436" s="27"/>
@@ -34678,7 +34697,7 @@
         <v>356</v>
       </c>
       <c r="E437" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C437="","",WEEKNUM(C437,1))</f>
         <v>17</v>
       </c>
       <c r="F437" s="22" t="s">
@@ -34713,7 +34732,7 @@
       <c r="R437" s="22"/>
       <c r="S437" s="22"/>
       <c r="T437" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O437:S437)</f>
         <v>0</v>
       </c>
       <c r="U437" s="27"/>
@@ -34739,7 +34758,7 @@
         <v>356</v>
       </c>
       <c r="E438" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C438="","",WEEKNUM(C438,1))</f>
         <v>17</v>
       </c>
       <c r="F438" s="22" t="s">
@@ -34774,7 +34793,7 @@
       <c r="R438" s="22"/>
       <c r="S438" s="22"/>
       <c r="T438" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O438:S438)</f>
         <v>0</v>
       </c>
       <c r="U438" s="27"/>
@@ -34800,7 +34819,7 @@
         <v>356</v>
       </c>
       <c r="E439" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C439="","",WEEKNUM(C439,1))</f>
         <v>17</v>
       </c>
       <c r="F439" s="22" t="s">
@@ -34839,7 +34858,7 @@
       <c r="R439" s="22"/>
       <c r="S439" s="22"/>
       <c r="T439" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O439:S439)</f>
         <v>1</v>
       </c>
       <c r="U439" s="27" t="s">
@@ -34880,7 +34899,7 @@
         <v>356</v>
       </c>
       <c r="E440" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C440="","",WEEKNUM(C440,1))</f>
         <v>17</v>
       </c>
       <c r="F440" s="22" t="s">
@@ -34919,7 +34938,7 @@
       <c r="R440" s="22"/>
       <c r="S440" s="22"/>
       <c r="T440" s="22">
-        <f t="shared" si="16"/>
+        <f>SUM(O440:S440)</f>
         <v>1</v>
       </c>
       <c r="U440" s="27" t="s">
@@ -34960,7 +34979,7 @@
         <v>356</v>
       </c>
       <c r="E441" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C441="","",WEEKNUM(C441,1))</f>
         <v>17</v>
       </c>
       <c r="F441" s="22" t="s">
@@ -35021,7 +35040,7 @@
         <v>356</v>
       </c>
       <c r="E442" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C442="","",WEEKNUM(C442,1))</f>
         <v>17</v>
       </c>
       <c r="F442" s="22" t="s">
@@ -35079,7 +35098,7 @@
         <v>356</v>
       </c>
       <c r="E443" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C443="","",WEEKNUM(C443,1))</f>
         <v>18</v>
       </c>
       <c r="F443" s="22" t="s">
@@ -35114,7 +35133,7 @@
       <c r="R443" s="22"/>
       <c r="S443" s="22"/>
       <c r="T443" s="22">
-        <f t="shared" ref="T443:T453" si="18">SUM(O443:S443)</f>
+        <f>SUM(O443:S443)</f>
         <v>0</v>
       </c>
       <c r="U443" s="27"/>
@@ -35140,7 +35159,7 @@
         <v>356</v>
       </c>
       <c r="E444" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C444="","",WEEKNUM(C444,1))</f>
         <v>18</v>
       </c>
       <c r="F444" s="22" t="s">
@@ -35175,7 +35194,7 @@
       <c r="R444" s="22"/>
       <c r="S444" s="22"/>
       <c r="T444" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O444:S444)</f>
         <v>0</v>
       </c>
       <c r="U444" s="27"/>
@@ -35201,7 +35220,7 @@
         <v>356</v>
       </c>
       <c r="E445" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C445="","",WEEKNUM(C445,1))</f>
         <v>18</v>
       </c>
       <c r="F445" s="22" t="s">
@@ -35240,7 +35259,7 @@
       <c r="R445" s="22"/>
       <c r="S445" s="22"/>
       <c r="T445" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O445:S445)</f>
         <v>1</v>
       </c>
       <c r="U445" s="27" t="s">
@@ -35281,7 +35300,7 @@
         <v>356</v>
       </c>
       <c r="E446" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C446="","",WEEKNUM(C446,1))</f>
         <v>18</v>
       </c>
       <c r="F446" s="22" t="s">
@@ -35312,7 +35331,7 @@
       <c r="R446" s="22"/>
       <c r="S446" s="22"/>
       <c r="T446" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O446:S446)</f>
         <v>1</v>
       </c>
       <c r="U446" s="27" t="s">
@@ -35353,7 +35372,7 @@
         <v>356</v>
       </c>
       <c r="E447" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C447="","",WEEKNUM(C447,1))</f>
         <v>18</v>
       </c>
       <c r="F447" s="22" t="s">
@@ -35388,7 +35407,7 @@
       <c r="R447" s="22"/>
       <c r="S447" s="22"/>
       <c r="T447" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O447:S447)</f>
         <v>0</v>
       </c>
       <c r="U447" s="27"/>
@@ -35414,7 +35433,7 @@
         <v>356</v>
       </c>
       <c r="E448" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C448="","",WEEKNUM(C448,1))</f>
         <v>18</v>
       </c>
       <c r="F448" s="22" t="s">
@@ -35453,7 +35472,7 @@
       <c r="R448" s="22"/>
       <c r="S448" s="22"/>
       <c r="T448" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O448:S448)</f>
         <v>4</v>
       </c>
       <c r="U448" s="27" t="s">
@@ -35494,7 +35513,7 @@
         <v>356</v>
       </c>
       <c r="E449" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C449="","",WEEKNUM(C449,1))</f>
         <v>18</v>
       </c>
       <c r="F449" s="22" t="s">
@@ -35529,7 +35548,7 @@
       <c r="R449" s="22"/>
       <c r="S449" s="22"/>
       <c r="T449" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O449:S449)</f>
         <v>0</v>
       </c>
       <c r="U449" s="27"/>
@@ -35555,7 +35574,7 @@
         <v>356</v>
       </c>
       <c r="E450" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C450="","",WEEKNUM(C450,1))</f>
         <v>18</v>
       </c>
       <c r="F450" s="22" t="s">
@@ -35594,7 +35613,7 @@
       <c r="R450" s="22"/>
       <c r="S450" s="22"/>
       <c r="T450" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O450:S450)</f>
         <v>2</v>
       </c>
       <c r="U450" s="27" t="s">
@@ -35635,7 +35654,7 @@
         <v>356</v>
       </c>
       <c r="E451" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C451="","",WEEKNUM(C451,1))</f>
         <v>18</v>
       </c>
       <c r="F451" s="22" t="s">
@@ -35666,7 +35685,7 @@
       </c>
       <c r="S451" s="22"/>
       <c r="T451" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O451:S451)</f>
         <v>1</v>
       </c>
       <c r="U451" s="27" t="s">
@@ -35707,7 +35726,7 @@
         <v>356</v>
       </c>
       <c r="E452" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C452="","",WEEKNUM(C452,1))</f>
         <v>18</v>
       </c>
       <c r="F452" s="22" t="s">
@@ -35738,7 +35757,7 @@
       <c r="R452" s="22"/>
       <c r="S452" s="22"/>
       <c r="T452" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O452:S452)</f>
         <v>6</v>
       </c>
       <c r="U452" s="27" t="s">
@@ -35779,7 +35798,7 @@
         <v>356</v>
       </c>
       <c r="E453" s="61">
-        <f t="shared" si="17"/>
+        <f>IF(C453="","",WEEKNUM(C453,1))</f>
         <v>18</v>
       </c>
       <c r="F453" s="22" t="s">
@@ -35818,7 +35837,7 @@
       <c r="R453" s="22"/>
       <c r="S453" s="22"/>
       <c r="T453" s="22">
-        <f t="shared" si="18"/>
+        <f>SUM(O453:S453)</f>
         <v>1</v>
       </c>
       <c r="U453" s="27" t="s">
@@ -49321,7 +49340,7 @@
         <v>487</v>
       </c>
       <c r="E709" s="4">
-        <f t="shared" ref="E709:E721" si="19">IF(C709="","",WEEKNUM(C709,1))</f>
+        <f>IF(C709="","",WEEKNUM(C709,1))</f>
         <v>22</v>
       </c>
       <c r="F709" s="5" t="s">
@@ -49350,7 +49369,7 @@
         <v>37</v>
       </c>
       <c r="T709" s="12">
-        <f t="shared" ref="T709:T721" si="20">SUM(O709:S709)</f>
+        <f>SUM(O709:S709)</f>
         <v>0</v>
       </c>
     </row>
@@ -49368,7 +49387,7 @@
         <v>487</v>
       </c>
       <c r="E710" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C710="","",WEEKNUM(C710,1))</f>
         <v>22</v>
       </c>
       <c r="F710" s="5" t="s">
@@ -49397,7 +49416,7 @@
         <v>37</v>
       </c>
       <c r="T710" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O710:S710)</f>
         <v>0</v>
       </c>
     </row>
@@ -49415,7 +49434,7 @@
         <v>487</v>
       </c>
       <c r="E711" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C711="","",WEEKNUM(C711,1))</f>
         <v>22</v>
       </c>
       <c r="F711" s="5" t="s">
@@ -49444,7 +49463,7 @@
         <v>37</v>
       </c>
       <c r="T711" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O711:S711)</f>
         <v>0</v>
       </c>
     </row>
@@ -49462,7 +49481,7 @@
         <v>487</v>
       </c>
       <c r="E712" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C712="","",WEEKNUM(C712,1))</f>
         <v>22</v>
       </c>
       <c r="F712" s="5" t="s">
@@ -49491,7 +49510,7 @@
         <v>37</v>
       </c>
       <c r="T712" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O712:S712)</f>
         <v>0</v>
       </c>
     </row>
@@ -49509,7 +49528,7 @@
         <v>487</v>
       </c>
       <c r="E713" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C713="","",WEEKNUM(C713,1))</f>
         <v>22</v>
       </c>
       <c r="F713" s="5" t="s">
@@ -49538,7 +49557,7 @@
         <v>37</v>
       </c>
       <c r="T713" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O713:S713)</f>
         <v>0</v>
       </c>
     </row>
@@ -49556,7 +49575,7 @@
         <v>487</v>
       </c>
       <c r="E714" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C714="","",WEEKNUM(C714,1))</f>
         <v>22</v>
       </c>
       <c r="F714" s="5" t="s">
@@ -49585,7 +49604,7 @@
         <v>37</v>
       </c>
       <c r="T714" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O714:S714)</f>
         <v>0</v>
       </c>
       <c r="AC714" s="8" t="s">
@@ -49606,7 +49625,7 @@
         <v>487</v>
       </c>
       <c r="E715" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C715="","",WEEKNUM(C715,1))</f>
         <v>22</v>
       </c>
       <c r="F715" s="5" t="s">
@@ -49635,7 +49654,7 @@
         <v>37</v>
       </c>
       <c r="T715" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O715:S715)</f>
         <v>0</v>
       </c>
       <c r="AC715" s="8" t="s">
@@ -49656,7 +49675,7 @@
         <v>487</v>
       </c>
       <c r="E716" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C716="","",WEEKNUM(C716,1))</f>
         <v>22</v>
       </c>
       <c r="F716" s="5" t="s">
@@ -49685,7 +49704,7 @@
         <v>37</v>
       </c>
       <c r="T716" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O716:S716)</f>
         <v>0</v>
       </c>
     </row>
@@ -49703,7 +49722,7 @@
         <v>487</v>
       </c>
       <c r="E717" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C717="","",WEEKNUM(C717,1))</f>
         <v>22</v>
       </c>
       <c r="F717" s="5" t="s">
@@ -49732,7 +49751,7 @@
         <v>37</v>
       </c>
       <c r="T717" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O717:S717)</f>
         <v>0</v>
       </c>
     </row>
@@ -49750,7 +49769,7 @@
         <v>487</v>
       </c>
       <c r="E718" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C718="","",WEEKNUM(C718,1))</f>
         <v>22</v>
       </c>
       <c r="F718" s="5" t="s">
@@ -49779,7 +49798,7 @@
         <v>37</v>
       </c>
       <c r="T718" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O718:S718)</f>
         <v>0</v>
       </c>
     </row>
@@ -49797,7 +49816,7 @@
         <v>487</v>
       </c>
       <c r="E719" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C719="","",WEEKNUM(C719,1))</f>
         <v>22</v>
       </c>
       <c r="F719" s="5" t="s">
@@ -49826,7 +49845,7 @@
         <v>37</v>
       </c>
       <c r="T719" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O719:S719)</f>
         <v>0</v>
       </c>
     </row>
@@ -49844,7 +49863,7 @@
         <v>487</v>
       </c>
       <c r="E720" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C720="","",WEEKNUM(C720,1))</f>
         <v>22</v>
       </c>
       <c r="F720" s="5" t="s">
@@ -49873,7 +49892,7 @@
         <v>37</v>
       </c>
       <c r="T720" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O720:S720)</f>
         <v>0</v>
       </c>
     </row>
@@ -49891,7 +49910,7 @@
         <v>487</v>
       </c>
       <c r="E721" s="4">
-        <f t="shared" si="19"/>
+        <f>IF(C721="","",WEEKNUM(C721,1))</f>
         <v>22</v>
       </c>
       <c r="F721" s="5" t="s">
@@ -49920,7 +49939,7 @@
         <v>37</v>
       </c>
       <c r="T721" s="12">
-        <f t="shared" si="20"/>
+        <f>SUM(O721:S721)</f>
         <v>0</v>
       </c>
     </row>
@@ -50989,6 +51008,230 @@
         <v>52</v>
       </c>
       <c r="Z742" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="743" customHeight="1" spans="1:20">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1">
+        <v>240603001</v>
+      </c>
+      <c r="C743" s="3">
+        <v>45446</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E743" s="4">
+        <v>23</v>
+      </c>
+      <c r="F743" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G743" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H743" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I743" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J743" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K743" s="8">
+        <v>420</v>
+      </c>
+      <c r="L743" s="8">
+        <v>32</v>
+      </c>
+      <c r="N743" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T743" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" customHeight="1" spans="1:26">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1">
+        <v>240605001</v>
+      </c>
+      <c r="C744" s="3">
+        <v>45448</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E744" s="4">
+        <v>23</v>
+      </c>
+      <c r="F744" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G744" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H744" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I744" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J744" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K744" s="8">
+        <v>92</v>
+      </c>
+      <c r="L744" s="8">
+        <v>8</v>
+      </c>
+      <c r="M744" s="9">
+        <v>8</v>
+      </c>
+      <c r="N744" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S744" s="12">
+        <v>8</v>
+      </c>
+      <c r="T744" s="12">
+        <v>8</v>
+      </c>
+      <c r="U744" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="V744" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W744" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X744" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y744" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z744" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="745" customHeight="1" spans="1:20">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1">
+        <v>240605002</v>
+      </c>
+      <c r="C745" s="3">
+        <v>45448</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E745" s="4">
+        <v>23</v>
+      </c>
+      <c r="F745" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G745" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H745" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I745" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J745" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K745" s="8">
+        <v>73</v>
+      </c>
+      <c r="L745" s="8">
+        <v>8</v>
+      </c>
+      <c r="N745" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T745" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" customHeight="1" spans="1:26">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1">
+        <v>240605003</v>
+      </c>
+      <c r="C746" s="3">
+        <v>45448</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E746" s="4">
+        <v>23</v>
+      </c>
+      <c r="F746" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G746" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H746" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I746" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J746" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K746" s="8">
+        <v>1859</v>
+      </c>
+      <c r="L746" s="8">
+        <v>20</v>
+      </c>
+      <c r="M746" s="9">
+        <v>20</v>
+      </c>
+      <c r="N746" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S746" s="12">
+        <v>20</v>
+      </c>
+      <c r="T746" s="12">
+        <v>20</v>
+      </c>
+      <c r="U746" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="V746" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W746" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X746" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y746" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z746" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -52000,10 +52243,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -52024,7 +52267,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -52064,7 +52307,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -52072,15 +52315,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -52104,7 +52347,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -52120,18 +52363,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B18" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -52144,7 +52387,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -52152,7 +52395,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -52168,7 +52411,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -52176,15 +52419,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B24" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -52208,7 +52451,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -52248,10 +52491,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B33" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -52272,7 +52515,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -52288,7 +52531,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -52320,7 +52563,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -52328,7 +52571,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -52336,7 +52579,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -52384,26 +52627,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B50" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B51" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B52" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -52456,7 +52699,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -52472,7 +52715,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12320"/>
+    <workbookView windowWidth="27660" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="数据源" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$746</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$789</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6471" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6859" uniqueCount="669">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1892,6 +1892,78 @@
   </si>
   <si>
     <t>批量漏贴封口贴，批量电池盒盖有缩水印，发白</t>
+  </si>
+  <si>
+    <t>DD261014</t>
+  </si>
+  <si>
+    <t>DD261163</t>
+  </si>
+  <si>
+    <t>后面板下端划伤</t>
+  </si>
+  <si>
+    <t>DD260018</t>
+  </si>
+  <si>
+    <t>视频手机端无声</t>
+  </si>
+  <si>
+    <t>DD259394</t>
+  </si>
+  <si>
+    <t>CG000177</t>
+  </si>
+  <si>
+    <t>DD260022</t>
+  </si>
+  <si>
+    <t>DD261012</t>
+  </si>
+  <si>
+    <t>后盖板有缩水印</t>
+  </si>
+  <si>
+    <t>DD261011</t>
+  </si>
+  <si>
+    <t>呼吸灯有异物</t>
+  </si>
+  <si>
+    <t>手机联网找不到MAC地址</t>
+  </si>
+  <si>
+    <t>DD259484</t>
+  </si>
+  <si>
+    <t>240611-002</t>
+  </si>
+  <si>
+    <t>DD257252  DD259394</t>
+  </si>
+  <si>
+    <t>纸箱开裂</t>
+  </si>
+  <si>
+    <t>批量后盖板缩水印</t>
+  </si>
+  <si>
+    <t>锁具功耗大，实测0.47ma</t>
+  </si>
+  <si>
+    <t>旋钮划伤</t>
+  </si>
+  <si>
+    <t>手柄掉漆</t>
+  </si>
+  <si>
+    <t>电池盒有擦不掉的痕迹</t>
+  </si>
+  <si>
+    <t>DD260217</t>
+  </si>
+  <si>
+    <t>手柄划伤</t>
   </si>
   <si>
     <t>D60-L</t>
@@ -5043,9 +5115,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE746" totalsRowShown="0">
-  <autoFilter ref="A2:AE746"/>
-  <sortState ref="A2:AE746">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE789" totalsRowShown="0">
+  <autoFilter ref="A2:AE789"/>
+  <sortState ref="A2:AE789">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -5337,12 +5409,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE746"/>
+  <dimension ref="A1:AE789"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A777" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J749" sqref="J749"/>
+      <selection pane="bottomLeft" activeCell="A746" sqref="A746:A789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -51233,6 +51305,2213 @@
       </c>
       <c r="Z746" s="11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="747" customHeight="1" spans="1:20">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1">
+        <v>240606001</v>
+      </c>
+      <c r="C747" s="3">
+        <v>45449</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E747" s="4">
+        <v>23</v>
+      </c>
+      <c r="F747" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G747" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H747" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I747" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J747" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K747" s="8">
+        <v>576</v>
+      </c>
+      <c r="L747" s="8">
+        <v>32</v>
+      </c>
+      <c r="N747" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T747" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" customHeight="1" spans="1:20">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1">
+        <v>240606002</v>
+      </c>
+      <c r="C748" s="3">
+        <v>45449</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E748" s="4">
+        <v>23</v>
+      </c>
+      <c r="F748" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G748" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="H748" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I748" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J748" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K748" s="8">
+        <v>576</v>
+      </c>
+      <c r="L748" s="8">
+        <v>32</v>
+      </c>
+      <c r="N748" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T748" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" customHeight="1" spans="1:26">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1">
+        <v>240607001</v>
+      </c>
+      <c r="C749" s="3">
+        <v>45450</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E749" s="4">
+        <v>23</v>
+      </c>
+      <c r="F749" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G749" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H749" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I749" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J749" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K749" s="8">
+        <v>359</v>
+      </c>
+      <c r="L749" s="8">
+        <v>32</v>
+      </c>
+      <c r="M749" s="9">
+        <v>1</v>
+      </c>
+      <c r="N749" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O749" s="11">
+        <v>1</v>
+      </c>
+      <c r="T749" s="12">
+        <v>1</v>
+      </c>
+      <c r="U749" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="V749" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W749" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X749" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y749" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z749" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="750" customHeight="1" spans="1:20">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1">
+        <v>240607002</v>
+      </c>
+      <c r="C750" s="3">
+        <v>45450</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E750" s="4">
+        <v>23</v>
+      </c>
+      <c r="F750" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G750" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="H750" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I750" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J750" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K750" s="8">
+        <v>944</v>
+      </c>
+      <c r="L750" s="8">
+        <v>13</v>
+      </c>
+      <c r="N750" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T750" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" customHeight="1" spans="1:20">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1">
+        <v>240607003</v>
+      </c>
+      <c r="C751" s="3">
+        <v>45450</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E751" s="4">
+        <v>23</v>
+      </c>
+      <c r="F751" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G751" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H751" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I751" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J751" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K751" s="8">
+        <v>79</v>
+      </c>
+      <c r="L751" s="8">
+        <v>8</v>
+      </c>
+      <c r="N751" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T751" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" customHeight="1" spans="1:20">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1">
+        <v>240608001</v>
+      </c>
+      <c r="C752" s="3">
+        <v>45451</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E752" s="4">
+        <v>23</v>
+      </c>
+      <c r="F752" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G752" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="H752" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I752" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J752" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K752" s="8">
+        <v>72</v>
+      </c>
+      <c r="L752" s="8">
+        <v>8</v>
+      </c>
+      <c r="N752" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T752" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" customHeight="1" spans="1:20">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1">
+        <v>240611001</v>
+      </c>
+      <c r="C753" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E753" s="4">
+        <v>24</v>
+      </c>
+      <c r="F753" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G753" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H753" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I753" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J753" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K753" s="8">
+        <v>144</v>
+      </c>
+      <c r="L753" s="8">
+        <v>8</v>
+      </c>
+      <c r="N753" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T753" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" customHeight="1" spans="1:26">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1">
+        <v>240611002</v>
+      </c>
+      <c r="C754" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E754" s="4">
+        <v>24</v>
+      </c>
+      <c r="F754" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G754" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H754" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I754" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J754" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K754" s="8">
+        <v>609</v>
+      </c>
+      <c r="L754" s="8">
+        <v>32</v>
+      </c>
+      <c r="M754" s="9">
+        <v>2</v>
+      </c>
+      <c r="N754" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O754" s="11">
+        <v>1</v>
+      </c>
+      <c r="T754" s="12">
+        <v>1</v>
+      </c>
+      <c r="U754" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V754" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W754" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X754" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y754" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z754" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="755" customHeight="1" spans="1:26">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1">
+        <v>240611002</v>
+      </c>
+      <c r="C755" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E755" s="4">
+        <v>24</v>
+      </c>
+      <c r="F755" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G755" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H755" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I755" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J755" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q755" s="11">
+        <v>1</v>
+      </c>
+      <c r="T755" s="12">
+        <v>1</v>
+      </c>
+      <c r="U755" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="V755" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W755" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X755" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y755" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z755" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="756" customHeight="1" spans="1:20">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1">
+        <v>240611003</v>
+      </c>
+      <c r="C756" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E756" s="4">
+        <v>24</v>
+      </c>
+      <c r="F756" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G756" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H756" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I756" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J756" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K756" s="8">
+        <v>720</v>
+      </c>
+      <c r="L756" s="8">
+        <v>32</v>
+      </c>
+      <c r="N756" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T756" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" customHeight="1" spans="1:20">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1">
+        <v>240611004</v>
+      </c>
+      <c r="C757" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E757" s="4">
+        <v>24</v>
+      </c>
+      <c r="F757" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G757" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H757" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I757" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J757" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K757" s="8">
+        <v>1536</v>
+      </c>
+      <c r="L757" s="8">
+        <v>13</v>
+      </c>
+      <c r="N757" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T757" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" customHeight="1" spans="1:20">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1">
+        <v>240611005</v>
+      </c>
+      <c r="C758" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E758" s="4">
+        <v>24</v>
+      </c>
+      <c r="F758" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G758" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H758" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I758" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J758" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K758" s="8">
+        <v>1</v>
+      </c>
+      <c r="L758" s="8">
+        <v>1</v>
+      </c>
+      <c r="N758" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T758" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" customHeight="1" spans="1:20">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1">
+        <v>240611006</v>
+      </c>
+      <c r="C759" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E759" s="4">
+        <v>24</v>
+      </c>
+      <c r="F759" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G759" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="H759" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I759" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J759" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K759" s="8">
+        <v>170</v>
+      </c>
+      <c r="L759" s="8">
+        <v>8</v>
+      </c>
+      <c r="N759" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T759" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" customHeight="1" spans="1:20">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1">
+        <v>240611007</v>
+      </c>
+      <c r="C760" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E760" s="4">
+        <v>24</v>
+      </c>
+      <c r="F760" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G760" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H760" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I760" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J760" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K760" s="8">
+        <v>167</v>
+      </c>
+      <c r="L760" s="8">
+        <v>8</v>
+      </c>
+      <c r="N760" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T760" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" customHeight="1" spans="1:20">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1">
+        <v>240612001</v>
+      </c>
+      <c r="C761" s="3">
+        <v>45455</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E761" s="4">
+        <v>24</v>
+      </c>
+      <c r="F761" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G761" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H761" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I761" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J761" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K761" s="8">
+        <v>288</v>
+      </c>
+      <c r="L761" s="8">
+        <v>32</v>
+      </c>
+      <c r="N761" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T761" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" customHeight="1" spans="1:20">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1">
+        <v>240612002</v>
+      </c>
+      <c r="C762" s="3">
+        <v>45455</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E762" s="4">
+        <v>24</v>
+      </c>
+      <c r="F762" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G762" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H762" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I762" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J762" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K762" s="8">
+        <v>125</v>
+      </c>
+      <c r="L762" s="8">
+        <v>8</v>
+      </c>
+      <c r="N762" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T762" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" customHeight="1" spans="1:20">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1">
+        <v>240612003</v>
+      </c>
+      <c r="C763" s="3">
+        <v>45455</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E763" s="4">
+        <v>24</v>
+      </c>
+      <c r="F763" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G763" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H763" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I763" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J763" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K763" s="8">
+        <v>284</v>
+      </c>
+      <c r="L763" s="8">
+        <v>8</v>
+      </c>
+      <c r="N763" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T763" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" customHeight="1" spans="1:26">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1">
+        <v>240612004</v>
+      </c>
+      <c r="C764" s="3">
+        <v>45455</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E764" s="4">
+        <v>24</v>
+      </c>
+      <c r="F764" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G764" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="H764" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I764" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J764" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K764" s="8">
+        <v>653</v>
+      </c>
+      <c r="L764" s="8">
+        <v>13</v>
+      </c>
+      <c r="M764" s="9">
+        <v>1</v>
+      </c>
+      <c r="N764" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O764" s="11">
+        <v>1</v>
+      </c>
+      <c r="T764" s="12">
+        <v>1</v>
+      </c>
+      <c r="U764" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="V764" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W764" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X764" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y764" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z764" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="765" customHeight="1" spans="1:20">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1">
+        <v>240613001</v>
+      </c>
+      <c r="C765" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E765" s="4">
+        <v>24</v>
+      </c>
+      <c r="F765" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G765" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H765" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I765" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J765" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K765" s="8">
+        <v>616</v>
+      </c>
+      <c r="L765" s="8">
+        <v>13</v>
+      </c>
+      <c r="N765" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T765" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" customHeight="1" spans="1:26">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1">
+        <v>240613002</v>
+      </c>
+      <c r="C766" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E766" s="4">
+        <v>24</v>
+      </c>
+      <c r="F766" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G766" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H766" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I766" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J766" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K766" s="8">
+        <v>1035</v>
+      </c>
+      <c r="L766" s="8">
+        <v>13</v>
+      </c>
+      <c r="M766" s="9">
+        <v>2</v>
+      </c>
+      <c r="N766" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O766" s="11">
+        <v>1</v>
+      </c>
+      <c r="T766" s="12">
+        <v>1</v>
+      </c>
+      <c r="U766" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="V766" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W766" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X766" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y766" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z766" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="767" customHeight="1" spans="1:26">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1">
+        <v>240613002</v>
+      </c>
+      <c r="C767" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E767" s="4">
+        <v>24</v>
+      </c>
+      <c r="F767" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G767" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H767" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I767" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J767" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q767" s="11">
+        <v>1</v>
+      </c>
+      <c r="T767" s="12">
+        <v>1</v>
+      </c>
+      <c r="U767" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="V767" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W767" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X767" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y767" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z767" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="768" customHeight="1" spans="1:20">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1">
+        <v>240613003</v>
+      </c>
+      <c r="C768" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E768" s="4">
+        <v>24</v>
+      </c>
+      <c r="F768" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G768" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="H768" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I768" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J768" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K768" s="8">
+        <v>50</v>
+      </c>
+      <c r="L768" s="8">
+        <v>8</v>
+      </c>
+      <c r="N768" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T768" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" customHeight="1" spans="1:29">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1">
+        <v>240613004</v>
+      </c>
+      <c r="C769" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E769" s="4">
+        <v>24</v>
+      </c>
+      <c r="F769" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G769" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H769" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I769" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J769" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K769" s="8">
+        <v>126</v>
+      </c>
+      <c r="L769" s="8">
+        <v>8</v>
+      </c>
+      <c r="N769" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T769" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC769" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="770" customHeight="1" spans="1:20">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1">
+        <v>240613005</v>
+      </c>
+      <c r="C770" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E770" s="4">
+        <v>24</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G770" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H770" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I770" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J770" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K770" s="8">
+        <v>432</v>
+      </c>
+      <c r="L770" s="8">
+        <v>32</v>
+      </c>
+      <c r="N770" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T770" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" customHeight="1" spans="1:26">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1">
+        <v>240614001</v>
+      </c>
+      <c r="C771" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E771" s="4">
+        <v>24</v>
+      </c>
+      <c r="F771" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G771" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H771" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I771" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J771" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K771" s="8">
+        <v>970</v>
+      </c>
+      <c r="L771" s="8">
+        <v>15</v>
+      </c>
+      <c r="M771" s="9">
+        <v>1</v>
+      </c>
+      <c r="N771" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q771" s="11">
+        <v>1</v>
+      </c>
+      <c r="T771" s="12">
+        <v>1</v>
+      </c>
+      <c r="U771" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="V771" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W771" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X771" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y771" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z771" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="772" customHeight="1" spans="1:20">
+      <c r="A772" s="1">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1">
+        <v>240614002</v>
+      </c>
+      <c r="C772" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E772" s="4">
+        <v>24</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G772" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H772" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I772" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J772" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K772" s="8">
+        <v>1380</v>
+      </c>
+      <c r="L772" s="8">
+        <v>50</v>
+      </c>
+      <c r="N772" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T772" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" customHeight="1" spans="1:20">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1">
+        <v>240614003</v>
+      </c>
+      <c r="C773" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E773" s="4">
+        <v>24</v>
+      </c>
+      <c r="F773" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G773" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="H773" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I773" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J773" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K773" s="8">
+        <v>720</v>
+      </c>
+      <c r="L773" s="8">
+        <v>32</v>
+      </c>
+      <c r="N773" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T773" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" customHeight="1" spans="1:20">
+      <c r="A774" s="1">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1">
+        <v>240614004</v>
+      </c>
+      <c r="C774" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E774" s="4">
+        <v>24</v>
+      </c>
+      <c r="F774" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G774" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H774" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I774" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J774" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K774" s="8">
+        <v>144</v>
+      </c>
+      <c r="L774" s="8">
+        <v>8</v>
+      </c>
+      <c r="N774" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T774" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" customHeight="1" spans="1:26">
+      <c r="A775" s="1">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1">
+        <v>240614005</v>
+      </c>
+      <c r="C775" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E775" s="4">
+        <v>24</v>
+      </c>
+      <c r="F775" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G775" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="H775" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I775" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J775" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K775" s="8">
+        <v>1024</v>
+      </c>
+      <c r="L775" s="8">
+        <v>13</v>
+      </c>
+      <c r="M775" s="9">
+        <v>1</v>
+      </c>
+      <c r="N775" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S775" s="12">
+        <v>1</v>
+      </c>
+      <c r="T775" s="12">
+        <v>1</v>
+      </c>
+      <c r="U775" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="V775" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W775" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="X775" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y775" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z775" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="776" customHeight="1" spans="1:26">
+      <c r="A776" s="1">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1">
+        <v>240614006</v>
+      </c>
+      <c r="C776" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E776" s="4">
+        <v>24</v>
+      </c>
+      <c r="F776" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G776" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H776" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I776" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J776" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K776" s="8">
+        <v>274</v>
+      </c>
+      <c r="L776" s="8">
+        <v>8</v>
+      </c>
+      <c r="M776" s="9">
+        <v>8</v>
+      </c>
+      <c r="N776" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O776" s="11">
+        <v>8</v>
+      </c>
+      <c r="T776" s="12">
+        <v>8</v>
+      </c>
+      <c r="U776" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="V776" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W776" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X776" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y776" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z776" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="777" customHeight="1" spans="1:20">
+      <c r="A777" s="1">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1">
+        <v>240614007</v>
+      </c>
+      <c r="C777" s="3">
+        <v>45457</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E777" s="4">
+        <v>24</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G777" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H777" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I777" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J777" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K777" s="8">
+        <v>1008</v>
+      </c>
+      <c r="L777" s="8">
+        <v>32</v>
+      </c>
+      <c r="N777" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T777" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" customHeight="1" spans="1:20">
+      <c r="A778" s="1">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1">
+        <v>240617001</v>
+      </c>
+      <c r="C778" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E778" s="4">
+        <v>25</v>
+      </c>
+      <c r="F778" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G778" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H778" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I778" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J778" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K778" s="8">
+        <v>156</v>
+      </c>
+      <c r="L778" s="8">
+        <v>8</v>
+      </c>
+      <c r="N778" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T778" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" customHeight="1" spans="1:20">
+      <c r="A779" s="1">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1">
+        <v>240617002</v>
+      </c>
+      <c r="C779" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D779" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E779" s="4">
+        <v>25</v>
+      </c>
+      <c r="F779" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G779" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H779" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I779" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J779" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K779" s="8">
+        <v>720</v>
+      </c>
+      <c r="L779" s="8">
+        <v>32</v>
+      </c>
+      <c r="N779" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T779" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" customHeight="1" spans="1:20">
+      <c r="A780" s="1">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1">
+        <v>240617003</v>
+      </c>
+      <c r="C780" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E780" s="4">
+        <v>25</v>
+      </c>
+      <c r="F780" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G780" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H780" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I780" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J780" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K780" s="8">
+        <v>245</v>
+      </c>
+      <c r="L780" s="8">
+        <v>8</v>
+      </c>
+      <c r="N780" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T780" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" customHeight="1" spans="1:26">
+      <c r="A781" s="1">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1">
+        <v>240617004</v>
+      </c>
+      <c r="C781" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E781" s="4">
+        <v>25</v>
+      </c>
+      <c r="F781" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G781" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H781" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I781" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J781" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K781" s="8">
+        <v>1152</v>
+      </c>
+      <c r="L781" s="8">
+        <v>32</v>
+      </c>
+      <c r="M781" s="9">
+        <v>1</v>
+      </c>
+      <c r="N781" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q781" s="11">
+        <v>1</v>
+      </c>
+      <c r="T781" s="12">
+        <v>1</v>
+      </c>
+      <c r="U781" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="V781" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W781" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X781" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y781" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z781" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="782" customHeight="1" spans="1:20">
+      <c r="A782" s="1">
+        <v>781</v>
+      </c>
+      <c r="B782" s="1">
+        <v>240617005</v>
+      </c>
+      <c r="C782" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E782" s="4">
+        <v>25</v>
+      </c>
+      <c r="F782" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G782" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H782" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="I782" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J782" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K782" s="8">
+        <v>58</v>
+      </c>
+      <c r="L782" s="8">
+        <v>8</v>
+      </c>
+      <c r="N782" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T782" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" customHeight="1" spans="1:20">
+      <c r="A783" s="1">
+        <v>782</v>
+      </c>
+      <c r="B783" s="1">
+        <v>240617006</v>
+      </c>
+      <c r="C783" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D783" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E783" s="4">
+        <v>25</v>
+      </c>
+      <c r="F783" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G783" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H783" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I783" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J783" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K783" s="8">
+        <v>126</v>
+      </c>
+      <c r="L783" s="8">
+        <v>8</v>
+      </c>
+      <c r="N783" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T783" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" customHeight="1" spans="1:26">
+      <c r="A784" s="1">
+        <v>783</v>
+      </c>
+      <c r="B784" s="1">
+        <v>240617007</v>
+      </c>
+      <c r="C784" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D784" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E784" s="4">
+        <v>25</v>
+      </c>
+      <c r="F784" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G784" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H784" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I784" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J784" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K784" s="8">
+        <v>1557</v>
+      </c>
+      <c r="L784" s="8">
+        <v>50</v>
+      </c>
+      <c r="M784" s="9">
+        <v>2</v>
+      </c>
+      <c r="N784" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O784" s="11">
+        <v>1</v>
+      </c>
+      <c r="T784" s="12">
+        <v>1</v>
+      </c>
+      <c r="U784" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="V784" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W784" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X784" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y784" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z784" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="785" customHeight="1" spans="1:26">
+      <c r="A785" s="1">
+        <v>784</v>
+      </c>
+      <c r="B785" s="1">
+        <v>240617007</v>
+      </c>
+      <c r="C785" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E785" s="4">
+        <v>25</v>
+      </c>
+      <c r="F785" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G785" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H785" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I785" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J785" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O785" s="11">
+        <v>1</v>
+      </c>
+      <c r="T785" s="12">
+        <v>1</v>
+      </c>
+      <c r="U785" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="V785" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W785" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X785" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y785" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z785" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="786" customHeight="1" spans="1:26">
+      <c r="A786" s="1">
+        <v>785</v>
+      </c>
+      <c r="B786" s="1">
+        <v>240617008</v>
+      </c>
+      <c r="C786" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E786" s="4">
+        <v>25</v>
+      </c>
+      <c r="F786" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G786" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H786" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I786" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J786" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K786" s="8">
+        <v>967</v>
+      </c>
+      <c r="L786" s="8">
+        <v>32</v>
+      </c>
+      <c r="M786" s="9">
+        <v>3</v>
+      </c>
+      <c r="N786" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q786" s="11">
+        <v>2</v>
+      </c>
+      <c r="T786" s="12">
+        <v>2</v>
+      </c>
+      <c r="U786" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="V786" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W786" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X786" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y786" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z786" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="787" customHeight="1" spans="1:26">
+      <c r="A787" s="1">
+        <v>786</v>
+      </c>
+      <c r="B787" s="1">
+        <v>240617008</v>
+      </c>
+      <c r="C787" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E787" s="4">
+        <v>25</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G787" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H787" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I787" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J787" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O787" s="11">
+        <v>1</v>
+      </c>
+      <c r="T787" s="12">
+        <v>1</v>
+      </c>
+      <c r="U787" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="V787" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W787" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X787" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y787" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z787" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="1:20">
+      <c r="A788" s="1">
+        <v>787</v>
+      </c>
+      <c r="B788" s="1">
+        <v>240617009</v>
+      </c>
+      <c r="C788" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E788" s="4">
+        <v>25</v>
+      </c>
+      <c r="F788" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G788" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H788" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I788" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J788" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K788" s="8">
+        <v>680</v>
+      </c>
+      <c r="L788" s="8">
+        <v>32</v>
+      </c>
+      <c r="N788" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T788" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" customHeight="1" spans="1:26">
+      <c r="A789" s="1">
+        <v>788</v>
+      </c>
+      <c r="B789" s="1">
+        <v>240617010</v>
+      </c>
+      <c r="C789" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E789" s="4">
+        <v>25</v>
+      </c>
+      <c r="F789" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G789" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H789" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I789" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J789" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K789" s="8">
+        <v>720</v>
+      </c>
+      <c r="L789" s="8">
+        <v>32</v>
+      </c>
+      <c r="M789" s="9">
+        <v>1</v>
+      </c>
+      <c r="N789" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O789" s="11">
+        <v>1</v>
+      </c>
+      <c r="T789" s="12">
+        <v>1</v>
+      </c>
+      <c r="U789" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="V789" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W789" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X789" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y789" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z789" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -52243,10 +54522,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -52267,7 +54546,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -52307,7 +54586,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="B10" t="s">
         <v>541</v>
@@ -52315,15 +54594,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="B11" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -52347,7 +54626,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -52363,18 +54642,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B17" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="B18" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -52387,7 +54666,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -52395,7 +54674,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -52411,7 +54690,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -52419,15 +54698,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -52451,7 +54730,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -52491,10 +54770,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="B33" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -52515,7 +54794,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -52531,7 +54810,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -52563,7 +54842,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -52571,7 +54850,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -52579,7 +54858,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -52627,26 +54906,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="B50" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="B52" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -52699,7 +54978,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -52715,7 +54994,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>

--- a/product_data_of_oem.xlsx
+++ b/product_data_of_oem.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源!$C$2:$AE$824</definedName>
     <definedName name="配件">[1]下拉列表源数据!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6859" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="683">
   <si>
     <t>2023年成品质量分析表</t>
   </si>
@@ -1966,6 +1966,51 @@
     <t>手柄划伤</t>
   </si>
   <si>
+    <t>DD260414</t>
+  </si>
+  <si>
+    <t>DD261869</t>
+  </si>
+  <si>
+    <t>DD260667</t>
+  </si>
+  <si>
+    <t>G102-J</t>
+  </si>
+  <si>
+    <t>外箱开裂</t>
+  </si>
+  <si>
+    <t>G101</t>
+  </si>
+  <si>
+    <t>DD260090</t>
+  </si>
+  <si>
+    <t>DD261010</t>
+  </si>
+  <si>
+    <t>DD261060</t>
+  </si>
+  <si>
+    <t>DD260627</t>
+  </si>
+  <si>
+    <t>DD261135</t>
+  </si>
+  <si>
+    <t>前面板上端硬划伤</t>
+  </si>
+  <si>
+    <t>DD259897</t>
+  </si>
+  <si>
+    <t>前面板橡胶垫破损</t>
+  </si>
+  <si>
+    <t>DD262052</t>
+  </si>
+  <si>
     <t>D60-L</t>
   </si>
   <si>
@@ -1982,9 +2027,6 @@
   </si>
   <si>
     <t>G100-DZ</t>
-  </si>
-  <si>
-    <t>G101</t>
   </si>
   <si>
     <t>G105-ST-09</t>
@@ -5094,6 +5136,22 @@
             <v>V5P</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Q3E</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>Q3E</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>G102-J</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>G102</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -5115,9 +5173,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE789" totalsRowShown="0">
-  <autoFilter ref="A2:AE789"/>
-  <sortState ref="A2:AE789">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="外O整体" displayName="外O整体" ref="A2:AE824" totalsRowShown="0">
+  <autoFilter ref="A2:AE824"/>
+  <sortState ref="A2:AE824">
     <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="31">
@@ -5409,12 +5467,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AE789"/>
+  <dimension ref="A1:AE824"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A777" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A746" sqref="A746:A789"/>
+      <selection pane="bottomLeft" activeCell="C820" sqref="C820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -5590,7 +5648,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="22">
-        <f>WEEKNUM(C3,1)</f>
+        <f t="shared" ref="E3:E66" si="0">WEEKNUM(C3,1)</f>
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -5624,7 +5682,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
       <c r="T3" s="11">
-        <f>SUM(O3:S3)</f>
+        <f t="shared" ref="T3:T27" si="1">SUM(O3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="36"/>
@@ -5653,7 +5711,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="22">
-        <f>WEEKNUM(C4,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -5687,7 +5745,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11">
-        <f>SUM(O4:S4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="36"/>
@@ -5716,7 +5774,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="22">
-        <f>WEEKNUM(C5,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -5750,7 +5808,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="11">
-        <f>SUM(O5:S5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="36"/>
@@ -5779,7 +5837,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="22">
-        <f>WEEKNUM(C6,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -5813,7 +5871,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11">
-        <f>SUM(O6:S6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="36"/>
@@ -5842,7 +5900,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="22">
-        <f>WEEKNUM(C7,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -5880,7 +5938,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="11">
-        <f>SUM(O7:S7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U7" s="36" t="s">
@@ -5921,7 +5979,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="22">
-        <f>WEEKNUM(C8,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -5951,7 +6009,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11">
-        <f>SUM(O8:S8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
@@ -5992,7 +6050,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="22">
-        <f>WEEKNUM(C9,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -6026,7 +6084,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="11">
-        <f>SUM(O9:S9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="36"/>
@@ -6055,7 +6113,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="22">
-        <f>WEEKNUM(C10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -6093,7 +6151,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="11">
-        <f>SUM(O10:S10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
@@ -6136,7 +6194,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="22">
-        <f>WEEKNUM(C11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -6170,7 +6228,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="11">
-        <f>SUM(O11:S11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="13"/>
@@ -6199,7 +6257,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="22">
-        <f>WEEKNUM(C12,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -6233,7 +6291,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="11">
-        <f>SUM(O12:S12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
@@ -6262,7 +6320,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="22">
-        <f>WEEKNUM(C13,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -6296,7 +6354,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="11">
-        <f>SUM(O13:S13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="22"/>
@@ -6325,7 +6383,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="22">
-        <f>WEEKNUM(C14,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -6363,7 +6421,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="11">
-        <f>SUM(O14:S14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
@@ -6406,7 +6464,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="22">
-        <f>WEEKNUM(C15,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -6436,7 +6494,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="11">
-        <f>SUM(O15:S15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U15" s="27" t="s">
@@ -6477,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="22">
-        <f>WEEKNUM(C16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -6515,7 +6573,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="11">
-        <f>SUM(O16:S16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U16" s="22" t="s">
@@ -6556,7 +6614,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="22">
-        <f>WEEKNUM(C17,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -6586,7 +6644,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="11">
-        <f>SUM(O17:S17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U17" s="22" t="s">
@@ -6627,7 +6685,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="22">
-        <f>WEEKNUM(C18,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -6665,7 +6723,7 @@
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="11">
-        <f>SUM(O18:S18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
@@ -6706,7 +6764,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="22">
-        <f>WEEKNUM(C19,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -6736,7 +6794,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="11">
-        <f>SUM(O19:S19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U19" s="27" t="s">
@@ -6777,7 +6835,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <f>WEEKNUM(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -6811,7 +6869,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11">
-        <f>SUM(O20:S20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="36"/>
@@ -6840,7 +6898,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="22">
-        <f>WEEKNUM(C21,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -6874,7 +6932,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11">
-        <f>SUM(O21:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="36"/>
@@ -6903,7 +6961,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <f>WEEKNUM(C22,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -6941,7 +6999,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22">
-        <f>SUM(O22:S22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
@@ -6982,7 +7040,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="22">
-        <f>WEEKNUM(C23,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -7012,7 +7070,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22">
-        <f>SUM(O23:S23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
@@ -7053,7 +7111,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="22">
-        <f>WEEKNUM(C24,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -7087,7 +7145,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22">
-        <f>SUM(O24:S24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="22"/>
@@ -7116,7 +7174,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="22">
-        <f>WEEKNUM(C25,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -7150,7 +7208,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22">
-        <f>SUM(O25:S25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U25" s="22"/>
@@ -7179,7 +7237,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="22">
-        <f>WEEKNUM(C26,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -7213,7 +7271,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22">
-        <f>SUM(O26:S26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U26" s="22"/>
@@ -7242,7 +7300,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="22">
-        <f>WEEKNUM(C27,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -7276,7 +7334,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22">
-        <f>SUM(O27:S27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U27" s="22"/>
@@ -7305,7 +7363,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="22">
-        <f>WEEKNUM(C28,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -7368,7 +7426,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="22">
-        <f>WEEKNUM(C29,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -7431,7 +7489,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="22">
-        <f>WEEKNUM(C30,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -7510,7 +7568,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="22">
-        <f>WEEKNUM(C31,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -7589,7 +7647,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="22">
-        <f>WEEKNUM(C32,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -7652,7 +7710,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="22">
-        <f>WEEKNUM(C33,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -7731,7 +7789,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="22">
-        <f>WEEKNUM(C34,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -7794,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="22">
-        <f>WEEKNUM(C35,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -7857,7 +7915,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="22">
-        <f>WEEKNUM(C36,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -7920,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="22">
-        <f>WEEKNUM(C37,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -7999,7 +8057,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="22">
-        <f>WEEKNUM(C38,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -8037,7 +8095,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="12"/>
       <c r="T38" s="22">
-        <f>SUM(O38:S38)</f>
+        <f t="shared" ref="T38:T74" si="2">SUM(O38:S38)</f>
         <v>1</v>
       </c>
       <c r="U38" s="27" t="s">
@@ -8078,7 +8136,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="22">
-        <f>WEEKNUM(C39,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -8112,7 +8170,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="12"/>
       <c r="T39" s="22">
-        <f>SUM(O39:S39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="27"/>
@@ -8141,7 +8199,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="22">
-        <f>WEEKNUM(C40,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -8181,7 +8239,7 @@
       </c>
       <c r="S40" s="22"/>
       <c r="T40" s="22">
-        <f>SUM(O40:S40)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
@@ -8222,7 +8280,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="22">
-        <f>WEEKNUM(C41,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -8260,7 +8318,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22">
-        <f>SUM(O41:S41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="27" t="s">
@@ -8301,7 +8359,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="22">
-        <f>WEEKNUM(C42,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -8331,7 +8389,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22">
-        <f>SUM(O42:S42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
@@ -8372,7 +8430,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="22">
-        <f>WEEKNUM(C43,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -8410,7 +8468,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22">
-        <f>SUM(O43:S43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U43" s="27" t="s">
@@ -8451,7 +8509,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="22">
-        <f>WEEKNUM(C44,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -8485,7 +8543,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22">
-        <f>SUM(O44:S44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44" s="22"/>
@@ -8514,7 +8572,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="22">
-        <f>WEEKNUM(C45,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -8548,7 +8606,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22">
-        <f>SUM(O45:S45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45" s="22"/>
@@ -8577,7 +8635,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="22">
-        <f>WEEKNUM(C46,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -8611,7 +8669,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22">
-        <f>SUM(O46:S46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U46" s="22"/>
@@ -8640,7 +8698,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="22">
-        <f>WEEKNUM(C47,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F47" s="27" t="s">
@@ -8674,7 +8732,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22">
-        <f>SUM(O47:S47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47" s="22"/>
@@ -8703,7 +8761,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="22">
-        <f>WEEKNUM(C48,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F48" s="27" t="s">
@@ -8737,7 +8795,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22">
-        <f>SUM(O48:S48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48" s="22"/>
@@ -8766,7 +8824,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="22">
-        <f>WEEKNUM(C49,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F49" s="27" t="s">
@@ -8800,7 +8858,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22">
-        <f>SUM(O49:S49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U49" s="22"/>
@@ -8829,7 +8887,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="22">
-        <f>WEEKNUM(C50,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -8867,7 +8925,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22">
-        <f>SUM(O50:S50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U50" s="27" t="s">
@@ -8908,7 +8966,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="22">
-        <f>WEEKNUM(C51,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -8942,7 +9000,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22">
-        <f>SUM(O51:S51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U51" s="27"/>
@@ -8971,7 +9029,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="22">
-        <f>WEEKNUM(C52,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -9009,7 +9067,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22">
-        <f>SUM(O52:S52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -9050,7 +9108,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="22">
-        <f>WEEKNUM(C53,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -9080,7 +9138,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22">
-        <f>SUM(O53:S53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U53" s="27" t="s">
@@ -9121,7 +9179,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="22">
-        <f>WEEKNUM(C54,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -9159,7 +9217,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22">
-        <f>SUM(O54:S54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U54" s="27" t="s">
@@ -9200,7 +9258,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="22">
-        <f>WEEKNUM(C55,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F55" s="22" t="s">
@@ -9234,7 +9292,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22">
-        <f>SUM(O55:S55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U55" s="27"/>
@@ -9263,7 +9321,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="22">
-        <f>WEEKNUM(C56,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F56" s="22" t="s">
@@ -9297,7 +9355,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22">
-        <f>SUM(O56:S56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U56" s="27"/>
@@ -9326,7 +9384,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="22">
-        <f>WEEKNUM(C57,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F57" s="22" t="s">
@@ -9360,7 +9418,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f>SUM(O57:S57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U57" s="27"/>
@@ -9389,7 +9447,7 @@
         <v>32</v>
       </c>
       <c r="E58" s="22">
-        <f>WEEKNUM(C58,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
@@ -9423,7 +9481,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22">
-        <f>SUM(O58:S58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U58" s="27"/>
@@ -9452,7 +9510,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="22">
-        <f>WEEKNUM(C59,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -9486,7 +9544,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22">
-        <f>SUM(O59:S59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59" s="27"/>
@@ -9515,7 +9573,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="22">
-        <f>WEEKNUM(C60,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F60" s="22" t="s">
@@ -9553,7 +9611,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22">
-        <f>SUM(O60:S60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U60" s="27" t="s">
@@ -9594,7 +9652,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="22">
-        <f>WEEKNUM(C61,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F61" s="22" t="s">
@@ -9628,7 +9686,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22">
-        <f>SUM(O61:S61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U61" s="27"/>
@@ -9657,7 +9715,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="22">
-        <f>WEEKNUM(C62,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F62" s="22" t="s">
@@ -9691,7 +9749,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22">
-        <f>SUM(O62:S62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U62" s="27"/>
@@ -9720,7 +9778,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="22">
-        <f>WEEKNUM(C63,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -9758,7 +9816,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22">
-        <f>SUM(O63:S63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U63" s="27" t="s">
@@ -9799,7 +9857,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="22">
-        <f>WEEKNUM(C64,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F64" s="22" t="s">
@@ -9829,7 +9887,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="12"/>
       <c r="T64" s="22">
-        <f>SUM(O64:S64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -9870,7 +9928,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="22">
-        <f>WEEKNUM(C65,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -9908,7 +9966,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22">
-        <f>SUM(O65:S65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U65" s="27" t="s">
@@ -9949,7 +10007,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="22">
-        <f>WEEKNUM(C66,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -9979,7 +10037,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22">
-        <f>SUM(O66:S66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U66" s="27" t="s">
@@ -10020,7 +10078,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="22">
-        <f>WEEKNUM(C67,1)</f>
+        <f t="shared" ref="E67:E130" si="3">WEEKNUM(C67,1)</f>
         <v>5</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -10058,7 +10116,7 @@
       </c>
       <c r="S67" s="22"/>
       <c r="T67" s="22">
-        <f>SUM(O67:S67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U67" s="27" t="s">
@@ -10099,7 +10157,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="22">
-        <f>WEEKNUM(C68,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F68" s="22" t="s">
@@ -10137,7 +10195,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22">
-        <f>SUM(O68:S68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U68" s="27" t="s">
@@ -10178,7 +10236,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="22">
-        <f>WEEKNUM(C69,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F69" s="22" t="s">
@@ -10212,7 +10270,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22">
-        <f>SUM(O69:S69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U69" s="27"/>
@@ -10241,7 +10299,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="22">
-        <f>WEEKNUM(C70,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -10275,7 +10333,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22">
-        <f>SUM(O70:S70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U70" s="27"/>
@@ -10304,7 +10362,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="22">
-        <f>WEEKNUM(C71,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -10338,7 +10396,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22">
-        <f>SUM(O71:S71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U71" s="27"/>
@@ -10367,7 +10425,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="22">
-        <f>WEEKNUM(C72,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -10401,7 +10459,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22">
-        <f>SUM(O72:S72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U72" s="27"/>
@@ -10430,7 +10488,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="22">
-        <f>WEEKNUM(C73,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F73" s="22" t="s">
@@ -10468,7 +10526,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22">
-        <f>SUM(O73:S73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U73" s="27" t="s">
@@ -10509,7 +10567,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="22">
-        <f>WEEKNUM(C74,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -10543,7 +10601,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22">
-        <f>SUM(O74:S74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U74" s="27"/>
@@ -10572,7 +10630,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="22">
-        <f>WEEKNUM(C75,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -10650,7 +10708,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="22">
-        <f>WEEKNUM(C76,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F76" s="41" t="s">
@@ -10728,7 +10786,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="22">
-        <f>WEEKNUM(C77,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F77" s="41" t="s">
@@ -10798,7 +10856,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="22">
-        <f>WEEKNUM(C78,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F78" s="41" t="s">
@@ -10860,7 +10918,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="22">
-        <f>WEEKNUM(C79,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F79" s="41" t="s">
@@ -10922,7 +10980,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="22">
-        <f>WEEKNUM(C80,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F80" s="41" t="s">
@@ -10984,7 +11042,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="22">
-        <f>WEEKNUM(C81,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F81" s="41" t="s">
@@ -11046,7 +11104,7 @@
         <v>32</v>
       </c>
       <c r="E82" s="22">
-        <f>WEEKNUM(C82,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F82" s="41" t="s">
@@ -11108,7 +11166,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="22">
-        <f>WEEKNUM(C83,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F83" s="41" t="s">
@@ -11170,7 +11228,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="22">
-        <f>WEEKNUM(C84,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F84" s="41" t="s">
@@ -11248,7 +11306,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="22">
-        <f>WEEKNUM(C85,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F85" s="41" t="s">
@@ -11310,7 +11368,7 @@
         <v>185</v>
       </c>
       <c r="E86" s="22">
-        <f>WEEKNUM(C86,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -11372,7 +11430,7 @@
         <v>185</v>
       </c>
       <c r="E87" s="22">
-        <f>WEEKNUM(C87,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F87" s="41" t="s">
@@ -11434,7 +11492,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="22">
-        <f>WEEKNUM(C88,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F88" s="41" t="s">
@@ -11496,7 +11554,7 @@
         <v>185</v>
       </c>
       <c r="E89" s="22">
-        <f>WEEKNUM(C89,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -11558,7 +11616,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="22">
-        <f>WEEKNUM(C90,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -11636,7 +11694,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="22">
-        <f>WEEKNUM(C91,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -11714,7 +11772,7 @@
         <v>185</v>
       </c>
       <c r="E92" s="22">
-        <f>WEEKNUM(C92,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F92" s="41" t="s">
@@ -11792,7 +11850,7 @@
         <v>185</v>
       </c>
       <c r="E93" s="22">
-        <f>WEEKNUM(C93,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F93" s="41" t="s">
@@ -11854,7 +11912,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="22">
-        <f>WEEKNUM(C94,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F94" s="41" t="s">
@@ -11916,7 +11974,7 @@
         <v>185</v>
       </c>
       <c r="E95" s="22">
-        <f>WEEKNUM(C95,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F95" s="41" t="s">
@@ -11978,7 +12036,7 @@
         <v>185</v>
       </c>
       <c r="E96" s="22">
-        <f>WEEKNUM(C96,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F96" s="41" t="s">
@@ -12056,7 +12114,7 @@
         <v>185</v>
       </c>
       <c r="E97" s="22">
-        <f>WEEKNUM(C97,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F97" s="41" t="s">
@@ -12118,7 +12176,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="22">
-        <f>WEEKNUM(C98,1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F98" s="41" t="s">
@@ -12180,7 +12238,7 @@
         <v>185</v>
       </c>
       <c r="E99" s="22">
-        <f>WEEKNUM(C99,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F99" s="41" t="s">
@@ -12242,7 +12300,7 @@
         <v>185</v>
       </c>
       <c r="E100" s="22">
-        <f>WEEKNUM(C100,1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F100" s="41" t="s">
@@ -12318,7 +12376,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="22">
-        <f>WEEKNUM(C101,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F101" s="41" t="s">
@@ -12380,7 +12438,7 @@
         <v>185</v>
       </c>
       <c r="E102" s="22">
-        <f>WEEKNUM(C102,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F102" s="41" t="s">
@@ -12458,7 +12516,7 @@
         <v>185</v>
       </c>
       <c r="E103" s="22">
-        <f>WEEKNUM(C103,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F103" s="41" t="s">
@@ -12520,7 +12578,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="22">
-        <f>WEEKNUM(C104,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F104" s="41" t="s">
@@ -12582,7 +12640,7 @@
         <v>185</v>
       </c>
       <c r="E105" s="22">
-        <f>WEEKNUM(C105,1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F105" s="41" t="s">
@@ -12644,7 +12702,7 @@
         <v>185</v>
       </c>
       <c r="E106" s="22">
-        <f>WEEKNUM(C106,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F106" s="41" t="s">
@@ -12722,7 +12780,7 @@
         <v>185</v>
       </c>
       <c r="E107" s="22">
-        <f>WEEKNUM(C107,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F107" s="41" t="s">
@@ -12800,7 +12858,7 @@
         <v>185</v>
       </c>
       <c r="E108" s="22">
-        <f>WEEKNUM(C108,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F108" s="41" t="s">
@@ -12868,7 +12926,7 @@
         <v>185</v>
       </c>
       <c r="E109" s="22">
-        <f>WEEKNUM(C109,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F109" s="41" t="s">
@@ -12930,7 +12988,7 @@
         <v>185</v>
       </c>
       <c r="E110" s="22">
-        <f>WEEKNUM(C110,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F110" s="41" t="s">
@@ -12992,7 +13050,7 @@
         <v>185</v>
       </c>
       <c r="E111" s="22">
-        <f>WEEKNUM(C111,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F111" s="41" t="s">
@@ -13054,7 +13112,7 @@
         <v>185</v>
       </c>
       <c r="E112" s="22">
-        <f>WEEKNUM(C112,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F112" s="41" t="s">
@@ -13132,7 +13190,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="22">
-        <f>WEEKNUM(C113,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F113" s="41" t="s">
@@ -13202,7 +13260,7 @@
         <v>185</v>
       </c>
       <c r="E114" s="22">
-        <f>WEEKNUM(C114,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F114" s="41" t="s">
@@ -13264,7 +13322,7 @@
         <v>185</v>
       </c>
       <c r="E115" s="22">
-        <f>WEEKNUM(C115,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F115" s="41" t="s">
@@ -13326,7 +13384,7 @@
         <v>185</v>
       </c>
       <c r="E116" s="22">
-        <f>WEEKNUM(C116,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F116" s="41" t="s">
@@ -13404,7 +13462,7 @@
         <v>185</v>
       </c>
       <c r="E117" s="22">
-        <f>WEEKNUM(C117,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -13482,7 +13540,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="22">
-        <f>WEEKNUM(C118,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -13560,7 +13618,7 @@
         <v>185</v>
       </c>
       <c r="E119" s="22">
-        <f>WEEKNUM(C119,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -13638,7 +13696,7 @@
         <v>185</v>
       </c>
       <c r="E120" s="22">
-        <f>WEEKNUM(C120,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -13700,7 +13758,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="22">
-        <f>WEEKNUM(C121,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -13778,7 +13836,7 @@
         <v>185</v>
       </c>
       <c r="E122" s="22">
-        <f>WEEKNUM(C122,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F122" s="41" t="s">
@@ -13840,7 +13898,7 @@
         <v>230</v>
       </c>
       <c r="E123" s="22">
-        <f>WEEKNUM(C123,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F123" s="41" t="s">
@@ -13902,7 +13960,7 @@
         <v>230</v>
       </c>
       <c r="E124" s="22">
-        <f>WEEKNUM(C124,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F124" s="41" t="s">
@@ -13980,7 +14038,7 @@
         <v>230</v>
       </c>
       <c r="E125" s="22">
-        <f>WEEKNUM(C125,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F125" s="41" t="s">
@@ -14040,7 +14098,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="22">
-        <f>WEEKNUM(C126,1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F126" s="41" t="s">
@@ -14100,7 +14158,7 @@
         <v>230</v>
       </c>
       <c r="E127" s="22">
-        <f>WEEKNUM(C127,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F127" s="41" t="s">
@@ -14160,7 +14218,7 @@
         <v>230</v>
       </c>
       <c r="E128" s="22">
-        <f>WEEKNUM(C128,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F128" s="41" t="s">
@@ -14220,7 +14278,7 @@
         <v>230</v>
       </c>
       <c r="E129" s="22">
-        <f>WEEKNUM(C129,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F129" s="41" t="s">
@@ -14280,7 +14338,7 @@
         <v>230</v>
       </c>
       <c r="E130" s="22">
-        <f>WEEKNUM(C130,1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F130" s="41" t="s">
@@ -14340,7 +14398,7 @@
         <v>230</v>
       </c>
       <c r="E131" s="22">
-        <f>WEEKNUM(C131,1)</f>
+        <f t="shared" ref="E131:E175" si="4">WEEKNUM(C131,1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="41" t="s">
@@ -14400,7 +14458,7 @@
         <v>230</v>
       </c>
       <c r="E132" s="22">
-        <f>WEEKNUM(C132,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F132" s="41" t="s">
@@ -14460,7 +14518,7 @@
         <v>230</v>
       </c>
       <c r="E133" s="22">
-        <f>WEEKNUM(C133,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F133" s="41" t="s">
@@ -14520,7 +14578,7 @@
         <v>230</v>
       </c>
       <c r="E134" s="22">
-        <f>WEEKNUM(C134,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F134" s="41" t="s">
@@ -14580,7 +14638,7 @@
         <v>230</v>
       </c>
       <c r="E135" s="22">
-        <f>WEEKNUM(C135,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F135" s="41" t="s">
@@ -14658,7 +14716,7 @@
         <v>230</v>
       </c>
       <c r="E136" s="22">
-        <f>WEEKNUM(C136,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F136" s="41" t="s">
@@ -14720,7 +14778,7 @@
         <v>230</v>
       </c>
       <c r="E137" s="22">
-        <f>WEEKNUM(C137,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F137" s="41" t="s">
@@ -14782,7 +14840,7 @@
         <v>230</v>
       </c>
       <c r="E138" s="22">
-        <f>WEEKNUM(C138,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F138" s="41" t="s">
@@ -14860,7 +14918,7 @@
         <v>230</v>
       </c>
       <c r="E139" s="22">
-        <f>WEEKNUM(C139,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F139" s="41" t="s">
@@ -14938,7 +14996,7 @@
         <v>230</v>
       </c>
       <c r="E140" s="22">
-        <f>WEEKNUM(C140,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F140" s="54" t="s">
@@ -15008,7 +15066,7 @@
         <v>230</v>
       </c>
       <c r="E141" s="22">
-        <f>WEEKNUM(C141,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F141" s="57" t="s">
@@ -15070,7 +15128,7 @@
         <v>230</v>
       </c>
       <c r="E142" s="22">
-        <f>WEEKNUM(C142,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F142" s="54" t="s">
@@ -15132,7 +15190,7 @@
         <v>230</v>
       </c>
       <c r="E143" s="22">
-        <f>WEEKNUM(C143,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F143" s="57" t="s">
@@ -15210,7 +15268,7 @@
         <v>230</v>
       </c>
       <c r="E144" s="22">
-        <f>WEEKNUM(C144,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -15280,7 +15338,7 @@
         <v>230</v>
       </c>
       <c r="E145" s="22">
-        <f>WEEKNUM(C145,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F145" s="57" t="s">
@@ -15342,7 +15400,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="22">
-        <f>WEEKNUM(C146,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F146" s="54" t="s">
@@ -15404,7 +15462,7 @@
         <v>230</v>
       </c>
       <c r="E147" s="22">
-        <f>WEEKNUM(C147,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F147" s="57" t="s">
@@ -15466,7 +15524,7 @@
         <v>230</v>
       </c>
       <c r="E148" s="22">
-        <f>WEEKNUM(C148,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F148" s="54" t="s">
@@ -15528,7 +15586,7 @@
         <v>230</v>
       </c>
       <c r="E149" s="22">
-        <f>WEEKNUM(C149,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F149" s="57" t="s">
@@ -15590,7 +15648,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="22">
-        <f>WEEKNUM(C150,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F150" s="54" t="s">
@@ -15668,7 +15726,7 @@
         <v>230</v>
       </c>
       <c r="E151" s="22">
-        <f>WEEKNUM(C151,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F151" s="57" t="s">
@@ -15738,7 +15796,7 @@
         <v>230</v>
       </c>
       <c r="E152" s="22">
-        <f>WEEKNUM(C152,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F152" s="54" t="s">
@@ -15816,7 +15874,7 @@
         <v>230</v>
       </c>
       <c r="E153" s="22">
-        <f>WEEKNUM(C153,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F153" s="57" t="s">
@@ -15886,7 +15944,7 @@
         <v>230</v>
       </c>
       <c r="E154" s="22">
-        <f>WEEKNUM(C154,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F154" s="54" t="s">
@@ -15948,7 +16006,7 @@
         <v>230</v>
       </c>
       <c r="E155" s="22">
-        <f>WEEKNUM(C155,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F155" s="54" t="s">
@@ -16026,7 +16084,7 @@
         <v>230</v>
       </c>
       <c r="E156" s="22">
-        <f>WEEKNUM(C156,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F156" s="54" t="s">
@@ -16088,7 +16146,7 @@
         <v>230</v>
       </c>
       <c r="E157" s="22">
-        <f>WEEKNUM(C157,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F157" s="54" t="s">
@@ -16150,7 +16208,7 @@
         <v>230</v>
       </c>
       <c r="E158" s="22">
-        <f>WEEKNUM(C158,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F158" s="54" t="s">
@@ -16212,7 +16270,7 @@
         <v>230</v>
       </c>
       <c r="E159" s="22">
-        <f>WEEKNUM(C159,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F159" s="54" t="s">
@@ -16274,7 +16332,7 @@
         <v>230</v>
       </c>
       <c r="E160" s="22">
-        <f>WEEKNUM(C160,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F160" s="54" t="s">
@@ -16336,7 +16394,7 @@
         <v>230</v>
       </c>
       <c r="E161" s="22">
-        <f>WEEKNUM(C161,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -16398,7 +16456,7 @@
         <v>230</v>
       </c>
       <c r="E162" s="22">
-        <f>WEEKNUM(C162,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F162" s="54" t="s">
@@ -16460,7 +16518,7 @@
         <v>230</v>
       </c>
       <c r="E163" s="22">
-        <f>WEEKNUM(C163,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F163" s="54" t="s">
@@ -16522,7 +16580,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="22">
-        <f>WEEKNUM(C164,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F164" s="54" t="s">
@@ -16584,7 +16642,7 @@
         <v>230</v>
       </c>
       <c r="E165" s="22">
-        <f>WEEKNUM(C165,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F165" s="54" t="s">
@@ -16646,7 +16704,7 @@
         <v>230</v>
       </c>
       <c r="E166" s="22">
-        <f>WEEKNUM(C166,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F166" s="54" t="s">
@@ -16708,7 +16766,7 @@
         <v>230</v>
       </c>
       <c r="E167" s="22">
-        <f>WEEKNUM(C167,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -16770,7 +16828,7 @@
         <v>230</v>
       </c>
       <c r="E168" s="22">
-        <f>WEEKNUM(C168,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F168" s="54" t="s">
@@ -16832,7 +16890,7 @@
         <v>230</v>
       </c>
       <c r="E169" s="22">
-        <f>WEEKNUM(C169,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F169" s="54" t="s">
@@ -16894,7 +16952,7 @@
         <v>230</v>
       </c>
       <c r="E170" s="22">
-        <f>WEEKNUM(C170,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F170" s="54" t="s">
@@ -16972,7 +17030,7 @@
         <v>230</v>
       </c>
       <c r="E171" s="22">
-        <f>WEEKNUM(C171,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F171" s="54" t="s">
@@ -17034,7 +17092,7 @@
         <v>230</v>
       </c>
       <c r="E172" s="22">
-        <f>WEEKNUM(C172,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F172" s="54" t="s">
@@ -17096,7 +17154,7 @@
         <v>230</v>
       </c>
       <c r="E173" s="22">
-        <f>WEEKNUM(C173,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F173" s="54" t="s">
@@ -17158,7 +17216,7 @@
         <v>230</v>
       </c>
       <c r="E174" s="22">
-        <f>WEEKNUM(C174,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -17220,7 +17278,7 @@
         <v>230</v>
       </c>
       <c r="E175" s="22">
-        <f>WEEKNUM(C175,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F175" s="54" t="s">
@@ -17420,7 +17478,7 @@
         <v>230</v>
       </c>
       <c r="E178" s="61">
-        <f>IF(C178="","",WEEKNUM(C178,1))</f>
+        <f t="shared" ref="E178:E241" si="5">IF(C178="","",WEEKNUM(C178,1))</f>
         <v>11</v>
       </c>
       <c r="F178" s="22" t="s">
@@ -17455,7 +17513,7 @@
       <c r="R178" s="22"/>
       <c r="S178" s="22"/>
       <c r="T178" s="22">
-        <f>SUM(O178:S178)</f>
+        <f t="shared" ref="T178:T197" si="6">SUM(O178:S178)</f>
         <v>0</v>
       </c>
       <c r="U178" s="11"/>
@@ -17484,7 +17542,7 @@
         <v>230</v>
       </c>
       <c r="E179" s="61">
-        <f>IF(C179="","",WEEKNUM(C179,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F179" s="22" t="s">
@@ -17519,7 +17577,7 @@
       <c r="R179" s="22"/>
       <c r="S179" s="22"/>
       <c r="T179" s="22">
-        <f>SUM(O179:S179)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U179" s="11"/>
@@ -17548,7 +17606,7 @@
         <v>230</v>
       </c>
       <c r="E180" s="61">
-        <f>IF(C180="","",WEEKNUM(C180,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F180" s="22" t="s">
@@ -17583,7 +17641,7 @@
       <c r="R180" s="22"/>
       <c r="S180" s="22"/>
       <c r="T180" s="22">
-        <f>SUM(O180:S180)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U180" s="11"/>
@@ -17612,7 +17670,7 @@
         <v>230</v>
       </c>
       <c r="E181" s="61">
-        <f>IF(C181="","",WEEKNUM(C181,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F181" s="22" t="s">
@@ -17647,7 +17705,7 @@
       <c r="R181" s="22"/>
       <c r="S181" s="22"/>
       <c r="T181" s="22">
-        <f>SUM(O181:S181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U181" s="11"/>
@@ -17676,7 +17734,7 @@
         <v>230</v>
       </c>
       <c r="E182" s="61">
-        <f>IF(C182="","",WEEKNUM(C182,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F182" s="22" t="s">
@@ -17711,7 +17769,7 @@
       <c r="R182" s="22"/>
       <c r="S182" s="22"/>
       <c r="T182" s="22">
-        <f>SUM(O182:S182)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U182" s="11"/>
@@ -17740,7 +17798,7 @@
         <v>230</v>
       </c>
       <c r="E183" s="61">
-        <f>IF(C183="","",WEEKNUM(C183,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F183" s="22" t="s">
@@ -17779,7 +17837,7 @@
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
       <c r="T183" s="22">
-        <f>SUM(O183:S183)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U183" s="11" t="s">
@@ -17822,7 +17880,7 @@
         <v>230</v>
       </c>
       <c r="E184" s="61">
-        <f>IF(C184="","",WEEKNUM(C184,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F184" s="22" t="s">
@@ -17853,7 +17911,7 @@
       <c r="R184" s="22"/>
       <c r="S184" s="22"/>
       <c r="T184" s="22">
-        <f>SUM(O184:S184)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U184" s="11" t="s">
@@ -17894,7 +17952,7 @@
         <v>230</v>
       </c>
       <c r="E185" s="61">
-        <f>IF(C185="","",WEEKNUM(C185,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F185" s="22" t="s">
@@ -17929,7 +17987,7 @@
       <c r="R185" s="22"/>
       <c r="S185" s="22"/>
       <c r="T185" s="22">
-        <f>SUM(O185:S185)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U185" s="11"/>
@@ -17958,7 +18016,7 @@
         <v>230</v>
       </c>
       <c r="E186" s="61">
-        <f>IF(C186="","",WEEKNUM(C186,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F186" s="22" t="s">
@@ -17997,7 +18055,7 @@
       <c r="R186" s="22"/>
       <c r="S186" s="22"/>
       <c r="T186" s="22">
-        <f>SUM(O186:S186)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U186" s="11" t="s">
@@ -18038,7 +18096,7 @@
         <v>230</v>
       </c>
       <c r="E187" s="61">
-        <f>IF(C187="","",WEEKNUM(C187,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F187" s="22" t="s">
@@ -18073,7 +18131,7 @@
       <c r="R187" s="22"/>
       <c r="S187" s="22"/>
       <c r="T187" s="22">
-        <f>SUM(O187:S187)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U187" s="11"/>
@@ -18102,7 +18160,7 @@
         <v>230</v>
       </c>
       <c r="E188" s="61">
-        <f>IF(C188="","",WEEKNUM(C188,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F188" s="22" t="s">
@@ -18137,7 +18195,7 @@
       <c r="R188" s="22"/>
       <c r="S188" s="22"/>
       <c r="T188" s="22">
-        <f>SUM(O188:S188)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U188" s="11"/>
@@ -18166,7 +18224,7 @@
         <v>230</v>
       </c>
       <c r="E189" s="61">
-        <f>IF(C189="","",WEEKNUM(C189,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F189" s="22" t="s">
@@ -18201,7 +18259,7 @@
       <c r="R189" s="22"/>
       <c r="S189" s="22"/>
       <c r="T189" s="22">
-        <f>SUM(O189:S189)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U189" s="11"/>
@@ -18230,7 +18288,7 @@
         <v>230</v>
       </c>
       <c r="E190" s="61">
-        <f>IF(C190="","",WEEKNUM(C190,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F190" s="40" t="s">
@@ -18265,7 +18323,7 @@
       <c r="R190" s="22"/>
       <c r="S190" s="22"/>
       <c r="T190" s="22">
-        <f>SUM(O190:S190)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U190" s="11"/>
@@ -18294,7 +18352,7 @@
         <v>230</v>
       </c>
       <c r="E191" s="61">
-        <f>IF(C191="","",WEEKNUM(C191,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F191" s="22" t="s">
@@ -18329,7 +18387,7 @@
       <c r="R191" s="22"/>
       <c r="S191" s="22"/>
       <c r="T191" s="22">
-        <f>SUM(O191:S191)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U191" s="11"/>
@@ -18358,7 +18416,7 @@
         <v>230</v>
       </c>
       <c r="E192" s="61">
-        <f>IF(C192="","",WEEKNUM(C192,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F192" s="22" t="s">
@@ -18393,7 +18451,7 @@
       <c r="R192" s="22"/>
       <c r="S192" s="22"/>
       <c r="T192" s="22">
-        <f>SUM(O192:S192)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U192" s="11"/>
@@ -18422,7 +18480,7 @@
         <v>230</v>
       </c>
       <c r="E193" s="61">
-        <f>IF(C193="","",WEEKNUM(C193,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F193" s="22" t="s">
@@ -18461,7 +18519,7 @@
       </c>
       <c r="S193" s="22"/>
       <c r="T193" s="22">
-        <f>SUM(O193:S193)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U193" s="11" t="s">
@@ -18504,7 +18562,7 @@
         <v>230</v>
       </c>
       <c r="E194" s="61">
-        <f>IF(C194="","",WEEKNUM(C194,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F194" s="22" t="s">
@@ -18539,7 +18597,7 @@
       <c r="R194" s="22"/>
       <c r="S194" s="22"/>
       <c r="T194" s="22">
-        <f>SUM(O194:S194)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U194" s="11"/>
@@ -18568,7 +18626,7 @@
         <v>230</v>
       </c>
       <c r="E195" s="61">
-        <f>IF(C195="","",WEEKNUM(C195,1))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F195" s="22" t="s">
@@ -18603,7 +18661,7 @@
       <c r="R195" s="22"/>
       <c r="S195" s="22"/>
       <c r="T195" s="22">
-        <f>SUM(O195:S195)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U195" s="11"/>
@@ -18632,7 +18690,7 @@
         <v>230</v>
       </c>
       <c r="E196" s="61">
-        <f>IF(C196="","",WEEKNUM(C196,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F196" s="22" t="s">
@@ -18667,7 +18725,7 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22">
-        <f>SUM(O196:S196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U196" s="27"/>
@@ -18696,7 +18754,7 @@
         <v>230</v>
       </c>
       <c r="E197" s="61">
-        <f>IF(C197="","",WEEKNUM(C197,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F197" s="22" t="s">
@@ -18735,7 +18793,7 @@
       <c r="R197" s="22"/>
       <c r="S197" s="22"/>
       <c r="T197" s="22">
-        <f>SUM(O197:S197)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U197" s="27" t="s">
@@ -18776,7 +18834,7 @@
         <v>230</v>
       </c>
       <c r="E198" s="61">
-        <f>IF(C198="","",WEEKNUM(C198,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F198" s="22" t="s">
@@ -18837,7 +18895,7 @@
         <v>230</v>
       </c>
       <c r="E199" s="61">
-        <f>IF(C199="","",WEEKNUM(C199,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F199" s="22" t="s">
@@ -18872,7 +18930,7 @@
       <c r="R199" s="22"/>
       <c r="S199" s="22"/>
       <c r="T199" s="22">
-        <f>SUM(O199:S199)</f>
+        <f t="shared" ref="T199:T208" si="7">SUM(O199:S199)</f>
         <v>0</v>
       </c>
       <c r="U199" s="27"/>
@@ -18903,7 +18961,7 @@
         <v>230</v>
       </c>
       <c r="E200" s="61">
-        <f>IF(C200="","",WEEKNUM(C200,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F200" s="22" t="s">
@@ -18938,7 +18996,7 @@
       <c r="R200" s="22"/>
       <c r="S200" s="22"/>
       <c r="T200" s="22">
-        <f>SUM(O200:S200)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U200" s="27"/>
@@ -18967,7 +19025,7 @@
         <v>230</v>
       </c>
       <c r="E201" s="61">
-        <f>IF(C201="","",WEEKNUM(C201,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F201" s="22" t="s">
@@ -19006,7 +19064,7 @@
       <c r="R201" s="22"/>
       <c r="S201" s="22"/>
       <c r="T201" s="22">
-        <f>SUM(O201:S201)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U201" s="27" t="s">
@@ -19049,7 +19107,7 @@
         <v>230</v>
       </c>
       <c r="E202" s="61">
-        <f>IF(C202="","",WEEKNUM(C202,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F202" s="22" t="s">
@@ -19088,7 +19146,7 @@
       <c r="R202" s="22"/>
       <c r="S202" s="22"/>
       <c r="T202" s="22">
-        <f>SUM(O202:S202)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U202" s="27" t="s">
@@ -19129,7 +19187,7 @@
         <v>230</v>
       </c>
       <c r="E203" s="61">
-        <f>IF(C203="","",WEEKNUM(C203,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F203" s="22" t="s">
@@ -19164,7 +19222,7 @@
       <c r="R203" s="22"/>
       <c r="S203" s="22"/>
       <c r="T203" s="22">
-        <f>SUM(O203:S203)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U203" s="27"/>
@@ -19193,7 +19251,7 @@
         <v>230</v>
       </c>
       <c r="E204" s="61">
-        <f>IF(C204="","",WEEKNUM(C204,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F204" s="22" t="s">
@@ -19228,7 +19286,7 @@
       <c r="R204" s="22"/>
       <c r="S204" s="22"/>
       <c r="T204" s="22">
-        <f>SUM(O204:S204)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U204" s="27"/>
@@ -19257,7 +19315,7 @@
         <v>230</v>
       </c>
       <c r="E205" s="61">
-        <f>IF(C205="","",WEEKNUM(C205,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F205" s="22" t="s">
@@ -19296,7 +19354,7 @@
         <v>2</v>
       </c>
       <c r="T205" s="22">
-        <f>SUM(O205:S205)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U205" s="27" t="s">
@@ -19337,7 +19395,7 @@
         <v>230</v>
       </c>
       <c r="E206" s="61">
-        <f>IF(C206="","",WEEKNUM(C206,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F206" s="22" t="s">
@@ -19368,7 +19426,7 @@
       <c r="R206" s="22"/>
       <c r="S206" s="22"/>
       <c r="T206" s="22">
-        <f>SUM(O206:S206)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U206" s="27" t="s">
@@ -19409,7 +19467,7 @@
         <v>230</v>
       </c>
       <c r="E207" s="61">
-        <f>IF(C207="","",WEEKNUM(C207,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F207" s="22" t="s">
@@ -19444,7 +19502,7 @@
       <c r="R207" s="22"/>
       <c r="S207" s="22"/>
       <c r="T207" s="22">
-        <f>SUM(O207:S207)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U207" s="27"/>
@@ -19473,7 +19531,7 @@
         <v>230</v>
       </c>
       <c r="E208" s="61">
-        <f>IF(C208="","",WEEKNUM(C208,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F208" s="22" t="s">
@@ -19512,7 +19570,7 @@
       <c r="R208" s="22"/>
       <c r="S208" s="22"/>
       <c r="T208" s="22">
-        <f>SUM(O208:S208)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U208" s="27" t="s">
@@ -19555,7 +19613,7 @@
         <v>230</v>
       </c>
       <c r="E209" s="61">
-        <f>IF(C209="","",WEEKNUM(C209,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F209" s="22" t="s">
@@ -19624,7 +19682,7 @@
         <v>230</v>
       </c>
       <c r="E210" s="61">
-        <f>IF(C210="","",WEEKNUM(C210,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F210" s="22" t="s">
@@ -19704,7 +19762,7 @@
         <v>230</v>
       </c>
       <c r="E211" s="61">
-        <f>IF(C211="","",WEEKNUM(C211,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F211" s="22" t="s">
@@ -19768,7 +19826,7 @@
         <v>230</v>
       </c>
       <c r="E212" s="61">
-        <f>IF(C212="","",WEEKNUM(C212,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F212" s="22" t="s">
@@ -19829,7 +19887,7 @@
         <v>230</v>
       </c>
       <c r="E213" s="61">
-        <f>IF(C213="","",WEEKNUM(C213,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F213" s="22" t="s">
@@ -19890,7 +19948,7 @@
         <v>230</v>
       </c>
       <c r="E214" s="61">
-        <f>IF(C214="","",WEEKNUM(C214,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F214" s="22" t="s">
@@ -19951,7 +20009,7 @@
         <v>230</v>
       </c>
       <c r="E215" s="61">
-        <f>IF(C215="","",WEEKNUM(C215,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F215" s="22" t="s">
@@ -19986,7 +20044,7 @@
       <c r="R215" s="22"/>
       <c r="S215" s="22"/>
       <c r="T215" s="22">
-        <f>SUM(O215:S215)</f>
+        <f t="shared" ref="T215:T235" si="8">SUM(O215:S215)</f>
         <v>0</v>
       </c>
       <c r="U215" s="27"/>
@@ -20015,7 +20073,7 @@
         <v>230</v>
       </c>
       <c r="E216" s="61">
-        <f>IF(C216="","",WEEKNUM(C216,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F216" s="22" t="s">
@@ -20054,7 +20112,7 @@
       <c r="R216" s="22"/>
       <c r="S216" s="22"/>
       <c r="T216" s="22">
-        <f>SUM(O216:S216)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U216" s="27" t="s">
@@ -20097,7 +20155,7 @@
         <v>230</v>
       </c>
       <c r="E217" s="61">
-        <f>IF(C217="","",WEEKNUM(C217,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F217" s="22" t="s">
@@ -20132,7 +20190,7 @@
       <c r="R217" s="22"/>
       <c r="S217" s="22"/>
       <c r="T217" s="22">
-        <f>SUM(O217:S217)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U217" s="27"/>
@@ -20161,7 +20219,7 @@
         <v>230</v>
       </c>
       <c r="E218" s="61">
-        <f>IF(C218="","",WEEKNUM(C218,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F218" s="22" t="s">
@@ -20196,7 +20254,7 @@
       <c r="R218" s="22"/>
       <c r="S218" s="22"/>
       <c r="T218" s="22">
-        <f>SUM(O218:S218)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U218" s="27"/>
@@ -20225,7 +20283,7 @@
         <v>230</v>
       </c>
       <c r="E219" s="61">
-        <f>IF(C219="","",WEEKNUM(C219,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F219" s="22" t="s">
@@ -20264,7 +20322,7 @@
       <c r="R219" s="22"/>
       <c r="S219" s="22"/>
       <c r="T219" s="22">
-        <f>SUM(O219:S219)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U219" s="27" t="s">
@@ -20305,7 +20363,7 @@
         <v>230</v>
       </c>
       <c r="E220" s="61">
-        <f>IF(C220="","",WEEKNUM(C220,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F220" s="22" t="s">
@@ -20340,7 +20398,7 @@
       <c r="R220" s="22"/>
       <c r="S220" s="22"/>
       <c r="T220" s="22">
-        <f>SUM(O220:S220)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U220" s="27"/>
@@ -20369,7 +20427,7 @@
         <v>230</v>
       </c>
       <c r="E221" s="61">
-        <f>IF(C221="","",WEEKNUM(C221,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F221" s="22" t="s">
@@ -20404,7 +20462,7 @@
       <c r="R221" s="22"/>
       <c r="S221" s="22"/>
       <c r="T221" s="22">
-        <f>SUM(O221:S221)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U221" s="27"/>
@@ -20433,7 +20491,7 @@
         <v>230</v>
       </c>
       <c r="E222" s="61">
-        <f>IF(C222="","",WEEKNUM(C222,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F222" s="22" t="s">
@@ -20468,7 +20526,7 @@
       <c r="R222" s="22"/>
       <c r="S222" s="22"/>
       <c r="T222" s="22">
-        <f>SUM(O222:S222)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U222" s="27"/>
@@ -20497,7 +20555,7 @@
         <v>230</v>
       </c>
       <c r="E223" s="61">
-        <f>IF(C223="","",WEEKNUM(C223,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F223" s="22" t="s">
@@ -20536,7 +20594,7 @@
       <c r="R223" s="22"/>
       <c r="S223" s="22"/>
       <c r="T223" s="22">
-        <f>SUM(O223:S223)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U223" s="27" t="s">
@@ -20577,7 +20635,7 @@
         <v>230</v>
       </c>
       <c r="E224" s="61">
-        <f>IF(C224="","",WEEKNUM(C224,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F224" s="22" t="s">
@@ -20612,7 +20670,7 @@
       <c r="R224" s="22"/>
       <c r="S224" s="22"/>
       <c r="T224" s="22">
-        <f>SUM(O224:S224)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U224" s="27"/>
@@ -20641,7 +20699,7 @@
         <v>230</v>
       </c>
       <c r="E225" s="61">
-        <f>IF(C225="","",WEEKNUM(C225,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F225" s="22" t="s">
@@ -20680,7 +20738,7 @@
       <c r="R225" s="22"/>
       <c r="S225" s="22"/>
       <c r="T225" s="22">
-        <f>SUM(O225:S225)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U225" s="27" t="s">
@@ -20721,7 +20779,7 @@
         <v>230</v>
       </c>
       <c r="E226" s="61">
-        <f>IF(C226="","",WEEKNUM(C226,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F226" s="22" t="s">
@@ -20756,7 +20814,7 @@
       <c r="R226" s="22"/>
       <c r="S226" s="22"/>
       <c r="T226" s="22">
-        <f>SUM(O226:S226)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U226" s="27"/>
@@ -20785,7 +20843,7 @@
         <v>230</v>
       </c>
       <c r="E227" s="61">
-        <f>IF(C227="","",WEEKNUM(C227,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F227" s="22" t="s">
@@ -20824,7 +20882,7 @@
       </c>
       <c r="S227" s="22"/>
       <c r="T227" s="22">
-        <f>SUM(O227:S227)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U227" s="27" t="s">
@@ -20865,7 +20923,7 @@
         <v>230</v>
       </c>
       <c r="E228" s="61">
-        <f>IF(C228="","",WEEKNUM(C228,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F228" s="22" t="s">
@@ -20900,7 +20958,7 @@
       <c r="R228" s="22"/>
       <c r="S228" s="22"/>
       <c r="T228" s="22">
-        <f>SUM(O228:S228)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U228" s="27"/>
@@ -20929,7 +20987,7 @@
         <v>230</v>
       </c>
       <c r="E229" s="61">
-        <f>IF(C229="","",WEEKNUM(C229,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F229" s="22" t="s">
@@ -20964,7 +21022,7 @@
       <c r="R229" s="22"/>
       <c r="S229" s="22"/>
       <c r="T229" s="22">
-        <f>SUM(O229:S229)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U229" s="27"/>
@@ -20993,7 +21051,7 @@
         <v>230</v>
       </c>
       <c r="E230" s="61">
-        <f>IF(C230="","",WEEKNUM(C230,1))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F230" s="22" t="s">
@@ -21032,7 +21090,7 @@
       <c r="R230" s="22"/>
       <c r="S230" s="22"/>
       <c r="T230" s="22">
-        <f>SUM(O230:S230)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U230" s="27" t="s">
@@ -21073,7 +21131,7 @@
         <v>230</v>
       </c>
       <c r="E231" s="61">
-        <f>IF(C231="","",WEEKNUM(C231,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F231" s="22" t="s">
@@ -21108,7 +21166,7 @@
       <c r="R231" s="22"/>
       <c r="S231" s="22"/>
       <c r="T231" s="22">
-        <f>SUM(O231:S231)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U231" s="27"/>
@@ -21137,7 +21195,7 @@
         <v>230</v>
       </c>
       <c r="E232" s="61">
-        <f>IF(C232="","",WEEKNUM(C232,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F232" s="22" t="s">
@@ -21172,7 +21230,7 @@
       <c r="R232" s="22"/>
       <c r="S232" s="22"/>
       <c r="T232" s="22">
-        <f>SUM(O232:S232)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U232" s="27"/>
@@ -21201,7 +21259,7 @@
         <v>230</v>
       </c>
       <c r="E233" s="61">
-        <f>IF(C233="","",WEEKNUM(C233,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F233" s="22" t="s">
@@ -21236,7 +21294,7 @@
       <c r="R233" s="22"/>
       <c r="S233" s="22"/>
       <c r="T233" s="22">
-        <f>SUM(O233:S233)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U233" s="27"/>
@@ -21265,7 +21323,7 @@
         <v>230</v>
       </c>
       <c r="E234" s="61">
-        <f>IF(C234="","",WEEKNUM(C234,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F234" s="22" t="s">
@@ -21300,7 +21358,7 @@
       <c r="R234" s="22"/>
       <c r="S234" s="22"/>
       <c r="T234" s="22">
-        <f>SUM(O234:S234)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U234" s="27"/>
@@ -21329,7 +21387,7 @@
         <v>230</v>
       </c>
       <c r="E235" s="61">
-        <f>IF(C235="","",WEEKNUM(C235,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F235" s="22" t="s">
@@ -21368,7 +21426,7 @@
       <c r="R235" s="22"/>
       <c r="S235" s="22"/>
       <c r="T235" s="22">
-        <f>SUM(O235:S235)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U235" s="27" t="s">
@@ -21409,7 +21467,7 @@
         <v>230</v>
       </c>
       <c r="E236" s="61">
-        <f>IF(C236="","",WEEKNUM(C236,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F236" s="22" t="s">
@@ -21470,7 +21528,7 @@
         <v>230</v>
       </c>
       <c r="E237" s="93">
-        <f>IF(C237="","",WEEKNUM(C237,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F237" s="42" t="s">
@@ -21505,7 +21563,7 @@
       <c r="R237" s="42"/>
       <c r="S237" s="42"/>
       <c r="T237" s="42">
-        <f>SUM(O237:S237)</f>
+        <f t="shared" ref="T237:T272" si="9">SUM(O237:S237)</f>
         <v>0</v>
       </c>
       <c r="U237" s="38"/>
@@ -21534,7 +21592,7 @@
         <v>230</v>
       </c>
       <c r="E238" s="93">
-        <f>IF(C238="","",WEEKNUM(C238,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F238" s="42" t="s">
@@ -21569,7 +21627,7 @@
       <c r="R238" s="42"/>
       <c r="S238" s="42"/>
       <c r="T238" s="42">
-        <f>SUM(O238:S238)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U238" s="38"/>
@@ -21598,7 +21656,7 @@
         <v>230</v>
       </c>
       <c r="E239" s="93">
-        <f>IF(C239="","",WEEKNUM(C239,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F239" s="42" t="s">
@@ -21633,7 +21691,7 @@
       <c r="R239" s="42"/>
       <c r="S239" s="42"/>
       <c r="T239" s="42">
-        <f>SUM(O239:S239)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U239" s="38"/>
@@ -21662,7 +21720,7 @@
         <v>230</v>
       </c>
       <c r="E240" s="93">
-        <f>IF(C240="","",WEEKNUM(C240,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F240" s="42" t="s">
@@ -21697,7 +21755,7 @@
       <c r="R240" s="42"/>
       <c r="S240" s="42"/>
       <c r="T240" s="42">
-        <f>SUM(O240:S240)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U240" s="38"/>
@@ -21726,7 +21784,7 @@
         <v>230</v>
       </c>
       <c r="E241" s="93">
-        <f>IF(C241="","",WEEKNUM(C241,1))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F241" s="42" t="s">
@@ -21765,7 +21823,7 @@
       <c r="R241" s="42"/>
       <c r="S241" s="42"/>
       <c r="T241" s="42">
-        <f>SUM(O241:S241)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U241" s="38" t="s">
@@ -21806,7 +21864,7 @@
         <v>230</v>
       </c>
       <c r="E242" s="93">
-        <f>IF(C242="","",WEEKNUM(C242,1))</f>
+        <f t="shared" ref="E242:E305" si="10">IF(C242="","",WEEKNUM(C242,1))</f>
         <v>13</v>
       </c>
       <c r="F242" s="42" t="s">
@@ -21841,7 +21899,7 @@
       <c r="R242" s="42"/>
       <c r="S242" s="42"/>
       <c r="T242" s="42">
-        <f>SUM(O242:S242)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U242" s="38"/>
@@ -21870,7 +21928,7 @@
         <v>230</v>
       </c>
       <c r="E243" s="93">
-        <f>IF(C243="","",WEEKNUM(C243,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F243" s="42" t="s">
@@ -21905,7 +21963,7 @@
       <c r="R243" s="42"/>
       <c r="S243" s="42"/>
       <c r="T243" s="42">
-        <f>SUM(O243:S243)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U243" s="38"/>
@@ -21936,7 +21994,7 @@
         <v>230</v>
       </c>
       <c r="E244" s="93">
-        <f>IF(C244="","",WEEKNUM(C244,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F244" s="42" t="s">
@@ -21971,7 +22029,7 @@
       <c r="R244" s="42"/>
       <c r="S244" s="42"/>
       <c r="T244" s="42">
-        <f>SUM(O244:S244)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U244" s="38"/>
@@ -22002,7 +22060,7 @@
         <v>230</v>
       </c>
       <c r="E245" s="93">
-        <f>IF(C245="","",WEEKNUM(C245,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F245" s="42" t="s">
@@ -22037,7 +22095,7 @@
       <c r="R245" s="42"/>
       <c r="S245" s="42"/>
       <c r="T245" s="42">
-        <f>SUM(O245:S245)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U245" s="38"/>
@@ -22066,7 +22124,7 @@
         <v>230</v>
       </c>
       <c r="E246" s="93">
-        <f>IF(C246="","",WEEKNUM(C246,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F246" s="42" t="s">
@@ -22101,7 +22159,7 @@
       <c r="R246" s="42"/>
       <c r="S246" s="42"/>
       <c r="T246" s="42">
-        <f>SUM(O246:S246)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U246" s="38"/>
@@ -22130,7 +22188,7 @@
         <v>230</v>
       </c>
       <c r="E247" s="93">
-        <f>IF(C247="","",WEEKNUM(C247,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F247" s="42" t="s">
@@ -22165,7 +22223,7 @@
       <c r="R247" s="42"/>
       <c r="S247" s="42"/>
       <c r="T247" s="42">
-        <f>SUM(O247:S247)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U247" s="38"/>
@@ -22196,7 +22254,7 @@
         <v>230</v>
       </c>
       <c r="E248" s="93">
-        <f>IF(C248="","",WEEKNUM(C248,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F248" s="42" t="s">
@@ -22231,7 +22289,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="12"/>
       <c r="T248" s="42">
-        <f>SUM(O248:S248)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U248" s="36"/>
@@ -22260,7 +22318,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="93">
-        <f>IF(C249="","",WEEKNUM(C249,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F249" s="42" t="s">
@@ -22299,7 +22357,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="12"/>
       <c r="T249" s="42">
-        <f>SUM(O249:S249)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U249" s="38" t="s">
@@ -22340,7 +22398,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="93">
-        <f>IF(C250="","",WEEKNUM(C250,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F250" s="42" t="s">
@@ -22371,7 +22429,7 @@
       <c r="R250" s="42"/>
       <c r="S250" s="42"/>
       <c r="T250" s="42">
-        <f>SUM(O250:S250)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U250" s="38" t="s">
@@ -22412,7 +22470,7 @@
         <v>230</v>
       </c>
       <c r="E251" s="93">
-        <f>IF(C251="","",WEEKNUM(C251,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F251" s="42" t="s">
@@ -22443,7 +22501,7 @@
       <c r="R251" s="42"/>
       <c r="S251" s="42"/>
       <c r="T251" s="42">
-        <f>SUM(O251:S251)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U251" s="38" t="s">
@@ -22484,7 +22542,7 @@
         <v>230</v>
       </c>
       <c r="E252" s="93">
-        <f>IF(C252="","",WEEKNUM(C252,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F252" s="42" t="s">
@@ -22523,7 +22581,7 @@
       <c r="R252" s="42"/>
       <c r="S252" s="42"/>
       <c r="T252" s="42">
-        <f>SUM(O252:S252)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U252" s="38" t="s">
@@ -22564,7 +22622,7 @@
         <v>230</v>
       </c>
       <c r="E253" s="61">
-        <f>IF(C253="","",WEEKNUM(C253,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F253" s="22" t="s">
@@ -22599,7 +22657,7 @@
       <c r="R253" s="22"/>
       <c r="S253" s="22"/>
       <c r="T253" s="22">
-        <f>SUM(O253:S253)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U253" s="27"/>
@@ -22628,7 +22686,7 @@
         <v>230</v>
       </c>
       <c r="E254" s="61">
-        <f>IF(C254="","",WEEKNUM(C254,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F254" s="22" t="s">
@@ -22667,7 +22725,7 @@
       <c r="R254" s="22"/>
       <c r="S254" s="22"/>
       <c r="T254" s="22">
-        <f>SUM(O254:S254)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U254" s="27" t="s">
@@ -22708,7 +22766,7 @@
         <v>230</v>
       </c>
       <c r="E255" s="61">
-        <f>IF(C255="","",WEEKNUM(C255,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F255" s="22" t="s">
@@ -22739,7 +22797,7 @@
       <c r="R255" s="22"/>
       <c r="S255" s="22"/>
       <c r="T255" s="22">
-        <f>SUM(O255:S255)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U255" s="27" t="s">
@@ -22780,7 +22838,7 @@
         <v>230</v>
       </c>
       <c r="E256" s="61">
-        <f>IF(C256="","",WEEKNUM(C256,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F256" s="22" t="s">
@@ -22815,7 +22873,7 @@
       <c r="R256" s="22"/>
       <c r="S256" s="22"/>
       <c r="T256" s="22">
-        <f>SUM(O256:S256)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U256" s="27"/>
@@ -22844,7 +22902,7 @@
         <v>230</v>
       </c>
       <c r="E257" s="61">
-        <f>IF(C257="","",WEEKNUM(C257,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F257" s="22" t="s">
@@ -22879,7 +22937,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="12"/>
       <c r="T257" s="42">
-        <f>SUM(O257:S257)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U257" s="36"/>
@@ -22908,7 +22966,7 @@
         <v>230</v>
       </c>
       <c r="E258" s="61">
-        <f>IF(C258="","",WEEKNUM(C258,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F258" s="22" t="s">
@@ -22943,7 +23001,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="12"/>
       <c r="T258" s="42">
-        <f>SUM(O258:S258)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U258" s="36"/>
@@ -22972,7 +23030,7 @@
         <v>230</v>
       </c>
       <c r="E259" s="61">
-        <f>IF(C259="","",WEEKNUM(C259,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F259" s="22" t="s">
@@ -23007,7 +23065,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="12"/>
       <c r="T259" s="42">
-        <f>SUM(O259:S259)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U259" s="36"/>
@@ -23036,7 +23094,7 @@
         <v>230</v>
       </c>
       <c r="E260" s="61">
-        <f>IF(C260="","",WEEKNUM(C260,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F260" s="22" t="s">
@@ -23075,7 +23133,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="12"/>
       <c r="T260" s="42">
-        <f>SUM(O260:S260)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U260" s="36" t="s">
@@ -23118,7 +23176,7 @@
         <v>230</v>
       </c>
       <c r="E261" s="61">
-        <f>IF(C261="","",WEEKNUM(C261,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F261" s="22" t="s">
@@ -23153,7 +23211,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="12"/>
       <c r="T261" s="42">
-        <f>SUM(O261:S261)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U261" s="36"/>
@@ -23182,7 +23240,7 @@
         <v>230</v>
       </c>
       <c r="E262" s="61">
-        <f>IF(C262="","",WEEKNUM(C262,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F262" s="22" t="s">
@@ -23217,7 +23275,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="12"/>
       <c r="T262" s="42">
-        <f>SUM(O262:S262)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U262" s="36"/>
@@ -23246,7 +23304,7 @@
         <v>230</v>
       </c>
       <c r="E263" s="61">
-        <f>IF(C263="","",WEEKNUM(C263,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F263" s="22" t="s">
@@ -23281,7 +23339,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="12"/>
       <c r="T263" s="42">
-        <f>SUM(O263:S263)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U263" s="36"/>
@@ -23312,7 +23370,7 @@
         <v>230</v>
       </c>
       <c r="E264" s="61">
-        <f>IF(C264="","",WEEKNUM(C264,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F264" s="22" t="s">
@@ -23347,7 +23405,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="12"/>
       <c r="T264" s="42">
-        <f>SUM(O264:S264)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U264" s="36"/>
@@ -23376,7 +23434,7 @@
         <v>230</v>
       </c>
       <c r="E265" s="61">
-        <f>IF(C265="","",WEEKNUM(C265,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F265" s="22" t="s">
@@ -23411,7 +23469,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="12"/>
       <c r="T265" s="42">
-        <f>SUM(O265:S265)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U265" s="36"/>
@@ -23440,7 +23498,7 @@
         <v>230</v>
       </c>
       <c r="E266" s="61">
-        <f>IF(C266="","",WEEKNUM(C266,1))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F266" s="22" t="s">
@@ -23475,7 +23533,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="12"/>
       <c r="T266" s="42">
-        <f>SUM(O266:S266)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U266" s="36"/>
@@ -23504,7 +23562,7 @@
         <v>230</v>
       </c>
       <c r="E267" s="61">
-        <f>IF(C267="","",WEEKNUM(C267,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F267" s="22" t="s">
@@ -23539,7 +23597,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="12"/>
       <c r="T267" s="42">
-        <f>SUM(O267:S267)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U267" s="36"/>
@@ -23568,7 +23626,7 @@
         <v>230</v>
       </c>
       <c r="E268" s="61">
-        <f>IF(C268="","",WEEKNUM(C268,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F268" s="22" t="s">
@@ -23603,7 +23661,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="12"/>
       <c r="T268" s="42">
-        <f>SUM(O268:S268)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U268" s="36"/>
@@ -23632,7 +23690,7 @@
         <v>230</v>
       </c>
       <c r="E269" s="61">
-        <f>IF(C269="","",WEEKNUM(C269,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F269" s="22" t="s">
@@ -23667,7 +23725,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="12"/>
       <c r="T269" s="42">
-        <f>SUM(O269:S269)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U269" s="36"/>
@@ -23696,7 +23754,7 @@
         <v>356</v>
       </c>
       <c r="E270" s="61">
-        <f>IF(C270="","",WEEKNUM(C270,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F270" s="22" t="s">
@@ -23731,7 +23789,7 @@
       <c r="R270" s="22"/>
       <c r="S270" s="22"/>
       <c r="T270" s="22">
-        <f>SUM(O270:S270)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U270" s="27"/>
@@ -23760,7 +23818,7 @@
         <v>356</v>
       </c>
       <c r="E271" s="61">
-        <f>IF(C271="","",WEEKNUM(C271,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F271" s="22" t="s">
@@ -23795,7 +23853,7 @@
       <c r="R271" s="22"/>
       <c r="S271" s="22"/>
       <c r="T271" s="22">
-        <f>SUM(O271:S271)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U271" s="27"/>
@@ -23824,7 +23882,7 @@
         <v>356</v>
       </c>
       <c r="E272" s="61">
-        <f>IF(C272="","",WEEKNUM(C272,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F272" s="22" t="s">
@@ -23859,7 +23917,7 @@
       <c r="R272" s="22"/>
       <c r="S272" s="22"/>
       <c r="T272" s="22">
-        <f>SUM(O272:S272)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U272" s="27"/>
@@ -23888,7 +23946,7 @@
         <v>356</v>
       </c>
       <c r="E273" s="61">
-        <f>IF(C273="","",WEEKNUM(C273,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F273" s="22" t="s">
@@ -23949,7 +24007,7 @@
         <v>356</v>
       </c>
       <c r="E274" s="61">
-        <f>IF(C274="","",WEEKNUM(C274,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F274" s="22" t="s">
@@ -23988,7 +24046,7 @@
       <c r="R274" s="22"/>
       <c r="S274" s="22"/>
       <c r="T274" s="22">
-        <f>SUM(O274:S274)</f>
+        <f t="shared" ref="T274:T337" si="11">SUM(O274:S274)</f>
         <v>1</v>
       </c>
       <c r="U274" s="27" t="s">
@@ -24029,7 +24087,7 @@
         <v>356</v>
       </c>
       <c r="E275" s="61">
-        <f>IF(C275="","",WEEKNUM(C275,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F275" s="22" t="s">
@@ -24060,7 +24118,7 @@
       <c r="R275" s="22"/>
       <c r="S275" s="22"/>
       <c r="T275" s="22">
-        <f>SUM(O275:S275)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U275" s="27" t="s">
@@ -24101,7 +24159,7 @@
         <v>356</v>
       </c>
       <c r="E276" s="61">
-        <f>IF(C276="","",WEEKNUM(C276,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F276" s="22" t="s">
@@ -24136,7 +24194,7 @@
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="22">
-        <f>SUM(O276:S276)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U276" s="27"/>
@@ -24165,7 +24223,7 @@
         <v>356</v>
       </c>
       <c r="E277" s="61">
-        <f>IF(C277="","",WEEKNUM(C277,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F277" s="22" t="s">
@@ -24204,7 +24262,7 @@
       <c r="R277" s="22"/>
       <c r="S277" s="22"/>
       <c r="T277" s="22">
-        <f>SUM(O277:S277)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U277" s="27" t="s">
@@ -24245,7 +24303,7 @@
         <v>356</v>
       </c>
       <c r="E278" s="61">
-        <f>IF(C278="","",WEEKNUM(C278,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F278" s="22" t="s">
@@ -24284,7 +24342,7 @@
       </c>
       <c r="S278" s="22"/>
       <c r="T278" s="22">
-        <f>SUM(O278:S278)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U278" s="27" t="s">
@@ -24325,7 +24383,7 @@
         <v>356</v>
       </c>
       <c r="E279" s="61">
-        <f>IF(C279="","",WEEKNUM(C279,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F279" s="22" t="s">
@@ -24360,7 +24418,7 @@
       <c r="R279" s="22"/>
       <c r="S279" s="22"/>
       <c r="T279" s="22">
-        <f>SUM(O279:S279)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U279" s="27"/>
@@ -24389,7 +24447,7 @@
         <v>356</v>
       </c>
       <c r="E280" s="61">
-        <f>IF(C280="","",WEEKNUM(C280,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F280" s="22" t="s">
@@ -24428,7 +24486,7 @@
       </c>
       <c r="S280" s="22"/>
       <c r="T280" s="22">
-        <f>SUM(O280:S280)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U280" s="27" t="s">
@@ -24471,7 +24529,7 @@
         <v>356</v>
       </c>
       <c r="E281" s="61">
-        <f>IF(C281="","",WEEKNUM(C281,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F281" s="22" t="s">
@@ -24510,7 +24568,7 @@
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="22">
-        <f>SUM(O281:S281)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U281" s="27" t="s">
@@ -24553,7 +24611,7 @@
         <v>356</v>
       </c>
       <c r="E282" s="61">
-        <f>IF(C282="","",WEEKNUM(C282,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F282" s="22" t="s">
@@ -24588,7 +24646,7 @@
       <c r="R282" s="22"/>
       <c r="S282" s="22"/>
       <c r="T282" s="22">
-        <f>SUM(O282:S282)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U282" s="27"/>
@@ -24619,7 +24677,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="61">
-        <f>IF(C283="","",WEEKNUM(C283,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F283" s="22" t="s">
@@ -24658,7 +24716,7 @@
       <c r="R283" s="22"/>
       <c r="S283" s="22"/>
       <c r="T283" s="22">
-        <f>SUM(O283:S283)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U283" s="27" t="s">
@@ -24699,7 +24757,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="61">
-        <f>IF(C284="","",WEEKNUM(C284,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F284" s="22" t="s">
@@ -24734,7 +24792,7 @@
       <c r="R284" s="22"/>
       <c r="S284" s="22"/>
       <c r="T284" s="22">
-        <f>SUM(O284:S284)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U284" s="27"/>
@@ -24763,7 +24821,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="61">
-        <f>IF(C285="","",WEEKNUM(C285,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F285" s="22" t="s">
@@ -24798,7 +24856,7 @@
       <c r="R285" s="22"/>
       <c r="S285" s="22"/>
       <c r="T285" s="22">
-        <f>SUM(O285:S285)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U285" s="27"/>
@@ -24827,7 +24885,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="61">
-        <f>IF(C286="","",WEEKNUM(C286,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F286" s="22" t="s">
@@ -24862,7 +24920,7 @@
       <c r="R286" s="22"/>
       <c r="S286" s="22"/>
       <c r="T286" s="22">
-        <f>SUM(O286:S286)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U286" s="27"/>
@@ -24891,7 +24949,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="61">
-        <f>IF(C287="","",WEEKNUM(C287,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F287" s="22" t="s">
@@ -24926,7 +24984,7 @@
       <c r="R287" s="22"/>
       <c r="S287" s="22"/>
       <c r="T287" s="22">
-        <f>SUM(O287:S287)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U287" s="27"/>
@@ -24955,7 +25013,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="61">
-        <f>IF(C288="","",WEEKNUM(C288,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F288" s="22" t="s">
@@ -24990,7 +25048,7 @@
       <c r="R288" s="22"/>
       <c r="S288" s="22"/>
       <c r="T288" s="22">
-        <f>SUM(O288:S288)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U288" s="27"/>
@@ -25021,7 +25079,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="61">
-        <f>IF(C289="","",WEEKNUM(C289,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F289" s="22" t="s">
@@ -25056,7 +25114,7 @@
       <c r="R289" s="22"/>
       <c r="S289" s="22"/>
       <c r="T289" s="22">
-        <f>SUM(O289:S289)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U289" s="27"/>
@@ -25085,7 +25143,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="61">
-        <f>IF(C290="","",WEEKNUM(C290,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F290" s="22" t="s">
@@ -25124,7 +25182,7 @@
       <c r="R290" s="22"/>
       <c r="S290" s="22"/>
       <c r="T290" s="22">
-        <f>SUM(O290:S290)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U290" s="27" t="s">
@@ -25165,7 +25223,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="61">
-        <f>IF(C291="","",WEEKNUM(C291,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F291" s="22" t="s">
@@ -25196,7 +25254,7 @@
       <c r="R291" s="22"/>
       <c r="S291" s="22"/>
       <c r="T291" s="22">
-        <f>SUM(O291:S291)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U291" s="27" t="s">
@@ -25237,7 +25295,7 @@
         <v>356</v>
       </c>
       <c r="E292" s="61">
-        <f>IF(C292="","",WEEKNUM(C292,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F292" s="22" t="s">
@@ -25272,7 +25330,7 @@
       <c r="R292" s="22"/>
       <c r="S292" s="22"/>
       <c r="T292" s="22">
-        <f>SUM(O292:S292)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U292" s="27"/>
@@ -25301,7 +25359,7 @@
         <v>356</v>
       </c>
       <c r="E293" s="61">
-        <f>IF(C293="","",WEEKNUM(C293,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F293" s="22" t="s">
@@ -25336,7 +25394,7 @@
       <c r="R293" s="22"/>
       <c r="S293" s="22"/>
       <c r="T293" s="22">
-        <f>SUM(O293:S293)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U293" s="27"/>
@@ -25365,7 +25423,7 @@
         <v>356</v>
       </c>
       <c r="E294" s="61">
-        <f>IF(C294="","",WEEKNUM(C294,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F294" s="22" t="s">
@@ -25400,7 +25458,7 @@
       <c r="R294" s="22"/>
       <c r="S294" s="22"/>
       <c r="T294" s="22">
-        <f>SUM(O294:S294)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U294" s="27"/>
@@ -25429,7 +25487,7 @@
         <v>356</v>
       </c>
       <c r="E295" s="61">
-        <f>IF(C295="","",WEEKNUM(C295,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F295" s="22" t="s">
@@ -25464,7 +25522,7 @@
       <c r="R295" s="22"/>
       <c r="S295" s="22"/>
       <c r="T295" s="22">
-        <f>SUM(O295:S295)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U295" s="27"/>
@@ -25493,7 +25551,7 @@
         <v>356</v>
       </c>
       <c r="E296" s="61">
-        <f>IF(C296="","",WEEKNUM(C296,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F296" s="22" t="s">
@@ -25528,7 +25586,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="12"/>
       <c r="T296" s="22">
-        <f>SUM(O296:S296)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U296" s="13"/>
@@ -25557,7 +25615,7 @@
         <v>356</v>
       </c>
       <c r="E297" s="61">
-        <f>IF(C297="","",WEEKNUM(C297,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F297" s="22" t="s">
@@ -25592,7 +25650,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
       <c r="T297" s="22">
-        <f>SUM(O297:S297)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U297" s="13"/>
@@ -25621,7 +25679,7 @@
         <v>356</v>
       </c>
       <c r="E298" s="61">
-        <f>IF(C298="","",WEEKNUM(C298,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F298" s="22" t="s">
@@ -25660,7 +25718,7 @@
       </c>
       <c r="S298" s="12"/>
       <c r="T298" s="22">
-        <f>SUM(O298:S298)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U298" s="13" t="s">
@@ -25703,7 +25761,7 @@
         <v>356</v>
       </c>
       <c r="E299" s="61">
-        <f>IF(C299="","",WEEKNUM(C299,1))</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F299" s="22" t="s">
@@ -25734,7 +25792,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="22">
-        <f>SUM(O299:S299)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U299" s="13" t="s">
@@ -25777,7 +25835,7 @@
         <v>356</v>
       </c>
       <c r="E300" s="61">
-        <f>IF(C300="","",WEEKNUM(C300,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F300" s="22" t="s">
@@ -25812,7 +25870,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="12"/>
       <c r="T300" s="22">
-        <f>SUM(O300:S300)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U300" s="13"/>
@@ -25841,7 +25899,7 @@
         <v>356</v>
       </c>
       <c r="E301" s="61">
-        <f>IF(C301="","",WEEKNUM(C301,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F301" s="22" t="s">
@@ -25876,7 +25934,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="12"/>
       <c r="T301" s="22">
-        <f>SUM(O301:S301)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U301" s="13"/>
@@ -25907,7 +25965,7 @@
         <v>356</v>
       </c>
       <c r="E302" s="61">
-        <f>IF(C302="","",WEEKNUM(C302,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F302" s="22" t="s">
@@ -25942,7 +26000,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
       <c r="T302" s="22">
-        <f>SUM(O302:S302)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U302" s="13"/>
@@ -25971,7 +26029,7 @@
         <v>356</v>
       </c>
       <c r="E303" s="61">
-        <f>IF(C303="","",WEEKNUM(C303,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F303" s="22" t="s">
@@ -26006,7 +26064,7 @@
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
       <c r="T303" s="22">
-        <f>SUM(O303:S303)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U303" s="27"/>
@@ -26035,7 +26093,7 @@
         <v>356</v>
       </c>
       <c r="E304" s="61">
-        <f>IF(C304="","",WEEKNUM(C304,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F304" s="22" t="s">
@@ -26074,7 +26132,7 @@
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
       <c r="T304" s="22">
-        <f>SUM(O304:S304)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="U304" s="27" t="s">
@@ -26117,7 +26175,7 @@
         <v>356</v>
       </c>
       <c r="E305" s="61">
-        <f>IF(C305="","",WEEKNUM(C305,1))</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F305" s="22" t="s">
@@ -26148,7 +26206,7 @@
       <c r="R305" s="22"/>
       <c r="S305" s="22"/>
       <c r="T305" s="22">
-        <f>SUM(O305:S305)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U305" s="27" t="s">
@@ -26189,7 +26247,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="61">
-        <f>IF(C306="","",WEEKNUM(C306,1))</f>
+        <f t="shared" ref="E306:E369" si="12">IF(C306="","",WEEKNUM(C306,1))</f>
         <v>15</v>
       </c>
       <c r="F306" s="22" t="s">
@@ -26224,7 +26282,7 @@
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
       <c r="T306" s="22">
-        <f>SUM(O306:S306)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U306" s="27"/>
@@ -26253,7 +26311,7 @@
         <v>356</v>
       </c>
       <c r="E307" s="61">
-        <f>IF(C307="","",WEEKNUM(C307,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F307" s="22" t="s">
@@ -26288,7 +26346,7 @@
       <c r="R307" s="95"/>
       <c r="S307" s="95"/>
       <c r="T307" s="22">
-        <f>SUM(O307:S307)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U307" s="95"/>
@@ -26317,7 +26375,7 @@
         <v>356</v>
       </c>
       <c r="E308" s="61">
-        <f>IF(C308="","",WEEKNUM(C308,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F308" s="22" t="s">
@@ -26356,7 +26414,7 @@
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22">
-        <f>SUM(O308:S308)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U308" s="27" t="s">
@@ -26397,7 +26455,7 @@
         <v>356</v>
       </c>
       <c r="E309" s="61">
-        <f>IF(C309="","",WEEKNUM(C309,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F309" s="22" t="s">
@@ -26428,7 +26486,7 @@
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22">
-        <f>SUM(O309:S309)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U309" s="27" t="s">
@@ -26469,7 +26527,7 @@
         <v>356</v>
       </c>
       <c r="E310" s="61">
-        <f>IF(C310="","",WEEKNUM(C310,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F310" s="22" t="s">
@@ -26508,7 +26566,7 @@
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
       <c r="T310" s="22">
-        <f>SUM(O310:S310)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U310" s="27" t="s">
@@ -26549,7 +26607,7 @@
         <v>356</v>
       </c>
       <c r="E311" s="61">
-        <f>IF(C311="","",WEEKNUM(C311,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F311" s="22" t="s">
@@ -26588,7 +26646,7 @@
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22">
-        <f>SUM(O311:S311)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U311" s="27" t="s">
@@ -26629,7 +26687,7 @@
         <v>356</v>
       </c>
       <c r="E312" s="61">
-        <f>IF(C312="","",WEEKNUM(C312,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F312" s="22" t="s">
@@ -26660,7 +26718,7 @@
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22">
-        <f>SUM(O312:S312)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U312" s="27" t="s">
@@ -26701,7 +26759,7 @@
         <v>356</v>
       </c>
       <c r="E313" s="61">
-        <f>IF(C313="","",WEEKNUM(C313,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F313" s="22" t="s">
@@ -26740,7 +26798,7 @@
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
       <c r="T313" s="22">
-        <f>SUM(O313:S313)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U313" s="27" t="s">
@@ -26778,7 +26836,7 @@
         <v>356</v>
       </c>
       <c r="E314" s="61">
-        <f>IF(C314="","",WEEKNUM(C314,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F314" s="22" t="s">
@@ -26813,7 +26871,7 @@
       <c r="R314" s="22"/>
       <c r="S314" s="22"/>
       <c r="T314" s="22">
-        <f>SUM(O314:S314)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U314" s="27"/>
@@ -26839,7 +26897,7 @@
         <v>356</v>
       </c>
       <c r="E315" s="61">
-        <f>IF(C315="","",WEEKNUM(C315,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F315" s="22" t="s">
@@ -26878,7 +26936,7 @@
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
       <c r="T315" s="22">
-        <f>SUM(O315:S315)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U315" s="27" t="s">
@@ -26919,7 +26977,7 @@
         <v>356</v>
       </c>
       <c r="E316" s="61">
-        <f>IF(C316="","",WEEKNUM(C316,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F316" s="22" t="s">
@@ -26954,7 +27012,7 @@
       <c r="R316" s="22"/>
       <c r="S316" s="22"/>
       <c r="T316" s="22">
-        <f>SUM(O316:S316)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U316" s="27"/>
@@ -26980,7 +27038,7 @@
         <v>356</v>
       </c>
       <c r="E317" s="61">
-        <f>IF(C317="","",WEEKNUM(C317,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F317" s="22" t="s">
@@ -27015,7 +27073,7 @@
       <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22">
-        <f>SUM(O317:S317)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U317" s="27"/>
@@ -27041,7 +27099,7 @@
         <v>356</v>
       </c>
       <c r="E318" s="61">
-        <f>IF(C318="","",WEEKNUM(C318,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F318" s="22" t="s">
@@ -27076,7 +27134,7 @@
       <c r="R318" s="22"/>
       <c r="S318" s="22"/>
       <c r="T318" s="22">
-        <f>SUM(O318:S318)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U318" s="27"/>
@@ -27104,7 +27162,7 @@
         <v>356</v>
       </c>
       <c r="E319" s="61">
-        <f>IF(C319="","",WEEKNUM(C319,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F319" s="22" t="s">
@@ -27143,7 +27201,7 @@
       <c r="R319" s="22"/>
       <c r="S319" s="22"/>
       <c r="T319" s="22">
-        <f>SUM(O319:S319)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U319" s="27" t="s">
@@ -27184,7 +27242,7 @@
         <v>356</v>
       </c>
       <c r="E320" s="61">
-        <f>IF(C320="","",WEEKNUM(C320,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F320" s="22" t="s">
@@ -27219,7 +27277,7 @@
       <c r="R320" s="22"/>
       <c r="S320" s="22"/>
       <c r="T320" s="22">
-        <f>SUM(O320:S320)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U320" s="27"/>
@@ -27248,7 +27306,7 @@
         <v>356</v>
       </c>
       <c r="E321" s="61">
-        <f>IF(C321="","",WEEKNUM(C321,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F321" s="22" t="s">
@@ -27283,7 +27341,7 @@
       <c r="R321" s="22"/>
       <c r="S321" s="22"/>
       <c r="T321" s="22">
-        <f>SUM(O321:S321)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U321" s="27"/>
@@ -27309,7 +27367,7 @@
         <v>356</v>
       </c>
       <c r="E322" s="61">
-        <f>IF(C322="","",WEEKNUM(C322,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F322" s="22" t="s">
@@ -27344,7 +27402,7 @@
       <c r="R322" s="22"/>
       <c r="S322" s="22"/>
       <c r="T322" s="22">
-        <f>SUM(O322:S322)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U322" s="27"/>
@@ -27372,7 +27430,7 @@
         <v>356</v>
       </c>
       <c r="E323" s="61">
-        <f>IF(C323="","",WEEKNUM(C323,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F323" s="22" t="s">
@@ -27407,7 +27465,7 @@
       <c r="R323" s="22"/>
       <c r="S323" s="22"/>
       <c r="T323" s="22">
-        <f>SUM(O323:S323)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U323" s="27"/>
@@ -27433,7 +27491,7 @@
         <v>356</v>
       </c>
       <c r="E324" s="61">
-        <f>IF(C324="","",WEEKNUM(C324,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F324" s="22" t="s">
@@ -27468,7 +27526,7 @@
       <c r="R324" s="22"/>
       <c r="S324" s="22"/>
       <c r="T324" s="22">
-        <f>SUM(O324:S324)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U324" s="27"/>
@@ -27494,7 +27552,7 @@
         <v>356</v>
       </c>
       <c r="E325" s="61">
-        <f>IF(C325="","",WEEKNUM(C325,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F325" s="22" t="s">
@@ -27529,7 +27587,7 @@
       <c r="R325" s="95"/>
       <c r="S325" s="95"/>
       <c r="T325" s="22">
-        <f>SUM(O325:S325)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U325" s="95"/>
@@ -27555,7 +27613,7 @@
         <v>356</v>
       </c>
       <c r="E326" s="61">
-        <f>IF(C326="","",WEEKNUM(C326,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F326" s="22" t="s">
@@ -27594,7 +27652,7 @@
       <c r="R326" s="22"/>
       <c r="S326" s="22"/>
       <c r="T326" s="22">
-        <f>SUM(O326:S326)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U326" s="27" t="s">
@@ -27635,7 +27693,7 @@
         <v>356</v>
       </c>
       <c r="E327" s="61">
-        <f>IF(C327="","",WEEKNUM(C327,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F327" s="22" t="s">
@@ -27674,7 +27732,7 @@
       </c>
       <c r="S327" s="22"/>
       <c r="T327" s="22">
-        <f>SUM(O327:S327)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="U327" s="27" t="s">
@@ -27717,7 +27775,7 @@
         <v>356</v>
       </c>
       <c r="E328" s="61">
-        <f>IF(C328="","",WEEKNUM(C328,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F328" s="22" t="s">
@@ -27752,7 +27810,7 @@
       <c r="R328" s="95"/>
       <c r="S328" s="95"/>
       <c r="T328" s="22">
-        <f>SUM(O328:S328)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U328" s="95"/>
@@ -27778,7 +27836,7 @@
         <v>356</v>
       </c>
       <c r="E329" s="61">
-        <f>IF(C329="","",WEEKNUM(C329,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F329" s="22" t="s">
@@ -27813,7 +27871,7 @@
       <c r="R329" s="95"/>
       <c r="S329" s="95"/>
       <c r="T329" s="22">
-        <f>SUM(O329:S329)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U329" s="95"/>
@@ -27839,7 +27897,7 @@
         <v>356</v>
       </c>
       <c r="E330" s="61">
-        <f>IF(C330="","",WEEKNUM(C330,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F330" s="22" t="s">
@@ -27874,7 +27932,7 @@
       <c r="R330" s="95"/>
       <c r="S330" s="95"/>
       <c r="T330" s="22">
-        <f>SUM(O330:S330)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U330" s="95"/>
@@ -27900,7 +27958,7 @@
         <v>356</v>
       </c>
       <c r="E331" s="61">
-        <f>IF(C331="","",WEEKNUM(C331,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F331" s="22" t="s">
@@ -27935,7 +27993,7 @@
       <c r="R331" s="95"/>
       <c r="S331" s="95"/>
       <c r="T331" s="22">
-        <f>SUM(O331:S331)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U331" s="95"/>
@@ -27961,7 +28019,7 @@
         <v>356</v>
       </c>
       <c r="E332" s="61">
-        <f>IF(C332="","",WEEKNUM(C332,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F332" s="22" t="s">
@@ -27996,7 +28054,7 @@
       <c r="R332" s="22"/>
       <c r="S332" s="22"/>
       <c r="T332" s="22">
-        <f>SUM(O332:S332)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U332" s="27"/>
@@ -28022,7 +28080,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="61">
-        <f>IF(C333="","",WEEKNUM(C333,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F333" s="22" t="s">
@@ -28061,7 +28119,7 @@
       <c r="R333" s="22"/>
       <c r="S333" s="22"/>
       <c r="T333" s="22">
-        <f>SUM(O333:S333)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U333" s="27" t="s">
@@ -28102,7 +28160,7 @@
         <v>356</v>
       </c>
       <c r="E334" s="61">
-        <f>IF(C334="","",WEEKNUM(C334,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F334" s="22" t="s">
@@ -28137,7 +28195,7 @@
       <c r="R334" s="95"/>
       <c r="S334" s="95"/>
       <c r="T334" s="22">
-        <f>SUM(O334:S334)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U334" s="95"/>
@@ -28165,7 +28223,7 @@
         <v>356</v>
       </c>
       <c r="E335" s="61">
-        <f>IF(C335="","",WEEKNUM(C335,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F335" s="22" t="s">
@@ -28200,7 +28258,7 @@
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="22">
-        <f>SUM(O335:S335)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U335" s="27"/>
@@ -28226,7 +28284,7 @@
         <v>356</v>
       </c>
       <c r="E336" s="61">
-        <f>IF(C336="","",WEEKNUM(C336,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F336" s="22" t="s">
@@ -28265,7 +28323,7 @@
       <c r="R336" s="22"/>
       <c r="S336" s="22"/>
       <c r="T336" s="22">
-        <f>SUM(O336:S336)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U336" s="27" t="s">
@@ -28306,7 +28364,7 @@
         <v>356</v>
       </c>
       <c r="E337" s="61">
-        <f>IF(C337="","",WEEKNUM(C337,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F337" s="22" t="s">
@@ -28341,7 +28399,7 @@
       <c r="R337" s="95"/>
       <c r="S337" s="95"/>
       <c r="T337" s="22">
-        <f>SUM(O337:S337)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U337" s="95"/>
@@ -28367,7 +28425,7 @@
         <v>356</v>
       </c>
       <c r="E338" s="61">
-        <f>IF(C338="","",WEEKNUM(C338,1))</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="F338" s="22" t="s">
@@ -28402,7 +28460,7 @@
       <c r="R338" s="95"/>
       <c r="S338" s="95"/>
       <c r="T338" s="22">
-        <f>SUM(O338:S338)</f>
+        <f t="shared" ref="T338:T401" si="13">SUM(O338:S338)</f>
         <v>0</v>
       </c>
       <c r="U338" s="95"/>
@@ -28428,7 +28486,7 @@
         <v>356</v>
       </c>
       <c r="E339" s="61">
-        <f>IF(C339="","",WEEKNUM(C339,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F339" s="22" t="s">
@@ -28463,7 +28521,7 @@
       <c r="R339" s="95"/>
       <c r="S339" s="95"/>
       <c r="T339" s="22">
-        <f>SUM(O339:S339)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U339" s="95"/>
@@ -28489,7 +28547,7 @@
         <v>356</v>
       </c>
       <c r="E340" s="61">
-        <f>IF(C340="","",WEEKNUM(C340,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F340" s="22" t="s">
@@ -28524,7 +28582,7 @@
       <c r="R340" s="95"/>
       <c r="S340" s="95"/>
       <c r="T340" s="22">
-        <f>SUM(O340:S340)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U340" s="95"/>
@@ -28550,7 +28608,7 @@
         <v>356</v>
       </c>
       <c r="E341" s="61">
-        <f>IF(C341="","",WEEKNUM(C341,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F341" s="22" t="s">
@@ -28585,7 +28643,7 @@
       <c r="R341" s="95"/>
       <c r="S341" s="95"/>
       <c r="T341" s="22">
-        <f>SUM(O341:S341)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U341" s="95"/>
@@ -28611,7 +28669,7 @@
         <v>356</v>
       </c>
       <c r="E342" s="61">
-        <f>IF(C342="","",WEEKNUM(C342,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F342" s="22" t="s">
@@ -28646,7 +28704,7 @@
       <c r="R342" s="95"/>
       <c r="S342" s="95"/>
       <c r="T342" s="22">
-        <f>SUM(O342:S342)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U342" s="95"/>
@@ -28672,7 +28730,7 @@
         <v>356</v>
       </c>
       <c r="E343" s="61">
-        <f>IF(C343="","",WEEKNUM(C343,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F343" s="22" t="s">
@@ -28707,7 +28765,7 @@
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="22">
-        <f>SUM(O343:S343)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U343" s="27"/>
@@ -28733,7 +28791,7 @@
         <v>356</v>
       </c>
       <c r="E344" s="61">
-        <f>IF(C344="","",WEEKNUM(C344,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F344" s="22" t="s">
@@ -28772,7 +28830,7 @@
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="22">
-        <f>SUM(O344:S344)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U344" s="27" t="s">
@@ -28815,7 +28873,7 @@
         <v>356</v>
       </c>
       <c r="E345" s="61">
-        <f>IF(C345="","",WEEKNUM(C345,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F345" s="22" t="s">
@@ -28850,7 +28908,7 @@
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="22">
-        <f>SUM(O345:S345)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U345" s="27"/>
@@ -28879,7 +28937,7 @@
         <v>356</v>
       </c>
       <c r="E346" s="61">
-        <f>IF(C346="","",WEEKNUM(C346,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F346" s="22" t="s">
@@ -28914,7 +28972,7 @@
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="22">
-        <f>SUM(O346:S346)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U346" s="27"/>
@@ -28940,7 +28998,7 @@
         <v>356</v>
       </c>
       <c r="E347" s="61">
-        <f>IF(C347="","",WEEKNUM(C347,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F347" s="22" t="s">
@@ -28975,7 +29033,7 @@
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="22">
-        <f>SUM(O347:S347)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U347" s="27"/>
@@ -29001,7 +29059,7 @@
         <v>356</v>
       </c>
       <c r="E348" s="61">
-        <f>IF(C348="","",WEEKNUM(C348,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F348" s="22" t="s">
@@ -29036,7 +29094,7 @@
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="22">
-        <f>SUM(O348:S348)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U348" s="27"/>
@@ -29062,7 +29120,7 @@
         <v>356</v>
       </c>
       <c r="E349" s="61">
-        <f>IF(C349="","",WEEKNUM(C349,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F349" s="22" t="s">
@@ -29097,7 +29155,7 @@
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="22">
-        <f>SUM(O349:S349)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U349" s="27"/>
@@ -29123,7 +29181,7 @@
         <v>356</v>
       </c>
       <c r="E350" s="61">
-        <f>IF(C350="","",WEEKNUM(C350,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F350" s="22" t="s">
@@ -29162,7 +29220,7 @@
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="22">
-        <f>SUM(O350:S350)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U350" s="27" t="s">
@@ -29203,7 +29261,7 @@
         <v>356</v>
       </c>
       <c r="E351" s="61">
-        <f>IF(C351="","",WEEKNUM(C351,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F351" s="22" t="s">
@@ -29238,7 +29296,7 @@
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="22">
-        <f>SUM(O351:S351)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U351" s="27"/>
@@ -29264,7 +29322,7 @@
         <v>356</v>
       </c>
       <c r="E352" s="61">
-        <f>IF(C352="","",WEEKNUM(C352,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F352" s="22" t="s">
@@ -29303,7 +29361,7 @@
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="22">
-        <f>SUM(O352:S352)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U352" s="27" t="s">
@@ -29346,7 +29404,7 @@
         <v>356</v>
       </c>
       <c r="E353" s="61">
-        <f>IF(C353="","",WEEKNUM(C353,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F353" s="22" t="s">
@@ -29377,7 +29435,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="22">
-        <f>SUM(O353:S353)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U353" s="27" t="s">
@@ -29418,7 +29476,7 @@
         <v>356</v>
       </c>
       <c r="E354" s="61">
-        <f>IF(C354="","",WEEKNUM(C354,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F354" s="22" t="s">
@@ -29453,7 +29511,7 @@
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="22">
-        <f>SUM(O354:S354)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U354" s="27"/>
@@ -29479,7 +29537,7 @@
         <v>356</v>
       </c>
       <c r="E355" s="61">
-        <f>IF(C355="","",WEEKNUM(C355,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F355" s="22" t="s">
@@ -29514,7 +29572,7 @@
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="22">
-        <f>SUM(O355:S355)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U355" s="27"/>
@@ -29540,7 +29598,7 @@
         <v>356</v>
       </c>
       <c r="E356" s="61">
-        <f>IF(C356="","",WEEKNUM(C356,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F356" s="22" t="s">
@@ -29575,7 +29633,7 @@
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="22">
-        <f>SUM(O356:S356)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U356" s="27"/>
@@ -29601,7 +29659,7 @@
         <v>356</v>
       </c>
       <c r="E357" s="61">
-        <f>IF(C357="","",WEEKNUM(C357,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F357" s="22" t="s">
@@ -29640,7 +29698,7 @@
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="22">
-        <f>SUM(O357:S357)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U357" s="27" t="s">
@@ -29681,7 +29739,7 @@
         <v>356</v>
       </c>
       <c r="E358" s="61">
-        <f>IF(C358="","",WEEKNUM(C358,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F358" s="22" t="s">
@@ -29716,7 +29774,7 @@
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="22">
-        <f>SUM(O358:S358)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U358" s="27"/>
@@ -29742,7 +29800,7 @@
         <v>356</v>
       </c>
       <c r="E359" s="61">
-        <f>IF(C359="","",WEEKNUM(C359,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F359" s="22" t="s">
@@ -29777,7 +29835,7 @@
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="22">
-        <f>SUM(O359:S359)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U359" s="27"/>
@@ -29803,7 +29861,7 @@
         <v>356</v>
       </c>
       <c r="E360" s="61">
-        <f>IF(C360="","",WEEKNUM(C360,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F360" s="22" t="s">
@@ -29840,7 +29898,7 @@
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="22">
-        <f>SUM(O360:S360)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U360" s="27" t="s">
@@ -29883,7 +29941,7 @@
         <v>356</v>
       </c>
       <c r="E361" s="61">
-        <f>IF(C361="","",WEEKNUM(C361,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F361" s="22" t="s">
@@ -29918,7 +29976,7 @@
       <c r="R361" s="95"/>
       <c r="S361" s="95"/>
       <c r="T361" s="22">
-        <f>SUM(O361:S361)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U361" s="95"/>
@@ -29946,7 +30004,7 @@
         <v>356</v>
       </c>
       <c r="E362" s="61">
-        <f>IF(C362="","",WEEKNUM(C362,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F362" s="22" t="s">
@@ -29981,7 +30039,7 @@
       <c r="R362" s="95"/>
       <c r="S362" s="95"/>
       <c r="T362" s="22">
-        <f>SUM(O362:S362)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U362" s="95"/>
@@ -30007,7 +30065,7 @@
         <v>356</v>
       </c>
       <c r="E363" s="61">
-        <f>IF(C363="","",WEEKNUM(C363,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F363" s="22" t="s">
@@ -30042,7 +30100,7 @@
       <c r="R363" s="95"/>
       <c r="S363" s="95"/>
       <c r="T363" s="22">
-        <f>SUM(O363:S363)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U363" s="95"/>
@@ -30068,7 +30126,7 @@
         <v>356</v>
       </c>
       <c r="E364" s="61">
-        <f>IF(C364="","",WEEKNUM(C364,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F364" s="22" t="s">
@@ -30103,7 +30161,7 @@
       <c r="R364" s="95"/>
       <c r="S364" s="95"/>
       <c r="T364" s="22">
-        <f>SUM(O364:S364)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U364" s="95"/>
@@ -30131,7 +30189,7 @@
         <v>356</v>
       </c>
       <c r="E365" s="61">
-        <f>IF(C365="","",WEEKNUM(C365,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F365" s="22" t="s">
@@ -30166,7 +30224,7 @@
       <c r="R365" s="95"/>
       <c r="S365" s="95"/>
       <c r="T365" s="22">
-        <f>SUM(O365:S365)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U365" s="95"/>
@@ -30192,7 +30250,7 @@
         <v>356</v>
       </c>
       <c r="E366" s="61">
-        <f>IF(C366="","",WEEKNUM(C366,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F366" s="22" t="s">
@@ -30227,7 +30285,7 @@
       <c r="R366" s="95"/>
       <c r="S366" s="95"/>
       <c r="T366" s="22">
-        <f>SUM(O366:S366)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U366" s="95"/>
@@ -30253,7 +30311,7 @@
         <v>356</v>
       </c>
       <c r="E367" s="61">
-        <f>IF(C367="","",WEEKNUM(C367,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F367" s="22" t="s">
@@ -30288,7 +30346,7 @@
       <c r="R367" s="95"/>
       <c r="S367" s="95"/>
       <c r="T367" s="22">
-        <f>SUM(O367:S367)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U367" s="95"/>
@@ -30314,7 +30372,7 @@
         <v>356</v>
       </c>
       <c r="E368" s="61">
-        <f>IF(C368="","",WEEKNUM(C368,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F368" s="22" t="s">
@@ -30349,7 +30407,7 @@
       <c r="R368" s="95"/>
       <c r="S368" s="95"/>
       <c r="T368" s="22">
-        <f>SUM(O368:S368)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U368" s="95"/>
@@ -30375,7 +30433,7 @@
         <v>356</v>
       </c>
       <c r="E369" s="61">
-        <f>IF(C369="","",WEEKNUM(C369,1))</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="F369" s="22" t="s">
@@ -30410,7 +30468,7 @@
       <c r="R369" s="95"/>
       <c r="S369" s="95"/>
       <c r="T369" s="22">
-        <f>SUM(O369:S369)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U369" s="95"/>
@@ -30436,7 +30494,7 @@
         <v>356</v>
       </c>
       <c r="E370" s="61">
-        <f>IF(C370="","",WEEKNUM(C370,1))</f>
+        <f t="shared" ref="E370:E433" si="14">IF(C370="","",WEEKNUM(C370,1))</f>
         <v>16</v>
       </c>
       <c r="F370" s="22" t="s">
@@ -30471,7 +30529,7 @@
       <c r="R370" s="95"/>
       <c r="S370" s="95"/>
       <c r="T370" s="22">
-        <f>SUM(O370:S370)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U370" s="95"/>
@@ -30497,7 +30555,7 @@
         <v>356</v>
       </c>
       <c r="E371" s="61">
-        <f>IF(C371="","",WEEKNUM(C371,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F371" s="22" t="s">
@@ -30536,7 +30594,7 @@
       <c r="R371" s="22"/>
       <c r="S371" s="22"/>
       <c r="T371" s="22">
-        <f>SUM(O371:S371)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U371" s="27" t="s">
@@ -30577,7 +30635,7 @@
         <v>356</v>
       </c>
       <c r="E372" s="61">
-        <f>IF(C372="","",WEEKNUM(C372,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F372" s="22" t="s">
@@ -30608,7 +30666,7 @@
       <c r="R372" s="22"/>
       <c r="S372" s="22"/>
       <c r="T372" s="22">
-        <f>SUM(O372:S372)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U372" s="27" t="s">
@@ -30649,7 +30707,7 @@
         <v>356</v>
       </c>
       <c r="E373" s="61">
-        <f>IF(C373="","",WEEKNUM(C373,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F373" s="22" t="s">
@@ -30684,7 +30742,7 @@
       <c r="R373" s="22"/>
       <c r="S373" s="22"/>
       <c r="T373" s="22">
-        <f>SUM(O373:S373)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U373" s="27"/>
@@ -30713,7 +30771,7 @@
         <v>356</v>
       </c>
       <c r="E374" s="61">
-        <f>IF(C374="","",WEEKNUM(C374,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F374" s="22" t="s">
@@ -30752,7 +30810,7 @@
       <c r="R374" s="22"/>
       <c r="S374" s="22"/>
       <c r="T374" s="22">
-        <f>SUM(O374:S374)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U374" s="27" t="s">
@@ -30793,7 +30851,7 @@
         <v>356</v>
       </c>
       <c r="E375" s="61">
-        <f>IF(C375="","",WEEKNUM(C375,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F375" s="22" t="s">
@@ -30828,7 +30886,7 @@
       <c r="R375" s="22"/>
       <c r="S375" s="22"/>
       <c r="T375" s="22">
-        <f>SUM(O375:S375)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U375" s="27"/>
@@ -30857,7 +30915,7 @@
         <v>356</v>
       </c>
       <c r="E376" s="61">
-        <f>IF(C376="","",WEEKNUM(C376,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F376" s="22" t="s">
@@ -30892,7 +30950,7 @@
       <c r="R376" s="22"/>
       <c r="S376" s="22"/>
       <c r="T376" s="22">
-        <f>SUM(O376:S376)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U376" s="27"/>
@@ -30918,7 +30976,7 @@
         <v>356</v>
       </c>
       <c r="E377" s="61">
-        <f>IF(C377="","",WEEKNUM(C377,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F377" s="22" t="s">
@@ -30953,7 +31011,7 @@
       <c r="R377" s="22"/>
       <c r="S377" s="22"/>
       <c r="T377" s="22">
-        <f>SUM(O377:S377)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U377" s="27"/>
@@ -30979,7 +31037,7 @@
         <v>356</v>
       </c>
       <c r="E378" s="61">
-        <f>IF(C378="","",WEEKNUM(C378,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F378" s="22" t="s">
@@ -31014,7 +31072,7 @@
       <c r="R378" s="22"/>
       <c r="S378" s="22"/>
       <c r="T378" s="22">
-        <f>SUM(O378:S378)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U378" s="27"/>
@@ -31040,7 +31098,7 @@
         <v>356</v>
       </c>
       <c r="E379" s="61">
-        <f>IF(C379="","",WEEKNUM(C379,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F379" s="22" t="s">
@@ -31075,7 +31133,7 @@
       <c r="R379" s="95"/>
       <c r="S379" s="95"/>
       <c r="T379" s="22">
-        <f>SUM(O379:S379)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U379" s="95"/>
@@ -31101,7 +31159,7 @@
         <v>356</v>
       </c>
       <c r="E380" s="61">
-        <f>IF(C380="","",WEEKNUM(C380,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F380" s="22" t="s">
@@ -31140,7 +31198,7 @@
       </c>
       <c r="S380" s="95"/>
       <c r="T380" s="22">
-        <f>SUM(O380:S380)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U380" s="27" t="s">
@@ -31181,7 +31239,7 @@
         <v>356</v>
       </c>
       <c r="E381" s="61">
-        <f>IF(C381="","",WEEKNUM(C381,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F381" s="22" t="s">
@@ -31216,7 +31274,7 @@
       <c r="R381" s="22"/>
       <c r="S381" s="22"/>
       <c r="T381" s="22">
-        <f>SUM(O381:S381)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U381" s="27"/>
@@ -31242,7 +31300,7 @@
         <v>356</v>
       </c>
       <c r="E382" s="61">
-        <f>IF(C382="","",WEEKNUM(C382,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F382" s="22" t="s">
@@ -31281,7 +31339,7 @@
       <c r="R382" s="22"/>
       <c r="S382" s="22"/>
       <c r="T382" s="22">
-        <f>SUM(O382:S382)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U382" s="27" t="s">
@@ -31322,7 +31380,7 @@
         <v>356</v>
       </c>
       <c r="E383" s="61">
-        <f>IF(C383="","",WEEKNUM(C383,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F383" s="22" t="s">
@@ -31357,7 +31415,7 @@
       <c r="R383" s="22"/>
       <c r="S383" s="22"/>
       <c r="T383" s="22">
-        <f>SUM(O383:S383)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U383" s="27"/>
@@ -31383,7 +31441,7 @@
         <v>356</v>
       </c>
       <c r="E384" s="61">
-        <f>IF(C384="","",WEEKNUM(C384,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F384" s="22" t="s">
@@ -31418,7 +31476,7 @@
       <c r="R384" s="22"/>
       <c r="S384" s="22"/>
       <c r="T384" s="22">
-        <f>SUM(O384:S384)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U384" s="27"/>
@@ -31444,7 +31502,7 @@
         <v>356</v>
       </c>
       <c r="E385" s="61">
-        <f>IF(C385="","",WEEKNUM(C385,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F385" s="22" t="s">
@@ -31479,7 +31537,7 @@
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="22">
-        <f>SUM(O385:S385)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U385" s="27"/>
@@ -31505,7 +31563,7 @@
         <v>356</v>
       </c>
       <c r="E386" s="61">
-        <f>IF(C386="","",WEEKNUM(C386,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F386" s="22" t="s">
@@ -31544,7 +31602,7 @@
       <c r="R386" s="22"/>
       <c r="S386" s="22"/>
       <c r="T386" s="22">
-        <f>SUM(O386:S386)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U386" s="27" t="s">
@@ -31587,7 +31645,7 @@
         <v>356</v>
       </c>
       <c r="E387" s="61">
-        <f>IF(C387="","",WEEKNUM(C387,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F387" s="22" t="s">
@@ -31622,7 +31680,7 @@
       <c r="R387" s="22"/>
       <c r="S387" s="22"/>
       <c r="T387" s="22">
-        <f>SUM(O387:S387)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U387" s="27"/>
@@ -31648,7 +31706,7 @@
         <v>356</v>
       </c>
       <c r="E388" s="61">
-        <f>IF(C388="","",WEEKNUM(C388,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F388" s="22" t="s">
@@ -31683,7 +31741,7 @@
       <c r="R388" s="22"/>
       <c r="S388" s="22"/>
       <c r="T388" s="22">
-        <f>SUM(O388:S388)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U388" s="27"/>
@@ -31709,7 +31767,7 @@
         <v>356</v>
       </c>
       <c r="E389" s="61">
-        <f>IF(C389="","",WEEKNUM(C389,1))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F389" s="22" t="s">
@@ -31744,7 +31802,7 @@
       <c r="R389" s="22"/>
       <c r="S389" s="22"/>
       <c r="T389" s="22">
-        <f>SUM(O389:S389)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U389" s="27"/>
@@ -31770,7 +31828,7 @@
         <v>356</v>
       </c>
       <c r="E390" s="61">
-        <f>IF(C390="","",WEEKNUM(C390,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F390" s="22" t="s">
@@ -31805,7 +31863,7 @@
       <c r="R390" s="95"/>
       <c r="S390" s="95"/>
       <c r="T390" s="22">
-        <f>SUM(O390:S390)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U390" s="95"/>
@@ -31833,7 +31891,7 @@
         <v>356</v>
       </c>
       <c r="E391" s="61">
-        <f>IF(C391="","",WEEKNUM(C391,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F391" s="22" t="s">
@@ -31868,7 +31926,7 @@
       <c r="R391" s="95"/>
       <c r="S391" s="95"/>
       <c r="T391" s="22">
-        <f>SUM(O391:S391)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U391" s="95"/>
@@ -31897,7 +31955,7 @@
         <v>356</v>
       </c>
       <c r="E392" s="61">
-        <f>IF(C392="","",WEEKNUM(C392,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F392" s="22" t="s">
@@ -31932,7 +31990,7 @@
       <c r="R392" s="95"/>
       <c r="S392" s="95"/>
       <c r="T392" s="22">
-        <f>SUM(O392:S392)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U392" s="95"/>
@@ -31961,7 +32019,7 @@
         <v>356</v>
       </c>
       <c r="E393" s="61">
-        <f>IF(C393="","",WEEKNUM(C393,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F393" s="22" t="s">
@@ -31996,7 +32054,7 @@
       <c r="R393" s="95"/>
       <c r="S393" s="95"/>
       <c r="T393" s="22">
-        <f>SUM(O393:S393)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U393" s="95"/>
@@ -32025,7 +32083,7 @@
         <v>356</v>
       </c>
       <c r="E394" s="61">
-        <f>IF(C394="","",WEEKNUM(C394,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F394" s="22" t="s">
@@ -32060,7 +32118,7 @@
       <c r="R394" s="95"/>
       <c r="S394" s="95"/>
       <c r="T394" s="22">
-        <f>SUM(O394:S394)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U394" s="95"/>
@@ -32089,7 +32147,7 @@
         <v>356</v>
       </c>
       <c r="E395" s="61">
-        <f>IF(C395="","",WEEKNUM(C395,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F395" s="22" t="s">
@@ -32124,7 +32182,7 @@
       <c r="R395" s="95"/>
       <c r="S395" s="95"/>
       <c r="T395" s="22">
-        <f>SUM(O395:S395)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U395" s="95"/>
@@ -32150,7 +32208,7 @@
         <v>356</v>
       </c>
       <c r="E396" s="61">
-        <f>IF(C396="","",WEEKNUM(C396,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F396" s="22" t="s">
@@ -32185,7 +32243,7 @@
       <c r="R396" s="95"/>
       <c r="S396" s="95"/>
       <c r="T396" s="22">
-        <f>SUM(O396:S396)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U396" s="95"/>
@@ -32211,7 +32269,7 @@
         <v>356</v>
       </c>
       <c r="E397" s="61">
-        <f>IF(C397="","",WEEKNUM(C397,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F397" s="22" t="s">
@@ -32246,7 +32304,7 @@
       <c r="R397" s="95"/>
       <c r="S397" s="95"/>
       <c r="T397" s="22">
-        <f>SUM(O397:S397)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U397" s="95"/>
@@ -32272,7 +32330,7 @@
         <v>356</v>
       </c>
       <c r="E398" s="61">
-        <f>IF(C398="","",WEEKNUM(C398,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F398" s="22" t="s">
@@ -32307,7 +32365,7 @@
       <c r="R398" s="95"/>
       <c r="S398" s="95"/>
       <c r="T398" s="22">
-        <f>SUM(O398:S398)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U398" s="95"/>
@@ -32333,7 +32391,7 @@
         <v>356</v>
       </c>
       <c r="E399" s="61">
-        <f>IF(C399="","",WEEKNUM(C399,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F399" s="22" t="s">
@@ -32368,7 +32426,7 @@
       <c r="R399" s="95"/>
       <c r="S399" s="95"/>
       <c r="T399" s="22">
-        <f>SUM(O399:S399)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U399" s="95"/>
@@ -32394,7 +32452,7 @@
         <v>356</v>
       </c>
       <c r="E400" s="61">
-        <f>IF(C400="","",WEEKNUM(C400,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F400" s="22" t="s">
@@ -32433,7 +32491,7 @@
       <c r="R400" s="95"/>
       <c r="S400" s="95"/>
       <c r="T400" s="22">
-        <f>SUM(O400:S400)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U400" s="95" t="s">
@@ -32474,7 +32532,7 @@
         <v>356</v>
       </c>
       <c r="E401" s="61">
-        <f>IF(C401="","",WEEKNUM(C401,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F401" s="22" t="s">
@@ -32509,7 +32567,7 @@
       <c r="R401" s="22"/>
       <c r="S401" s="22"/>
       <c r="T401" s="22">
-        <f>SUM(O401:S401)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U401" s="27"/>
@@ -32533,7 +32591,7 @@
         <v>356</v>
       </c>
       <c r="E402" s="61">
-        <f>IF(C402="","",WEEKNUM(C402,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F402" s="22" t="s">
@@ -32568,7 +32626,7 @@
       <c r="R402" s="22"/>
       <c r="S402" s="22"/>
       <c r="T402" s="22">
-        <f>SUM(O402:S402)</f>
+        <f t="shared" ref="T402:T423" si="15">SUM(O402:S402)</f>
         <v>0</v>
       </c>
       <c r="U402" s="27"/>
@@ -32592,7 +32650,7 @@
         <v>356</v>
       </c>
       <c r="E403" s="61">
-        <f>IF(C403="","",WEEKNUM(C403,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F403" s="22" t="s">
@@ -32627,7 +32685,7 @@
       <c r="R403" s="22"/>
       <c r="S403" s="22"/>
       <c r="T403" s="22">
-        <f>SUM(O403:S403)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U403" s="27"/>
@@ -32651,7 +32709,7 @@
         <v>356</v>
       </c>
       <c r="E404" s="61">
-        <f>IF(C404="","",WEEKNUM(C404,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F404" s="22" t="s">
@@ -32690,7 +32748,7 @@
       <c r="R404" s="22"/>
       <c r="S404" s="22"/>
       <c r="T404" s="22">
-        <f>SUM(O404:S404)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U404" s="27" t="s">
@@ -32731,7 +32789,7 @@
         <v>356</v>
       </c>
       <c r="E405" s="61">
-        <f>IF(C405="","",WEEKNUM(C405,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F405" s="22" t="s">
@@ -32766,7 +32824,7 @@
       <c r="R405" s="22"/>
       <c r="S405" s="22"/>
       <c r="T405" s="22">
-        <f>SUM(O405:S405)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U405" s="27"/>
@@ -32790,7 +32848,7 @@
         <v>356</v>
       </c>
       <c r="E406" s="61">
-        <f>IF(C406="","",WEEKNUM(C406,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F406" s="22" t="s">
@@ -32825,7 +32883,7 @@
       <c r="R406" s="22"/>
       <c r="S406" s="22"/>
       <c r="T406" s="22">
-        <f>SUM(O406:S406)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U406" s="27"/>
@@ -32849,7 +32907,7 @@
         <v>356</v>
       </c>
       <c r="E407" s="61">
-        <f>IF(C407="","",WEEKNUM(C407,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F407" s="22" t="s">
@@ -32884,7 +32942,7 @@
       <c r="R407" s="22"/>
       <c r="S407" s="22"/>
       <c r="T407" s="22">
-        <f>SUM(O407:S407)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U407" s="27"/>
@@ -32908,7 +32966,7 @@
         <v>356</v>
       </c>
       <c r="E408" s="61">
-        <f>IF(C408="","",WEEKNUM(C408,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F408" s="22" t="s">
@@ -32947,7 +33005,7 @@
       <c r="R408" s="22"/>
       <c r="S408" s="22"/>
       <c r="T408" s="22">
-        <f>SUM(O408:S408)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U408" s="27" t="s">
@@ -32986,7 +33044,7 @@
         <v>356</v>
       </c>
       <c r="E409" s="61">
-        <f>IF(C409="","",WEEKNUM(C409,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F409" s="22" t="s">
@@ -33021,7 +33079,7 @@
       <c r="R409" s="22"/>
       <c r="S409" s="22"/>
       <c r="T409" s="22">
-        <f>SUM(O409:S409)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U409" s="27"/>
@@ -33045,7 +33103,7 @@
         <v>356</v>
       </c>
       <c r="E410" s="61">
-        <f>IF(C410="","",WEEKNUM(C410,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F410" s="22" t="s">
@@ -33080,7 +33138,7 @@
       <c r="R410" s="22"/>
       <c r="S410" s="22"/>
       <c r="T410" s="22">
-        <f>SUM(O410:S410)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U410" s="27"/>
@@ -33104,7 +33162,7 @@
         <v>356</v>
       </c>
       <c r="E411" s="61">
-        <f>IF(C411="","",WEEKNUM(C411,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F411" s="22" t="s">
@@ -33139,7 +33197,7 @@
       <c r="R411" s="22"/>
       <c r="S411" s="22"/>
       <c r="T411" s="22">
-        <f>SUM(O411:S411)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U411" s="27"/>
@@ -33163,7 +33221,7 @@
         <v>356</v>
       </c>
       <c r="E412" s="61">
-        <f>IF(C412="","",WEEKNUM(C412,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F412" s="22" t="s">
@@ -33198,7 +33256,7 @@
       <c r="R412" s="22"/>
       <c r="S412" s="22"/>
       <c r="T412" s="22">
-        <f>SUM(O412:S412)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U412" s="27"/>
@@ -33222,7 +33280,7 @@
         <v>356</v>
       </c>
       <c r="E413" s="61">
-        <f>IF(C413="","",WEEKNUM(C413,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F413" s="22" t="s">
@@ -33257,7 +33315,7 @@
       <c r="R413" s="22"/>
       <c r="S413" s="22"/>
       <c r="T413" s="22">
-        <f>SUM(O413:S413)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U413" s="27"/>
@@ -33281,7 +33339,7 @@
         <v>356</v>
       </c>
       <c r="E414" s="61">
-        <f>IF(C414="","",WEEKNUM(C414,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F414" s="22" t="s">
@@ -33320,7 +33378,7 @@
       <c r="R414" s="22"/>
       <c r="S414" s="22"/>
       <c r="T414" s="22">
-        <f>SUM(O414:S414)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U414" s="27" t="s">
@@ -33359,7 +33417,7 @@
         <v>356</v>
       </c>
       <c r="E415" s="61">
-        <f>IF(C415="","",WEEKNUM(C415,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F415" s="22" t="s">
@@ -33390,7 +33448,7 @@
       </c>
       <c r="S415" s="22"/>
       <c r="T415" s="22">
-        <f>SUM(O415:S415)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U415" s="27" t="s">
@@ -33429,7 +33487,7 @@
         <v>356</v>
       </c>
       <c r="E416" s="61">
-        <f>IF(C416="","",WEEKNUM(C416,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F416" s="22" t="s">
@@ -33460,7 +33518,7 @@
       <c r="R416" s="22"/>
       <c r="S416" s="22"/>
       <c r="T416" s="22">
-        <f>SUM(O416:S416)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U416" s="27" t="s">
@@ -33499,7 +33557,7 @@
         <v>356</v>
       </c>
       <c r="E417" s="61">
-        <f>IF(C417="","",WEEKNUM(C417,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F417" s="22" t="s">
@@ -33530,7 +33588,7 @@
       <c r="R417" s="22"/>
       <c r="S417" s="22"/>
       <c r="T417" s="22">
-        <f>SUM(O417:S417)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="U417" s="27" t="s">
@@ -33569,7 +33627,7 @@
         <v>356</v>
       </c>
       <c r="E418" s="61">
-        <f>IF(C418="","",WEEKNUM(C418,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F418" s="22" t="s">
@@ -33604,7 +33662,7 @@
       <c r="R418" s="22"/>
       <c r="S418" s="22"/>
       <c r="T418" s="22">
-        <f>SUM(O418:S418)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U418" s="27"/>
@@ -33628,7 +33686,7 @@
         <v>356</v>
       </c>
       <c r="E419" s="61">
-        <f>IF(C419="","",WEEKNUM(C419,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F419" s="22" t="s">
@@ -33667,7 +33725,7 @@
       <c r="R419" s="22"/>
       <c r="S419" s="22"/>
       <c r="T419" s="22">
-        <f>SUM(O419:S419)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U419" s="27" t="s">
@@ -33706,7 +33764,7 @@
         <v>356</v>
       </c>
       <c r="E420" s="61">
-        <f>IF(C420="","",WEEKNUM(C420,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F420" s="22" t="s">
@@ -33741,7 +33799,7 @@
       <c r="R420" s="22"/>
       <c r="S420" s="22"/>
       <c r="T420" s="22">
-        <f>SUM(O420:S420)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U420" s="27"/>
@@ -33765,7 +33823,7 @@
         <v>356</v>
       </c>
       <c r="E421" s="61">
-        <f>IF(C421="","",WEEKNUM(C421,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F421" s="22" t="s">
@@ -33800,7 +33858,7 @@
       <c r="R421" s="22"/>
       <c r="S421" s="22"/>
       <c r="T421" s="22">
-        <f>SUM(O421:S421)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U421" s="27"/>
@@ -33824,7 +33882,7 @@
         <v>356</v>
       </c>
       <c r="E422" s="61">
-        <f>IF(C422="","",WEEKNUM(C422,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F422" s="22" t="s">
@@ -33863,7 +33921,7 @@
       <c r="R422" s="22"/>
       <c r="S422" s="22"/>
       <c r="T422" s="22">
-        <f>SUM(O422:S422)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U422" s="27" t="s">
@@ -33902,7 +33960,7 @@
         <v>356</v>
       </c>
       <c r="E423" s="61">
-        <f>IF(C423="","",WEEKNUM(C423,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F423" s="22" t="s">
@@ -33933,7 +33991,7 @@
       <c r="R423" s="22"/>
       <c r="S423" s="22"/>
       <c r="T423" s="22">
-        <f>SUM(O423:S423)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U423" s="27" t="s">
@@ -33972,7 +34030,7 @@
         <v>356</v>
       </c>
       <c r="E424" s="61">
-        <f>IF(C424="","",WEEKNUM(C424,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F424" s="22" t="s">
@@ -34028,7 +34086,7 @@
         <v>356</v>
       </c>
       <c r="E425" s="61">
-        <f>IF(C425="","",WEEKNUM(C425,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F425" s="22" t="s">
@@ -34084,7 +34142,7 @@
         <v>356</v>
       </c>
       <c r="E426" s="61">
-        <f>IF(C426="","",WEEKNUM(C426,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F426" s="22" t="s">
@@ -34140,7 +34198,7 @@
         <v>356</v>
       </c>
       <c r="E427" s="61">
-        <f>IF(C427="","",WEEKNUM(C427,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F427" s="22" t="s">
@@ -34175,7 +34233,7 @@
       <c r="R427" s="22"/>
       <c r="S427" s="22"/>
       <c r="T427" s="22">
-        <f>SUM(O427:S427)</f>
+        <f t="shared" ref="T427:T440" si="16">SUM(O427:S427)</f>
         <v>0</v>
       </c>
       <c r="U427" s="27"/>
@@ -34201,7 +34259,7 @@
         <v>356</v>
       </c>
       <c r="E428" s="61">
-        <f>IF(C428="","",WEEKNUM(C428,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F428" s="22" t="s">
@@ -34236,7 +34294,7 @@
       <c r="R428" s="22"/>
       <c r="S428" s="22"/>
       <c r="T428" s="22">
-        <f>SUM(O428:S428)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U428" s="27"/>
@@ -34262,7 +34320,7 @@
         <v>356</v>
       </c>
       <c r="E429" s="61">
-        <f>IF(C429="","",WEEKNUM(C429,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F429" s="22" t="s">
@@ -34301,7 +34359,7 @@
       <c r="R429" s="22"/>
       <c r="S429" s="22"/>
       <c r="T429" s="22">
-        <f>SUM(O429:S429)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U429" s="27" t="s">
@@ -34342,7 +34400,7 @@
         <v>356</v>
       </c>
       <c r="E430" s="61">
-        <f>IF(C430="","",WEEKNUM(C430,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F430" s="22" t="s">
@@ -34377,7 +34435,7 @@
       <c r="R430" s="22"/>
       <c r="S430" s="22"/>
       <c r="T430" s="22">
-        <f>SUM(O430:S430)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U430" s="27"/>
@@ -34403,7 +34461,7 @@
         <v>356</v>
       </c>
       <c r="E431" s="61">
-        <f>IF(C431="","",WEEKNUM(C431,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F431" s="22" t="s">
@@ -34438,7 +34496,7 @@
       <c r="R431" s="22"/>
       <c r="S431" s="22"/>
       <c r="T431" s="22">
-        <f>SUM(O431:S431)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U431" s="27"/>
@@ -34464,7 +34522,7 @@
         <v>356</v>
       </c>
       <c r="E432" s="61">
-        <f>IF(C432="","",WEEKNUM(C432,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F432" s="22" t="s">
@@ -34499,7 +34557,7 @@
       <c r="R432" s="22"/>
       <c r="S432" s="22"/>
       <c r="T432" s="22">
-        <f>SUM(O432:S432)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U432" s="27"/>
@@ -34525,7 +34583,7 @@
         <v>356</v>
       </c>
       <c r="E433" s="61">
-        <f>IF(C433="","",WEEKNUM(C433,1))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="F433" s="22" t="s">
@@ -34560,7 +34618,7 @@
       <c r="R433" s="22"/>
       <c r="S433" s="22"/>
       <c r="T433" s="22">
-        <f>SUM(O433:S433)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U433" s="27"/>
@@ -34586,7 +34644,7 @@
         <v>356</v>
       </c>
       <c r="E434" s="61">
-        <f>IF(C434="","",WEEKNUM(C434,1))</f>
+        <f t="shared" ref="E434:E453" si="17">IF(C434="","",WEEKNUM(C434,1))</f>
         <v>17</v>
       </c>
       <c r="F434" s="22" t="s">
@@ -34621,7 +34679,7 @@
       <c r="R434" s="22"/>
       <c r="S434" s="22"/>
       <c r="T434" s="22">
-        <f>SUM(O434:S434)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U434" s="27"/>
@@ -34647,7 +34705,7 @@
         <v>356</v>
       </c>
       <c r="E435" s="61">
-        <f>IF(C435="","",WEEKNUM(C435,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F435" s="22" t="s">
@@ -34682,7 +34740,7 @@
       <c r="R435" s="22"/>
       <c r="S435" s="22"/>
       <c r="T435" s="22">
-        <f>SUM(O435:S435)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U435" s="27"/>
@@ -34708,7 +34766,7 @@
         <v>356</v>
       </c>
       <c r="E436" s="61">
-        <f>IF(C436="","",WEEKNUM(C436,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F436" s="22" t="s">
@@ -34743,7 +34801,7 @@
       <c r="R436" s="22"/>
       <c r="S436" s="22"/>
       <c r="T436" s="22">
-        <f>SUM(O436:S436)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U436" s="27"/>
@@ -34769,7 +34827,7 @@
         <v>356</v>
       </c>
       <c r="E437" s="61">
-        <f>IF(C437="","",WEEKNUM(C437,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F437" s="22" t="s">
@@ -34804,7 +34862,7 @@
       <c r="R437" s="22"/>
       <c r="S437" s="22"/>
       <c r="T437" s="22">
-        <f>SUM(O437:S437)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U437" s="27"/>
@@ -34830,7 +34888,7 @@
         <v>356</v>
       </c>
       <c r="E438" s="61">
-        <f>IF(C438="","",WEEKNUM(C438,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F438" s="22" t="s">
@@ -34865,7 +34923,7 @@
       <c r="R438" s="22"/>
       <c r="S438" s="22"/>
       <c r="T438" s="22">
-        <f>SUM(O438:S438)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U438" s="27"/>
@@ -34891,7 +34949,7 @@
         <v>356</v>
       </c>
       <c r="E439" s="61">
-        <f>IF(C439="","",WEEKNUM(C439,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F439" s="22" t="s">
@@ -34930,7 +34988,7 @@
       <c r="R439" s="22"/>
       <c r="S439" s="22"/>
       <c r="T439" s="22">
-        <f>SUM(O439:S439)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U439" s="27" t="s">
@@ -34971,7 +35029,7 @@
         <v>356</v>
       </c>
       <c r="E440" s="61">
-        <f>IF(C440="","",WEEKNUM(C440,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F440" s="22" t="s">
@@ -35010,7 +35068,7 @@
       <c r="R440" s="22"/>
       <c r="S440" s="22"/>
       <c r="T440" s="22">
-        <f>SUM(O440:S440)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U440" s="27" t="s">
@@ -35051,7 +35109,7 @@
         <v>356</v>
       </c>
       <c r="E441" s="61">
-        <f>IF(C441="","",WEEKNUM(C441,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F441" s="22" t="s">
@@ -35112,7 +35170,7 @@
         <v>356</v>
       </c>
       <c r="E442" s="61">
-        <f>IF(C442="","",WEEKNUM(C442,1))</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F442" s="22" t="s">
@@ -35170,7 +35228,7 @@
         <v>356</v>
       </c>
       <c r="E443" s="61">
-        <f>IF(C443="","",WEEKNUM(C443,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F443" s="22" t="s">
@@ -35205,7 +35263,7 @@
       <c r="R443" s="22"/>
       <c r="S443" s="22"/>
       <c r="T443" s="22">
-        <f>SUM(O443:S443)</f>
+        <f t="shared" ref="T443:T453" si="18">SUM(O443:S443)</f>
         <v>0</v>
       </c>
       <c r="U443" s="27"/>
@@ -35231,7 +35289,7 @@
         <v>356</v>
       </c>
       <c r="E444" s="61">
-        <f>IF(C444="","",WEEKNUM(C444,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F444" s="22" t="s">
@@ -35266,7 +35324,7 @@
       <c r="R444" s="22"/>
       <c r="S444" s="22"/>
       <c r="T444" s="22">
-        <f>SUM(O444:S444)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U444" s="27"/>
@@ -35292,7 +35350,7 @@
         <v>356</v>
       </c>
       <c r="E445" s="61">
-        <f>IF(C445="","",WEEKNUM(C445,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F445" s="22" t="s">
@@ -35331,7 +35389,7 @@
       <c r="R445" s="22"/>
       <c r="S445" s="22"/>
       <c r="T445" s="22">
-        <f>SUM(O445:S445)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U445" s="27" t="s">
@@ -35372,7 +35430,7 @@
         <v>356</v>
       </c>
       <c r="E446" s="61">
-        <f>IF(C446="","",WEEKNUM(C446,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F446" s="22" t="s">
@@ -35403,7 +35461,7 @@
       <c r="R446" s="22"/>
       <c r="S446" s="22"/>
       <c r="T446" s="22">
-        <f>SUM(O446:S446)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U446" s="27" t="s">
@@ -35444,7 +35502,7 @@
         <v>356</v>
       </c>
       <c r="E447" s="61">
-        <f>IF(C447="","",WEEKNUM(C447,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F447" s="22" t="s">
@@ -35479,7 +35537,7 @@
       <c r="R447" s="22"/>
       <c r="S447" s="22"/>
       <c r="T447" s="22">
-        <f>SUM(O447:S447)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U447" s="27"/>
@@ -35505,7 +35563,7 @@
         <v>356</v>
       </c>
       <c r="E448" s="61">
-        <f>IF(C448="","",WEEKNUM(C448,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F448" s="22" t="s">
@@ -35544,7 +35602,7 @@
       <c r="R448" s="22"/>
       <c r="S448" s="22"/>
       <c r="T448" s="22">
-        <f>SUM(O448:S448)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="U448" s="27" t="s">
@@ -35585,7 +35643,7 @@
         <v>356</v>
       </c>
       <c r="E449" s="61">
-        <f>IF(C449="","",WEEKNUM(C449,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F449" s="22" t="s">
@@ -35620,7 +35678,7 @@
       <c r="R449" s="22"/>
       <c r="S449" s="22"/>
       <c r="T449" s="22">
-        <f>SUM(O449:S449)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U449" s="27"/>
@@ -35646,7 +35704,7 @@
         <v>356</v>
       </c>
       <c r="E450" s="61">
-        <f>IF(C450="","",WEEKNUM(C450,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F450" s="22" t="s">
@@ -35685,7 +35743,7 @@
       <c r="R450" s="22"/>
       <c r="S450" s="22"/>
       <c r="T450" s="22">
-        <f>SUM(O450:S450)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="U450" s="27" t="s">
@@ -35726,7 +35784,7 @@
         <v>356</v>
       </c>
       <c r="E451" s="61">
-        <f>IF(C451="","",WEEKNUM(C451,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F451" s="22" t="s">
@@ -35757,7 +35815,7 @@
       </c>
       <c r="S451" s="22"/>
       <c r="T451" s="22">
-        <f>SUM(O451:S451)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U451" s="27" t="s">
@@ -35798,7 +35856,7 @@
         <v>356</v>
       </c>
       <c r="E452" s="61">
-        <f>IF(C452="","",WEEKNUM(C452,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F452" s="22" t="s">
@@ -35829,7 +35887,7 @@
       <c r="R452" s="22"/>
       <c r="S452" s="22"/>
       <c r="T452" s="22">
-        <f>SUM(O452:S452)</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="U452" s="27" t="s">
@@ -35870,7 +35928,7 @@
         <v>356</v>
       </c>
       <c r="E453" s="61">
-        <f>IF(C453="","",WEEKNUM(C453,1))</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F453" s="22" t="s">
@@ -35909,7 +35967,7 @@
       <c r="R453" s="22"/>
       <c r="S453" s="22"/>
       <c r="T453" s="22">
-        <f>SUM(O453:S453)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U453" s="27" t="s">
@@ -49412,7 +49470,7 @@
         <v>487</v>
       </c>
       <c r="E709" s="4">
-        <f>IF(C709="","",WEEKNUM(C709,1))</f>
+        <f t="shared" ref="E709:E721" si="19">IF(C709="","",WEEKNUM(C709,1))</f>
         <v>22</v>
       </c>
       <c r="F709" s="5" t="s">
@@ -49441,7 +49499,7 @@
         <v>37</v>
       </c>
       <c r="T709" s="12">
-        <f>SUM(O709:S709)</f>
+        <f t="shared" ref="T709:T721" si="20">SUM(O709:S709)</f>
         <v>0</v>
       </c>
     </row>
@@ -49459,7 +49517,7 @@
         <v>487</v>
       </c>
       <c r="E710" s="4">
-        <f>IF(C710="","",WEEKNUM(C710,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F710" s="5" t="s">
@@ -49488,7 +49546,7 @@
         <v>37</v>
       </c>
       <c r="T710" s="12">
-        <f>SUM(O710:S710)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49506,7 +49564,7 @@
         <v>487</v>
       </c>
       <c r="E711" s="4">
-        <f>IF(C711="","",WEEKNUM(C711,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F711" s="5" t="s">
@@ -49535,7 +49593,7 @@
         <v>37</v>
       </c>
       <c r="T711" s="12">
-        <f>SUM(O711:S711)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49553,7 +49611,7 @@
         <v>487</v>
       </c>
       <c r="E712" s="4">
-        <f>IF(C712="","",WEEKNUM(C712,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F712" s="5" t="s">
@@ -49582,7 +49640,7 @@
         <v>37</v>
       </c>
       <c r="T712" s="12">
-        <f>SUM(O712:S712)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49600,7 +49658,7 @@
         <v>487</v>
       </c>
       <c r="E713" s="4">
-        <f>IF(C713="","",WEEKNUM(C713,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F713" s="5" t="s">
@@ -49629,7 +49687,7 @@
         <v>37</v>
       </c>
       <c r="T713" s="12">
-        <f>SUM(O713:S713)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49647,7 +49705,7 @@
         <v>487</v>
       </c>
       <c r="E714" s="4">
-        <f>IF(C714="","",WEEKNUM(C714,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F714" s="5" t="s">
@@ -49676,7 +49734,7 @@
         <v>37</v>
       </c>
       <c r="T714" s="12">
-        <f>SUM(O714:S714)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC714" s="8" t="s">
@@ -49697,7 +49755,7 @@
         <v>487</v>
       </c>
       <c r="E715" s="4">
-        <f>IF(C715="","",WEEKNUM(C715,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F715" s="5" t="s">
@@ -49726,7 +49784,7 @@
         <v>37</v>
       </c>
       <c r="T715" s="12">
-        <f>SUM(O715:S715)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC715" s="8" t="s">
@@ -49747,7 +49805,7 @@
         <v>487</v>
       </c>
       <c r="E716" s="4">
-        <f>IF(C716="","",WEEKNUM(C716,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F716" s="5" t="s">
@@ -49776,7 +49834,7 @@
         <v>37</v>
       </c>
       <c r="T716" s="12">
-        <f>SUM(O716:S716)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49794,7 +49852,7 @@
         <v>487</v>
       </c>
       <c r="E717" s="4">
-        <f>IF(C717="","",WEEKNUM(C717,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F717" s="5" t="s">
@@ -49823,7 +49881,7 @@
         <v>37</v>
       </c>
       <c r="T717" s="12">
-        <f>SUM(O717:S717)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49841,7 +49899,7 @@
         <v>487</v>
       </c>
       <c r="E718" s="4">
-        <f>IF(C718="","",WEEKNUM(C718,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F718" s="5" t="s">
@@ -49870,7 +49928,7 @@
         <v>37</v>
       </c>
       <c r="T718" s="12">
-        <f>SUM(O718:S718)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49888,7 +49946,7 @@
         <v>487</v>
       </c>
       <c r="E719" s="4">
-        <f>IF(C719="","",WEEKNUM(C719,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F719" s="5" t="s">
@@ -49917,7 +49975,7 @@
         <v>37</v>
       </c>
       <c r="T719" s="12">
-        <f>SUM(O719:S719)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49935,7 +49993,7 @@
         <v>487</v>
       </c>
       <c r="E720" s="4">
-        <f>IF(C720="","",WEEKNUM(C720,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F720" s="5" t="s">
@@ -49964,7 +50022,7 @@
         <v>37</v>
       </c>
       <c r="T720" s="12">
-        <f>SUM(O720:S720)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -49982,7 +50040,7 @@
         <v>487</v>
       </c>
       <c r="E721" s="4">
-        <f>IF(C721="","",WEEKNUM(C721,1))</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="F721" s="5" t="s">
@@ -50011,7 +50069,7 @@
         <v>37</v>
       </c>
       <c r="T721" s="12">
-        <f>SUM(O721:S721)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -53512,6 +53570,1690 @@
       </c>
       <c r="Z789" s="11" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="790" customHeight="1" spans="1:20">
+      <c r="A790" s="1">
+        <v>789</v>
+      </c>
+      <c r="B790" s="1">
+        <v>240618001</v>
+      </c>
+      <c r="C790" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E790" s="4">
+        <v>25</v>
+      </c>
+      <c r="F790" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G790" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H790" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I790" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J790" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K790" s="8">
+        <v>474</v>
+      </c>
+      <c r="L790" s="8">
+        <v>32</v>
+      </c>
+      <c r="N790" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T790" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" customHeight="1" spans="1:20">
+      <c r="A791" s="1">
+        <v>790</v>
+      </c>
+      <c r="B791" s="1">
+        <v>240618002</v>
+      </c>
+      <c r="C791" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E791" s="4">
+        <v>25</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G791" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="H791" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I791" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J791" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K791" s="8">
+        <v>92</v>
+      </c>
+      <c r="L791" s="8">
+        <v>8</v>
+      </c>
+      <c r="N791" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T791" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" customHeight="1" spans="1:20">
+      <c r="A792" s="1">
+        <v>791</v>
+      </c>
+      <c r="B792" s="1">
+        <v>240618003</v>
+      </c>
+      <c r="C792" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E792" s="4">
+        <v>25</v>
+      </c>
+      <c r="F792" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G792" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H792" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I792" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J792" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K792" s="8">
+        <v>1744</v>
+      </c>
+      <c r="L792" s="8">
+        <v>50</v>
+      </c>
+      <c r="N792" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T792" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" customHeight="1" spans="1:20">
+      <c r="A793" s="1">
+        <v>792</v>
+      </c>
+      <c r="B793" s="1">
+        <v>240618004</v>
+      </c>
+      <c r="C793" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E793" s="4">
+        <v>25</v>
+      </c>
+      <c r="F793" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G793" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H793" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I793" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J793" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K793" s="8">
+        <v>23</v>
+      </c>
+      <c r="L793" s="8">
+        <v>8</v>
+      </c>
+      <c r="N793" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T793" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" customHeight="1" spans="1:20">
+      <c r="A794" s="1">
+        <v>793</v>
+      </c>
+      <c r="B794" s="1">
+        <v>240618005</v>
+      </c>
+      <c r="C794" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E794" s="4">
+        <v>25</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G794" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H794" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I794" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J794" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K794" s="8">
+        <v>1834</v>
+      </c>
+      <c r="L794" s="8">
+        <v>13</v>
+      </c>
+      <c r="N794" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T794" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" customHeight="1" spans="1:20">
+      <c r="A795" s="1">
+        <v>794</v>
+      </c>
+      <c r="B795" s="1">
+        <v>240619001</v>
+      </c>
+      <c r="C795" s="3">
+        <v>45462</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E795" s="4